--- a/MUSCCArm.xlsx
+++ b/MUSCCArm.xlsx
@@ -6283,15 +6283,129 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="225" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="133" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="161" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="162" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="188" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="139" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="194" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="195" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6301,12 +6415,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="205" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="139" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6334,112 +6442,7 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="194" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="188" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="133" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6450,9 +6453,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7210,7 +7210,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7437,7 +7436,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7509,7 +7507,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7635,7 +7632,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9308,7 +9304,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9380,7 +9375,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9427,7 +9421,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9495,7 +9488,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9722,7 +9714,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9794,7 +9785,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9920,7 +9910,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11593,7 +11582,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11665,7 +11653,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11712,7 +11699,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11796,7 +11782,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12549,7 +12534,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12773,7 +12757,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13526,7 +13509,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15595,6 +15577,150 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15863,7 +15989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD792"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16173,21 +16299,21 @@
       <c r="E10" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="628" t="str">
+      <c r="F10" s="578" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="628"/>
+      <c r="G10" s="578"/>
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
       <c r="J10" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="621" t="str">
+      <c r="K10" s="579" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="621"/>
+      <c r="L10" s="579"/>
       <c r="M10" s="362"/>
       <c r="O10" s="14"/>
       <c r="Q10" s="2" t="s">
@@ -16230,21 +16356,21 @@
       <c r="E11" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="622" t="str">
+      <c r="F11" s="580" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="622"/>
+      <c r="G11" s="580"/>
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
       <c r="J11" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="622" t="str">
+      <c r="K11" s="580" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="622"/>
+      <c r="L11" s="580"/>
       <c r="M11" s="362"/>
       <c r="O11" s="14"/>
       <c r="Q11" s="2" t="s">
@@ -16287,21 +16413,21 @@
       <c r="E12" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="622" t="str">
+      <c r="F12" s="580" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="622"/>
+      <c r="G12" s="580"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
       <c r="J12" s="165" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="629" t="str">
+      <c r="K12" s="581" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="629"/>
+      <c r="L12" s="581"/>
       <c r="M12" s="362"/>
       <c r="O12" s="14"/>
       <c r="Q12" s="2" t="s">
@@ -16344,21 +16470,21 @@
       <c r="E13" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="623" t="str">
+      <c r="F13" s="582" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="623"/>
+      <c r="G13" s="582"/>
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
       <c r="J13" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="623" t="str">
+      <c r="K13" s="582" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="623"/>
+      <c r="L13" s="582"/>
       <c r="M13" s="362"/>
       <c r="O13" s="14"/>
       <c r="Q13" s="2" t="s">
@@ -16481,21 +16607,21 @@
       <c r="E16" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="628" t="str">
+      <c r="F16" s="578" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="628"/>
+      <c r="G16" s="578"/>
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
       <c r="J16" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="630" t="str">
+      <c r="K16" s="583" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="630"/>
+      <c r="L16" s="583"/>
       <c r="M16" s="362"/>
       <c r="O16" s="14"/>
       <c r="P16" s="53" t="s">
@@ -16525,21 +16651,21 @@
       <c r="E17" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="622" t="str">
+      <c r="F17" s="580" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="622"/>
+      <c r="G17" s="580"/>
       <c r="H17" s="45"/>
       <c r="I17" s="45"/>
       <c r="J17" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="623" t="str">
+      <c r="K17" s="582" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="623"/>
+      <c r="L17" s="582"/>
       <c r="M17" s="362"/>
       <c r="O17" s="14"/>
       <c r="Q17" s="2" t="s">
@@ -16582,21 +16708,21 @@
       <c r="E18" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="623" t="str">
+      <c r="F18" s="582" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="623"/>
+      <c r="G18" s="582"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
       <c r="J18" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="623" t="str">
+      <c r="K18" s="582" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="623"/>
+      <c r="L18" s="582"/>
       <c r="M18" s="362"/>
       <c r="O18" s="14"/>
       <c r="Q18" s="2" t="s">
@@ -16644,11 +16770,11 @@
       <c r="J19" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="623" t="str">
+      <c r="K19" s="582" t="str">
         <f>IF(V20="","",V20)</f>
         <v/>
       </c>
-      <c r="L19" s="623"/>
+      <c r="L19" s="582"/>
       <c r="M19" s="362"/>
       <c r="O19" s="14"/>
       <c r="Q19" s="2" t="s">
@@ -16723,11 +16849,11 @@
       <c r="E21" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="628" t="str">
+      <c r="F21" s="578" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="628"/>
+      <c r="G21" s="578"/>
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
       <c r="J21" s="76" t="s">
@@ -16767,21 +16893,21 @@
       <c r="E22" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="629" t="str">
+      <c r="F22" s="581" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="629"/>
+      <c r="G22" s="581"/>
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
       <c r="J22" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="K22" s="628" t="str">
+      <c r="K22" s="578" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="628"/>
+      <c r="L22" s="578"/>
       <c r="M22" s="362"/>
       <c r="O22" s="14"/>
       <c r="Q22" s="2" t="s">
@@ -16826,11 +16952,11 @@
       <c r="J23" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="K23" s="622" t="str">
+      <c r="K23" s="580" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="622"/>
+      <c r="L23" s="580"/>
       <c r="M23" s="362"/>
       <c r="O23" s="14"/>
       <c r="Q23" s="2" t="s">
@@ -16873,21 +16999,21 @@
       <c r="E24" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="621" t="str">
+      <c r="F24" s="579" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="621"/>
+      <c r="G24" s="579"/>
       <c r="H24" s="45"/>
       <c r="I24" s="45"/>
       <c r="J24" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="622" t="str">
+      <c r="K24" s="580" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="622"/>
+      <c r="L24" s="580"/>
       <c r="M24" s="362"/>
       <c r="O24" s="14"/>
       <c r="P24" s="53" t="s">
@@ -16925,11 +17051,11 @@
       <c r="E25" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="623" t="str">
+      <c r="F25" s="582" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="623"/>
+      <c r="G25" s="582"/>
       <c r="H25" s="45"/>
       <c r="I25" s="45"/>
       <c r="J25" s="45"/>
@@ -16977,11 +17103,11 @@
       <c r="E26" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="623" t="str">
+      <c r="F26" s="582" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="623"/>
+      <c r="G26" s="582"/>
       <c r="H26" s="45"/>
       <c r="I26" s="45"/>
       <c r="J26" s="363" t="s">
@@ -17030,11 +17156,11 @@
       <c r="J27" s="165" t="s">
         <v>47</v>
       </c>
-      <c r="K27" s="628" t="str">
+      <c r="K27" s="578" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="628"/>
+      <c r="L27" s="578"/>
       <c r="M27" s="362"/>
       <c r="O27" s="14"/>
       <c r="Q27" s="2" t="s">
@@ -17072,21 +17198,21 @@
       <c r="E28" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="621" t="str">
+      <c r="F28" s="579" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="621"/>
+      <c r="G28" s="579"/>
       <c r="H28" s="45"/>
       <c r="I28" s="45"/>
       <c r="J28" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="K28" s="622" t="str">
+      <c r="K28" s="580" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="622"/>
+      <c r="L28" s="580"/>
       <c r="M28" s="362"/>
       <c r="O28" s="14"/>
       <c r="P28" s="53" t="s">
@@ -17115,11 +17241,11 @@
       <c r="E29" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="623" t="str">
+      <c r="F29" s="582" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="623"/>
+      <c r="G29" s="582"/>
       <c r="H29" s="45"/>
       <c r="I29" s="45"/>
       <c r="J29" s="45"/>
@@ -17167,11 +17293,11 @@
       <c r="E30" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="623" t="str">
+      <c r="F30" s="582" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="623"/>
+      <c r="G30" s="582"/>
       <c r="H30" s="45"/>
       <c r="I30" s="45"/>
       <c r="J30" s="45"/>
@@ -17286,11 +17412,11 @@
       <c r="E33" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="628" t="str">
+      <c r="F33" s="578" t="str">
         <f>IF(R34="","",R34)</f>
         <v/>
       </c>
-      <c r="G33" s="628"/>
+      <c r="G33" s="578"/>
       <c r="H33" s="45"/>
       <c r="I33" s="45"/>
       <c r="J33" s="76" t="s">
@@ -17327,21 +17453,21 @@
       <c r="E34" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="629" t="str">
+      <c r="F34" s="581" t="str">
         <f>IF(R35="","",R35)</f>
         <v/>
       </c>
-      <c r="G34" s="629"/>
+      <c r="G34" s="581"/>
       <c r="H34" s="45"/>
       <c r="I34" s="45"/>
       <c r="J34" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="K34" s="628" t="str">
+      <c r="K34" s="578" t="str">
         <f>IF(V35="","",V35)</f>
         <v/>
       </c>
-      <c r="L34" s="628"/>
+      <c r="L34" s="578"/>
       <c r="M34" s="362"/>
       <c r="O34" s="14"/>
       <c r="Q34" s="2" t="s">
@@ -17386,11 +17512,11 @@
       <c r="J35" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="K35" s="622" t="str">
+      <c r="K35" s="580" t="str">
         <f>IF(V36="","",V36)</f>
         <v/>
       </c>
-      <c r="L35" s="622"/>
+      <c r="L35" s="580"/>
       <c r="M35" s="362"/>
       <c r="O35" s="14"/>
       <c r="Q35" s="2" t="s">
@@ -17433,21 +17559,21 @@
       <c r="E36" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="621" t="str">
+      <c r="F36" s="579" t="str">
         <f>IF(R37="","",R37)</f>
         <v/>
       </c>
-      <c r="G36" s="621"/>
+      <c r="G36" s="579"/>
       <c r="H36" s="45"/>
       <c r="I36" s="45"/>
       <c r="J36" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="K36" s="622" t="str">
+      <c r="K36" s="580" t="str">
         <f>IF(V37="","",V37)</f>
         <v/>
       </c>
-      <c r="L36" s="622"/>
+      <c r="L36" s="580"/>
       <c r="M36" s="362"/>
       <c r="O36" s="14"/>
       <c r="P36" s="53" t="s">
@@ -17485,11 +17611,11 @@
       <c r="E37" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="623" t="str">
+      <c r="F37" s="582" t="str">
         <f>IF(R38="","",R38)</f>
         <v/>
       </c>
-      <c r="G37" s="623"/>
+      <c r="G37" s="582"/>
       <c r="H37" s="45"/>
       <c r="I37" s="45"/>
       <c r="J37" s="45"/>
@@ -17537,11 +17663,11 @@
       <c r="E38" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="623" t="str">
+      <c r="F38" s="582" t="str">
         <f>IF(R39="","",R39)</f>
         <v/>
       </c>
-      <c r="G38" s="623"/>
+      <c r="G38" s="582"/>
       <c r="H38" s="45"/>
       <c r="I38" s="45"/>
       <c r="J38" s="363" t="s">
@@ -17588,11 +17714,11 @@
       <c r="J39" s="165" t="s">
         <v>47</v>
       </c>
-      <c r="K39" s="628" t="str">
+      <c r="K39" s="578" t="str">
         <f>IF(V40="","",V40)</f>
         <v/>
       </c>
-      <c r="L39" s="628"/>
+      <c r="L39" s="578"/>
       <c r="M39" s="362"/>
       <c r="O39" s="14"/>
       <c r="Q39" s="2" t="s">
@@ -17630,21 +17756,21 @@
       <c r="E40" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="621" t="str">
+      <c r="F40" s="579" t="str">
         <f>IF(R41="","",R41)</f>
         <v/>
       </c>
-      <c r="G40" s="621"/>
+      <c r="G40" s="579"/>
       <c r="H40" s="45"/>
       <c r="I40" s="45"/>
       <c r="J40" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="K40" s="622" t="str">
+      <c r="K40" s="580" t="str">
         <f>IF(V41="","",V41)</f>
         <v/>
       </c>
-      <c r="L40" s="622"/>
+      <c r="L40" s="580"/>
       <c r="M40" s="362"/>
       <c r="O40" s="14"/>
       <c r="P40" s="53" t="s">
@@ -17682,11 +17808,11 @@
       <c r="E41" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="623" t="str">
+      <c r="F41" s="582" t="str">
         <f>IF(R42="","",R42)</f>
         <v/>
       </c>
-      <c r="G41" s="623"/>
+      <c r="G41" s="582"/>
       <c r="H41" s="45"/>
       <c r="I41" s="45"/>
       <c r="J41" s="45"/>
@@ -17734,11 +17860,11 @@
       <c r="E42" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="623" t="str">
+      <c r="F42" s="582" t="str">
         <f>IF(R43="","",R43)</f>
         <v/>
       </c>
-      <c r="G42" s="623"/>
+      <c r="G42" s="582"/>
       <c r="H42" s="45"/>
       <c r="I42" s="45"/>
       <c r="J42" s="45"/>
@@ -18496,10 +18622,10 @@
       <c r="I69" s="349"/>
       <c r="J69" s="349"/>
       <c r="K69" s="349"/>
-      <c r="L69" s="624" t="s">
+      <c r="L69" s="584" t="s">
         <v>86</v>
       </c>
-      <c r="M69" s="625"/>
+      <c r="M69" s="585"/>
       <c r="O69" s="59"/>
       <c r="P69" s="18" t="s">
         <v>87</v>
@@ -20131,24 +20257,24 @@
       <c r="P107" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="Q107" s="626" t="str">
+      <c r="Q107" s="586" t="str">
         <f>IF(Q106&lt;&gt;"",Q106,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R107" s="626"/>
-      <c r="S107" s="626"/>
-      <c r="T107" s="627" t="str">
+      <c r="R107" s="586"/>
+      <c r="S107" s="586"/>
+      <c r="T107" s="587" t="str">
         <f>IF(T106&lt;&gt;"",T106,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v>Auto 2</v>
       </c>
-      <c r="U107" s="627"/>
-      <c r="V107" s="627"/>
-      <c r="W107" s="627" t="str">
+      <c r="U107" s="587"/>
+      <c r="V107" s="587"/>
+      <c r="W107" s="587" t="str">
         <f>IF(W106&lt;&gt;"",W106,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v>High Level</v>
       </c>
-      <c r="X107" s="627"/>
-      <c r="Y107" s="627"/>
+      <c r="X107" s="587"/>
+      <c r="Y107" s="587"/>
       <c r="AA107" s="2" t="s">
         <v>113</v>
       </c>
@@ -22142,24 +22268,24 @@
       <c r="P139" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="Q139" s="626" t="str">
+      <c r="Q139" s="586" t="str">
         <f>IF(Q138&lt;&gt;"",Q138,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R139" s="626"/>
-      <c r="S139" s="626"/>
-      <c r="T139" s="627" t="str">
+      <c r="R139" s="586"/>
+      <c r="S139" s="586"/>
+      <c r="T139" s="587" t="str">
         <f>IF(T138&lt;&gt;"",T138,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v>Auto 2</v>
       </c>
-      <c r="U139" s="627"/>
-      <c r="V139" s="627"/>
-      <c r="W139" s="627" t="str">
+      <c r="U139" s="587"/>
+      <c r="V139" s="587"/>
+      <c r="W139" s="587" t="str">
         <f>IF(W138&lt;&gt;"",W138,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v>High Level</v>
       </c>
-      <c r="X139" s="627"/>
-      <c r="Y139" s="627"/>
+      <c r="X139" s="587"/>
+      <c r="Y139" s="587"/>
       <c r="AA139" s="2" t="str">
         <f>$W$139&amp;" Mag 2"</f>
         <v>High Level Mag 2</v>
@@ -24502,10 +24628,10 @@
       <c r="P181" s="138"/>
       <c r="Q181" s="140"/>
       <c r="R181" s="131"/>
-      <c r="T181" s="603" t="s">
+      <c r="T181" s="588" t="s">
         <v>247</v>
       </c>
-      <c r="U181" s="603"/>
+      <c r="U181" s="588"/>
       <c r="W181" s="2" t="s">
         <v>201</v>
       </c>
@@ -24876,7 +25002,7 @@
       <c r="K190" s="373"/>
       <c r="L190" s="373"/>
       <c r="M190" s="377"/>
-      <c r="O190" s="611" t="str">
+      <c r="O190" s="589" t="str">
         <f>$Q$107</f>
         <v>Auto 1</v>
       </c>
@@ -24926,7 +25052,7 @@
       <c r="K191" s="373"/>
       <c r="L191" s="373"/>
       <c r="M191" s="353"/>
-      <c r="O191" s="611"/>
+      <c r="O191" s="589"/>
       <c r="P191" s="147" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -24972,7 +25098,7 @@
       <c r="K192" s="138"/>
       <c r="L192" s="138"/>
       <c r="M192" s="353"/>
-      <c r="O192" s="611"/>
+      <c r="O192" s="589"/>
       <c r="P192" s="147" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -25018,7 +25144,7 @@
       <c r="K193" s="138"/>
       <c r="L193" s="138"/>
       <c r="M193" s="353"/>
-      <c r="O193" s="611"/>
+      <c r="O193" s="589"/>
       <c r="P193" s="147" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -25061,7 +25187,7 @@
       <c r="K194" s="138"/>
       <c r="L194" s="138"/>
       <c r="M194" s="353"/>
-      <c r="O194" s="611"/>
+      <c r="O194" s="589"/>
       <c r="P194" s="137" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -25104,7 +25230,7 @@
       <c r="K195" s="138"/>
       <c r="L195" s="138"/>
       <c r="M195" s="353"/>
-      <c r="O195" s="611" t="str">
+      <c r="O195" s="589" t="str">
         <f>$T$107</f>
         <v>Auto 2</v>
       </c>
@@ -25150,7 +25276,7 @@
       <c r="K196" s="355"/>
       <c r="L196" s="355"/>
       <c r="M196" s="356"/>
-      <c r="O196" s="611"/>
+      <c r="O196" s="589"/>
       <c r="P196" s="147" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -25195,7 +25321,7 @@
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="O197" s="611"/>
+      <c r="O197" s="589"/>
       <c r="P197" s="147" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -25240,7 +25366,7 @@
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
-      <c r="O198" s="611"/>
+      <c r="O198" s="589"/>
       <c r="P198" s="147" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -25286,7 +25412,7 @@
         <f>$H$2</f>
         <v>Medical University of South Carolina</v>
       </c>
-      <c r="O199" s="611"/>
+      <c r="O199" s="589"/>
       <c r="P199" s="137" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -25335,7 +25461,7 @@
         <f>$H$5</f>
         <v>Fluoroscopy System Compliance Inspection</v>
       </c>
-      <c r="O200" s="611" t="str">
+      <c r="O200" s="589" t="str">
         <f>$W$107</f>
         <v>High Level</v>
       </c>
@@ -25384,7 +25510,7 @@
       <c r="K201" s="349"/>
       <c r="L201" s="349"/>
       <c r="M201" s="350"/>
-      <c r="O201" s="611"/>
+      <c r="O201" s="589"/>
       <c r="P201" s="147" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -25418,24 +25544,24 @@
       <c r="B202" s="351"/>
       <c r="C202" s="401"/>
       <c r="D202" s="373"/>
-      <c r="E202" s="614" t="s">
+      <c r="E202" s="590" t="s">
         <v>264</v>
       </c>
-      <c r="F202" s="615" t="s">
+      <c r="F202" s="591" t="s">
         <v>265</v>
       </c>
-      <c r="G202" s="616" t="s">
+      <c r="G202" s="592" t="s">
         <v>266</v>
       </c>
-      <c r="H202" s="617" t="str">
+      <c r="H202" s="593" t="str">
         <f>R276</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="I202" s="618" t="str">
+      <c r="I202" s="594" t="str">
         <f>S276</f>
         <v>Meas AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="J202" s="619" t="s">
+      <c r="J202" s="595" t="s">
         <v>267</v>
       </c>
       <c r="K202" s="138" t="s">
@@ -25444,10 +25570,10 @@
       <c r="L202" s="138" t="s">
         <v>269</v>
       </c>
-      <c r="M202" s="620" t="s">
+      <c r="M202" s="596" t="s">
         <v>270</v>
       </c>
-      <c r="O202" s="611"/>
+      <c r="O202" s="589"/>
       <c r="P202" s="147" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -25485,12 +25611,12 @@
       <c r="D203" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="E203" s="614"/>
-      <c r="F203" s="615"/>
-      <c r="G203" s="616"/>
-      <c r="H203" s="617"/>
-      <c r="I203" s="618"/>
-      <c r="J203" s="619"/>
+      <c r="E203" s="590"/>
+      <c r="F203" s="591"/>
+      <c r="G203" s="592"/>
+      <c r="H203" s="593"/>
+      <c r="I203" s="594"/>
+      <c r="J203" s="595"/>
       <c r="K203" s="138" t="str">
         <f>U277</f>
         <v>mGy/min</v>
@@ -25499,8 +25625,8 @@
         <f>V277</f>
         <v>mGy/min</v>
       </c>
-      <c r="M203" s="620"/>
-      <c r="O203" s="611"/>
+      <c r="M203" s="596"/>
+      <c r="O203" s="589"/>
       <c r="P203" s="147" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -25576,7 +25702,7 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="O204" s="611"/>
+      <c r="O204" s="589"/>
       <c r="P204" s="137" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -26235,7 +26361,7 @@
       <c r="K214" s="373"/>
       <c r="L214" s="373"/>
       <c r="M214" s="353"/>
-      <c r="O214" s="611" t="str">
+      <c r="O214" s="589" t="str">
         <f>$Q$139</f>
         <v>Auto 1</v>
       </c>
@@ -26285,7 +26411,7 @@
       <c r="K215" s="422"/>
       <c r="L215" s="422"/>
       <c r="M215" s="423"/>
-      <c r="O215" s="611"/>
+      <c r="O215" s="589"/>
       <c r="P215" s="147" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -26335,7 +26461,7 @@
       <c r="K216" s="373"/>
       <c r="L216" s="373"/>
       <c r="M216" s="353"/>
-      <c r="O216" s="611"/>
+      <c r="O216" s="589"/>
       <c r="P216" s="147" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -26381,7 +26507,7 @@
       <c r="K217" s="373"/>
       <c r="L217" s="373"/>
       <c r="M217" s="377"/>
-      <c r="O217" s="611"/>
+      <c r="O217" s="589"/>
       <c r="P217" s="147" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -26429,7 +26555,7 @@
       <c r="K218" s="373"/>
       <c r="L218" s="373"/>
       <c r="M218" s="377"/>
-      <c r="O218" s="611"/>
+      <c r="O218" s="589"/>
       <c r="P218" s="137" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -26472,7 +26598,7 @@
       <c r="K219" s="373"/>
       <c r="L219" s="373"/>
       <c r="M219" s="377"/>
-      <c r="O219" s="611" t="str">
+      <c r="O219" s="589" t="str">
         <f>$T$139</f>
         <v>Auto 2</v>
       </c>
@@ -26522,7 +26648,7 @@
       <c r="K220" s="373"/>
       <c r="L220" s="373"/>
       <c r="M220" s="377"/>
-      <c r="O220" s="611"/>
+      <c r="O220" s="589"/>
       <c r="P220" s="147" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -26575,7 +26701,7 @@
       <c r="K221" s="373"/>
       <c r="L221" s="373"/>
       <c r="M221" s="377"/>
-      <c r="O221" s="611"/>
+      <c r="O221" s="589"/>
       <c r="P221" s="147" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -26633,7 +26759,7 @@
       <c r="K222" s="373"/>
       <c r="L222" s="373"/>
       <c r="M222" s="377"/>
-      <c r="O222" s="611"/>
+      <c r="O222" s="589"/>
       <c r="P222" s="147" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -26688,7 +26814,7 @@
       <c r="K223" s="373"/>
       <c r="L223" s="373"/>
       <c r="M223" s="377"/>
-      <c r="O223" s="611"/>
+      <c r="O223" s="589"/>
       <c r="P223" s="137" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -26743,7 +26869,7 @@
       <c r="K224" s="373"/>
       <c r="L224" s="373"/>
       <c r="M224" s="377"/>
-      <c r="O224" s="611" t="str">
+      <c r="O224" s="589" t="str">
         <f>$W$139</f>
         <v>High Level</v>
       </c>
@@ -26801,7 +26927,7 @@
       <c r="K225" s="373"/>
       <c r="L225" s="373"/>
       <c r="M225" s="377"/>
-      <c r="O225" s="611"/>
+      <c r="O225" s="589"/>
       <c r="P225" s="147" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -26852,7 +26978,7 @@
       <c r="K226" s="373"/>
       <c r="L226" s="373"/>
       <c r="M226" s="377"/>
-      <c r="O226" s="611"/>
+      <c r="O226" s="589"/>
       <c r="P226" s="147" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -26906,7 +27032,7 @@
       <c r="K227" s="373"/>
       <c r="L227" s="373"/>
       <c r="M227" s="377"/>
-      <c r="O227" s="611"/>
+      <c r="O227" s="589"/>
       <c r="P227" s="147" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -26954,7 +27080,7 @@
       <c r="K228" s="373"/>
       <c r="L228" s="373"/>
       <c r="M228" s="377"/>
-      <c r="O228" s="611"/>
+      <c r="O228" s="589"/>
       <c r="P228" s="137" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -27480,7 +27606,7 @@
       <c r="K240" s="373"/>
       <c r="L240" s="373"/>
       <c r="M240" s="377"/>
-      <c r="O240" s="612" t="s">
+      <c r="O240" s="597" t="s">
         <v>296</v>
       </c>
       <c r="P240" s="172" t="s">
@@ -27542,7 +27668,7 @@
       <c r="K241" s="373"/>
       <c r="L241" s="373"/>
       <c r="M241" s="377"/>
-      <c r="O241" s="612"/>
+      <c r="O241" s="597"/>
       <c r="P241" s="177" t="s">
         <v>299</v>
       </c>
@@ -27593,7 +27719,7 @@
       <c r="K242" s="373"/>
       <c r="L242" s="373"/>
       <c r="M242" s="377"/>
-      <c r="O242" s="612" t="str">
+      <c r="O242" s="597" t="str">
         <f>IF($U$137=1,"Scatter - Pulse", "Scatter – Digital acq")</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -27653,7 +27779,7 @@
       <c r="K243" s="373"/>
       <c r="L243" s="373"/>
       <c r="M243" s="377"/>
-      <c r="O243" s="612"/>
+      <c r="O243" s="597"/>
       <c r="P243" s="177" t="s">
         <v>299</v>
       </c>
@@ -28179,17 +28305,17 @@
       <c r="P257" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="Q257" s="613" t="s">
+      <c r="Q257" s="598" t="s">
         <v>315</v>
       </c>
-      <c r="R257" s="613"/>
+      <c r="R257" s="598"/>
       <c r="S257" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="T257" s="613" t="s">
+      <c r="T257" s="598" t="s">
         <v>317</v>
       </c>
-      <c r="U257" s="613"/>
+      <c r="U257" s="598"/>
       <c r="V257" s="1" t="s">
         <v>318</v>
       </c>
@@ -28654,24 +28780,24 @@
         <f t="shared" si="41"/>
         <v>Attenuator</v>
       </c>
-      <c r="E269" s="605" t="str">
+      <c r="E269" s="599" t="str">
         <f>Q107</f>
         <v>Auto 1</v>
       </c>
-      <c r="F269" s="606"/>
-      <c r="G269" s="606"/>
-      <c r="H269" s="606" t="str">
+      <c r="F269" s="600"/>
+      <c r="G269" s="600"/>
+      <c r="H269" s="600" t="str">
         <f>T107</f>
         <v>Auto 2</v>
       </c>
-      <c r="I269" s="606"/>
-      <c r="J269" s="606"/>
-      <c r="K269" s="607" t="str">
+      <c r="I269" s="600"/>
+      <c r="J269" s="600"/>
+      <c r="K269" s="601" t="str">
         <f>W107</f>
         <v>High Level</v>
       </c>
-      <c r="L269" s="607"/>
-      <c r="M269" s="608"/>
+      <c r="L269" s="601"/>
+      <c r="M269" s="602"/>
       <c r="O269" s="196" t="str">
         <f t="shared" si="42"/>
         <v/>
@@ -28773,7 +28899,7 @@
         <v>7</v>
       </c>
       <c r="B271" s="351"/>
-      <c r="C271" s="595" t="str">
+      <c r="C271" s="603" t="str">
         <f>O110&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -28842,7 +28968,7 @@
         <v>8</v>
       </c>
       <c r="B272" s="351"/>
-      <c r="C272" s="595"/>
+      <c r="C272" s="603"/>
       <c r="D272" s="449">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -28915,7 +29041,7 @@
         <v>9</v>
       </c>
       <c r="B273" s="351"/>
-      <c r="C273" s="595"/>
+      <c r="C273" s="603"/>
       <c r="D273" s="452">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -28981,7 +29107,7 @@
         <v>10</v>
       </c>
       <c r="B274" s="351"/>
-      <c r="C274" s="595" t="str">
+      <c r="C274" s="603" t="str">
         <f>O113&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -29057,7 +29183,7 @@
         <v>11</v>
       </c>
       <c r="B275" s="351"/>
-      <c r="C275" s="595"/>
+      <c r="C275" s="603"/>
       <c r="D275" s="449">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -29123,7 +29249,7 @@
         <v>12</v>
       </c>
       <c r="B276" s="351"/>
-      <c r="C276" s="595"/>
+      <c r="C276" s="603"/>
       <c r="D276" s="452">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -29164,17 +29290,17 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="O276" s="609" t="s">
+      <c r="O276" s="604" t="s">
         <v>264</v>
       </c>
-      <c r="P276" s="610" t="s">
+      <c r="P276" s="605" t="s">
         <v>265</v>
       </c>
-      <c r="R276" s="610" t="str">
+      <c r="R276" s="605" t="str">
         <f>"Ind AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="S276" s="610" t="str">
+      <c r="S276" s="605" t="str">
         <f>"Meas AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Meas AK @ Ref Pt (mGy)</v>
       </c>
@@ -29203,7 +29329,7 @@
         <v>13</v>
       </c>
       <c r="B277" s="351"/>
-      <c r="C277" s="595" t="str">
+      <c r="C277" s="603" t="str">
         <f>O116&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -29247,13 +29373,13 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="O277" s="609"/>
-      <c r="P277" s="610"/>
+      <c r="O277" s="604"/>
+      <c r="P277" s="605"/>
       <c r="Q277" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="R277" s="610"/>
-      <c r="S277" s="610"/>
+      <c r="R277" s="605"/>
+      <c r="S277" s="605"/>
       <c r="T277" s="1" t="s">
         <v>324</v>
       </c>
@@ -29288,7 +29414,7 @@
         <v>14</v>
       </c>
       <c r="B278" s="351"/>
-      <c r="C278" s="595"/>
+      <c r="C278" s="603"/>
       <c r="D278" s="449">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -29375,7 +29501,7 @@
         <v>15</v>
       </c>
       <c r="B279" s="351"/>
-      <c r="C279" s="595"/>
+      <c r="C279" s="603"/>
       <c r="D279" s="452">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -29469,7 +29595,7 @@
         <v>16</v>
       </c>
       <c r="B280" s="351"/>
-      <c r="C280" s="595" t="str">
+      <c r="C280" s="603" t="str">
         <f>O119&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -29559,7 +29685,7 @@
         <v>17</v>
       </c>
       <c r="B281" s="351"/>
-      <c r="C281" s="595"/>
+      <c r="C281" s="603"/>
       <c r="D281" s="449">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -29653,7 +29779,7 @@
         <v>18</v>
       </c>
       <c r="B282" s="351"/>
-      <c r="C282" s="595"/>
+      <c r="C282" s="603"/>
       <c r="D282" s="452">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -29740,7 +29866,7 @@
         <v>19</v>
       </c>
       <c r="B283" s="351"/>
-      <c r="C283" s="595" t="str">
+      <c r="C283" s="603" t="str">
         <f>O122&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -29837,7 +29963,7 @@
         <v>20</v>
       </c>
       <c r="B284" s="351"/>
-      <c r="C284" s="595"/>
+      <c r="C284" s="603"/>
       <c r="D284" s="449">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -29924,7 +30050,7 @@
         <v>21</v>
       </c>
       <c r="B285" s="351"/>
-      <c r="C285" s="595"/>
+      <c r="C285" s="603"/>
       <c r="D285" s="449">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -30355,12 +30481,12 @@
       <c r="L293" s="138"/>
       <c r="M293" s="353"/>
       <c r="O293" s="241"/>
-      <c r="P293" s="600" t="s">
+      <c r="P293" s="606" t="s">
         <v>330</v>
       </c>
-      <c r="Q293" s="600"/>
-      <c r="R293" s="600"/>
-      <c r="S293" s="600"/>
+      <c r="Q293" s="606"/>
+      <c r="R293" s="606"/>
+      <c r="S293" s="606"/>
       <c r="T293" s="239"/>
       <c r="U293" s="239"/>
       <c r="V293" s="239"/>
@@ -30744,12 +30870,12 @@
       <c r="L302" s="138"/>
       <c r="M302" s="353"/>
       <c r="O302" s="241"/>
-      <c r="P302" s="600" t="s">
+      <c r="P302" s="606" t="s">
         <v>330</v>
       </c>
-      <c r="Q302" s="600"/>
-      <c r="R302" s="600"/>
-      <c r="S302" s="600"/>
+      <c r="Q302" s="606"/>
+      <c r="R302" s="606"/>
+      <c r="S302" s="606"/>
       <c r="T302" s="239"/>
       <c r="U302" s="239"/>
       <c r="V302" s="239"/>
@@ -30764,7 +30890,7 @@
         <v>39</v>
       </c>
       <c r="B303" s="351"/>
-      <c r="C303" s="578" t="str">
+      <c r="C303" s="607" t="str">
         <f>O190</f>
         <v>Auto 1</v>
       </c>
@@ -30832,7 +30958,7 @@
         <v>40</v>
       </c>
       <c r="B304" s="351"/>
-      <c r="C304" s="579"/>
+      <c r="C304" s="608"/>
       <c r="D304" s="491" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -30895,7 +31021,7 @@
         <v>41</v>
       </c>
       <c r="B305" s="351"/>
-      <c r="C305" s="579"/>
+      <c r="C305" s="608"/>
       <c r="D305" s="491" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -30950,7 +31076,7 @@
         <v>42</v>
       </c>
       <c r="B306" s="351"/>
-      <c r="C306" s="579"/>
+      <c r="C306" s="608"/>
       <c r="D306" s="491" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -30995,7 +31121,7 @@
         <v>43</v>
       </c>
       <c r="B307" s="351"/>
-      <c r="C307" s="601"/>
+      <c r="C307" s="609"/>
       <c r="D307" s="494" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31047,7 +31173,7 @@
         <v>44</v>
       </c>
       <c r="B308" s="351"/>
-      <c r="C308" s="578" t="str">
+      <c r="C308" s="607" t="str">
         <f>O195</f>
         <v>Auto 2</v>
       </c>
@@ -31095,7 +31221,7 @@
         <v>45</v>
       </c>
       <c r="B309" s="351"/>
-      <c r="C309" s="579"/>
+      <c r="C309" s="608"/>
       <c r="D309" s="491" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31152,7 +31278,7 @@
         <v>46</v>
       </c>
       <c r="B310" s="351"/>
-      <c r="C310" s="579"/>
+      <c r="C310" s="608"/>
       <c r="D310" s="491" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31202,7 +31328,7 @@
         <v>47</v>
       </c>
       <c r="B311" s="351"/>
-      <c r="C311" s="579"/>
+      <c r="C311" s="608"/>
       <c r="D311" s="491" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31259,7 +31385,7 @@
         <v>48</v>
       </c>
       <c r="B312" s="351"/>
-      <c r="C312" s="580"/>
+      <c r="C312" s="610"/>
       <c r="D312" s="497" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31309,7 +31435,7 @@
         <v>49</v>
       </c>
       <c r="B313" s="351"/>
-      <c r="C313" s="602" t="str">
+      <c r="C313" s="611" t="str">
         <f>O200</f>
         <v>High Level</v>
       </c>
@@ -31368,7 +31494,7 @@
         <v>50</v>
       </c>
       <c r="B314" s="351"/>
-      <c r="C314" s="579"/>
+      <c r="C314" s="608"/>
       <c r="D314" s="491" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31411,7 +31537,7 @@
         <v>51</v>
       </c>
       <c r="B315" s="351"/>
-      <c r="C315" s="579"/>
+      <c r="C315" s="608"/>
       <c r="D315" s="491" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31454,7 +31580,7 @@
         <v>52</v>
       </c>
       <c r="B316" s="351"/>
-      <c r="C316" s="579"/>
+      <c r="C316" s="608"/>
       <c r="D316" s="491" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31499,7 +31625,7 @@
         <v>53</v>
       </c>
       <c r="B317" s="351"/>
-      <c r="C317" s="580"/>
+      <c r="C317" s="610"/>
       <c r="D317" s="497" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31609,10 +31735,10 @@
       <c r="R319" s="280"/>
       <c r="S319" s="281"/>
       <c r="T319" s="281"/>
-      <c r="V319" s="603" t="s">
+      <c r="V319" s="588" t="s">
         <v>342</v>
       </c>
-      <c r="W319" s="603"/>
+      <c r="W319" s="588"/>
       <c r="X319" s="18" t="s">
         <v>343</v>
       </c>
@@ -31813,7 +31939,7 @@
         <v>60</v>
       </c>
       <c r="B324" s="351"/>
-      <c r="C324" s="584" t="str">
+      <c r="C324" s="612" t="str">
         <f>O240</f>
         <v>Scatter – Fluoro</v>
       </c>
@@ -31863,7 +31989,7 @@
         <v>61</v>
       </c>
       <c r="B325" s="351"/>
-      <c r="C325" s="585"/>
+      <c r="C325" s="613"/>
       <c r="D325" s="506" t="str">
         <f>P241</f>
         <v>Waist level</v>
@@ -32021,13 +32147,13 @@
         <v>350</v>
       </c>
       <c r="P329" s="56"/>
-      <c r="Q329" s="604" t="s">
+      <c r="Q329" s="614" t="s">
         <v>351</v>
       </c>
-      <c r="R329" s="604"/>
-      <c r="S329" s="604"/>
-      <c r="T329" s="604"/>
-      <c r="U329" s="604"/>
+      <c r="R329" s="614"/>
+      <c r="S329" s="614"/>
+      <c r="T329" s="614"/>
+      <c r="U329" s="614"/>
       <c r="Y329" s="15"/>
     </row>
     <row r="330" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32216,24 +32342,24 @@
         <f t="shared" si="69"/>
         <v>Attenuator</v>
       </c>
-      <c r="E335" s="605" t="str">
+      <c r="E335" s="599" t="str">
         <f>Q139</f>
         <v>Auto 1</v>
       </c>
-      <c r="F335" s="606"/>
-      <c r="G335" s="606"/>
-      <c r="H335" s="606" t="str">
+      <c r="F335" s="600"/>
+      <c r="G335" s="600"/>
+      <c r="H335" s="600" t="str">
         <f>T139</f>
         <v>Auto 2</v>
       </c>
-      <c r="I335" s="606"/>
-      <c r="J335" s="606"/>
-      <c r="K335" s="607" t="str">
+      <c r="I335" s="600"/>
+      <c r="J335" s="600"/>
+      <c r="K335" s="601" t="str">
         <f>W139</f>
         <v>High Level</v>
       </c>
-      <c r="L335" s="607"/>
-      <c r="M335" s="608"/>
+      <c r="L335" s="601"/>
+      <c r="M335" s="602"/>
       <c r="O335" s="133"/>
       <c r="P335" s="132" t="s">
         <v>357</v>
@@ -32322,7 +32448,7 @@
         <v>7</v>
       </c>
       <c r="B337" s="351"/>
-      <c r="C337" s="595" t="str">
+      <c r="C337" s="603" t="str">
         <f>O142&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -32388,7 +32514,7 @@
         <v>8</v>
       </c>
       <c r="B338" s="351"/>
-      <c r="C338" s="595"/>
+      <c r="C338" s="603"/>
       <c r="D338" s="520">
         <f t="shared" si="70"/>
         <v>20</v>
@@ -32451,7 +32577,7 @@
         <v>9</v>
       </c>
       <c r="B339" s="351"/>
-      <c r="C339" s="595"/>
+      <c r="C339" s="603"/>
       <c r="D339" s="521">
         <f t="shared" si="70"/>
         <v>30</v>
@@ -32514,7 +32640,7 @@
         <v>10</v>
       </c>
       <c r="B340" s="351"/>
-      <c r="C340" s="595" t="str">
+      <c r="C340" s="603" t="str">
         <f>O145&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -32580,7 +32706,7 @@
         <v>11</v>
       </c>
       <c r="B341" s="351"/>
-      <c r="C341" s="595"/>
+      <c r="C341" s="603"/>
       <c r="D341" s="520">
         <f t="shared" si="70"/>
         <v>20</v>
@@ -32643,7 +32769,7 @@
         <v>12</v>
       </c>
       <c r="B342" s="351"/>
-      <c r="C342" s="595"/>
+      <c r="C342" s="603"/>
       <c r="D342" s="522">
         <f t="shared" si="70"/>
         <v>30</v>
@@ -32706,7 +32832,7 @@
         <v>13</v>
       </c>
       <c r="B343" s="351"/>
-      <c r="C343" s="595" t="str">
+      <c r="C343" s="603" t="str">
         <f>O148&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -32758,7 +32884,7 @@
         <v>14</v>
       </c>
       <c r="B344" s="351"/>
-      <c r="C344" s="595"/>
+      <c r="C344" s="603"/>
       <c r="D344" s="520">
         <f t="shared" si="70"/>
         <v>20</v>
@@ -32820,7 +32946,7 @@
         <v>15</v>
       </c>
       <c r="B345" s="351"/>
-      <c r="C345" s="595"/>
+      <c r="C345" s="603"/>
       <c r="D345" s="521">
         <f t="shared" si="70"/>
         <v>30</v>
@@ -32883,7 +33009,7 @@
         <v>16</v>
       </c>
       <c r="B346" s="351"/>
-      <c r="C346" s="595" t="str">
+      <c r="C346" s="603" t="str">
         <f>O151&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -32946,7 +33072,7 @@
         <v>17</v>
       </c>
       <c r="B347" s="351"/>
-      <c r="C347" s="595"/>
+      <c r="C347" s="603"/>
       <c r="D347" s="520">
         <f t="shared" si="70"/>
         <v>20</v>
@@ -33004,7 +33130,7 @@
         <v>18</v>
       </c>
       <c r="B348" s="351"/>
-      <c r="C348" s="595"/>
+      <c r="C348" s="603"/>
       <c r="D348" s="522">
         <f t="shared" si="70"/>
         <v>30</v>
@@ -33082,7 +33208,7 @@
         <v>19</v>
       </c>
       <c r="B349" s="351"/>
-      <c r="C349" s="595" t="str">
+      <c r="C349" s="603" t="str">
         <f>O154&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33145,7 +33271,7 @@
         <v>20</v>
       </c>
       <c r="B350" s="351"/>
-      <c r="C350" s="595"/>
+      <c r="C350" s="603"/>
       <c r="D350" s="520">
         <f t="shared" si="70"/>
         <v>20</v>
@@ -33204,7 +33330,7 @@
         <v>21</v>
       </c>
       <c r="B351" s="351"/>
-      <c r="C351" s="595"/>
+      <c r="C351" s="603"/>
       <c r="D351" s="522">
         <f t="shared" si="70"/>
         <v>30</v>
@@ -33513,11 +33639,11 @@
         <f>IF(OR(V358="",V359="",V362=""),"",(V358-V359)*V362)</f>
         <v/>
       </c>
-      <c r="Q358" s="596" t="str">
+      <c r="Q358" s="615" t="str">
         <f>IF(OR(P358="",P359=""),"",(ABS(P358)+ABS(P359))/$O$355)</f>
         <v/>
       </c>
-      <c r="R358" s="597" t="str">
+      <c r="R358" s="616" t="str">
         <f>IF(OR(Q358="",Q360=""),"",Q358+Q360)</f>
         <v/>
       </c>
@@ -33556,8 +33682,8 @@
         <f>IF(OR(W358="",W359="",V362=""),"",(W358-W359)*V362)</f>
         <v/>
       </c>
-      <c r="Q359" s="596"/>
-      <c r="R359" s="596"/>
+      <c r="Q359" s="615"/>
+      <c r="R359" s="615"/>
       <c r="S359" s="149" t="str">
         <f>IF(AB168="","",AB168)</f>
         <v/>
@@ -33593,11 +33719,11 @@
         <f>IF(OR(X358="",X359="",V362=""),"",(X358-X359)*V362)</f>
         <v/>
       </c>
-      <c r="Q360" s="597" t="str">
+      <c r="Q360" s="616" t="str">
         <f>IF(OR(P360="",P361=""),"",(ABS(P360)+ABS(P361))/$O$355)</f>
         <v/>
       </c>
-      <c r="R360" s="597"/>
+      <c r="R360" s="616"/>
       <c r="S360" s="149" t="str">
         <f>IF(AB169="","",AB169)</f>
         <v/>
@@ -33639,8 +33765,8 @@
         <f>IF(OR(Y358="",Y359="",V362=""),"",(Y358-Y359)*V362)</f>
         <v/>
       </c>
-      <c r="Q361" s="597"/>
-      <c r="R361" s="597"/>
+      <c r="Q361" s="616"/>
+      <c r="R361" s="616"/>
       <c r="S361" s="151" t="str">
         <f>IF(AB170="","",AB170)</f>
         <v/>
@@ -33812,7 +33938,7 @@
         <v>36</v>
       </c>
       <c r="B366" s="351"/>
-      <c r="C366" s="598" t="str">
+      <c r="C366" s="617" t="str">
         <f>O214</f>
         <v>Auto 1</v>
       </c>
@@ -33863,7 +33989,7 @@
         <v>37</v>
       </c>
       <c r="B367" s="351"/>
-      <c r="C367" s="599"/>
+      <c r="C367" s="618"/>
       <c r="D367" s="491" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -33909,7 +34035,7 @@
         <v>38</v>
       </c>
       <c r="B368" s="351"/>
-      <c r="C368" s="599"/>
+      <c r="C368" s="618"/>
       <c r="D368" s="491" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -33944,7 +34070,7 @@
         <v>39</v>
       </c>
       <c r="B369" s="351"/>
-      <c r="C369" s="599"/>
+      <c r="C369" s="618"/>
       <c r="D369" s="491" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -33979,7 +34105,7 @@
         <v>40</v>
       </c>
       <c r="B370" s="351"/>
-      <c r="C370" s="599"/>
+      <c r="C370" s="618"/>
       <c r="D370" s="497" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34024,7 +34150,7 @@
         <v>41</v>
       </c>
       <c r="B371" s="351"/>
-      <c r="C371" s="578" t="str">
+      <c r="C371" s="607" t="str">
         <f>O219</f>
         <v>Auto 2</v>
       </c>
@@ -34074,7 +34200,7 @@
         <v>42</v>
       </c>
       <c r="B372" s="351"/>
-      <c r="C372" s="579"/>
+      <c r="C372" s="608"/>
       <c r="D372" s="491" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34124,7 +34250,7 @@
         <v>43</v>
       </c>
       <c r="B373" s="351"/>
-      <c r="C373" s="579"/>
+      <c r="C373" s="608"/>
       <c r="D373" s="491" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34171,7 +34297,7 @@
         <v>44</v>
       </c>
       <c r="B374" s="351"/>
-      <c r="C374" s="579"/>
+      <c r="C374" s="608"/>
       <c r="D374" s="491" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34221,7 +34347,7 @@
         <v>45</v>
       </c>
       <c r="B375" s="351"/>
-      <c r="C375" s="580"/>
+      <c r="C375" s="610"/>
       <c r="D375" s="497" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34268,7 +34394,7 @@
         <v>46</v>
       </c>
       <c r="B376" s="351"/>
-      <c r="C376" s="581" t="str">
+      <c r="C376" s="619" t="str">
         <f>O224</f>
         <v>High Level</v>
       </c>
@@ -34321,7 +34447,7 @@
         <v>47</v>
       </c>
       <c r="B377" s="351"/>
-      <c r="C377" s="582"/>
+      <c r="C377" s="620"/>
       <c r="D377" s="491" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34368,7 +34494,7 @@
         <v>48</v>
       </c>
       <c r="B378" s="351"/>
-      <c r="C378" s="582"/>
+      <c r="C378" s="620"/>
       <c r="D378" s="491" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34418,7 +34544,7 @@
         <v>49</v>
       </c>
       <c r="B379" s="351"/>
-      <c r="C379" s="582"/>
+      <c r="C379" s="620"/>
       <c r="D379" s="491" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34465,7 +34591,7 @@
         <v>50</v>
       </c>
       <c r="B380" s="351"/>
-      <c r="C380" s="583"/>
+      <c r="C380" s="621"/>
       <c r="D380" s="497" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34775,7 +34901,7 @@
         <v>58</v>
       </c>
       <c r="B388" s="351"/>
-      <c r="C388" s="584" t="str">
+      <c r="C388" s="612" t="str">
         <f>O242</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -34826,7 +34952,7 @@
         <v>59</v>
       </c>
       <c r="B389" s="351"/>
-      <c r="C389" s="585"/>
+      <c r="C389" s="613"/>
       <c r="D389" s="506" t="str">
         <f>P243</f>
         <v>Waist level</v>
@@ -35177,14 +35303,14 @@
       <c r="E399" s="349"/>
       <c r="F399" s="349"/>
       <c r="G399" s="349"/>
-      <c r="H399" s="586" t="s">
+      <c r="H399" s="622" t="s">
         <v>397</v>
       </c>
-      <c r="I399" s="586"/>
-      <c r="J399" s="586" t="s">
+      <c r="I399" s="622"/>
+      <c r="J399" s="622" t="s">
         <v>398</v>
       </c>
-      <c r="K399" s="586"/>
+      <c r="K399" s="622"/>
       <c r="L399" s="349"/>
       <c r="M399" s="350"/>
       <c r="O399" s="14"/>
@@ -35758,20 +35884,20 @@
       </c>
       <c r="B413" s="351"/>
       <c r="C413" s="45"/>
-      <c r="D413" s="587" t="s">
+      <c r="D413" s="623" t="s">
         <v>404</v>
       </c>
-      <c r="E413" s="587"/>
-      <c r="F413" s="587"/>
-      <c r="G413" s="587"/>
-      <c r="H413" s="587"/>
-      <c r="I413" s="587" t="s">
+      <c r="E413" s="623"/>
+      <c r="F413" s="623"/>
+      <c r="G413" s="623"/>
+      <c r="H413" s="623"/>
+      <c r="I413" s="623" t="s">
         <v>405</v>
       </c>
-      <c r="J413" s="587"/>
-      <c r="K413" s="587"/>
-      <c r="L413" s="587"/>
-      <c r="M413" s="588"/>
+      <c r="J413" s="623"/>
+      <c r="K413" s="623"/>
+      <c r="L413" s="623"/>
+      <c r="M413" s="624"/>
       <c r="O413" s="14"/>
       <c r="P413" s="2" t="s">
         <v>191</v>
@@ -37251,11 +37377,11 @@
         <f t="shared" si="92"/>
         <v/>
       </c>
-      <c r="F442" s="589" t="str">
+      <c r="F442" s="625" t="str">
         <f t="shared" si="92"/>
         <v/>
       </c>
-      <c r="G442" s="591" t="str">
+      <c r="G442" s="627" t="str">
         <f t="shared" si="92"/>
         <v/>
       </c>
@@ -37296,8 +37422,8 @@
         <f>P359</f>
         <v/>
       </c>
-      <c r="F443" s="590"/>
-      <c r="G443" s="592"/>
+      <c r="F443" s="626"/>
+      <c r="G443" s="628"/>
       <c r="H443" s="207"/>
       <c r="I443" s="85" t="str">
         <f>T360</f>
@@ -37337,11 +37463,11 @@
         <f>P360</f>
         <v/>
       </c>
-      <c r="F444" s="590" t="str">
+      <c r="F444" s="626" t="str">
         <f>Q360</f>
         <v/>
       </c>
-      <c r="G444" s="592"/>
+      <c r="G444" s="628"/>
       <c r="H444" s="138"/>
       <c r="I444" s="94" t="str">
         <f>T361</f>
@@ -37382,8 +37508,8 @@
         <f>P361</f>
         <v/>
       </c>
-      <c r="F445" s="594"/>
-      <c r="G445" s="593"/>
+      <c r="F445" s="630"/>
+      <c r="G445" s="629"/>
       <c r="H445" s="138"/>
       <c r="I445" s="138"/>
       <c r="J445" s="138"/>
@@ -43719,43 +43845,66 @@
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="C371:C375"/>
+    <mergeCell ref="C376:C380"/>
+    <mergeCell ref="C388:C389"/>
+    <mergeCell ref="H399:I399"/>
+    <mergeCell ref="J399:K399"/>
+    <mergeCell ref="D413:H413"/>
+    <mergeCell ref="I413:M413"/>
+    <mergeCell ref="F442:F443"/>
+    <mergeCell ref="G442:G445"/>
+    <mergeCell ref="F444:F445"/>
+    <mergeCell ref="C337:C339"/>
+    <mergeCell ref="C340:C342"/>
+    <mergeCell ref="C343:C345"/>
+    <mergeCell ref="C346:C348"/>
+    <mergeCell ref="C349:C351"/>
+    <mergeCell ref="Q358:Q359"/>
+    <mergeCell ref="R358:R361"/>
+    <mergeCell ref="Q360:Q361"/>
+    <mergeCell ref="C366:C370"/>
+    <mergeCell ref="P293:S293"/>
+    <mergeCell ref="P302:S302"/>
+    <mergeCell ref="C303:C307"/>
+    <mergeCell ref="C308:C312"/>
+    <mergeCell ref="C313:C317"/>
+    <mergeCell ref="V319:W319"/>
+    <mergeCell ref="C324:C325"/>
+    <mergeCell ref="Q329:U329"/>
+    <mergeCell ref="E335:G335"/>
+    <mergeCell ref="H335:J335"/>
+    <mergeCell ref="K335:M335"/>
+    <mergeCell ref="C271:C273"/>
+    <mergeCell ref="C274:C276"/>
+    <mergeCell ref="O276:O277"/>
+    <mergeCell ref="P276:P277"/>
+    <mergeCell ref="R276:R277"/>
+    <mergeCell ref="S276:S277"/>
+    <mergeCell ref="C277:C279"/>
+    <mergeCell ref="C280:C282"/>
+    <mergeCell ref="C283:C285"/>
+    <mergeCell ref="O214:O218"/>
+    <mergeCell ref="O219:O223"/>
+    <mergeCell ref="O224:O228"/>
+    <mergeCell ref="O240:O241"/>
+    <mergeCell ref="O242:O243"/>
+    <mergeCell ref="Q257:R257"/>
+    <mergeCell ref="T257:U257"/>
+    <mergeCell ref="E269:G269"/>
+    <mergeCell ref="H269:J269"/>
+    <mergeCell ref="K269:M269"/>
+    <mergeCell ref="T181:U181"/>
+    <mergeCell ref="O190:O194"/>
+    <mergeCell ref="O195:O199"/>
+    <mergeCell ref="O200:O204"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="G202:G203"/>
+    <mergeCell ref="H202:H203"/>
+    <mergeCell ref="I202:I203"/>
+    <mergeCell ref="J202:J203"/>
+    <mergeCell ref="M202:M203"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="F41:G41"/>
@@ -43767,66 +43916,43 @@
     <mergeCell ref="Q139:S139"/>
     <mergeCell ref="T139:V139"/>
     <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="T181:U181"/>
-    <mergeCell ref="O190:O194"/>
-    <mergeCell ref="O195:O199"/>
-    <mergeCell ref="O200:O204"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="G202:G203"/>
-    <mergeCell ref="H202:H203"/>
-    <mergeCell ref="I202:I203"/>
-    <mergeCell ref="J202:J203"/>
-    <mergeCell ref="M202:M203"/>
-    <mergeCell ref="O214:O218"/>
-    <mergeCell ref="O219:O223"/>
-    <mergeCell ref="O224:O228"/>
-    <mergeCell ref="O240:O241"/>
-    <mergeCell ref="O242:O243"/>
-    <mergeCell ref="Q257:R257"/>
-    <mergeCell ref="T257:U257"/>
-    <mergeCell ref="E269:G269"/>
-    <mergeCell ref="H269:J269"/>
-    <mergeCell ref="K269:M269"/>
-    <mergeCell ref="C271:C273"/>
-    <mergeCell ref="C274:C276"/>
-    <mergeCell ref="O276:O277"/>
-    <mergeCell ref="P276:P277"/>
-    <mergeCell ref="R276:R277"/>
-    <mergeCell ref="S276:S277"/>
-    <mergeCell ref="C277:C279"/>
-    <mergeCell ref="C280:C282"/>
-    <mergeCell ref="C283:C285"/>
-    <mergeCell ref="P293:S293"/>
-    <mergeCell ref="P302:S302"/>
-    <mergeCell ref="C303:C307"/>
-    <mergeCell ref="C308:C312"/>
-    <mergeCell ref="C313:C317"/>
-    <mergeCell ref="V319:W319"/>
-    <mergeCell ref="C324:C325"/>
-    <mergeCell ref="Q329:U329"/>
-    <mergeCell ref="E335:G335"/>
-    <mergeCell ref="H335:J335"/>
-    <mergeCell ref="K335:M335"/>
-    <mergeCell ref="C337:C339"/>
-    <mergeCell ref="C340:C342"/>
-    <mergeCell ref="C343:C345"/>
-    <mergeCell ref="C346:C348"/>
-    <mergeCell ref="C349:C351"/>
-    <mergeCell ref="Q358:Q359"/>
-    <mergeCell ref="R358:R361"/>
-    <mergeCell ref="Q360:Q361"/>
-    <mergeCell ref="C366:C370"/>
-    <mergeCell ref="C371:C375"/>
-    <mergeCell ref="C376:C380"/>
-    <mergeCell ref="C388:C389"/>
-    <mergeCell ref="H399:I399"/>
-    <mergeCell ref="J399:K399"/>
-    <mergeCell ref="D413:H413"/>
-    <mergeCell ref="I413:M413"/>
-    <mergeCell ref="F442:F443"/>
-    <mergeCell ref="G442:G445"/>
-    <mergeCell ref="F444:F445"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <conditionalFormatting sqref="S126 V126 Y126 S158 V158 Y158">
     <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
@@ -43984,7 +44110,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK1048576"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" colorId="9" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -44091,39 +44219,39 @@
         <f>Fluoro!D269</f>
         <v>Attenuator</v>
       </c>
-      <c r="E5" s="606" t="str">
+      <c r="E5" s="600" t="str">
         <f>Fluoro!E269</f>
         <v>Auto 1</v>
       </c>
-      <c r="F5" s="606">
+      <c r="F5" s="600">
         <f>Fluoro!F269</f>
         <v>0</v>
       </c>
-      <c r="G5" s="606">
+      <c r="G5" s="600">
         <f>Fluoro!G269</f>
         <v>0</v>
       </c>
-      <c r="H5" s="606" t="str">
+      <c r="H5" s="600" t="str">
         <f>Fluoro!H269</f>
         <v>Auto 2</v>
       </c>
-      <c r="I5" s="606">
+      <c r="I5" s="600">
         <f>Fluoro!I269</f>
         <v>0</v>
       </c>
-      <c r="J5" s="606">
+      <c r="J5" s="600">
         <f>Fluoro!J269</f>
         <v>0</v>
       </c>
-      <c r="K5" s="607" t="str">
+      <c r="K5" s="601" t="str">
         <f>Fluoro!K269</f>
         <v>High Level</v>
       </c>
-      <c r="L5" s="607">
+      <c r="L5" s="601">
         <f>Fluoro!L269</f>
         <v>0</v>
       </c>
-      <c r="M5" s="607">
+      <c r="M5" s="601">
         <f>Fluoro!M269</f>
         <v>0</v>
       </c>
@@ -44180,7 +44308,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="634" t="str">
+      <c r="C7" s="631" t="str">
         <f>Fluoro!C271</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -44230,7 +44358,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="11"/>
-      <c r="C8" s="634">
+      <c r="C8" s="631">
         <f>Fluoro!C272</f>
         <v>0</v>
       </c>
@@ -44280,7 +44408,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="634">
+      <c r="C9" s="631">
         <f>Fluoro!C273</f>
         <v>0</v>
       </c>
@@ -44330,7 +44458,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="634" t="str">
+      <c r="C10" s="631" t="str">
         <f>Fluoro!C274</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -44380,7 +44508,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="634">
+      <c r="C11" s="631">
         <f>Fluoro!C275</f>
         <v>0</v>
       </c>
@@ -44430,7 +44558,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="634">
+      <c r="C12" s="631">
         <f>Fluoro!C276</f>
         <v>0</v>
       </c>
@@ -44480,7 +44608,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="11"/>
-      <c r="C13" s="634" t="str">
+      <c r="C13" s="631" t="str">
         <f>Fluoro!C277</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -44530,7 +44658,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="634">
+      <c r="C14" s="631">
         <f>Fluoro!C278</f>
         <v>0</v>
       </c>
@@ -44580,7 +44708,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="634">
+      <c r="C15" s="631">
         <f>Fluoro!C279</f>
         <v>0</v>
       </c>
@@ -44630,7 +44758,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="634" t="str">
+      <c r="C16" s="631" t="str">
         <f>Fluoro!C280</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -44680,7 +44808,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="634">
+      <c r="C17" s="631">
         <f>Fluoro!C281</f>
         <v>0</v>
       </c>
@@ -44730,7 +44858,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="11"/>
-      <c r="C18" s="634">
+      <c r="C18" s="631">
         <f>Fluoro!C282</f>
         <v>0</v>
       </c>
@@ -44780,7 +44908,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="634" t="str">
+      <c r="C19" s="631" t="str">
         <f>Fluoro!C283</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -44830,7 +44958,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="11"/>
-      <c r="C20" s="634">
+      <c r="C20" s="631">
         <f>Fluoro!C284</f>
         <v>0</v>
       </c>
@@ -44880,7 +45008,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="11"/>
-      <c r="C21" s="634">
+      <c r="C21" s="631">
         <f>Fluoro!C285</f>
         <v>0</v>
       </c>
@@ -45329,7 +45457,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="11"/>
-      <c r="C39" s="631" t="str">
+      <c r="C39" s="632" t="str">
         <f>Fluoro!C303</f>
         <v>Auto 1</v>
       </c>
@@ -45367,7 +45495,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="11"/>
-      <c r="C40" s="631">
+      <c r="C40" s="632">
         <f>Fluoro!C304</f>
         <v>0</v>
       </c>
@@ -45405,7 +45533,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="11"/>
-      <c r="C41" s="631">
+      <c r="C41" s="632">
         <f>Fluoro!C305</f>
         <v>0</v>
       </c>
@@ -45443,7 +45571,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="11"/>
-      <c r="C42" s="631">
+      <c r="C42" s="632">
         <f>Fluoro!C306</f>
         <v>0</v>
       </c>
@@ -45478,7 +45606,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="11"/>
-      <c r="C43" s="631">
+      <c r="C43" s="632">
         <f>Fluoro!C307</f>
         <v>0</v>
       </c>
@@ -45513,7 +45641,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="11"/>
-      <c r="C44" s="632" t="str">
+      <c r="C44" s="633" t="str">
         <f>Fluoro!C308</f>
         <v>Auto 2</v>
       </c>
@@ -45548,7 +45676,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="11"/>
-      <c r="C45" s="632">
+      <c r="C45" s="633">
         <f>Fluoro!C309</f>
         <v>0</v>
       </c>
@@ -45583,7 +45711,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="11"/>
-      <c r="C46" s="632">
+      <c r="C46" s="633">
         <f>Fluoro!C310</f>
         <v>0</v>
       </c>
@@ -45618,7 +45746,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="11"/>
-      <c r="C47" s="632">
+      <c r="C47" s="633">
         <f>Fluoro!C311</f>
         <v>0</v>
       </c>
@@ -45653,7 +45781,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="11"/>
-      <c r="C48" s="632">
+      <c r="C48" s="633">
         <f>Fluoro!C312</f>
         <v>0</v>
       </c>
@@ -45688,7 +45816,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="11"/>
-      <c r="C49" s="632" t="str">
+      <c r="C49" s="633" t="str">
         <f>Fluoro!C313</f>
         <v>High Level</v>
       </c>
@@ -45723,7 +45851,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="11"/>
-      <c r="C50" s="632">
+      <c r="C50" s="633">
         <f>Fluoro!C314</f>
         <v>0</v>
       </c>
@@ -45758,7 +45886,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="11"/>
-      <c r="C51" s="632">
+      <c r="C51" s="633">
         <f>Fluoro!C315</f>
         <v>0</v>
       </c>
@@ -45789,7 +45917,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="11"/>
-      <c r="C52" s="632">
+      <c r="C52" s="633">
         <f>Fluoro!C316</f>
         <v>0</v>
       </c>
@@ -45820,7 +45948,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="11"/>
-      <c r="C53" s="632">
+      <c r="C53" s="633">
         <f>Fluoro!C317</f>
         <v>0</v>
       </c>
@@ -46006,7 +46134,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="11"/>
-      <c r="C60" s="633" t="str">
+      <c r="C60" s="634" t="str">
         <f>Fluoro!C324</f>
         <v>Scatter – Fluoro</v>
       </c>
@@ -46041,7 +46169,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="11"/>
-      <c r="C61" s="633">
+      <c r="C61" s="634">
         <f>Fluoro!C325</f>
         <v>0</v>
       </c>
@@ -46287,39 +46415,39 @@
         <f>Fluoro!D335</f>
         <v>Attenuator</v>
       </c>
-      <c r="E71" s="606" t="str">
+      <c r="E71" s="600" t="str">
         <f>Fluoro!E335</f>
         <v>Auto 1</v>
       </c>
-      <c r="F71" s="606">
+      <c r="F71" s="600">
         <f>Fluoro!F335</f>
         <v>0</v>
       </c>
-      <c r="G71" s="606">
+      <c r="G71" s="600">
         <f>Fluoro!G335</f>
         <v>0</v>
       </c>
-      <c r="H71" s="606" t="str">
+      <c r="H71" s="600" t="str">
         <f>Fluoro!H335</f>
         <v>Auto 2</v>
       </c>
-      <c r="I71" s="606">
+      <c r="I71" s="600">
         <f>Fluoro!I335</f>
         <v>0</v>
       </c>
-      <c r="J71" s="606">
+      <c r="J71" s="600">
         <f>Fluoro!J335</f>
         <v>0</v>
       </c>
-      <c r="K71" s="607" t="str">
+      <c r="K71" s="601" t="str">
         <f>Fluoro!K335</f>
         <v>High Level</v>
       </c>
-      <c r="L71" s="607">
+      <c r="L71" s="601">
         <f>Fluoro!L335</f>
         <v>0</v>
       </c>
-      <c r="M71" s="607">
+      <c r="M71" s="601">
         <f>Fluoro!M335</f>
         <v>0</v>
       </c>
@@ -46376,7 +46504,7 @@
         <v>7</v>
       </c>
       <c r="B73" s="11"/>
-      <c r="C73" s="634" t="str">
+      <c r="C73" s="631" t="str">
         <f>Fluoro!C337</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -46426,7 +46554,7 @@
         <v>8</v>
       </c>
       <c r="B74" s="11"/>
-      <c r="C74" s="634">
+      <c r="C74" s="631">
         <f>Fluoro!C338</f>
         <v>0</v>
       </c>
@@ -46476,7 +46604,7 @@
         <v>9</v>
       </c>
       <c r="B75" s="11"/>
-      <c r="C75" s="634">
+      <c r="C75" s="631">
         <f>Fluoro!C339</f>
         <v>0</v>
       </c>
@@ -46526,7 +46654,7 @@
         <v>10</v>
       </c>
       <c r="B76" s="11"/>
-      <c r="C76" s="634" t="str">
+      <c r="C76" s="631" t="str">
         <f>Fluoro!C340</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -46576,7 +46704,7 @@
         <v>11</v>
       </c>
       <c r="B77" s="11"/>
-      <c r="C77" s="634">
+      <c r="C77" s="631">
         <f>Fluoro!C341</f>
         <v>0</v>
       </c>
@@ -46626,7 +46754,7 @@
         <v>12</v>
       </c>
       <c r="B78" s="11"/>
-      <c r="C78" s="634">
+      <c r="C78" s="631">
         <f>Fluoro!C342</f>
         <v>0</v>
       </c>
@@ -46676,7 +46804,7 @@
         <v>13</v>
       </c>
       <c r="B79" s="11"/>
-      <c r="C79" s="634" t="str">
+      <c r="C79" s="631" t="str">
         <f>Fluoro!C343</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -46726,7 +46854,7 @@
         <v>14</v>
       </c>
       <c r="B80" s="11"/>
-      <c r="C80" s="634">
+      <c r="C80" s="631">
         <f>Fluoro!C344</f>
         <v>0</v>
       </c>
@@ -46776,7 +46904,7 @@
         <v>15</v>
       </c>
       <c r="B81" s="11"/>
-      <c r="C81" s="634">
+      <c r="C81" s="631">
         <f>Fluoro!C345</f>
         <v>0</v>
       </c>
@@ -46826,7 +46954,7 @@
         <v>16</v>
       </c>
       <c r="B82" s="11"/>
-      <c r="C82" s="634" t="str">
+      <c r="C82" s="631" t="str">
         <f>Fluoro!C346</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -46876,7 +47004,7 @@
         <v>17</v>
       </c>
       <c r="B83" s="11"/>
-      <c r="C83" s="634">
+      <c r="C83" s="631">
         <f>Fluoro!C347</f>
         <v>0</v>
       </c>
@@ -46926,7 +47054,7 @@
         <v>18</v>
       </c>
       <c r="B84" s="11"/>
-      <c r="C84" s="634">
+      <c r="C84" s="631">
         <f>Fluoro!C348</f>
         <v>0</v>
       </c>
@@ -46976,7 +47104,7 @@
         <v>19</v>
       </c>
       <c r="B85" s="11"/>
-      <c r="C85" s="634" t="str">
+      <c r="C85" s="631" t="str">
         <f>Fluoro!C349</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -47026,7 +47154,7 @@
         <v>20</v>
       </c>
       <c r="B86" s="11"/>
-      <c r="C86" s="634">
+      <c r="C86" s="631">
         <f>Fluoro!C350</f>
         <v>0</v>
       </c>
@@ -47076,7 +47204,7 @@
         <v>21</v>
       </c>
       <c r="B87" s="11"/>
-      <c r="C87" s="634">
+      <c r="C87" s="631">
         <f>Fluoro!C351</f>
         <v>0</v>
       </c>
@@ -47423,7 +47551,7 @@
         <v>36</v>
       </c>
       <c r="B102" s="11"/>
-      <c r="C102" s="631" t="str">
+      <c r="C102" s="632" t="str">
         <f>Fluoro!C366</f>
         <v>Auto 1</v>
       </c>
@@ -47461,7 +47589,7 @@
         <v>37</v>
       </c>
       <c r="B103" s="11"/>
-      <c r="C103" s="631">
+      <c r="C103" s="632">
         <f>Fluoro!C367</f>
         <v>0</v>
       </c>
@@ -47499,7 +47627,7 @@
         <v>38</v>
       </c>
       <c r="B104" s="11"/>
-      <c r="C104" s="631">
+      <c r="C104" s="632">
         <f>Fluoro!C368</f>
         <v>0</v>
       </c>
@@ -47537,7 +47665,7 @@
         <v>39</v>
       </c>
       <c r="B105" s="11"/>
-      <c r="C105" s="631">
+      <c r="C105" s="632">
         <f>Fluoro!C369</f>
         <v>0</v>
       </c>
@@ -47572,7 +47700,7 @@
         <v>40</v>
       </c>
       <c r="B106" s="11"/>
-      <c r="C106" s="631">
+      <c r="C106" s="632">
         <f>Fluoro!C370</f>
         <v>0</v>
       </c>
@@ -47607,7 +47735,7 @@
         <v>41</v>
       </c>
       <c r="B107" s="11"/>
-      <c r="C107" s="632" t="str">
+      <c r="C107" s="633" t="str">
         <f>Fluoro!C371</f>
         <v>Auto 2</v>
       </c>
@@ -47642,7 +47770,7 @@
         <v>42</v>
       </c>
       <c r="B108" s="11"/>
-      <c r="C108" s="632">
+      <c r="C108" s="633">
         <f>Fluoro!C372</f>
         <v>0</v>
       </c>
@@ -47677,7 +47805,7 @@
         <v>43</v>
       </c>
       <c r="B109" s="11"/>
-      <c r="C109" s="632">
+      <c r="C109" s="633">
         <f>Fluoro!C373</f>
         <v>0</v>
       </c>
@@ -47712,7 +47840,7 @@
         <v>44</v>
       </c>
       <c r="B110" s="11"/>
-      <c r="C110" s="632">
+      <c r="C110" s="633">
         <f>Fluoro!C374</f>
         <v>0</v>
       </c>
@@ -47747,7 +47875,7 @@
         <v>45</v>
       </c>
       <c r="B111" s="11"/>
-      <c r="C111" s="632">
+      <c r="C111" s="633">
         <f>Fluoro!C375</f>
         <v>0</v>
       </c>
@@ -47782,7 +47910,7 @@
         <v>46</v>
       </c>
       <c r="B112" s="11"/>
-      <c r="C112" s="632" t="str">
+      <c r="C112" s="633" t="str">
         <f>Fluoro!C376</f>
         <v>High Level</v>
       </c>
@@ -47817,7 +47945,7 @@
         <v>47</v>
       </c>
       <c r="B113" s="11"/>
-      <c r="C113" s="632">
+      <c r="C113" s="633">
         <f>Fluoro!C377</f>
         <v>0</v>
       </c>
@@ -47852,7 +47980,7 @@
         <v>48</v>
       </c>
       <c r="B114" s="11"/>
-      <c r="C114" s="632">
+      <c r="C114" s="633">
         <f>Fluoro!C378</f>
         <v>0</v>
       </c>
@@ -47883,7 +48011,7 @@
         <v>49</v>
       </c>
       <c r="B115" s="11"/>
-      <c r="C115" s="632">
+      <c r="C115" s="633">
         <f>Fluoro!C379</f>
         <v>0</v>
       </c>
@@ -47914,7 +48042,7 @@
         <v>50</v>
       </c>
       <c r="B116" s="11"/>
-      <c r="C116" s="632">
+      <c r="C116" s="633">
         <f>Fluoro!C380</f>
         <v>0</v>
       </c>
@@ -48088,7 +48216,7 @@
         <v>58</v>
       </c>
       <c r="B124" s="11"/>
-      <c r="C124" s="633" t="str">
+      <c r="C124" s="634" t="str">
         <f>Fluoro!C388</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -48123,7 +48251,7 @@
         <v>59</v>
       </c>
       <c r="B125" s="11"/>
-      <c r="C125" s="633">
+      <c r="C125" s="634">
         <f>Fluoro!C389</f>
         <v>0</v>
       </c>
@@ -48432,21 +48560,6 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:M71"/>
     <mergeCell ref="C102:C106"/>
     <mergeCell ref="C107:C111"/>
     <mergeCell ref="C112:C116"/>
@@ -48456,9 +48569,24 @@
     <mergeCell ref="C79:C81"/>
     <mergeCell ref="C82:C84"/>
     <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.88611111111111096" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
@@ -48472,8 +48600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK143"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" colorId="9" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView topLeftCell="A31" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -48487,29 +48615,29 @@
       </c>
       <c r="B1" s="635"/>
       <c r="N1" s="328"/>
-      <c r="O1" s="600" t="str">
+      <c r="O1" s="606" t="str">
         <f>Fluoro!O105</f>
         <v>Patient Entrance Exposure Rate (Fluoroscopy)*</v>
       </c>
-      <c r="P1" s="600"/>
-      <c r="Q1" s="600"/>
-      <c r="R1" s="600" t="s">
+      <c r="P1" s="606"/>
+      <c r="Q1" s="606"/>
+      <c r="R1" s="606" t="s">
         <v>411</v>
       </c>
-      <c r="S1" s="600"/>
-      <c r="T1" s="600"/>
+      <c r="S1" s="606"/>
+      <c r="T1" s="606"/>
       <c r="V1" s="328"/>
-      <c r="W1" s="600" t="str">
+      <c r="W1" s="606" t="str">
         <f>Fluoro!O137</f>
         <v>Patient Entrance Exposure Rate – Digital Acquisition</v>
       </c>
-      <c r="X1" s="600"/>
-      <c r="Y1" s="600"/>
-      <c r="Z1" s="600" t="s">
+      <c r="X1" s="606"/>
+      <c r="Y1" s="606"/>
+      <c r="Z1" s="606" t="s">
         <v>411</v>
       </c>
-      <c r="AA1" s="600"/>
-      <c r="AB1" s="600"/>
+      <c r="AA1" s="606"/>
+      <c r="AB1" s="606"/>
       <c r="AC1" s="239"/>
     </row>
     <row r="2" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -52552,14 +52680,14 @@
       <c r="B75" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E75" s="600" t="s">
+      <c r="E75" s="606" t="s">
         <v>424</v>
       </c>
-      <c r="F75" s="600"/>
-      <c r="I75" s="600" t="s">
+      <c r="F75" s="606"/>
+      <c r="I75" s="606" t="s">
         <v>425</v>
       </c>
-      <c r="J75" s="600"/>
+      <c r="J75" s="606"/>
     </row>
     <row r="76" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
@@ -54279,7 +54407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" colorId="9" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -55021,7 +55149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" colorId="9" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>

--- a/MUSCCArm.xlsx
+++ b/MUSCCArm.xlsx
@@ -6283,176 +6283,176 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="225" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="161" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="162" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="195" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="204" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="205" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="139" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="192" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="194" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="188" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="133" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="133" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="161" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="162" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="188" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="139" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="194" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="195" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="204" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="205" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="192" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6477,16 +6477,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6702,21 +6692,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6757,6 +6747,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6868,7 +6868,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7046,7 +7045,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7118,7 +7116,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7210,6 +7207,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7436,6 +7434,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7507,6 +7506,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7632,6 +7632,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9304,6 +9305,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9375,6 +9377,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9421,6 +9424,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9488,6 +9492,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9714,6 +9719,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9785,6 +9791,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9910,6 +9917,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11582,6 +11590,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11653,6 +11662,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11699,6 +11709,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11782,6 +11793,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11904,40 +11916,40 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.2199999999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2199999999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7400000000000002E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.128</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.128</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16700000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.36</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72599999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.95399999999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12036,40 +12048,40 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.2199999999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2199999999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2199999999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7599999999999997E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7599999999999997E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.128</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.57299999999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.72599999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12168,40 +12180,40 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.1499999999999998E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1499999999999998E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2199999999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2199999999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2199999999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7400000000000002E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7599999999999997E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.7599999999999997E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16700000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.57299999999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12534,6 +12546,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12757,6 +12770,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12879,40 +12893,40 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.1570118266899243</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4358014273744502</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4776951075218765</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2687731505306257</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.955390215043753</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3707653345364434</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2967587449526388</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8154622429336928</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6525163994483556</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.2687731505306257</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4406893628316126</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.7311495475702836</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13011,40 +13025,40 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.1570118266899243</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4358014273744502</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.257648442188958</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2687731505306257</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.955390215043753</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.537546301061251</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.2007433716202947</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.881040720268409</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.593517489905278</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.4821778747522067</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.6264231717552375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.2169651079642572</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13143,40 +13157,40 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4.7281758520658403</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6433863237887119</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.257648442188958</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7607078190645389</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.515296884377916</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.537546301061251</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.958236192194921</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.881040720268409</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.401486743240589</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.513522959227696</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.545968392503156</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.8769924404573315</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13509,6 +13523,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15721,6 +15736,150 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15989,7 +16148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD792"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16299,21 +16458,21 @@
       <c r="E10" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="578" t="str">
+      <c r="F10" s="628" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="578"/>
+      <c r="G10" s="628"/>
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
       <c r="J10" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="579" t="str">
+      <c r="K10" s="621" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="579"/>
+      <c r="L10" s="621"/>
       <c r="M10" s="362"/>
       <c r="O10" s="14"/>
       <c r="Q10" s="2" t="s">
@@ -16356,21 +16515,21 @@
       <c r="E11" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="580" t="str">
+      <c r="F11" s="622" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="580"/>
+      <c r="G11" s="622"/>
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
       <c r="J11" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="580" t="str">
+      <c r="K11" s="622" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="580"/>
+      <c r="L11" s="622"/>
       <c r="M11" s="362"/>
       <c r="O11" s="14"/>
       <c r="Q11" s="2" t="s">
@@ -16413,21 +16572,21 @@
       <c r="E12" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="580" t="str">
+      <c r="F12" s="622" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="580"/>
+      <c r="G12" s="622"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
       <c r="J12" s="165" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="581" t="str">
+      <c r="K12" s="629" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="581"/>
+      <c r="L12" s="629"/>
       <c r="M12" s="362"/>
       <c r="O12" s="14"/>
       <c r="Q12" s="2" t="s">
@@ -16470,21 +16629,21 @@
       <c r="E13" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="582" t="str">
+      <c r="F13" s="623" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="582"/>
+      <c r="G13" s="623"/>
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
       <c r="J13" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="582" t="str">
+      <c r="K13" s="623" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="582"/>
+      <c r="L13" s="623"/>
       <c r="M13" s="362"/>
       <c r="O13" s="14"/>
       <c r="Q13" s="2" t="s">
@@ -16607,21 +16766,21 @@
       <c r="E16" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="578" t="str">
+      <c r="F16" s="628" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="578"/>
+      <c r="G16" s="628"/>
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
       <c r="J16" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="583" t="str">
+      <c r="K16" s="630" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="583"/>
+      <c r="L16" s="630"/>
       <c r="M16" s="362"/>
       <c r="O16" s="14"/>
       <c r="P16" s="53" t="s">
@@ -16651,21 +16810,21 @@
       <c r="E17" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="580" t="str">
+      <c r="F17" s="622" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="580"/>
+      <c r="G17" s="622"/>
       <c r="H17" s="45"/>
       <c r="I17" s="45"/>
       <c r="J17" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="582" t="str">
+      <c r="K17" s="623" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="582"/>
+      <c r="L17" s="623"/>
       <c r="M17" s="362"/>
       <c r="O17" s="14"/>
       <c r="Q17" s="2" t="s">
@@ -16708,21 +16867,21 @@
       <c r="E18" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="582" t="str">
+      <c r="F18" s="623" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="582"/>
+      <c r="G18" s="623"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
       <c r="J18" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="582" t="str">
+      <c r="K18" s="623" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="582"/>
+      <c r="L18" s="623"/>
       <c r="M18" s="362"/>
       <c r="O18" s="14"/>
       <c r="Q18" s="2" t="s">
@@ -16770,11 +16929,11 @@
       <c r="J19" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="582" t="str">
+      <c r="K19" s="623" t="str">
         <f>IF(V20="","",V20)</f>
         <v/>
       </c>
-      <c r="L19" s="582"/>
+      <c r="L19" s="623"/>
       <c r="M19" s="362"/>
       <c r="O19" s="14"/>
       <c r="Q19" s="2" t="s">
@@ -16849,11 +17008,11 @@
       <c r="E21" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="578" t="str">
+      <c r="F21" s="628" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="578"/>
+      <c r="G21" s="628"/>
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
       <c r="J21" s="76" t="s">
@@ -16893,21 +17052,21 @@
       <c r="E22" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="581" t="str">
+      <c r="F22" s="629" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="581"/>
+      <c r="G22" s="629"/>
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
       <c r="J22" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="K22" s="578" t="str">
+      <c r="K22" s="628" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="578"/>
+      <c r="L22" s="628"/>
       <c r="M22" s="362"/>
       <c r="O22" s="14"/>
       <c r="Q22" s="2" t="s">
@@ -16952,11 +17111,11 @@
       <c r="J23" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="K23" s="580" t="str">
+      <c r="K23" s="622" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="580"/>
+      <c r="L23" s="622"/>
       <c r="M23" s="362"/>
       <c r="O23" s="14"/>
       <c r="Q23" s="2" t="s">
@@ -16999,21 +17158,21 @@
       <c r="E24" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="579" t="str">
+      <c r="F24" s="621" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="579"/>
+      <c r="G24" s="621"/>
       <c r="H24" s="45"/>
       <c r="I24" s="45"/>
       <c r="J24" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="580" t="str">
+      <c r="K24" s="622" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="580"/>
+      <c r="L24" s="622"/>
       <c r="M24" s="362"/>
       <c r="O24" s="14"/>
       <c r="P24" s="53" t="s">
@@ -17051,11 +17210,11 @@
       <c r="E25" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="582" t="str">
+      <c r="F25" s="623" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="582"/>
+      <c r="G25" s="623"/>
       <c r="H25" s="45"/>
       <c r="I25" s="45"/>
       <c r="J25" s="45"/>
@@ -17103,11 +17262,11 @@
       <c r="E26" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="582" t="str">
+      <c r="F26" s="623" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="582"/>
+      <c r="G26" s="623"/>
       <c r="H26" s="45"/>
       <c r="I26" s="45"/>
       <c r="J26" s="363" t="s">
@@ -17156,11 +17315,11 @@
       <c r="J27" s="165" t="s">
         <v>47</v>
       </c>
-      <c r="K27" s="578" t="str">
+      <c r="K27" s="628" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="578"/>
+      <c r="L27" s="628"/>
       <c r="M27" s="362"/>
       <c r="O27" s="14"/>
       <c r="Q27" s="2" t="s">
@@ -17198,21 +17357,21 @@
       <c r="E28" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="579" t="str">
+      <c r="F28" s="621" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="579"/>
+      <c r="G28" s="621"/>
       <c r="H28" s="45"/>
       <c r="I28" s="45"/>
       <c r="J28" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="K28" s="580" t="str">
+      <c r="K28" s="622" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="580"/>
+      <c r="L28" s="622"/>
       <c r="M28" s="362"/>
       <c r="O28" s="14"/>
       <c r="P28" s="53" t="s">
@@ -17241,11 +17400,11 @@
       <c r="E29" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="582" t="str">
+      <c r="F29" s="623" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="582"/>
+      <c r="G29" s="623"/>
       <c r="H29" s="45"/>
       <c r="I29" s="45"/>
       <c r="J29" s="45"/>
@@ -17293,11 +17452,11 @@
       <c r="E30" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="582" t="str">
+      <c r="F30" s="623" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="582"/>
+      <c r="G30" s="623"/>
       <c r="H30" s="45"/>
       <c r="I30" s="45"/>
       <c r="J30" s="45"/>
@@ -17412,11 +17571,11 @@
       <c r="E33" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="578" t="str">
+      <c r="F33" s="628" t="str">
         <f>IF(R34="","",R34)</f>
         <v/>
       </c>
-      <c r="G33" s="578"/>
+      <c r="G33" s="628"/>
       <c r="H33" s="45"/>
       <c r="I33" s="45"/>
       <c r="J33" s="76" t="s">
@@ -17453,21 +17612,21 @@
       <c r="E34" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="581" t="str">
+      <c r="F34" s="629" t="str">
         <f>IF(R35="","",R35)</f>
         <v/>
       </c>
-      <c r="G34" s="581"/>
+      <c r="G34" s="629"/>
       <c r="H34" s="45"/>
       <c r="I34" s="45"/>
       <c r="J34" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="K34" s="578" t="str">
+      <c r="K34" s="628" t="str">
         <f>IF(V35="","",V35)</f>
         <v/>
       </c>
-      <c r="L34" s="578"/>
+      <c r="L34" s="628"/>
       <c r="M34" s="362"/>
       <c r="O34" s="14"/>
       <c r="Q34" s="2" t="s">
@@ -17512,11 +17671,11 @@
       <c r="J35" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="K35" s="580" t="str">
+      <c r="K35" s="622" t="str">
         <f>IF(V36="","",V36)</f>
         <v/>
       </c>
-      <c r="L35" s="580"/>
+      <c r="L35" s="622"/>
       <c r="M35" s="362"/>
       <c r="O35" s="14"/>
       <c r="Q35" s="2" t="s">
@@ -17559,21 +17718,21 @@
       <c r="E36" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="579" t="str">
+      <c r="F36" s="621" t="str">
         <f>IF(R37="","",R37)</f>
         <v/>
       </c>
-      <c r="G36" s="579"/>
+      <c r="G36" s="621"/>
       <c r="H36" s="45"/>
       <c r="I36" s="45"/>
       <c r="J36" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="K36" s="580" t="str">
+      <c r="K36" s="622" t="str">
         <f>IF(V37="","",V37)</f>
         <v/>
       </c>
-      <c r="L36" s="580"/>
+      <c r="L36" s="622"/>
       <c r="M36" s="362"/>
       <c r="O36" s="14"/>
       <c r="P36" s="53" t="s">
@@ -17611,11 +17770,11 @@
       <c r="E37" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="582" t="str">
+      <c r="F37" s="623" t="str">
         <f>IF(R38="","",R38)</f>
         <v/>
       </c>
-      <c r="G37" s="582"/>
+      <c r="G37" s="623"/>
       <c r="H37" s="45"/>
       <c r="I37" s="45"/>
       <c r="J37" s="45"/>
@@ -17663,11 +17822,11 @@
       <c r="E38" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="582" t="str">
+      <c r="F38" s="623" t="str">
         <f>IF(R39="","",R39)</f>
         <v/>
       </c>
-      <c r="G38" s="582"/>
+      <c r="G38" s="623"/>
       <c r="H38" s="45"/>
       <c r="I38" s="45"/>
       <c r="J38" s="363" t="s">
@@ -17714,11 +17873,11 @@
       <c r="J39" s="165" t="s">
         <v>47</v>
       </c>
-      <c r="K39" s="578" t="str">
+      <c r="K39" s="628" t="str">
         <f>IF(V40="","",V40)</f>
         <v/>
       </c>
-      <c r="L39" s="578"/>
+      <c r="L39" s="628"/>
       <c r="M39" s="362"/>
       <c r="O39" s="14"/>
       <c r="Q39" s="2" t="s">
@@ -17756,21 +17915,21 @@
       <c r="E40" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="579" t="str">
+      <c r="F40" s="621" t="str">
         <f>IF(R41="","",R41)</f>
         <v/>
       </c>
-      <c r="G40" s="579"/>
+      <c r="G40" s="621"/>
       <c r="H40" s="45"/>
       <c r="I40" s="45"/>
       <c r="J40" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="K40" s="580" t="str">
+      <c r="K40" s="622" t="str">
         <f>IF(V41="","",V41)</f>
         <v/>
       </c>
-      <c r="L40" s="580"/>
+      <c r="L40" s="622"/>
       <c r="M40" s="362"/>
       <c r="O40" s="14"/>
       <c r="P40" s="53" t="s">
@@ -17808,11 +17967,11 @@
       <c r="E41" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="582" t="str">
+      <c r="F41" s="623" t="str">
         <f>IF(R42="","",R42)</f>
         <v/>
       </c>
-      <c r="G41" s="582"/>
+      <c r="G41" s="623"/>
       <c r="H41" s="45"/>
       <c r="I41" s="45"/>
       <c r="J41" s="45"/>
@@ -17860,11 +18019,11 @@
       <c r="E42" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="582" t="str">
+      <c r="F42" s="623" t="str">
         <f>IF(R43="","",R43)</f>
         <v/>
       </c>
-      <c r="G42" s="582"/>
+      <c r="G42" s="623"/>
       <c r="H42" s="45"/>
       <c r="I42" s="45"/>
       <c r="J42" s="45"/>
@@ -18622,10 +18781,10 @@
       <c r="I69" s="349"/>
       <c r="J69" s="349"/>
       <c r="K69" s="349"/>
-      <c r="L69" s="584" t="s">
+      <c r="L69" s="624" t="s">
         <v>86</v>
       </c>
-      <c r="M69" s="585"/>
+      <c r="M69" s="625"/>
       <c r="O69" s="59"/>
       <c r="P69" s="18" t="s">
         <v>87</v>
@@ -20257,24 +20416,24 @@
       <c r="P107" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="Q107" s="586" t="str">
+      <c r="Q107" s="626" t="str">
         <f>IF(Q106&lt;&gt;"",Q106,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R107" s="586"/>
-      <c r="S107" s="586"/>
-      <c r="T107" s="587" t="str">
+      <c r="R107" s="626"/>
+      <c r="S107" s="626"/>
+      <c r="T107" s="627" t="str">
         <f>IF(T106&lt;&gt;"",T106,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v>Auto 2</v>
       </c>
-      <c r="U107" s="587"/>
-      <c r="V107" s="587"/>
-      <c r="W107" s="587" t="str">
+      <c r="U107" s="627"/>
+      <c r="V107" s="627"/>
+      <c r="W107" s="627" t="str">
         <f>IF(W106&lt;&gt;"",W106,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v>High Level</v>
       </c>
-      <c r="X107" s="587"/>
-      <c r="Y107" s="587"/>
+      <c r="X107" s="627"/>
+      <c r="Y107" s="627"/>
       <c r="AA107" s="2" t="s">
         <v>113</v>
       </c>
@@ -22268,24 +22427,24 @@
       <c r="P139" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="Q139" s="586" t="str">
+      <c r="Q139" s="626" t="str">
         <f>IF(Q138&lt;&gt;"",Q138,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R139" s="586"/>
-      <c r="S139" s="586"/>
-      <c r="T139" s="587" t="str">
+      <c r="R139" s="626"/>
+      <c r="S139" s="626"/>
+      <c r="T139" s="627" t="str">
         <f>IF(T138&lt;&gt;"",T138,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v>Auto 2</v>
       </c>
-      <c r="U139" s="587"/>
-      <c r="V139" s="587"/>
-      <c r="W139" s="587" t="str">
+      <c r="U139" s="627"/>
+      <c r="V139" s="627"/>
+      <c r="W139" s="627" t="str">
         <f>IF(W138&lt;&gt;"",W138,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v>High Level</v>
       </c>
-      <c r="X139" s="587"/>
-      <c r="Y139" s="587"/>
+      <c r="X139" s="627"/>
+      <c r="Y139" s="627"/>
       <c r="AA139" s="2" t="str">
         <f>$W$139&amp;" Mag 2"</f>
         <v>High Level Mag 2</v>
@@ -24140,11 +24299,11 @@
       <c r="AB171" s="43"/>
       <c r="AC171" s="31" t="str">
         <f t="shared" si="22"/>
-        <v>Change</v>
-      </c>
-      <c r="AD171" s="44">
+        <v/>
+      </c>
+      <c r="AD171" s="44" t="str">
         <f t="shared" ref="AD171:AD182" si="23">IF(Q331="","",Q331)</f>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="172" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -24185,11 +24344,11 @@
       <c r="AB172" s="43"/>
       <c r="AC172" s="31" t="str">
         <f t="shared" si="22"/>
-        <v>Change</v>
-      </c>
-      <c r="AD172" s="44">
+        <v/>
+      </c>
+      <c r="AD172" s="44" t="str">
         <f t="shared" si="23"/>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="173" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -24238,11 +24397,11 @@
       <c r="AB173" s="43"/>
       <c r="AC173" s="31" t="str">
         <f t="shared" si="22"/>
-        <v>Change</v>
-      </c>
-      <c r="AD173" s="44">
+        <v/>
+      </c>
+      <c r="AD173" s="44" t="str">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v/>
       </c>
     </row>
     <row r="174" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -24294,11 +24453,11 @@
       <c r="AB174" s="43"/>
       <c r="AC174" s="31" t="str">
         <f t="shared" si="22"/>
-        <v>Change</v>
-      </c>
-      <c r="AD174" s="44">
+        <v/>
+      </c>
+      <c r="AD174" s="44" t="str">
         <f t="shared" si="23"/>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="175" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -24344,11 +24503,11 @@
       <c r="AB175" s="43"/>
       <c r="AC175" s="31" t="str">
         <f t="shared" si="22"/>
-        <v>Change</v>
-      </c>
-      <c r="AD175" s="44">
+        <v/>
+      </c>
+      <c r="AD175" s="44" t="str">
         <f t="shared" si="23"/>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="176" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -24393,11 +24552,11 @@
       <c r="AB176" s="43"/>
       <c r="AC176" s="31" t="str">
         <f t="shared" si="22"/>
-        <v>Change</v>
-      </c>
-      <c r="AD176" s="44">
+        <v/>
+      </c>
+      <c r="AD176" s="44" t="str">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v/>
       </c>
     </row>
     <row r="177" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -24445,11 +24604,11 @@
       <c r="AB177" s="43"/>
       <c r="AC177" s="31" t="str">
         <f t="shared" si="22"/>
-        <v>Change</v>
-      </c>
-      <c r="AD177" s="44">
+        <v/>
+      </c>
+      <c r="AD177" s="44" t="str">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v/>
       </c>
     </row>
     <row r="178" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -24502,11 +24661,11 @@
       <c r="AB178" s="43"/>
       <c r="AC178" s="31" t="str">
         <f t="shared" si="22"/>
-        <v>Change</v>
-      </c>
-      <c r="AD178" s="44">
+        <v/>
+      </c>
+      <c r="AD178" s="44" t="str">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v/>
       </c>
     </row>
     <row r="179" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -24556,11 +24715,11 @@
       <c r="AB179" s="43"/>
       <c r="AC179" s="31" t="str">
         <f t="shared" si="22"/>
-        <v>Change</v>
-      </c>
-      <c r="AD179" s="44">
+        <v/>
+      </c>
+      <c r="AD179" s="44" t="str">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v/>
       </c>
     </row>
     <row r="180" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -24601,11 +24760,11 @@
       <c r="AB180" s="43"/>
       <c r="AC180" s="31" t="str">
         <f t="shared" si="22"/>
-        <v>Change</v>
-      </c>
-      <c r="AD180" s="44">
+        <v/>
+      </c>
+      <c r="AD180" s="44" t="str">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v/>
       </c>
     </row>
     <row r="181" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -24628,10 +24787,10 @@
       <c r="P181" s="138"/>
       <c r="Q181" s="140"/>
       <c r="R181" s="131"/>
-      <c r="T181" s="588" t="s">
+      <c r="T181" s="603" t="s">
         <v>247</v>
       </c>
-      <c r="U181" s="588"/>
+      <c r="U181" s="603"/>
       <c r="W181" s="2" t="s">
         <v>201</v>
       </c>
@@ -24646,11 +24805,11 @@
       <c r="AB181" s="43"/>
       <c r="AC181" s="31" t="str">
         <f t="shared" si="22"/>
-        <v>Change</v>
-      </c>
-      <c r="AD181" s="44">
+        <v/>
+      </c>
+      <c r="AD181" s="44" t="str">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v/>
       </c>
     </row>
     <row r="182" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -24690,11 +24849,11 @@
       <c r="AB182" s="43"/>
       <c r="AC182" s="31" t="str">
         <f t="shared" si="22"/>
-        <v>Change</v>
-      </c>
-      <c r="AD182" s="44">
+        <v/>
+      </c>
+      <c r="AD182" s="44" t="str">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="183" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -24739,11 +24898,11 @@
       <c r="AB183" s="43"/>
       <c r="AC183" s="31" t="str">
         <f t="shared" si="22"/>
-        <v>Change</v>
-      </c>
-      <c r="AD183" s="44">
+        <v/>
+      </c>
+      <c r="AD183" s="44" t="str">
         <f t="shared" ref="AD183:AD194" si="25">IF(R331="","",R331)</f>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="184" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -24785,11 +24944,11 @@
       <c r="AB184" s="43"/>
       <c r="AC184" s="31" t="str">
         <f t="shared" si="22"/>
-        <v>Change</v>
-      </c>
-      <c r="AD184" s="44">
+        <v/>
+      </c>
+      <c r="AD184" s="44" t="str">
         <f t="shared" si="25"/>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="185" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -24816,11 +24975,11 @@
       <c r="AB185" s="43"/>
       <c r="AC185" s="31" t="str">
         <f t="shared" si="22"/>
-        <v>Change</v>
-      </c>
-      <c r="AD185" s="44">
+        <v/>
+      </c>
+      <c r="AD185" s="44" t="str">
         <f t="shared" si="25"/>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="186" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -24858,11 +25017,11 @@
       <c r="AB186" s="43"/>
       <c r="AC186" s="31" t="str">
         <f t="shared" ref="AC186:AC217" si="26">IF(AB186&lt;&gt;AD186,"Change","")</f>
-        <v>Change</v>
-      </c>
-      <c r="AD186" s="44">
+        <v/>
+      </c>
+      <c r="AD186" s="44" t="str">
         <f t="shared" si="25"/>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="187" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -24889,11 +25048,11 @@
       <c r="AB187" s="43"/>
       <c r="AC187" s="31" t="str">
         <f t="shared" si="26"/>
-        <v>Change</v>
-      </c>
-      <c r="AD187" s="44">
+        <v/>
+      </c>
+      <c r="AD187" s="44" t="str">
         <f t="shared" si="25"/>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="188" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -24928,11 +25087,11 @@
       <c r="AB188" s="43"/>
       <c r="AC188" s="31" t="str">
         <f t="shared" si="26"/>
-        <v>Change</v>
-      </c>
-      <c r="AD188" s="44">
+        <v/>
+      </c>
+      <c r="AD188" s="44" t="str">
         <f t="shared" si="25"/>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="189" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -24979,11 +25138,11 @@
       <c r="AB189" s="43"/>
       <c r="AC189" s="31" t="str">
         <f t="shared" si="26"/>
-        <v>Change</v>
-      </c>
-      <c r="AD189" s="44">
+        <v/>
+      </c>
+      <c r="AD189" s="44" t="str">
         <f t="shared" si="25"/>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="190" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25002,7 +25161,7 @@
       <c r="K190" s="373"/>
       <c r="L190" s="373"/>
       <c r="M190" s="377"/>
-      <c r="O190" s="589" t="str">
+      <c r="O190" s="611" t="str">
         <f>$Q$107</f>
         <v>Auto 1</v>
       </c>
@@ -25029,11 +25188,11 @@
       <c r="AB190" s="43"/>
       <c r="AC190" s="31" t="str">
         <f t="shared" si="26"/>
-        <v>Change</v>
-      </c>
-      <c r="AD190" s="44">
+        <v/>
+      </c>
+      <c r="AD190" s="44" t="str">
         <f t="shared" si="25"/>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="191" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25052,7 +25211,7 @@
       <c r="K191" s="373"/>
       <c r="L191" s="373"/>
       <c r="M191" s="353"/>
-      <c r="O191" s="589"/>
+      <c r="O191" s="611"/>
       <c r="P191" s="147" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -25075,11 +25234,11 @@
       <c r="AB191" s="43"/>
       <c r="AC191" s="31" t="str">
         <f t="shared" si="26"/>
-        <v>Change</v>
-      </c>
-      <c r="AD191" s="44">
+        <v/>
+      </c>
+      <c r="AD191" s="44" t="str">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v/>
       </c>
     </row>
     <row r="192" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25098,7 +25257,7 @@
       <c r="K192" s="138"/>
       <c r="L192" s="138"/>
       <c r="M192" s="353"/>
-      <c r="O192" s="589"/>
+      <c r="O192" s="611"/>
       <c r="P192" s="147" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -25121,11 +25280,11 @@
       <c r="AB192" s="43"/>
       <c r="AC192" s="31" t="str">
         <f t="shared" si="26"/>
-        <v>Change</v>
-      </c>
-      <c r="AD192" s="44">
+        <v/>
+      </c>
+      <c r="AD192" s="44" t="str">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v/>
       </c>
     </row>
     <row r="193" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25144,7 +25303,7 @@
       <c r="K193" s="138"/>
       <c r="L193" s="138"/>
       <c r="M193" s="353"/>
-      <c r="O193" s="589"/>
+      <c r="O193" s="611"/>
       <c r="P193" s="147" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -25164,11 +25323,11 @@
       <c r="AB193" s="43"/>
       <c r="AC193" s="31" t="str">
         <f t="shared" si="26"/>
-        <v>Change</v>
-      </c>
-      <c r="AD193" s="44">
+        <v/>
+      </c>
+      <c r="AD193" s="44" t="str">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v/>
       </c>
     </row>
     <row r="194" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25187,7 +25346,7 @@
       <c r="K194" s="138"/>
       <c r="L194" s="138"/>
       <c r="M194" s="353"/>
-      <c r="O194" s="589"/>
+      <c r="O194" s="611"/>
       <c r="P194" s="137" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -25207,11 +25366,11 @@
       <c r="AB194" s="43"/>
       <c r="AC194" s="31" t="str">
         <f t="shared" si="26"/>
-        <v>Change</v>
-      </c>
-      <c r="AD194" s="44">
+        <v/>
+      </c>
+      <c r="AD194" s="44" t="str">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v/>
       </c>
     </row>
     <row r="195" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25230,7 +25389,7 @@
       <c r="K195" s="138"/>
       <c r="L195" s="138"/>
       <c r="M195" s="353"/>
-      <c r="O195" s="589" t="str">
+      <c r="O195" s="611" t="str">
         <f>$T$107</f>
         <v>Auto 2</v>
       </c>
@@ -25253,11 +25412,11 @@
       <c r="AB195" s="43"/>
       <c r="AC195" s="31" t="str">
         <f t="shared" si="26"/>
-        <v>Change</v>
-      </c>
-      <c r="AD195" s="44">
+        <v/>
+      </c>
+      <c r="AD195" s="44" t="str">
         <f t="shared" ref="AD195:AD206" si="28">IF(S331="","",S331)</f>
-        <v>7</v>
+        <v/>
       </c>
     </row>
     <row r="196" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25276,7 +25435,7 @@
       <c r="K196" s="355"/>
       <c r="L196" s="355"/>
       <c r="M196" s="356"/>
-      <c r="O196" s="589"/>
+      <c r="O196" s="611"/>
       <c r="P196" s="147" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -25296,11 +25455,11 @@
       <c r="AB196" s="43"/>
       <c r="AC196" s="31" t="str">
         <f t="shared" si="26"/>
-        <v>Change</v>
-      </c>
-      <c r="AD196" s="44">
+        <v/>
+      </c>
+      <c r="AD196" s="44" t="str">
         <f t="shared" si="28"/>
-        <v>7</v>
+        <v/>
       </c>
     </row>
     <row r="197" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25321,7 +25480,7 @@
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="O197" s="589"/>
+      <c r="O197" s="611"/>
       <c r="P197" s="147" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -25341,11 +25500,11 @@
       <c r="AB197" s="43"/>
       <c r="AC197" s="31" t="str">
         <f t="shared" si="26"/>
-        <v>Change</v>
-      </c>
-      <c r="AD197" s="44">
+        <v/>
+      </c>
+      <c r="AD197" s="44" t="str">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="198" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25366,7 +25525,7 @@
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
-      <c r="O198" s="589"/>
+      <c r="O198" s="611"/>
       <c r="P198" s="147" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -25386,11 +25545,11 @@
       <c r="AB198" s="43"/>
       <c r="AC198" s="31" t="str">
         <f t="shared" si="26"/>
-        <v>Change</v>
-      </c>
-      <c r="AD198" s="44">
+        <v/>
+      </c>
+      <c r="AD198" s="44" t="str">
         <f t="shared" si="28"/>
-        <v>7</v>
+        <v/>
       </c>
     </row>
     <row r="199" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25412,7 +25571,7 @@
         <f>$H$2</f>
         <v>Medical University of South Carolina</v>
       </c>
-      <c r="O199" s="589"/>
+      <c r="O199" s="611"/>
       <c r="P199" s="137" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -25432,11 +25591,11 @@
       <c r="AB199" s="43"/>
       <c r="AC199" s="31" t="str">
         <f t="shared" si="26"/>
-        <v>Change</v>
-      </c>
-      <c r="AD199" s="44">
+        <v/>
+      </c>
+      <c r="AD199" s="44" t="str">
         <f t="shared" si="28"/>
-        <v>7</v>
+        <v/>
       </c>
     </row>
     <row r="200" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25461,7 +25620,7 @@
         <f>$H$5</f>
         <v>Fluoroscopy System Compliance Inspection</v>
       </c>
-      <c r="O200" s="589" t="str">
+      <c r="O200" s="611" t="str">
         <f>$W$107</f>
         <v>High Level</v>
       </c>
@@ -25484,11 +25643,11 @@
       <c r="AB200" s="43"/>
       <c r="AC200" s="31" t="str">
         <f t="shared" si="26"/>
-        <v>Change</v>
-      </c>
-      <c r="AD200" s="44">
+        <v/>
+      </c>
+      <c r="AD200" s="44" t="str">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="201" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25510,7 +25669,7 @@
       <c r="K201" s="349"/>
       <c r="L201" s="349"/>
       <c r="M201" s="350"/>
-      <c r="O201" s="589"/>
+      <c r="O201" s="611"/>
       <c r="P201" s="147" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -25530,11 +25689,11 @@
       <c r="AB201" s="43"/>
       <c r="AC201" s="31" t="str">
         <f t="shared" si="26"/>
-        <v>Change</v>
-      </c>
-      <c r="AD201" s="44">
+        <v/>
+      </c>
+      <c r="AD201" s="44" t="str">
         <f t="shared" si="28"/>
-        <v>7</v>
+        <v/>
       </c>
     </row>
     <row r="202" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25544,24 +25703,24 @@
       <c r="B202" s="351"/>
       <c r="C202" s="401"/>
       <c r="D202" s="373"/>
-      <c r="E202" s="590" t="s">
+      <c r="E202" s="614" t="s">
         <v>264</v>
       </c>
-      <c r="F202" s="591" t="s">
+      <c r="F202" s="615" t="s">
         <v>265</v>
       </c>
-      <c r="G202" s="592" t="s">
+      <c r="G202" s="616" t="s">
         <v>266</v>
       </c>
-      <c r="H202" s="593" t="str">
+      <c r="H202" s="617" t="str">
         <f>R276</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="I202" s="594" t="str">
+      <c r="I202" s="618" t="str">
         <f>S276</f>
         <v>Meas AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="J202" s="595" t="s">
+      <c r="J202" s="619" t="s">
         <v>267</v>
       </c>
       <c r="K202" s="138" t="s">
@@ -25570,10 +25729,10 @@
       <c r="L202" s="138" t="s">
         <v>269</v>
       </c>
-      <c r="M202" s="596" t="s">
+      <c r="M202" s="620" t="s">
         <v>270</v>
       </c>
-      <c r="O202" s="589"/>
+      <c r="O202" s="611"/>
       <c r="P202" s="147" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -25593,11 +25752,11 @@
       <c r="AB202" s="43"/>
       <c r="AC202" s="31" t="str">
         <f t="shared" si="26"/>
-        <v>Change</v>
-      </c>
-      <c r="AD202" s="44">
+        <v/>
+      </c>
+      <c r="AD202" s="44" t="str">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="203" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25611,12 +25770,12 @@
       <c r="D203" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="E203" s="590"/>
-      <c r="F203" s="591"/>
-      <c r="G203" s="592"/>
-      <c r="H203" s="593"/>
-      <c r="I203" s="594"/>
-      <c r="J203" s="595"/>
+      <c r="E203" s="614"/>
+      <c r="F203" s="615"/>
+      <c r="G203" s="616"/>
+      <c r="H203" s="617"/>
+      <c r="I203" s="618"/>
+      <c r="J203" s="619"/>
       <c r="K203" s="138" t="str">
         <f>U277</f>
         <v>mGy/min</v>
@@ -25625,8 +25784,8 @@
         <f>V277</f>
         <v>mGy/min</v>
       </c>
-      <c r="M203" s="596"/>
-      <c r="O203" s="589"/>
+      <c r="M203" s="620"/>
+      <c r="O203" s="611"/>
       <c r="P203" s="147" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -25646,11 +25805,11 @@
       <c r="AB203" s="43"/>
       <c r="AC203" s="31" t="str">
         <f t="shared" si="26"/>
-        <v>Change</v>
-      </c>
-      <c r="AD203" s="44">
+        <v/>
+      </c>
+      <c r="AD203" s="44" t="str">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="204" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25702,7 +25861,7 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="O204" s="589"/>
+      <c r="O204" s="611"/>
       <c r="P204" s="137" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -25722,11 +25881,11 @@
       <c r="AB204" s="43"/>
       <c r="AC204" s="31" t="str">
         <f t="shared" si="26"/>
-        <v>Change</v>
-      </c>
-      <c r="AD204" s="44">
+        <v/>
+      </c>
+      <c r="AD204" s="44" t="str">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="205" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25786,11 +25945,11 @@
       <c r="AB205" s="43"/>
       <c r="AC205" s="31" t="str">
         <f t="shared" si="26"/>
-        <v>Change</v>
-      </c>
-      <c r="AD205" s="44">
+        <v/>
+      </c>
+      <c r="AD205" s="44" t="str">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v/>
       </c>
     </row>
     <row r="206" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25864,11 +26023,11 @@
       <c r="AB206" s="43"/>
       <c r="AC206" s="31" t="str">
         <f t="shared" si="26"/>
-        <v>Change</v>
-      </c>
-      <c r="AD206" s="44">
+        <v/>
+      </c>
+      <c r="AD206" s="44" t="str">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v/>
       </c>
     </row>
     <row r="207" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -26361,7 +26520,7 @@
       <c r="K214" s="373"/>
       <c r="L214" s="373"/>
       <c r="M214" s="353"/>
-      <c r="O214" s="589" t="str">
+      <c r="O214" s="611" t="str">
         <f>$Q$139</f>
         <v>Auto 1</v>
       </c>
@@ -26411,7 +26570,7 @@
       <c r="K215" s="422"/>
       <c r="L215" s="422"/>
       <c r="M215" s="423"/>
-      <c r="O215" s="589"/>
+      <c r="O215" s="611"/>
       <c r="P215" s="147" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -26461,7 +26620,7 @@
       <c r="K216" s="373"/>
       <c r="L216" s="373"/>
       <c r="M216" s="353"/>
-      <c r="O216" s="589"/>
+      <c r="O216" s="611"/>
       <c r="P216" s="147" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -26507,7 +26666,7 @@
       <c r="K217" s="373"/>
       <c r="L217" s="373"/>
       <c r="M217" s="377"/>
-      <c r="O217" s="589"/>
+      <c r="O217" s="611"/>
       <c r="P217" s="147" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -26555,7 +26714,7 @@
       <c r="K218" s="373"/>
       <c r="L218" s="373"/>
       <c r="M218" s="377"/>
-      <c r="O218" s="589"/>
+      <c r="O218" s="611"/>
       <c r="P218" s="137" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -26598,7 +26757,7 @@
       <c r="K219" s="373"/>
       <c r="L219" s="373"/>
       <c r="M219" s="377"/>
-      <c r="O219" s="589" t="str">
+      <c r="O219" s="611" t="str">
         <f>$T$139</f>
         <v>Auto 2</v>
       </c>
@@ -26648,7 +26807,7 @@
       <c r="K220" s="373"/>
       <c r="L220" s="373"/>
       <c r="M220" s="377"/>
-      <c r="O220" s="589"/>
+      <c r="O220" s="611"/>
       <c r="P220" s="147" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -26701,7 +26860,7 @@
       <c r="K221" s="373"/>
       <c r="L221" s="373"/>
       <c r="M221" s="377"/>
-      <c r="O221" s="589"/>
+      <c r="O221" s="611"/>
       <c r="P221" s="147" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -26759,7 +26918,7 @@
       <c r="K222" s="373"/>
       <c r="L222" s="373"/>
       <c r="M222" s="377"/>
-      <c r="O222" s="589"/>
+      <c r="O222" s="611"/>
       <c r="P222" s="147" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -26814,7 +26973,7 @@
       <c r="K223" s="373"/>
       <c r="L223" s="373"/>
       <c r="M223" s="377"/>
-      <c r="O223" s="589"/>
+      <c r="O223" s="611"/>
       <c r="P223" s="137" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -26869,7 +27028,7 @@
       <c r="K224" s="373"/>
       <c r="L224" s="373"/>
       <c r="M224" s="377"/>
-      <c r="O224" s="589" t="str">
+      <c r="O224" s="611" t="str">
         <f>$W$139</f>
         <v>High Level</v>
       </c>
@@ -26927,7 +27086,7 @@
       <c r="K225" s="373"/>
       <c r="L225" s="373"/>
       <c r="M225" s="377"/>
-      <c r="O225" s="589"/>
+      <c r="O225" s="611"/>
       <c r="P225" s="147" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -26978,7 +27137,7 @@
       <c r="K226" s="373"/>
       <c r="L226" s="373"/>
       <c r="M226" s="377"/>
-      <c r="O226" s="589"/>
+      <c r="O226" s="611"/>
       <c r="P226" s="147" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -27032,7 +27191,7 @@
       <c r="K227" s="373"/>
       <c r="L227" s="373"/>
       <c r="M227" s="377"/>
-      <c r="O227" s="589"/>
+      <c r="O227" s="611"/>
       <c r="P227" s="147" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -27080,7 +27239,7 @@
       <c r="K228" s="373"/>
       <c r="L228" s="373"/>
       <c r="M228" s="377"/>
-      <c r="O228" s="589"/>
+      <c r="O228" s="611"/>
       <c r="P228" s="137" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -27606,7 +27765,7 @@
       <c r="K240" s="373"/>
       <c r="L240" s="373"/>
       <c r="M240" s="377"/>
-      <c r="O240" s="597" t="s">
+      <c r="O240" s="612" t="s">
         <v>296</v>
       </c>
       <c r="P240" s="172" t="s">
@@ -27668,7 +27827,7 @@
       <c r="K241" s="373"/>
       <c r="L241" s="373"/>
       <c r="M241" s="377"/>
-      <c r="O241" s="597"/>
+      <c r="O241" s="612"/>
       <c r="P241" s="177" t="s">
         <v>299</v>
       </c>
@@ -27719,7 +27878,7 @@
       <c r="K242" s="373"/>
       <c r="L242" s="373"/>
       <c r="M242" s="377"/>
-      <c r="O242" s="597" t="str">
+      <c r="O242" s="612" t="str">
         <f>IF($U$137=1,"Scatter - Pulse", "Scatter – Digital acq")</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -27779,7 +27938,7 @@
       <c r="K243" s="373"/>
       <c r="L243" s="373"/>
       <c r="M243" s="377"/>
-      <c r="O243" s="597"/>
+      <c r="O243" s="612"/>
       <c r="P243" s="177" t="s">
         <v>299</v>
       </c>
@@ -28305,17 +28464,17 @@
       <c r="P257" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="Q257" s="598" t="s">
+      <c r="Q257" s="613" t="s">
         <v>315</v>
       </c>
-      <c r="R257" s="598"/>
+      <c r="R257" s="613"/>
       <c r="S257" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="T257" s="598" t="s">
+      <c r="T257" s="613" t="s">
         <v>317</v>
       </c>
-      <c r="U257" s="598"/>
+      <c r="U257" s="613"/>
       <c r="V257" s="1" t="s">
         <v>318</v>
       </c>
@@ -28780,24 +28939,24 @@
         <f t="shared" si="41"/>
         <v>Attenuator</v>
       </c>
-      <c r="E269" s="599" t="str">
+      <c r="E269" s="605" t="str">
         <f>Q107</f>
         <v>Auto 1</v>
       </c>
-      <c r="F269" s="600"/>
-      <c r="G269" s="600"/>
-      <c r="H269" s="600" t="str">
+      <c r="F269" s="606"/>
+      <c r="G269" s="606"/>
+      <c r="H269" s="606" t="str">
         <f>T107</f>
         <v>Auto 2</v>
       </c>
-      <c r="I269" s="600"/>
-      <c r="J269" s="600"/>
-      <c r="K269" s="601" t="str">
+      <c r="I269" s="606"/>
+      <c r="J269" s="606"/>
+      <c r="K269" s="607" t="str">
         <f>W107</f>
         <v>High Level</v>
       </c>
-      <c r="L269" s="601"/>
-      <c r="M269" s="602"/>
+      <c r="L269" s="607"/>
+      <c r="M269" s="608"/>
       <c r="O269" s="196" t="str">
         <f t="shared" si="42"/>
         <v/>
@@ -28899,7 +29058,7 @@
         <v>7</v>
       </c>
       <c r="B271" s="351"/>
-      <c r="C271" s="603" t="str">
+      <c r="C271" s="595" t="str">
         <f>O110&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -28968,7 +29127,7 @@
         <v>8</v>
       </c>
       <c r="B272" s="351"/>
-      <c r="C272" s="603"/>
+      <c r="C272" s="595"/>
       <c r="D272" s="449">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -29041,7 +29200,7 @@
         <v>9</v>
       </c>
       <c r="B273" s="351"/>
-      <c r="C273" s="603"/>
+      <c r="C273" s="595"/>
       <c r="D273" s="452">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -29107,7 +29266,7 @@
         <v>10</v>
       </c>
       <c r="B274" s="351"/>
-      <c r="C274" s="603" t="str">
+      <c r="C274" s="595" t="str">
         <f>O113&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -29183,7 +29342,7 @@
         <v>11</v>
       </c>
       <c r="B275" s="351"/>
-      <c r="C275" s="603"/>
+      <c r="C275" s="595"/>
       <c r="D275" s="449">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -29249,7 +29408,7 @@
         <v>12</v>
       </c>
       <c r="B276" s="351"/>
-      <c r="C276" s="603"/>
+      <c r="C276" s="595"/>
       <c r="D276" s="452">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -29290,17 +29449,17 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="O276" s="604" t="s">
+      <c r="O276" s="609" t="s">
         <v>264</v>
       </c>
-      <c r="P276" s="605" t="s">
+      <c r="P276" s="610" t="s">
         <v>265</v>
       </c>
-      <c r="R276" s="605" t="str">
+      <c r="R276" s="610" t="str">
         <f>"Ind AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="S276" s="605" t="str">
+      <c r="S276" s="610" t="str">
         <f>"Meas AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Meas AK @ Ref Pt (mGy)</v>
       </c>
@@ -29329,7 +29488,7 @@
         <v>13</v>
       </c>
       <c r="B277" s="351"/>
-      <c r="C277" s="603" t="str">
+      <c r="C277" s="595" t="str">
         <f>O116&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -29373,13 +29532,13 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="O277" s="604"/>
-      <c r="P277" s="605"/>
+      <c r="O277" s="609"/>
+      <c r="P277" s="610"/>
       <c r="Q277" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="R277" s="605"/>
-      <c r="S277" s="605"/>
+      <c r="R277" s="610"/>
+      <c r="S277" s="610"/>
       <c r="T277" s="1" t="s">
         <v>324</v>
       </c>
@@ -29414,7 +29573,7 @@
         <v>14</v>
       </c>
       <c r="B278" s="351"/>
-      <c r="C278" s="603"/>
+      <c r="C278" s="595"/>
       <c r="D278" s="449">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -29501,7 +29660,7 @@
         <v>15</v>
       </c>
       <c r="B279" s="351"/>
-      <c r="C279" s="603"/>
+      <c r="C279" s="595"/>
       <c r="D279" s="452">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -29595,7 +29754,7 @@
         <v>16</v>
       </c>
       <c r="B280" s="351"/>
-      <c r="C280" s="603" t="str">
+      <c r="C280" s="595" t="str">
         <f>O119&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -29685,7 +29844,7 @@
         <v>17</v>
       </c>
       <c r="B281" s="351"/>
-      <c r="C281" s="603"/>
+      <c r="C281" s="595"/>
       <c r="D281" s="449">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -29779,7 +29938,7 @@
         <v>18</v>
       </c>
       <c r="B282" s="351"/>
-      <c r="C282" s="603"/>
+      <c r="C282" s="595"/>
       <c r="D282" s="452">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -29866,7 +30025,7 @@
         <v>19</v>
       </c>
       <c r="B283" s="351"/>
-      <c r="C283" s="603" t="str">
+      <c r="C283" s="595" t="str">
         <f>O122&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -29963,7 +30122,7 @@
         <v>20</v>
       </c>
       <c r="B284" s="351"/>
-      <c r="C284" s="603"/>
+      <c r="C284" s="595"/>
       <c r="D284" s="449">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -30050,7 +30209,7 @@
         <v>21</v>
       </c>
       <c r="B285" s="351"/>
-      <c r="C285" s="603"/>
+      <c r="C285" s="595"/>
       <c r="D285" s="449">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -30481,12 +30640,12 @@
       <c r="L293" s="138"/>
       <c r="M293" s="353"/>
       <c r="O293" s="241"/>
-      <c r="P293" s="606" t="s">
+      <c r="P293" s="600" t="s">
         <v>330</v>
       </c>
-      <c r="Q293" s="606"/>
-      <c r="R293" s="606"/>
-      <c r="S293" s="606"/>
+      <c r="Q293" s="600"/>
+      <c r="R293" s="600"/>
+      <c r="S293" s="600"/>
       <c r="T293" s="239"/>
       <c r="U293" s="239"/>
       <c r="V293" s="239"/>
@@ -30870,12 +31029,12 @@
       <c r="L302" s="138"/>
       <c r="M302" s="353"/>
       <c r="O302" s="241"/>
-      <c r="P302" s="606" t="s">
+      <c r="P302" s="600" t="s">
         <v>330</v>
       </c>
-      <c r="Q302" s="606"/>
-      <c r="R302" s="606"/>
-      <c r="S302" s="606"/>
+      <c r="Q302" s="600"/>
+      <c r="R302" s="600"/>
+      <c r="S302" s="600"/>
       <c r="T302" s="239"/>
       <c r="U302" s="239"/>
       <c r="V302" s="239"/>
@@ -30890,7 +31049,7 @@
         <v>39</v>
       </c>
       <c r="B303" s="351"/>
-      <c r="C303" s="607" t="str">
+      <c r="C303" s="578" t="str">
         <f>O190</f>
         <v>Auto 1</v>
       </c>
@@ -30958,7 +31117,7 @@
         <v>40</v>
       </c>
       <c r="B304" s="351"/>
-      <c r="C304" s="608"/>
+      <c r="C304" s="579"/>
       <c r="D304" s="491" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31021,7 +31180,7 @@
         <v>41</v>
       </c>
       <c r="B305" s="351"/>
-      <c r="C305" s="608"/>
+      <c r="C305" s="579"/>
       <c r="D305" s="491" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31076,7 +31235,7 @@
         <v>42</v>
       </c>
       <c r="B306" s="351"/>
-      <c r="C306" s="608"/>
+      <c r="C306" s="579"/>
       <c r="D306" s="491" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31121,7 +31280,7 @@
         <v>43</v>
       </c>
       <c r="B307" s="351"/>
-      <c r="C307" s="609"/>
+      <c r="C307" s="601"/>
       <c r="D307" s="494" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31173,7 +31332,7 @@
         <v>44</v>
       </c>
       <c r="B308" s="351"/>
-      <c r="C308" s="607" t="str">
+      <c r="C308" s="578" t="str">
         <f>O195</f>
         <v>Auto 2</v>
       </c>
@@ -31221,7 +31380,7 @@
         <v>45</v>
       </c>
       <c r="B309" s="351"/>
-      <c r="C309" s="608"/>
+      <c r="C309" s="579"/>
       <c r="D309" s="491" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31278,7 +31437,7 @@
         <v>46</v>
       </c>
       <c r="B310" s="351"/>
-      <c r="C310" s="608"/>
+      <c r="C310" s="579"/>
       <c r="D310" s="491" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31328,7 +31487,7 @@
         <v>47</v>
       </c>
       <c r="B311" s="351"/>
-      <c r="C311" s="608"/>
+      <c r="C311" s="579"/>
       <c r="D311" s="491" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31385,7 +31544,7 @@
         <v>48</v>
       </c>
       <c r="B312" s="351"/>
-      <c r="C312" s="610"/>
+      <c r="C312" s="580"/>
       <c r="D312" s="497" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31435,7 +31594,7 @@
         <v>49</v>
       </c>
       <c r="B313" s="351"/>
-      <c r="C313" s="611" t="str">
+      <c r="C313" s="602" t="str">
         <f>O200</f>
         <v>High Level</v>
       </c>
@@ -31494,7 +31653,7 @@
         <v>50</v>
       </c>
       <c r="B314" s="351"/>
-      <c r="C314" s="608"/>
+      <c r="C314" s="579"/>
       <c r="D314" s="491" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31537,7 +31696,7 @@
         <v>51</v>
       </c>
       <c r="B315" s="351"/>
-      <c r="C315" s="608"/>
+      <c r="C315" s="579"/>
       <c r="D315" s="491" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31580,7 +31739,7 @@
         <v>52</v>
       </c>
       <c r="B316" s="351"/>
-      <c r="C316" s="608"/>
+      <c r="C316" s="579"/>
       <c r="D316" s="491" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31625,7 +31784,7 @@
         <v>53</v>
       </c>
       <c r="B317" s="351"/>
-      <c r="C317" s="610"/>
+      <c r="C317" s="580"/>
       <c r="D317" s="497" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31735,10 +31894,10 @@
       <c r="R319" s="280"/>
       <c r="S319" s="281"/>
       <c r="T319" s="281"/>
-      <c r="V319" s="588" t="s">
+      <c r="V319" s="603" t="s">
         <v>342</v>
       </c>
-      <c r="W319" s="588"/>
+      <c r="W319" s="603"/>
       <c r="X319" s="18" t="s">
         <v>343</v>
       </c>
@@ -31939,7 +32098,7 @@
         <v>60</v>
       </c>
       <c r="B324" s="351"/>
-      <c r="C324" s="612" t="str">
+      <c r="C324" s="584" t="str">
         <f>O240</f>
         <v>Scatter – Fluoro</v>
       </c>
@@ -31989,7 +32148,7 @@
         <v>61</v>
       </c>
       <c r="B325" s="351"/>
-      <c r="C325" s="613"/>
+      <c r="C325" s="585"/>
       <c r="D325" s="506" t="str">
         <f>P241</f>
         <v>Waist level</v>
@@ -32147,13 +32306,13 @@
         <v>350</v>
       </c>
       <c r="P329" s="56"/>
-      <c r="Q329" s="614" t="s">
+      <c r="Q329" s="604" t="s">
         <v>351</v>
       </c>
-      <c r="R329" s="614"/>
-      <c r="S329" s="614"/>
-      <c r="T329" s="614"/>
-      <c r="U329" s="614"/>
+      <c r="R329" s="604"/>
+      <c r="S329" s="604"/>
+      <c r="T329" s="604"/>
+      <c r="U329" s="604"/>
       <c r="Y329" s="15"/>
     </row>
     <row r="330" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32212,15 +32371,9 @@
       <c r="P331" s="132" t="s">
         <v>353</v>
       </c>
-      <c r="Q331" s="283">
-        <v>6</v>
-      </c>
-      <c r="R331" s="283">
-        <v>6</v>
-      </c>
-      <c r="S331" s="283">
-        <v>7</v>
-      </c>
+      <c r="Q331" s="283"/>
+      <c r="R331" s="283"/>
+      <c r="S331" s="283"/>
       <c r="T331" s="283"/>
       <c r="U331" s="283"/>
       <c r="Y331" s="15"/>
@@ -32241,15 +32394,9 @@
       <c r="P332" s="132" t="s">
         <v>354</v>
       </c>
-      <c r="Q332" s="283">
-        <v>6</v>
-      </c>
-      <c r="R332" s="283">
-        <v>6</v>
-      </c>
-      <c r="S332" s="283">
-        <v>7</v>
-      </c>
+      <c r="Q332" s="283"/>
+      <c r="R332" s="283"/>
+      <c r="S332" s="283"/>
       <c r="T332" s="283"/>
       <c r="U332" s="283"/>
       <c r="Y332" s="15"/>
@@ -32277,15 +32424,9 @@
       <c r="P333" s="132" t="s">
         <v>355</v>
       </c>
-      <c r="Q333" s="283">
-        <v>5</v>
-      </c>
-      <c r="R333" s="283">
-        <v>6</v>
-      </c>
-      <c r="S333" s="283">
-        <v>6</v>
-      </c>
+      <c r="Q333" s="283"/>
+      <c r="R333" s="283"/>
+      <c r="S333" s="283"/>
       <c r="T333" s="283"/>
       <c r="U333" s="283"/>
       <c r="Y333" s="15"/>
@@ -32316,15 +32457,9 @@
       <c r="P334" s="132" t="s">
         <v>356</v>
       </c>
-      <c r="Q334" s="283">
-        <v>6</v>
-      </c>
-      <c r="R334" s="283">
-        <v>6</v>
-      </c>
-      <c r="S334" s="283">
-        <v>7</v>
-      </c>
+      <c r="Q334" s="283"/>
+      <c r="R334" s="283"/>
+      <c r="S334" s="283"/>
       <c r="T334" s="283"/>
       <c r="U334" s="283"/>
       <c r="Y334" s="15"/>
@@ -32342,37 +32477,31 @@
         <f t="shared" si="69"/>
         <v>Attenuator</v>
       </c>
-      <c r="E335" s="599" t="str">
+      <c r="E335" s="605" t="str">
         <f>Q139</f>
         <v>Auto 1</v>
       </c>
-      <c r="F335" s="600"/>
-      <c r="G335" s="600"/>
-      <c r="H335" s="600" t="str">
+      <c r="F335" s="606"/>
+      <c r="G335" s="606"/>
+      <c r="H335" s="606" t="str">
         <f>T139</f>
         <v>Auto 2</v>
       </c>
-      <c r="I335" s="600"/>
-      <c r="J335" s="600"/>
-      <c r="K335" s="601" t="str">
+      <c r="I335" s="606"/>
+      <c r="J335" s="606"/>
+      <c r="K335" s="607" t="str">
         <f>W139</f>
         <v>High Level</v>
       </c>
-      <c r="L335" s="601"/>
-      <c r="M335" s="602"/>
+      <c r="L335" s="607"/>
+      <c r="M335" s="608"/>
       <c r="O335" s="133"/>
       <c r="P335" s="132" t="s">
         <v>357</v>
       </c>
-      <c r="Q335" s="283">
-        <v>6</v>
-      </c>
-      <c r="R335" s="283">
-        <v>6</v>
-      </c>
-      <c r="S335" s="283">
-        <v>7</v>
-      </c>
+      <c r="Q335" s="283"/>
+      <c r="R335" s="283"/>
+      <c r="S335" s="283"/>
       <c r="T335" s="283"/>
       <c r="U335" s="283"/>
       <c r="Y335" s="15"/>
@@ -32430,15 +32559,9 @@
       <c r="P336" s="132" t="s">
         <v>358</v>
       </c>
-      <c r="Q336" s="283">
-        <v>5</v>
-      </c>
-      <c r="R336" s="283">
-        <v>6</v>
-      </c>
-      <c r="S336" s="283">
-        <v>6</v>
-      </c>
+      <c r="Q336" s="283"/>
+      <c r="R336" s="283"/>
+      <c r="S336" s="283"/>
       <c r="T336" s="283"/>
       <c r="U336" s="283"/>
       <c r="Y336" s="15"/>
@@ -32448,7 +32571,7 @@
         <v>7</v>
       </c>
       <c r="B337" s="351"/>
-      <c r="C337" s="603" t="str">
+      <c r="C337" s="595" t="str">
         <f>O142&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -32496,15 +32619,9 @@
       <c r="P337" s="132" t="s">
         <v>359</v>
       </c>
-      <c r="Q337" s="283">
-        <v>5</v>
-      </c>
-      <c r="R337" s="283">
-        <v>6</v>
-      </c>
-      <c r="S337" s="283">
-        <v>7</v>
-      </c>
+      <c r="Q337" s="283"/>
+      <c r="R337" s="283"/>
+      <c r="S337" s="283"/>
       <c r="T337" s="283"/>
       <c r="U337" s="283"/>
       <c r="Y337" s="15"/>
@@ -32514,7 +32631,7 @@
         <v>8</v>
       </c>
       <c r="B338" s="351"/>
-      <c r="C338" s="603"/>
+      <c r="C338" s="595"/>
       <c r="D338" s="520">
         <f t="shared" si="70"/>
         <v>20</v>
@@ -32559,15 +32676,9 @@
       <c r="P338" s="132" t="s">
         <v>360</v>
       </c>
-      <c r="Q338" s="283">
-        <v>5</v>
-      </c>
-      <c r="R338" s="283">
-        <v>6</v>
-      </c>
-      <c r="S338" s="283">
-        <v>6</v>
-      </c>
+      <c r="Q338" s="283"/>
+      <c r="R338" s="283"/>
+      <c r="S338" s="283"/>
       <c r="T338" s="283"/>
       <c r="U338" s="283"/>
       <c r="Y338" s="15"/>
@@ -32577,7 +32688,7 @@
         <v>9</v>
       </c>
       <c r="B339" s="351"/>
-      <c r="C339" s="603"/>
+      <c r="C339" s="595"/>
       <c r="D339" s="521">
         <f t="shared" si="70"/>
         <v>30</v>
@@ -32622,15 +32733,9 @@
       <c r="P339" s="132" t="s">
         <v>361</v>
       </c>
-      <c r="Q339" s="283">
-        <v>4</v>
-      </c>
-      <c r="R339" s="283">
-        <v>5</v>
-      </c>
-      <c r="S339" s="283">
-        <v>6</v>
-      </c>
+      <c r="Q339" s="283"/>
+      <c r="R339" s="283"/>
+      <c r="S339" s="283"/>
       <c r="T339" s="283"/>
       <c r="U339" s="283"/>
       <c r="Y339" s="15"/>
@@ -32640,7 +32745,7 @@
         <v>10</v>
       </c>
       <c r="B340" s="351"/>
-      <c r="C340" s="603" t="str">
+      <c r="C340" s="595" t="str">
         <f>O145&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -32688,15 +32793,9 @@
       <c r="P340" s="132" t="s">
         <v>362</v>
       </c>
-      <c r="Q340" s="283">
-        <v>4</v>
-      </c>
-      <c r="R340" s="283">
-        <v>5</v>
-      </c>
-      <c r="S340" s="283">
-        <v>6</v>
-      </c>
+      <c r="Q340" s="283"/>
+      <c r="R340" s="283"/>
+      <c r="S340" s="283"/>
       <c r="T340" s="283"/>
       <c r="U340" s="283"/>
       <c r="Y340" s="15"/>
@@ -32706,7 +32805,7 @@
         <v>11</v>
       </c>
       <c r="B341" s="351"/>
-      <c r="C341" s="603"/>
+      <c r="C341" s="595"/>
       <c r="D341" s="520">
         <f t="shared" si="70"/>
         <v>20</v>
@@ -32751,15 +32850,9 @@
       <c r="P341" s="132" t="s">
         <v>363</v>
       </c>
-      <c r="Q341" s="283">
-        <v>2</v>
-      </c>
-      <c r="R341" s="283">
-        <v>3</v>
-      </c>
-      <c r="S341" s="283">
-        <v>5</v>
-      </c>
+      <c r="Q341" s="283"/>
+      <c r="R341" s="283"/>
+      <c r="S341" s="283"/>
       <c r="T341" s="283"/>
       <c r="U341" s="283"/>
       <c r="Y341" s="15"/>
@@ -32769,7 +32862,7 @@
         <v>12</v>
       </c>
       <c r="B342" s="351"/>
-      <c r="C342" s="603"/>
+      <c r="C342" s="595"/>
       <c r="D342" s="522">
         <f t="shared" si="70"/>
         <v>30</v>
@@ -32814,15 +32907,9 @@
       <c r="P342" s="132" t="s">
         <v>364</v>
       </c>
-      <c r="Q342" s="283">
-        <v>1</v>
-      </c>
-      <c r="R342" s="283">
-        <v>2</v>
-      </c>
-      <c r="S342" s="283">
-        <v>3</v>
-      </c>
+      <c r="Q342" s="283"/>
+      <c r="R342" s="283"/>
+      <c r="S342" s="283"/>
       <c r="T342" s="283"/>
       <c r="U342" s="283"/>
       <c r="Y342" s="15"/>
@@ -32832,7 +32919,7 @@
         <v>13</v>
       </c>
       <c r="B343" s="351"/>
-      <c r="C343" s="603" t="str">
+      <c r="C343" s="595" t="str">
         <f>O148&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -32884,7 +32971,7 @@
         <v>14</v>
       </c>
       <c r="B344" s="351"/>
-      <c r="C344" s="603"/>
+      <c r="C344" s="595"/>
       <c r="D344" s="520">
         <f t="shared" si="70"/>
         <v>20</v>
@@ -32946,7 +33033,7 @@
         <v>15</v>
       </c>
       <c r="B345" s="351"/>
-      <c r="C345" s="603"/>
+      <c r="C345" s="595"/>
       <c r="D345" s="521">
         <f t="shared" si="70"/>
         <v>30</v>
@@ -33009,7 +33096,7 @@
         <v>16</v>
       </c>
       <c r="B346" s="351"/>
-      <c r="C346" s="603" t="str">
+      <c r="C346" s="595" t="str">
         <f>O151&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33072,7 +33159,7 @@
         <v>17</v>
       </c>
       <c r="B347" s="351"/>
-      <c r="C347" s="603"/>
+      <c r="C347" s="595"/>
       <c r="D347" s="520">
         <f t="shared" si="70"/>
         <v>20</v>
@@ -33130,7 +33217,7 @@
         <v>18</v>
       </c>
       <c r="B348" s="351"/>
-      <c r="C348" s="603"/>
+      <c r="C348" s="595"/>
       <c r="D348" s="522">
         <f t="shared" si="70"/>
         <v>30</v>
@@ -33208,7 +33295,7 @@
         <v>19</v>
       </c>
       <c r="B349" s="351"/>
-      <c r="C349" s="603" t="str">
+      <c r="C349" s="595" t="str">
         <f>O154&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33271,7 +33358,7 @@
         <v>20</v>
       </c>
       <c r="B350" s="351"/>
-      <c r="C350" s="603"/>
+      <c r="C350" s="595"/>
       <c r="D350" s="520">
         <f t="shared" si="70"/>
         <v>20</v>
@@ -33330,7 +33417,7 @@
         <v>21</v>
       </c>
       <c r="B351" s="351"/>
-      <c r="C351" s="603"/>
+      <c r="C351" s="595"/>
       <c r="D351" s="522">
         <f t="shared" si="70"/>
         <v>30</v>
@@ -33639,11 +33726,11 @@
         <f>IF(OR(V358="",V359="",V362=""),"",(V358-V359)*V362)</f>
         <v/>
       </c>
-      <c r="Q358" s="615" t="str">
+      <c r="Q358" s="596" t="str">
         <f>IF(OR(P358="",P359=""),"",(ABS(P358)+ABS(P359))/$O$355)</f>
         <v/>
       </c>
-      <c r="R358" s="616" t="str">
+      <c r="R358" s="597" t="str">
         <f>IF(OR(Q358="",Q360=""),"",Q358+Q360)</f>
         <v/>
       </c>
@@ -33682,8 +33769,8 @@
         <f>IF(OR(W358="",W359="",V362=""),"",(W358-W359)*V362)</f>
         <v/>
       </c>
-      <c r="Q359" s="615"/>
-      <c r="R359" s="615"/>
+      <c r="Q359" s="596"/>
+      <c r="R359" s="596"/>
       <c r="S359" s="149" t="str">
         <f>IF(AB168="","",AB168)</f>
         <v/>
@@ -33719,11 +33806,11 @@
         <f>IF(OR(X358="",X359="",V362=""),"",(X358-X359)*V362)</f>
         <v/>
       </c>
-      <c r="Q360" s="616" t="str">
+      <c r="Q360" s="597" t="str">
         <f>IF(OR(P360="",P361=""),"",(ABS(P360)+ABS(P361))/$O$355)</f>
         <v/>
       </c>
-      <c r="R360" s="616"/>
+      <c r="R360" s="597"/>
       <c r="S360" s="149" t="str">
         <f>IF(AB169="","",AB169)</f>
         <v/>
@@ -33765,8 +33852,8 @@
         <f>IF(OR(Y358="",Y359="",V362=""),"",(Y358-Y359)*V362)</f>
         <v/>
       </c>
-      <c r="Q361" s="616"/>
-      <c r="R361" s="616"/>
+      <c r="Q361" s="597"/>
+      <c r="R361" s="597"/>
       <c r="S361" s="151" t="str">
         <f>IF(AB170="","",AB170)</f>
         <v/>
@@ -33938,7 +34025,7 @@
         <v>36</v>
       </c>
       <c r="B366" s="351"/>
-      <c r="C366" s="617" t="str">
+      <c r="C366" s="598" t="str">
         <f>O214</f>
         <v>Auto 1</v>
       </c>
@@ -33989,7 +34076,7 @@
         <v>37</v>
       </c>
       <c r="B367" s="351"/>
-      <c r="C367" s="618"/>
+      <c r="C367" s="599"/>
       <c r="D367" s="491" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34035,7 +34122,7 @@
         <v>38</v>
       </c>
       <c r="B368" s="351"/>
-      <c r="C368" s="618"/>
+      <c r="C368" s="599"/>
       <c r="D368" s="491" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34070,7 +34157,7 @@
         <v>39</v>
       </c>
       <c r="B369" s="351"/>
-      <c r="C369" s="618"/>
+      <c r="C369" s="599"/>
       <c r="D369" s="491" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34105,7 +34192,7 @@
         <v>40</v>
       </c>
       <c r="B370" s="351"/>
-      <c r="C370" s="618"/>
+      <c r="C370" s="599"/>
       <c r="D370" s="497" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34150,7 +34237,7 @@
         <v>41</v>
       </c>
       <c r="B371" s="351"/>
-      <c r="C371" s="607" t="str">
+      <c r="C371" s="578" t="str">
         <f>O219</f>
         <v>Auto 2</v>
       </c>
@@ -34200,7 +34287,7 @@
         <v>42</v>
       </c>
       <c r="B372" s="351"/>
-      <c r="C372" s="608"/>
+      <c r="C372" s="579"/>
       <c r="D372" s="491" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34250,7 +34337,7 @@
         <v>43</v>
       </c>
       <c r="B373" s="351"/>
-      <c r="C373" s="608"/>
+      <c r="C373" s="579"/>
       <c r="D373" s="491" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34297,7 +34384,7 @@
         <v>44</v>
       </c>
       <c r="B374" s="351"/>
-      <c r="C374" s="608"/>
+      <c r="C374" s="579"/>
       <c r="D374" s="491" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34347,7 +34434,7 @@
         <v>45</v>
       </c>
       <c r="B375" s="351"/>
-      <c r="C375" s="610"/>
+      <c r="C375" s="580"/>
       <c r="D375" s="497" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34394,7 +34481,7 @@
         <v>46</v>
       </c>
       <c r="B376" s="351"/>
-      <c r="C376" s="619" t="str">
+      <c r="C376" s="581" t="str">
         <f>O224</f>
         <v>High Level</v>
       </c>
@@ -34447,7 +34534,7 @@
         <v>47</v>
       </c>
       <c r="B377" s="351"/>
-      <c r="C377" s="620"/>
+      <c r="C377" s="582"/>
       <c r="D377" s="491" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34494,7 +34581,7 @@
         <v>48</v>
       </c>
       <c r="B378" s="351"/>
-      <c r="C378" s="620"/>
+      <c r="C378" s="582"/>
       <c r="D378" s="491" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34544,7 +34631,7 @@
         <v>49</v>
       </c>
       <c r="B379" s="351"/>
-      <c r="C379" s="620"/>
+      <c r="C379" s="582"/>
       <c r="D379" s="491" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34591,7 +34678,7 @@
         <v>50</v>
       </c>
       <c r="B380" s="351"/>
-      <c r="C380" s="621"/>
+      <c r="C380" s="583"/>
       <c r="D380" s="497" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34901,7 +34988,7 @@
         <v>58</v>
       </c>
       <c r="B388" s="351"/>
-      <c r="C388" s="612" t="str">
+      <c r="C388" s="584" t="str">
         <f>O242</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -34952,7 +35039,7 @@
         <v>59</v>
       </c>
       <c r="B389" s="351"/>
-      <c r="C389" s="613"/>
+      <c r="C389" s="585"/>
       <c r="D389" s="506" t="str">
         <f>P243</f>
         <v>Waist level</v>
@@ -35303,14 +35390,14 @@
       <c r="E399" s="349"/>
       <c r="F399" s="349"/>
       <c r="G399" s="349"/>
-      <c r="H399" s="622" t="s">
+      <c r="H399" s="586" t="s">
         <v>397</v>
       </c>
-      <c r="I399" s="622"/>
-      <c r="J399" s="622" t="s">
+      <c r="I399" s="586"/>
+      <c r="J399" s="586" t="s">
         <v>398</v>
       </c>
-      <c r="K399" s="622"/>
+      <c r="K399" s="586"/>
       <c r="L399" s="349"/>
       <c r="M399" s="350"/>
       <c r="O399" s="14"/>
@@ -35884,20 +35971,20 @@
       </c>
       <c r="B413" s="351"/>
       <c r="C413" s="45"/>
-      <c r="D413" s="623" t="s">
+      <c r="D413" s="587" t="s">
         <v>404</v>
       </c>
-      <c r="E413" s="623"/>
-      <c r="F413" s="623"/>
-      <c r="G413" s="623"/>
-      <c r="H413" s="623"/>
-      <c r="I413" s="623" t="s">
+      <c r="E413" s="587"/>
+      <c r="F413" s="587"/>
+      <c r="G413" s="587"/>
+      <c r="H413" s="587"/>
+      <c r="I413" s="587" t="s">
         <v>405</v>
       </c>
-      <c r="J413" s="623"/>
-      <c r="K413" s="623"/>
-      <c r="L413" s="623"/>
-      <c r="M413" s="624"/>
+      <c r="J413" s="587"/>
+      <c r="K413" s="587"/>
+      <c r="L413" s="587"/>
+      <c r="M413" s="588"/>
       <c r="O413" s="14"/>
       <c r="P413" s="2" t="s">
         <v>191</v>
@@ -35987,17 +36074,17 @@
       <c r="C415" s="412" t="s">
         <v>353</v>
       </c>
-      <c r="D415" s="559">
+      <c r="D415" s="559" t="str">
         <f t="shared" ref="D415:D426" si="86">IF(Q331="","",HLOOKUP(Q331,TO10Values,MATCH($P331,TO10Group,0)))</f>
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="E415" s="560">
+        <v/>
+      </c>
+      <c r="E415" s="560" t="str">
         <f t="shared" ref="E415:E426" si="87">IF(R331="","",HLOOKUP(R331,TO10Values,MATCH($P331,TO10Group,0)))</f>
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="F415" s="560">
+        <v/>
+      </c>
+      <c r="F415" s="560" t="str">
         <f t="shared" ref="F415:F426" si="88">IF(S331="","",HLOOKUP(S331,TO10Values,MATCH($P331,TO10Group,0)))</f>
-        <v>2.1499999999999998E-2</v>
+        <v/>
       </c>
       <c r="G415" s="560" t="str">
         <f t="shared" ref="G415:G426" si="89">IF(T331="","",HLOOKUP(T331,TO10Values,MATCH($P331,TO10Group,0)))</f>
@@ -36007,17 +36094,17 @@
         <f t="shared" ref="H415:H426" si="90">IF(U331="","",HLOOKUP(U331,TO10Values,MATCH($P331,TO10Group,0)))</f>
         <v/>
       </c>
-      <c r="I415" s="562">
+      <c r="I415" s="562" t="str">
         <f>IF(D415="","",IF(ISNA(D415),NA(),1/(D415*Tables!$C47)))</f>
-        <v>3.1570118266899243</v>
-      </c>
-      <c r="J415" s="563">
+        <v/>
+      </c>
+      <c r="J415" s="563" t="str">
         <f>IF(E415="","",IF(ISNA(E415),NA(),1/(E415*Tables!$C47)))</f>
-        <v>3.1570118266899243</v>
-      </c>
-      <c r="K415" s="563">
+        <v/>
+      </c>
+      <c r="K415" s="563" t="str">
         <f>IF(F415="","",IF(ISNA(F415),NA(),1/(F415*Tables!$C47)))</f>
-        <v>4.7281758520658403</v>
+        <v/>
       </c>
       <c r="L415" s="563" t="str">
         <f>IF(G415="","",IF(ISNA(G415),NA(),1/(G415*Tables!$C47)))</f>
@@ -36051,17 +36138,17 @@
       <c r="C416" s="412" t="s">
         <v>354</v>
       </c>
-      <c r="D416" s="547">
+      <c r="D416" s="547" t="str">
         <f t="shared" si="86"/>
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="E416" s="548">
+        <v/>
+      </c>
+      <c r="E416" s="548" t="str">
         <f t="shared" si="87"/>
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="F416" s="548">
+        <v/>
+      </c>
+      <c r="F416" s="548" t="str">
         <f t="shared" si="88"/>
-        <v>2.1499999999999998E-2</v>
+        <v/>
       </c>
       <c r="G416" s="548" t="str">
         <f t="shared" si="89"/>
@@ -36071,17 +36158,17 @@
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="I416" s="553">
+      <c r="I416" s="553" t="str">
         <f>IF(D416="","",IF(ISNA(D416),NA(),1/(D416*Tables!$C48)))</f>
-        <v>4.4358014273744502</v>
-      </c>
-      <c r="J416" s="554">
+        <v/>
+      </c>
+      <c r="J416" s="554" t="str">
         <f>IF(E416="","",IF(ISNA(E416),NA(),1/(E416*Tables!$C48)))</f>
-        <v>4.4358014273744502</v>
-      </c>
-      <c r="K416" s="554">
+        <v/>
+      </c>
+      <c r="K416" s="554" t="str">
         <f>IF(F416="","",IF(ISNA(F416),NA(),1/(F416*Tables!$C48)))</f>
-        <v>6.6433863237887119</v>
+        <v/>
       </c>
       <c r="L416" s="554" t="str">
         <f>IF(G416="","",IF(ISNA(G416),NA(),1/(G416*Tables!$C48)))</f>
@@ -36116,17 +36203,17 @@
       <c r="C417" s="412" t="s">
         <v>355</v>
       </c>
-      <c r="D417" s="547">
+      <c r="D417" s="547" t="str">
         <f t="shared" si="86"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E417" s="548">
+        <v/>
+      </c>
+      <c r="E417" s="548" t="str">
         <f t="shared" si="87"/>
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="F417" s="548">
+        <v/>
+      </c>
+      <c r="F417" s="548" t="str">
         <f t="shared" si="88"/>
-        <v>3.2199999999999999E-2</v>
+        <v/>
       </c>
       <c r="G417" s="548" t="str">
         <f t="shared" si="89"/>
@@ -36136,17 +36223,17 @@
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="I417" s="553">
+      <c r="I417" s="553" t="str">
         <f>IF(D417="","",IF(ISNA(D417),NA(),1/(D417*Tables!$C49)))</f>
-        <v>4.4776951075218765</v>
-      </c>
-      <c r="J417" s="554">
+        <v/>
+      </c>
+      <c r="J417" s="554" t="str">
         <f>IF(E417="","",IF(ISNA(E417),NA(),1/(E417*Tables!$C49)))</f>
-        <v>6.257648442188958</v>
-      </c>
-      <c r="K417" s="554">
+        <v/>
+      </c>
+      <c r="K417" s="554" t="str">
         <f>IF(F417="","",IF(ISNA(F417),NA(),1/(F417*Tables!$C49)))</f>
-        <v>6.257648442188958</v>
+        <v/>
       </c>
       <c r="L417" s="554" t="str">
         <f>IF(G417="","",IF(ISNA(G417),NA(),1/(G417*Tables!$C49)))</f>
@@ -36180,17 +36267,17 @@
       <c r="C418" s="412" t="s">
         <v>356</v>
       </c>
-      <c r="D418" s="547">
+      <c r="D418" s="547" t="str">
         <f t="shared" si="86"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E418" s="548">
+        <v/>
+      </c>
+      <c r="E418" s="548" t="str">
         <f t="shared" si="87"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="F418" s="548">
+        <v/>
+      </c>
+      <c r="F418" s="548" t="str">
         <f t="shared" si="88"/>
-        <v>3.2199999999999999E-2</v>
+        <v/>
       </c>
       <c r="G418" s="548" t="str">
         <f t="shared" si="89"/>
@@ -36200,17 +36287,17 @@
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="I418" s="553">
+      <c r="I418" s="553" t="str">
         <f>IF(D418="","",IF(ISNA(D418),NA(),1/(D418*Tables!$C50)))</f>
-        <v>6.2687731505306257</v>
-      </c>
-      <c r="J418" s="554">
+        <v/>
+      </c>
+      <c r="J418" s="554" t="str">
         <f>IF(E418="","",IF(ISNA(E418),NA(),1/(E418*Tables!$C50)))</f>
-        <v>6.2687731505306257</v>
-      </c>
-      <c r="K418" s="554">
+        <v/>
+      </c>
+      <c r="K418" s="554" t="str">
         <f>IF(F418="","",IF(ISNA(F418),NA(),1/(F418*Tables!$C50)))</f>
-        <v>8.7607078190645389</v>
+        <v/>
       </c>
       <c r="L418" s="554" t="str">
         <f>IF(G418="","",IF(ISNA(G418),NA(),1/(G418*Tables!$C50)))</f>
@@ -36245,17 +36332,17 @@
       <c r="C419" s="412" t="s">
         <v>357</v>
       </c>
-      <c r="D419" s="547">
+      <c r="D419" s="547" t="str">
         <f t="shared" si="86"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E419" s="548">
+        <v/>
+      </c>
+      <c r="E419" s="548" t="str">
         <f t="shared" si="87"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="F419" s="548">
+        <v/>
+      </c>
+      <c r="F419" s="548" t="str">
         <f t="shared" si="88"/>
-        <v>3.2199999999999999E-2</v>
+        <v/>
       </c>
       <c r="G419" s="548" t="str">
         <f t="shared" si="89"/>
@@ -36265,17 +36352,17 @@
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="I419" s="553">
+      <c r="I419" s="553" t="str">
         <f>IF(D419="","",IF(ISNA(D419),NA(),1/(D419*Tables!$C51)))</f>
-        <v>8.955390215043753</v>
-      </c>
-      <c r="J419" s="554">
+        <v/>
+      </c>
+      <c r="J419" s="554" t="str">
         <f>IF(E419="","",IF(ISNA(E419),NA(),1/(E419*Tables!$C51)))</f>
-        <v>8.955390215043753</v>
-      </c>
-      <c r="K419" s="554">
+        <v/>
+      </c>
+      <c r="K419" s="554" t="str">
         <f>IF(F419="","",IF(ISNA(F419),NA(),1/(F419*Tables!$C51)))</f>
-        <v>12.515296884377916</v>
+        <v/>
       </c>
       <c r="L419" s="554" t="str">
         <f>IF(G419="","",IF(ISNA(G419),NA(),1/(G419*Tables!$C51)))</f>
@@ -36309,17 +36396,17 @@
       <c r="C420" s="412" t="s">
         <v>358</v>
       </c>
-      <c r="D420" s="547">
+      <c r="D420" s="547" t="str">
         <f t="shared" si="86"/>
-        <v>6.7400000000000002E-2</v>
-      </c>
-      <c r="E420" s="548">
+        <v/>
+      </c>
+      <c r="E420" s="548" t="str">
         <f t="shared" si="87"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="F420" s="548">
+        <v/>
+      </c>
+      <c r="F420" s="548" t="str">
         <f t="shared" si="88"/>
-        <v>4.4999999999999998E-2</v>
+        <v/>
       </c>
       <c r="G420" s="548" t="str">
         <f t="shared" si="89"/>
@@ -36329,17 +36416,17 @@
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="I420" s="553">
+      <c r="I420" s="553" t="str">
         <f>IF(D420="","",IF(ISNA(D420),NA(),1/(D420*Tables!$C52)))</f>
-        <v>8.3707653345364434</v>
-      </c>
-      <c r="J420" s="554">
+        <v/>
+      </c>
+      <c r="J420" s="554" t="str">
         <f>IF(E420="","",IF(ISNA(E420),NA(),1/(E420*Tables!$C52)))</f>
-        <v>12.537546301061251</v>
-      </c>
-      <c r="K420" s="554">
+        <v/>
+      </c>
+      <c r="K420" s="554" t="str">
         <f>IF(F420="","",IF(ISNA(F420),NA(),1/(F420*Tables!$C52)))</f>
-        <v>12.537546301061251</v>
+        <v/>
       </c>
       <c r="L420" s="554" t="str">
         <f>IF(G420="","",IF(ISNA(G420),NA(),1/(G420*Tables!$C52)))</f>
@@ -36374,17 +36461,17 @@
       <c r="C421" s="412" t="s">
         <v>359</v>
       </c>
-      <c r="D421" s="547">
+      <c r="D421" s="547" t="str">
         <f t="shared" si="86"/>
-        <v>0.128</v>
-      </c>
-      <c r="E421" s="548">
+        <v/>
+      </c>
+      <c r="E421" s="548" t="str">
         <f t="shared" si="87"/>
-        <v>8.7599999999999997E-2</v>
-      </c>
-      <c r="F421" s="548">
+        <v/>
+      </c>
+      <c r="F421" s="548" t="str">
         <f t="shared" si="88"/>
-        <v>6.7400000000000002E-2</v>
+        <v/>
       </c>
       <c r="G421" s="548" t="str">
         <f t="shared" si="89"/>
@@ -36394,17 +36481,17 @@
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="I421" s="553">
+      <c r="I421" s="553" t="str">
         <f>IF(D421="","",IF(ISNA(D421),NA(),1/(D421*Tables!$C53)))</f>
-        <v>6.2967587449526388</v>
-      </c>
-      <c r="J421" s="554">
+        <v/>
+      </c>
+      <c r="J421" s="554" t="str">
         <f>IF(E421="","",IF(ISNA(E421),NA(),1/(E421*Tables!$C53)))</f>
-        <v>9.2007433716202947</v>
-      </c>
-      <c r="K421" s="554">
+        <v/>
+      </c>
+      <c r="K421" s="554" t="str">
         <f>IF(F421="","",IF(ISNA(F421),NA(),1/(F421*Tables!$C53)))</f>
-        <v>11.958236192194921</v>
+        <v/>
       </c>
       <c r="L421" s="554" t="str">
         <f>IF(G421="","",IF(ISNA(G421),NA(),1/(G421*Tables!$C53)))</f>
@@ -36438,17 +36525,17 @@
       <c r="C422" s="412" t="s">
         <v>360</v>
       </c>
-      <c r="D422" s="547">
+      <c r="D422" s="547" t="str">
         <f t="shared" si="86"/>
-        <v>0.128</v>
-      </c>
-      <c r="E422" s="548">
+        <v/>
+      </c>
+      <c r="E422" s="548" t="str">
         <f t="shared" si="87"/>
-        <v>8.7599999999999997E-2</v>
-      </c>
-      <c r="F422" s="548">
+        <v/>
+      </c>
+      <c r="F422" s="548" t="str">
         <f t="shared" si="88"/>
-        <v>8.7599999999999997E-2</v>
+        <v/>
       </c>
       <c r="G422" s="548" t="str">
         <f t="shared" si="89"/>
@@ -36458,17 +36545,17 @@
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="I422" s="553">
+      <c r="I422" s="553" t="str">
         <f>IF(D422="","",IF(ISNA(D422),NA(),1/(D422*Tables!$C54)))</f>
-        <v>8.8154622429336928</v>
-      </c>
-      <c r="J422" s="554">
+        <v/>
+      </c>
+      <c r="J422" s="554" t="str">
         <f>IF(E422="","",IF(ISNA(E422),NA(),1/(E422*Tables!$C54)))</f>
-        <v>12.881040720268409</v>
-      </c>
-      <c r="K422" s="554">
+        <v/>
+      </c>
+      <c r="K422" s="554" t="str">
         <f>IF(F422="","",IF(ISNA(F422),NA(),1/(F422*Tables!$C54)))</f>
-        <v>12.881040720268409</v>
+        <v/>
       </c>
       <c r="L422" s="554" t="str">
         <f>IF(G422="","",IF(ISNA(G422),NA(),1/(G422*Tables!$C54)))</f>
@@ -36503,17 +36590,17 @@
       <c r="C423" s="412" t="s">
         <v>361</v>
       </c>
-      <c r="D423" s="547">
+      <c r="D423" s="547" t="str">
         <f t="shared" si="86"/>
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="E423" s="548">
+        <v/>
+      </c>
+      <c r="E423" s="548" t="str">
         <f t="shared" si="87"/>
-        <v>0.128</v>
-      </c>
-      <c r="F423" s="548">
+        <v/>
+      </c>
+      <c r="F423" s="548" t="str">
         <f t="shared" si="88"/>
-        <v>8.7599999999999997E-2</v>
+        <v/>
       </c>
       <c r="G423" s="548" t="str">
         <f t="shared" si="89"/>
@@ -36523,17 +36610,17 @@
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="I423" s="553">
+      <c r="I423" s="553" t="str">
         <f>IF(D423="","",IF(ISNA(D423),NA(),1/(D423*Tables!$C55)))</f>
-        <v>9.6525163994483556</v>
-      </c>
-      <c r="J423" s="554">
+        <v/>
+      </c>
+      <c r="J423" s="554" t="str">
         <f>IF(E423="","",IF(ISNA(E423),NA(),1/(E423*Tables!$C55)))</f>
-        <v>12.593517489905278</v>
-      </c>
-      <c r="K423" s="554">
+        <v/>
+      </c>
+      <c r="K423" s="554" t="str">
         <f>IF(F423="","",IF(ISNA(F423),NA(),1/(F423*Tables!$C55)))</f>
-        <v>18.401486743240589</v>
+        <v/>
       </c>
       <c r="L423" s="554" t="str">
         <f>IF(G423="","",IF(ISNA(G423),NA(),1/(G423*Tables!$C55)))</f>
@@ -36567,17 +36654,17 @@
       <c r="C424" s="412" t="s">
         <v>362</v>
       </c>
-      <c r="D424" s="547">
+      <c r="D424" s="547" t="str">
         <f t="shared" si="86"/>
-        <v>0.36</v>
-      </c>
-      <c r="E424" s="548">
+        <v/>
+      </c>
+      <c r="E424" s="548" t="str">
         <f t="shared" si="87"/>
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="F424" s="548">
+        <v/>
+      </c>
+      <c r="F424" s="548" t="str">
         <f t="shared" si="88"/>
-        <v>0.16700000000000001</v>
+        <v/>
       </c>
       <c r="G424" s="548" t="str">
         <f t="shared" si="89"/>
@@ -36587,17 +36674,17 @@
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="I424" s="553">
+      <c r="I424" s="553" t="str">
         <f>IF(D424="","",IF(ISNA(D424),NA(),1/(D424*Tables!$C56)))</f>
-        <v>6.2687731505306257</v>
-      </c>
-      <c r="J424" s="554">
+        <v/>
+      </c>
+      <c r="J424" s="554" t="str">
         <f>IF(E424="","",IF(ISNA(E424),NA(),1/(E424*Tables!$C56)))</f>
-        <v>9.4821778747522067</v>
-      </c>
-      <c r="K424" s="554">
+        <v/>
+      </c>
+      <c r="K424" s="554" t="str">
         <f>IF(F424="","",IF(ISNA(F424),NA(),1/(F424*Tables!$C56)))</f>
-        <v>13.513522959227696</v>
+        <v/>
       </c>
       <c r="L424" s="554" t="str">
         <f>IF(G424="","",IF(ISNA(G424),NA(),1/(G424*Tables!$C56)))</f>
@@ -36632,17 +36719,17 @@
       <c r="C425" s="412" t="s">
         <v>363</v>
       </c>
-      <c r="D425" s="547">
+      <c r="D425" s="547" t="str">
         <f t="shared" si="86"/>
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="E425" s="548">
+        <v/>
+      </c>
+      <c r="E425" s="548" t="str">
         <f t="shared" si="87"/>
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="F425" s="548">
+        <v/>
+      </c>
+      <c r="F425" s="548" t="str">
         <f t="shared" si="88"/>
-        <v>0.23799999999999999</v>
+        <v/>
       </c>
       <c r="G425" s="548" t="str">
         <f t="shared" si="89"/>
@@ -36652,17 +36739,17 @@
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="I425" s="553">
+      <c r="I425" s="553" t="str">
         <f>IF(D425="","",IF(ISNA(D425),NA(),1/(D425*Tables!$C57)))</f>
-        <v>4.4406893628316126</v>
-      </c>
-      <c r="J425" s="554">
+        <v/>
+      </c>
+      <c r="J425" s="554" t="str">
         <f>IF(E425="","",IF(ISNA(E425),NA(),1/(E425*Tables!$C57)))</f>
-        <v>5.6264231717552375</v>
-      </c>
-      <c r="K425" s="554">
+        <v/>
+      </c>
+      <c r="K425" s="554" t="str">
         <f>IF(F425="","",IF(ISNA(F425),NA(),1/(F425*Tables!$C57)))</f>
-        <v>13.545968392503156</v>
+        <v/>
       </c>
       <c r="L425" s="554" t="str">
         <f>IF(G425="","",IF(ISNA(G425),NA(),1/(G425*Tables!$C57)))</f>
@@ -36696,17 +36783,17 @@
       <c r="C426" s="412" t="s">
         <v>364</v>
       </c>
-      <c r="D426" s="549">
+      <c r="D426" s="549" t="str">
         <f t="shared" si="86"/>
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="E426" s="550">
+        <v/>
+      </c>
+      <c r="E426" s="550" t="str">
         <f t="shared" si="87"/>
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="F426" s="550">
+        <v/>
+      </c>
+      <c r="F426" s="550" t="str">
         <f t="shared" si="88"/>
-        <v>0.57299999999999995</v>
+        <v/>
       </c>
       <c r="G426" s="550" t="str">
         <f t="shared" si="89"/>
@@ -36716,17 +36803,17 @@
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="I426" s="556">
+      <c r="I426" s="556" t="str">
         <f>IF(D426="","",IF(ISNA(D426),NA(),1/(D426*Tables!$C58)))</f>
-        <v>4.7311495475702836</v>
-      </c>
-      <c r="J426" s="557">
+        <v/>
+      </c>
+      <c r="J426" s="557" t="str">
         <f>IF(E426="","",IF(ISNA(E426),NA(),1/(E426*Tables!$C58)))</f>
-        <v>6.2169651079642572</v>
-      </c>
-      <c r="K426" s="557">
+        <v/>
+      </c>
+      <c r="K426" s="557" t="str">
         <f>IF(F426="","",IF(ISNA(F426),NA(),1/(F426*Tables!$C58)))</f>
-        <v>7.8769924404573315</v>
+        <v/>
       </c>
       <c r="L426" s="557" t="str">
         <f>IF(G426="","",IF(ISNA(G426),NA(),1/(G426*Tables!$C58)))</f>
@@ -37377,11 +37464,11 @@
         <f t="shared" si="92"/>
         <v/>
       </c>
-      <c r="F442" s="625" t="str">
+      <c r="F442" s="589" t="str">
         <f t="shared" si="92"/>
         <v/>
       </c>
-      <c r="G442" s="627" t="str">
+      <c r="G442" s="591" t="str">
         <f t="shared" si="92"/>
         <v/>
       </c>
@@ -37422,8 +37509,8 @@
         <f>P359</f>
         <v/>
       </c>
-      <c r="F443" s="626"/>
-      <c r="G443" s="628"/>
+      <c r="F443" s="590"/>
+      <c r="G443" s="592"/>
       <c r="H443" s="207"/>
       <c r="I443" s="85" t="str">
         <f>T360</f>
@@ -37463,11 +37550,11 @@
         <f>P360</f>
         <v/>
       </c>
-      <c r="F444" s="626" t="str">
+      <c r="F444" s="590" t="str">
         <f>Q360</f>
         <v/>
       </c>
-      <c r="G444" s="628"/>
+      <c r="G444" s="592"/>
       <c r="H444" s="138"/>
       <c r="I444" s="94" t="str">
         <f>T361</f>
@@ -37508,8 +37595,8 @@
         <f>P361</f>
         <v/>
       </c>
-      <c r="F445" s="630"/>
-      <c r="G445" s="629"/>
+      <c r="F445" s="594"/>
+      <c r="G445" s="593"/>
       <c r="H445" s="138"/>
       <c r="I445" s="138"/>
       <c r="J445" s="138"/>
@@ -43845,25 +43932,84 @@
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="C371:C375"/>
-    <mergeCell ref="C376:C380"/>
-    <mergeCell ref="C388:C389"/>
-    <mergeCell ref="H399:I399"/>
-    <mergeCell ref="J399:K399"/>
-    <mergeCell ref="D413:H413"/>
-    <mergeCell ref="I413:M413"/>
-    <mergeCell ref="F442:F443"/>
-    <mergeCell ref="G442:G445"/>
-    <mergeCell ref="F444:F445"/>
-    <mergeCell ref="C337:C339"/>
-    <mergeCell ref="C340:C342"/>
-    <mergeCell ref="C343:C345"/>
-    <mergeCell ref="C346:C348"/>
-    <mergeCell ref="C349:C351"/>
-    <mergeCell ref="Q358:Q359"/>
-    <mergeCell ref="R358:R361"/>
-    <mergeCell ref="Q360:Q361"/>
-    <mergeCell ref="C366:C370"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="Q107:S107"/>
+    <mergeCell ref="T107:V107"/>
+    <mergeCell ref="W107:Y107"/>
+    <mergeCell ref="Q139:S139"/>
+    <mergeCell ref="T139:V139"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="T181:U181"/>
+    <mergeCell ref="O190:O194"/>
+    <mergeCell ref="O195:O199"/>
+    <mergeCell ref="O200:O204"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="G202:G203"/>
+    <mergeCell ref="H202:H203"/>
+    <mergeCell ref="I202:I203"/>
+    <mergeCell ref="J202:J203"/>
+    <mergeCell ref="M202:M203"/>
+    <mergeCell ref="O214:O218"/>
+    <mergeCell ref="O219:O223"/>
+    <mergeCell ref="O224:O228"/>
+    <mergeCell ref="O240:O241"/>
+    <mergeCell ref="O242:O243"/>
+    <mergeCell ref="Q257:R257"/>
+    <mergeCell ref="T257:U257"/>
+    <mergeCell ref="E269:G269"/>
+    <mergeCell ref="H269:J269"/>
+    <mergeCell ref="K269:M269"/>
+    <mergeCell ref="C271:C273"/>
+    <mergeCell ref="C274:C276"/>
+    <mergeCell ref="O276:O277"/>
+    <mergeCell ref="P276:P277"/>
+    <mergeCell ref="R276:R277"/>
+    <mergeCell ref="S276:S277"/>
+    <mergeCell ref="C277:C279"/>
+    <mergeCell ref="C280:C282"/>
+    <mergeCell ref="C283:C285"/>
     <mergeCell ref="P293:S293"/>
     <mergeCell ref="P302:S302"/>
     <mergeCell ref="C303:C307"/>
@@ -43875,190 +44021,131 @@
     <mergeCell ref="E335:G335"/>
     <mergeCell ref="H335:J335"/>
     <mergeCell ref="K335:M335"/>
-    <mergeCell ref="C271:C273"/>
-    <mergeCell ref="C274:C276"/>
-    <mergeCell ref="O276:O277"/>
-    <mergeCell ref="P276:P277"/>
-    <mergeCell ref="R276:R277"/>
-    <mergeCell ref="S276:S277"/>
-    <mergeCell ref="C277:C279"/>
-    <mergeCell ref="C280:C282"/>
-    <mergeCell ref="C283:C285"/>
-    <mergeCell ref="O214:O218"/>
-    <mergeCell ref="O219:O223"/>
-    <mergeCell ref="O224:O228"/>
-    <mergeCell ref="O240:O241"/>
-    <mergeCell ref="O242:O243"/>
-    <mergeCell ref="Q257:R257"/>
-    <mergeCell ref="T257:U257"/>
-    <mergeCell ref="E269:G269"/>
-    <mergeCell ref="H269:J269"/>
-    <mergeCell ref="K269:M269"/>
-    <mergeCell ref="T181:U181"/>
-    <mergeCell ref="O190:O194"/>
-    <mergeCell ref="O195:O199"/>
-    <mergeCell ref="O200:O204"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="G202:G203"/>
-    <mergeCell ref="H202:H203"/>
-    <mergeCell ref="I202:I203"/>
-    <mergeCell ref="J202:J203"/>
-    <mergeCell ref="M202:M203"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="Q107:S107"/>
-    <mergeCell ref="T107:V107"/>
-    <mergeCell ref="W107:Y107"/>
-    <mergeCell ref="Q139:S139"/>
-    <mergeCell ref="T139:V139"/>
-    <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C337:C339"/>
+    <mergeCell ref="C340:C342"/>
+    <mergeCell ref="C343:C345"/>
+    <mergeCell ref="C346:C348"/>
+    <mergeCell ref="C349:C351"/>
+    <mergeCell ref="Q358:Q359"/>
+    <mergeCell ref="R358:R361"/>
+    <mergeCell ref="Q360:Q361"/>
+    <mergeCell ref="C366:C370"/>
+    <mergeCell ref="C371:C375"/>
+    <mergeCell ref="C376:C380"/>
+    <mergeCell ref="C388:C389"/>
+    <mergeCell ref="H399:I399"/>
+    <mergeCell ref="J399:K399"/>
+    <mergeCell ref="D413:H413"/>
+    <mergeCell ref="I413:M413"/>
+    <mergeCell ref="F442:F443"/>
+    <mergeCell ref="G442:G445"/>
+    <mergeCell ref="F444:F445"/>
   </mergeCells>
   <conditionalFormatting sqref="S126 V126 Y126 S158 V158 Y158">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
-      <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X181">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
-      <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W237">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
-      <formula>"YES"</formula>
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+      <formula>"NO"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
-      <formula>"NO"</formula>
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
+      <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S324:T324">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q352:U352">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T361">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H139">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q286 T286 W286">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G212 J212 M212">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T299">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P312">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I230 E226 G288 J288 M288 L323 I444">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I401:I405 K401:K405">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M70:M76 M79:M87 M90:M110 M113:M118 M121:M125">
@@ -44108,16 +44195,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK1048576"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.375" style="56" customWidth="1"/>
-    <col min="3" max="1025" width="10.625" style="56" customWidth="1"/>
+    <col min="3" max="13" width="10.625" style="56" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -44219,39 +44304,39 @@
         <f>Fluoro!D269</f>
         <v>Attenuator</v>
       </c>
-      <c r="E5" s="600" t="str">
+      <c r="E5" s="606" t="str">
         <f>Fluoro!E269</f>
         <v>Auto 1</v>
       </c>
-      <c r="F5" s="600">
+      <c r="F5" s="606">
         <f>Fluoro!F269</f>
         <v>0</v>
       </c>
-      <c r="G5" s="600">
+      <c r="G5" s="606">
         <f>Fluoro!G269</f>
         <v>0</v>
       </c>
-      <c r="H5" s="600" t="str">
+      <c r="H5" s="606" t="str">
         <f>Fluoro!H269</f>
         <v>Auto 2</v>
       </c>
-      <c r="I5" s="600">
+      <c r="I5" s="606">
         <f>Fluoro!I269</f>
         <v>0</v>
       </c>
-      <c r="J5" s="600">
+      <c r="J5" s="606">
         <f>Fluoro!J269</f>
         <v>0</v>
       </c>
-      <c r="K5" s="601" t="str">
+      <c r="K5" s="607" t="str">
         <f>Fluoro!K269</f>
         <v>High Level</v>
       </c>
-      <c r="L5" s="601">
+      <c r="L5" s="607">
         <f>Fluoro!L269</f>
         <v>0</v>
       </c>
-      <c r="M5" s="601">
+      <c r="M5" s="607">
         <f>Fluoro!M269</f>
         <v>0</v>
       </c>
@@ -44308,7 +44393,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="631" t="str">
+      <c r="C7" s="634" t="str">
         <f>Fluoro!C271</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -44358,7 +44443,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="11"/>
-      <c r="C8" s="631">
+      <c r="C8" s="634">
         <f>Fluoro!C272</f>
         <v>0</v>
       </c>
@@ -44408,7 +44493,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="631">
+      <c r="C9" s="634">
         <f>Fluoro!C273</f>
         <v>0</v>
       </c>
@@ -44458,7 +44543,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="631" t="str">
+      <c r="C10" s="634" t="str">
         <f>Fluoro!C274</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -44508,7 +44593,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="631">
+      <c r="C11" s="634">
         <f>Fluoro!C275</f>
         <v>0</v>
       </c>
@@ -44558,7 +44643,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="631">
+      <c r="C12" s="634">
         <f>Fluoro!C276</f>
         <v>0</v>
       </c>
@@ -44608,7 +44693,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="11"/>
-      <c r="C13" s="631" t="str">
+      <c r="C13" s="634" t="str">
         <f>Fluoro!C277</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -44658,7 +44743,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="631">
+      <c r="C14" s="634">
         <f>Fluoro!C278</f>
         <v>0</v>
       </c>
@@ -44708,7 +44793,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="631">
+      <c r="C15" s="634">
         <f>Fluoro!C279</f>
         <v>0</v>
       </c>
@@ -44758,7 +44843,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="631" t="str">
+      <c r="C16" s="634" t="str">
         <f>Fluoro!C280</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -44808,7 +44893,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="631">
+      <c r="C17" s="634">
         <f>Fluoro!C281</f>
         <v>0</v>
       </c>
@@ -44858,7 +44943,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="11"/>
-      <c r="C18" s="631">
+      <c r="C18" s="634">
         <f>Fluoro!C282</f>
         <v>0</v>
       </c>
@@ -44908,7 +44993,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="631" t="str">
+      <c r="C19" s="634" t="str">
         <f>Fluoro!C283</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -44958,7 +45043,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="11"/>
-      <c r="C20" s="631">
+      <c r="C20" s="634">
         <f>Fluoro!C284</f>
         <v>0</v>
       </c>
@@ -45008,7 +45093,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="11"/>
-      <c r="C21" s="631">
+      <c r="C21" s="634">
         <f>Fluoro!C285</f>
         <v>0</v>
       </c>
@@ -45457,7 +45542,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="11"/>
-      <c r="C39" s="632" t="str">
+      <c r="C39" s="631" t="str">
         <f>Fluoro!C303</f>
         <v>Auto 1</v>
       </c>
@@ -45495,7 +45580,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="11"/>
-      <c r="C40" s="632">
+      <c r="C40" s="631">
         <f>Fluoro!C304</f>
         <v>0</v>
       </c>
@@ -45533,7 +45618,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="11"/>
-      <c r="C41" s="632">
+      <c r="C41" s="631">
         <f>Fluoro!C305</f>
         <v>0</v>
       </c>
@@ -45571,7 +45656,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="11"/>
-      <c r="C42" s="632">
+      <c r="C42" s="631">
         <f>Fluoro!C306</f>
         <v>0</v>
       </c>
@@ -45606,7 +45691,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="11"/>
-      <c r="C43" s="632">
+      <c r="C43" s="631">
         <f>Fluoro!C307</f>
         <v>0</v>
       </c>
@@ -45641,7 +45726,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="11"/>
-      <c r="C44" s="633" t="str">
+      <c r="C44" s="632" t="str">
         <f>Fluoro!C308</f>
         <v>Auto 2</v>
       </c>
@@ -45676,7 +45761,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="11"/>
-      <c r="C45" s="633">
+      <c r="C45" s="632">
         <f>Fluoro!C309</f>
         <v>0</v>
       </c>
@@ -45711,7 +45796,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="11"/>
-      <c r="C46" s="633">
+      <c r="C46" s="632">
         <f>Fluoro!C310</f>
         <v>0</v>
       </c>
@@ -45746,7 +45831,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="11"/>
-      <c r="C47" s="633">
+      <c r="C47" s="632">
         <f>Fluoro!C311</f>
         <v>0</v>
       </c>
@@ -45781,7 +45866,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="11"/>
-      <c r="C48" s="633">
+      <c r="C48" s="632">
         <f>Fluoro!C312</f>
         <v>0</v>
       </c>
@@ -45816,7 +45901,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="11"/>
-      <c r="C49" s="633" t="str">
+      <c r="C49" s="632" t="str">
         <f>Fluoro!C313</f>
         <v>High Level</v>
       </c>
@@ -45851,7 +45936,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="11"/>
-      <c r="C50" s="633">
+      <c r="C50" s="632">
         <f>Fluoro!C314</f>
         <v>0</v>
       </c>
@@ -45886,7 +45971,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="11"/>
-      <c r="C51" s="633">
+      <c r="C51" s="632">
         <f>Fluoro!C315</f>
         <v>0</v>
       </c>
@@ -45917,7 +46002,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="11"/>
-      <c r="C52" s="633">
+      <c r="C52" s="632">
         <f>Fluoro!C316</f>
         <v>0</v>
       </c>
@@ -45948,7 +46033,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="11"/>
-      <c r="C53" s="633">
+      <c r="C53" s="632">
         <f>Fluoro!C317</f>
         <v>0</v>
       </c>
@@ -46134,7 +46219,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="11"/>
-      <c r="C60" s="634" t="str">
+      <c r="C60" s="633" t="str">
         <f>Fluoro!C324</f>
         <v>Scatter – Fluoro</v>
       </c>
@@ -46169,7 +46254,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="11"/>
-      <c r="C61" s="634">
+      <c r="C61" s="633">
         <f>Fluoro!C325</f>
         <v>0</v>
       </c>
@@ -46415,39 +46500,39 @@
         <f>Fluoro!D335</f>
         <v>Attenuator</v>
       </c>
-      <c r="E71" s="600" t="str">
+      <c r="E71" s="606" t="str">
         <f>Fluoro!E335</f>
         <v>Auto 1</v>
       </c>
-      <c r="F71" s="600">
+      <c r="F71" s="606">
         <f>Fluoro!F335</f>
         <v>0</v>
       </c>
-      <c r="G71" s="600">
+      <c r="G71" s="606">
         <f>Fluoro!G335</f>
         <v>0</v>
       </c>
-      <c r="H71" s="600" t="str">
+      <c r="H71" s="606" t="str">
         <f>Fluoro!H335</f>
         <v>Auto 2</v>
       </c>
-      <c r="I71" s="600">
+      <c r="I71" s="606">
         <f>Fluoro!I335</f>
         <v>0</v>
       </c>
-      <c r="J71" s="600">
+      <c r="J71" s="606">
         <f>Fluoro!J335</f>
         <v>0</v>
       </c>
-      <c r="K71" s="601" t="str">
+      <c r="K71" s="607" t="str">
         <f>Fluoro!K335</f>
         <v>High Level</v>
       </c>
-      <c r="L71" s="601">
+      <c r="L71" s="607">
         <f>Fluoro!L335</f>
         <v>0</v>
       </c>
-      <c r="M71" s="601">
+      <c r="M71" s="607">
         <f>Fluoro!M335</f>
         <v>0</v>
       </c>
@@ -46504,7 +46589,7 @@
         <v>7</v>
       </c>
       <c r="B73" s="11"/>
-      <c r="C73" s="631" t="str">
+      <c r="C73" s="634" t="str">
         <f>Fluoro!C337</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -46554,7 +46639,7 @@
         <v>8</v>
       </c>
       <c r="B74" s="11"/>
-      <c r="C74" s="631">
+      <c r="C74" s="634">
         <f>Fluoro!C338</f>
         <v>0</v>
       </c>
@@ -46604,7 +46689,7 @@
         <v>9</v>
       </c>
       <c r="B75" s="11"/>
-      <c r="C75" s="631">
+      <c r="C75" s="634">
         <f>Fluoro!C339</f>
         <v>0</v>
       </c>
@@ -46654,7 +46739,7 @@
         <v>10</v>
       </c>
       <c r="B76" s="11"/>
-      <c r="C76" s="631" t="str">
+      <c r="C76" s="634" t="str">
         <f>Fluoro!C340</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -46704,7 +46789,7 @@
         <v>11</v>
       </c>
       <c r="B77" s="11"/>
-      <c r="C77" s="631">
+      <c r="C77" s="634">
         <f>Fluoro!C341</f>
         <v>0</v>
       </c>
@@ -46754,7 +46839,7 @@
         <v>12</v>
       </c>
       <c r="B78" s="11"/>
-      <c r="C78" s="631">
+      <c r="C78" s="634">
         <f>Fluoro!C342</f>
         <v>0</v>
       </c>
@@ -46804,7 +46889,7 @@
         <v>13</v>
       </c>
       <c r="B79" s="11"/>
-      <c r="C79" s="631" t="str">
+      <c r="C79" s="634" t="str">
         <f>Fluoro!C343</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -46854,7 +46939,7 @@
         <v>14</v>
       </c>
       <c r="B80" s="11"/>
-      <c r="C80" s="631">
+      <c r="C80" s="634">
         <f>Fluoro!C344</f>
         <v>0</v>
       </c>
@@ -46904,7 +46989,7 @@
         <v>15</v>
       </c>
       <c r="B81" s="11"/>
-      <c r="C81" s="631">
+      <c r="C81" s="634">
         <f>Fluoro!C345</f>
         <v>0</v>
       </c>
@@ -46954,7 +47039,7 @@
         <v>16</v>
       </c>
       <c r="B82" s="11"/>
-      <c r="C82" s="631" t="str">
+      <c r="C82" s="634" t="str">
         <f>Fluoro!C346</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -47004,7 +47089,7 @@
         <v>17</v>
       </c>
       <c r="B83" s="11"/>
-      <c r="C83" s="631">
+      <c r="C83" s="634">
         <f>Fluoro!C347</f>
         <v>0</v>
       </c>
@@ -47054,7 +47139,7 @@
         <v>18</v>
       </c>
       <c r="B84" s="11"/>
-      <c r="C84" s="631">
+      <c r="C84" s="634">
         <f>Fluoro!C348</f>
         <v>0</v>
       </c>
@@ -47104,7 +47189,7 @@
         <v>19</v>
       </c>
       <c r="B85" s="11"/>
-      <c r="C85" s="631" t="str">
+      <c r="C85" s="634" t="str">
         <f>Fluoro!C349</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -47154,7 +47239,7 @@
         <v>20</v>
       </c>
       <c r="B86" s="11"/>
-      <c r="C86" s="631">
+      <c r="C86" s="634">
         <f>Fluoro!C350</f>
         <v>0</v>
       </c>
@@ -47204,7 +47289,7 @@
         <v>21</v>
       </c>
       <c r="B87" s="11"/>
-      <c r="C87" s="631">
+      <c r="C87" s="634">
         <f>Fluoro!C351</f>
         <v>0</v>
       </c>
@@ -47551,7 +47636,7 @@
         <v>36</v>
       </c>
       <c r="B102" s="11"/>
-      <c r="C102" s="632" t="str">
+      <c r="C102" s="631" t="str">
         <f>Fluoro!C366</f>
         <v>Auto 1</v>
       </c>
@@ -47589,7 +47674,7 @@
         <v>37</v>
       </c>
       <c r="B103" s="11"/>
-      <c r="C103" s="632">
+      <c r="C103" s="631">
         <f>Fluoro!C367</f>
         <v>0</v>
       </c>
@@ -47627,7 +47712,7 @@
         <v>38</v>
       </c>
       <c r="B104" s="11"/>
-      <c r="C104" s="632">
+      <c r="C104" s="631">
         <f>Fluoro!C368</f>
         <v>0</v>
       </c>
@@ -47665,7 +47750,7 @@
         <v>39</v>
       </c>
       <c r="B105" s="11"/>
-      <c r="C105" s="632">
+      <c r="C105" s="631">
         <f>Fluoro!C369</f>
         <v>0</v>
       </c>
@@ -47700,7 +47785,7 @@
         <v>40</v>
       </c>
       <c r="B106" s="11"/>
-      <c r="C106" s="632">
+      <c r="C106" s="631">
         <f>Fluoro!C370</f>
         <v>0</v>
       </c>
@@ -47735,7 +47820,7 @@
         <v>41</v>
       </c>
       <c r="B107" s="11"/>
-      <c r="C107" s="633" t="str">
+      <c r="C107" s="632" t="str">
         <f>Fluoro!C371</f>
         <v>Auto 2</v>
       </c>
@@ -47770,7 +47855,7 @@
         <v>42</v>
       </c>
       <c r="B108" s="11"/>
-      <c r="C108" s="633">
+      <c r="C108" s="632">
         <f>Fluoro!C372</f>
         <v>0</v>
       </c>
@@ -47805,7 +47890,7 @@
         <v>43</v>
       </c>
       <c r="B109" s="11"/>
-      <c r="C109" s="633">
+      <c r="C109" s="632">
         <f>Fluoro!C373</f>
         <v>0</v>
       </c>
@@ -47840,7 +47925,7 @@
         <v>44</v>
       </c>
       <c r="B110" s="11"/>
-      <c r="C110" s="633">
+      <c r="C110" s="632">
         <f>Fluoro!C374</f>
         <v>0</v>
       </c>
@@ -47875,7 +47960,7 @@
         <v>45</v>
       </c>
       <c r="B111" s="11"/>
-      <c r="C111" s="633">
+      <c r="C111" s="632">
         <f>Fluoro!C375</f>
         <v>0</v>
       </c>
@@ -47910,7 +47995,7 @@
         <v>46</v>
       </c>
       <c r="B112" s="11"/>
-      <c r="C112" s="633" t="str">
+      <c r="C112" s="632" t="str">
         <f>Fluoro!C376</f>
         <v>High Level</v>
       </c>
@@ -47945,7 +48030,7 @@
         <v>47</v>
       </c>
       <c r="B113" s="11"/>
-      <c r="C113" s="633">
+      <c r="C113" s="632">
         <f>Fluoro!C377</f>
         <v>0</v>
       </c>
@@ -47980,7 +48065,7 @@
         <v>48</v>
       </c>
       <c r="B114" s="11"/>
-      <c r="C114" s="633">
+      <c r="C114" s="632">
         <f>Fluoro!C378</f>
         <v>0</v>
       </c>
@@ -48011,7 +48096,7 @@
         <v>49</v>
       </c>
       <c r="B115" s="11"/>
-      <c r="C115" s="633">
+      <c r="C115" s="632">
         <f>Fluoro!C379</f>
         <v>0</v>
       </c>
@@ -48042,7 +48127,7 @@
         <v>50</v>
       </c>
       <c r="B116" s="11"/>
-      <c r="C116" s="633">
+      <c r="C116" s="632">
         <f>Fluoro!C380</f>
         <v>0</v>
       </c>
@@ -48216,7 +48301,7 @@
         <v>58</v>
       </c>
       <c r="B124" s="11"/>
-      <c r="C124" s="634" t="str">
+      <c r="C124" s="633" t="str">
         <f>Fluoro!C388</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -48251,7 +48336,7 @@
         <v>59</v>
       </c>
       <c r="B125" s="11"/>
-      <c r="C125" s="634">
+      <c r="C125" s="633">
         <f>Fluoro!C389</f>
         <v>0</v>
       </c>
@@ -48426,140 +48511,23 @@
         <v/>
       </c>
     </row>
-    <row r="1048445" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048446" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048447" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048448" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048449" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048450" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048451" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048452" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048453" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048454" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048455" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048456" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048457" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048458" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048459" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048460" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048461" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048462" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048463" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048464" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048465" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048466" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048467" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048468" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048469" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048470" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048471" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048472" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048473" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048474" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048475" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048476" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048477" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048478" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048479" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048480" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048481" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048482" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048483" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048484" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048485" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048486" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048487" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048488" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048489" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048490" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048491" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048492" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048493" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048494" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048495" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048496" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048497" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048498" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048499" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048500" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048501" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048502" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048503" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048504" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048505" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048506" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048507" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048508" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048509" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048510" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048511" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048512" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048513" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048514" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048515" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048516" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048517" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048518" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048519" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048520" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048521" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048522" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048523" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048524" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048525" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048526" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048527" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048528" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048529" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048530" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048531" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048532" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048533" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048534" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048535" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048536" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048537" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048538" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048539" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048540" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048541" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048542" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048543" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048544" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048545" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048546" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048547" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048548" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048549" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048550" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048551" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048552" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048553" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048554" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048555" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048556" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048557" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048558" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048559" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048560" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048561" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048562" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048563" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048564" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048565" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048566" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048567" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048568" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048569" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048570" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:M71"/>
     <mergeCell ref="C102:C106"/>
     <mergeCell ref="C107:C111"/>
     <mergeCell ref="C112:C116"/>
@@ -48569,21 +48537,6 @@
     <mergeCell ref="C79:C81"/>
     <mergeCell ref="C82:C84"/>
     <mergeCell ref="C85:C87"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.88611111111111096" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -48598,49 +48551,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK143"/>
+  <dimension ref="A1:AB143"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="10.625" style="1" customWidth="1"/>
+    <col min="1" max="28" width="10.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="635" t="s">
         <v>410</v>
       </c>
       <c r="B1" s="635"/>
       <c r="N1" s="328"/>
-      <c r="O1" s="606" t="str">
+      <c r="O1" s="600" t="str">
         <f>Fluoro!O105</f>
         <v>Patient Entrance Exposure Rate (Fluoroscopy)*</v>
       </c>
-      <c r="P1" s="606"/>
-      <c r="Q1" s="606"/>
-      <c r="R1" s="606" t="s">
+      <c r="P1" s="600"/>
+      <c r="Q1" s="600"/>
+      <c r="R1" s="600" t="s">
         <v>411</v>
       </c>
-      <c r="S1" s="606"/>
-      <c r="T1" s="606"/>
+      <c r="S1" s="600"/>
+      <c r="T1" s="600"/>
       <c r="V1" s="328"/>
-      <c r="W1" s="606" t="str">
+      <c r="W1" s="600" t="str">
         <f>Fluoro!O137</f>
         <v>Patient Entrance Exposure Rate – Digital Acquisition</v>
       </c>
-      <c r="X1" s="606"/>
-      <c r="Y1" s="606"/>
-      <c r="Z1" s="606" t="s">
+      <c r="X1" s="600"/>
+      <c r="Y1" s="600"/>
+      <c r="Z1" s="600" t="s">
         <v>411</v>
       </c>
-      <c r="AA1" s="606"/>
-      <c r="AB1" s="606"/>
-      <c r="AC1" s="239"/>
-    </row>
-    <row r="2" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA1" s="600"/>
+      <c r="AB1" s="600"/>
+    </row>
+    <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="329">
         <v>1</v>
       </c>
@@ -48685,9 +48637,8 @@
       <c r="AB2" s="330" t="s">
         <v>413</v>
       </c>
-      <c r="AC2" s="239"/>
-    </row>
-    <row r="3" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="329">
         <v>2</v>
       </c>
@@ -48726,9 +48677,8 @@
       <c r="Z3" s="328"/>
       <c r="AA3" s="328"/>
       <c r="AB3" s="328"/>
-      <c r="AC3" s="239"/>
-    </row>
-    <row r="4" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="329">
         <v>3</v>
       </c>
@@ -48767,9 +48717,8 @@
       <c r="Z4" s="328"/>
       <c r="AA4" s="328"/>
       <c r="AB4" s="328"/>
-      <c r="AC4" s="239"/>
-    </row>
-    <row r="5" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="329">
         <v>4</v>
       </c>
@@ -48808,9 +48757,8 @@
       <c r="Z5" s="328"/>
       <c r="AA5" s="328"/>
       <c r="AB5" s="328"/>
-      <c r="AC5" s="239"/>
-    </row>
-    <row r="6" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N6" s="328"/>
       <c r="O6" s="328">
         <f>IF(Fluoro!Q112="",NA(),Fluoro!Q112)</f>
@@ -48843,9 +48791,8 @@
       <c r="Z6" s="328"/>
       <c r="AA6" s="328"/>
       <c r="AB6" s="328"/>
-      <c r="AC6" s="239"/>
-    </row>
-    <row r="7" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="635" t="s">
         <v>414</v>
       </c>
@@ -48901,9 +48848,8 @@
       <c r="Z7" s="328"/>
       <c r="AA7" s="328"/>
       <c r="AB7" s="328"/>
-      <c r="AC7" s="239"/>
-    </row>
-    <row r="8" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="329">
         <v>1.1000000000000001</v>
       </c>
@@ -48964,9 +48910,8 @@
       <c r="Z8" s="328"/>
       <c r="AA8" s="328"/>
       <c r="AB8" s="328"/>
-      <c r="AC8" s="239"/>
-    </row>
-    <row r="9" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="329">
         <v>1.2</v>
       </c>
@@ -49027,9 +48972,8 @@
       <c r="Z9" s="328"/>
       <c r="AA9" s="328"/>
       <c r="AB9" s="328"/>
-      <c r="AC9" s="239"/>
-    </row>
-    <row r="10" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="329">
         <v>1.3</v>
       </c>
@@ -49090,9 +49034,8 @@
       <c r="Z10" s="328"/>
       <c r="AA10" s="328"/>
       <c r="AB10" s="328"/>
-      <c r="AC10" s="239"/>
-    </row>
-    <row r="11" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="329">
         <v>2.1</v>
       </c>
@@ -49153,9 +49096,8 @@
       <c r="Z11" s="328"/>
       <c r="AA11" s="328"/>
       <c r="AB11" s="328"/>
-      <c r="AC11" s="239"/>
-    </row>
-    <row r="12" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="329">
         <v>2.2000000000000002</v>
       </c>
@@ -49216,9 +49158,8 @@
       <c r="Z12" s="328"/>
       <c r="AA12" s="328"/>
       <c r="AB12" s="328"/>
-      <c r="AC12" s="239"/>
-    </row>
-    <row r="13" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="329">
         <v>2.2999999999999998</v>
       </c>
@@ -49279,9 +49220,8 @@
       <c r="Z13" s="328"/>
       <c r="AA13" s="328"/>
       <c r="AB13" s="328"/>
-      <c r="AC13" s="239"/>
-    </row>
-    <row r="14" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="329">
         <v>3.1</v>
       </c>
@@ -49342,9 +49282,8 @@
       <c r="Z14" s="328"/>
       <c r="AA14" s="328"/>
       <c r="AB14" s="328"/>
-      <c r="AC14" s="239"/>
-    </row>
-    <row r="15" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="329">
         <v>3.2</v>
       </c>
@@ -49405,9 +49344,8 @@
       <c r="Z15" s="328"/>
       <c r="AA15" s="328"/>
       <c r="AB15" s="328"/>
-      <c r="AC15" s="239"/>
-    </row>
-    <row r="16" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="329">
         <v>3.3</v>
       </c>
@@ -49468,9 +49406,8 @@
       <c r="Z16" s="328"/>
       <c r="AA16" s="328"/>
       <c r="AB16" s="328"/>
-      <c r="AC16" s="239"/>
-    </row>
-    <row r="17" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="329">
         <v>4.0999999999999996</v>
       </c>
@@ -49531,9 +49468,8 @@
       <c r="Z17" s="328"/>
       <c r="AA17" s="328"/>
       <c r="AB17" s="328"/>
-      <c r="AC17" s="239"/>
-    </row>
-    <row r="18" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="329">
         <v>4.2</v>
       </c>
@@ -49598,9 +49534,8 @@
       <c r="Z18" s="328"/>
       <c r="AA18" s="328"/>
       <c r="AB18" s="328"/>
-      <c r="AC18" s="239"/>
-    </row>
-    <row r="19" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="329">
         <v>4.3</v>
       </c>
@@ -49661,9 +49596,8 @@
       <c r="Z19" s="328"/>
       <c r="AA19" s="328"/>
       <c r="AB19" s="328"/>
-      <c r="AC19" s="239"/>
-    </row>
-    <row r="20" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="329">
         <v>5.0999999999999996</v>
       </c>
@@ -49724,9 +49658,8 @@
       <c r="Z20" s="328"/>
       <c r="AA20" s="328"/>
       <c r="AB20" s="328"/>
-      <c r="AC20" s="239"/>
-    </row>
-    <row r="21" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="329">
         <v>5.2</v>
       </c>
@@ -49787,9 +49720,8 @@
       <c r="Z21" s="328"/>
       <c r="AA21" s="328"/>
       <c r="AB21" s="328"/>
-      <c r="AC21" s="239"/>
-    </row>
-    <row r="22" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="329">
         <v>5.3</v>
       </c>
@@ -49850,9 +49782,8 @@
       <c r="Z22" s="328"/>
       <c r="AA22" s="328"/>
       <c r="AB22" s="328"/>
-      <c r="AC22" s="239"/>
-    </row>
-    <row r="23" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="329">
         <v>6.1</v>
       </c>
@@ -49913,9 +49844,8 @@
       <c r="Z23" s="328"/>
       <c r="AA23" s="328"/>
       <c r="AB23" s="328"/>
-      <c r="AC23" s="239"/>
-    </row>
-    <row r="24" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="329">
         <v>6.2</v>
       </c>
@@ -49976,9 +49906,8 @@
       <c r="Z24" s="328"/>
       <c r="AA24" s="328"/>
       <c r="AB24" s="328"/>
-      <c r="AC24" s="239"/>
-    </row>
-    <row r="25" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="329">
         <v>6.3</v>
       </c>
@@ -50039,9 +49968,8 @@
       <c r="Z25" s="328"/>
       <c r="AA25" s="328"/>
       <c r="AB25" s="328"/>
-      <c r="AC25" s="239"/>
-    </row>
-    <row r="26" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="329">
         <v>7.1</v>
       </c>
@@ -50102,9 +50030,8 @@
       <c r="Z26" s="328"/>
       <c r="AA26" s="328"/>
       <c r="AB26" s="328"/>
-      <c r="AC26" s="239"/>
-    </row>
-    <row r="27" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="329">
         <v>7.2</v>
       </c>
@@ -50143,9 +50070,8 @@
       <c r="Z27" s="328"/>
       <c r="AA27" s="328"/>
       <c r="AB27" s="328"/>
-      <c r="AC27" s="239"/>
-    </row>
-    <row r="28" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="329">
         <v>7.3</v>
       </c>
@@ -50184,9 +50110,8 @@
       <c r="Z28" s="328"/>
       <c r="AA28" s="328"/>
       <c r="AB28" s="328"/>
-      <c r="AC28" s="239"/>
-    </row>
-    <row r="29" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N29" s="328"/>
       <c r="O29" s="328">
         <f>IF(Fluoro!T119="",NA(),Fluoro!T119)</f>
@@ -50219,9 +50144,8 @@
       <c r="Z29" s="328"/>
       <c r="AA29" s="328"/>
       <c r="AB29" s="328"/>
-      <c r="AC29" s="239"/>
-    </row>
-    <row r="30" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="213" t="s">
         <v>418</v>
       </c>
@@ -50269,9 +50193,8 @@
       <c r="Z30" s="328"/>
       <c r="AA30" s="328"/>
       <c r="AB30" s="328"/>
-      <c r="AC30" s="239"/>
-    </row>
-    <row r="31" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="334">
         <v>1.2E-2</v>
       </c>
@@ -50322,9 +50245,8 @@
       <c r="Z31" s="328"/>
       <c r="AA31" s="328"/>
       <c r="AB31" s="328"/>
-      <c r="AC31" s="239"/>
-    </row>
-    <row r="32" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="334">
         <v>1.6E-2</v>
       </c>
@@ -50372,9 +50294,8 @@
       <c r="Z32" s="328"/>
       <c r="AA32" s="328"/>
       <c r="AB32" s="328"/>
-      <c r="AC32" s="239"/>
-    </row>
-    <row r="33" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="334">
         <v>2.3E-2</v>
       </c>
@@ -50422,9 +50343,8 @@
       <c r="Z33" s="328"/>
       <c r="AA33" s="328"/>
       <c r="AB33" s="328"/>
-      <c r="AC33" s="239"/>
-    </row>
-    <row r="34" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="334">
         <v>3.2000000000000001E-2</v>
       </c>
@@ -50476,9 +50396,8 @@
       <c r="Z34" s="328"/>
       <c r="AA34" s="328"/>
       <c r="AB34" s="328"/>
-      <c r="AC34" s="239"/>
-    </row>
-    <row r="35" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="334">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -50526,9 +50445,8 @@
       <c r="Z35" s="328"/>
       <c r="AA35" s="328"/>
       <c r="AB35" s="328"/>
-      <c r="AC35" s="239"/>
-    </row>
-    <row r="36" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="334">
         <v>6.6000000000000003E-2</v>
       </c>
@@ -50576,9 +50494,8 @@
       <c r="Z36" s="328"/>
       <c r="AA36" s="328"/>
       <c r="AB36" s="328"/>
-      <c r="AC36" s="239"/>
-    </row>
-    <row r="37" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="334">
         <v>8.5999999999999993E-2</v>
       </c>
@@ -50626,9 +50543,8 @@
       <c r="Z37" s="328"/>
       <c r="AA37" s="328"/>
       <c r="AB37" s="328"/>
-      <c r="AC37" s="239"/>
-    </row>
-    <row r="38" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="334">
         <v>0.123</v>
       </c>
@@ -50676,9 +50592,8 @@
       <c r="Z38" s="328"/>
       <c r="AA38" s="328"/>
       <c r="AB38" s="328"/>
-      <c r="AC38" s="239"/>
-    </row>
-    <row r="39" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="334">
         <v>0.16</v>
       </c>
@@ -50726,9 +50641,8 @@
       <c r="Z39" s="328"/>
       <c r="AA39" s="328"/>
       <c r="AB39" s="328"/>
-      <c r="AC39" s="239"/>
-    </row>
-    <row r="40" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="334">
         <v>0.23</v>
       </c>
@@ -50776,9 +50690,8 @@
       <c r="Z40" s="328"/>
       <c r="AA40" s="328"/>
       <c r="AB40" s="328"/>
-      <c r="AC40" s="239"/>
-    </row>
-    <row r="41" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="334">
         <v>0.35</v>
       </c>
@@ -50826,9 +50739,8 @@
       <c r="Z41" s="328"/>
       <c r="AA41" s="328"/>
       <c r="AB41" s="328"/>
-      <c r="AC41" s="239"/>
-    </row>
-    <row r="42" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="334">
         <v>0.5</v>
       </c>
@@ -50876,9 +50788,8 @@
       <c r="Z42" s="328"/>
       <c r="AA42" s="328"/>
       <c r="AB42" s="328"/>
-      <c r="AC42" s="239"/>
-    </row>
-    <row r="43" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="334">
         <v>0.66</v>
       </c>
@@ -50926,9 +50837,8 @@
       <c r="Z43" s="328"/>
       <c r="AA43" s="328"/>
       <c r="AB43" s="328"/>
-      <c r="AC43" s="239"/>
-    </row>
-    <row r="44" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="334">
         <v>0.93</v>
       </c>
@@ -50976,9 +50886,8 @@
       <c r="Z44" s="328"/>
       <c r="AA44" s="328"/>
       <c r="AB44" s="328"/>
-      <c r="AC44" s="239"/>
-    </row>
-    <row r="45" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N45" s="328"/>
       <c r="O45" s="328">
         <f>IF(Fluoro!W119="",NA(),Fluoro!W119)</f>
@@ -51011,9 +50920,8 @@
       <c r="Z45" s="328"/>
       <c r="AA45" s="328"/>
       <c r="AB45" s="328"/>
-      <c r="AC45" s="239"/>
-    </row>
-    <row r="46" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="338" t="s">
         <v>350</v>
       </c>
@@ -51082,9 +50990,8 @@
       <c r="Z46" s="328"/>
       <c r="AA46" s="328"/>
       <c r="AB46" s="328"/>
-      <c r="AC46" s="239"/>
-    </row>
-    <row r="47" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="213" t="s">
         <v>353</v>
       </c>
@@ -51154,9 +51061,8 @@
       <c r="Z47" s="328"/>
       <c r="AA47" s="328"/>
       <c r="AB47" s="328"/>
-      <c r="AC47" s="239"/>
-    </row>
-    <row r="48" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="213" t="s">
         <v>354</v>
       </c>
@@ -51226,9 +51132,8 @@
       <c r="Z48" s="328"/>
       <c r="AA48" s="328"/>
       <c r="AB48" s="328"/>
-      <c r="AC48" s="239"/>
-    </row>
-    <row r="49" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="213" t="s">
         <v>355</v>
       </c>
@@ -51298,9 +51203,8 @@
       <c r="Z49" s="328"/>
       <c r="AA49" s="328"/>
       <c r="AB49" s="328"/>
-      <c r="AC49" s="239"/>
-    </row>
-    <row r="50" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="213" t="s">
         <v>356</v>
       </c>
@@ -51374,9 +51278,8 @@
       <c r="Z50" s="328"/>
       <c r="AA50" s="328"/>
       <c r="AB50" s="328"/>
-      <c r="AC50" s="239"/>
-    </row>
-    <row r="51" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="213" t="s">
         <v>357</v>
       </c>
@@ -51415,7 +51318,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="213" t="s">
         <v>358</v>
       </c>
@@ -51454,7 +51357,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="213" t="s">
         <v>359</v>
       </c>
@@ -51493,7 +51396,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="213" t="s">
         <v>360</v>
       </c>
@@ -51532,7 +51435,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="213" t="s">
         <v>361</v>
       </c>
@@ -51571,7 +51474,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="213" t="s">
         <v>362</v>
       </c>
@@ -51610,7 +51513,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="213" t="s">
         <v>363</v>
       </c>
@@ -51649,7 +51552,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="213" t="s">
         <v>364</v>
       </c>
@@ -51688,7 +51591,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="340" t="s">
         <v>422</v>
       </c>
@@ -51747,7 +51650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="340" t="s">
         <v>353</v>
       </c>
@@ -51824,7 +51727,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="340" t="s">
         <v>354</v>
       </c>
@@ -51901,7 +51804,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="340" t="s">
         <v>355</v>
       </c>
@@ -51978,7 +51881,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="340" t="s">
         <v>356</v>
       </c>
@@ -52680,14 +52583,14 @@
       <c r="B75" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E75" s="606" t="s">
+      <c r="E75" s="600" t="s">
         <v>424</v>
       </c>
-      <c r="F75" s="606"/>
-      <c r="I75" s="606" t="s">
+      <c r="F75" s="600"/>
+      <c r="I75" s="600" t="s">
         <v>425</v>
       </c>
-      <c r="J75" s="606"/>
+      <c r="J75" s="600"/>
     </row>
     <row r="76" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
@@ -57395,53 +57298,53 @@
         <f>B4</f>
         <v/>
       </c>
-      <c r="C83" s="343">
+      <c r="C83" s="343" t="str">
         <f>Fluoro!D415</f>
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="D83" s="343">
+        <v/>
+      </c>
+      <c r="D83" s="343" t="str">
         <f>Fluoro!D416</f>
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="E83" s="343">
+        <v/>
+      </c>
+      <c r="E83" s="343" t="str">
         <f>Fluoro!D417</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="F83" s="343">
+        <v/>
+      </c>
+      <c r="F83" s="343" t="str">
         <f>Fluoro!D418</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G83" s="343">
+        <v/>
+      </c>
+      <c r="G83" s="343" t="str">
         <f>Fluoro!D419</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="H83" s="343">
+        <v/>
+      </c>
+      <c r="H83" s="343" t="str">
         <f>Fluoro!D420</f>
-        <v>6.7400000000000002E-2</v>
-      </c>
-      <c r="I83" s="343">
+        <v/>
+      </c>
+      <c r="I83" s="343" t="str">
         <f>Fluoro!D421</f>
-        <v>0.128</v>
-      </c>
-      <c r="J83" s="343">
+        <v/>
+      </c>
+      <c r="J83" s="343" t="str">
         <f>Fluoro!D422</f>
-        <v>0.128</v>
-      </c>
-      <c r="K83" s="343">
+        <v/>
+      </c>
+      <c r="K83" s="343" t="str">
         <f>Fluoro!D423</f>
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="L83" s="343">
+        <v/>
+      </c>
+      <c r="L83" s="343" t="str">
         <f>Fluoro!D424</f>
-        <v>0.36</v>
-      </c>
-      <c r="M83" s="343">
+        <v/>
+      </c>
+      <c r="M83" s="343" t="str">
         <f>Fluoro!D425</f>
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="N83" s="343">
+        <v/>
+      </c>
+      <c r="N83" s="343" t="str">
         <f>Fluoro!D426</f>
-        <v>0.95399999999999996</v>
+        <v/>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -57449,53 +57352,53 @@
         <f>B5</f>
         <v/>
       </c>
-      <c r="C84" s="343">
+      <c r="C84" s="343" t="str">
         <f>Fluoro!E415</f>
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="D84" s="343">
+        <v/>
+      </c>
+      <c r="D84" s="343" t="str">
         <f>Fluoro!E416</f>
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="E84" s="343">
+        <v/>
+      </c>
+      <c r="E84" s="343" t="str">
         <f>Fluoro!E417</f>
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="F84" s="343">
+        <v/>
+      </c>
+      <c r="F84" s="343" t="str">
         <f>Fluoro!E418</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G84" s="343">
+        <v/>
+      </c>
+      <c r="G84" s="343" t="str">
         <f>Fluoro!E419</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="H84" s="343">
+        <v/>
+      </c>
+      <c r="H84" s="343" t="str">
         <f>Fluoro!E420</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="I84" s="343">
+        <v/>
+      </c>
+      <c r="I84" s="343" t="str">
         <f>Fluoro!E421</f>
-        <v>8.7599999999999997E-2</v>
-      </c>
-      <c r="J84" s="343">
+        <v/>
+      </c>
+      <c r="J84" s="343" t="str">
         <f>Fluoro!E422</f>
-        <v>8.7599999999999997E-2</v>
-      </c>
-      <c r="K84" s="343">
+        <v/>
+      </c>
+      <c r="K84" s="343" t="str">
         <f>Fluoro!E423</f>
-        <v>0.128</v>
-      </c>
-      <c r="L84" s="343">
+        <v/>
+      </c>
+      <c r="L84" s="343" t="str">
         <f>Fluoro!E424</f>
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="M84" s="343">
+        <v/>
+      </c>
+      <c r="M84" s="343" t="str">
         <f>Fluoro!E425</f>
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="N84" s="343">
+        <v/>
+      </c>
+      <c r="N84" s="343" t="str">
         <f>Fluoro!E426</f>
-        <v>0.72599999999999998</v>
+        <v/>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -57503,53 +57406,53 @@
         <f>B6</f>
         <v/>
       </c>
-      <c r="C85" s="343">
+      <c r="C85" s="343" t="str">
         <f>Fluoro!F415</f>
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="D85" s="343">
+        <v/>
+      </c>
+      <c r="D85" s="343" t="str">
         <f>Fluoro!F416</f>
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="E85" s="343">
+        <v/>
+      </c>
+      <c r="E85" s="343" t="str">
         <f>Fluoro!F417</f>
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="F85" s="343">
+        <v/>
+      </c>
+      <c r="F85" s="343" t="str">
         <f>Fluoro!F418</f>
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="G85" s="343">
+        <v/>
+      </c>
+      <c r="G85" s="343" t="str">
         <f>Fluoro!F419</f>
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="H85" s="343">
+        <v/>
+      </c>
+      <c r="H85" s="343" t="str">
         <f>Fluoro!F420</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="I85" s="343">
+        <v/>
+      </c>
+      <c r="I85" s="343" t="str">
         <f>Fluoro!F421</f>
-        <v>6.7400000000000002E-2</v>
-      </c>
-      <c r="J85" s="343">
+        <v/>
+      </c>
+      <c r="J85" s="343" t="str">
         <f>Fluoro!F422</f>
-        <v>8.7599999999999997E-2</v>
-      </c>
-      <c r="K85" s="343">
+        <v/>
+      </c>
+      <c r="K85" s="343" t="str">
         <f>Fluoro!F423</f>
-        <v>8.7599999999999997E-2</v>
-      </c>
-      <c r="L85" s="343">
+        <v/>
+      </c>
+      <c r="L85" s="343" t="str">
         <f>Fluoro!F424</f>
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="M85" s="343">
+        <v/>
+      </c>
+      <c r="M85" s="343" t="str">
         <f>Fluoro!F425</f>
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="N85" s="343">
+        <v/>
+      </c>
+      <c r="N85" s="343" t="str">
         <f>Fluoro!F426</f>
-        <v>0.57299999999999995</v>
+        <v/>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -57665,53 +57568,53 @@
         <f>B4</f>
         <v/>
       </c>
-      <c r="C88" s="343">
+      <c r="C88" s="343" t="str">
         <f>Fluoro!I415</f>
-        <v>3.1570118266899243</v>
-      </c>
-      <c r="D88" s="343">
+        <v/>
+      </c>
+      <c r="D88" s="343" t="str">
         <f>Fluoro!I416</f>
-        <v>4.4358014273744502</v>
-      </c>
-      <c r="E88" s="343">
+        <v/>
+      </c>
+      <c r="E88" s="343" t="str">
         <f>Fluoro!I417</f>
-        <v>4.4776951075218765</v>
-      </c>
-      <c r="F88" s="343">
+        <v/>
+      </c>
+      <c r="F88" s="343" t="str">
         <f>Fluoro!I418</f>
-        <v>6.2687731505306257</v>
-      </c>
-      <c r="G88" s="343">
+        <v/>
+      </c>
+      <c r="G88" s="343" t="str">
         <f>Fluoro!I419</f>
-        <v>8.955390215043753</v>
-      </c>
-      <c r="H88" s="343">
+        <v/>
+      </c>
+      <c r="H88" s="343" t="str">
         <f>Fluoro!I420</f>
-        <v>8.3707653345364434</v>
-      </c>
-      <c r="I88" s="343">
+        <v/>
+      </c>
+      <c r="I88" s="343" t="str">
         <f>Fluoro!I421</f>
-        <v>6.2967587449526388</v>
-      </c>
-      <c r="J88" s="343">
+        <v/>
+      </c>
+      <c r="J88" s="343" t="str">
         <f>Fluoro!I422</f>
-        <v>8.8154622429336928</v>
-      </c>
-      <c r="K88" s="343">
+        <v/>
+      </c>
+      <c r="K88" s="343" t="str">
         <f>Fluoro!I423</f>
-        <v>9.6525163994483556</v>
-      </c>
-      <c r="L88" s="343">
+        <v/>
+      </c>
+      <c r="L88" s="343" t="str">
         <f>Fluoro!I424</f>
-        <v>6.2687731505306257</v>
-      </c>
-      <c r="M88" s="343">
+        <v/>
+      </c>
+      <c r="M88" s="343" t="str">
         <f>Fluoro!I425</f>
-        <v>4.4406893628316126</v>
-      </c>
-      <c r="N88" s="343">
+        <v/>
+      </c>
+      <c r="N88" s="343" t="str">
         <f>Fluoro!I426</f>
-        <v>4.7311495475702836</v>
+        <v/>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -57719,53 +57622,53 @@
         <f>B5</f>
         <v/>
       </c>
-      <c r="C89" s="343">
+      <c r="C89" s="343" t="str">
         <f>Fluoro!J415</f>
-        <v>3.1570118266899243</v>
-      </c>
-      <c r="D89" s="343">
+        <v/>
+      </c>
+      <c r="D89" s="343" t="str">
         <f>Fluoro!J416</f>
-        <v>4.4358014273744502</v>
-      </c>
-      <c r="E89" s="343">
+        <v/>
+      </c>
+      <c r="E89" s="343" t="str">
         <f>Fluoro!J417</f>
-        <v>6.257648442188958</v>
-      </c>
-      <c r="F89" s="343">
+        <v/>
+      </c>
+      <c r="F89" s="343" t="str">
         <f>Fluoro!J418</f>
-        <v>6.2687731505306257</v>
-      </c>
-      <c r="G89" s="343">
+        <v/>
+      </c>
+      <c r="G89" s="343" t="str">
         <f>Fluoro!J419</f>
-        <v>8.955390215043753</v>
-      </c>
-      <c r="H89" s="343">
+        <v/>
+      </c>
+      <c r="H89" s="343" t="str">
         <f>Fluoro!J420</f>
-        <v>12.537546301061251</v>
-      </c>
-      <c r="I89" s="343">
+        <v/>
+      </c>
+      <c r="I89" s="343" t="str">
         <f>Fluoro!J421</f>
-        <v>9.2007433716202947</v>
-      </c>
-      <c r="J89" s="343">
+        <v/>
+      </c>
+      <c r="J89" s="343" t="str">
         <f>Fluoro!J422</f>
-        <v>12.881040720268409</v>
-      </c>
-      <c r="K89" s="343">
+        <v/>
+      </c>
+      <c r="K89" s="343" t="str">
         <f>Fluoro!J423</f>
-        <v>12.593517489905278</v>
-      </c>
-      <c r="L89" s="343">
+        <v/>
+      </c>
+      <c r="L89" s="343" t="str">
         <f>Fluoro!J424</f>
-        <v>9.4821778747522067</v>
-      </c>
-      <c r="M89" s="343">
+        <v/>
+      </c>
+      <c r="M89" s="343" t="str">
         <f>Fluoro!J425</f>
-        <v>5.6264231717552375</v>
-      </c>
-      <c r="N89" s="343">
+        <v/>
+      </c>
+      <c r="N89" s="343" t="str">
         <f>Fluoro!J426</f>
-        <v>6.2169651079642572</v>
+        <v/>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -57773,53 +57676,53 @@
         <f>B6</f>
         <v/>
       </c>
-      <c r="C90" s="343">
+      <c r="C90" s="343" t="str">
         <f>Fluoro!K415</f>
-        <v>4.7281758520658403</v>
-      </c>
-      <c r="D90" s="343">
+        <v/>
+      </c>
+      <c r="D90" s="343" t="str">
         <f>Fluoro!K416</f>
-        <v>6.6433863237887119</v>
-      </c>
-      <c r="E90" s="343">
+        <v/>
+      </c>
+      <c r="E90" s="343" t="str">
         <f>Fluoro!K417</f>
-        <v>6.257648442188958</v>
-      </c>
-      <c r="F90" s="343">
+        <v/>
+      </c>
+      <c r="F90" s="343" t="str">
         <f>Fluoro!K418</f>
-        <v>8.7607078190645389</v>
-      </c>
-      <c r="G90" s="343">
+        <v/>
+      </c>
+      <c r="G90" s="343" t="str">
         <f>Fluoro!K419</f>
-        <v>12.515296884377916</v>
-      </c>
-      <c r="H90" s="343">
+        <v/>
+      </c>
+      <c r="H90" s="343" t="str">
         <f>Fluoro!K420</f>
-        <v>12.537546301061251</v>
-      </c>
-      <c r="I90" s="343">
+        <v/>
+      </c>
+      <c r="I90" s="343" t="str">
         <f>Fluoro!K421</f>
-        <v>11.958236192194921</v>
-      </c>
-      <c r="J90" s="343">
+        <v/>
+      </c>
+      <c r="J90" s="343" t="str">
         <f>Fluoro!K422</f>
-        <v>12.881040720268409</v>
-      </c>
-      <c r="K90" s="343">
+        <v/>
+      </c>
+      <c r="K90" s="343" t="str">
         <f>Fluoro!K423</f>
-        <v>18.401486743240589</v>
-      </c>
-      <c r="L90" s="343">
+        <v/>
+      </c>
+      <c r="L90" s="343" t="str">
         <f>Fluoro!K424</f>
-        <v>13.513522959227696</v>
-      </c>
-      <c r="M90" s="343">
+        <v/>
+      </c>
+      <c r="M90" s="343" t="str">
         <f>Fluoro!K425</f>
-        <v>13.545968392503156</v>
-      </c>
-      <c r="N90" s="343">
+        <v/>
+      </c>
+      <c r="N90" s="343" t="str">
         <f>Fluoro!K426</f>
-        <v>7.8769924404573315</v>
+        <v/>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">

--- a/MUSCCArm.xlsx
+++ b/MUSCCArm.xlsx
@@ -1479,8 +1479,8 @@
     <numFmt numFmtId="169" formatCode="0.0%"/>
     <numFmt numFmtId="170" formatCode="0.000"/>
     <numFmt numFmtId="171" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="174" formatCode="mmm/yyyy"/>
+    <numFmt numFmtId="172" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="173" formatCode="mmm/yyyy"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -6279,190 +6279,190 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="225" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="172" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="161" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="162" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="195" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="204" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="205" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="139" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="192" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="194" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="188" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="133" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="133" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="161" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="162" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="188" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="139" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="194" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="195" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="204" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="205" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="192" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7218,7 +7218,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7445,7 +7444,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7517,7 +7515,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7643,7 +7640,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9316,7 +9312,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9388,7 +9383,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9435,7 +9429,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9503,7 +9496,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9730,7 +9722,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9802,7 +9793,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9928,7 +9918,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11601,7 +11590,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11673,7 +11661,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11720,7 +11707,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11804,7 +11790,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12557,7 +12542,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12781,7 +12765,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13534,7 +13517,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16035,6 +16017,150 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16496,7 +16622,7 @@
       <c r="O7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="634"/>
+      <c r="P7" s="576"/>
       <c r="Q7" s="26"/>
       <c r="W7" s="1" t="s">
         <v>11</v>
@@ -16531,7 +16657,7 @@
       <c r="O8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="635" t="str">
+      <c r="P8" s="577" t="str">
         <f>IF(AB8="","",AB8)</f>
         <v/>
       </c>
@@ -16613,21 +16739,21 @@
       <c r="E10" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="576" t="str">
+      <c r="F10" s="629" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="576"/>
+      <c r="G10" s="629"/>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
       <c r="J10" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="577" t="str">
+      <c r="K10" s="622" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="577"/>
+      <c r="L10" s="622"/>
       <c r="M10" s="360"/>
       <c r="O10" s="14"/>
       <c r="Q10" s="2" t="s">
@@ -16670,21 +16796,21 @@
       <c r="E11" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="578" t="str">
+      <c r="F11" s="623" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="578"/>
+      <c r="G11" s="623"/>
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
       <c r="J11" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="578" t="str">
+      <c r="K11" s="623" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="578"/>
+      <c r="L11" s="623"/>
       <c r="M11" s="360"/>
       <c r="O11" s="14"/>
       <c r="Q11" s="2" t="s">
@@ -16727,21 +16853,21 @@
       <c r="E12" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="578" t="str">
+      <c r="F12" s="623" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="578"/>
+      <c r="G12" s="623"/>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
       <c r="J12" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="636" t="str">
+      <c r="K12" s="631" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="636"/>
+      <c r="L12" s="631"/>
       <c r="M12" s="360"/>
       <c r="O12" s="14"/>
       <c r="Q12" s="2" t="s">
@@ -16784,21 +16910,21 @@
       <c r="E13" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="580" t="str">
+      <c r="F13" s="624" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="580"/>
+      <c r="G13" s="624"/>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
       <c r="J13" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="580" t="str">
+      <c r="K13" s="624" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="580"/>
+      <c r="L13" s="624"/>
       <c r="M13" s="360"/>
       <c r="O13" s="14"/>
       <c r="Q13" s="2" t="s">
@@ -16921,21 +17047,21 @@
       <c r="E16" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="576" t="str">
+      <c r="F16" s="629" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="576"/>
+      <c r="G16" s="629"/>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
       <c r="J16" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="581" t="str">
+      <c r="K16" s="632" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="581"/>
+      <c r="L16" s="632"/>
       <c r="M16" s="360"/>
       <c r="O16" s="14"/>
       <c r="P16" s="51" t="s">
@@ -16965,21 +17091,21 @@
       <c r="E17" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="578" t="str">
+      <c r="F17" s="623" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="578"/>
+      <c r="G17" s="623"/>
       <c r="H17" s="43"/>
       <c r="I17" s="43"/>
       <c r="J17" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="580" t="str">
+      <c r="K17" s="624" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="580"/>
+      <c r="L17" s="624"/>
       <c r="M17" s="360"/>
       <c r="O17" s="14"/>
       <c r="Q17" s="2" t="s">
@@ -17022,21 +17148,21 @@
       <c r="E18" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="580" t="str">
+      <c r="F18" s="624" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="580"/>
+      <c r="G18" s="624"/>
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
       <c r="J18" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="580" t="str">
+      <c r="K18" s="624" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="580"/>
+      <c r="L18" s="624"/>
       <c r="M18" s="360"/>
       <c r="O18" s="14"/>
       <c r="Q18" s="2" t="s">
@@ -17084,11 +17210,11 @@
       <c r="J19" s="163" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="580" t="str">
+      <c r="K19" s="624" t="str">
         <f>IF(V20="","",V20)</f>
         <v/>
       </c>
-      <c r="L19" s="580"/>
+      <c r="L19" s="624"/>
       <c r="M19" s="360"/>
       <c r="O19" s="14"/>
       <c r="Q19" s="2" t="s">
@@ -17163,11 +17289,11 @@
       <c r="E21" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="576" t="str">
+      <c r="F21" s="629" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="576"/>
+      <c r="G21" s="629"/>
       <c r="H21" s="43"/>
       <c r="I21" s="43"/>
       <c r="J21" s="74" t="s">
@@ -17207,21 +17333,21 @@
       <c r="E22" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="579" t="str">
+      <c r="F22" s="630" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="579"/>
+      <c r="G22" s="630"/>
       <c r="H22" s="43"/>
       <c r="I22" s="43"/>
       <c r="J22" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="K22" s="576" t="str">
+      <c r="K22" s="629" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="576"/>
+      <c r="L22" s="629"/>
       <c r="M22" s="360"/>
       <c r="O22" s="14"/>
       <c r="Q22" s="2" t="s">
@@ -17266,11 +17392,11 @@
       <c r="J23" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="K23" s="578" t="str">
+      <c r="K23" s="623" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="578"/>
+      <c r="L23" s="623"/>
       <c r="M23" s="360"/>
       <c r="O23" s="14"/>
       <c r="Q23" s="2" t="s">
@@ -17313,21 +17439,21 @@
       <c r="E24" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="577" t="str">
+      <c r="F24" s="622" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="577"/>
+      <c r="G24" s="622"/>
       <c r="H24" s="43"/>
       <c r="I24" s="43"/>
       <c r="J24" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="578" t="str">
+      <c r="K24" s="623" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="578"/>
+      <c r="L24" s="623"/>
       <c r="M24" s="360"/>
       <c r="O24" s="14"/>
       <c r="P24" s="51" t="s">
@@ -17365,11 +17491,11 @@
       <c r="E25" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="580" t="str">
+      <c r="F25" s="624" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="580"/>
+      <c r="G25" s="624"/>
       <c r="H25" s="43"/>
       <c r="I25" s="43"/>
       <c r="J25" s="43"/>
@@ -17417,11 +17543,11 @@
       <c r="E26" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="580" t="str">
+      <c r="F26" s="624" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="580"/>
+      <c r="G26" s="624"/>
       <c r="H26" s="43"/>
       <c r="I26" s="43"/>
       <c r="J26" s="361" t="s">
@@ -17470,11 +17596,11 @@
       <c r="J27" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="K27" s="576" t="str">
+      <c r="K27" s="629" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="576"/>
+      <c r="L27" s="629"/>
       <c r="M27" s="360"/>
       <c r="O27" s="14"/>
       <c r="Q27" s="2" t="s">
@@ -17512,21 +17638,21 @@
       <c r="E28" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="577" t="str">
+      <c r="F28" s="622" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="577"/>
+      <c r="G28" s="622"/>
       <c r="H28" s="43"/>
       <c r="I28" s="43"/>
       <c r="J28" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="K28" s="578" t="str">
+      <c r="K28" s="623" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="578"/>
+      <c r="L28" s="623"/>
       <c r="M28" s="360"/>
       <c r="O28" s="14"/>
       <c r="P28" s="51" t="s">
@@ -17555,11 +17681,11 @@
       <c r="E29" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="580" t="str">
+      <c r="F29" s="624" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="580"/>
+      <c r="G29" s="624"/>
       <c r="H29" s="43"/>
       <c r="I29" s="43"/>
       <c r="J29" s="43"/>
@@ -17607,11 +17733,11 @@
       <c r="E30" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="580" t="str">
+      <c r="F30" s="624" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="580"/>
+      <c r="G30" s="624"/>
       <c r="H30" s="43"/>
       <c r="I30" s="43"/>
       <c r="J30" s="43"/>
@@ -17726,11 +17852,11 @@
       <c r="E33" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="576" t="str">
+      <c r="F33" s="629" t="str">
         <f>IF(R34="","",R34)</f>
         <v/>
       </c>
-      <c r="G33" s="576"/>
+      <c r="G33" s="629"/>
       <c r="H33" s="43"/>
       <c r="I33" s="43"/>
       <c r="J33" s="74" t="s">
@@ -17767,21 +17893,21 @@
       <c r="E34" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="579" t="str">
+      <c r="F34" s="630" t="str">
         <f>IF(R35="","",R35)</f>
         <v/>
       </c>
-      <c r="G34" s="579"/>
+      <c r="G34" s="630"/>
       <c r="H34" s="43"/>
       <c r="I34" s="43"/>
       <c r="J34" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="K34" s="576" t="str">
+      <c r="K34" s="629" t="str">
         <f>IF(V35="","",V35)</f>
         <v/>
       </c>
-      <c r="L34" s="576"/>
+      <c r="L34" s="629"/>
       <c r="M34" s="360"/>
       <c r="O34" s="14"/>
       <c r="Q34" s="2" t="s">
@@ -17826,11 +17952,11 @@
       <c r="J35" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="K35" s="578" t="str">
+      <c r="K35" s="623" t="str">
         <f>IF(V36="","",V36)</f>
         <v/>
       </c>
-      <c r="L35" s="578"/>
+      <c r="L35" s="623"/>
       <c r="M35" s="360"/>
       <c r="O35" s="14"/>
       <c r="Q35" s="2" t="s">
@@ -17873,21 +17999,21 @@
       <c r="E36" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="577" t="str">
+      <c r="F36" s="622" t="str">
         <f>IF(R37="","",R37)</f>
         <v/>
       </c>
-      <c r="G36" s="577"/>
+      <c r="G36" s="622"/>
       <c r="H36" s="43"/>
       <c r="I36" s="43"/>
       <c r="J36" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="K36" s="578" t="str">
+      <c r="K36" s="623" t="str">
         <f>IF(V37="","",V37)</f>
         <v/>
       </c>
-      <c r="L36" s="578"/>
+      <c r="L36" s="623"/>
       <c r="M36" s="360"/>
       <c r="O36" s="14"/>
       <c r="P36" s="51" t="s">
@@ -17925,11 +18051,11 @@
       <c r="E37" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="580" t="str">
+      <c r="F37" s="624" t="str">
         <f>IF(R38="","",R38)</f>
         <v/>
       </c>
-      <c r="G37" s="580"/>
+      <c r="G37" s="624"/>
       <c r="H37" s="43"/>
       <c r="I37" s="43"/>
       <c r="J37" s="43"/>
@@ -17977,11 +18103,11 @@
       <c r="E38" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="580" t="str">
+      <c r="F38" s="624" t="str">
         <f>IF(R39="","",R39)</f>
         <v/>
       </c>
-      <c r="G38" s="580"/>
+      <c r="G38" s="624"/>
       <c r="H38" s="43"/>
       <c r="I38" s="43"/>
       <c r="J38" s="361" t="s">
@@ -18028,11 +18154,11 @@
       <c r="J39" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="K39" s="576" t="str">
+      <c r="K39" s="629" t="str">
         <f>IF(V40="","",V40)</f>
         <v/>
       </c>
-      <c r="L39" s="576"/>
+      <c r="L39" s="629"/>
       <c r="M39" s="360"/>
       <c r="O39" s="14"/>
       <c r="Q39" s="2" t="s">
@@ -18070,21 +18196,21 @@
       <c r="E40" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="577" t="str">
+      <c r="F40" s="622" t="str">
         <f>IF(R41="","",R41)</f>
         <v/>
       </c>
-      <c r="G40" s="577"/>
+      <c r="G40" s="622"/>
       <c r="H40" s="43"/>
       <c r="I40" s="43"/>
       <c r="J40" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="K40" s="578" t="str">
+      <c r="K40" s="623" t="str">
         <f>IF(V41="","",V41)</f>
         <v/>
       </c>
-      <c r="L40" s="578"/>
+      <c r="L40" s="623"/>
       <c r="M40" s="360"/>
       <c r="O40" s="14"/>
       <c r="P40" s="51" t="s">
@@ -18122,11 +18248,11 @@
       <c r="E41" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="580" t="str">
+      <c r="F41" s="624" t="str">
         <f>IF(R42="","",R42)</f>
         <v/>
       </c>
-      <c r="G41" s="580"/>
+      <c r="G41" s="624"/>
       <c r="H41" s="43"/>
       <c r="I41" s="43"/>
       <c r="J41" s="43"/>
@@ -18174,11 +18300,11 @@
       <c r="E42" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="580" t="str">
+      <c r="F42" s="624" t="str">
         <f>IF(R43="","",R43)</f>
         <v/>
       </c>
-      <c r="G42" s="580"/>
+      <c r="G42" s="624"/>
       <c r="H42" s="43"/>
       <c r="I42" s="43"/>
       <c r="J42" s="43"/>
@@ -18806,7 +18932,7 @@
       <c r="C65" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="637" t="str">
+      <c r="D65" s="578" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
@@ -18936,10 +19062,10 @@
       <c r="I69" s="347"/>
       <c r="J69" s="347"/>
       <c r="K69" s="347"/>
-      <c r="L69" s="582" t="s">
+      <c r="L69" s="625" t="s">
         <v>86</v>
       </c>
-      <c r="M69" s="583"/>
+      <c r="M69" s="626"/>
       <c r="O69" s="57"/>
       <c r="P69" s="18" t="s">
         <v>87</v>
@@ -20571,24 +20697,24 @@
       <c r="P107" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="Q107" s="584" t="str">
+      <c r="Q107" s="627" t="str">
         <f>IF(Q106&lt;&gt;"",Q106,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R107" s="584"/>
-      <c r="S107" s="584"/>
-      <c r="T107" s="585" t="str">
+      <c r="R107" s="627"/>
+      <c r="S107" s="627"/>
+      <c r="T107" s="628" t="str">
         <f>IF(T106&lt;&gt;"",T106,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v>Auto 2</v>
       </c>
-      <c r="U107" s="585"/>
-      <c r="V107" s="585"/>
-      <c r="W107" s="585" t="str">
+      <c r="U107" s="628"/>
+      <c r="V107" s="628"/>
+      <c r="W107" s="628" t="str">
         <f>IF(W106&lt;&gt;"",W106,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v>High Level</v>
       </c>
-      <c r="X107" s="585"/>
-      <c r="Y107" s="585"/>
+      <c r="X107" s="628"/>
+      <c r="Y107" s="628"/>
       <c r="AA107" s="2" t="s">
         <v>113</v>
       </c>
@@ -22181,7 +22307,7 @@
       <c r="C131" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D131" s="637" t="str">
+      <c r="D131" s="578" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
@@ -22582,24 +22708,24 @@
       <c r="P139" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="Q139" s="584" t="str">
+      <c r="Q139" s="627" t="str">
         <f>IF(Q138&lt;&gt;"",Q138,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R139" s="584"/>
-      <c r="S139" s="584"/>
-      <c r="T139" s="585" t="str">
+      <c r="R139" s="627"/>
+      <c r="S139" s="627"/>
+      <c r="T139" s="628" t="str">
         <f>IF(T138&lt;&gt;"",T138,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v>Auto 2</v>
       </c>
-      <c r="U139" s="585"/>
-      <c r="V139" s="585"/>
-      <c r="W139" s="585" t="str">
+      <c r="U139" s="628"/>
+      <c r="V139" s="628"/>
+      <c r="W139" s="628" t="str">
         <f>IF(W138&lt;&gt;"",W138,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v>High Level</v>
       </c>
-      <c r="X139" s="585"/>
-      <c r="Y139" s="585"/>
+      <c r="X139" s="628"/>
+      <c r="Y139" s="628"/>
       <c r="AA139" s="2" t="str">
         <f>$W$139&amp;" Mag 2"</f>
         <v>High Level Mag 2</v>
@@ -24942,10 +25068,10 @@
       <c r="P181" s="136"/>
       <c r="Q181" s="138"/>
       <c r="R181" s="129"/>
-      <c r="T181" s="586" t="s">
+      <c r="T181" s="604" t="s">
         <v>247</v>
       </c>
-      <c r="U181" s="586"/>
+      <c r="U181" s="604"/>
       <c r="W181" s="2" t="s">
         <v>201</v>
       </c>
@@ -25316,7 +25442,7 @@
       <c r="K190" s="371"/>
       <c r="L190" s="371"/>
       <c r="M190" s="375"/>
-      <c r="O190" s="587" t="str">
+      <c r="O190" s="612" t="str">
         <f>$Q$107</f>
         <v>Auto 1</v>
       </c>
@@ -25366,7 +25492,7 @@
       <c r="K191" s="371"/>
       <c r="L191" s="371"/>
       <c r="M191" s="351"/>
-      <c r="O191" s="587"/>
+      <c r="O191" s="612"/>
       <c r="P191" s="145" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -25412,7 +25538,7 @@
       <c r="K192" s="136"/>
       <c r="L192" s="136"/>
       <c r="M192" s="351"/>
-      <c r="O192" s="587"/>
+      <c r="O192" s="612"/>
       <c r="P192" s="145" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -25458,7 +25584,7 @@
       <c r="K193" s="136"/>
       <c r="L193" s="136"/>
       <c r="M193" s="351"/>
-      <c r="O193" s="587"/>
+      <c r="O193" s="612"/>
       <c r="P193" s="145" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -25501,7 +25627,7 @@
       <c r="K194" s="136"/>
       <c r="L194" s="136"/>
       <c r="M194" s="351"/>
-      <c r="O194" s="587"/>
+      <c r="O194" s="612"/>
       <c r="P194" s="135" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -25544,7 +25670,7 @@
       <c r="K195" s="136"/>
       <c r="L195" s="136"/>
       <c r="M195" s="351"/>
-      <c r="O195" s="587" t="str">
+      <c r="O195" s="612" t="str">
         <f>$T$107</f>
         <v>Auto 2</v>
       </c>
@@ -25590,7 +25716,7 @@
       <c r="K196" s="353"/>
       <c r="L196" s="353"/>
       <c r="M196" s="354"/>
-      <c r="O196" s="587"/>
+      <c r="O196" s="612"/>
       <c r="P196" s="145" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -25624,7 +25750,7 @@
       <c r="C197" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D197" s="637" t="str">
+      <c r="D197" s="578" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
@@ -25635,7 +25761,7 @@
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="O197" s="587"/>
+      <c r="O197" s="612"/>
       <c r="P197" s="145" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -25680,7 +25806,7 @@
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
-      <c r="O198" s="587"/>
+      <c r="O198" s="612"/>
       <c r="P198" s="145" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -25726,7 +25852,7 @@
         <f>$H$2</f>
         <v>Medical University of South Carolina</v>
       </c>
-      <c r="O199" s="587"/>
+      <c r="O199" s="612"/>
       <c r="P199" s="135" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -25775,7 +25901,7 @@
         <f>$H$5</f>
         <v>Fluoroscopy System Compliance Inspection</v>
       </c>
-      <c r="O200" s="587" t="str">
+      <c r="O200" s="612" t="str">
         <f>$W$107</f>
         <v>High Level</v>
       </c>
@@ -25824,7 +25950,7 @@
       <c r="K201" s="347"/>
       <c r="L201" s="347"/>
       <c r="M201" s="348"/>
-      <c r="O201" s="587"/>
+      <c r="O201" s="612"/>
       <c r="P201" s="145" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -25858,24 +25984,24 @@
       <c r="B202" s="349"/>
       <c r="C202" s="399"/>
       <c r="D202" s="371"/>
-      <c r="E202" s="588" t="s">
+      <c r="E202" s="615" t="s">
         <v>264</v>
       </c>
-      <c r="F202" s="589" t="s">
+      <c r="F202" s="616" t="s">
         <v>265</v>
       </c>
-      <c r="G202" s="590" t="s">
+      <c r="G202" s="617" t="s">
         <v>266</v>
       </c>
-      <c r="H202" s="591" t="str">
+      <c r="H202" s="618" t="str">
         <f>R276</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="I202" s="592" t="str">
+      <c r="I202" s="619" t="str">
         <f>S276</f>
         <v>Meas AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="J202" s="593" t="s">
+      <c r="J202" s="620" t="s">
         <v>267</v>
       </c>
       <c r="K202" s="136" t="s">
@@ -25884,10 +26010,10 @@
       <c r="L202" s="136" t="s">
         <v>269</v>
       </c>
-      <c r="M202" s="594" t="s">
+      <c r="M202" s="621" t="s">
         <v>270</v>
       </c>
-      <c r="O202" s="587"/>
+      <c r="O202" s="612"/>
       <c r="P202" s="145" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -25925,12 +26051,12 @@
       <c r="D203" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="E203" s="588"/>
-      <c r="F203" s="589"/>
-      <c r="G203" s="590"/>
-      <c r="H203" s="591"/>
-      <c r="I203" s="592"/>
-      <c r="J203" s="593"/>
+      <c r="E203" s="615"/>
+      <c r="F203" s="616"/>
+      <c r="G203" s="617"/>
+      <c r="H203" s="618"/>
+      <c r="I203" s="619"/>
+      <c r="J203" s="620"/>
       <c r="K203" s="136" t="str">
         <f>U277</f>
         <v>mGy/min</v>
@@ -25939,8 +26065,8 @@
         <f>V277</f>
         <v>mGy/min</v>
       </c>
-      <c r="M203" s="594"/>
-      <c r="O203" s="587"/>
+      <c r="M203" s="621"/>
+      <c r="O203" s="612"/>
       <c r="P203" s="145" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -26016,7 +26142,7 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="O204" s="587"/>
+      <c r="O204" s="612"/>
       <c r="P204" s="135" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -26675,7 +26801,7 @@
       <c r="K214" s="371"/>
       <c r="L214" s="371"/>
       <c r="M214" s="351"/>
-      <c r="O214" s="587" t="str">
+      <c r="O214" s="612" t="str">
         <f>$Q$139</f>
         <v>Auto 1</v>
       </c>
@@ -26725,7 +26851,7 @@
       <c r="K215" s="420"/>
       <c r="L215" s="420"/>
       <c r="M215" s="421"/>
-      <c r="O215" s="587"/>
+      <c r="O215" s="612"/>
       <c r="P215" s="145" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -26775,7 +26901,7 @@
       <c r="K216" s="371"/>
       <c r="L216" s="371"/>
       <c r="M216" s="351"/>
-      <c r="O216" s="587"/>
+      <c r="O216" s="612"/>
       <c r="P216" s="145" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -26821,7 +26947,7 @@
       <c r="K217" s="371"/>
       <c r="L217" s="371"/>
       <c r="M217" s="375"/>
-      <c r="O217" s="587"/>
+      <c r="O217" s="612"/>
       <c r="P217" s="145" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -26869,7 +26995,7 @@
       <c r="K218" s="371"/>
       <c r="L218" s="371"/>
       <c r="M218" s="375"/>
-      <c r="O218" s="587"/>
+      <c r="O218" s="612"/>
       <c r="P218" s="135" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -26912,7 +27038,7 @@
       <c r="K219" s="371"/>
       <c r="L219" s="371"/>
       <c r="M219" s="375"/>
-      <c r="O219" s="587" t="str">
+      <c r="O219" s="612" t="str">
         <f>$T$139</f>
         <v>Auto 2</v>
       </c>
@@ -26962,7 +27088,7 @@
       <c r="K220" s="371"/>
       <c r="L220" s="371"/>
       <c r="M220" s="375"/>
-      <c r="O220" s="587"/>
+      <c r="O220" s="612"/>
       <c r="P220" s="145" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -27015,7 +27141,7 @@
       <c r="K221" s="371"/>
       <c r="L221" s="371"/>
       <c r="M221" s="375"/>
-      <c r="O221" s="587"/>
+      <c r="O221" s="612"/>
       <c r="P221" s="145" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -27073,7 +27199,7 @@
       <c r="K222" s="371"/>
       <c r="L222" s="371"/>
       <c r="M222" s="375"/>
-      <c r="O222" s="587"/>
+      <c r="O222" s="612"/>
       <c r="P222" s="145" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -27128,7 +27254,7 @@
       <c r="K223" s="371"/>
       <c r="L223" s="371"/>
       <c r="M223" s="375"/>
-      <c r="O223" s="587"/>
+      <c r="O223" s="612"/>
       <c r="P223" s="135" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -27183,7 +27309,7 @@
       <c r="K224" s="371"/>
       <c r="L224" s="371"/>
       <c r="M224" s="375"/>
-      <c r="O224" s="587" t="str">
+      <c r="O224" s="612" t="str">
         <f>$W$139</f>
         <v>High Level</v>
       </c>
@@ -27241,7 +27367,7 @@
       <c r="K225" s="371"/>
       <c r="L225" s="371"/>
       <c r="M225" s="375"/>
-      <c r="O225" s="587"/>
+      <c r="O225" s="612"/>
       <c r="P225" s="145" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -27292,7 +27418,7 @@
       <c r="K226" s="371"/>
       <c r="L226" s="371"/>
       <c r="M226" s="375"/>
-      <c r="O226" s="587"/>
+      <c r="O226" s="612"/>
       <c r="P226" s="145" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -27346,7 +27472,7 @@
       <c r="K227" s="371"/>
       <c r="L227" s="371"/>
       <c r="M227" s="375"/>
-      <c r="O227" s="587"/>
+      <c r="O227" s="612"/>
       <c r="P227" s="145" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -27394,7 +27520,7 @@
       <c r="K228" s="371"/>
       <c r="L228" s="371"/>
       <c r="M228" s="375"/>
-      <c r="O228" s="587"/>
+      <c r="O228" s="612"/>
       <c r="P228" s="135" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -27920,7 +28046,7 @@
       <c r="K240" s="371"/>
       <c r="L240" s="371"/>
       <c r="M240" s="375"/>
-      <c r="O240" s="595" t="s">
+      <c r="O240" s="613" t="s">
         <v>296</v>
       </c>
       <c r="P240" s="170" t="s">
@@ -27982,7 +28108,7 @@
       <c r="K241" s="371"/>
       <c r="L241" s="371"/>
       <c r="M241" s="375"/>
-      <c r="O241" s="595"/>
+      <c r="O241" s="613"/>
       <c r="P241" s="175" t="s">
         <v>299</v>
       </c>
@@ -28033,7 +28159,7 @@
       <c r="K242" s="371"/>
       <c r="L242" s="371"/>
       <c r="M242" s="375"/>
-      <c r="O242" s="595" t="str">
+      <c r="O242" s="613" t="str">
         <f>IF($U$137=1,"Scatter - Pulse", "Scatter – Digital acq")</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -28093,7 +28219,7 @@
       <c r="K243" s="371"/>
       <c r="L243" s="371"/>
       <c r="M243" s="375"/>
-      <c r="O243" s="595"/>
+      <c r="O243" s="613"/>
       <c r="P243" s="175" t="s">
         <v>299</v>
       </c>
@@ -28619,17 +28745,17 @@
       <c r="P257" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="Q257" s="596" t="s">
+      <c r="Q257" s="614" t="s">
         <v>315</v>
       </c>
-      <c r="R257" s="596"/>
+      <c r="R257" s="614"/>
       <c r="S257" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="T257" s="596" t="s">
+      <c r="T257" s="614" t="s">
         <v>317</v>
       </c>
-      <c r="U257" s="596"/>
+      <c r="U257" s="614"/>
       <c r="V257" s="1" t="s">
         <v>318</v>
       </c>
@@ -28852,7 +28978,7 @@
       <c r="C263" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D263" s="637" t="str">
+      <c r="D263" s="578" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
@@ -29094,24 +29220,24 @@
         <f t="shared" si="41"/>
         <v>Attenuator</v>
       </c>
-      <c r="E269" s="597" t="str">
+      <c r="E269" s="606" t="str">
         <f>Q107</f>
         <v>Auto 1</v>
       </c>
-      <c r="F269" s="598"/>
-      <c r="G269" s="598"/>
-      <c r="H269" s="598" t="str">
+      <c r="F269" s="607"/>
+      <c r="G269" s="607"/>
+      <c r="H269" s="607" t="str">
         <f>T107</f>
         <v>Auto 2</v>
       </c>
-      <c r="I269" s="598"/>
-      <c r="J269" s="598"/>
-      <c r="K269" s="599" t="str">
+      <c r="I269" s="607"/>
+      <c r="J269" s="607"/>
+      <c r="K269" s="608" t="str">
         <f>W107</f>
         <v>High Level</v>
       </c>
-      <c r="L269" s="599"/>
-      <c r="M269" s="600"/>
+      <c r="L269" s="608"/>
+      <c r="M269" s="609"/>
       <c r="O269" s="194" t="str">
         <f t="shared" si="42"/>
         <v/>
@@ -29213,7 +29339,7 @@
         <v>7</v>
       </c>
       <c r="B271" s="349"/>
-      <c r="C271" s="601" t="str">
+      <c r="C271" s="596" t="str">
         <f>O110&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -29282,7 +29408,7 @@
         <v>8</v>
       </c>
       <c r="B272" s="349"/>
-      <c r="C272" s="601"/>
+      <c r="C272" s="596"/>
       <c r="D272" s="447">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -29355,7 +29481,7 @@
         <v>9</v>
       </c>
       <c r="B273" s="349"/>
-      <c r="C273" s="601"/>
+      <c r="C273" s="596"/>
       <c r="D273" s="450">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -29421,7 +29547,7 @@
         <v>10</v>
       </c>
       <c r="B274" s="349"/>
-      <c r="C274" s="601" t="str">
+      <c r="C274" s="596" t="str">
         <f>O113&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -29497,7 +29623,7 @@
         <v>11</v>
       </c>
       <c r="B275" s="349"/>
-      <c r="C275" s="601"/>
+      <c r="C275" s="596"/>
       <c r="D275" s="447">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -29563,7 +29689,7 @@
         <v>12</v>
       </c>
       <c r="B276" s="349"/>
-      <c r="C276" s="601"/>
+      <c r="C276" s="596"/>
       <c r="D276" s="450">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -29604,17 +29730,17 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="O276" s="602" t="s">
+      <c r="O276" s="610" t="s">
         <v>264</v>
       </c>
-      <c r="P276" s="603" t="s">
+      <c r="P276" s="611" t="s">
         <v>265</v>
       </c>
-      <c r="R276" s="603" t="str">
+      <c r="R276" s="611" t="str">
         <f>"Ind AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="S276" s="603" t="str">
+      <c r="S276" s="611" t="str">
         <f>"Meas AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Meas AK @ Ref Pt (mGy)</v>
       </c>
@@ -29643,7 +29769,7 @@
         <v>13</v>
       </c>
       <c r="B277" s="349"/>
-      <c r="C277" s="601" t="str">
+      <c r="C277" s="596" t="str">
         <f>O116&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -29687,13 +29813,13 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="O277" s="602"/>
-      <c r="P277" s="603"/>
+      <c r="O277" s="610"/>
+      <c r="P277" s="611"/>
       <c r="Q277" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="R277" s="603"/>
-      <c r="S277" s="603"/>
+      <c r="R277" s="611"/>
+      <c r="S277" s="611"/>
       <c r="T277" s="1" t="s">
         <v>324</v>
       </c>
@@ -29728,7 +29854,7 @@
         <v>14</v>
       </c>
       <c r="B278" s="349"/>
-      <c r="C278" s="601"/>
+      <c r="C278" s="596"/>
       <c r="D278" s="447">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -29770,7 +29896,7 @@
         <v>0</v>
       </c>
       <c r="O278" s="192" t="str">
-        <f>IF(S258="","",S258*VLOOKUP($Q$257,Tables!$A$112:$B$115,2))</f>
+        <f>IF(S258="","",S258*VLOOKUP($Q$257,Tables!$A$112:$B$116,2,FALSE))</f>
         <v/>
       </c>
       <c r="P278" s="206" t="str">
@@ -29815,7 +29941,7 @@
         <v>15</v>
       </c>
       <c r="B279" s="349"/>
-      <c r="C279" s="601"/>
+      <c r="C279" s="596"/>
       <c r="D279" s="450">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -29857,7 +29983,7 @@
         <v>0</v>
       </c>
       <c r="O279" s="194" t="str">
-        <f>IF(S259="","",S259*VLOOKUP($Q$257,Tables!$A$112:$B$115,2))</f>
+        <f>IF(S259="","",S259*VLOOKUP($Q$257,Tables!$A$112:$B$116,2,FALSE))</f>
         <v/>
       </c>
       <c r="P279" s="211" t="str">
@@ -29909,7 +30035,7 @@
         <v>16</v>
       </c>
       <c r="B280" s="349"/>
-      <c r="C280" s="601" t="str">
+      <c r="C280" s="596" t="str">
         <f>O119&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -29954,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="O280" s="194" t="str">
-        <f>IF(S260="","",S260*VLOOKUP($Q$257,Tables!$A$112:$B$115,2))</f>
+        <f>IF(S260="","",S260*VLOOKUP($Q$257,Tables!$A$112:$B$116,2,FALSE))</f>
         <v/>
       </c>
       <c r="P280" s="211" t="str">
@@ -29999,7 +30125,7 @@
         <v>17</v>
       </c>
       <c r="B281" s="349"/>
-      <c r="C281" s="601"/>
+      <c r="C281" s="596"/>
       <c r="D281" s="447">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -30041,7 +30167,7 @@
         <v>0</v>
       </c>
       <c r="O281" s="194" t="str">
-        <f>IF(S261="","",S261*VLOOKUP($Q$257,Tables!$A$112:$B$115,2))</f>
+        <f>IF(S261="","",S261*VLOOKUP($Q$257,Tables!$A$112:$B$116,2,FALSE))</f>
         <v/>
       </c>
       <c r="P281" s="211" t="str">
@@ -30093,7 +30219,7 @@
         <v>18</v>
       </c>
       <c r="B282" s="349"/>
-      <c r="C282" s="601"/>
+      <c r="C282" s="596"/>
       <c r="D282" s="450">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -30135,7 +30261,7 @@
         <v>0</v>
       </c>
       <c r="O282" s="194" t="str">
-        <f>IF(S262="","",S262*VLOOKUP($Q$257,Tables!$A$112:$B$115,2))</f>
+        <f>IF(S262="","",S262*VLOOKUP($Q$257,Tables!$A$112:$B$116,2,FALSE))</f>
         <v/>
       </c>
       <c r="P282" s="211" t="str">
@@ -30180,7 +30306,7 @@
         <v>19</v>
       </c>
       <c r="B283" s="349"/>
-      <c r="C283" s="601" t="str">
+      <c r="C283" s="596" t="str">
         <f>O122&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -30225,7 +30351,7 @@
         <v>0</v>
       </c>
       <c r="O283" s="194" t="str">
-        <f>IF(S263="","",S263*VLOOKUP($Q$257,Tables!$A$112:$B$115,2))</f>
+        <f>IF(S263="","",S263*VLOOKUP($Q$257,Tables!$A$112:$B$116,2,FALSE))</f>
         <v/>
       </c>
       <c r="P283" s="211" t="str">
@@ -30277,7 +30403,7 @@
         <v>20</v>
       </c>
       <c r="B284" s="349"/>
-      <c r="C284" s="601"/>
+      <c r="C284" s="596"/>
       <c r="D284" s="447">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -30319,7 +30445,7 @@
         <v>0</v>
       </c>
       <c r="O284" s="194" t="str">
-        <f>IF(S264="","",S264*VLOOKUP($Q$257,Tables!$A$112:$B$115,2))</f>
+        <f>IF(S264="","",S264*VLOOKUP($Q$257,Tables!$A$112:$B$116,2,FALSE))</f>
         <v/>
       </c>
       <c r="P284" s="211" t="str">
@@ -30364,7 +30490,7 @@
         <v>21</v>
       </c>
       <c r="B285" s="349"/>
-      <c r="C285" s="601"/>
+      <c r="C285" s="596"/>
       <c r="D285" s="447">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -30406,7 +30532,7 @@
         <v>0</v>
       </c>
       <c r="O285" s="203" t="str">
-        <f>IF(S265="","",S265*VLOOKUP($Q$257,Tables!$A$112:$B$115,2))</f>
+        <f>IF(S265="","",S265*VLOOKUP($Q$257,Tables!$A$112:$B$116,2,FALSE))</f>
         <v/>
       </c>
       <c r="P285" s="217" t="str">
@@ -30795,12 +30921,12 @@
       <c r="L293" s="136"/>
       <c r="M293" s="351"/>
       <c r="O293" s="239"/>
-      <c r="P293" s="604" t="s">
+      <c r="P293" s="601" t="s">
         <v>330</v>
       </c>
-      <c r="Q293" s="604"/>
-      <c r="R293" s="604"/>
-      <c r="S293" s="604"/>
+      <c r="Q293" s="601"/>
+      <c r="R293" s="601"/>
+      <c r="S293" s="601"/>
       <c r="T293" s="237"/>
       <c r="U293" s="237"/>
       <c r="V293" s="237"/>
@@ -31184,12 +31310,12 @@
       <c r="L302" s="136"/>
       <c r="M302" s="351"/>
       <c r="O302" s="239"/>
-      <c r="P302" s="604" t="s">
+      <c r="P302" s="601" t="s">
         <v>330</v>
       </c>
-      <c r="Q302" s="604"/>
-      <c r="R302" s="604"/>
-      <c r="S302" s="604"/>
+      <c r="Q302" s="601"/>
+      <c r="R302" s="601"/>
+      <c r="S302" s="601"/>
       <c r="T302" s="237"/>
       <c r="U302" s="237"/>
       <c r="V302" s="237"/>
@@ -31204,7 +31330,7 @@
         <v>39</v>
       </c>
       <c r="B303" s="349"/>
-      <c r="C303" s="605" t="str">
+      <c r="C303" s="579" t="str">
         <f>O190</f>
         <v>Auto 1</v>
       </c>
@@ -31272,7 +31398,7 @@
         <v>40</v>
       </c>
       <c r="B304" s="349"/>
-      <c r="C304" s="606"/>
+      <c r="C304" s="580"/>
       <c r="D304" s="489" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31335,7 +31461,7 @@
         <v>41</v>
       </c>
       <c r="B305" s="349"/>
-      <c r="C305" s="606"/>
+      <c r="C305" s="580"/>
       <c r="D305" s="489" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31390,7 +31516,7 @@
         <v>42</v>
       </c>
       <c r="B306" s="349"/>
-      <c r="C306" s="606"/>
+      <c r="C306" s="580"/>
       <c r="D306" s="489" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31435,7 +31561,7 @@
         <v>43</v>
       </c>
       <c r="B307" s="349"/>
-      <c r="C307" s="607"/>
+      <c r="C307" s="602"/>
       <c r="D307" s="492" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31487,7 +31613,7 @@
         <v>44</v>
       </c>
       <c r="B308" s="349"/>
-      <c r="C308" s="605" t="str">
+      <c r="C308" s="579" t="str">
         <f>O195</f>
         <v>Auto 2</v>
       </c>
@@ -31535,7 +31661,7 @@
         <v>45</v>
       </c>
       <c r="B309" s="349"/>
-      <c r="C309" s="606"/>
+      <c r="C309" s="580"/>
       <c r="D309" s="489" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31592,7 +31718,7 @@
         <v>46</v>
       </c>
       <c r="B310" s="349"/>
-      <c r="C310" s="606"/>
+      <c r="C310" s="580"/>
       <c r="D310" s="489" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31642,7 +31768,7 @@
         <v>47</v>
       </c>
       <c r="B311" s="349"/>
-      <c r="C311" s="606"/>
+      <c r="C311" s="580"/>
       <c r="D311" s="489" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31699,7 +31825,7 @@
         <v>48</v>
       </c>
       <c r="B312" s="349"/>
-      <c r="C312" s="608"/>
+      <c r="C312" s="581"/>
       <c r="D312" s="495" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31749,7 +31875,7 @@
         <v>49</v>
       </c>
       <c r="B313" s="349"/>
-      <c r="C313" s="609" t="str">
+      <c r="C313" s="603" t="str">
         <f>O200</f>
         <v>High Level</v>
       </c>
@@ -31808,7 +31934,7 @@
         <v>50</v>
       </c>
       <c r="B314" s="349"/>
-      <c r="C314" s="606"/>
+      <c r="C314" s="580"/>
       <c r="D314" s="489" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31851,7 +31977,7 @@
         <v>51</v>
       </c>
       <c r="B315" s="349"/>
-      <c r="C315" s="606"/>
+      <c r="C315" s="580"/>
       <c r="D315" s="489" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31894,7 +32020,7 @@
         <v>52</v>
       </c>
       <c r="B316" s="349"/>
-      <c r="C316" s="606"/>
+      <c r="C316" s="580"/>
       <c r="D316" s="489" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31939,7 +32065,7 @@
         <v>53</v>
       </c>
       <c r="B317" s="349"/>
-      <c r="C317" s="608"/>
+      <c r="C317" s="581"/>
       <c r="D317" s="495" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -32049,10 +32175,10 @@
       <c r="R319" s="278"/>
       <c r="S319" s="279"/>
       <c r="T319" s="279"/>
-      <c r="V319" s="586" t="s">
+      <c r="V319" s="604" t="s">
         <v>342</v>
       </c>
-      <c r="W319" s="586"/>
+      <c r="W319" s="604"/>
       <c r="X319" s="18" t="s">
         <v>343</v>
       </c>
@@ -32253,7 +32379,7 @@
         <v>60</v>
       </c>
       <c r="B324" s="349"/>
-      <c r="C324" s="610" t="str">
+      <c r="C324" s="585" t="str">
         <f>O240</f>
         <v>Scatter – Fluoro</v>
       </c>
@@ -32303,7 +32429,7 @@
         <v>61</v>
       </c>
       <c r="B325" s="349"/>
-      <c r="C325" s="611"/>
+      <c r="C325" s="586"/>
       <c r="D325" s="504" t="str">
         <f>P241</f>
         <v>Waist level</v>
@@ -32446,7 +32572,7 @@
       <c r="C329" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D329" s="637" t="str">
+      <c r="D329" s="578" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
@@ -32461,13 +32587,13 @@
         <v>350</v>
       </c>
       <c r="P329" s="54"/>
-      <c r="Q329" s="612" t="s">
+      <c r="Q329" s="605" t="s">
         <v>351</v>
       </c>
-      <c r="R329" s="612"/>
-      <c r="S329" s="612"/>
-      <c r="T329" s="612"/>
-      <c r="U329" s="612"/>
+      <c r="R329" s="605"/>
+      <c r="S329" s="605"/>
+      <c r="T329" s="605"/>
+      <c r="U329" s="605"/>
       <c r="Y329" s="15"/>
     </row>
     <row r="330" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32632,24 +32758,24 @@
         <f t="shared" si="69"/>
         <v>Attenuator</v>
       </c>
-      <c r="E335" s="597" t="str">
+      <c r="E335" s="606" t="str">
         <f>Q139</f>
         <v>Auto 1</v>
       </c>
-      <c r="F335" s="598"/>
-      <c r="G335" s="598"/>
-      <c r="H335" s="598" t="str">
+      <c r="F335" s="607"/>
+      <c r="G335" s="607"/>
+      <c r="H335" s="607" t="str">
         <f>T139</f>
         <v>Auto 2</v>
       </c>
-      <c r="I335" s="598"/>
-      <c r="J335" s="598"/>
-      <c r="K335" s="599" t="str">
+      <c r="I335" s="607"/>
+      <c r="J335" s="607"/>
+      <c r="K335" s="608" t="str">
         <f>W139</f>
         <v>High Level</v>
       </c>
-      <c r="L335" s="599"/>
-      <c r="M335" s="600"/>
+      <c r="L335" s="608"/>
+      <c r="M335" s="609"/>
       <c r="O335" s="131"/>
       <c r="P335" s="130" t="s">
         <v>357</v>
@@ -32726,7 +32852,7 @@
         <v>7</v>
       </c>
       <c r="B337" s="349"/>
-      <c r="C337" s="601" t="str">
+      <c r="C337" s="596" t="str">
         <f>O142&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -32786,7 +32912,7 @@
         <v>8</v>
       </c>
       <c r="B338" s="349"/>
-      <c r="C338" s="601"/>
+      <c r="C338" s="596"/>
       <c r="D338" s="518">
         <f t="shared" si="70"/>
         <v>20</v>
@@ -32843,7 +32969,7 @@
         <v>9</v>
       </c>
       <c r="B339" s="349"/>
-      <c r="C339" s="601"/>
+      <c r="C339" s="596"/>
       <c r="D339" s="519">
         <f t="shared" si="70"/>
         <v>30</v>
@@ -32900,7 +33026,7 @@
         <v>10</v>
       </c>
       <c r="B340" s="349"/>
-      <c r="C340" s="601" t="str">
+      <c r="C340" s="596" t="str">
         <f>O145&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -32960,7 +33086,7 @@
         <v>11</v>
       </c>
       <c r="B341" s="349"/>
-      <c r="C341" s="601"/>
+      <c r="C341" s="596"/>
       <c r="D341" s="518">
         <f t="shared" si="70"/>
         <v>20</v>
@@ -33017,7 +33143,7 @@
         <v>12</v>
       </c>
       <c r="B342" s="349"/>
-      <c r="C342" s="601"/>
+      <c r="C342" s="596"/>
       <c r="D342" s="520">
         <f t="shared" si="70"/>
         <v>30</v>
@@ -33074,7 +33200,7 @@
         <v>13</v>
       </c>
       <c r="B343" s="349"/>
-      <c r="C343" s="601" t="str">
+      <c r="C343" s="596" t="str">
         <f>O148&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33126,7 +33252,7 @@
         <v>14</v>
       </c>
       <c r="B344" s="349"/>
-      <c r="C344" s="601"/>
+      <c r="C344" s="596"/>
       <c r="D344" s="518">
         <f t="shared" si="70"/>
         <v>20</v>
@@ -33188,7 +33314,7 @@
         <v>15</v>
       </c>
       <c r="B345" s="349"/>
-      <c r="C345" s="601"/>
+      <c r="C345" s="596"/>
       <c r="D345" s="519">
         <f t="shared" si="70"/>
         <v>30</v>
@@ -33251,7 +33377,7 @@
         <v>16</v>
       </c>
       <c r="B346" s="349"/>
-      <c r="C346" s="601" t="str">
+      <c r="C346" s="596" t="str">
         <f>O151&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33314,7 +33440,7 @@
         <v>17</v>
       </c>
       <c r="B347" s="349"/>
-      <c r="C347" s="601"/>
+      <c r="C347" s="596"/>
       <c r="D347" s="518">
         <f t="shared" si="70"/>
         <v>20</v>
@@ -33372,7 +33498,7 @@
         <v>18</v>
       </c>
       <c r="B348" s="349"/>
-      <c r="C348" s="601"/>
+      <c r="C348" s="596"/>
       <c r="D348" s="520">
         <f t="shared" si="70"/>
         <v>30</v>
@@ -33450,7 +33576,7 @@
         <v>19</v>
       </c>
       <c r="B349" s="349"/>
-      <c r="C349" s="601" t="str">
+      <c r="C349" s="596" t="str">
         <f>O154&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33513,7 +33639,7 @@
         <v>20</v>
       </c>
       <c r="B350" s="349"/>
-      <c r="C350" s="601"/>
+      <c r="C350" s="596"/>
       <c r="D350" s="518">
         <f t="shared" si="70"/>
         <v>20</v>
@@ -33572,7 +33698,7 @@
         <v>21</v>
       </c>
       <c r="B351" s="349"/>
-      <c r="C351" s="601"/>
+      <c r="C351" s="596"/>
       <c r="D351" s="520">
         <f t="shared" si="70"/>
         <v>30</v>
@@ -33881,11 +34007,11 @@
         <f>IF(OR(V358="",V359="",V362=""),"",(V358-V359)*V362)</f>
         <v/>
       </c>
-      <c r="Q358" s="613" t="str">
+      <c r="Q358" s="597" t="str">
         <f>IF(OR(P358="",P359=""),"",(ABS(P358)+ABS(P359))/$O$355)</f>
         <v/>
       </c>
-      <c r="R358" s="614" t="str">
+      <c r="R358" s="598" t="str">
         <f>IF(OR(Q358="",Q360=""),"",Q358+Q360)</f>
         <v/>
       </c>
@@ -33924,8 +34050,8 @@
         <f>IF(OR(W358="",W359="",V362=""),"",(W358-W359)*V362)</f>
         <v/>
       </c>
-      <c r="Q359" s="613"/>
-      <c r="R359" s="613"/>
+      <c r="Q359" s="597"/>
+      <c r="R359" s="597"/>
       <c r="S359" s="147" t="str">
         <f>IF(AB168="","",AB168)</f>
         <v/>
@@ -33961,11 +34087,11 @@
         <f>IF(OR(X358="",X359="",V362=""),"",(X358-X359)*V362)</f>
         <v/>
       </c>
-      <c r="Q360" s="614" t="str">
+      <c r="Q360" s="598" t="str">
         <f>IF(OR(P360="",P361=""),"",(ABS(P360)+ABS(P361))/$O$355)</f>
         <v/>
       </c>
-      <c r="R360" s="614"/>
+      <c r="R360" s="598"/>
       <c r="S360" s="147" t="str">
         <f>IF(AB169="","",AB169)</f>
         <v/>
@@ -34007,8 +34133,8 @@
         <f>IF(OR(Y358="",Y359="",V362=""),"",(Y358-Y359)*V362)</f>
         <v/>
       </c>
-      <c r="Q361" s="614"/>
-      <c r="R361" s="614"/>
+      <c r="Q361" s="598"/>
+      <c r="R361" s="598"/>
       <c r="S361" s="149" t="str">
         <f>IF(AB170="","",AB170)</f>
         <v/>
@@ -34180,7 +34306,7 @@
         <v>36</v>
       </c>
       <c r="B366" s="349"/>
-      <c r="C366" s="615" t="str">
+      <c r="C366" s="599" t="str">
         <f>O214</f>
         <v>Auto 1</v>
       </c>
@@ -34231,7 +34357,7 @@
         <v>37</v>
       </c>
       <c r="B367" s="349"/>
-      <c r="C367" s="616"/>
+      <c r="C367" s="600"/>
       <c r="D367" s="489" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34277,7 +34403,7 @@
         <v>38</v>
       </c>
       <c r="B368" s="349"/>
-      <c r="C368" s="616"/>
+      <c r="C368" s="600"/>
       <c r="D368" s="489" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34312,7 +34438,7 @@
         <v>39</v>
       </c>
       <c r="B369" s="349"/>
-      <c r="C369" s="616"/>
+      <c r="C369" s="600"/>
       <c r="D369" s="489" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34347,7 +34473,7 @@
         <v>40</v>
       </c>
       <c r="B370" s="349"/>
-      <c r="C370" s="616"/>
+      <c r="C370" s="600"/>
       <c r="D370" s="495" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34392,7 +34518,7 @@
         <v>41</v>
       </c>
       <c r="B371" s="349"/>
-      <c r="C371" s="605" t="str">
+      <c r="C371" s="579" t="str">
         <f>O219</f>
         <v>Auto 2</v>
       </c>
@@ -34442,7 +34568,7 @@
         <v>42</v>
       </c>
       <c r="B372" s="349"/>
-      <c r="C372" s="606"/>
+      <c r="C372" s="580"/>
       <c r="D372" s="489" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34492,7 +34618,7 @@
         <v>43</v>
       </c>
       <c r="B373" s="349"/>
-      <c r="C373" s="606"/>
+      <c r="C373" s="580"/>
       <c r="D373" s="489" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34539,7 +34665,7 @@
         <v>44</v>
       </c>
       <c r="B374" s="349"/>
-      <c r="C374" s="606"/>
+      <c r="C374" s="580"/>
       <c r="D374" s="489" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34589,7 +34715,7 @@
         <v>45</v>
       </c>
       <c r="B375" s="349"/>
-      <c r="C375" s="608"/>
+      <c r="C375" s="581"/>
       <c r="D375" s="495" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34636,7 +34762,7 @@
         <v>46</v>
       </c>
       <c r="B376" s="349"/>
-      <c r="C376" s="617" t="str">
+      <c r="C376" s="582" t="str">
         <f>O224</f>
         <v>High Level</v>
       </c>
@@ -34689,7 +34815,7 @@
         <v>47</v>
       </c>
       <c r="B377" s="349"/>
-      <c r="C377" s="618"/>
+      <c r="C377" s="583"/>
       <c r="D377" s="489" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34736,7 +34862,7 @@
         <v>48</v>
       </c>
       <c r="B378" s="349"/>
-      <c r="C378" s="618"/>
+      <c r="C378" s="583"/>
       <c r="D378" s="489" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34786,7 +34912,7 @@
         <v>49</v>
       </c>
       <c r="B379" s="349"/>
-      <c r="C379" s="618"/>
+      <c r="C379" s="583"/>
       <c r="D379" s="489" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34833,7 +34959,7 @@
         <v>50</v>
       </c>
       <c r="B380" s="349"/>
-      <c r="C380" s="619"/>
+      <c r="C380" s="584"/>
       <c r="D380" s="495" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -35143,7 +35269,7 @@
         <v>58</v>
       </c>
       <c r="B388" s="349"/>
-      <c r="C388" s="610" t="str">
+      <c r="C388" s="585" t="str">
         <f>O242</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -35194,7 +35320,7 @@
         <v>59</v>
       </c>
       <c r="B389" s="349"/>
-      <c r="C389" s="611"/>
+      <c r="C389" s="586"/>
       <c r="D389" s="504" t="str">
         <f>P243</f>
         <v>Waist level</v>
@@ -35418,7 +35544,7 @@
       <c r="C395" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D395" s="637" t="str">
+      <c r="D395" s="578" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
@@ -35545,14 +35671,14 @@
       <c r="E399" s="347"/>
       <c r="F399" s="347"/>
       <c r="G399" s="347"/>
-      <c r="H399" s="620" t="s">
+      <c r="H399" s="587" t="s">
         <v>397</v>
       </c>
-      <c r="I399" s="620"/>
-      <c r="J399" s="620" t="s">
+      <c r="I399" s="587"/>
+      <c r="J399" s="587" t="s">
         <v>398</v>
       </c>
-      <c r="K399" s="620"/>
+      <c r="K399" s="587"/>
       <c r="L399" s="347"/>
       <c r="M399" s="348"/>
       <c r="O399" s="14"/>
@@ -36126,20 +36252,20 @@
       </c>
       <c r="B413" s="349"/>
       <c r="C413" s="43"/>
-      <c r="D413" s="621" t="s">
+      <c r="D413" s="588" t="s">
         <v>404</v>
       </c>
-      <c r="E413" s="621"/>
-      <c r="F413" s="621"/>
-      <c r="G413" s="621"/>
-      <c r="H413" s="621"/>
-      <c r="I413" s="621" t="s">
+      <c r="E413" s="588"/>
+      <c r="F413" s="588"/>
+      <c r="G413" s="588"/>
+      <c r="H413" s="588"/>
+      <c r="I413" s="588" t="s">
         <v>405</v>
       </c>
-      <c r="J413" s="621"/>
-      <c r="K413" s="621"/>
-      <c r="L413" s="621"/>
-      <c r="M413" s="622"/>
+      <c r="J413" s="588"/>
+      <c r="K413" s="588"/>
+      <c r="L413" s="588"/>
+      <c r="M413" s="589"/>
       <c r="O413" s="14"/>
       <c r="P413" s="2" t="s">
         <v>191</v>
@@ -37619,11 +37745,11 @@
         <f t="shared" si="92"/>
         <v/>
       </c>
-      <c r="F442" s="623" t="str">
+      <c r="F442" s="590" t="str">
         <f t="shared" si="92"/>
         <v/>
       </c>
-      <c r="G442" s="625" t="str">
+      <c r="G442" s="592" t="str">
         <f t="shared" si="92"/>
         <v/>
       </c>
@@ -37664,8 +37790,8 @@
         <f>P359</f>
         <v/>
       </c>
-      <c r="F443" s="624"/>
-      <c r="G443" s="626"/>
+      <c r="F443" s="591"/>
+      <c r="G443" s="593"/>
       <c r="H443" s="205"/>
       <c r="I443" s="83" t="str">
         <f>T360</f>
@@ -37705,11 +37831,11 @@
         <f>P360</f>
         <v/>
       </c>
-      <c r="F444" s="624" t="str">
+      <c r="F444" s="591" t="str">
         <f>Q360</f>
         <v/>
       </c>
-      <c r="G444" s="626"/>
+      <c r="G444" s="593"/>
       <c r="H444" s="136"/>
       <c r="I444" s="92" t="str">
         <f>T361</f>
@@ -37750,8 +37876,8 @@
         <f>P361</f>
         <v/>
       </c>
-      <c r="F445" s="628"/>
-      <c r="G445" s="627"/>
+      <c r="F445" s="595"/>
+      <c r="G445" s="594"/>
       <c r="H445" s="136"/>
       <c r="I445" s="136"/>
       <c r="J445" s="136"/>
@@ -38146,7 +38272,7 @@
       <c r="C461" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D461" s="637" t="str">
+      <c r="D461" s="578" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
@@ -39430,7 +39556,7 @@
       <c r="C527" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D527" s="637" t="str">
+      <c r="D527" s="578" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
@@ -40714,7 +40840,7 @@
       <c r="C593" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D593" s="637" t="str">
+      <c r="D593" s="578" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
@@ -41827,7 +41953,7 @@
       <c r="C659" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D659" s="637" t="str">
+      <c r="D659" s="578" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
@@ -42941,7 +43067,7 @@
       <c r="C725" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D725" s="637" t="str">
+      <c r="D725" s="578" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
@@ -44054,7 +44180,7 @@
       <c r="C791" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D791" s="637" t="str">
+      <c r="D791" s="578" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
@@ -44087,25 +44213,84 @@
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="C371:C375"/>
-    <mergeCell ref="C376:C380"/>
-    <mergeCell ref="C388:C389"/>
-    <mergeCell ref="H399:I399"/>
-    <mergeCell ref="J399:K399"/>
-    <mergeCell ref="D413:H413"/>
-    <mergeCell ref="I413:M413"/>
-    <mergeCell ref="F442:F443"/>
-    <mergeCell ref="G442:G445"/>
-    <mergeCell ref="F444:F445"/>
-    <mergeCell ref="C337:C339"/>
-    <mergeCell ref="C340:C342"/>
-    <mergeCell ref="C343:C345"/>
-    <mergeCell ref="C346:C348"/>
-    <mergeCell ref="C349:C351"/>
-    <mergeCell ref="Q358:Q359"/>
-    <mergeCell ref="R358:R361"/>
-    <mergeCell ref="Q360:Q361"/>
-    <mergeCell ref="C366:C370"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="Q107:S107"/>
+    <mergeCell ref="T107:V107"/>
+    <mergeCell ref="W107:Y107"/>
+    <mergeCell ref="Q139:S139"/>
+    <mergeCell ref="T139:V139"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="T181:U181"/>
+    <mergeCell ref="O190:O194"/>
+    <mergeCell ref="O195:O199"/>
+    <mergeCell ref="O200:O204"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="G202:G203"/>
+    <mergeCell ref="H202:H203"/>
+    <mergeCell ref="I202:I203"/>
+    <mergeCell ref="J202:J203"/>
+    <mergeCell ref="M202:M203"/>
+    <mergeCell ref="O214:O218"/>
+    <mergeCell ref="O219:O223"/>
+    <mergeCell ref="O224:O228"/>
+    <mergeCell ref="O240:O241"/>
+    <mergeCell ref="O242:O243"/>
+    <mergeCell ref="Q257:R257"/>
+    <mergeCell ref="T257:U257"/>
+    <mergeCell ref="E269:G269"/>
+    <mergeCell ref="H269:J269"/>
+    <mergeCell ref="K269:M269"/>
+    <mergeCell ref="C271:C273"/>
+    <mergeCell ref="C274:C276"/>
+    <mergeCell ref="O276:O277"/>
+    <mergeCell ref="P276:P277"/>
+    <mergeCell ref="R276:R277"/>
+    <mergeCell ref="S276:S277"/>
+    <mergeCell ref="C277:C279"/>
+    <mergeCell ref="C280:C282"/>
+    <mergeCell ref="C283:C285"/>
     <mergeCell ref="P293:S293"/>
     <mergeCell ref="P302:S302"/>
     <mergeCell ref="C303:C307"/>
@@ -44117,84 +44302,25 @@
     <mergeCell ref="E335:G335"/>
     <mergeCell ref="H335:J335"/>
     <mergeCell ref="K335:M335"/>
-    <mergeCell ref="C271:C273"/>
-    <mergeCell ref="C274:C276"/>
-    <mergeCell ref="O276:O277"/>
-    <mergeCell ref="P276:P277"/>
-    <mergeCell ref="R276:R277"/>
-    <mergeCell ref="S276:S277"/>
-    <mergeCell ref="C277:C279"/>
-    <mergeCell ref="C280:C282"/>
-    <mergeCell ref="C283:C285"/>
-    <mergeCell ref="O214:O218"/>
-    <mergeCell ref="O219:O223"/>
-    <mergeCell ref="O224:O228"/>
-    <mergeCell ref="O240:O241"/>
-    <mergeCell ref="O242:O243"/>
-    <mergeCell ref="Q257:R257"/>
-    <mergeCell ref="T257:U257"/>
-    <mergeCell ref="E269:G269"/>
-    <mergeCell ref="H269:J269"/>
-    <mergeCell ref="K269:M269"/>
-    <mergeCell ref="T181:U181"/>
-    <mergeCell ref="O190:O194"/>
-    <mergeCell ref="O195:O199"/>
-    <mergeCell ref="O200:O204"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="G202:G203"/>
-    <mergeCell ref="H202:H203"/>
-    <mergeCell ref="I202:I203"/>
-    <mergeCell ref="J202:J203"/>
-    <mergeCell ref="M202:M203"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="Q107:S107"/>
-    <mergeCell ref="T107:V107"/>
-    <mergeCell ref="W107:Y107"/>
-    <mergeCell ref="Q139:S139"/>
-    <mergeCell ref="T139:V139"/>
-    <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C337:C339"/>
+    <mergeCell ref="C340:C342"/>
+    <mergeCell ref="C343:C345"/>
+    <mergeCell ref="C346:C348"/>
+    <mergeCell ref="C349:C351"/>
+    <mergeCell ref="Q358:Q359"/>
+    <mergeCell ref="R358:R361"/>
+    <mergeCell ref="Q360:Q361"/>
+    <mergeCell ref="C366:C370"/>
+    <mergeCell ref="C371:C375"/>
+    <mergeCell ref="C376:C380"/>
+    <mergeCell ref="C388:C389"/>
+    <mergeCell ref="H399:I399"/>
+    <mergeCell ref="J399:K399"/>
+    <mergeCell ref="D413:H413"/>
+    <mergeCell ref="I413:M413"/>
+    <mergeCell ref="F442:F443"/>
+    <mergeCell ref="G442:G445"/>
+    <mergeCell ref="F444:F445"/>
   </mergeCells>
   <conditionalFormatting sqref="S126 V126 Y126 S158 V158 Y158">
     <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
@@ -44459,39 +44585,39 @@
         <f>Fluoro!D269</f>
         <v>Attenuator</v>
       </c>
-      <c r="E5" s="598" t="str">
+      <c r="E5" s="607" t="str">
         <f>Fluoro!E269</f>
         <v>Auto 1</v>
       </c>
-      <c r="F5" s="598">
+      <c r="F5" s="607">
         <f>Fluoro!F269</f>
         <v>0</v>
       </c>
-      <c r="G5" s="598">
+      <c r="G5" s="607">
         <f>Fluoro!G269</f>
         <v>0</v>
       </c>
-      <c r="H5" s="598" t="str">
+      <c r="H5" s="607" t="str">
         <f>Fluoro!H269</f>
         <v>Auto 2</v>
       </c>
-      <c r="I5" s="598">
+      <c r="I5" s="607">
         <f>Fluoro!I269</f>
         <v>0</v>
       </c>
-      <c r="J5" s="598">
+      <c r="J5" s="607">
         <f>Fluoro!J269</f>
         <v>0</v>
       </c>
-      <c r="K5" s="599" t="str">
+      <c r="K5" s="608" t="str">
         <f>Fluoro!K269</f>
         <v>High Level</v>
       </c>
-      <c r="L5" s="599">
+      <c r="L5" s="608">
         <f>Fluoro!L269</f>
         <v>0</v>
       </c>
-      <c r="M5" s="599">
+      <c r="M5" s="608">
         <f>Fluoro!M269</f>
         <v>0</v>
       </c>
@@ -44548,7 +44674,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="629" t="str">
+      <c r="C7" s="636" t="str">
         <f>Fluoro!C271</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -44598,7 +44724,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="11"/>
-      <c r="C8" s="629">
+      <c r="C8" s="636">
         <f>Fluoro!C272</f>
         <v>0</v>
       </c>
@@ -44648,7 +44774,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="629">
+      <c r="C9" s="636">
         <f>Fluoro!C273</f>
         <v>0</v>
       </c>
@@ -44698,7 +44824,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="629" t="str">
+      <c r="C10" s="636" t="str">
         <f>Fluoro!C274</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -44748,7 +44874,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="629">
+      <c r="C11" s="636">
         <f>Fluoro!C275</f>
         <v>0</v>
       </c>
@@ -44798,7 +44924,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="629">
+      <c r="C12" s="636">
         <f>Fluoro!C276</f>
         <v>0</v>
       </c>
@@ -44848,7 +44974,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="11"/>
-      <c r="C13" s="629" t="str">
+      <c r="C13" s="636" t="str">
         <f>Fluoro!C277</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -44898,7 +45024,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="629">
+      <c r="C14" s="636">
         <f>Fluoro!C278</f>
         <v>0</v>
       </c>
@@ -44948,7 +45074,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="629">
+      <c r="C15" s="636">
         <f>Fluoro!C279</f>
         <v>0</v>
       </c>
@@ -44998,7 +45124,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="629" t="str">
+      <c r="C16" s="636" t="str">
         <f>Fluoro!C280</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -45048,7 +45174,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="629">
+      <c r="C17" s="636">
         <f>Fluoro!C281</f>
         <v>0</v>
       </c>
@@ -45098,7 +45224,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="11"/>
-      <c r="C18" s="629">
+      <c r="C18" s="636">
         <f>Fluoro!C282</f>
         <v>0</v>
       </c>
@@ -45148,7 +45274,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="629" t="str">
+      <c r="C19" s="636" t="str">
         <f>Fluoro!C283</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -45198,7 +45324,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="11"/>
-      <c r="C20" s="629">
+      <c r="C20" s="636">
         <f>Fluoro!C284</f>
         <v>0</v>
       </c>
@@ -45248,7 +45374,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="11"/>
-      <c r="C21" s="629">
+      <c r="C21" s="636">
         <f>Fluoro!C285</f>
         <v>0</v>
       </c>
@@ -45697,7 +45823,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="11"/>
-      <c r="C39" s="630" t="str">
+      <c r="C39" s="633" t="str">
         <f>Fluoro!C303</f>
         <v>Auto 1</v>
       </c>
@@ -45735,7 +45861,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="11"/>
-      <c r="C40" s="630">
+      <c r="C40" s="633">
         <f>Fluoro!C304</f>
         <v>0</v>
       </c>
@@ -45773,7 +45899,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="11"/>
-      <c r="C41" s="630">
+      <c r="C41" s="633">
         <f>Fluoro!C305</f>
         <v>0</v>
       </c>
@@ -45811,7 +45937,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="11"/>
-      <c r="C42" s="630">
+      <c r="C42" s="633">
         <f>Fluoro!C306</f>
         <v>0</v>
       </c>
@@ -45846,7 +45972,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="11"/>
-      <c r="C43" s="630">
+      <c r="C43" s="633">
         <f>Fluoro!C307</f>
         <v>0</v>
       </c>
@@ -45881,7 +46007,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="11"/>
-      <c r="C44" s="631" t="str">
+      <c r="C44" s="634" t="str">
         <f>Fluoro!C308</f>
         <v>Auto 2</v>
       </c>
@@ -45916,7 +46042,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="11"/>
-      <c r="C45" s="631">
+      <c r="C45" s="634">
         <f>Fluoro!C309</f>
         <v>0</v>
       </c>
@@ -45951,7 +46077,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="11"/>
-      <c r="C46" s="631">
+      <c r="C46" s="634">
         <f>Fluoro!C310</f>
         <v>0</v>
       </c>
@@ -45986,7 +46112,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="11"/>
-      <c r="C47" s="631">
+      <c r="C47" s="634">
         <f>Fluoro!C311</f>
         <v>0</v>
       </c>
@@ -46021,7 +46147,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="11"/>
-      <c r="C48" s="631">
+      <c r="C48" s="634">
         <f>Fluoro!C312</f>
         <v>0</v>
       </c>
@@ -46056,7 +46182,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="11"/>
-      <c r="C49" s="631" t="str">
+      <c r="C49" s="634" t="str">
         <f>Fluoro!C313</f>
         <v>High Level</v>
       </c>
@@ -46091,7 +46217,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="11"/>
-      <c r="C50" s="631">
+      <c r="C50" s="634">
         <f>Fluoro!C314</f>
         <v>0</v>
       </c>
@@ -46126,7 +46252,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="11"/>
-      <c r="C51" s="631">
+      <c r="C51" s="634">
         <f>Fluoro!C315</f>
         <v>0</v>
       </c>
@@ -46157,7 +46283,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="11"/>
-      <c r="C52" s="631">
+      <c r="C52" s="634">
         <f>Fluoro!C316</f>
         <v>0</v>
       </c>
@@ -46188,7 +46314,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="11"/>
-      <c r="C53" s="631">
+      <c r="C53" s="634">
         <f>Fluoro!C317</f>
         <v>0</v>
       </c>
@@ -46374,7 +46500,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="11"/>
-      <c r="C60" s="632" t="str">
+      <c r="C60" s="635" t="str">
         <f>Fluoro!C324</f>
         <v>Scatter – Fluoro</v>
       </c>
@@ -46409,7 +46535,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="11"/>
-      <c r="C61" s="632">
+      <c r="C61" s="635">
         <f>Fluoro!C325</f>
         <v>0</v>
       </c>
@@ -46655,39 +46781,39 @@
         <f>Fluoro!D335</f>
         <v>Attenuator</v>
       </c>
-      <c r="E71" s="598" t="str">
+      <c r="E71" s="607" t="str">
         <f>Fluoro!E335</f>
         <v>Auto 1</v>
       </c>
-      <c r="F71" s="598">
+      <c r="F71" s="607">
         <f>Fluoro!F335</f>
         <v>0</v>
       </c>
-      <c r="G71" s="598">
+      <c r="G71" s="607">
         <f>Fluoro!G335</f>
         <v>0</v>
       </c>
-      <c r="H71" s="598" t="str">
+      <c r="H71" s="607" t="str">
         <f>Fluoro!H335</f>
         <v>Auto 2</v>
       </c>
-      <c r="I71" s="598">
+      <c r="I71" s="607">
         <f>Fluoro!I335</f>
         <v>0</v>
       </c>
-      <c r="J71" s="598">
+      <c r="J71" s="607">
         <f>Fluoro!J335</f>
         <v>0</v>
       </c>
-      <c r="K71" s="599" t="str">
+      <c r="K71" s="608" t="str">
         <f>Fluoro!K335</f>
         <v>High Level</v>
       </c>
-      <c r="L71" s="599">
+      <c r="L71" s="608">
         <f>Fluoro!L335</f>
         <v>0</v>
       </c>
-      <c r="M71" s="599">
+      <c r="M71" s="608">
         <f>Fluoro!M335</f>
         <v>0</v>
       </c>
@@ -46744,7 +46870,7 @@
         <v>7</v>
       </c>
       <c r="B73" s="11"/>
-      <c r="C73" s="629" t="str">
+      <c r="C73" s="636" t="str">
         <f>Fluoro!C337</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -46794,7 +46920,7 @@
         <v>8</v>
       </c>
       <c r="B74" s="11"/>
-      <c r="C74" s="629">
+      <c r="C74" s="636">
         <f>Fluoro!C338</f>
         <v>0</v>
       </c>
@@ -46844,7 +46970,7 @@
         <v>9</v>
       </c>
       <c r="B75" s="11"/>
-      <c r="C75" s="629">
+      <c r="C75" s="636">
         <f>Fluoro!C339</f>
         <v>0</v>
       </c>
@@ -46894,7 +47020,7 @@
         <v>10</v>
       </c>
       <c r="B76" s="11"/>
-      <c r="C76" s="629" t="str">
+      <c r="C76" s="636" t="str">
         <f>Fluoro!C340</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -46944,7 +47070,7 @@
         <v>11</v>
       </c>
       <c r="B77" s="11"/>
-      <c r="C77" s="629">
+      <c r="C77" s="636">
         <f>Fluoro!C341</f>
         <v>0</v>
       </c>
@@ -46994,7 +47120,7 @@
         <v>12</v>
       </c>
       <c r="B78" s="11"/>
-      <c r="C78" s="629">
+      <c r="C78" s="636">
         <f>Fluoro!C342</f>
         <v>0</v>
       </c>
@@ -47044,7 +47170,7 @@
         <v>13</v>
       </c>
       <c r="B79" s="11"/>
-      <c r="C79" s="629" t="str">
+      <c r="C79" s="636" t="str">
         <f>Fluoro!C343</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -47094,7 +47220,7 @@
         <v>14</v>
       </c>
       <c r="B80" s="11"/>
-      <c r="C80" s="629">
+      <c r="C80" s="636">
         <f>Fluoro!C344</f>
         <v>0</v>
       </c>
@@ -47144,7 +47270,7 @@
         <v>15</v>
       </c>
       <c r="B81" s="11"/>
-      <c r="C81" s="629">
+      <c r="C81" s="636">
         <f>Fluoro!C345</f>
         <v>0</v>
       </c>
@@ -47194,7 +47320,7 @@
         <v>16</v>
       </c>
       <c r="B82" s="11"/>
-      <c r="C82" s="629" t="str">
+      <c r="C82" s="636" t="str">
         <f>Fluoro!C346</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -47244,7 +47370,7 @@
         <v>17</v>
       </c>
       <c r="B83" s="11"/>
-      <c r="C83" s="629">
+      <c r="C83" s="636">
         <f>Fluoro!C347</f>
         <v>0</v>
       </c>
@@ -47294,7 +47420,7 @@
         <v>18</v>
       </c>
       <c r="B84" s="11"/>
-      <c r="C84" s="629">
+      <c r="C84" s="636">
         <f>Fluoro!C348</f>
         <v>0</v>
       </c>
@@ -47344,7 +47470,7 @@
         <v>19</v>
       </c>
       <c r="B85" s="11"/>
-      <c r="C85" s="629" t="str">
+      <c r="C85" s="636" t="str">
         <f>Fluoro!C349</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -47394,7 +47520,7 @@
         <v>20</v>
       </c>
       <c r="B86" s="11"/>
-      <c r="C86" s="629">
+      <c r="C86" s="636">
         <f>Fluoro!C350</f>
         <v>0</v>
       </c>
@@ -47444,7 +47570,7 @@
         <v>21</v>
       </c>
       <c r="B87" s="11"/>
-      <c r="C87" s="629">
+      <c r="C87" s="636">
         <f>Fluoro!C351</f>
         <v>0</v>
       </c>
@@ -47791,7 +47917,7 @@
         <v>36</v>
       </c>
       <c r="B102" s="11"/>
-      <c r="C102" s="630" t="str">
+      <c r="C102" s="633" t="str">
         <f>Fluoro!C366</f>
         <v>Auto 1</v>
       </c>
@@ -47829,7 +47955,7 @@
         <v>37</v>
       </c>
       <c r="B103" s="11"/>
-      <c r="C103" s="630">
+      <c r="C103" s="633">
         <f>Fluoro!C367</f>
         <v>0</v>
       </c>
@@ -47867,7 +47993,7 @@
         <v>38</v>
       </c>
       <c r="B104" s="11"/>
-      <c r="C104" s="630">
+      <c r="C104" s="633">
         <f>Fluoro!C368</f>
         <v>0</v>
       </c>
@@ -47905,7 +48031,7 @@
         <v>39</v>
       </c>
       <c r="B105" s="11"/>
-      <c r="C105" s="630">
+      <c r="C105" s="633">
         <f>Fluoro!C369</f>
         <v>0</v>
       </c>
@@ -47940,7 +48066,7 @@
         <v>40</v>
       </c>
       <c r="B106" s="11"/>
-      <c r="C106" s="630">
+      <c r="C106" s="633">
         <f>Fluoro!C370</f>
         <v>0</v>
       </c>
@@ -47975,7 +48101,7 @@
         <v>41</v>
       </c>
       <c r="B107" s="11"/>
-      <c r="C107" s="631" t="str">
+      <c r="C107" s="634" t="str">
         <f>Fluoro!C371</f>
         <v>Auto 2</v>
       </c>
@@ -48010,7 +48136,7 @@
         <v>42</v>
       </c>
       <c r="B108" s="11"/>
-      <c r="C108" s="631">
+      <c r="C108" s="634">
         <f>Fluoro!C372</f>
         <v>0</v>
       </c>
@@ -48045,7 +48171,7 @@
         <v>43</v>
       </c>
       <c r="B109" s="11"/>
-      <c r="C109" s="631">
+      <c r="C109" s="634">
         <f>Fluoro!C373</f>
         <v>0</v>
       </c>
@@ -48080,7 +48206,7 @@
         <v>44</v>
       </c>
       <c r="B110" s="11"/>
-      <c r="C110" s="631">
+      <c r="C110" s="634">
         <f>Fluoro!C374</f>
         <v>0</v>
       </c>
@@ -48115,7 +48241,7 @@
         <v>45</v>
       </c>
       <c r="B111" s="11"/>
-      <c r="C111" s="631">
+      <c r="C111" s="634">
         <f>Fluoro!C375</f>
         <v>0</v>
       </c>
@@ -48150,7 +48276,7 @@
         <v>46</v>
       </c>
       <c r="B112" s="11"/>
-      <c r="C112" s="631" t="str">
+      <c r="C112" s="634" t="str">
         <f>Fluoro!C376</f>
         <v>High Level</v>
       </c>
@@ -48185,7 +48311,7 @@
         <v>47</v>
       </c>
       <c r="B113" s="11"/>
-      <c r="C113" s="631">
+      <c r="C113" s="634">
         <f>Fluoro!C377</f>
         <v>0</v>
       </c>
@@ -48220,7 +48346,7 @@
         <v>48</v>
       </c>
       <c r="B114" s="11"/>
-      <c r="C114" s="631">
+      <c r="C114" s="634">
         <f>Fluoro!C378</f>
         <v>0</v>
       </c>
@@ -48251,7 +48377,7 @@
         <v>49</v>
       </c>
       <c r="B115" s="11"/>
-      <c r="C115" s="631">
+      <c r="C115" s="634">
         <f>Fluoro!C379</f>
         <v>0</v>
       </c>
@@ -48282,7 +48408,7 @@
         <v>50</v>
       </c>
       <c r="B116" s="11"/>
-      <c r="C116" s="631">
+      <c r="C116" s="634">
         <f>Fluoro!C380</f>
         <v>0</v>
       </c>
@@ -48456,7 +48582,7 @@
         <v>58</v>
       </c>
       <c r="B124" s="11"/>
-      <c r="C124" s="632" t="str">
+      <c r="C124" s="635" t="str">
         <f>Fluoro!C388</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -48491,7 +48617,7 @@
         <v>59</v>
       </c>
       <c r="B125" s="11"/>
-      <c r="C125" s="632">
+      <c r="C125" s="635">
         <f>Fluoro!C389</f>
         <v>0</v>
       </c>
@@ -48668,6 +48794,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:M71"/>
     <mergeCell ref="C102:C106"/>
     <mergeCell ref="C107:C111"/>
     <mergeCell ref="C112:C116"/>
@@ -48677,21 +48818,6 @@
     <mergeCell ref="C79:C81"/>
     <mergeCell ref="C82:C84"/>
     <mergeCell ref="C85:C87"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.88611111111111096" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -48718,34 +48844,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="633" t="s">
+      <c r="A1" s="637" t="s">
         <v>410</v>
       </c>
-      <c r="B1" s="633"/>
+      <c r="B1" s="637"/>
       <c r="N1" s="326"/>
-      <c r="O1" s="604" t="str">
+      <c r="O1" s="601" t="str">
         <f>Fluoro!O105</f>
         <v>Patient Entrance Exposure Rate (Fluoroscopy)*</v>
       </c>
-      <c r="P1" s="604"/>
-      <c r="Q1" s="604"/>
-      <c r="R1" s="604" t="s">
+      <c r="P1" s="601"/>
+      <c r="Q1" s="601"/>
+      <c r="R1" s="601" t="s">
         <v>411</v>
       </c>
-      <c r="S1" s="604"/>
-      <c r="T1" s="604"/>
+      <c r="S1" s="601"/>
+      <c r="T1" s="601"/>
       <c r="V1" s="326"/>
-      <c r="W1" s="604" t="str">
+      <c r="W1" s="601" t="str">
         <f>Fluoro!O137</f>
         <v>Patient Entrance Exposure Rate – Digital Acquisition</v>
       </c>
-      <c r="X1" s="604"/>
-      <c r="Y1" s="604"/>
-      <c r="Z1" s="604" t="s">
+      <c r="X1" s="601"/>
+      <c r="Y1" s="601"/>
+      <c r="Z1" s="601" t="s">
         <v>411</v>
       </c>
-      <c r="AA1" s="604"/>
-      <c r="AB1" s="604"/>
+      <c r="AA1" s="601"/>
+      <c r="AB1" s="601"/>
     </row>
     <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="327">
@@ -48948,10 +49074,10 @@
       <c r="AB6" s="326"/>
     </row>
     <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="633" t="s">
+      <c r="A7" s="637" t="s">
         <v>414</v>
       </c>
-      <c r="B7" s="633"/>
+      <c r="B7" s="637"/>
       <c r="D7" s="211" t="s">
         <v>415</v>
       </c>
@@ -52738,14 +52864,14 @@
       <c r="B75" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E75" s="604" t="s">
+      <c r="E75" s="601" t="s">
         <v>424</v>
       </c>
-      <c r="F75" s="604"/>
-      <c r="I75" s="604" t="s">
+      <c r="F75" s="601"/>
+      <c r="I75" s="601" t="s">
         <v>425</v>
       </c>
-      <c r="J75" s="604"/>
+      <c r="J75" s="601"/>
     </row>
     <row r="76" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">

--- a/MUSCCArm.xlsx
+++ b/MUSCCArm.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="449">
   <si>
     <t>Print Area</t>
   </si>
@@ -1463,6 +1463,9 @@
   </si>
   <si>
     <t>Page1,Page2,HVLPage,ExpChartFluoroPage,ExpChartDAPage,ImgQualityPage,Com1Page,Com2Page,OutputGraphFluoroPage,OutputGraphDAPage,LeedsTO10Page,ExpChartRFluoro,ExpChartRDA</t>
+  </si>
+  <si>
+    <t>Page1,Page2,HVLPage,ExpChartFluoroPage,ExpChartDAPage,ImgQualityPage,Com1Page,Com2Page,OutputGraphFluoroPage,OutputGraphDAPage,LeedsTO10Page</t>
   </si>
 </sst>
 </file>
@@ -6287,179 +6290,179 @@
     <xf numFmtId="172" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="161" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="162" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="195" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="204" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="205" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="139" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="192" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="194" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="188" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="133" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="133" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="161" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="162" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="188" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="139" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="194" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="195" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="204" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="205" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="192" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6875,7 +6878,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7053,7 +7055,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7125,7 +7126,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7217,7 +7217,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7444,7 +7443,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7516,7 +7514,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7642,7 +7639,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9315,7 +9311,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9387,7 +9382,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9434,7 +9428,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9502,7 +9495,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9729,7 +9721,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9801,7 +9792,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9927,7 +9917,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11600,7 +11589,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11672,7 +11660,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11719,7 +11706,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11803,7 +11789,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12556,7 +12541,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12780,7 +12764,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13533,7 +13516,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16322,6 +16304,150 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="AutoShape 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16590,9 +16716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD792"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16661,7 +16785,7 @@
       </c>
       <c r="Y2" s="15"/>
       <c r="AA2" s="16" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -16807,7 +16931,7 @@
       </c>
       <c r="AD7" s="31" t="str">
         <f>IF(OR(AA2="",AA2=0),"",AA2)</f>
-        <v>Page1,Page2,HVLPage,ExpChartFluoroPage,ExpChartDAPage,ImgQualityPage,Com1Page,Com2Page,OutputGraphFluoroPage,OutputGraphDAPage,LeedsTO10Page,ExpChartRFluoro,ExpChartRDA</v>
+        <v>Page1,Page2,HVLPage,ExpChartFluoroPage,ExpChartDAPage,ImgQualityPage,Com1Page,Com2Page,OutputGraphFluoroPage,OutputGraphDAPage,LeedsTO10Page</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -16902,21 +17026,21 @@
       <c r="E10" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="579" t="str">
+      <c r="F10" s="629" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="579"/>
+      <c r="G10" s="629"/>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
       <c r="J10" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="580" t="str">
+      <c r="K10" s="622" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="580"/>
+      <c r="L10" s="622"/>
       <c r="M10" s="360"/>
       <c r="O10" s="14"/>
       <c r="Q10" s="2" t="s">
@@ -16959,21 +17083,21 @@
       <c r="E11" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="581" t="str">
+      <c r="F11" s="623" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="581"/>
+      <c r="G11" s="623"/>
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
       <c r="J11" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="581" t="str">
+      <c r="K11" s="623" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="581"/>
+      <c r="L11" s="623"/>
       <c r="M11" s="360"/>
       <c r="O11" s="14"/>
       <c r="Q11" s="2" t="s">
@@ -17016,21 +17140,21 @@
       <c r="E12" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="581" t="str">
+      <c r="F12" s="623" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="581"/>
+      <c r="G12" s="623"/>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
       <c r="J12" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="582" t="str">
+      <c r="K12" s="631" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="582"/>
+      <c r="L12" s="631"/>
       <c r="M12" s="360"/>
       <c r="O12" s="14"/>
       <c r="Q12" s="2" t="s">
@@ -17073,21 +17197,21 @@
       <c r="E13" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="583" t="str">
+      <c r="F13" s="624" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="583"/>
+      <c r="G13" s="624"/>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
       <c r="J13" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="583" t="str">
+      <c r="K13" s="624" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="583"/>
+      <c r="L13" s="624"/>
       <c r="M13" s="360"/>
       <c r="O13" s="14"/>
       <c r="Q13" s="2" t="s">
@@ -17210,21 +17334,21 @@
       <c r="E16" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="579" t="str">
+      <c r="F16" s="629" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="579"/>
+      <c r="G16" s="629"/>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
       <c r="J16" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="584" t="str">
+      <c r="K16" s="632" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="584"/>
+      <c r="L16" s="632"/>
       <c r="M16" s="360"/>
       <c r="O16" s="14"/>
       <c r="P16" s="51" t="s">
@@ -17254,21 +17378,21 @@
       <c r="E17" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="581" t="str">
+      <c r="F17" s="623" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="581"/>
+      <c r="G17" s="623"/>
       <c r="H17" s="43"/>
       <c r="I17" s="43"/>
       <c r="J17" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="583" t="str">
+      <c r="K17" s="624" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="583"/>
+      <c r="L17" s="624"/>
       <c r="M17" s="360"/>
       <c r="O17" s="14"/>
       <c r="Q17" s="2" t="s">
@@ -17311,21 +17435,21 @@
       <c r="E18" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="583" t="str">
+      <c r="F18" s="624" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="583"/>
+      <c r="G18" s="624"/>
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
       <c r="J18" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="583" t="str">
+      <c r="K18" s="624" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="583"/>
+      <c r="L18" s="624"/>
       <c r="M18" s="360"/>
       <c r="O18" s="14"/>
       <c r="Q18" s="2" t="s">
@@ -17373,11 +17497,11 @@
       <c r="J19" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="583" t="str">
+      <c r="K19" s="624" t="str">
         <f>IF(V20="","",V20)</f>
         <v/>
       </c>
-      <c r="L19" s="583"/>
+      <c r="L19" s="624"/>
       <c r="M19" s="360"/>
       <c r="O19" s="14"/>
       <c r="Q19" s="2" t="s">
@@ -17452,11 +17576,11 @@
       <c r="E21" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="579" t="str">
+      <c r="F21" s="629" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="579"/>
+      <c r="G21" s="629"/>
       <c r="H21" s="43"/>
       <c r="I21" s="43"/>
       <c r="J21" s="74" t="s">
@@ -17496,21 +17620,21 @@
       <c r="E22" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="585" t="str">
+      <c r="F22" s="630" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="585"/>
+      <c r="G22" s="630"/>
       <c r="H22" s="43"/>
       <c r="I22" s="43"/>
       <c r="J22" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="579" t="str">
+      <c r="K22" s="629" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="579"/>
+      <c r="L22" s="629"/>
       <c r="M22" s="360"/>
       <c r="O22" s="14"/>
       <c r="Q22" s="2" t="s">
@@ -17555,11 +17679,11 @@
       <c r="J23" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="581" t="str">
+      <c r="K23" s="623" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="581"/>
+      <c r="L23" s="623"/>
       <c r="M23" s="360"/>
       <c r="O23" s="14"/>
       <c r="Q23" s="2" t="s">
@@ -17602,21 +17726,21 @@
       <c r="E24" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="580" t="str">
+      <c r="F24" s="622" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="580"/>
+      <c r="G24" s="622"/>
       <c r="H24" s="43"/>
       <c r="I24" s="43"/>
       <c r="J24" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="581" t="str">
+      <c r="K24" s="623" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="581"/>
+      <c r="L24" s="623"/>
       <c r="M24" s="360"/>
       <c r="O24" s="14"/>
       <c r="P24" s="51" t="s">
@@ -17654,11 +17778,11 @@
       <c r="E25" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="583" t="str">
+      <c r="F25" s="624" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="583"/>
+      <c r="G25" s="624"/>
       <c r="H25" s="43"/>
       <c r="I25" s="43"/>
       <c r="J25" s="43"/>
@@ -17706,11 +17830,11 @@
       <c r="E26" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="583" t="str">
+      <c r="F26" s="624" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="583"/>
+      <c r="G26" s="624"/>
       <c r="H26" s="43"/>
       <c r="I26" s="43"/>
       <c r="J26" s="361" t="s">
@@ -17759,11 +17883,11 @@
       <c r="J27" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="579" t="str">
+      <c r="K27" s="629" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="579"/>
+      <c r="L27" s="629"/>
       <c r="M27" s="360"/>
       <c r="O27" s="14"/>
       <c r="Q27" s="2" t="s">
@@ -17801,21 +17925,21 @@
       <c r="E28" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="580" t="str">
+      <c r="F28" s="622" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="580"/>
+      <c r="G28" s="622"/>
       <c r="H28" s="43"/>
       <c r="I28" s="43"/>
       <c r="J28" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="581" t="str">
+      <c r="K28" s="623" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="581"/>
+      <c r="L28" s="623"/>
       <c r="M28" s="360"/>
       <c r="O28" s="14"/>
       <c r="P28" s="51" t="s">
@@ -17844,11 +17968,11 @@
       <c r="E29" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="583" t="str">
+      <c r="F29" s="624" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="583"/>
+      <c r="G29" s="624"/>
       <c r="H29" s="43"/>
       <c r="I29" s="43"/>
       <c r="J29" s="43"/>
@@ -17896,11 +18020,11 @@
       <c r="E30" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="583" t="str">
+      <c r="F30" s="624" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="583"/>
+      <c r="G30" s="624"/>
       <c r="H30" s="43"/>
       <c r="I30" s="43"/>
       <c r="J30" s="43"/>
@@ -18015,11 +18139,11 @@
       <c r="E33" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="579" t="str">
+      <c r="F33" s="629" t="str">
         <f>IF(R34="","",R34)</f>
         <v/>
       </c>
-      <c r="G33" s="579"/>
+      <c r="G33" s="629"/>
       <c r="H33" s="43"/>
       <c r="I33" s="43"/>
       <c r="J33" s="74" t="s">
@@ -18056,21 +18180,21 @@
       <c r="E34" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="585" t="str">
+      <c r="F34" s="630" t="str">
         <f>IF(R35="","",R35)</f>
         <v/>
       </c>
-      <c r="G34" s="585"/>
+      <c r="G34" s="630"/>
       <c r="H34" s="43"/>
       <c r="I34" s="43"/>
       <c r="J34" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="579" t="str">
+      <c r="K34" s="629" t="str">
         <f>IF(V35="","",V35)</f>
         <v/>
       </c>
-      <c r="L34" s="579"/>
+      <c r="L34" s="629"/>
       <c r="M34" s="360"/>
       <c r="O34" s="14"/>
       <c r="Q34" s="2" t="s">
@@ -18115,11 +18239,11 @@
       <c r="J35" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="581" t="str">
+      <c r="K35" s="623" t="str">
         <f>IF(V36="","",V36)</f>
         <v/>
       </c>
-      <c r="L35" s="581"/>
+      <c r="L35" s="623"/>
       <c r="M35" s="360"/>
       <c r="O35" s="14"/>
       <c r="Q35" s="2" t="s">
@@ -18162,21 +18286,21 @@
       <c r="E36" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="580" t="str">
+      <c r="F36" s="622" t="str">
         <f>IF(R37="","",R37)</f>
         <v/>
       </c>
-      <c r="G36" s="580"/>
+      <c r="G36" s="622"/>
       <c r="H36" s="43"/>
       <c r="I36" s="43"/>
       <c r="J36" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="K36" s="581" t="str">
+      <c r="K36" s="623" t="str">
         <f>IF(V37="","",V37)</f>
         <v/>
       </c>
-      <c r="L36" s="581"/>
+      <c r="L36" s="623"/>
       <c r="M36" s="360"/>
       <c r="O36" s="14"/>
       <c r="P36" s="51" t="s">
@@ -18214,11 +18338,11 @@
       <c r="E37" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="583" t="str">
+      <c r="F37" s="624" t="str">
         <f>IF(R38="","",R38)</f>
         <v/>
       </c>
-      <c r="G37" s="583"/>
+      <c r="G37" s="624"/>
       <c r="H37" s="43"/>
       <c r="I37" s="43"/>
       <c r="J37" s="43"/>
@@ -18266,11 +18390,11 @@
       <c r="E38" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="583" t="str">
+      <c r="F38" s="624" t="str">
         <f>IF(R39="","",R39)</f>
         <v/>
       </c>
-      <c r="G38" s="583"/>
+      <c r="G38" s="624"/>
       <c r="H38" s="43"/>
       <c r="I38" s="43"/>
       <c r="J38" s="361" t="s">
@@ -18317,11 +18441,11 @@
       <c r="J39" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="K39" s="579" t="str">
+      <c r="K39" s="629" t="str">
         <f>IF(V40="","",V40)</f>
         <v/>
       </c>
-      <c r="L39" s="579"/>
+      <c r="L39" s="629"/>
       <c r="M39" s="360"/>
       <c r="O39" s="14"/>
       <c r="Q39" s="2" t="s">
@@ -18359,21 +18483,21 @@
       <c r="E40" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="580" t="str">
+      <c r="F40" s="622" t="str">
         <f>IF(R41="","",R41)</f>
         <v/>
       </c>
-      <c r="G40" s="580"/>
+      <c r="G40" s="622"/>
       <c r="H40" s="43"/>
       <c r="I40" s="43"/>
       <c r="J40" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="K40" s="581" t="str">
+      <c r="K40" s="623" t="str">
         <f>IF(V41="","",V41)</f>
         <v/>
       </c>
-      <c r="L40" s="581"/>
+      <c r="L40" s="623"/>
       <c r="M40" s="360"/>
       <c r="O40" s="14"/>
       <c r="P40" s="51" t="s">
@@ -18411,11 +18535,11 @@
       <c r="E41" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="583" t="str">
+      <c r="F41" s="624" t="str">
         <f>IF(R42="","",R42)</f>
         <v/>
       </c>
-      <c r="G41" s="583"/>
+      <c r="G41" s="624"/>
       <c r="H41" s="43"/>
       <c r="I41" s="43"/>
       <c r="J41" s="43"/>
@@ -18463,11 +18587,11 @@
       <c r="E42" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="583" t="str">
+      <c r="F42" s="624" t="str">
         <f>IF(R43="","",R43)</f>
         <v/>
       </c>
-      <c r="G42" s="583"/>
+      <c r="G42" s="624"/>
       <c r="H42" s="43"/>
       <c r="I42" s="43"/>
       <c r="J42" s="43"/>
@@ -19225,10 +19349,10 @@
       <c r="I69" s="347"/>
       <c r="J69" s="347"/>
       <c r="K69" s="347"/>
-      <c r="L69" s="586" t="s">
+      <c r="L69" s="625" t="s">
         <v>84</v>
       </c>
-      <c r="M69" s="587"/>
+      <c r="M69" s="626"/>
       <c r="O69" s="57"/>
       <c r="P69" s="18" t="s">
         <v>85</v>
@@ -20860,24 +20984,24 @@
       <c r="P107" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="Q107" s="588" t="str">
+      <c r="Q107" s="627" t="str">
         <f>IF(Q106&lt;&gt;"",Q106,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R107" s="588"/>
-      <c r="S107" s="588"/>
-      <c r="T107" s="589" t="str">
+      <c r="R107" s="627"/>
+      <c r="S107" s="627"/>
+      <c r="T107" s="628" t="str">
         <f>IF(T106&lt;&gt;"",T106,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v>Auto 2</v>
       </c>
-      <c r="U107" s="589"/>
-      <c r="V107" s="589"/>
-      <c r="W107" s="589" t="str">
+      <c r="U107" s="628"/>
+      <c r="V107" s="628"/>
+      <c r="W107" s="628" t="str">
         <f>IF(W106&lt;&gt;"",W106,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v>High Level</v>
       </c>
-      <c r="X107" s="589"/>
-      <c r="Y107" s="589"/>
+      <c r="X107" s="628"/>
+      <c r="Y107" s="628"/>
       <c r="AA107" s="2" t="s">
         <v>111</v>
       </c>
@@ -22871,24 +22995,24 @@
       <c r="P139" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="Q139" s="588" t="str">
+      <c r="Q139" s="627" t="str">
         <f>IF(Q138&lt;&gt;"",Q138,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R139" s="588"/>
-      <c r="S139" s="588"/>
-      <c r="T139" s="589" t="str">
+      <c r="R139" s="627"/>
+      <c r="S139" s="627"/>
+      <c r="T139" s="628" t="str">
         <f>IF(T138&lt;&gt;"",T138,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v>Auto 2</v>
       </c>
-      <c r="U139" s="589"/>
-      <c r="V139" s="589"/>
-      <c r="W139" s="589" t="str">
+      <c r="U139" s="628"/>
+      <c r="V139" s="628"/>
+      <c r="W139" s="628" t="str">
         <f>IF(W138&lt;&gt;"",W138,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v>High Level</v>
       </c>
-      <c r="X139" s="589"/>
-      <c r="Y139" s="589"/>
+      <c r="X139" s="628"/>
+      <c r="Y139" s="628"/>
       <c r="AA139" s="2" t="str">
         <f>$W$139&amp;" Mag 2"</f>
         <v>High Level Mag 2</v>
@@ -25231,10 +25355,10 @@
       <c r="P181" s="136"/>
       <c r="Q181" s="138"/>
       <c r="R181" s="129"/>
-      <c r="T181" s="590" t="s">
+      <c r="T181" s="604" t="s">
         <v>245</v>
       </c>
-      <c r="U181" s="590"/>
+      <c r="U181" s="604"/>
       <c r="W181" s="2" t="s">
         <v>199</v>
       </c>
@@ -25605,7 +25729,7 @@
       <c r="K190" s="371"/>
       <c r="L190" s="371"/>
       <c r="M190" s="375"/>
-      <c r="O190" s="591" t="str">
+      <c r="O190" s="612" t="str">
         <f>$Q$107</f>
         <v>Auto 1</v>
       </c>
@@ -25655,7 +25779,7 @@
       <c r="K191" s="371"/>
       <c r="L191" s="371"/>
       <c r="M191" s="351"/>
-      <c r="O191" s="591"/>
+      <c r="O191" s="612"/>
       <c r="P191" s="145" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -25701,7 +25825,7 @@
       <c r="K192" s="136"/>
       <c r="L192" s="136"/>
       <c r="M192" s="351"/>
-      <c r="O192" s="591"/>
+      <c r="O192" s="612"/>
       <c r="P192" s="145" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -25747,7 +25871,7 @@
       <c r="K193" s="136"/>
       <c r="L193" s="136"/>
       <c r="M193" s="351"/>
-      <c r="O193" s="591"/>
+      <c r="O193" s="612"/>
       <c r="P193" s="145" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -25790,7 +25914,7 @@
       <c r="K194" s="136"/>
       <c r="L194" s="136"/>
       <c r="M194" s="351"/>
-      <c r="O194" s="591"/>
+      <c r="O194" s="612"/>
       <c r="P194" s="135" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -25833,7 +25957,7 @@
       <c r="K195" s="136"/>
       <c r="L195" s="136"/>
       <c r="M195" s="351"/>
-      <c r="O195" s="591" t="str">
+      <c r="O195" s="612" t="str">
         <f>$T$107</f>
         <v>Auto 2</v>
       </c>
@@ -25879,7 +26003,7 @@
       <c r="K196" s="353"/>
       <c r="L196" s="353"/>
       <c r="M196" s="354"/>
-      <c r="O196" s="591"/>
+      <c r="O196" s="612"/>
       <c r="P196" s="145" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -25924,7 +26048,7 @@
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="O197" s="591"/>
+      <c r="O197" s="612"/>
       <c r="P197" s="145" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -25969,7 +26093,7 @@
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
-      <c r="O198" s="591"/>
+      <c r="O198" s="612"/>
       <c r="P198" s="145" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -26015,7 +26139,7 @@
         <f>$H$2</f>
         <v>Medical University of South Carolina</v>
       </c>
-      <c r="O199" s="591"/>
+      <c r="O199" s="612"/>
       <c r="P199" s="135" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -26064,7 +26188,7 @@
         <f>$H$5</f>
         <v>Fluoroscopy System Compliance Inspection</v>
       </c>
-      <c r="O200" s="591" t="str">
+      <c r="O200" s="612" t="str">
         <f>$W$107</f>
         <v>High Level</v>
       </c>
@@ -26113,7 +26237,7 @@
       <c r="K201" s="347"/>
       <c r="L201" s="347"/>
       <c r="M201" s="348"/>
-      <c r="O201" s="591"/>
+      <c r="O201" s="612"/>
       <c r="P201" s="145" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -26147,24 +26271,24 @@
       <c r="B202" s="349"/>
       <c r="C202" s="399"/>
       <c r="D202" s="371"/>
-      <c r="E202" s="592" t="s">
+      <c r="E202" s="615" t="s">
         <v>262</v>
       </c>
-      <c r="F202" s="593" t="s">
+      <c r="F202" s="616" t="s">
         <v>263</v>
       </c>
-      <c r="G202" s="594" t="s">
+      <c r="G202" s="617" t="s">
         <v>264</v>
       </c>
-      <c r="H202" s="595" t="str">
+      <c r="H202" s="618" t="str">
         <f>R276</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="I202" s="596" t="str">
+      <c r="I202" s="619" t="str">
         <f>S276</f>
         <v>Meas AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="J202" s="597" t="s">
+      <c r="J202" s="620" t="s">
         <v>265</v>
       </c>
       <c r="K202" s="136" t="s">
@@ -26173,10 +26297,10 @@
       <c r="L202" s="136" t="s">
         <v>267</v>
       </c>
-      <c r="M202" s="598" t="s">
+      <c r="M202" s="621" t="s">
         <v>268</v>
       </c>
-      <c r="O202" s="591"/>
+      <c r="O202" s="612"/>
       <c r="P202" s="145" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -26214,12 +26338,12 @@
       <c r="D203" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="E203" s="592"/>
-      <c r="F203" s="593"/>
-      <c r="G203" s="594"/>
-      <c r="H203" s="595"/>
-      <c r="I203" s="596"/>
-      <c r="J203" s="597"/>
+      <c r="E203" s="615"/>
+      <c r="F203" s="616"/>
+      <c r="G203" s="617"/>
+      <c r="H203" s="618"/>
+      <c r="I203" s="619"/>
+      <c r="J203" s="620"/>
       <c r="K203" s="136" t="str">
         <f>U277</f>
         <v>mGy/min</v>
@@ -26228,8 +26352,8 @@
         <f>V277</f>
         <v>mGy/min</v>
       </c>
-      <c r="M203" s="598"/>
-      <c r="O203" s="591"/>
+      <c r="M203" s="621"/>
+      <c r="O203" s="612"/>
       <c r="P203" s="145" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -26305,7 +26429,7 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="O204" s="591"/>
+      <c r="O204" s="612"/>
       <c r="P204" s="135" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -26964,7 +27088,7 @@
       <c r="K214" s="371"/>
       <c r="L214" s="371"/>
       <c r="M214" s="351"/>
-      <c r="O214" s="591" t="str">
+      <c r="O214" s="612" t="str">
         <f>$Q$139</f>
         <v>Auto 1</v>
       </c>
@@ -27014,7 +27138,7 @@
       <c r="K215" s="420"/>
       <c r="L215" s="420"/>
       <c r="M215" s="421"/>
-      <c r="O215" s="591"/>
+      <c r="O215" s="612"/>
       <c r="P215" s="145" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -27064,7 +27188,7 @@
       <c r="K216" s="371"/>
       <c r="L216" s="371"/>
       <c r="M216" s="351"/>
-      <c r="O216" s="591"/>
+      <c r="O216" s="612"/>
       <c r="P216" s="145" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -27110,7 +27234,7 @@
       <c r="K217" s="371"/>
       <c r="L217" s="371"/>
       <c r="M217" s="375"/>
-      <c r="O217" s="591"/>
+      <c r="O217" s="612"/>
       <c r="P217" s="145" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -27158,7 +27282,7 @@
       <c r="K218" s="371"/>
       <c r="L218" s="371"/>
       <c r="M218" s="375"/>
-      <c r="O218" s="591"/>
+      <c r="O218" s="612"/>
       <c r="P218" s="135" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -27201,7 +27325,7 @@
       <c r="K219" s="371"/>
       <c r="L219" s="371"/>
       <c r="M219" s="375"/>
-      <c r="O219" s="591" t="str">
+      <c r="O219" s="612" t="str">
         <f>$T$139</f>
         <v>Auto 2</v>
       </c>
@@ -27251,7 +27375,7 @@
       <c r="K220" s="371"/>
       <c r="L220" s="371"/>
       <c r="M220" s="375"/>
-      <c r="O220" s="591"/>
+      <c r="O220" s="612"/>
       <c r="P220" s="145" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -27304,7 +27428,7 @@
       <c r="K221" s="371"/>
       <c r="L221" s="371"/>
       <c r="M221" s="375"/>
-      <c r="O221" s="591"/>
+      <c r="O221" s="612"/>
       <c r="P221" s="145" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -27362,7 +27486,7 @@
       <c r="K222" s="371"/>
       <c r="L222" s="371"/>
       <c r="M222" s="375"/>
-      <c r="O222" s="591"/>
+      <c r="O222" s="612"/>
       <c r="P222" s="145" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -27417,7 +27541,7 @@
       <c r="K223" s="371"/>
       <c r="L223" s="371"/>
       <c r="M223" s="375"/>
-      <c r="O223" s="591"/>
+      <c r="O223" s="612"/>
       <c r="P223" s="135" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -27472,7 +27596,7 @@
       <c r="K224" s="371"/>
       <c r="L224" s="371"/>
       <c r="M224" s="375"/>
-      <c r="O224" s="591" t="str">
+      <c r="O224" s="612" t="str">
         <f>$W$139</f>
         <v>High Level</v>
       </c>
@@ -27530,7 +27654,7 @@
       <c r="K225" s="371"/>
       <c r="L225" s="371"/>
       <c r="M225" s="375"/>
-      <c r="O225" s="591"/>
+      <c r="O225" s="612"/>
       <c r="P225" s="145" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -27581,7 +27705,7 @@
       <c r="K226" s="371"/>
       <c r="L226" s="371"/>
       <c r="M226" s="375"/>
-      <c r="O226" s="591"/>
+      <c r="O226" s="612"/>
       <c r="P226" s="145" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -27635,7 +27759,7 @@
       <c r="K227" s="371"/>
       <c r="L227" s="371"/>
       <c r="M227" s="375"/>
-      <c r="O227" s="591"/>
+      <c r="O227" s="612"/>
       <c r="P227" s="145" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -27683,7 +27807,7 @@
       <c r="K228" s="371"/>
       <c r="L228" s="371"/>
       <c r="M228" s="375"/>
-      <c r="O228" s="591"/>
+      <c r="O228" s="612"/>
       <c r="P228" s="135" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -28209,7 +28333,7 @@
       <c r="K240" s="371"/>
       <c r="L240" s="371"/>
       <c r="M240" s="375"/>
-      <c r="O240" s="599" t="s">
+      <c r="O240" s="613" t="s">
         <v>294</v>
       </c>
       <c r="P240" s="170" t="s">
@@ -28271,7 +28395,7 @@
       <c r="K241" s="371"/>
       <c r="L241" s="371"/>
       <c r="M241" s="375"/>
-      <c r="O241" s="599"/>
+      <c r="O241" s="613"/>
       <c r="P241" s="175" t="s">
         <v>297</v>
       </c>
@@ -28322,7 +28446,7 @@
       <c r="K242" s="371"/>
       <c r="L242" s="371"/>
       <c r="M242" s="375"/>
-      <c r="O242" s="599" t="str">
+      <c r="O242" s="613" t="str">
         <f>IF($U$137=1,"Scatter - Pulse", "Scatter – Digital acq")</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -28382,7 +28506,7 @@
       <c r="K243" s="371"/>
       <c r="L243" s="371"/>
       <c r="M243" s="375"/>
-      <c r="O243" s="599"/>
+      <c r="O243" s="613"/>
       <c r="P243" s="175" t="s">
         <v>297</v>
       </c>
@@ -28908,17 +29032,17 @@
       <c r="P257" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Q257" s="600" t="s">
+      <c r="Q257" s="614" t="s">
         <v>313</v>
       </c>
-      <c r="R257" s="600"/>
+      <c r="R257" s="614"/>
       <c r="S257" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="T257" s="600" t="s">
+      <c r="T257" s="614" t="s">
         <v>315</v>
       </c>
-      <c r="U257" s="600"/>
+      <c r="U257" s="614"/>
       <c r="V257" s="1" t="s">
         <v>316</v>
       </c>
@@ -29383,24 +29507,24 @@
         <f t="shared" si="41"/>
         <v>Attenuator</v>
       </c>
-      <c r="E269" s="601" t="str">
+      <c r="E269" s="606" t="str">
         <f>Q107</f>
         <v>Auto 1</v>
       </c>
-      <c r="F269" s="602"/>
-      <c r="G269" s="602"/>
-      <c r="H269" s="602" t="str">
+      <c r="F269" s="607"/>
+      <c r="G269" s="607"/>
+      <c r="H269" s="607" t="str">
         <f>T107</f>
         <v>Auto 2</v>
       </c>
-      <c r="I269" s="602"/>
-      <c r="J269" s="602"/>
-      <c r="K269" s="603" t="str">
+      <c r="I269" s="607"/>
+      <c r="J269" s="607"/>
+      <c r="K269" s="608" t="str">
         <f>W107</f>
         <v>High Level</v>
       </c>
-      <c r="L269" s="603"/>
-      <c r="M269" s="604"/>
+      <c r="L269" s="608"/>
+      <c r="M269" s="609"/>
       <c r="O269" s="194" t="str">
         <f t="shared" si="42"/>
         <v/>
@@ -29502,7 +29626,7 @@
         <v>7</v>
       </c>
       <c r="B271" s="349"/>
-      <c r="C271" s="605" t="str">
+      <c r="C271" s="596" t="str">
         <f>O110&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -29571,7 +29695,7 @@
         <v>8</v>
       </c>
       <c r="B272" s="349"/>
-      <c r="C272" s="605"/>
+      <c r="C272" s="596"/>
       <c r="D272" s="447">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -29644,7 +29768,7 @@
         <v>9</v>
       </c>
       <c r="B273" s="349"/>
-      <c r="C273" s="605"/>
+      <c r="C273" s="596"/>
       <c r="D273" s="450">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -29710,7 +29834,7 @@
         <v>10</v>
       </c>
       <c r="B274" s="349"/>
-      <c r="C274" s="605" t="str">
+      <c r="C274" s="596" t="str">
         <f>O113&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -29786,7 +29910,7 @@
         <v>11</v>
       </c>
       <c r="B275" s="349"/>
-      <c r="C275" s="605"/>
+      <c r="C275" s="596"/>
       <c r="D275" s="447">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -29852,7 +29976,7 @@
         <v>12</v>
       </c>
       <c r="B276" s="349"/>
-      <c r="C276" s="605"/>
+      <c r="C276" s="596"/>
       <c r="D276" s="450">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -29893,17 +30017,17 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="O276" s="606" t="s">
+      <c r="O276" s="610" t="s">
         <v>262</v>
       </c>
-      <c r="P276" s="607" t="s">
+      <c r="P276" s="611" t="s">
         <v>263</v>
       </c>
-      <c r="R276" s="607" t="str">
+      <c r="R276" s="611" t="str">
         <f>"Ind AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="S276" s="607" t="str">
+      <c r="S276" s="611" t="str">
         <f>"Meas AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Meas AK @ Ref Pt (mGy)</v>
       </c>
@@ -29932,7 +30056,7 @@
         <v>13</v>
       </c>
       <c r="B277" s="349"/>
-      <c r="C277" s="605" t="str">
+      <c r="C277" s="596" t="str">
         <f>O116&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -29976,13 +30100,13 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="O277" s="606"/>
-      <c r="P277" s="607"/>
+      <c r="O277" s="610"/>
+      <c r="P277" s="611"/>
       <c r="Q277" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="R277" s="607"/>
-      <c r="S277" s="607"/>
+      <c r="R277" s="611"/>
+      <c r="S277" s="611"/>
       <c r="T277" s="1" t="s">
         <v>322</v>
       </c>
@@ -30017,7 +30141,7 @@
         <v>14</v>
       </c>
       <c r="B278" s="349"/>
-      <c r="C278" s="605"/>
+      <c r="C278" s="596"/>
       <c r="D278" s="447">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -30104,7 +30228,7 @@
         <v>15</v>
       </c>
       <c r="B279" s="349"/>
-      <c r="C279" s="605"/>
+      <c r="C279" s="596"/>
       <c r="D279" s="450">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -30198,7 +30322,7 @@
         <v>16</v>
       </c>
       <c r="B280" s="349"/>
-      <c r="C280" s="605" t="str">
+      <c r="C280" s="596" t="str">
         <f>O119&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -30288,7 +30412,7 @@
         <v>17</v>
       </c>
       <c r="B281" s="349"/>
-      <c r="C281" s="605"/>
+      <c r="C281" s="596"/>
       <c r="D281" s="447">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -30382,7 +30506,7 @@
         <v>18</v>
       </c>
       <c r="B282" s="349"/>
-      <c r="C282" s="605"/>
+      <c r="C282" s="596"/>
       <c r="D282" s="450">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -30469,7 +30593,7 @@
         <v>19</v>
       </c>
       <c r="B283" s="349"/>
-      <c r="C283" s="605" t="str">
+      <c r="C283" s="596" t="str">
         <f>O122&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -30566,7 +30690,7 @@
         <v>20</v>
       </c>
       <c r="B284" s="349"/>
-      <c r="C284" s="605"/>
+      <c r="C284" s="596"/>
       <c r="D284" s="447">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -30653,7 +30777,7 @@
         <v>21</v>
       </c>
       <c r="B285" s="349"/>
-      <c r="C285" s="605"/>
+      <c r="C285" s="596"/>
       <c r="D285" s="447">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -31084,12 +31208,12 @@
       <c r="L293" s="136"/>
       <c r="M293" s="351"/>
       <c r="O293" s="239"/>
-      <c r="P293" s="608" t="s">
+      <c r="P293" s="601" t="s">
         <v>328</v>
       </c>
-      <c r="Q293" s="608"/>
-      <c r="R293" s="608"/>
-      <c r="S293" s="608"/>
+      <c r="Q293" s="601"/>
+      <c r="R293" s="601"/>
+      <c r="S293" s="601"/>
       <c r="T293" s="237"/>
       <c r="U293" s="237"/>
       <c r="V293" s="237"/>
@@ -31473,12 +31597,12 @@
       <c r="L302" s="136"/>
       <c r="M302" s="351"/>
       <c r="O302" s="239"/>
-      <c r="P302" s="608" t="s">
+      <c r="P302" s="601" t="s">
         <v>328</v>
       </c>
-      <c r="Q302" s="608"/>
-      <c r="R302" s="608"/>
-      <c r="S302" s="608"/>
+      <c r="Q302" s="601"/>
+      <c r="R302" s="601"/>
+      <c r="S302" s="601"/>
       <c r="T302" s="237"/>
       <c r="U302" s="237"/>
       <c r="V302" s="237"/>
@@ -31493,7 +31617,7 @@
         <v>39</v>
       </c>
       <c r="B303" s="349"/>
-      <c r="C303" s="609" t="str">
+      <c r="C303" s="579" t="str">
         <f>O190</f>
         <v>Auto 1</v>
       </c>
@@ -31561,7 +31685,7 @@
         <v>40</v>
       </c>
       <c r="B304" s="349"/>
-      <c r="C304" s="610"/>
+      <c r="C304" s="580"/>
       <c r="D304" s="489" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31624,7 +31748,7 @@
         <v>41</v>
       </c>
       <c r="B305" s="349"/>
-      <c r="C305" s="610"/>
+      <c r="C305" s="580"/>
       <c r="D305" s="489" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31679,7 +31803,7 @@
         <v>42</v>
       </c>
       <c r="B306" s="349"/>
-      <c r="C306" s="610"/>
+      <c r="C306" s="580"/>
       <c r="D306" s="489" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31724,7 +31848,7 @@
         <v>43</v>
       </c>
       <c r="B307" s="349"/>
-      <c r="C307" s="611"/>
+      <c r="C307" s="602"/>
       <c r="D307" s="492" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31776,7 +31900,7 @@
         <v>44</v>
       </c>
       <c r="B308" s="349"/>
-      <c r="C308" s="609" t="str">
+      <c r="C308" s="579" t="str">
         <f>O195</f>
         <v>Auto 2</v>
       </c>
@@ -31824,7 +31948,7 @@
         <v>45</v>
       </c>
       <c r="B309" s="349"/>
-      <c r="C309" s="610"/>
+      <c r="C309" s="580"/>
       <c r="D309" s="489" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31881,7 +32005,7 @@
         <v>46</v>
       </c>
       <c r="B310" s="349"/>
-      <c r="C310" s="610"/>
+      <c r="C310" s="580"/>
       <c r="D310" s="489" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31931,7 +32055,7 @@
         <v>47</v>
       </c>
       <c r="B311" s="349"/>
-      <c r="C311" s="610"/>
+      <c r="C311" s="580"/>
       <c r="D311" s="489" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -31988,7 +32112,7 @@
         <v>48</v>
       </c>
       <c r="B312" s="349"/>
-      <c r="C312" s="612"/>
+      <c r="C312" s="581"/>
       <c r="D312" s="495" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -32038,7 +32162,7 @@
         <v>49</v>
       </c>
       <c r="B313" s="349"/>
-      <c r="C313" s="613" t="str">
+      <c r="C313" s="603" t="str">
         <f>O200</f>
         <v>High Level</v>
       </c>
@@ -32097,7 +32221,7 @@
         <v>50</v>
       </c>
       <c r="B314" s="349"/>
-      <c r="C314" s="610"/>
+      <c r="C314" s="580"/>
       <c r="D314" s="489" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -32140,7 +32264,7 @@
         <v>51</v>
       </c>
       <c r="B315" s="349"/>
-      <c r="C315" s="610"/>
+      <c r="C315" s="580"/>
       <c r="D315" s="489" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -32183,7 +32307,7 @@
         <v>52</v>
       </c>
       <c r="B316" s="349"/>
-      <c r="C316" s="610"/>
+      <c r="C316" s="580"/>
       <c r="D316" s="489" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -32228,7 +32352,7 @@
         <v>53</v>
       </c>
       <c r="B317" s="349"/>
-      <c r="C317" s="612"/>
+      <c r="C317" s="581"/>
       <c r="D317" s="495" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -32338,10 +32462,10 @@
       <c r="R319" s="278"/>
       <c r="S319" s="279"/>
       <c r="T319" s="279"/>
-      <c r="V319" s="590" t="s">
+      <c r="V319" s="604" t="s">
         <v>340</v>
       </c>
-      <c r="W319" s="590"/>
+      <c r="W319" s="604"/>
       <c r="X319" s="18" t="s">
         <v>341</v>
       </c>
@@ -32542,7 +32666,7 @@
         <v>60</v>
       </c>
       <c r="B324" s="349"/>
-      <c r="C324" s="614" t="str">
+      <c r="C324" s="585" t="str">
         <f>O240</f>
         <v>Scatter – Fluoro</v>
       </c>
@@ -32592,7 +32716,7 @@
         <v>61</v>
       </c>
       <c r="B325" s="349"/>
-      <c r="C325" s="615"/>
+      <c r="C325" s="586"/>
       <c r="D325" s="504" t="str">
         <f>P241</f>
         <v>Waist level</v>
@@ -32750,13 +32874,13 @@
         <v>348</v>
       </c>
       <c r="P329" s="54"/>
-      <c r="Q329" s="616" t="s">
+      <c r="Q329" s="605" t="s">
         <v>349</v>
       </c>
-      <c r="R329" s="616"/>
-      <c r="S329" s="616"/>
-      <c r="T329" s="616"/>
-      <c r="U329" s="616"/>
+      <c r="R329" s="605"/>
+      <c r="S329" s="605"/>
+      <c r="T329" s="605"/>
+      <c r="U329" s="605"/>
       <c r="Y329" s="15"/>
     </row>
     <row r="330" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32921,24 +33045,24 @@
         <f t="shared" si="69"/>
         <v>Attenuator</v>
       </c>
-      <c r="E335" s="601" t="str">
+      <c r="E335" s="606" t="str">
         <f>Q139</f>
         <v>Auto 1</v>
       </c>
-      <c r="F335" s="602"/>
-      <c r="G335" s="602"/>
-      <c r="H335" s="602" t="str">
+      <c r="F335" s="607"/>
+      <c r="G335" s="607"/>
+      <c r="H335" s="607" t="str">
         <f>T139</f>
         <v>Auto 2</v>
       </c>
-      <c r="I335" s="602"/>
-      <c r="J335" s="602"/>
-      <c r="K335" s="603" t="str">
+      <c r="I335" s="607"/>
+      <c r="J335" s="607"/>
+      <c r="K335" s="608" t="str">
         <f>W139</f>
         <v>High Level</v>
       </c>
-      <c r="L335" s="603"/>
-      <c r="M335" s="604"/>
+      <c r="L335" s="608"/>
+      <c r="M335" s="609"/>
       <c r="O335" s="131"/>
       <c r="P335" s="130" t="s">
         <v>355</v>
@@ -33015,7 +33139,7 @@
         <v>7</v>
       </c>
       <c r="B337" s="349"/>
-      <c r="C337" s="605" t="str">
+      <c r="C337" s="596" t="str">
         <f>O142&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33075,7 +33199,7 @@
         <v>8</v>
       </c>
       <c r="B338" s="349"/>
-      <c r="C338" s="605"/>
+      <c r="C338" s="596"/>
       <c r="D338" s="518">
         <f t="shared" si="70"/>
         <v>20</v>
@@ -33132,7 +33256,7 @@
         <v>9</v>
       </c>
       <c r="B339" s="349"/>
-      <c r="C339" s="605"/>
+      <c r="C339" s="596"/>
       <c r="D339" s="519">
         <f t="shared" si="70"/>
         <v>30</v>
@@ -33189,7 +33313,7 @@
         <v>10</v>
       </c>
       <c r="B340" s="349"/>
-      <c r="C340" s="605" t="str">
+      <c r="C340" s="596" t="str">
         <f>O145&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33249,7 +33373,7 @@
         <v>11</v>
       </c>
       <c r="B341" s="349"/>
-      <c r="C341" s="605"/>
+      <c r="C341" s="596"/>
       <c r="D341" s="518">
         <f t="shared" si="70"/>
         <v>20</v>
@@ -33306,7 +33430,7 @@
         <v>12</v>
       </c>
       <c r="B342" s="349"/>
-      <c r="C342" s="605"/>
+      <c r="C342" s="596"/>
       <c r="D342" s="520">
         <f t="shared" si="70"/>
         <v>30</v>
@@ -33363,7 +33487,7 @@
         <v>13</v>
       </c>
       <c r="B343" s="349"/>
-      <c r="C343" s="605" t="str">
+      <c r="C343" s="596" t="str">
         <f>O148&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33415,7 +33539,7 @@
         <v>14</v>
       </c>
       <c r="B344" s="349"/>
-      <c r="C344" s="605"/>
+      <c r="C344" s="596"/>
       <c r="D344" s="518">
         <f t="shared" si="70"/>
         <v>20</v>
@@ -33477,7 +33601,7 @@
         <v>15</v>
       </c>
       <c r="B345" s="349"/>
-      <c r="C345" s="605"/>
+      <c r="C345" s="596"/>
       <c r="D345" s="519">
         <f t="shared" si="70"/>
         <v>30</v>
@@ -33540,7 +33664,7 @@
         <v>16</v>
       </c>
       <c r="B346" s="349"/>
-      <c r="C346" s="605" t="str">
+      <c r="C346" s="596" t="str">
         <f>O151&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33603,7 +33727,7 @@
         <v>17</v>
       </c>
       <c r="B347" s="349"/>
-      <c r="C347" s="605"/>
+      <c r="C347" s="596"/>
       <c r="D347" s="518">
         <f t="shared" si="70"/>
         <v>20</v>
@@ -33661,7 +33785,7 @@
         <v>18</v>
       </c>
       <c r="B348" s="349"/>
-      <c r="C348" s="605"/>
+      <c r="C348" s="596"/>
       <c r="D348" s="520">
         <f t="shared" si="70"/>
         <v>30</v>
@@ -33739,7 +33863,7 @@
         <v>19</v>
       </c>
       <c r="B349" s="349"/>
-      <c r="C349" s="605" t="str">
+      <c r="C349" s="596" t="str">
         <f>O154&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33802,7 +33926,7 @@
         <v>20</v>
       </c>
       <c r="B350" s="349"/>
-      <c r="C350" s="605"/>
+      <c r="C350" s="596"/>
       <c r="D350" s="518">
         <f t="shared" si="70"/>
         <v>20</v>
@@ -33861,7 +33985,7 @@
         <v>21</v>
       </c>
       <c r="B351" s="349"/>
-      <c r="C351" s="605"/>
+      <c r="C351" s="596"/>
       <c r="D351" s="520">
         <f t="shared" si="70"/>
         <v>30</v>
@@ -34170,11 +34294,11 @@
         <f>IF(OR(V358="",V359="",V362=""),"",(V358-V359)*V362)</f>
         <v/>
       </c>
-      <c r="Q358" s="617" t="str">
+      <c r="Q358" s="597" t="str">
         <f>IF(OR(P358="",P359=""),"",(ABS(P358)+ABS(P359))/$O$355)</f>
         <v/>
       </c>
-      <c r="R358" s="618" t="str">
+      <c r="R358" s="598" t="str">
         <f>IF(OR(Q358="",Q360=""),"",Q358+Q360)</f>
         <v/>
       </c>
@@ -34213,8 +34337,8 @@
         <f>IF(OR(W358="",W359="",V362=""),"",(W358-W359)*V362)</f>
         <v/>
       </c>
-      <c r="Q359" s="617"/>
-      <c r="R359" s="617"/>
+      <c r="Q359" s="597"/>
+      <c r="R359" s="597"/>
       <c r="S359" s="147" t="str">
         <f>IF(AB168="","",AB168)</f>
         <v/>
@@ -34250,11 +34374,11 @@
         <f>IF(OR(X358="",X359="",V362=""),"",(X358-X359)*V362)</f>
         <v/>
       </c>
-      <c r="Q360" s="618" t="str">
+      <c r="Q360" s="598" t="str">
         <f>IF(OR(P360="",P361=""),"",(ABS(P360)+ABS(P361))/$O$355)</f>
         <v/>
       </c>
-      <c r="R360" s="618"/>
+      <c r="R360" s="598"/>
       <c r="S360" s="147" t="str">
         <f>IF(AB169="","",AB169)</f>
         <v/>
@@ -34296,8 +34420,8 @@
         <f>IF(OR(Y358="",Y359="",V362=""),"",(Y358-Y359)*V362)</f>
         <v/>
       </c>
-      <c r="Q361" s="618"/>
-      <c r="R361" s="618"/>
+      <c r="Q361" s="598"/>
+      <c r="R361" s="598"/>
       <c r="S361" s="149" t="str">
         <f>IF(AB170="","",AB170)</f>
         <v/>
@@ -34469,7 +34593,7 @@
         <v>36</v>
       </c>
       <c r="B366" s="349"/>
-      <c r="C366" s="619" t="str">
+      <c r="C366" s="599" t="str">
         <f>O214</f>
         <v>Auto 1</v>
       </c>
@@ -34520,7 +34644,7 @@
         <v>37</v>
       </c>
       <c r="B367" s="349"/>
-      <c r="C367" s="620"/>
+      <c r="C367" s="600"/>
       <c r="D367" s="489" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34566,7 +34690,7 @@
         <v>38</v>
       </c>
       <c r="B368" s="349"/>
-      <c r="C368" s="620"/>
+      <c r="C368" s="600"/>
       <c r="D368" s="489" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34601,7 +34725,7 @@
         <v>39</v>
       </c>
       <c r="B369" s="349"/>
-      <c r="C369" s="620"/>
+      <c r="C369" s="600"/>
       <c r="D369" s="489" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34636,7 +34760,7 @@
         <v>40</v>
       </c>
       <c r="B370" s="349"/>
-      <c r="C370" s="620"/>
+      <c r="C370" s="600"/>
       <c r="D370" s="495" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34681,7 +34805,7 @@
         <v>41</v>
       </c>
       <c r="B371" s="349"/>
-      <c r="C371" s="609" t="str">
+      <c r="C371" s="579" t="str">
         <f>O219</f>
         <v>Auto 2</v>
       </c>
@@ -34731,7 +34855,7 @@
         <v>42</v>
       </c>
       <c r="B372" s="349"/>
-      <c r="C372" s="610"/>
+      <c r="C372" s="580"/>
       <c r="D372" s="489" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34781,7 +34905,7 @@
         <v>43</v>
       </c>
       <c r="B373" s="349"/>
-      <c r="C373" s="610"/>
+      <c r="C373" s="580"/>
       <c r="D373" s="489" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34828,7 +34952,7 @@
         <v>44</v>
       </c>
       <c r="B374" s="349"/>
-      <c r="C374" s="610"/>
+      <c r="C374" s="580"/>
       <c r="D374" s="489" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34878,7 +35002,7 @@
         <v>45</v>
       </c>
       <c r="B375" s="349"/>
-      <c r="C375" s="612"/>
+      <c r="C375" s="581"/>
       <c r="D375" s="495" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -34925,7 +35049,7 @@
         <v>46</v>
       </c>
       <c r="B376" s="349"/>
-      <c r="C376" s="621" t="str">
+      <c r="C376" s="582" t="str">
         <f>O224</f>
         <v>High Level</v>
       </c>
@@ -34978,7 +35102,7 @@
         <v>47</v>
       </c>
       <c r="B377" s="349"/>
-      <c r="C377" s="622"/>
+      <c r="C377" s="583"/>
       <c r="D377" s="489" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -35025,7 +35149,7 @@
         <v>48</v>
       </c>
       <c r="B378" s="349"/>
-      <c r="C378" s="622"/>
+      <c r="C378" s="583"/>
       <c r="D378" s="489" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -35075,7 +35199,7 @@
         <v>49</v>
       </c>
       <c r="B379" s="349"/>
-      <c r="C379" s="622"/>
+      <c r="C379" s="583"/>
       <c r="D379" s="489" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -35122,7 +35246,7 @@
         <v>50</v>
       </c>
       <c r="B380" s="349"/>
-      <c r="C380" s="623"/>
+      <c r="C380" s="584"/>
       <c r="D380" s="495" t="str">
         <f t="shared" si="80"/>
         <v/>
@@ -35432,7 +35556,7 @@
         <v>58</v>
       </c>
       <c r="B388" s="349"/>
-      <c r="C388" s="614" t="str">
+      <c r="C388" s="585" t="str">
         <f>O242</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -35483,7 +35607,7 @@
         <v>59</v>
       </c>
       <c r="B389" s="349"/>
-      <c r="C389" s="615"/>
+      <c r="C389" s="586"/>
       <c r="D389" s="504" t="str">
         <f>P243</f>
         <v>Waist level</v>
@@ -35834,14 +35958,14 @@
       <c r="E399" s="347"/>
       <c r="F399" s="347"/>
       <c r="G399" s="347"/>
-      <c r="H399" s="624" t="s">
+      <c r="H399" s="587" t="s">
         <v>395</v>
       </c>
-      <c r="I399" s="624"/>
-      <c r="J399" s="624" t="s">
+      <c r="I399" s="587"/>
+      <c r="J399" s="587" t="s">
         <v>396</v>
       </c>
-      <c r="K399" s="624"/>
+      <c r="K399" s="587"/>
       <c r="L399" s="347"/>
       <c r="M399" s="348"/>
       <c r="O399" s="14"/>
@@ -36415,20 +36539,20 @@
       </c>
       <c r="B413" s="349"/>
       <c r="C413" s="43"/>
-      <c r="D413" s="625" t="s">
+      <c r="D413" s="588" t="s">
         <v>402</v>
       </c>
-      <c r="E413" s="625"/>
-      <c r="F413" s="625"/>
-      <c r="G413" s="625"/>
-      <c r="H413" s="625"/>
-      <c r="I413" s="625" t="s">
+      <c r="E413" s="588"/>
+      <c r="F413" s="588"/>
+      <c r="G413" s="588"/>
+      <c r="H413" s="588"/>
+      <c r="I413" s="588" t="s">
         <v>403</v>
       </c>
-      <c r="J413" s="625"/>
-      <c r="K413" s="625"/>
-      <c r="L413" s="625"/>
-      <c r="M413" s="626"/>
+      <c r="J413" s="588"/>
+      <c r="K413" s="588"/>
+      <c r="L413" s="588"/>
+      <c r="M413" s="589"/>
       <c r="O413" s="14"/>
       <c r="P413" s="2" t="s">
         <v>189</v>
@@ -37908,11 +38032,11 @@
         <f t="shared" si="92"/>
         <v/>
       </c>
-      <c r="F442" s="627" t="str">
+      <c r="F442" s="590" t="str">
         <f t="shared" si="92"/>
         <v/>
       </c>
-      <c r="G442" s="629" t="str">
+      <c r="G442" s="592" t="str">
         <f t="shared" si="92"/>
         <v/>
       </c>
@@ -37953,8 +38077,8 @@
         <f>P359</f>
         <v/>
       </c>
-      <c r="F443" s="628"/>
-      <c r="G443" s="630"/>
+      <c r="F443" s="591"/>
+      <c r="G443" s="593"/>
       <c r="H443" s="205"/>
       <c r="I443" s="83" t="str">
         <f>T360</f>
@@ -37994,11 +38118,11 @@
         <f>P360</f>
         <v/>
       </c>
-      <c r="F444" s="628" t="str">
+      <c r="F444" s="591" t="str">
         <f>Q360</f>
         <v/>
       </c>
-      <c r="G444" s="630"/>
+      <c r="G444" s="593"/>
       <c r="H444" s="136"/>
       <c r="I444" s="92" t="str">
         <f>T361</f>
@@ -38039,8 +38163,8 @@
         <f>P361</f>
         <v/>
       </c>
-      <c r="F445" s="632"/>
-      <c r="G445" s="631"/>
+      <c r="F445" s="595"/>
+      <c r="G445" s="594"/>
       <c r="H445" s="136"/>
       <c r="I445" s="136"/>
       <c r="J445" s="136"/>
@@ -44376,25 +44500,84 @@
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="C371:C375"/>
-    <mergeCell ref="C376:C380"/>
-    <mergeCell ref="C388:C389"/>
-    <mergeCell ref="H399:I399"/>
-    <mergeCell ref="J399:K399"/>
-    <mergeCell ref="D413:H413"/>
-    <mergeCell ref="I413:M413"/>
-    <mergeCell ref="F442:F443"/>
-    <mergeCell ref="G442:G445"/>
-    <mergeCell ref="F444:F445"/>
-    <mergeCell ref="C337:C339"/>
-    <mergeCell ref="C340:C342"/>
-    <mergeCell ref="C343:C345"/>
-    <mergeCell ref="C346:C348"/>
-    <mergeCell ref="C349:C351"/>
-    <mergeCell ref="Q358:Q359"/>
-    <mergeCell ref="R358:R361"/>
-    <mergeCell ref="Q360:Q361"/>
-    <mergeCell ref="C366:C370"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="Q107:S107"/>
+    <mergeCell ref="T107:V107"/>
+    <mergeCell ref="W107:Y107"/>
+    <mergeCell ref="Q139:S139"/>
+    <mergeCell ref="T139:V139"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="T181:U181"/>
+    <mergeCell ref="O190:O194"/>
+    <mergeCell ref="O195:O199"/>
+    <mergeCell ref="O200:O204"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="G202:G203"/>
+    <mergeCell ref="H202:H203"/>
+    <mergeCell ref="I202:I203"/>
+    <mergeCell ref="J202:J203"/>
+    <mergeCell ref="M202:M203"/>
+    <mergeCell ref="O214:O218"/>
+    <mergeCell ref="O219:O223"/>
+    <mergeCell ref="O224:O228"/>
+    <mergeCell ref="O240:O241"/>
+    <mergeCell ref="O242:O243"/>
+    <mergeCell ref="Q257:R257"/>
+    <mergeCell ref="T257:U257"/>
+    <mergeCell ref="E269:G269"/>
+    <mergeCell ref="H269:J269"/>
+    <mergeCell ref="K269:M269"/>
+    <mergeCell ref="C271:C273"/>
+    <mergeCell ref="C274:C276"/>
+    <mergeCell ref="O276:O277"/>
+    <mergeCell ref="P276:P277"/>
+    <mergeCell ref="R276:R277"/>
+    <mergeCell ref="S276:S277"/>
+    <mergeCell ref="C277:C279"/>
+    <mergeCell ref="C280:C282"/>
+    <mergeCell ref="C283:C285"/>
     <mergeCell ref="P293:S293"/>
     <mergeCell ref="P302:S302"/>
     <mergeCell ref="C303:C307"/>
@@ -44406,84 +44589,25 @@
     <mergeCell ref="E335:G335"/>
     <mergeCell ref="H335:J335"/>
     <mergeCell ref="K335:M335"/>
-    <mergeCell ref="C271:C273"/>
-    <mergeCell ref="C274:C276"/>
-    <mergeCell ref="O276:O277"/>
-    <mergeCell ref="P276:P277"/>
-    <mergeCell ref="R276:R277"/>
-    <mergeCell ref="S276:S277"/>
-    <mergeCell ref="C277:C279"/>
-    <mergeCell ref="C280:C282"/>
-    <mergeCell ref="C283:C285"/>
-    <mergeCell ref="O214:O218"/>
-    <mergeCell ref="O219:O223"/>
-    <mergeCell ref="O224:O228"/>
-    <mergeCell ref="O240:O241"/>
-    <mergeCell ref="O242:O243"/>
-    <mergeCell ref="Q257:R257"/>
-    <mergeCell ref="T257:U257"/>
-    <mergeCell ref="E269:G269"/>
-    <mergeCell ref="H269:J269"/>
-    <mergeCell ref="K269:M269"/>
-    <mergeCell ref="T181:U181"/>
-    <mergeCell ref="O190:O194"/>
-    <mergeCell ref="O195:O199"/>
-    <mergeCell ref="O200:O204"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="G202:G203"/>
-    <mergeCell ref="H202:H203"/>
-    <mergeCell ref="I202:I203"/>
-    <mergeCell ref="J202:J203"/>
-    <mergeCell ref="M202:M203"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="Q107:S107"/>
-    <mergeCell ref="T107:V107"/>
-    <mergeCell ref="W107:Y107"/>
-    <mergeCell ref="Q139:S139"/>
-    <mergeCell ref="T139:V139"/>
-    <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C337:C339"/>
+    <mergeCell ref="C340:C342"/>
+    <mergeCell ref="C343:C345"/>
+    <mergeCell ref="C346:C348"/>
+    <mergeCell ref="C349:C351"/>
+    <mergeCell ref="Q358:Q359"/>
+    <mergeCell ref="R358:R361"/>
+    <mergeCell ref="Q360:Q361"/>
+    <mergeCell ref="C366:C370"/>
+    <mergeCell ref="C371:C375"/>
+    <mergeCell ref="C376:C380"/>
+    <mergeCell ref="C388:C389"/>
+    <mergeCell ref="H399:I399"/>
+    <mergeCell ref="J399:K399"/>
+    <mergeCell ref="D413:H413"/>
+    <mergeCell ref="I413:M413"/>
+    <mergeCell ref="F442:F443"/>
+    <mergeCell ref="G442:G445"/>
+    <mergeCell ref="F444:F445"/>
   </mergeCells>
   <conditionalFormatting sqref="S126 V126 Y126 S158 V158 Y158">
     <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
@@ -44750,39 +44874,39 @@
         <f>Fluoro!D269</f>
         <v>Attenuator</v>
       </c>
-      <c r="E5" s="602" t="str">
+      <c r="E5" s="607" t="str">
         <f>Fluoro!E269</f>
         <v>Auto 1</v>
       </c>
-      <c r="F5" s="602">
+      <c r="F5" s="607">
         <f>Fluoro!F269</f>
         <v>0</v>
       </c>
-      <c r="G5" s="602">
+      <c r="G5" s="607">
         <f>Fluoro!G269</f>
         <v>0</v>
       </c>
-      <c r="H5" s="602" t="str">
+      <c r="H5" s="607" t="str">
         <f>Fluoro!H269</f>
         <v>Auto 2</v>
       </c>
-      <c r="I5" s="602">
+      <c r="I5" s="607">
         <f>Fluoro!I269</f>
         <v>0</v>
       </c>
-      <c r="J5" s="602">
+      <c r="J5" s="607">
         <f>Fluoro!J269</f>
         <v>0</v>
       </c>
-      <c r="K5" s="603" t="str">
+      <c r="K5" s="608" t="str">
         <f>Fluoro!K269</f>
         <v>High Level</v>
       </c>
-      <c r="L5" s="603">
+      <c r="L5" s="608">
         <f>Fluoro!L269</f>
         <v>0</v>
       </c>
-      <c r="M5" s="603">
+      <c r="M5" s="608">
         <f>Fluoro!M269</f>
         <v>0</v>
       </c>
@@ -44839,7 +44963,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="633" t="str">
+      <c r="C7" s="636" t="str">
         <f>Fluoro!C271</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -44889,7 +45013,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="11"/>
-      <c r="C8" s="633">
+      <c r="C8" s="636">
         <f>Fluoro!C272</f>
         <v>0</v>
       </c>
@@ -44939,7 +45063,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="633">
+      <c r="C9" s="636">
         <f>Fluoro!C273</f>
         <v>0</v>
       </c>
@@ -44989,7 +45113,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="633" t="str">
+      <c r="C10" s="636" t="str">
         <f>Fluoro!C274</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -45039,7 +45163,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="633">
+      <c r="C11" s="636">
         <f>Fluoro!C275</f>
         <v>0</v>
       </c>
@@ -45089,7 +45213,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="633">
+      <c r="C12" s="636">
         <f>Fluoro!C276</f>
         <v>0</v>
       </c>
@@ -45139,7 +45263,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="11"/>
-      <c r="C13" s="633" t="str">
+      <c r="C13" s="636" t="str">
         <f>Fluoro!C277</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -45189,7 +45313,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="633">
+      <c r="C14" s="636">
         <f>Fluoro!C278</f>
         <v>0</v>
       </c>
@@ -45239,7 +45363,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="633">
+      <c r="C15" s="636">
         <f>Fluoro!C279</f>
         <v>0</v>
       </c>
@@ -45289,7 +45413,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="633" t="str">
+      <c r="C16" s="636" t="str">
         <f>Fluoro!C280</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -45339,7 +45463,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="633">
+      <c r="C17" s="636">
         <f>Fluoro!C281</f>
         <v>0</v>
       </c>
@@ -45389,7 +45513,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="11"/>
-      <c r="C18" s="633">
+      <c r="C18" s="636">
         <f>Fluoro!C282</f>
         <v>0</v>
       </c>
@@ -45439,7 +45563,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="633" t="str">
+      <c r="C19" s="636" t="str">
         <f>Fluoro!C283</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -45489,7 +45613,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="11"/>
-      <c r="C20" s="633">
+      <c r="C20" s="636">
         <f>Fluoro!C284</f>
         <v>0</v>
       </c>
@@ -45539,7 +45663,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="11"/>
-      <c r="C21" s="633">
+      <c r="C21" s="636">
         <f>Fluoro!C285</f>
         <v>0</v>
       </c>
@@ -45988,7 +46112,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="11"/>
-      <c r="C39" s="634" t="str">
+      <c r="C39" s="633" t="str">
         <f>Fluoro!C303</f>
         <v>Auto 1</v>
       </c>
@@ -46026,7 +46150,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="11"/>
-      <c r="C40" s="634">
+      <c r="C40" s="633">
         <f>Fluoro!C304</f>
         <v>0</v>
       </c>
@@ -46064,7 +46188,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="11"/>
-      <c r="C41" s="634">
+      <c r="C41" s="633">
         <f>Fluoro!C305</f>
         <v>0</v>
       </c>
@@ -46102,7 +46226,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="11"/>
-      <c r="C42" s="634">
+      <c r="C42" s="633">
         <f>Fluoro!C306</f>
         <v>0</v>
       </c>
@@ -46137,7 +46261,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="11"/>
-      <c r="C43" s="634">
+      <c r="C43" s="633">
         <f>Fluoro!C307</f>
         <v>0</v>
       </c>
@@ -46172,7 +46296,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="11"/>
-      <c r="C44" s="635" t="str">
+      <c r="C44" s="634" t="str">
         <f>Fluoro!C308</f>
         <v>Auto 2</v>
       </c>
@@ -46207,7 +46331,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="11"/>
-      <c r="C45" s="635">
+      <c r="C45" s="634">
         <f>Fluoro!C309</f>
         <v>0</v>
       </c>
@@ -46242,7 +46366,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="11"/>
-      <c r="C46" s="635">
+      <c r="C46" s="634">
         <f>Fluoro!C310</f>
         <v>0</v>
       </c>
@@ -46277,7 +46401,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="11"/>
-      <c r="C47" s="635">
+      <c r="C47" s="634">
         <f>Fluoro!C311</f>
         <v>0</v>
       </c>
@@ -46312,7 +46436,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="11"/>
-      <c r="C48" s="635">
+      <c r="C48" s="634">
         <f>Fluoro!C312</f>
         <v>0</v>
       </c>
@@ -46347,7 +46471,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="11"/>
-      <c r="C49" s="635" t="str">
+      <c r="C49" s="634" t="str">
         <f>Fluoro!C313</f>
         <v>High Level</v>
       </c>
@@ -46382,7 +46506,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="11"/>
-      <c r="C50" s="635">
+      <c r="C50" s="634">
         <f>Fluoro!C314</f>
         <v>0</v>
       </c>
@@ -46417,7 +46541,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="11"/>
-      <c r="C51" s="635">
+      <c r="C51" s="634">
         <f>Fluoro!C315</f>
         <v>0</v>
       </c>
@@ -46448,7 +46572,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="11"/>
-      <c r="C52" s="635">
+      <c r="C52" s="634">
         <f>Fluoro!C316</f>
         <v>0</v>
       </c>
@@ -46479,7 +46603,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="11"/>
-      <c r="C53" s="635">
+      <c r="C53" s="634">
         <f>Fluoro!C317</f>
         <v>0</v>
       </c>
@@ -46665,7 +46789,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="11"/>
-      <c r="C60" s="636" t="str">
+      <c r="C60" s="635" t="str">
         <f>Fluoro!C324</f>
         <v>Scatter – Fluoro</v>
       </c>
@@ -46700,7 +46824,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="11"/>
-      <c r="C61" s="636">
+      <c r="C61" s="635">
         <f>Fluoro!C325</f>
         <v>0</v>
       </c>
@@ -46946,39 +47070,39 @@
         <f>Fluoro!D335</f>
         <v>Attenuator</v>
       </c>
-      <c r="E71" s="602" t="str">
+      <c r="E71" s="607" t="str">
         <f>Fluoro!E335</f>
         <v>Auto 1</v>
       </c>
-      <c r="F71" s="602">
+      <c r="F71" s="607">
         <f>Fluoro!F335</f>
         <v>0</v>
       </c>
-      <c r="G71" s="602">
+      <c r="G71" s="607">
         <f>Fluoro!G335</f>
         <v>0</v>
       </c>
-      <c r="H71" s="602" t="str">
+      <c r="H71" s="607" t="str">
         <f>Fluoro!H335</f>
         <v>Auto 2</v>
       </c>
-      <c r="I71" s="602">
+      <c r="I71" s="607">
         <f>Fluoro!I335</f>
         <v>0</v>
       </c>
-      <c r="J71" s="602">
+      <c r="J71" s="607">
         <f>Fluoro!J335</f>
         <v>0</v>
       </c>
-      <c r="K71" s="603" t="str">
+      <c r="K71" s="608" t="str">
         <f>Fluoro!K335</f>
         <v>High Level</v>
       </c>
-      <c r="L71" s="603">
+      <c r="L71" s="608">
         <f>Fluoro!L335</f>
         <v>0</v>
       </c>
-      <c r="M71" s="603">
+      <c r="M71" s="608">
         <f>Fluoro!M335</f>
         <v>0</v>
       </c>
@@ -47035,7 +47159,7 @@
         <v>7</v>
       </c>
       <c r="B73" s="11"/>
-      <c r="C73" s="633" t="str">
+      <c r="C73" s="636" t="str">
         <f>Fluoro!C337</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -47085,7 +47209,7 @@
         <v>8</v>
       </c>
       <c r="B74" s="11"/>
-      <c r="C74" s="633">
+      <c r="C74" s="636">
         <f>Fluoro!C338</f>
         <v>0</v>
       </c>
@@ -47135,7 +47259,7 @@
         <v>9</v>
       </c>
       <c r="B75" s="11"/>
-      <c r="C75" s="633">
+      <c r="C75" s="636">
         <f>Fluoro!C339</f>
         <v>0</v>
       </c>
@@ -47185,7 +47309,7 @@
         <v>10</v>
       </c>
       <c r="B76" s="11"/>
-      <c r="C76" s="633" t="str">
+      <c r="C76" s="636" t="str">
         <f>Fluoro!C340</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -47235,7 +47359,7 @@
         <v>11</v>
       </c>
       <c r="B77" s="11"/>
-      <c r="C77" s="633">
+      <c r="C77" s="636">
         <f>Fluoro!C341</f>
         <v>0</v>
       </c>
@@ -47285,7 +47409,7 @@
         <v>12</v>
       </c>
       <c r="B78" s="11"/>
-      <c r="C78" s="633">
+      <c r="C78" s="636">
         <f>Fluoro!C342</f>
         <v>0</v>
       </c>
@@ -47335,7 +47459,7 @@
         <v>13</v>
       </c>
       <c r="B79" s="11"/>
-      <c r="C79" s="633" t="str">
+      <c r="C79" s="636" t="str">
         <f>Fluoro!C343</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -47385,7 +47509,7 @@
         <v>14</v>
       </c>
       <c r="B80" s="11"/>
-      <c r="C80" s="633">
+      <c r="C80" s="636">
         <f>Fluoro!C344</f>
         <v>0</v>
       </c>
@@ -47435,7 +47559,7 @@
         <v>15</v>
       </c>
       <c r="B81" s="11"/>
-      <c r="C81" s="633">
+      <c r="C81" s="636">
         <f>Fluoro!C345</f>
         <v>0</v>
       </c>
@@ -47485,7 +47609,7 @@
         <v>16</v>
       </c>
       <c r="B82" s="11"/>
-      <c r="C82" s="633" t="str">
+      <c r="C82" s="636" t="str">
         <f>Fluoro!C346</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -47535,7 +47659,7 @@
         <v>17</v>
       </c>
       <c r="B83" s="11"/>
-      <c r="C83" s="633">
+      <c r="C83" s="636">
         <f>Fluoro!C347</f>
         <v>0</v>
       </c>
@@ -47585,7 +47709,7 @@
         <v>18</v>
       </c>
       <c r="B84" s="11"/>
-      <c r="C84" s="633">
+      <c r="C84" s="636">
         <f>Fluoro!C348</f>
         <v>0</v>
       </c>
@@ -47635,7 +47759,7 @@
         <v>19</v>
       </c>
       <c r="B85" s="11"/>
-      <c r="C85" s="633" t="str">
+      <c r="C85" s="636" t="str">
         <f>Fluoro!C349</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -47685,7 +47809,7 @@
         <v>20</v>
       </c>
       <c r="B86" s="11"/>
-      <c r="C86" s="633">
+      <c r="C86" s="636">
         <f>Fluoro!C350</f>
         <v>0</v>
       </c>
@@ -47735,7 +47859,7 @@
         <v>21</v>
       </c>
       <c r="B87" s="11"/>
-      <c r="C87" s="633">
+      <c r="C87" s="636">
         <f>Fluoro!C351</f>
         <v>0</v>
       </c>
@@ -48082,7 +48206,7 @@
         <v>36</v>
       </c>
       <c r="B102" s="11"/>
-      <c r="C102" s="634" t="str">
+      <c r="C102" s="633" t="str">
         <f>Fluoro!C366</f>
         <v>Auto 1</v>
       </c>
@@ -48120,7 +48244,7 @@
         <v>37</v>
       </c>
       <c r="B103" s="11"/>
-      <c r="C103" s="634">
+      <c r="C103" s="633">
         <f>Fluoro!C367</f>
         <v>0</v>
       </c>
@@ -48158,7 +48282,7 @@
         <v>38</v>
       </c>
       <c r="B104" s="11"/>
-      <c r="C104" s="634">
+      <c r="C104" s="633">
         <f>Fluoro!C368</f>
         <v>0</v>
       </c>
@@ -48196,7 +48320,7 @@
         <v>39</v>
       </c>
       <c r="B105" s="11"/>
-      <c r="C105" s="634">
+      <c r="C105" s="633">
         <f>Fluoro!C369</f>
         <v>0</v>
       </c>
@@ -48231,7 +48355,7 @@
         <v>40</v>
       </c>
       <c r="B106" s="11"/>
-      <c r="C106" s="634">
+      <c r="C106" s="633">
         <f>Fluoro!C370</f>
         <v>0</v>
       </c>
@@ -48266,7 +48390,7 @@
         <v>41</v>
       </c>
       <c r="B107" s="11"/>
-      <c r="C107" s="635" t="str">
+      <c r="C107" s="634" t="str">
         <f>Fluoro!C371</f>
         <v>Auto 2</v>
       </c>
@@ -48301,7 +48425,7 @@
         <v>42</v>
       </c>
       <c r="B108" s="11"/>
-      <c r="C108" s="635">
+      <c r="C108" s="634">
         <f>Fluoro!C372</f>
         <v>0</v>
       </c>
@@ -48336,7 +48460,7 @@
         <v>43</v>
       </c>
       <c r="B109" s="11"/>
-      <c r="C109" s="635">
+      <c r="C109" s="634">
         <f>Fluoro!C373</f>
         <v>0</v>
       </c>
@@ -48371,7 +48495,7 @@
         <v>44</v>
       </c>
       <c r="B110" s="11"/>
-      <c r="C110" s="635">
+      <c r="C110" s="634">
         <f>Fluoro!C374</f>
         <v>0</v>
       </c>
@@ -48406,7 +48530,7 @@
         <v>45</v>
       </c>
       <c r="B111" s="11"/>
-      <c r="C111" s="635">
+      <c r="C111" s="634">
         <f>Fluoro!C375</f>
         <v>0</v>
       </c>
@@ -48441,7 +48565,7 @@
         <v>46</v>
       </c>
       <c r="B112" s="11"/>
-      <c r="C112" s="635" t="str">
+      <c r="C112" s="634" t="str">
         <f>Fluoro!C376</f>
         <v>High Level</v>
       </c>
@@ -48476,7 +48600,7 @@
         <v>47</v>
       </c>
       <c r="B113" s="11"/>
-      <c r="C113" s="635">
+      <c r="C113" s="634">
         <f>Fluoro!C377</f>
         <v>0</v>
       </c>
@@ -48511,7 +48635,7 @@
         <v>48</v>
       </c>
       <c r="B114" s="11"/>
-      <c r="C114" s="635">
+      <c r="C114" s="634">
         <f>Fluoro!C378</f>
         <v>0</v>
       </c>
@@ -48542,7 +48666,7 @@
         <v>49</v>
       </c>
       <c r="B115" s="11"/>
-      <c r="C115" s="635">
+      <c r="C115" s="634">
         <f>Fluoro!C379</f>
         <v>0</v>
       </c>
@@ -48573,7 +48697,7 @@
         <v>50</v>
       </c>
       <c r="B116" s="11"/>
-      <c r="C116" s="635">
+      <c r="C116" s="634">
         <f>Fluoro!C380</f>
         <v>0</v>
       </c>
@@ -48747,7 +48871,7 @@
         <v>58</v>
       </c>
       <c r="B124" s="11"/>
-      <c r="C124" s="636" t="str">
+      <c r="C124" s="635" t="str">
         <f>Fluoro!C388</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -48782,7 +48906,7 @@
         <v>59</v>
       </c>
       <c r="B125" s="11"/>
-      <c r="C125" s="636">
+      <c r="C125" s="635">
         <f>Fluoro!C389</f>
         <v>0</v>
       </c>
@@ -48959,6 +49083,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:M71"/>
     <mergeCell ref="C102:C106"/>
     <mergeCell ref="C107:C111"/>
     <mergeCell ref="C112:C116"/>
@@ -48968,21 +49107,6 @@
     <mergeCell ref="C79:C81"/>
     <mergeCell ref="C82:C84"/>
     <mergeCell ref="C85:C87"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.88611111111111096" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -49014,29 +49138,29 @@
       </c>
       <c r="B1" s="637"/>
       <c r="N1" s="326"/>
-      <c r="O1" s="608" t="str">
+      <c r="O1" s="601" t="str">
         <f>Fluoro!O105</f>
         <v>Patient Entrance Exposure Rate (Fluoroscopy)*</v>
       </c>
-      <c r="P1" s="608"/>
-      <c r="Q1" s="608"/>
-      <c r="R1" s="608" t="s">
+      <c r="P1" s="601"/>
+      <c r="Q1" s="601"/>
+      <c r="R1" s="601" t="s">
         <v>409</v>
       </c>
-      <c r="S1" s="608"/>
-      <c r="T1" s="608"/>
+      <c r="S1" s="601"/>
+      <c r="T1" s="601"/>
       <c r="V1" s="326"/>
-      <c r="W1" s="608" t="str">
+      <c r="W1" s="601" t="str">
         <f>Fluoro!O137</f>
         <v>Patient Entrance Exposure Rate – Digital Acquisition</v>
       </c>
-      <c r="X1" s="608"/>
-      <c r="Y1" s="608"/>
-      <c r="Z1" s="608" t="s">
+      <c r="X1" s="601"/>
+      <c r="Y1" s="601"/>
+      <c r="Z1" s="601" t="s">
         <v>409</v>
       </c>
-      <c r="AA1" s="608"/>
-      <c r="AB1" s="608"/>
+      <c r="AA1" s="601"/>
+      <c r="AB1" s="601"/>
     </row>
     <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="327">
@@ -53029,14 +53153,14 @@
       <c r="B75" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="E75" s="608" t="s">
+      <c r="E75" s="601" t="s">
         <v>422</v>
       </c>
-      <c r="F75" s="608"/>
-      <c r="I75" s="608" t="s">
+      <c r="F75" s="601"/>
+      <c r="I75" s="601" t="s">
         <v>423</v>
       </c>
-      <c r="J75" s="608"/>
+      <c r="J75" s="601"/>
     </row>
     <row r="76" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
@@ -54756,7 +54880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>

--- a/MUSCCArm.xlsx
+++ b/MUSCCArm.xlsx
@@ -6442,171 +6442,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="159" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="160" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="185" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="161" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="186" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="135" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="165" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="192" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="193" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="202" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="203" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="164" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="190" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="172" fontId="4" fillId="9" borderId="81" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -6641,9 +6476,45 @@
     <xf numFmtId="167" fontId="17" fillId="7" borderId="231" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="234" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="6" borderId="226" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="229" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="230" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="234" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="235" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="210" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="211" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6653,37 +6524,166 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="233" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="234" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="159" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="160" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="161" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="193" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="202" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="203" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="135" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="6" borderId="226" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="164" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="190" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="229" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="230" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="234" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="235" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="165" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="192" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="185" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="186" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7439,6 +7439,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7665,6 +7666,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7736,6 +7738,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7861,6 +7864,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9510,6 +9514,8 @@
         <c:axId val="97632003"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9533,6 +9539,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9604,6 +9611,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9650,6 +9658,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9717,6 +9726,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9943,6 +9953,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10014,6 +10025,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10139,6 +10151,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11788,6 +11801,8 @@
         <c:axId val="33218079"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -11811,6 +11826,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11882,6 +11898,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11928,6 +11945,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12011,6 +12029,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12763,6 +12782,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16814,6 +16834,150 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="AutoShape 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17392,21 +17556,21 @@
       <c r="E10" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="579" t="str">
+      <c r="F10" s="651" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="579"/>
+      <c r="G10" s="651"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="580" t="str">
+      <c r="K10" s="644" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="580"/>
+      <c r="L10" s="644"/>
       <c r="M10" s="358"/>
       <c r="O10" s="13"/>
       <c r="Q10" s="2" t="s">
@@ -17449,21 +17613,21 @@
       <c r="E11" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="581" t="str">
+      <c r="F11" s="645" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="581"/>
+      <c r="G11" s="645"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
       <c r="J11" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="581" t="str">
+      <c r="K11" s="645" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="581"/>
+      <c r="L11" s="645"/>
       <c r="M11" s="358"/>
       <c r="O11" s="13"/>
       <c r="Q11" s="2" t="s">
@@ -17506,21 +17670,21 @@
       <c r="E12" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="581" t="str">
+      <c r="F12" s="645" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="581"/>
+      <c r="G12" s="645"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
       <c r="J12" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="582" t="str">
+      <c r="K12" s="653" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="582"/>
+      <c r="L12" s="653"/>
       <c r="M12" s="358"/>
       <c r="O12" s="13"/>
       <c r="Q12" s="2" t="s">
@@ -17563,21 +17727,21 @@
       <c r="E13" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="583" t="str">
+      <c r="F13" s="646" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="583"/>
+      <c r="G13" s="646"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
       <c r="J13" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="583" t="str">
+      <c r="K13" s="646" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="583"/>
+      <c r="L13" s="646"/>
       <c r="M13" s="358"/>
       <c r="O13" s="13"/>
       <c r="Q13" s="2" t="s">
@@ -17700,21 +17864,21 @@
       <c r="E16" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="579" t="str">
+      <c r="F16" s="651" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="579"/>
+      <c r="G16" s="651"/>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
       <c r="J16" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="584" t="str">
+      <c r="K16" s="654" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="584"/>
+      <c r="L16" s="654"/>
       <c r="M16" s="358"/>
       <c r="O16" s="13"/>
       <c r="P16" s="50" t="s">
@@ -17744,21 +17908,21 @@
       <c r="E17" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="581" t="str">
+      <c r="F17" s="645" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="581"/>
+      <c r="G17" s="645"/>
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
       <c r="J17" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="583" t="str">
+      <c r="K17" s="646" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="583"/>
+      <c r="L17" s="646"/>
       <c r="M17" s="358"/>
       <c r="O17" s="13"/>
       <c r="Q17" s="2" t="s">
@@ -17801,21 +17965,21 @@
       <c r="E18" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="583" t="str">
+      <c r="F18" s="646" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="583"/>
+      <c r="G18" s="646"/>
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
       <c r="J18" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="583" t="str">
+      <c r="K18" s="646" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="583"/>
+      <c r="L18" s="646"/>
       <c r="M18" s="358"/>
       <c r="O18" s="13"/>
       <c r="Q18" s="2" t="s">
@@ -17863,11 +18027,11 @@
       <c r="J19" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="583" t="str">
+      <c r="K19" s="646" t="str">
         <f>IF(V20="","",V20)</f>
         <v/>
       </c>
-      <c r="L19" s="583"/>
+      <c r="L19" s="646"/>
       <c r="M19" s="358"/>
       <c r="O19" s="13"/>
       <c r="Q19" s="2" t="s">
@@ -17942,11 +18106,11 @@
       <c r="E21" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="579" t="str">
+      <c r="F21" s="651" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="579"/>
+      <c r="G21" s="651"/>
       <c r="H21" s="42"/>
       <c r="I21" s="42"/>
       <c r="J21" s="73" t="s">
@@ -17986,21 +18150,21 @@
       <c r="E22" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="585" t="str">
+      <c r="F22" s="652" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="585"/>
+      <c r="G22" s="652"/>
       <c r="H22" s="42"/>
       <c r="I22" s="42"/>
       <c r="J22" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="579" t="str">
+      <c r="K22" s="651" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="579"/>
+      <c r="L22" s="651"/>
       <c r="M22" s="358"/>
       <c r="O22" s="13"/>
       <c r="Q22" s="2" t="s">
@@ -18045,11 +18209,11 @@
       <c r="J23" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="581" t="str">
+      <c r="K23" s="645" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="581"/>
+      <c r="L23" s="645"/>
       <c r="M23" s="358"/>
       <c r="O23" s="13"/>
       <c r="Q23" s="2" t="s">
@@ -18092,21 +18256,21 @@
       <c r="E24" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="580" t="str">
+      <c r="F24" s="644" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="580"/>
+      <c r="G24" s="644"/>
       <c r="H24" s="42"/>
       <c r="I24" s="42"/>
       <c r="J24" s="162" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="581" t="str">
+      <c r="K24" s="645" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="581"/>
+      <c r="L24" s="645"/>
       <c r="M24" s="358"/>
       <c r="O24" s="13"/>
       <c r="P24" s="50" t="s">
@@ -18144,11 +18308,11 @@
       <c r="E25" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="583" t="str">
+      <c r="F25" s="646" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="583"/>
+      <c r="G25" s="646"/>
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
@@ -18196,11 +18360,11 @@
       <c r="E26" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="583" t="str">
+      <c r="F26" s="646" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="583"/>
+      <c r="G26" s="646"/>
       <c r="H26" s="42"/>
       <c r="I26" s="42"/>
       <c r="J26" s="359" t="s">
@@ -18249,11 +18413,11 @@
       <c r="J27" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="579" t="str">
+      <c r="K27" s="651" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="579"/>
+      <c r="L27" s="651"/>
       <c r="M27" s="358"/>
       <c r="O27" s="13"/>
       <c r="Q27" s="2" t="s">
@@ -18291,21 +18455,21 @@
       <c r="E28" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="580" t="str">
+      <c r="F28" s="644" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="580"/>
+      <c r="G28" s="644"/>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
       <c r="J28" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="581" t="str">
+      <c r="K28" s="645" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="581"/>
+      <c r="L28" s="645"/>
       <c r="M28" s="358"/>
       <c r="O28" s="13"/>
       <c r="P28" s="50" t="s">
@@ -18334,11 +18498,11 @@
       <c r="E29" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="583" t="str">
+      <c r="F29" s="646" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="583"/>
+      <c r="G29" s="646"/>
       <c r="H29" s="42"/>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
@@ -18386,11 +18550,11 @@
       <c r="E30" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="583" t="str">
+      <c r="F30" s="646" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="583"/>
+      <c r="G30" s="646"/>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
@@ -18505,11 +18669,11 @@
       <c r="E33" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="579" t="str">
+      <c r="F33" s="651" t="str">
         <f>IF(R34="","",R34)</f>
         <v/>
       </c>
-      <c r="G33" s="579"/>
+      <c r="G33" s="651"/>
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
       <c r="J33" s="73" t="s">
@@ -18546,21 +18710,21 @@
       <c r="E34" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="585" t="str">
+      <c r="F34" s="652" t="str">
         <f>IF(R35="","",R35)</f>
         <v/>
       </c>
-      <c r="G34" s="585"/>
+      <c r="G34" s="652"/>
       <c r="H34" s="42"/>
       <c r="I34" s="42"/>
       <c r="J34" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="579" t="str">
+      <c r="K34" s="651" t="str">
         <f>IF(V35="","",V35)</f>
         <v/>
       </c>
-      <c r="L34" s="579"/>
+      <c r="L34" s="651"/>
       <c r="M34" s="358"/>
       <c r="O34" s="13"/>
       <c r="Q34" s="2" t="s">
@@ -18605,11 +18769,11 @@
       <c r="J35" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="581" t="str">
+      <c r="K35" s="645" t="str">
         <f>IF(V36="","",V36)</f>
         <v/>
       </c>
-      <c r="L35" s="581"/>
+      <c r="L35" s="645"/>
       <c r="M35" s="358"/>
       <c r="O35" s="13"/>
       <c r="Q35" s="2" t="s">
@@ -18652,21 +18816,21 @@
       <c r="E36" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="580" t="str">
+      <c r="F36" s="644" t="str">
         <f>IF(R37="","",R37)</f>
         <v/>
       </c>
-      <c r="G36" s="580"/>
+      <c r="G36" s="644"/>
       <c r="H36" s="42"/>
       <c r="I36" s="42"/>
       <c r="J36" s="162" t="s">
         <v>42</v>
       </c>
-      <c r="K36" s="581" t="str">
+      <c r="K36" s="645" t="str">
         <f>IF(V37="","",V37)</f>
         <v/>
       </c>
-      <c r="L36" s="581"/>
+      <c r="L36" s="645"/>
       <c r="M36" s="358"/>
       <c r="O36" s="13"/>
       <c r="P36" s="50" t="s">
@@ -18704,11 +18868,11 @@
       <c r="E37" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="583" t="str">
+      <c r="F37" s="646" t="str">
         <f>IF(R38="","",R38)</f>
         <v/>
       </c>
-      <c r="G37" s="583"/>
+      <c r="G37" s="646"/>
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
       <c r="J37" s="42"/>
@@ -18756,11 +18920,11 @@
       <c r="E38" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="583" t="str">
+      <c r="F38" s="646" t="str">
         <f>IF(R39="","",R39)</f>
         <v/>
       </c>
-      <c r="G38" s="583"/>
+      <c r="G38" s="646"/>
       <c r="H38" s="42"/>
       <c r="I38" s="42"/>
       <c r="J38" s="359" t="s">
@@ -18807,11 +18971,11 @@
       <c r="J39" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="K39" s="579" t="str">
+      <c r="K39" s="651" t="str">
         <f>IF(V40="","",V40)</f>
         <v/>
       </c>
-      <c r="L39" s="579"/>
+      <c r="L39" s="651"/>
       <c r="M39" s="358"/>
       <c r="O39" s="13"/>
       <c r="Q39" s="2" t="s">
@@ -18849,21 +19013,21 @@
       <c r="E40" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="580" t="str">
+      <c r="F40" s="644" t="str">
         <f>IF(R41="","",R41)</f>
         <v/>
       </c>
-      <c r="G40" s="580"/>
+      <c r="G40" s="644"/>
       <c r="H40" s="42"/>
       <c r="I40" s="42"/>
       <c r="J40" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="K40" s="581" t="str">
+      <c r="K40" s="645" t="str">
         <f>IF(V41="","",V41)</f>
         <v/>
       </c>
-      <c r="L40" s="581"/>
+      <c r="L40" s="645"/>
       <c r="M40" s="358"/>
       <c r="O40" s="13"/>
       <c r="P40" s="50" t="s">
@@ -18901,11 +19065,11 @@
       <c r="E41" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="583" t="str">
+      <c r="F41" s="646" t="str">
         <f>IF(R42="","",R42)</f>
         <v/>
       </c>
-      <c r="G41" s="583"/>
+      <c r="G41" s="646"/>
       <c r="H41" s="42"/>
       <c r="I41" s="42"/>
       <c r="J41" s="42"/>
@@ -18953,11 +19117,11 @@
       <c r="E42" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="583" t="str">
+      <c r="F42" s="646" t="str">
         <f>IF(R43="","",R43)</f>
         <v/>
       </c>
-      <c r="G42" s="583"/>
+      <c r="G42" s="646"/>
       <c r="H42" s="42"/>
       <c r="I42" s="42"/>
       <c r="J42" s="42"/>
@@ -19715,10 +19879,10 @@
       <c r="I69" s="345"/>
       <c r="J69" s="345"/>
       <c r="K69" s="345"/>
-      <c r="L69" s="586" t="s">
+      <c r="L69" s="647" t="s">
         <v>84</v>
       </c>
-      <c r="M69" s="587"/>
+      <c r="M69" s="648"/>
       <c r="O69" s="56"/>
       <c r="P69" s="17" t="s">
         <v>85</v>
@@ -20216,12 +20380,12 @@
       <c r="AA81" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="AB81" s="659"/>
+      <c r="AB81" s="599"/>
       <c r="AC81" s="29" t="str">
         <f t="shared" si="8"/>
         <v>Change</v>
       </c>
-      <c r="AD81" s="658">
+      <c r="AD81" s="598">
         <f>IF(V101="","",V101)</f>
         <v>43670</v>
       </c>
@@ -20259,12 +20423,12 @@
       <c r="AA82" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="AB82" s="659"/>
+      <c r="AB82" s="599"/>
       <c r="AC82" s="29" t="str">
         <f t="shared" si="8"/>
         <v>Change</v>
       </c>
-      <c r="AD82" s="658">
+      <c r="AD82" s="598">
         <f>IF(V102="","",V102)</f>
         <v>44036</v>
       </c>
@@ -20963,11 +21127,11 @@
       </c>
       <c r="T99" s="77"/>
       <c r="U99" s="7"/>
-      <c r="V99" s="637" t="str">
+      <c r="V99" s="582" t="str">
         <f>IF(W99&lt;&gt;"",W99,IF(AB79="","",AB79))</f>
         <v>Auto</v>
       </c>
-      <c r="W99" s="638" t="s">
+      <c r="W99" s="583" t="s">
         <v>142</v>
       </c>
       <c r="X99" s="76" t="s">
@@ -21025,11 +21189,11 @@
         <v>145</v>
       </c>
       <c r="T100" s="53"/>
-      <c r="V100" s="635" t="str">
+      <c r="V100" s="580" t="str">
         <f>IF(W100&lt;&gt;"",W100,IF(AB80="","",AB80))</f>
         <v>Radcal 9010</v>
       </c>
-      <c r="W100" s="636" t="s">
+      <c r="W100" s="581" t="s">
         <v>456</v>
       </c>
       <c r="X100" s="1" t="s">
@@ -21083,11 +21247,11 @@
       <c r="Q101" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="V101" s="652">
+      <c r="V101" s="592">
         <f>IF(W101&lt;&gt;"",W101,IF(AB81="","",AB81))</f>
         <v>43670</v>
       </c>
-      <c r="W101" s="653">
+      <c r="W101" s="593">
         <v>43670</v>
       </c>
       <c r="X101" s="1" t="s">
@@ -21143,11 +21307,11 @@
       <c r="Q102" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="V102" s="652">
+      <c r="V102" s="592">
         <f>IF(W102&lt;&gt;"",W102,IF(AB82="","",AB82))</f>
         <v>44036</v>
       </c>
-      <c r="W102" s="653">
+      <c r="W102" s="593">
         <v>44036</v>
       </c>
       <c r="X102" s="1" t="s">
@@ -21388,24 +21552,24 @@
       <c r="P107" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="Q107" s="588" t="str">
+      <c r="Q107" s="649" t="str">
         <f>IF(Q106&lt;&gt;"",Q106,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R107" s="588"/>
-      <c r="S107" s="588"/>
-      <c r="T107" s="589" t="str">
+      <c r="R107" s="649"/>
+      <c r="S107" s="649"/>
+      <c r="T107" s="650" t="str">
         <f>IF(T106&lt;&gt;"",T106,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v>Auto 2</v>
       </c>
-      <c r="U107" s="589"/>
-      <c r="V107" s="589"/>
-      <c r="W107" s="589" t="str">
+      <c r="U107" s="650"/>
+      <c r="V107" s="650"/>
+      <c r="W107" s="650" t="str">
         <f>IF(W106&lt;&gt;"",W106,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v>High Level</v>
       </c>
-      <c r="X107" s="589"/>
-      <c r="Y107" s="589"/>
+      <c r="X107" s="650"/>
+      <c r="Y107" s="650"/>
       <c r="AA107" s="2" t="s">
         <v>153</v>
       </c>
@@ -21928,7 +22092,7 @@
         <v/>
       </c>
       <c r="AD114" s="61" t="str">
-        <f>IF(T190="","",T190)</f>
+        <f t="shared" ref="AD114:AD128" si="19">IF(T190="","",T190)</f>
         <v/>
       </c>
     </row>
@@ -22008,7 +22172,7 @@
         <v/>
       </c>
       <c r="AD115" s="61" t="str">
-        <f>IF(T191="","",T191)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -22089,7 +22253,7 @@
         <v/>
       </c>
       <c r="AD116" s="61" t="str">
-        <f>IF(T192="","",T192)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -22167,7 +22331,7 @@
         <v/>
       </c>
       <c r="AD117" s="61" t="str">
-        <f>IF(T193="","",T193)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -22247,7 +22411,7 @@
         <v/>
       </c>
       <c r="AD118" s="61" t="str">
-        <f>IF(T194="","",T194)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -22320,7 +22484,7 @@
         <v/>
       </c>
       <c r="AD119" s="61" t="str">
-        <f>IF(T195="","",T195)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -22392,7 +22556,7 @@
         <v/>
       </c>
       <c r="AD120" s="61" t="str">
-        <f>IF(T196="","",T196)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -22472,7 +22636,7 @@
         <v/>
       </c>
       <c r="AD121" s="61" t="str">
-        <f>IF(T197="","",T197)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -22553,7 +22717,7 @@
         <v/>
       </c>
       <c r="AD122" s="61" t="str">
-        <f>IF(T198="","",T198)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -22631,7 +22795,7 @@
         <v/>
       </c>
       <c r="AD123" s="61" t="str">
-        <f>IF(T199="","",T199)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -22709,7 +22873,7 @@
         <v/>
       </c>
       <c r="AD124" s="61" t="str">
-        <f>IF(T200="","",T200)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -22788,7 +22952,7 @@
         <v/>
       </c>
       <c r="AD125" s="61" t="str">
-        <f>IF(T201="","",T201)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -22843,7 +23007,7 @@
         <v/>
       </c>
       <c r="AD126" s="61" t="str">
-        <f>IF(T202="","",T202)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -22878,7 +23042,7 @@
         <v/>
       </c>
       <c r="AD127" s="61" t="str">
-        <f>IF(T203="","",T203)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -22913,7 +23077,7 @@
         <v/>
       </c>
       <c r="AD128" s="61" t="str">
-        <f>IF(T204="","",T204)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -22972,11 +23136,11 @@
       </c>
       <c r="AB130" s="40"/>
       <c r="AC130" s="29" t="str">
-        <f t="shared" ref="AC130:AC144" si="19">IF(AB130&lt;&gt;AD130,"Change","")</f>
+        <f t="shared" ref="AC130:AC144" si="20">IF(AB130&lt;&gt;AD130,"Change","")</f>
         <v/>
       </c>
       <c r="AD130" s="61" t="str">
-        <f>IF(T214="","",T214)</f>
+        <f t="shared" ref="AD130:AD144" si="21">IF(T214="","",T214)</f>
         <v/>
       </c>
     </row>
@@ -23012,11 +23176,11 @@
       </c>
       <c r="AB131" s="40"/>
       <c r="AC131" s="29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD131" s="61" t="str">
-        <f>IF(T215="","",T215)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -23049,11 +23213,11 @@
       </c>
       <c r="AB132" s="40"/>
       <c r="AC132" s="29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD132" s="61" t="str">
-        <f>IF(T216="","",T216)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -23087,11 +23251,11 @@
       </c>
       <c r="AB133" s="40"/>
       <c r="AC133" s="29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD133" s="61" t="str">
-        <f>IF(T217="","",T217)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -23129,11 +23293,11 @@
       </c>
       <c r="AB134" s="40"/>
       <c r="AC134" s="29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD134" s="61" t="str">
-        <f>IF(T218="","",T218)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -23174,11 +23338,11 @@
       </c>
       <c r="AB135" s="40"/>
       <c r="AC135" s="29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD135" s="61" t="str">
-        <f>IF(T219="","",T219)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -23220,11 +23384,11 @@
       </c>
       <c r="AB136" s="40"/>
       <c r="AC136" s="29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD136" s="61" t="str">
-        <f>IF(T220="","",T220)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -23270,11 +23434,11 @@
       </c>
       <c r="AB137" s="40"/>
       <c r="AC137" s="29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD137" s="61" t="str">
-        <f>IF(T221="","",T221)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -23338,11 +23502,11 @@
       </c>
       <c r="AB138" s="40"/>
       <c r="AC138" s="29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD138" s="61" t="str">
-        <f>IF(T222="","",T222)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -23388,35 +23552,35 @@
       <c r="P139" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="Q139" s="588" t="str">
+      <c r="Q139" s="649" t="str">
         <f>IF(Q138&lt;&gt;"",Q138,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R139" s="588"/>
-      <c r="S139" s="588"/>
-      <c r="T139" s="589" t="str">
+      <c r="R139" s="649"/>
+      <c r="S139" s="649"/>
+      <c r="T139" s="650" t="str">
         <f>IF(T138&lt;&gt;"",T138,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v>Auto 2</v>
       </c>
-      <c r="U139" s="589"/>
-      <c r="V139" s="589"/>
-      <c r="W139" s="589" t="str">
+      <c r="U139" s="650"/>
+      <c r="V139" s="650"/>
+      <c r="W139" s="650" t="str">
         <f>IF(W138&lt;&gt;"",W138,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v>High Level</v>
       </c>
-      <c r="X139" s="589"/>
-      <c r="Y139" s="589"/>
+      <c r="X139" s="650"/>
+      <c r="Y139" s="650"/>
       <c r="AA139" s="2" t="str">
         <f>$T$139&amp;" Mag 4"</f>
         <v>Auto 2 Mag 4</v>
       </c>
       <c r="AB139" s="40"/>
       <c r="AC139" s="29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD139" s="61" t="str">
-        <f>IF(T223="","",T223)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -23491,11 +23655,11 @@
       </c>
       <c r="AB140" s="40"/>
       <c r="AC140" s="29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD140" s="61" t="str">
-        <f>IF(T224="","",T224)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -23577,11 +23741,11 @@
       </c>
       <c r="AB141" s="40"/>
       <c r="AC141" s="29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD141" s="61" t="str">
-        <f>IF(T225="","",T225)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -23659,11 +23823,11 @@
       </c>
       <c r="AB142" s="40"/>
       <c r="AC142" s="29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD142" s="61" t="str">
-        <f>IF(T226="","",T226)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -23738,11 +23902,11 @@
       </c>
       <c r="AB143" s="40"/>
       <c r="AC143" s="29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD143" s="61" t="str">
-        <f>IF(T227="","",T227)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -23819,11 +23983,11 @@
       </c>
       <c r="AB144" s="40"/>
       <c r="AC144" s="29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD144" s="61" t="str">
-        <f>IF(T228="","",T228)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -24716,7 +24880,7 @@
       </c>
       <c r="AB157" s="40"/>
       <c r="AC157" s="29" t="str">
-        <f t="shared" ref="AC157:AC188" si="20">IF(AB157&lt;&gt;AD157,"Change","")</f>
+        <f t="shared" ref="AC157:AC188" si="22">IF(AB157&lt;&gt;AD157,"Change","")</f>
         <v>Change</v>
       </c>
       <c r="AD157" s="61">
@@ -24770,7 +24934,7 @@
       </c>
       <c r="AB158" s="40"/>
       <c r="AC158" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD158" s="61" t="str">
@@ -24804,7 +24968,7 @@
       </c>
       <c r="AB159" s="40"/>
       <c r="AC159" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD159" s="61" t="str">
@@ -24838,7 +25002,7 @@
       </c>
       <c r="AB160" s="40"/>
       <c r="AC160" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD160" s="61" t="str">
@@ -24872,7 +25036,7 @@
       </c>
       <c r="AB161" s="40"/>
       <c r="AC161" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD161" s="61" t="str">
@@ -24906,7 +25070,7 @@
       </c>
       <c r="AB162" s="40"/>
       <c r="AC162" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD162" s="61" t="str">
@@ -24943,7 +25107,7 @@
       </c>
       <c r="AB163" s="40"/>
       <c r="AC163" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD163" s="61" t="str">
@@ -24977,7 +25141,7 @@
       </c>
       <c r="AB164" s="40"/>
       <c r="AC164" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD164" s="61" t="str">
@@ -25022,7 +25186,7 @@
       </c>
       <c r="AB165" s="40"/>
       <c r="AC165" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD165" s="61" t="str">
@@ -25067,7 +25231,7 @@
       </c>
       <c r="AB166" s="40"/>
       <c r="AC166" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD166" s="61" t="str">
@@ -25109,7 +25273,7 @@
       </c>
       <c r="AB167" s="40"/>
       <c r="AC167" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD167" s="61" t="str">
@@ -25149,7 +25313,7 @@
       </c>
       <c r="AB168" s="40"/>
       <c r="AC168" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD168" s="41" t="str">
@@ -25191,7 +25355,7 @@
       </c>
       <c r="AB169" s="40"/>
       <c r="AC169" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD169" s="41" t="str">
@@ -25229,7 +25393,7 @@
       </c>
       <c r="AB170" s="40"/>
       <c r="AC170" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD170" s="41" t="str">
@@ -25262,7 +25426,7 @@
       </c>
       <c r="AB171" s="40"/>
       <c r="AC171" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD171" s="41" t="str">
@@ -25307,7 +25471,7 @@
       </c>
       <c r="AB172" s="40"/>
       <c r="AC172" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD172" s="41" t="str">
@@ -25360,7 +25524,7 @@
       </c>
       <c r="AB173" s="40"/>
       <c r="AC173" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD173" s="41" t="str">
@@ -25399,7 +25563,7 @@
         <v/>
       </c>
       <c r="V174" s="129" t="str">
-        <f t="shared" ref="V174:V179" si="21">IF(U174="","",ABS(U174-$U$174/2))</f>
+        <f t="shared" ref="V174:V179" si="23">IF(U174="","",ABS(U174-$U$174/2))</f>
         <v/>
       </c>
       <c r="W174" s="129" t="str">
@@ -25416,11 +25580,11 @@
       </c>
       <c r="AB174" s="40"/>
       <c r="AC174" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD174" s="41" t="str">
-        <f>IF(Q331="","",Q331)</f>
+        <f t="shared" ref="AD174:AD185" si="24">IF(Q331="","",Q331)</f>
         <v/>
       </c>
     </row>
@@ -25453,7 +25617,7 @@
         <v/>
       </c>
       <c r="V175" s="129" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W175" s="129" t="str">
@@ -25466,11 +25630,11 @@
       </c>
       <c r="AB175" s="40"/>
       <c r="AC175" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD175" s="41" t="str">
-        <f>IF(Q332="","",Q332)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -25506,7 +25670,7 @@
         <v/>
       </c>
       <c r="V176" s="129" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Y176" s="14"/>
@@ -25515,11 +25679,11 @@
       </c>
       <c r="AB176" s="40"/>
       <c r="AC176" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD176" s="41" t="str">
-        <f>IF(Q333="","",Q333)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -25552,7 +25716,7 @@
         <v/>
       </c>
       <c r="V177" s="129" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W177" s="1" t="s">
@@ -25567,11 +25731,11 @@
       </c>
       <c r="AB177" s="40"/>
       <c r="AC177" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD177" s="41" t="str">
-        <f>IF(Q334="","",Q334)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -25607,7 +25771,7 @@
         <v/>
       </c>
       <c r="V178" s="129" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W178" s="129" t="str">
@@ -25624,11 +25788,11 @@
       </c>
       <c r="AB178" s="40"/>
       <c r="AC178" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD178" s="41" t="str">
-        <f>IF(Q335="","",Q335)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -25661,7 +25825,7 @@
         <v/>
       </c>
       <c r="V179" s="129" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W179" s="129" t="str">
@@ -25678,11 +25842,11 @@
       </c>
       <c r="AB179" s="40"/>
       <c r="AC179" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD179" s="41" t="str">
-        <f>IF(Q336="","",Q336)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -25723,11 +25887,11 @@
       </c>
       <c r="AB180" s="40"/>
       <c r="AC180" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD180" s="41" t="str">
-        <f>IF(Q337="","",Q337)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -25751,10 +25915,10 @@
       <c r="P181" s="135"/>
       <c r="Q181" s="137"/>
       <c r="R181" s="128"/>
-      <c r="T181" s="590" t="s">
+      <c r="T181" s="633" t="s">
         <v>245</v>
       </c>
-      <c r="U181" s="590"/>
+      <c r="U181" s="633"/>
       <c r="W181" s="2" t="s">
         <v>199</v>
       </c>
@@ -25768,11 +25932,11 @@
       </c>
       <c r="AB181" s="40"/>
       <c r="AC181" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD181" s="41" t="str">
-        <f>IF(Q338="","",Q338)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -25812,11 +25976,11 @@
       </c>
       <c r="AB182" s="40"/>
       <c r="AC182" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD182" s="41" t="str">
-        <f>IF(Q339="","",Q339)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -25861,11 +26025,11 @@
       </c>
       <c r="AB183" s="40"/>
       <c r="AC183" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD183" s="41" t="str">
-        <f>IF(Q340="","",Q340)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -25907,11 +26071,11 @@
       </c>
       <c r="AB184" s="40"/>
       <c r="AC184" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD184" s="41" t="str">
-        <f>IF(Q341="","",Q341)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -25938,11 +26102,11 @@
       </c>
       <c r="AB185" s="40"/>
       <c r="AC185" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD185" s="41" t="str">
-        <f>IF(Q342="","",Q342)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -25980,11 +26144,11 @@
       </c>
       <c r="AB186" s="40"/>
       <c r="AC186" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD186" s="41" t="str">
-        <f>IF(R331="","",R331)</f>
+        <f t="shared" ref="AD186:AD197" si="25">IF(R331="","",R331)</f>
         <v/>
       </c>
     </row>
@@ -26011,11 +26175,11 @@
       </c>
       <c r="AB187" s="40"/>
       <c r="AC187" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD187" s="41" t="str">
-        <f>IF(R332="","",R332)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -26050,11 +26214,11 @@
       </c>
       <c r="AB188" s="40"/>
       <c r="AC188" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD188" s="41" t="str">
-        <f>IF(R333="","",R333)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -26101,11 +26265,11 @@
       </c>
       <c r="AB189" s="40"/>
       <c r="AC189" s="29" t="str">
-        <f t="shared" ref="AC189:AC220" si="22">IF(AB189&lt;&gt;AD189,"Change","")</f>
+        <f t="shared" ref="AC189:AC220" si="26">IF(AB189&lt;&gt;AD189,"Change","")</f>
         <v/>
       </c>
       <c r="AD189" s="41" t="str">
-        <f>IF(R334="","",R334)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -26125,7 +26289,7 @@
       <c r="K190" s="369"/>
       <c r="L190" s="369"/>
       <c r="M190" s="373"/>
-      <c r="O190" s="591" t="str">
+      <c r="O190" s="641" t="str">
         <f>$Q$107</f>
         <v>Auto 1</v>
       </c>
@@ -26138,7 +26302,7 @@
       <c r="S190" s="142"/>
       <c r="T190" s="141"/>
       <c r="U190" s="143" t="str">
-        <f>IF(AB114="","",AB114)</f>
+        <f t="shared" ref="U190:U204" si="27">IF(AB114="","",AB114)</f>
         <v/>
       </c>
       <c r="V190" s="53"/>
@@ -26151,11 +26315,11 @@
       </c>
       <c r="AB190" s="40"/>
       <c r="AC190" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD190" s="41" t="str">
-        <f>IF(R335="","",R335)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -26175,7 +26339,7 @@
       <c r="K191" s="369"/>
       <c r="L191" s="369"/>
       <c r="M191" s="349"/>
-      <c r="O191" s="591"/>
+      <c r="O191" s="641"/>
       <c r="P191" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -26185,7 +26349,7 @@
       <c r="S191" s="145"/>
       <c r="T191" s="144"/>
       <c r="U191" s="146" t="str">
-        <f>IF(AB115="","",AB115)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="W191" s="105" t="s">
@@ -26197,11 +26361,11 @@
       </c>
       <c r="AB191" s="40"/>
       <c r="AC191" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD191" s="41" t="str">
-        <f>IF(R336="","",R336)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -26221,7 +26385,7 @@
       <c r="K192" s="135"/>
       <c r="L192" s="135"/>
       <c r="M192" s="349"/>
-      <c r="O192" s="591"/>
+      <c r="O192" s="641"/>
       <c r="P192" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -26231,7 +26395,7 @@
       <c r="S192" s="145"/>
       <c r="T192" s="144"/>
       <c r="U192" s="146" t="str">
-        <f>IF(AB116="","",AB116)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="W192" s="105" t="s">
@@ -26243,11 +26407,11 @@
       </c>
       <c r="AB192" s="40"/>
       <c r="AC192" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD192" s="41" t="str">
-        <f>IF(R337="","",R337)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -26267,7 +26431,7 @@
       <c r="K193" s="135"/>
       <c r="L193" s="135"/>
       <c r="M193" s="349"/>
-      <c r="O193" s="591"/>
+      <c r="O193" s="641"/>
       <c r="P193" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -26277,7 +26441,7 @@
       <c r="S193" s="145"/>
       <c r="T193" s="144"/>
       <c r="U193" s="146" t="str">
-        <f>IF(AB117="","",AB117)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Y193" s="14"/>
@@ -26286,11 +26450,11 @@
       </c>
       <c r="AB193" s="40"/>
       <c r="AC193" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD193" s="41" t="str">
-        <f>IF(R338="","",R338)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -26310,7 +26474,7 @@
       <c r="K194" s="135"/>
       <c r="L194" s="135"/>
       <c r="M194" s="349"/>
-      <c r="O194" s="591"/>
+      <c r="O194" s="641"/>
       <c r="P194" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -26320,7 +26484,7 @@
       <c r="S194" s="147"/>
       <c r="T194" s="134"/>
       <c r="U194" s="148" t="str">
-        <f>IF(AB118="","",AB118)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Y194" s="14"/>
@@ -26329,11 +26493,11 @@
       </c>
       <c r="AB194" s="40"/>
       <c r="AC194" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD194" s="41" t="str">
-        <f>IF(R339="","",R339)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -26353,7 +26517,7 @@
       <c r="K195" s="135"/>
       <c r="L195" s="135"/>
       <c r="M195" s="349"/>
-      <c r="O195" s="591" t="str">
+      <c r="O195" s="641" t="str">
         <f>$T$107</f>
         <v>Auto 2</v>
       </c>
@@ -26366,7 +26530,7 @@
       <c r="S195" s="142"/>
       <c r="T195" s="141"/>
       <c r="U195" s="143" t="str">
-        <f>IF(AB119="","",AB119)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Y195" s="14"/>
@@ -26375,11 +26539,11 @@
       </c>
       <c r="AB195" s="40"/>
       <c r="AC195" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD195" s="41" t="str">
-        <f>IF(R340="","",R340)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -26399,7 +26563,7 @@
       <c r="K196" s="351"/>
       <c r="L196" s="351"/>
       <c r="M196" s="352"/>
-      <c r="O196" s="591"/>
+      <c r="O196" s="641"/>
       <c r="P196" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -26409,7 +26573,7 @@
       <c r="S196" s="145"/>
       <c r="T196" s="144"/>
       <c r="U196" s="146" t="str">
-        <f>IF(AB120="","",AB120)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Y196" s="14"/>
@@ -26418,11 +26582,11 @@
       </c>
       <c r="AB196" s="40"/>
       <c r="AC196" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD196" s="41" t="str">
-        <f>IF(R341="","",R341)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -26444,7 +26608,7 @@
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="O197" s="591"/>
+      <c r="O197" s="641"/>
       <c r="P197" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -26454,7 +26618,7 @@
       <c r="S197" s="145"/>
       <c r="T197" s="144"/>
       <c r="U197" s="146" t="str">
-        <f>IF(AB121="","",AB121)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Y197" s="14"/>
@@ -26463,11 +26627,11 @@
       </c>
       <c r="AB197" s="40"/>
       <c r="AC197" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD197" s="41" t="str">
-        <f>IF(R342="","",R342)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -26489,7 +26653,7 @@
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
-      <c r="O198" s="591"/>
+      <c r="O198" s="641"/>
       <c r="P198" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -26499,7 +26663,7 @@
       <c r="S198" s="145"/>
       <c r="T198" s="144"/>
       <c r="U198" s="146" t="str">
-        <f>IF(AB122="","",AB122)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Y198" s="14"/>
@@ -26508,11 +26672,11 @@
       </c>
       <c r="AB198" s="40"/>
       <c r="AC198" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD198" s="41" t="str">
-        <f>IF(S331="","",S331)</f>
+        <f t="shared" ref="AD198:AD209" si="28">IF(S331="","",S331)</f>
         <v/>
       </c>
     </row>
@@ -26535,7 +26699,7 @@
         <f>$H$2</f>
         <v>Medical University of South Carolina</v>
       </c>
-      <c r="O199" s="591"/>
+      <c r="O199" s="641"/>
       <c r="P199" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -26545,7 +26709,7 @@
       <c r="S199" s="147"/>
       <c r="T199" s="134"/>
       <c r="U199" s="148" t="str">
-        <f>IF(AB123="","",AB123)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Y199" s="14"/>
@@ -26554,11 +26718,11 @@
       </c>
       <c r="AB199" s="40"/>
       <c r="AC199" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD199" s="41" t="str">
-        <f>IF(S332="","",S332)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -26584,7 +26748,7 @@
         <f>$H$5</f>
         <v>Fluoroscopy System Compliance Inspection</v>
       </c>
-      <c r="O200" s="591" t="str">
+      <c r="O200" s="641" t="str">
         <f>$W$107</f>
         <v>High Level</v>
       </c>
@@ -26597,7 +26761,7 @@
       <c r="S200" s="142"/>
       <c r="T200" s="141"/>
       <c r="U200" s="143" t="str">
-        <f>IF(AB124="","",AB124)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Y200" s="14"/>
@@ -26606,11 +26770,11 @@
       </c>
       <c r="AB200" s="40"/>
       <c r="AC200" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD200" s="41" t="str">
-        <f>IF(S333="","",S333)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -26633,7 +26797,7 @@
       <c r="K201" s="345"/>
       <c r="L201" s="345"/>
       <c r="M201" s="346"/>
-      <c r="O201" s="591"/>
+      <c r="O201" s="641"/>
       <c r="P201" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -26643,7 +26807,7 @@
       <c r="S201" s="145"/>
       <c r="T201" s="144"/>
       <c r="U201" s="146" t="str">
-        <f>IF(AB125="","",AB125)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Y201" s="14"/>
@@ -26652,11 +26816,11 @@
       </c>
       <c r="AB201" s="40"/>
       <c r="AC201" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD201" s="41" t="str">
-        <f>IF(S334="","",S334)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -26687,7 +26851,7 @@
         <v/>
       </c>
       <c r="M202" s="12"/>
-      <c r="O202" s="591"/>
+      <c r="O202" s="641"/>
       <c r="P202" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -26697,7 +26861,7 @@
       <c r="S202" s="145"/>
       <c r="T202" s="144"/>
       <c r="U202" s="146" t="str">
-        <f>IF(AB126="","",AB126)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Y202" s="14"/>
@@ -26706,11 +26870,11 @@
       </c>
       <c r="AB202" s="40"/>
       <c r="AC202" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD202" s="41" t="str">
-        <f>IF(S335="","",S335)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -26720,7 +26884,7 @@
       </c>
       <c r="B203" s="10"/>
       <c r="M203" s="12"/>
-      <c r="O203" s="591"/>
+      <c r="O203" s="641"/>
       <c r="P203" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -26730,7 +26894,7 @@
       <c r="S203" s="145"/>
       <c r="T203" s="144"/>
       <c r="U203" s="146" t="str">
-        <f>IF(AB127="","",AB127)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Y203" s="14"/>
@@ -26739,11 +26903,11 @@
       </c>
       <c r="AB203" s="40"/>
       <c r="AC203" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD203" s="41" t="str">
-        <f>IF(S336="","",S336)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -26754,20 +26918,20 @@
       <c r="B204" s="347"/>
       <c r="C204" s="397"/>
       <c r="D204" s="369"/>
-      <c r="E204" s="592" t="s">
+      <c r="E204" s="600" t="s">
         <v>262</v>
       </c>
-      <c r="F204" s="593" t="s">
+      <c r="F204" s="602" t="s">
         <v>263</v>
       </c>
       <c r="G204" s="577" t="s">
         <v>264</v>
       </c>
-      <c r="H204" s="592" t="str">
+      <c r="H204" s="600" t="str">
         <f>R276</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="I204" s="647" t="str">
+      <c r="I204" s="604" t="str">
         <f>S276</f>
         <v>Meas AK @ Ref Pt (mGy)</v>
       </c>
@@ -26780,10 +26944,10 @@
       <c r="L204" s="135" t="s">
         <v>267</v>
       </c>
-      <c r="M204" s="594" t="s">
+      <c r="M204" s="606" t="s">
         <v>268</v>
       </c>
-      <c r="O204" s="591"/>
+      <c r="O204" s="641"/>
       <c r="P204" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -26793,7 +26957,7 @@
       <c r="S204" s="147"/>
       <c r="T204" s="134"/>
       <c r="U204" s="148" t="str">
-        <f>IF(AB128="","",AB128)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Y204" s="14"/>
@@ -26802,11 +26966,11 @@
       </c>
       <c r="AB204" s="40"/>
       <c r="AC204" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD204" s="41" t="str">
-        <f>IF(S337="","",S337)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -26821,11 +26985,11 @@
       <c r="D205" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="E205" s="645"/>
-      <c r="F205" s="646"/>
+      <c r="E205" s="601"/>
+      <c r="F205" s="603"/>
       <c r="G205" s="577"/>
-      <c r="H205" s="645"/>
-      <c r="I205" s="648"/>
+      <c r="H205" s="601"/>
+      <c r="I205" s="605"/>
       <c r="J205" s="578"/>
       <c r="K205" s="135" t="str">
         <f>U277</f>
@@ -26835,7 +26999,7 @@
         <f>V277</f>
         <v>mGy/min</v>
       </c>
-      <c r="M205" s="649"/>
+      <c r="M205" s="607"/>
       <c r="O205" s="13"/>
       <c r="Y205" s="14"/>
       <c r="AA205" s="2" t="s">
@@ -26843,11 +27007,11 @@
       </c>
       <c r="AB205" s="40"/>
       <c r="AC205" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD205" s="41" t="str">
-        <f>IF(S338="","",S338)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -26857,47 +27021,47 @@
       </c>
       <c r="B206" s="347"/>
       <c r="C206" s="401" t="str">
-        <f>IF(O258="","",O258)</f>
+        <f t="shared" ref="C206:D213" si="29">IF(O258="","",O258)</f>
         <v/>
       </c>
       <c r="D206" s="402" t="str">
-        <f>IF(P258="","",P258)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E206" s="401" t="str">
-        <f>IF(O278="","",O278)</f>
+        <f t="shared" ref="E206:M213" si="30">IF(O278="","",O278)</f>
         <v/>
       </c>
       <c r="F206" s="407" t="str">
-        <f>IF(P278="","",P278)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="G206" s="573" t="str">
-        <f>IF(Q278="","",Q278)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="H206" s="401" t="str">
-        <f>IF(R278="","",R278)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I206" s="407" t="str">
-        <f>IF(S278="","",S278)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J206" s="573" t="str">
-        <f>IF(T278="","",T278)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="K206" s="401" t="str">
-        <f>IF(U278="","",U278)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="L206" s="407" t="str">
-        <f>IF(V278="","",V278)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="M206" s="410" t="str">
-        <f>IF(W278="","",W278)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="O206" s="13"/>
@@ -26921,11 +27085,11 @@
       </c>
       <c r="AB206" s="40"/>
       <c r="AC206" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD206" s="41" t="str">
-        <f>IF(S339="","",S339)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -26935,47 +27099,47 @@
       </c>
       <c r="B207" s="347"/>
       <c r="C207" s="403" t="str">
-        <f>IF(O259="","",O259)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="D207" s="404" t="str">
-        <f>IF(P259="","",P259)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E207" s="403" t="str">
-        <f>IF(O279="","",O279)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="F207" s="408" t="str">
-        <f>IF(P279="","",P279)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="G207" s="574" t="str">
-        <f>IF(Q279="","",Q279)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="H207" s="403" t="str">
-        <f>IF(R279="","",R279)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I207" s="408" t="str">
-        <f>IF(S279="","",S279)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J207" s="574" t="str">
-        <f>IF(T279="","",T279)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="K207" s="403" t="str">
-        <f>IF(U279="","",U279)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="L207" s="408" t="str">
-        <f>IF(V279="","",V279)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="M207" s="411" t="str">
-        <f>IF(W279="","",W279)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="O207" s="13"/>
@@ -26996,11 +27160,11 @@
       </c>
       <c r="AB207" s="40"/>
       <c r="AC207" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD207" s="41" t="str">
-        <f>IF(S340="","",S340)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -27010,47 +27174,47 @@
       </c>
       <c r="B208" s="347"/>
       <c r="C208" s="403" t="str">
-        <f>IF(O260="","",O260)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="D208" s="404" t="str">
-        <f>IF(P260="","",P260)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E208" s="403" t="str">
-        <f>IF(O280="","",O280)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="F208" s="408" t="str">
-        <f>IF(P280="","",P280)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="G208" s="574" t="str">
-        <f>IF(Q280="","",Q280)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="H208" s="403" t="str">
-        <f>IF(R280="","",R280)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I208" s="408" t="str">
-        <f>IF(S280="","",S280)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J208" s="574" t="str">
-        <f>IF(T280="","",T280)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="K208" s="403" t="str">
-        <f>IF(U280="","",U280)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="L208" s="408" t="str">
-        <f>IF(V280="","",V280)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="M208" s="411" t="str">
-        <f>IF(W280="","",W280)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="O208" s="13"/>
@@ -27071,11 +27235,11 @@
       </c>
       <c r="AB208" s="40"/>
       <c r="AC208" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD208" s="41" t="str">
-        <f>IF(S341="","",S341)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -27085,47 +27249,47 @@
       </c>
       <c r="B209" s="347"/>
       <c r="C209" s="403" t="str">
-        <f>IF(O261="","",O261)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="D209" s="404" t="str">
-        <f>IF(P261="","",P261)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E209" s="403" t="str">
-        <f>IF(O281="","",O281)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="F209" s="408" t="str">
-        <f>IF(P281="","",P281)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="G209" s="574" t="str">
-        <f>IF(Q281="","",Q281)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="H209" s="403" t="str">
-        <f>IF(R281="","",R281)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I209" s="408" t="str">
-        <f>IF(S281="","",S281)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J209" s="574" t="str">
-        <f>IF(T281="","",T281)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="K209" s="403" t="str">
-        <f>IF(U281="","",U281)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="L209" s="408" t="str">
-        <f>IF(V281="","",V281)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="M209" s="411" t="str">
-        <f>IF(W281="","",W281)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="O209" s="21"/>
@@ -27144,11 +27308,11 @@
       </c>
       <c r="AB209" s="40"/>
       <c r="AC209" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD209" s="41" t="str">
-        <f>IF(S342="","",S342)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -27158,47 +27322,47 @@
       </c>
       <c r="B210" s="347"/>
       <c r="C210" s="403" t="str">
-        <f>IF(O262="","",O262)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="D210" s="404" t="str">
-        <f>IF(P262="","",P262)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E210" s="403" t="str">
-        <f>IF(O282="","",O282)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="F210" s="408" t="str">
-        <f>IF(P282="","",P282)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="G210" s="574" t="str">
-        <f>IF(Q282="","",Q282)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="H210" s="403" t="str">
-        <f>IF(R282="","",R282)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I210" s="408" t="str">
-        <f>IF(S282="","",S282)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J210" s="574" t="str">
-        <f>IF(T282="","",T282)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="K210" s="403" t="str">
-        <f>IF(U282="","",U282)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="L210" s="408" t="str">
-        <f>IF(V282="","",V282)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="M210" s="411" t="str">
-        <f>IF(W282="","",W282)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="O210" s="115" t="str">
@@ -27220,11 +27384,11 @@
       </c>
       <c r="AB210" s="40"/>
       <c r="AC210" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD210" s="41" t="str">
-        <f>IF(T331="","",T331)</f>
+        <f t="shared" ref="AD210:AD221" si="31">IF(T331="","",T331)</f>
         <v/>
       </c>
     </row>
@@ -27234,47 +27398,47 @@
       </c>
       <c r="B211" s="347"/>
       <c r="C211" s="403" t="str">
-        <f>IF(O263="","",O263)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="D211" s="404" t="str">
-        <f>IF(P263="","",P263)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E211" s="403" t="str">
-        <f>IF(O283="","",O283)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="F211" s="408" t="str">
-        <f>IF(P283="","",P283)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="G211" s="574" t="str">
-        <f>IF(Q283="","",Q283)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="H211" s="403" t="str">
-        <f>IF(R283="","",R283)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I211" s="408" t="str">
-        <f>IF(S283="","",S283)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J211" s="574" t="str">
-        <f>IF(T283="","",T283)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="K211" s="403" t="str">
-        <f>IF(U283="","",U283)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="L211" s="408" t="str">
-        <f>IF(V283="","",V283)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="M211" s="411" t="str">
-        <f>IF(W283="","",W283)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="O211" s="13"/>
@@ -27284,11 +27448,11 @@
       </c>
       <c r="AB211" s="40"/>
       <c r="AC211" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD211" s="41" t="str">
-        <f>IF(T332="","",T332)</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
@@ -27298,47 +27462,47 @@
       </c>
       <c r="B212" s="347"/>
       <c r="C212" s="403" t="str">
-        <f>IF(O264="","",O264)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="D212" s="404" t="str">
-        <f>IF(P264="","",P264)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E212" s="403" t="str">
-        <f>IF(O284="","",O284)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="F212" s="408" t="str">
-        <f>IF(P284="","",P284)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="G212" s="574" t="str">
-        <f>IF(Q284="","",Q284)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="H212" s="403" t="str">
-        <f>IF(R284="","",R284)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I212" s="408" t="str">
-        <f>IF(S284="","",S284)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J212" s="574" t="str">
-        <f>IF(T284="","",T284)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="K212" s="403" t="str">
-        <f>IF(U284="","",U284)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="L212" s="408" t="str">
-        <f>IF(V284="","",V284)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="M212" s="411" t="str">
-        <f>IF(W284="","",W284)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="O212" s="13" t="s">
@@ -27356,11 +27520,11 @@
       </c>
       <c r="AB212" s="40"/>
       <c r="AC212" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD212" s="41" t="str">
-        <f>IF(T333="","",T333)</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
@@ -27370,47 +27534,47 @@
       </c>
       <c r="B213" s="347"/>
       <c r="C213" s="405" t="str">
-        <f>IF(O265="","",O265)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="D213" s="406" t="str">
-        <f>IF(P265="","",P265)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E213" s="405" t="str">
-        <f>IF(O285="","",O285)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="F213" s="409" t="str">
-        <f>IF(P285="","",P285)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="G213" s="575" t="str">
-        <f>IF(Q285="","",Q285)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="H213" s="405" t="str">
-        <f>IF(R285="","",R285)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I213" s="409" t="str">
-        <f>IF(S285="","",S285)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J213" s="575" t="str">
-        <f>IF(T285="","",T285)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="K213" s="405" t="str">
-        <f>IF(U285="","",U285)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="L213" s="409" t="str">
-        <f>IF(V285="","",V285)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="M213" s="412" t="str">
-        <f>IF(W285="","",W285)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="O213" s="13" t="s">
@@ -27440,11 +27604,11 @@
       </c>
       <c r="AB213" s="40"/>
       <c r="AC213" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD213" s="41" t="str">
-        <f>IF(T334="","",T334)</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
@@ -27479,7 +27643,7 @@
         <f>W286</f>
         <v/>
       </c>
-      <c r="O214" s="591" t="str">
+      <c r="O214" s="641" t="str">
         <f>$Q$139</f>
         <v>Auto 1</v>
       </c>
@@ -27492,7 +27656,7 @@
       <c r="S214" s="142"/>
       <c r="T214" s="141"/>
       <c r="U214" s="143" t="str">
-        <f>IF(AB130="","",AB130)</f>
+        <f t="shared" ref="U214:U228" si="32">IF(AB130="","",AB130)</f>
         <v/>
       </c>
       <c r="V214" s="53"/>
@@ -27505,11 +27669,11 @@
       </c>
       <c r="AB214" s="40"/>
       <c r="AC214" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD214" s="41" t="str">
-        <f>IF(T335="","",T335)</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
@@ -27535,7 +27699,7 @@
       <c r="K215" s="135"/>
       <c r="L215" s="135"/>
       <c r="M215" s="349"/>
-      <c r="O215" s="591"/>
+      <c r="O215" s="641"/>
       <c r="P215" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -27545,7 +27709,7 @@
       <c r="S215" s="145"/>
       <c r="T215" s="144"/>
       <c r="U215" s="146" t="str">
-        <f>IF(AB131="","",AB131)</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="W215" s="105" t="s">
@@ -27557,11 +27721,11 @@
       </c>
       <c r="AB215" s="40"/>
       <c r="AC215" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD215" s="41" t="str">
-        <f>IF(T336="","",T336)</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
@@ -27581,7 +27745,7 @@
       <c r="K216" s="369"/>
       <c r="L216" s="369"/>
       <c r="M216" s="349"/>
-      <c r="O216" s="591"/>
+      <c r="O216" s="641"/>
       <c r="P216" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -27591,7 +27755,7 @@
       <c r="S216" s="145"/>
       <c r="T216" s="144"/>
       <c r="U216" s="146" t="str">
-        <f>IF(AB132="","",AB132)</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="W216" s="105" t="s">
@@ -27603,11 +27767,11 @@
       </c>
       <c r="AB216" s="40"/>
       <c r="AC216" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD216" s="41" t="str">
-        <f>IF(T337="","",T337)</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
@@ -27627,7 +27791,7 @@
       <c r="K217" s="414"/>
       <c r="L217" s="414"/>
       <c r="M217" s="415"/>
-      <c r="O217" s="591"/>
+      <c r="O217" s="641"/>
       <c r="P217" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -27637,7 +27801,7 @@
       <c r="S217" s="145"/>
       <c r="T217" s="144"/>
       <c r="U217" s="146" t="str">
-        <f>IF(AB133="","",AB133)</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y217" s="14"/>
@@ -27646,11 +27810,11 @@
       </c>
       <c r="AB217" s="40"/>
       <c r="AC217" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD217" s="41" t="str">
-        <f>IF(T338="","",T338)</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
@@ -27674,7 +27838,7 @@
       <c r="K218" s="369"/>
       <c r="L218" s="369"/>
       <c r="M218" s="349"/>
-      <c r="O218" s="591"/>
+      <c r="O218" s="641"/>
       <c r="P218" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -27684,7 +27848,7 @@
       <c r="S218" s="147"/>
       <c r="T218" s="134"/>
       <c r="U218" s="148" t="str">
-        <f>IF(AB134="","",AB134)</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y218" s="14"/>
@@ -27693,11 +27857,11 @@
       </c>
       <c r="AB218" s="40"/>
       <c r="AC218" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD218" s="41" t="str">
-        <f>IF(T339="","",T339)</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
@@ -27717,7 +27881,7 @@
       <c r="K219" s="369"/>
       <c r="L219" s="369"/>
       <c r="M219" s="373"/>
-      <c r="O219" s="591" t="str">
+      <c r="O219" s="641" t="str">
         <f>$T$139</f>
         <v>Auto 2</v>
       </c>
@@ -27730,7 +27894,7 @@
       <c r="S219" s="142"/>
       <c r="T219" s="141"/>
       <c r="U219" s="143" t="str">
-        <f>IF(AB135="","",AB135)</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y219" s="14"/>
@@ -27739,11 +27903,11 @@
       </c>
       <c r="AB219" s="40"/>
       <c r="AC219" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD219" s="41" t="str">
-        <f>IF(T340="","",T340)</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
@@ -27762,23 +27926,23 @@
       </c>
       <c r="F220" s="369"/>
       <c r="G220" s="369"/>
-      <c r="H220" s="639" t="s">
+      <c r="H220" s="584" t="s">
         <v>449</v>
       </c>
-      <c r="I220" s="640" t="str">
+      <c r="I220" s="585" t="str">
         <f>IF(T291="","",T291)</f>
         <v/>
       </c>
       <c r="J220" s="369"/>
-      <c r="K220" s="639" t="s">
+      <c r="K220" s="584" t="s">
         <v>450</v>
       </c>
-      <c r="L220" s="640" t="str">
+      <c r="L220" s="585" t="str">
         <f>IF(W291="","",W291)</f>
         <v/>
       </c>
       <c r="M220" s="373"/>
-      <c r="O220" s="591"/>
+      <c r="O220" s="641"/>
       <c r="P220" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -27788,7 +27952,7 @@
       <c r="S220" s="145"/>
       <c r="T220" s="144"/>
       <c r="U220" s="146" t="str">
-        <f>IF(AB136="","",AB136)</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y220" s="14"/>
@@ -27797,11 +27961,11 @@
       </c>
       <c r="AB220" s="40"/>
       <c r="AC220" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD220" s="41" t="str">
-        <f>IF(T341="","",T341)</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
@@ -27821,7 +27985,7 @@
       <c r="K221" s="369"/>
       <c r="L221" s="369"/>
       <c r="M221" s="373"/>
-      <c r="O221" s="591"/>
+      <c r="O221" s="641"/>
       <c r="P221" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -27831,7 +27995,7 @@
       <c r="S221" s="145"/>
       <c r="T221" s="144"/>
       <c r="U221" s="146" t="str">
-        <f>IF(AB137="","",AB137)</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y221" s="14"/>
@@ -27840,11 +28004,11 @@
       </c>
       <c r="AB221" s="40"/>
       <c r="AC221" s="29" t="str">
-        <f t="shared" ref="AC221:AC233" si="23">IF(AB221&lt;&gt;AD221,"Change","")</f>
+        <f t="shared" ref="AC221:AC233" si="33">IF(AB221&lt;&gt;AD221,"Change","")</f>
         <v/>
       </c>
       <c r="AD221" s="41" t="str">
-        <f>IF(T342="","",T342)</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
@@ -27868,7 +28032,7 @@
       <c r="K222" s="369"/>
       <c r="L222" s="369"/>
       <c r="M222" s="373"/>
-      <c r="O222" s="591"/>
+      <c r="O222" s="641"/>
       <c r="P222" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -27878,7 +28042,7 @@
       <c r="S222" s="145"/>
       <c r="T222" s="144"/>
       <c r="U222" s="146" t="str">
-        <f>IF(AB138="","",AB138)</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y222" s="14"/>
@@ -27887,11 +28051,11 @@
       </c>
       <c r="AB222" s="40"/>
       <c r="AC222" s="29" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AD222" s="41" t="str">
-        <f>IF(U331="","",U331)</f>
+        <f t="shared" ref="AD222:AD233" si="34">IF(U331="","",U331)</f>
         <v/>
       </c>
     </row>
@@ -27921,7 +28085,7 @@
       <c r="K223" s="369"/>
       <c r="L223" s="369"/>
       <c r="M223" s="373"/>
-      <c r="O223" s="591"/>
+      <c r="O223" s="641"/>
       <c r="P223" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -27931,7 +28095,7 @@
       <c r="S223" s="147"/>
       <c r="T223" s="134"/>
       <c r="U223" s="148" t="str">
-        <f>IF(AB139="","",AB139)</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y223" s="14"/>
@@ -27940,11 +28104,11 @@
       </c>
       <c r="AB223" s="40"/>
       <c r="AC223" s="29" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AD223" s="41" t="str">
-        <f>IF(U332="","",U332)</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
@@ -27954,11 +28118,11 @@
       </c>
       <c r="B224" s="372"/>
       <c r="C224" s="422">
-        <f>IF(O295="","",O295)</f>
+        <f t="shared" ref="C224:D227" si="35">IF(O295="","",O295)</f>
         <v>60</v>
       </c>
       <c r="D224" s="423" t="str">
-        <f>IF(P295="","",P295)</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="E224" s="424" t="str">
@@ -27979,7 +28143,7 @@
       <c r="K224" s="369"/>
       <c r="L224" s="369"/>
       <c r="M224" s="373"/>
-      <c r="O224" s="591" t="str">
+      <c r="O224" s="641" t="str">
         <f>$W$139</f>
         <v>High Level</v>
       </c>
@@ -27992,7 +28156,7 @@
       <c r="S224" s="142"/>
       <c r="T224" s="141"/>
       <c r="U224" s="143" t="str">
-        <f>IF(AB140="","",AB140)</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y224" s="14"/>
@@ -28001,11 +28165,11 @@
       </c>
       <c r="AB224" s="40"/>
       <c r="AC224" s="29" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AD224" s="41" t="str">
-        <f>IF(U333="","",U333)</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
@@ -28015,11 +28179,11 @@
       </c>
       <c r="B225" s="372"/>
       <c r="C225" s="422">
-        <f>IF(O296="","",O296)</f>
+        <f t="shared" si="35"/>
         <v>80</v>
       </c>
       <c r="D225" s="423" t="str">
-        <f>IF(P296="","",P296)</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="E225" s="424" t="str">
@@ -28030,14 +28194,14 @@
       <c r="G225" s="369"/>
       <c r="H225" s="369"/>
       <c r="I225" s="423" t="str">
-        <f>IF(P305="","",P305)</f>
+        <f t="shared" ref="I225:I232" si="36">IF(P305="","",P305)</f>
         <v/>
       </c>
       <c r="J225" s="369"/>
       <c r="K225" s="369"/>
       <c r="L225" s="369"/>
       <c r="M225" s="373"/>
-      <c r="O225" s="591"/>
+      <c r="O225" s="641"/>
       <c r="P225" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -28047,7 +28211,7 @@
       <c r="S225" s="145"/>
       <c r="T225" s="144"/>
       <c r="U225" s="146" t="str">
-        <f>IF(AB141="","",AB141)</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y225" s="14"/>
@@ -28056,11 +28220,11 @@
       </c>
       <c r="AB225" s="40"/>
       <c r="AC225" s="29" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AD225" s="41" t="str">
-        <f>IF(U334="","",U334)</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
@@ -28070,11 +28234,11 @@
       </c>
       <c r="B226" s="372"/>
       <c r="C226" s="422">
-        <f>IF(O297="","",O297)</f>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="D226" s="423" t="str">
-        <f>IF(P297="","",P297)</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="E226" s="424" t="str">
@@ -28085,14 +28249,14 @@
       <c r="G226" s="369"/>
       <c r="H226" s="369"/>
       <c r="I226" s="423" t="str">
-        <f>IF(P306="","",P306)</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J226" s="369"/>
       <c r="K226" s="369"/>
       <c r="L226" s="369"/>
       <c r="M226" s="373"/>
-      <c r="O226" s="591"/>
+      <c r="O226" s="641"/>
       <c r="P226" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -28102,7 +28266,7 @@
       <c r="S226" s="145"/>
       <c r="T226" s="144"/>
       <c r="U226" s="146" t="str">
-        <f>IF(AB142="","",AB142)</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y226" s="14"/>
@@ -28111,11 +28275,11 @@
       </c>
       <c r="AB226" s="40"/>
       <c r="AC226" s="29" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AD226" s="41" t="str">
-        <f>IF(U335="","",U335)</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
@@ -28125,11 +28289,11 @@
       </c>
       <c r="B227" s="372"/>
       <c r="C227" s="425">
-        <f>IF(O298="","",O298)</f>
+        <f t="shared" si="35"/>
         <v>120</v>
       </c>
       <c r="D227" s="426" t="str">
-        <f>IF(P298="","",P298)</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="E227" s="427" t="str">
@@ -28140,14 +28304,14 @@
       <c r="G227" s="369"/>
       <c r="H227" s="369"/>
       <c r="I227" s="423" t="str">
-        <f>IF(P307="","",P307)</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J227" s="369"/>
       <c r="K227" s="369"/>
       <c r="L227" s="369"/>
       <c r="M227" s="373"/>
-      <c r="O227" s="591"/>
+      <c r="O227" s="641"/>
       <c r="P227" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -28157,7 +28321,7 @@
       <c r="S227" s="145"/>
       <c r="T227" s="144"/>
       <c r="U227" s="146" t="str">
-        <f>IF(AB143="","",AB143)</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y227" s="14"/>
@@ -28166,11 +28330,11 @@
       </c>
       <c r="AB227" s="40"/>
       <c r="AC227" s="29" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AD227" s="41" t="str">
-        <f>IF(U336="","",U336)</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
@@ -28191,14 +28355,14 @@
       <c r="G228" s="369"/>
       <c r="H228" s="369"/>
       <c r="I228" s="433" t="str">
-        <f>IF(P308="","",P308)</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J228" s="369"/>
       <c r="K228" s="369"/>
       <c r="L228" s="369"/>
       <c r="M228" s="373"/>
-      <c r="O228" s="591"/>
+      <c r="O228" s="641"/>
       <c r="P228" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -28208,7 +28372,7 @@
       <c r="S228" s="147"/>
       <c r="T228" s="134"/>
       <c r="U228" s="148" t="str">
-        <f>IF(AB144="","",AB144)</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y228" s="14"/>
@@ -28217,11 +28381,11 @@
       </c>
       <c r="AB228" s="40"/>
       <c r="AC228" s="29" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AD228" s="41" t="str">
-        <f>IF(U337="","",U337)</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
@@ -28245,7 +28409,7 @@
         <v>275</v>
       </c>
       <c r="I229" s="434" t="str">
-        <f>IF(P309="","",P309)</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J229" s="369"/>
@@ -28259,11 +28423,11 @@
       </c>
       <c r="AB229" s="40"/>
       <c r="AC229" s="29" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AD229" s="41" t="str">
-        <f>IF(U338="","",U338)</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
@@ -28281,7 +28445,7 @@
         <v>276</v>
       </c>
       <c r="I230" s="435" t="str">
-        <f>IF(P310="","",P310)</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J230" s="369"/>
@@ -28309,11 +28473,11 @@
       </c>
       <c r="AB230" s="40"/>
       <c r="AC230" s="29" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AD230" s="41" t="str">
-        <f>IF(U339="","",U339)</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
@@ -28331,7 +28495,7 @@
         <v>277</v>
       </c>
       <c r="I231" s="436" t="str">
-        <f>IF(P311="","",P311)</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J231" s="369"/>
@@ -28359,11 +28523,11 @@
       </c>
       <c r="AB231" s="40"/>
       <c r="AC231" s="29" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AD231" s="41" t="str">
-        <f>IF(U340="","",U340)</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
@@ -28381,7 +28545,7 @@
         <v>180</v>
       </c>
       <c r="I232" s="437" t="str">
-        <f>IF(P312="","",P312)</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J232" s="369"/>
@@ -28406,11 +28570,11 @@
       </c>
       <c r="AB232" s="40"/>
       <c r="AC232" s="29" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AD232" s="41" t="str">
-        <f>IF(U341="","",U341)</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
@@ -28452,11 +28616,11 @@
       </c>
       <c r="AB233" s="40"/>
       <c r="AC233" s="29" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AD233" s="41" t="str">
-        <f>IF(U342="","",U342)</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
@@ -28512,7 +28676,7 @@
       </c>
       <c r="AB235" s="28"/>
       <c r="AC235" s="29" t="str">
-        <f t="shared" ref="AC235:AC243" si="24">IF(AB235&lt;&gt;AD235,"Change","")</f>
+        <f t="shared" ref="AC235:AC243" si="37">IF(AB235&lt;&gt;AD235,"Change","")</f>
         <v/>
       </c>
       <c r="AD235" s="30" t="str">
@@ -28562,7 +28726,7 @@
       </c>
       <c r="AB236" s="28"/>
       <c r="AC236" s="29" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AD236" s="30" t="str">
@@ -28620,7 +28784,7 @@
       </c>
       <c r="AB237" s="28"/>
       <c r="AC237" s="29" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AD237" s="30"/>
@@ -28669,7 +28833,7 @@
       </c>
       <c r="AB238" s="28"/>
       <c r="AC238" s="29" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AD238" s="30"/>
@@ -28718,7 +28882,7 @@
       </c>
       <c r="AB239" s="28"/>
       <c r="AC239" s="29" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AD239" s="30"/>
@@ -28739,7 +28903,7 @@
       <c r="K240" s="369"/>
       <c r="L240" s="369"/>
       <c r="M240" s="373"/>
-      <c r="O240" s="595" t="s">
+      <c r="O240" s="642" t="s">
         <v>294</v>
       </c>
       <c r="P240" s="169" t="s">
@@ -28756,11 +28920,11 @@
       <c r="S240" s="84"/>
       <c r="T240" s="84"/>
       <c r="U240" s="171" t="str">
-        <f t="shared" ref="U240:V243" si="25">IF(S240="","",S240*60)</f>
+        <f t="shared" ref="U240:V243" si="38">IF(S240="","",S240*60)</f>
         <v/>
       </c>
       <c r="V240" s="171" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="W240" s="172" t="str">
@@ -28777,7 +28941,7 @@
       </c>
       <c r="AB240" s="28"/>
       <c r="AC240" s="29" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AD240" s="30"/>
@@ -28798,7 +28962,7 @@
       <c r="K241" s="369"/>
       <c r="L241" s="369"/>
       <c r="M241" s="373"/>
-      <c r="O241" s="595"/>
+      <c r="O241" s="642"/>
       <c r="P241" s="174" t="s">
         <v>297</v>
       </c>
@@ -28813,11 +28977,11 @@
       <c r="S241" s="93"/>
       <c r="T241" s="93"/>
       <c r="U241" s="176" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="V241" s="176" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="W241" s="177" t="str">
@@ -28834,7 +28998,7 @@
       </c>
       <c r="AB241" s="28"/>
       <c r="AC241" s="29" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AD241" s="30"/>
@@ -28855,7 +29019,7 @@
       <c r="K242" s="369"/>
       <c r="L242" s="369"/>
       <c r="M242" s="373"/>
-      <c r="O242" s="595" t="str">
+      <c r="O242" s="642" t="str">
         <f>IF($U$137=1,"Scatter - Pulse", "Scatter – Digital acq")</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -28873,11 +29037,11 @@
       <c r="S242" s="84"/>
       <c r="T242" s="84"/>
       <c r="U242" s="171" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="V242" s="171" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="W242" s="172" t="str">
@@ -28894,7 +29058,7 @@
       </c>
       <c r="AB242" s="28"/>
       <c r="AC242" s="29" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AD242" s="30"/>
@@ -28915,7 +29079,7 @@
       <c r="K243" s="369"/>
       <c r="L243" s="369"/>
       <c r="M243" s="373"/>
-      <c r="O243" s="595"/>
+      <c r="O243" s="642"/>
       <c r="P243" s="174" t="s">
         <v>297</v>
       </c>
@@ -28930,11 +29094,11 @@
       <c r="S243" s="93"/>
       <c r="T243" s="93"/>
       <c r="U243" s="176" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="V243" s="176" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="W243" s="177" t="str">
@@ -28951,7 +29115,7 @@
       </c>
       <c r="AB243" s="28"/>
       <c r="AC243" s="29" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AD243" s="30" t="str">
@@ -29445,17 +29609,17 @@
       <c r="P257" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Q257" s="596" t="s">
+      <c r="Q257" s="643" t="s">
         <v>313</v>
       </c>
-      <c r="R257" s="596"/>
+      <c r="R257" s="643"/>
       <c r="S257" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="T257" s="596" t="s">
+      <c r="T257" s="643" t="s">
         <v>315</v>
       </c>
-      <c r="U257" s="596"/>
+      <c r="U257" s="643"/>
       <c r="V257" s="1" t="s">
         <v>316</v>
       </c>
@@ -29497,13 +29661,13 @@
       <c r="Q258" s="83"/>
       <c r="R258" s="84"/>
       <c r="S258" s="185" t="str">
-        <f t="shared" ref="S258:S265" si="26">IF(OR(Q258="",R258=""),"",R258-Q258)</f>
+        <f t="shared" ref="S258:S265" si="39">IF(OR(Q258="",R258=""),"",R258-Q258)</f>
         <v/>
       </c>
       <c r="T258" s="84"/>
       <c r="U258" s="84"/>
       <c r="V258" s="185" t="str">
-        <f t="shared" ref="V258:V265" si="27">IF(OR(T258="",U258=""),"",U258-T258)</f>
+        <f t="shared" ref="V258:V265" si="40">IF(OR(T258="",U258=""),"",U258-T258)</f>
         <v/>
       </c>
       <c r="W258" s="83"/>
@@ -29533,13 +29697,13 @@
       <c r="Q259" s="87"/>
       <c r="R259" s="88"/>
       <c r="S259" s="186" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="T259" s="88"/>
       <c r="U259" s="88"/>
       <c r="V259" s="186" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="W259" s="87"/>
@@ -29576,13 +29740,13 @@
       <c r="Q260" s="87"/>
       <c r="R260" s="88"/>
       <c r="S260" s="186" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="T260" s="88"/>
       <c r="U260" s="88"/>
       <c r="V260" s="186" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="W260" s="87"/>
@@ -29612,13 +29776,13 @@
       <c r="Q261" s="87"/>
       <c r="R261" s="88"/>
       <c r="S261" s="186" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="T261" s="88"/>
       <c r="U261" s="88"/>
       <c r="V261" s="186" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="W261" s="87"/>
@@ -29655,13 +29819,13 @@
       <c r="Q262" s="87"/>
       <c r="R262" s="88"/>
       <c r="S262" s="186" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="T262" s="88"/>
       <c r="U262" s="88"/>
       <c r="V262" s="186" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="W262" s="87"/>
@@ -29694,13 +29858,13 @@
       <c r="Q263" s="87"/>
       <c r="R263" s="88"/>
       <c r="S263" s="186" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="T263" s="88"/>
       <c r="U263" s="88"/>
       <c r="V263" s="186" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="W263" s="87"/>
@@ -29740,13 +29904,13 @@
       <c r="Q264" s="87"/>
       <c r="R264" s="88"/>
       <c r="S264" s="186" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="T264" s="88"/>
       <c r="U264" s="88"/>
       <c r="V264" s="186" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="W264" s="87"/>
@@ -29768,13 +29932,13 @@
       <c r="Q265" s="92"/>
       <c r="R265" s="93"/>
       <c r="S265" s="187" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="T265" s="93"/>
       <c r="U265" s="93"/>
       <c r="V265" s="187" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="W265" s="92"/>
@@ -29809,15 +29973,15 @@
       <c r="Q266" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="R266" s="643"/>
+      <c r="R266" s="588"/>
       <c r="T266" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="U266" s="644"/>
+      <c r="U266" s="589"/>
       <c r="W266" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="X266" s="644"/>
+      <c r="X266" s="589"/>
       <c r="Y266" s="14"/>
       <c r="AB266" s="71"/>
       <c r="AD266" s="71"/>
@@ -29834,24 +29998,24 @@
       <c r="E267" s="345"/>
       <c r="F267" s="345"/>
       <c r="G267" s="345"/>
-      <c r="H267" s="641" t="s">
+      <c r="H267" s="586" t="s">
         <v>454</v>
       </c>
-      <c r="I267" s="642" t="str">
+      <c r="I267" s="587" t="str">
         <f>IF(V100="","",V100)</f>
         <v>Radcal 9010</v>
       </c>
-      <c r="J267" s="641" t="s">
+      <c r="J267" s="586" t="s">
         <v>318</v>
       </c>
-      <c r="K267" s="654">
+      <c r="K267" s="594">
         <f>IF(V101="","",V101)</f>
         <v>43670</v>
       </c>
-      <c r="L267" s="641" t="s">
+      <c r="L267" s="586" t="s">
         <v>455</v>
       </c>
-      <c r="M267" s="655">
+      <c r="M267" s="595">
         <f>IF(V102="","",V102)</f>
         <v>44036</v>
       </c>
@@ -29894,11 +30058,11 @@
       </c>
       <c r="B268" s="347"/>
       <c r="C268" s="441" t="str">
-        <f t="shared" ref="C268:D270" si="28">O106</f>
+        <f t="shared" ref="C268:D270" si="41">O106</f>
         <v>Image</v>
       </c>
       <c r="D268" s="442" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>Acrylic</v>
       </c>
       <c r="E268" s="42"/>
@@ -29911,11 +30075,11 @@
       <c r="L268" s="42"/>
       <c r="M268" s="358"/>
       <c r="O268" s="190" t="str">
-        <f t="shared" ref="O268:P275" si="29">IF(O258="","",O258)</f>
+        <f t="shared" ref="O268:P275" si="42">IF(O258="","",O258)</f>
         <v/>
       </c>
       <c r="P268" s="191" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="Q268" s="191"/>
@@ -29936,37 +30100,37 @@
       </c>
       <c r="B269" s="347"/>
       <c r="C269" s="441" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>Mode</v>
       </c>
       <c r="D269" s="442" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>Attenuator</v>
       </c>
-      <c r="E269" s="597" t="str">
+      <c r="E269" s="635" t="str">
         <f>Q107</f>
         <v>Auto 1</v>
       </c>
-      <c r="F269" s="598"/>
-      <c r="G269" s="598"/>
-      <c r="H269" s="598" t="str">
+      <c r="F269" s="636"/>
+      <c r="G269" s="636"/>
+      <c r="H269" s="636" t="str">
         <f>T107</f>
         <v>Auto 2</v>
       </c>
-      <c r="I269" s="598"/>
-      <c r="J269" s="598"/>
-      <c r="K269" s="599" t="str">
+      <c r="I269" s="636"/>
+      <c r="J269" s="636"/>
+      <c r="K269" s="637" t="str">
         <f>W107</f>
         <v>High Level</v>
       </c>
-      <c r="L269" s="599"/>
-      <c r="M269" s="600"/>
+      <c r="L269" s="637"/>
+      <c r="M269" s="638"/>
       <c r="O269" s="192" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="P269" s="129" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="Q269" s="129"/>
@@ -29994,11 +30158,11 @@
       </c>
       <c r="B270" s="347"/>
       <c r="C270" s="441" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>(cm)</v>
       </c>
       <c r="D270" s="442" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>(cm)</v>
       </c>
       <c r="E270" s="42" t="str">
@@ -30038,11 +30202,11 @@
         <v>mGy/min</v>
       </c>
       <c r="O270" s="192" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="P270" s="129" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="Q270" s="129"/>
@@ -30062,56 +30226,56 @@
         <v>7</v>
       </c>
       <c r="B271" s="347"/>
-      <c r="C271" s="601" t="str">
+      <c r="C271" s="625" t="str">
         <f>O110&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
       <c r="D271" s="443">
-        <f t="shared" ref="D271:D286" si="30">P109</f>
+        <f t="shared" ref="D271:D286" si="43">P109</f>
         <v>10</v>
       </c>
       <c r="E271" s="401">
-        <f t="shared" ref="E271:E286" si="31">IF(Q109="","",Q109)</f>
+        <f t="shared" ref="E271:E286" si="44">IF(Q109="","",Q109)</f>
         <v>0</v>
       </c>
       <c r="F271" s="407">
-        <f t="shared" ref="F271:F286" si="32">IF(R109="","",R109)</f>
+        <f t="shared" ref="F271:F286" si="45">IF(R109="","",R109)</f>
         <v>0</v>
       </c>
       <c r="G271" s="402">
-        <f t="shared" ref="G271:G286" si="33">IF(S109="","",S109)</f>
+        <f t="shared" ref="G271:G286" si="46">IF(S109="","",S109)</f>
         <v>0</v>
       </c>
       <c r="H271" s="401">
-        <f t="shared" ref="H271:H286" si="34">IF(T109="","",T109)</f>
+        <f t="shared" ref="H271:H286" si="47">IF(T109="","",T109)</f>
         <v>0</v>
       </c>
       <c r="I271" s="407">
-        <f t="shared" ref="I271:I286" si="35">IF(U109="","",U109)</f>
+        <f t="shared" ref="I271:I286" si="48">IF(U109="","",U109)</f>
         <v>0</v>
       </c>
       <c r="J271" s="402">
-        <f t="shared" ref="J271:J286" si="36">IF(V109="","",V109)</f>
+        <f t="shared" ref="J271:J286" si="49">IF(V109="","",V109)</f>
         <v>0</v>
       </c>
       <c r="K271" s="458">
-        <f t="shared" ref="K271:K286" si="37">IF(W109="","",W109)</f>
+        <f t="shared" ref="K271:K286" si="50">IF(W109="","",W109)</f>
         <v>0</v>
       </c>
       <c r="L271" s="407">
-        <f t="shared" ref="L271:L286" si="38">IF(X109="","",X109)</f>
+        <f t="shared" ref="L271:L286" si="51">IF(X109="","",X109)</f>
         <v>0</v>
       </c>
       <c r="M271" s="453">
-        <f t="shared" ref="M271:M286" si="39">IF(Y109="","",Y109)</f>
+        <f t="shared" ref="M271:M286" si="52">IF(Y109="","",Y109)</f>
         <v>0</v>
       </c>
       <c r="O271" s="192" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="P271" s="129" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="Q271" s="129"/>
@@ -30138,53 +30302,53 @@
         <v>8</v>
       </c>
       <c r="B272" s="347"/>
-      <c r="C272" s="601"/>
+      <c r="C272" s="625"/>
       <c r="D272" s="441">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>20</v>
       </c>
       <c r="E272" s="403">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F272" s="408">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G272" s="404">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="H272" s="403">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I272" s="408">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J272" s="404">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K272" s="459">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L272" s="408">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M272" s="454">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O272" s="192" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="P272" s="129" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="Q272" s="129"/>
@@ -30204,53 +30368,53 @@
         <v>9</v>
       </c>
       <c r="B273" s="347"/>
-      <c r="C273" s="601"/>
+      <c r="C273" s="625"/>
       <c r="D273" s="444">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>30</v>
       </c>
       <c r="E273" s="405">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F273" s="409">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G273" s="406">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="H273" s="405">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I273" s="409">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J273" s="406">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K273" s="460">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L273" s="409">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M273" s="455">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O273" s="192" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="P273" s="129" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="Q273" s="129"/>
@@ -30277,56 +30441,56 @@
         <v>10</v>
       </c>
       <c r="B274" s="347"/>
-      <c r="C274" s="601" t="str">
+      <c r="C274" s="625" t="str">
         <f>O113&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
       <c r="D274" s="443">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="E274" s="401">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F274" s="407">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G274" s="402">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="H274" s="401">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I274" s="407">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J274" s="402">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K274" s="458">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L274" s="407">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M274" s="453">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O274" s="192" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="P274" s="129" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="Q274" s="129"/>
@@ -30346,53 +30510,53 @@
         <v>11</v>
       </c>
       <c r="B275" s="347"/>
-      <c r="C275" s="601"/>
+      <c r="C275" s="625"/>
       <c r="D275" s="441">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>20</v>
       </c>
       <c r="E275" s="403">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F275" s="408">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G275" s="404">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="H275" s="403">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I275" s="408">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J275" s="404">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K275" s="459">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L275" s="408">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M275" s="454">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O275" s="201" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="P275" s="202" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="Q275" s="202"/>
@@ -30419,58 +30583,58 @@
         <v>12</v>
       </c>
       <c r="B276" s="347"/>
-      <c r="C276" s="601"/>
+      <c r="C276" s="625"/>
       <c r="D276" s="444">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>30</v>
       </c>
       <c r="E276" s="405">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F276" s="409">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G276" s="406">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="H276" s="405">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I276" s="409">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J276" s="406">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K276" s="460">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L276" s="409">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M276" s="455">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="O276" s="602" t="s">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="O276" s="639" t="s">
         <v>262</v>
       </c>
-      <c r="P276" s="603" t="s">
+      <c r="P276" s="640" t="s">
         <v>263</v>
       </c>
-      <c r="R276" s="603" t="str">
+      <c r="R276" s="640" t="str">
         <f>"Ind AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="S276" s="603" t="str">
+      <c r="S276" s="640" t="str">
         <f>"Meas AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Meas AK @ Ref Pt (mGy)</v>
       </c>
@@ -30492,57 +30656,57 @@
         <v>13</v>
       </c>
       <c r="B277" s="347"/>
-      <c r="C277" s="601" t="str">
+      <c r="C277" s="625" t="str">
         <f>O116&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
       <c r="D277" s="443">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="E277" s="401">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F277" s="407">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G277" s="402">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="H277" s="401">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I277" s="407">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J277" s="402">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K277" s="458">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L277" s="407">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M277" s="453">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="O277" s="602"/>
-      <c r="P277" s="603"/>
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="O277" s="639"/>
+      <c r="P277" s="640"/>
       <c r="Q277" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="R277" s="603"/>
-      <c r="S277" s="603"/>
+      <c r="R277" s="640"/>
+      <c r="S277" s="640"/>
       <c r="T277" s="1" t="s">
         <v>322</v>
       </c>
@@ -30574,45 +30738,45 @@
         <v>14</v>
       </c>
       <c r="B278" s="347"/>
-      <c r="C278" s="601"/>
+      <c r="C278" s="625"/>
       <c r="D278" s="441">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>20</v>
       </c>
       <c r="E278" s="403">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F278" s="408">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G278" s="404">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="H278" s="403">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I278" s="408">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J278" s="404">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K278" s="459">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L278" s="408">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M278" s="454">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O278" s="190" t="str">
@@ -30620,35 +30784,35 @@
         <v/>
       </c>
       <c r="P278" s="204" t="str">
-        <f t="shared" ref="P278:P285" si="40">IF(S268="","",S268)</f>
+        <f t="shared" ref="P278:P285" si="53">IF(S268="","",S268)</f>
         <v/>
       </c>
       <c r="Q278" s="205" t="str">
-        <f t="shared" ref="Q278:Q285" si="41">IF(OR(O278="",P278=""),"",(P278-O278)/O278)</f>
+        <f t="shared" ref="Q278:Q285" si="54">IF(OR(O278="",P278=""),"",(P278-O278)/O278)</f>
         <v/>
       </c>
       <c r="R278" s="206" t="str">
-        <f t="shared" ref="R278:R285" si="42">IF(V258="","",V258)</f>
+        <f t="shared" ref="R278:R285" si="55">IF(V258="","",V258)</f>
         <v/>
       </c>
       <c r="S278" s="207" t="str">
-        <f t="shared" ref="S278:S285" si="43">IF(OR($O$254="",Q268=""),"",$O$254*Q268)</f>
+        <f t="shared" ref="S278:S285" si="56">IF(OR($O$254="",Q268=""),"",$O$254*Q268)</f>
         <v/>
       </c>
       <c r="T278" s="205" t="str">
-        <f t="shared" ref="T278:T285" si="44">IF(OR(R278="",S278=""),"",(S278-R278)/R278)</f>
+        <f t="shared" ref="T278:T285" si="57">IF(OR(R278="",S278=""),"",(S278-R278)/R278)</f>
         <v/>
       </c>
       <c r="U278" s="190" t="str">
-        <f t="shared" ref="U278:U285" si="45">IF(W258="","",W258)</f>
+        <f t="shared" ref="U278:U285" si="58">IF(W258="","",W258)</f>
         <v/>
       </c>
       <c r="V278" s="191" t="str">
-        <f t="shared" ref="V278:V285" si="46">IF(AND(X258="",R268=""),"",IF(NOT(ISBLANK(X258)),X258,IF(NOT(ISBLANK(R268)),R268,"")))</f>
+        <f t="shared" ref="V278:V285" si="59">IF(AND(X258="",R268=""),"",IF(NOT(ISBLANK(X258)),X258,IF(NOT(ISBLANK(R268)),R268,"")))</f>
         <v/>
       </c>
       <c r="W278" s="208" t="str">
-        <f t="shared" ref="W278:W285" si="47">IF(OR(V278="",U278=""),"",(V278-U278)/V278)</f>
+        <f t="shared" ref="W278:W285" si="60">IF(OR(V278="",U278=""),"",(V278-U278)/V278)</f>
         <v/>
       </c>
       <c r="X278"/>
@@ -30661,45 +30825,45 @@
         <v>15</v>
       </c>
       <c r="B279" s="347"/>
-      <c r="C279" s="601"/>
+      <c r="C279" s="625"/>
       <c r="D279" s="444">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>30</v>
       </c>
       <c r="E279" s="405">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F279" s="409">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G279" s="406">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="H279" s="405">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I279" s="409">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J279" s="406">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K279" s="460">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L279" s="409">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M279" s="455">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O279" s="192" t="str">
@@ -30707,35 +30871,35 @@
         <v/>
       </c>
       <c r="P279" s="209" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Q279" s="210" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="R279" s="211" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="S279" s="212" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="T279" s="210" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U279" s="213" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="V279" s="129" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="W279" s="214" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="X279"/>
@@ -30755,48 +30919,48 @@
         <v>16</v>
       </c>
       <c r="B280" s="347"/>
-      <c r="C280" s="601" t="str">
+      <c r="C280" s="625" t="str">
         <f>O119&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
       <c r="D280" s="443">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="E280" s="401">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F280" s="407">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G280" s="402">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="H280" s="401">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I280" s="407">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J280" s="402">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K280" s="458">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L280" s="407">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M280" s="453">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O280" s="192" t="str">
@@ -30804,35 +30968,35 @@
         <v/>
       </c>
       <c r="P280" s="209" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Q280" s="210" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="R280" s="211" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="S280" s="212" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="T280" s="210" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U280" s="213" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="V280" s="129" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="W280" s="214" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="X280"/>
@@ -30855,45 +31019,45 @@
         <v>17</v>
       </c>
       <c r="B281" s="347"/>
-      <c r="C281" s="601"/>
+      <c r="C281" s="625"/>
       <c r="D281" s="441">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>20</v>
       </c>
       <c r="E281" s="403">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F281" s="408">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G281" s="404">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="H281" s="403">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I281" s="408">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J281" s="404">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K281" s="459">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L281" s="408">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M281" s="454">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O281" s="192" t="str">
@@ -30901,35 +31065,35 @@
         <v/>
       </c>
       <c r="P281" s="209" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Q281" s="210" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="R281" s="211" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="S281" s="212" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="T281" s="210" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U281" s="192" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="V281" s="129" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="W281" s="214" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="X281"/>
@@ -30942,45 +31106,45 @@
         <v>18</v>
       </c>
       <c r="B282" s="347"/>
-      <c r="C282" s="601"/>
+      <c r="C282" s="625"/>
       <c r="D282" s="444">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>30</v>
       </c>
       <c r="E282" s="405">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F282" s="409">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G282" s="406">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="H282" s="405">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I282" s="409">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J282" s="406">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K282" s="460">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L282" s="409">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M282" s="455">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O282" s="192" t="str">
@@ -30988,35 +31152,35 @@
         <v/>
       </c>
       <c r="P282" s="209" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Q282" s="210" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="R282" s="211" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="S282" s="212" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="T282" s="210" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U282" s="192" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="V282" s="129" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="W282" s="214" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="X282"/>
@@ -31036,48 +31200,48 @@
         <v>19</v>
       </c>
       <c r="B283" s="347"/>
-      <c r="C283" s="601" t="str">
+      <c r="C283" s="625" t="str">
         <f>O122&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
       <c r="D283" s="443">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="E283" s="456">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F283" s="431">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G283" s="462">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="H283" s="456">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I283" s="431">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J283" s="462">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K283" s="461">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L283" s="431">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M283" s="457">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O283" s="192" t="str">
@@ -31085,35 +31249,35 @@
         <v/>
       </c>
       <c r="P283" s="209" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Q283" s="210" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="R283" s="211" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="S283" s="212" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="T283" s="210" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U283" s="192" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="V283" s="129" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="W283" s="214" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="X283"/>
@@ -31126,45 +31290,45 @@
         <v>20</v>
       </c>
       <c r="B284" s="347"/>
-      <c r="C284" s="601"/>
+      <c r="C284" s="625"/>
       <c r="D284" s="441">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>20</v>
       </c>
       <c r="E284" s="403">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F284" s="408">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G284" s="404">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="H284" s="403">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I284" s="408">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J284" s="404">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K284" s="459">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L284" s="408">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M284" s="454">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O284" s="192" t="str">
@@ -31172,35 +31336,35 @@
         <v/>
       </c>
       <c r="P284" s="209" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Q284" s="210" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="R284" s="211" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="S284" s="212" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="T284" s="210" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U284" s="192" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="V284" s="129" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="W284" s="214" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="X284"/>
@@ -31220,45 +31384,45 @@
         <v>21</v>
       </c>
       <c r="B285" s="347"/>
-      <c r="C285" s="601"/>
+      <c r="C285" s="625"/>
       <c r="D285" s="441">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>30</v>
       </c>
       <c r="E285" s="405">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F285" s="409">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G285" s="406">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="H285" s="405">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I285" s="409">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J285" s="406">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K285" s="460">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L285" s="409">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M285" s="455">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O285" s="201" t="str">
@@ -31266,35 +31430,35 @@
         <v/>
       </c>
       <c r="P285" s="215" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Q285" s="216" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="R285" s="217" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="S285" s="218" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="T285" s="216" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U285" s="201" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="V285" s="202" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="W285" s="219" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="X285"/>
@@ -31309,43 +31473,43 @@
       <c r="B286" s="347"/>
       <c r="C286" s="439"/>
       <c r="D286" s="445" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>max</v>
       </c>
       <c r="E286" s="446">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F286" s="447">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G286" s="448">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="H286" s="446">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I286" s="447">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J286" s="448">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K286" s="449">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L286" s="450">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M286" s="451">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O286" s="149"/>
@@ -31421,7 +31585,7 @@
       <c r="B288" s="347"/>
       <c r="C288" s="135"/>
       <c r="D288" s="385" t="str">
-        <f t="shared" ref="D288:D293" si="48">P126</f>
+        <f t="shared" ref="D288:D293" si="61">P126</f>
         <v>*Measured at:</v>
       </c>
       <c r="E288" s="135"/>
@@ -31483,7 +31647,7 @@
       <c r="B289" s="347"/>
       <c r="C289" s="135"/>
       <c r="D289" s="386" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>Undertable fluoroscopy units: 1 cm above table top</v>
       </c>
       <c r="E289" s="135"/>
@@ -31518,7 +31682,7 @@
       <c r="B290" s="347"/>
       <c r="C290" s="135"/>
       <c r="D290" s="386" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>Overhead tube fluoroscopy units: 30 cm above table top (Tube as close as possible to measuring point)</v>
       </c>
       <c r="E290" s="135"/>
@@ -31558,7 +31722,7 @@
       <c r="B291" s="347"/>
       <c r="C291" s="135"/>
       <c r="D291" s="386" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>C-arm fluoroscopy units: 30 cm from image receptor input (Tube at any ID, but spacer no closer than measuring point</v>
       </c>
       <c r="E291" s="135"/>
@@ -31581,12 +31745,12 @@
       <c r="S291" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="T291" s="634"/>
+      <c r="T291" s="579"/>
       <c r="U291" s="235"/>
       <c r="V291" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="W291" s="634"/>
+      <c r="W291" s="579"/>
       <c r="X291" s="235"/>
       <c r="Y291" s="236"/>
       <c r="AB291" s="71"/>
@@ -31599,7 +31763,7 @@
       <c r="B292" s="347"/>
       <c r="C292" s="135"/>
       <c r="D292" s="386" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>Lateral fluoroscopy units: 15 cm from center line of table and towards the tube (Position table and tube so spacer is as close as possible to measuring point)</v>
       </c>
       <c r="E292" s="135"/>
@@ -31639,7 +31803,7 @@
       <c r="B293" s="347"/>
       <c r="C293" s="135"/>
       <c r="D293" s="240" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>Criteria:</v>
       </c>
       <c r="E293" s="387" t="str">
@@ -31655,12 +31819,12 @@
       <c r="L293" s="135"/>
       <c r="M293" s="349"/>
       <c r="O293" s="237"/>
-      <c r="P293" s="604" t="s">
+      <c r="P293" s="630" t="s">
         <v>328</v>
       </c>
-      <c r="Q293" s="604"/>
-      <c r="R293" s="604"/>
-      <c r="S293" s="604"/>
+      <c r="Q293" s="630"/>
+      <c r="R293" s="630"/>
+      <c r="S293" s="630"/>
       <c r="T293" s="235"/>
       <c r="U293" s="235"/>
       <c r="V293" s="235"/>
@@ -32037,12 +32201,12 @@
       <c r="L302" s="135"/>
       <c r="M302" s="349"/>
       <c r="O302" s="237"/>
-      <c r="P302" s="604" t="s">
+      <c r="P302" s="630" t="s">
         <v>328</v>
       </c>
-      <c r="Q302" s="604"/>
-      <c r="R302" s="604"/>
-      <c r="S302" s="604"/>
+      <c r="Q302" s="630"/>
+      <c r="R302" s="630"/>
+      <c r="S302" s="630"/>
       <c r="T302" s="235"/>
       <c r="U302" s="235"/>
       <c r="V302" s="235"/>
@@ -32064,28 +32228,28 @@
         <v>39</v>
       </c>
       <c r="B303" s="347"/>
-      <c r="C303" s="605" t="str">
+      <c r="C303" s="608" t="str">
         <f>O190</f>
         <v>Auto 1</v>
       </c>
       <c r="D303" s="480" t="str">
-        <f t="shared" ref="D303:D317" si="49">IF(P190="","",P190)</f>
+        <f t="shared" ref="D303:D317" si="62">IF(P190="","",P190)</f>
         <v/>
       </c>
       <c r="E303" s="481" t="str">
-        <f t="shared" ref="E303:E317" si="50">IF(Q190="","",Q190)</f>
+        <f t="shared" ref="E303:E317" si="63">IF(Q190="","",Q190)</f>
         <v/>
       </c>
       <c r="F303" s="481" t="str">
-        <f t="shared" ref="F303:F317" si="51">IF(R190="","",R190)</f>
+        <f t="shared" ref="F303:F317" si="64">IF(R190="","",R190)</f>
         <v/>
       </c>
       <c r="G303" s="482" t="str">
-        <f t="shared" ref="G303:G317" si="52">IF(S190="","",S190)</f>
+        <f t="shared" ref="G303:G317" si="65">IF(S190="","",S190)</f>
         <v/>
       </c>
       <c r="H303" s="480" t="str">
-        <f t="shared" ref="H303:H317" si="53">IF(T190="","",T190)</f>
+        <f t="shared" ref="H303:H317" si="66">IF(T190="","",T190)</f>
         <v/>
       </c>
       <c r="I303" s="135"/>
@@ -32125,25 +32289,25 @@
         <v>40</v>
       </c>
       <c r="B304" s="347"/>
-      <c r="C304" s="606"/>
+      <c r="C304" s="609"/>
       <c r="D304" s="483" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="E304" s="484" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="F304" s="484" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="G304" s="485" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="H304" s="483" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="I304" s="135"/>
@@ -32195,25 +32359,25 @@
         <v>41</v>
       </c>
       <c r="B305" s="347"/>
-      <c r="C305" s="606"/>
+      <c r="C305" s="609"/>
       <c r="D305" s="483" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="E305" s="484" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="F305" s="484" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="G305" s="485" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="H305" s="483" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="I305" s="135"/>
@@ -32243,25 +32407,25 @@
         <v>42</v>
       </c>
       <c r="B306" s="347"/>
-      <c r="C306" s="606"/>
+      <c r="C306" s="609"/>
       <c r="D306" s="483" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="E306" s="484" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="F306" s="484" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="G306" s="485" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="H306" s="483" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="I306" s="135"/>
@@ -32295,25 +32459,25 @@
         <v>43</v>
       </c>
       <c r="B307" s="347"/>
-      <c r="C307" s="607"/>
+      <c r="C307" s="631"/>
       <c r="D307" s="486" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="E307" s="487" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="F307" s="487" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="G307" s="488" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="H307" s="486" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="I307" s="135"/>
@@ -32340,28 +32504,28 @@
         <v>44</v>
       </c>
       <c r="B308" s="347"/>
-      <c r="C308" s="605" t="str">
+      <c r="C308" s="608" t="str">
         <f>O195</f>
         <v>Auto 2</v>
       </c>
       <c r="D308" s="480" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="E308" s="481" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="F308" s="481" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="G308" s="482" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="H308" s="480" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="I308" s="135"/>
@@ -32395,25 +32559,25 @@
         <v>45</v>
       </c>
       <c r="B309" s="347"/>
-      <c r="C309" s="606"/>
+      <c r="C309" s="609"/>
       <c r="D309" s="483" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="E309" s="484" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="F309" s="484" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="G309" s="485" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="H309" s="483" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="I309" s="135"/>
@@ -32445,25 +32609,25 @@
         <v>46</v>
       </c>
       <c r="B310" s="347"/>
-      <c r="C310" s="606"/>
+      <c r="C310" s="609"/>
       <c r="D310" s="483" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="E310" s="484" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="F310" s="484" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="G310" s="485" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="H310" s="483" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="I310" s="135"/>
@@ -32502,25 +32666,25 @@
         <v>47</v>
       </c>
       <c r="B311" s="347"/>
-      <c r="C311" s="606"/>
+      <c r="C311" s="609"/>
       <c r="D311" s="483" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="E311" s="484" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="F311" s="484" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="G311" s="485" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="H311" s="483" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="I311" s="135"/>
@@ -32552,25 +32716,25 @@
         <v>48</v>
       </c>
       <c r="B312" s="347"/>
-      <c r="C312" s="608"/>
+      <c r="C312" s="610"/>
       <c r="D312" s="489" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="E312" s="490" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="F312" s="490" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="G312" s="491" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="H312" s="489" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="I312" s="135"/>
@@ -32609,28 +32773,28 @@
         <v>49</v>
       </c>
       <c r="B313" s="347"/>
-      <c r="C313" s="609" t="str">
+      <c r="C313" s="632" t="str">
         <f>O200</f>
         <v>High Level</v>
       </c>
       <c r="D313" s="492" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="E313" s="493" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="F313" s="493" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="G313" s="494" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="H313" s="492" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="I313" s="135"/>
@@ -32661,25 +32825,25 @@
         <v>50</v>
       </c>
       <c r="B314" s="347"/>
-      <c r="C314" s="606"/>
+      <c r="C314" s="609"/>
       <c r="D314" s="483" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="E314" s="484" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="F314" s="484" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="G314" s="485" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="H314" s="483" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="I314" s="135"/>
@@ -32713,25 +32877,25 @@
         <v>51</v>
       </c>
       <c r="B315" s="347"/>
-      <c r="C315" s="606"/>
+      <c r="C315" s="609"/>
       <c r="D315" s="483" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="E315" s="484" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="F315" s="484" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="G315" s="485" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="H315" s="483" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="I315" s="203"/>
@@ -32758,25 +32922,25 @@
         <v>52</v>
       </c>
       <c r="B316" s="347"/>
-      <c r="C316" s="606"/>
+      <c r="C316" s="609"/>
       <c r="D316" s="483" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="E316" s="484" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="F316" s="484" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="G316" s="485" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="H316" s="483" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="I316" s="203"/>
@@ -32812,25 +32976,25 @@
         <v>53</v>
       </c>
       <c r="B317" s="347"/>
-      <c r="C317" s="608"/>
+      <c r="C317" s="610"/>
       <c r="D317" s="489" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="E317" s="490" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="F317" s="490" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="G317" s="491" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="H317" s="489" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="I317" s="203"/>
@@ -32922,10 +33086,10 @@
       <c r="R319" s="276"/>
       <c r="S319" s="277"/>
       <c r="T319" s="277"/>
-      <c r="V319" s="590" t="s">
+      <c r="V319" s="633" t="s">
         <v>340</v>
       </c>
-      <c r="W319" s="590"/>
+      <c r="W319" s="633"/>
       <c r="X319" s="17" t="s">
         <v>341</v>
       </c>
@@ -33016,27 +33180,27 @@
       <c r="C322" s="135"/>
       <c r="D322" s="238"/>
       <c r="E322" s="42" t="str">
-        <f t="shared" ref="E322:H323" si="54">Q236</f>
+        <f t="shared" ref="E322:H323" si="67">Q236</f>
         <v>kVp</v>
       </c>
       <c r="F322" s="42" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="67"/>
         <v>mA</v>
       </c>
       <c r="G322" s="42" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="67"/>
         <v>mGy/min</v>
       </c>
       <c r="H322" s="42" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="67"/>
         <v>uGy/hr</v>
       </c>
       <c r="I322" s="42" t="str">
-        <f t="shared" ref="I322:J325" si="55">U238</f>
+        <f t="shared" ref="I322:J325" si="68">U238</f>
         <v>Unshielded</v>
       </c>
       <c r="J322" s="42" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="68"/>
         <v>Shielded</v>
       </c>
       <c r="K322" s="203"/>
@@ -33074,27 +33238,27 @@
         <v>Transmission* @ 10cm</v>
       </c>
       <c r="E323" s="503">
-        <f t="shared" si="54"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="F323" s="503">
-        <f t="shared" si="54"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="G323" s="503">
-        <f t="shared" si="54"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="H323" s="504">
-        <f t="shared" si="54"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I323" s="42" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="68"/>
         <v>uGy/hr</v>
       </c>
       <c r="J323" s="42" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="68"/>
         <v>uGy/hr</v>
       </c>
       <c r="K323" s="203"/>
@@ -33126,7 +33290,7 @@
         <v>60</v>
       </c>
       <c r="B324" s="347"/>
-      <c r="C324" s="610" t="str">
+      <c r="C324" s="614" t="str">
         <f>O240</f>
         <v>Scatter – Fluoro</v>
       </c>
@@ -33145,11 +33309,11 @@
       <c r="G324" s="496"/>
       <c r="H324" s="497"/>
       <c r="I324" s="407" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="J324" s="402" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="K324" s="135"/>
@@ -33176,7 +33340,7 @@
         <v>61</v>
       </c>
       <c r="B325" s="347"/>
-      <c r="C325" s="611"/>
+      <c r="C325" s="615"/>
       <c r="D325" s="498" t="str">
         <f>P241</f>
         <v>Waist level</v>
@@ -33192,11 +33356,11 @@
       <c r="G325" s="499"/>
       <c r="H325" s="500"/>
       <c r="I325" s="477" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="J325" s="501" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="K325" s="135"/>
@@ -33334,13 +33498,13 @@
         <v>348</v>
       </c>
       <c r="P329" s="53"/>
-      <c r="Q329" s="612" t="s">
+      <c r="Q329" s="634" t="s">
         <v>349</v>
       </c>
-      <c r="R329" s="612"/>
-      <c r="S329" s="612"/>
-      <c r="T329" s="612"/>
-      <c r="U329" s="612"/>
+      <c r="R329" s="634"/>
+      <c r="S329" s="634"/>
+      <c r="T329" s="634"/>
+      <c r="U329" s="634"/>
       <c r="Y329" s="14"/>
     </row>
     <row r="330" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -33442,28 +33606,28 @@
       <c r="E333" s="345"/>
       <c r="F333" s="345"/>
       <c r="G333" s="345"/>
-      <c r="H333" s="641" t="str">
+      <c r="H333" s="586" t="str">
         <f>H267</f>
         <v>Test equipment:</v>
       </c>
-      <c r="I333" s="642" t="str">
-        <f t="shared" ref="I333:M333" si="56">I267</f>
+      <c r="I333" s="587" t="str">
+        <f t="shared" ref="I333:M333" si="69">I267</f>
         <v>Radcal 9010</v>
       </c>
-      <c r="J333" s="641" t="str">
-        <f t="shared" si="56"/>
+      <c r="J333" s="586" t="str">
+        <f t="shared" si="69"/>
         <v>Calibration date:</v>
       </c>
-      <c r="K333" s="654">
-        <f t="shared" si="56"/>
+      <c r="K333" s="594">
+        <f t="shared" si="69"/>
         <v>43670</v>
       </c>
-      <c r="L333" s="641" t="str">
-        <f t="shared" si="56"/>
+      <c r="L333" s="586" t="str">
+        <f t="shared" si="69"/>
         <v>Calibration due:</v>
       </c>
-      <c r="M333" s="655">
-        <f t="shared" si="56"/>
+      <c r="M333" s="595">
+        <f t="shared" si="69"/>
         <v>44036</v>
       </c>
       <c r="O333" s="130"/>
@@ -33483,11 +33647,11 @@
       </c>
       <c r="B334" s="347"/>
       <c r="C334" s="441" t="str">
-        <f t="shared" ref="C334:D336" si="57">O138</f>
+        <f t="shared" ref="C334:D336" si="70">O138</f>
         <v>Image</v>
       </c>
       <c r="D334" s="441" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>Acrylic</v>
       </c>
       <c r="E334" s="42"/>
@@ -33516,31 +33680,31 @@
       </c>
       <c r="B335" s="347"/>
       <c r="C335" s="441" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>Mode</v>
       </c>
       <c r="D335" s="441" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>Attenuator</v>
       </c>
-      <c r="E335" s="597" t="str">
+      <c r="E335" s="635" t="str">
         <f>Q139</f>
         <v>Auto 1</v>
       </c>
-      <c r="F335" s="598"/>
-      <c r="G335" s="598"/>
-      <c r="H335" s="598" t="str">
+      <c r="F335" s="636"/>
+      <c r="G335" s="636"/>
+      <c r="H335" s="636" t="str">
         <f>T139</f>
         <v>Auto 2</v>
       </c>
-      <c r="I335" s="598"/>
-      <c r="J335" s="598"/>
-      <c r="K335" s="599" t="str">
+      <c r="I335" s="636"/>
+      <c r="J335" s="636"/>
+      <c r="K335" s="637" t="str">
         <f>W139</f>
         <v>High Level</v>
       </c>
-      <c r="L335" s="599"/>
-      <c r="M335" s="600"/>
+      <c r="L335" s="637"/>
+      <c r="M335" s="638"/>
       <c r="O335" s="130"/>
       <c r="P335" s="129" t="s">
         <v>355</v>
@@ -33558,11 +33722,11 @@
       </c>
       <c r="B336" s="347"/>
       <c r="C336" s="444" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>(cm)</v>
       </c>
       <c r="D336" s="441" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>(cm)</v>
       </c>
       <c r="E336" s="42" t="str">
@@ -33617,48 +33781,48 @@
         <v>7</v>
       </c>
       <c r="B337" s="347"/>
-      <c r="C337" s="601" t="str">
+      <c r="C337" s="625" t="str">
         <f>O142&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
       <c r="D337" s="511">
-        <f t="shared" ref="D337:D352" si="58">P141</f>
+        <f t="shared" ref="D337:D352" si="71">P141</f>
         <v>10</v>
       </c>
       <c r="E337" s="401">
-        <f t="shared" ref="E337:E352" si="59">IF(Q141="","",Q141)</f>
+        <f t="shared" ref="E337:E352" si="72">IF(Q141="","",Q141)</f>
         <v>0</v>
       </c>
       <c r="F337" s="407">
-        <f t="shared" ref="F337:F352" si="60">IF(R141="","",R141)</f>
+        <f t="shared" ref="F337:F352" si="73">IF(R141="","",R141)</f>
         <v>0</v>
       </c>
       <c r="G337" s="402">
-        <f t="shared" ref="G337:G352" si="61">IF(S141="","",S141)</f>
+        <f t="shared" ref="G337:G352" si="74">IF(S141="","",S141)</f>
         <v>0</v>
       </c>
       <c r="H337" s="458">
-        <f t="shared" ref="H337:H352" si="62">IF(T141="","",T141)</f>
+        <f t="shared" ref="H337:H352" si="75">IF(T141="","",T141)</f>
         <v>0</v>
       </c>
       <c r="I337" s="407">
-        <f t="shared" ref="I337:I352" si="63">IF(U141="","",U141)</f>
+        <f t="shared" ref="I337:I352" si="76">IF(U141="","",U141)</f>
         <v>0</v>
       </c>
       <c r="J337" s="402">
-        <f t="shared" ref="J337:J352" si="64">IF(V141="","",V141)</f>
+        <f t="shared" ref="J337:J352" si="77">IF(V141="","",V141)</f>
         <v>0</v>
       </c>
       <c r="K337" s="458">
-        <f t="shared" ref="K337:K352" si="65">IF(W141="","",W141)</f>
+        <f t="shared" ref="K337:K352" si="78">IF(W141="","",W141)</f>
         <v>0</v>
       </c>
       <c r="L337" s="407">
-        <f t="shared" ref="L337:L352" si="66">IF(X141="","",X141)</f>
+        <f t="shared" ref="L337:L352" si="79">IF(X141="","",X141)</f>
         <v>0</v>
       </c>
       <c r="M337" s="453">
-        <f t="shared" ref="M337:M352" si="67">IF(Y141="","",Y141)</f>
+        <f t="shared" ref="M337:M352" si="80">IF(Y141="","",Y141)</f>
         <v>0</v>
       </c>
       <c r="O337" s="130"/>
@@ -33677,45 +33841,45 @@
         <v>8</v>
       </c>
       <c r="B338" s="347"/>
-      <c r="C338" s="601"/>
+      <c r="C338" s="625"/>
       <c r="D338" s="512">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v>20</v>
       </c>
       <c r="E338" s="403">
-        <f t="shared" si="59"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="F338" s="408">
-        <f t="shared" si="60"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="G338" s="404">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="H338" s="459">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I338" s="408">
-        <f t="shared" si="63"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J338" s="404">
-        <f t="shared" si="64"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="K338" s="459">
-        <f t="shared" si="65"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="L338" s="408">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="M338" s="454">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O338" s="130"/>
@@ -33734,45 +33898,45 @@
         <v>9</v>
       </c>
       <c r="B339" s="347"/>
-      <c r="C339" s="601"/>
+      <c r="C339" s="625"/>
       <c r="D339" s="513">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v>30</v>
       </c>
       <c r="E339" s="509">
-        <f t="shared" si="59"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="F339" s="478">
-        <f t="shared" si="60"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="G339" s="479">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="H339" s="516">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I339" s="478">
-        <f t="shared" si="63"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J339" s="479">
-        <f t="shared" si="64"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="K339" s="516">
-        <f t="shared" si="65"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="L339" s="478">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="M339" s="510">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O339" s="130"/>
@@ -33791,48 +33955,48 @@
         <v>10</v>
       </c>
       <c r="B340" s="347"/>
-      <c r="C340" s="601" t="str">
+      <c r="C340" s="625" t="str">
         <f>O145&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
       <c r="D340" s="511">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v>10</v>
       </c>
       <c r="E340" s="401">
-        <f t="shared" si="59"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="F340" s="407">
-        <f t="shared" si="60"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="G340" s="402">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="H340" s="458">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I340" s="407">
-        <f t="shared" si="63"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J340" s="402">
-        <f t="shared" si="64"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="K340" s="458">
-        <f t="shared" si="65"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="L340" s="407">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="M340" s="453">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O340" s="130"/>
@@ -33851,45 +34015,45 @@
         <v>11</v>
       </c>
       <c r="B341" s="347"/>
-      <c r="C341" s="601"/>
+      <c r="C341" s="625"/>
       <c r="D341" s="512">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v>20</v>
       </c>
       <c r="E341" s="403">
-        <f t="shared" si="59"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="F341" s="408">
-        <f t="shared" si="60"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="G341" s="404">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="H341" s="459">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I341" s="408">
-        <f t="shared" si="63"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J341" s="404">
-        <f t="shared" si="64"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="K341" s="459">
-        <f t="shared" si="65"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="L341" s="408">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="M341" s="454">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O341" s="130"/>
@@ -33908,45 +34072,45 @@
         <v>12</v>
       </c>
       <c r="B342" s="347"/>
-      <c r="C342" s="601"/>
+      <c r="C342" s="625"/>
       <c r="D342" s="514">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v>30</v>
       </c>
       <c r="E342" s="405">
-        <f t="shared" si="59"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="F342" s="409">
-        <f t="shared" si="60"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="G342" s="406">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="H342" s="460">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I342" s="409">
-        <f t="shared" si="63"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J342" s="406">
-        <f t="shared" si="64"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="K342" s="460">
-        <f t="shared" si="65"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="L342" s="409">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="M342" s="455">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O342" s="130"/>
@@ -33965,48 +34129,48 @@
         <v>13</v>
       </c>
       <c r="B343" s="347"/>
-      <c r="C343" s="601" t="str">
+      <c r="C343" s="625" t="str">
         <f>O148&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
       <c r="D343" s="515">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v>10</v>
       </c>
       <c r="E343" s="456">
-        <f t="shared" si="59"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="F343" s="431">
-        <f t="shared" si="60"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="G343" s="462">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="H343" s="461">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I343" s="431">
-        <f t="shared" si="63"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J343" s="462">
-        <f t="shared" si="64"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="K343" s="461">
-        <f t="shared" si="65"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="L343" s="431">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="M343" s="457">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O343" s="13"/>
@@ -34017,45 +34181,45 @@
         <v>14</v>
       </c>
       <c r="B344" s="347"/>
-      <c r="C344" s="601"/>
+      <c r="C344" s="625"/>
       <c r="D344" s="512">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v>20</v>
       </c>
       <c r="E344" s="403">
-        <f t="shared" si="59"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="F344" s="408">
-        <f t="shared" si="60"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="G344" s="404">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="H344" s="459">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I344" s="408">
-        <f t="shared" si="63"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J344" s="404">
-        <f t="shared" si="64"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="K344" s="459">
-        <f t="shared" si="65"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="L344" s="408">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="M344" s="454">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O344" s="13"/>
@@ -34079,45 +34243,45 @@
         <v>15</v>
       </c>
       <c r="B345" s="347"/>
-      <c r="C345" s="601"/>
+      <c r="C345" s="625"/>
       <c r="D345" s="513">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v>30</v>
       </c>
       <c r="E345" s="509">
-        <f t="shared" si="59"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="F345" s="478">
-        <f t="shared" si="60"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="G345" s="479">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="H345" s="516">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I345" s="478">
-        <f t="shared" si="63"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J345" s="479">
-        <f t="shared" si="64"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="K345" s="516">
-        <f t="shared" si="65"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="L345" s="478">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="M345" s="510">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O345" s="13"/>
@@ -34142,48 +34306,48 @@
         <v>16</v>
       </c>
       <c r="B346" s="347"/>
-      <c r="C346" s="601" t="str">
+      <c r="C346" s="625" t="str">
         <f>O151&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
       <c r="D346" s="511">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v>10</v>
       </c>
       <c r="E346" s="401">
-        <f t="shared" si="59"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="F346" s="407">
-        <f t="shared" si="60"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="G346" s="402">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="H346" s="458">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I346" s="407">
-        <f t="shared" si="63"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J346" s="402">
-        <f t="shared" si="64"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="K346" s="458">
-        <f t="shared" si="65"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="L346" s="407">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="M346" s="453">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O346" s="13"/>
@@ -34205,45 +34369,45 @@
         <v>17</v>
       </c>
       <c r="B347" s="347"/>
-      <c r="C347" s="601"/>
+      <c r="C347" s="625"/>
       <c r="D347" s="512">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v>20</v>
       </c>
       <c r="E347" s="403">
-        <f t="shared" si="59"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="F347" s="408">
-        <f t="shared" si="60"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="G347" s="404">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="H347" s="459">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I347" s="408">
-        <f t="shared" si="63"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J347" s="404">
-        <f t="shared" si="64"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="K347" s="459">
-        <f t="shared" si="65"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="L347" s="408">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="M347" s="454">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O347" s="21"/>
@@ -34263,45 +34427,45 @@
         <v>18</v>
       </c>
       <c r="B348" s="347"/>
-      <c r="C348" s="601"/>
+      <c r="C348" s="625"/>
       <c r="D348" s="514">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v>30</v>
       </c>
       <c r="E348" s="405">
-        <f t="shared" si="59"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="F348" s="409">
-        <f t="shared" si="60"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="G348" s="406">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="H348" s="460">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I348" s="409">
-        <f t="shared" si="63"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J348" s="406">
-        <f t="shared" si="64"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="K348" s="460">
-        <f t="shared" si="65"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="L348" s="409">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="M348" s="455">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O348" s="115" t="s">
@@ -34341,48 +34505,48 @@
         <v>19</v>
       </c>
       <c r="B349" s="347"/>
-      <c r="C349" s="601" t="str">
+      <c r="C349" s="625" t="str">
         <f>O154&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
       <c r="D349" s="515">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v>10</v>
       </c>
       <c r="E349" s="456">
-        <f t="shared" si="59"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="F349" s="431">
-        <f t="shared" si="60"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="G349" s="462">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="H349" s="461">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I349" s="431">
-        <f t="shared" si="63"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J349" s="462">
-        <f t="shared" si="64"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="K349" s="461">
-        <f t="shared" si="65"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="L349" s="431">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="M349" s="457">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O349" s="13"/>
@@ -34404,45 +34568,45 @@
         <v>20</v>
       </c>
       <c r="B350" s="347"/>
-      <c r="C350" s="601"/>
+      <c r="C350" s="625"/>
       <c r="D350" s="512">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v>20</v>
       </c>
       <c r="E350" s="403">
-        <f t="shared" si="59"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="F350" s="408">
-        <f t="shared" si="60"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="G350" s="404">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="H350" s="459">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I350" s="408">
-        <f t="shared" si="63"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J350" s="404">
-        <f t="shared" si="64"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="K350" s="459">
-        <f t="shared" si="65"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="L350" s="408">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="M350" s="454">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O350" s="13"/>
@@ -34463,45 +34627,45 @@
         <v>21</v>
       </c>
       <c r="B351" s="347"/>
-      <c r="C351" s="601"/>
+      <c r="C351" s="625"/>
       <c r="D351" s="514">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v>30</v>
       </c>
       <c r="E351" s="405">
-        <f t="shared" si="59"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="F351" s="409">
-        <f t="shared" si="60"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="G351" s="406">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="H351" s="460">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I351" s="409">
-        <f t="shared" si="63"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J351" s="406">
-        <f t="shared" si="64"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="K351" s="460">
-        <f t="shared" si="65"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="L351" s="409">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="M351" s="455">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O351" s="13"/>
@@ -34538,43 +34702,43 @@
       <c r="B352" s="347"/>
       <c r="C352" s="507"/>
       <c r="D352" s="445" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v>max</v>
       </c>
       <c r="E352" s="446">
-        <f t="shared" si="59"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="F352" s="447">
-        <f t="shared" si="60"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="G352" s="448">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="H352" s="446">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I352" s="447">
-        <f t="shared" si="63"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J352" s="448">
-        <f t="shared" si="64"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="K352" s="446">
-        <f t="shared" si="65"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="L352" s="447">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="M352" s="508">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O352" s="13"/>
@@ -34772,11 +34936,11 @@
         <f>IF(OR(V358="",V359="",V362=""),"",(V358-V359)*V362)</f>
         <v/>
       </c>
-      <c r="Q358" s="613" t="str">
+      <c r="Q358" s="626" t="str">
         <f>IF(OR(P358="",P359=""),"",(ABS(P358)+ABS(P359))/$O$355)</f>
         <v/>
       </c>
-      <c r="R358" s="614" t="str">
+      <c r="R358" s="627" t="str">
         <f>IF(OR(Q358="",Q360=""),"",Q358+Q360)</f>
         <v/>
       </c>
@@ -34815,8 +34979,8 @@
         <f>IF(OR(W358="",W359="",V362=""),"",(W358-W359)*V362)</f>
         <v/>
       </c>
-      <c r="Q359" s="613"/>
-      <c r="R359" s="613"/>
+      <c r="Q359" s="626"/>
+      <c r="R359" s="626"/>
       <c r="S359" s="146" t="str">
         <f>IF(AB171="","",AB171)</f>
         <v/>
@@ -34852,11 +35016,11 @@
         <f>IF(OR(X358="",X359="",V362=""),"",(X358-X359)*V362)</f>
         <v/>
       </c>
-      <c r="Q360" s="614" t="str">
+      <c r="Q360" s="627" t="str">
         <f>IF(OR(P360="",P361=""),"",(ABS(P360)+ABS(P361))/$O$355)</f>
         <v/>
       </c>
-      <c r="R360" s="614"/>
+      <c r="R360" s="627"/>
       <c r="S360" s="146" t="str">
         <f>IF(AB172="","",AB172)</f>
         <v/>
@@ -34898,8 +35062,8 @@
         <f>IF(OR(Y358="",Y359="",V362=""),"",(Y358-Y359)*V362)</f>
         <v/>
       </c>
-      <c r="Q361" s="614"/>
-      <c r="R361" s="614"/>
+      <c r="Q361" s="627"/>
+      <c r="R361" s="627"/>
       <c r="S361" s="148" t="str">
         <f>IF(AB173="","",AB173)</f>
         <v/>
@@ -35071,28 +35235,28 @@
         <v>36</v>
       </c>
       <c r="B366" s="347"/>
-      <c r="C366" s="615" t="str">
+      <c r="C366" s="628" t="str">
         <f>O214</f>
         <v>Auto 1</v>
       </c>
       <c r="D366" s="480" t="str">
-        <f t="shared" ref="D366:D380" si="68">IF(P214="","",P214)</f>
+        <f t="shared" ref="D366:D380" si="81">IF(P214="","",P214)</f>
         <v/>
       </c>
       <c r="E366" s="481" t="str">
-        <f t="shared" ref="E366:E380" si="69">IF(Q214="","",Q214)</f>
+        <f t="shared" ref="E366:E380" si="82">IF(Q214="","",Q214)</f>
         <v/>
       </c>
       <c r="F366" s="481" t="str">
-        <f t="shared" ref="F366:F380" si="70">IF(R214="","",R214)</f>
+        <f t="shared" ref="F366:F380" si="83">IF(R214="","",R214)</f>
         <v/>
       </c>
       <c r="G366" s="482" t="str">
-        <f t="shared" ref="G366:G380" si="71">IF(S214="","",S214)</f>
+        <f t="shared" ref="G366:G380" si="84">IF(S214="","",S214)</f>
         <v/>
       </c>
       <c r="H366" s="481" t="str">
-        <f t="shared" ref="H366:H380" si="72">IF(T214="","",T214)</f>
+        <f t="shared" ref="H366:H380" si="85">IF(T214="","",T214)</f>
         <v/>
       </c>
       <c r="I366" s="135"/>
@@ -35122,25 +35286,25 @@
         <v>37</v>
       </c>
       <c r="B367" s="347"/>
-      <c r="C367" s="616"/>
+      <c r="C367" s="629"/>
       <c r="D367" s="483" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="E367" s="484" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="F367" s="484" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="G367" s="485" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="H367" s="484" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="I367" s="135"/>
@@ -35168,25 +35332,25 @@
         <v>38</v>
       </c>
       <c r="B368" s="347"/>
-      <c r="C368" s="616"/>
+      <c r="C368" s="629"/>
       <c r="D368" s="483" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="E368" s="484" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="F368" s="484" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="G368" s="485" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="H368" s="484" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="I368" s="135"/>
@@ -35203,25 +35367,25 @@
         <v>39</v>
       </c>
       <c r="B369" s="347"/>
-      <c r="C369" s="616"/>
+      <c r="C369" s="629"/>
       <c r="D369" s="483" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="E369" s="484" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="F369" s="484" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="G369" s="485" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="H369" s="484" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="I369" s="135"/>
@@ -35238,25 +35402,25 @@
         <v>40</v>
       </c>
       <c r="B370" s="347"/>
-      <c r="C370" s="616"/>
+      <c r="C370" s="629"/>
       <c r="D370" s="489" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="E370" s="490" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="F370" s="490" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="G370" s="491" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="H370" s="490" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="I370" s="135"/>
@@ -35283,28 +35447,28 @@
         <v>41</v>
       </c>
       <c r="B371" s="347"/>
-      <c r="C371" s="605" t="str">
+      <c r="C371" s="608" t="str">
         <f>O219</f>
         <v>Auto 2</v>
       </c>
       <c r="D371" s="480" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="E371" s="481" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="F371" s="481" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="G371" s="482" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="H371" s="481" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="I371" s="135"/>
@@ -35333,25 +35497,25 @@
         <v>42</v>
       </c>
       <c r="B372" s="347"/>
-      <c r="C372" s="606"/>
+      <c r="C372" s="609"/>
       <c r="D372" s="483" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="E372" s="484" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="F372" s="484" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="G372" s="485" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="H372" s="484" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="I372" s="135"/>
@@ -35383,25 +35547,25 @@
         <v>43</v>
       </c>
       <c r="B373" s="347"/>
-      <c r="C373" s="606"/>
+      <c r="C373" s="609"/>
       <c r="D373" s="483" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="E373" s="484" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="F373" s="484" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="G373" s="485" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="H373" s="484" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="I373" s="135"/>
@@ -35430,25 +35594,25 @@
         <v>44</v>
       </c>
       <c r="B374" s="347"/>
-      <c r="C374" s="606"/>
+      <c r="C374" s="609"/>
       <c r="D374" s="483" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="E374" s="484" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="F374" s="484" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="G374" s="485" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="H374" s="484" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="I374" s="135"/>
@@ -35480,25 +35644,25 @@
         <v>45</v>
       </c>
       <c r="B375" s="347"/>
-      <c r="C375" s="608"/>
+      <c r="C375" s="610"/>
       <c r="D375" s="489" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="E375" s="490" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="F375" s="490" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="G375" s="491" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="H375" s="490" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="I375" s="135"/>
@@ -35527,28 +35691,28 @@
         <v>46</v>
       </c>
       <c r="B376" s="347"/>
-      <c r="C376" s="617" t="str">
+      <c r="C376" s="611" t="str">
         <f>O224</f>
         <v>High Level</v>
       </c>
       <c r="D376" s="480" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="E376" s="481" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="F376" s="481" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="G376" s="482" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="H376" s="481" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="I376" s="135"/>
@@ -35580,25 +35744,25 @@
         <v>47</v>
       </c>
       <c r="B377" s="347"/>
-      <c r="C377" s="618"/>
+      <c r="C377" s="612"/>
       <c r="D377" s="483" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="E377" s="484" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="F377" s="484" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="G377" s="485" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="H377" s="484" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="I377" s="135"/>
@@ -35627,25 +35791,25 @@
         <v>48</v>
       </c>
       <c r="B378" s="347"/>
-      <c r="C378" s="618"/>
+      <c r="C378" s="612"/>
       <c r="D378" s="483" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="E378" s="484" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="F378" s="484" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="G378" s="485" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="H378" s="484" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="I378" s="203"/>
@@ -35677,25 +35841,25 @@
         <v>49</v>
       </c>
       <c r="B379" s="347"/>
-      <c r="C379" s="618"/>
+      <c r="C379" s="612"/>
       <c r="D379" s="483" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="E379" s="484" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="F379" s="484" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="G379" s="485" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="H379" s="484" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="I379" s="203"/>
@@ -35724,25 +35888,25 @@
         <v>50</v>
       </c>
       <c r="B380" s="347"/>
-      <c r="C380" s="619"/>
+      <c r="C380" s="613"/>
       <c r="D380" s="489" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="E380" s="490" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="F380" s="490" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="G380" s="491" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="H380" s="490" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="I380" s="203"/>
@@ -36034,7 +36198,7 @@
         <v>58</v>
       </c>
       <c r="B388" s="347"/>
-      <c r="C388" s="610" t="str">
+      <c r="C388" s="614" t="str">
         <f>O242</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -36085,7 +36249,7 @@
         <v>59</v>
       </c>
       <c r="B389" s="347"/>
-      <c r="C389" s="611"/>
+      <c r="C389" s="615"/>
       <c r="D389" s="498" t="str">
         <f>P243</f>
         <v>Waist level</v>
@@ -36436,14 +36600,14 @@
       <c r="E399" s="345"/>
       <c r="F399" s="345"/>
       <c r="G399" s="345"/>
-      <c r="H399" s="620" t="s">
+      <c r="H399" s="616" t="s">
         <v>395</v>
       </c>
-      <c r="I399" s="620"/>
-      <c r="J399" s="620" t="s">
+      <c r="I399" s="616"/>
+      <c r="J399" s="616" t="s">
         <v>396</v>
       </c>
-      <c r="K399" s="620"/>
+      <c r="K399" s="616"/>
       <c r="L399" s="345"/>
       <c r="M399" s="346"/>
       <c r="O399" s="13"/>
@@ -36527,15 +36691,15 @@
         <v/>
       </c>
       <c r="E401" s="530" t="str">
-        <f t="shared" ref="E401:G405" si="73">IF(P319="","",VLOOKUP(P319,LeedsMS,2))</f>
+        <f t="shared" ref="E401:G405" si="86">IF(P319="","",VLOOKUP(P319,LeedsMS,2))</f>
         <v/>
       </c>
       <c r="F401" s="531" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="G401" s="532" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="H401" s="523" t="str">
@@ -36583,15 +36747,15 @@
         <v/>
       </c>
       <c r="E402" s="524" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="F402" s="519" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="G402" s="525" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="H402" s="399" t="str">
@@ -36640,15 +36804,15 @@
         <v/>
       </c>
       <c r="E403" s="524" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="F403" s="519" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="G403" s="525" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="H403" s="399" t="str">
@@ -36696,15 +36860,15 @@
         <v/>
       </c>
       <c r="E404" s="524" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="F404" s="519" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="G404" s="525" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="H404" s="399" t="str">
@@ -36753,15 +36917,15 @@
         <v/>
       </c>
       <c r="E405" s="526" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="F405" s="521" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="G405" s="527" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="H405" s="400" t="str">
@@ -37017,20 +37181,20 @@
       </c>
       <c r="B413" s="347"/>
       <c r="C413" s="42"/>
-      <c r="D413" s="621" t="s">
+      <c r="D413" s="617" t="s">
         <v>402</v>
       </c>
-      <c r="E413" s="621"/>
-      <c r="F413" s="621"/>
-      <c r="G413" s="621"/>
-      <c r="H413" s="621"/>
-      <c r="I413" s="621" t="s">
+      <c r="E413" s="617"/>
+      <c r="F413" s="617"/>
+      <c r="G413" s="617"/>
+      <c r="H413" s="617"/>
+      <c r="I413" s="617" t="s">
         <v>403</v>
       </c>
-      <c r="J413" s="621"/>
-      <c r="K413" s="621"/>
-      <c r="L413" s="621"/>
-      <c r="M413" s="622"/>
+      <c r="J413" s="617"/>
+      <c r="K413" s="617"/>
+      <c r="L413" s="617"/>
+      <c r="M413" s="618"/>
       <c r="O413" s="13"/>
       <c r="P413" s="2" t="s">
         <v>189</v>
@@ -37121,23 +37285,23 @@
         <v>351</v>
       </c>
       <c r="D415" s="551" t="str">
-        <f t="shared" ref="D415:D426" si="74">IF(Q331="","",HLOOKUP(Q331,TO10Values,MATCH($P331,TO10Group,0)))</f>
+        <f t="shared" ref="D415:D426" si="87">IF(Q331="","",HLOOKUP(Q331,TO10Values,MATCH($P331,TO10Group,0)))</f>
         <v/>
       </c>
       <c r="E415" s="552" t="str">
-        <f t="shared" ref="E415:E426" si="75">IF(R331="","",HLOOKUP(R331,TO10Values,MATCH($P331,TO10Group,0)))</f>
+        <f t="shared" ref="E415:E426" si="88">IF(R331="","",HLOOKUP(R331,TO10Values,MATCH($P331,TO10Group,0)))</f>
         <v/>
       </c>
       <c r="F415" s="552" t="str">
-        <f t="shared" ref="F415:F426" si="76">IF(S331="","",HLOOKUP(S331,TO10Values,MATCH($P331,TO10Group,0)))</f>
+        <f t="shared" ref="F415:F426" si="89">IF(S331="","",HLOOKUP(S331,TO10Values,MATCH($P331,TO10Group,0)))</f>
         <v/>
       </c>
       <c r="G415" s="552" t="str">
-        <f t="shared" ref="G415:G426" si="77">IF(T331="","",HLOOKUP(T331,TO10Values,MATCH($P331,TO10Group,0)))</f>
+        <f t="shared" ref="G415:G426" si="90">IF(T331="","",HLOOKUP(T331,TO10Values,MATCH($P331,TO10Group,0)))</f>
         <v/>
       </c>
       <c r="H415" s="553" t="str">
-        <f t="shared" ref="H415:H426" si="78">IF(U331="","",HLOOKUP(U331,TO10Values,MATCH($P331,TO10Group,0)))</f>
+        <f t="shared" ref="H415:H426" si="91">IF(U331="","",HLOOKUP(U331,TO10Values,MATCH($P331,TO10Group,0)))</f>
         <v/>
       </c>
       <c r="I415" s="554" t="str">
@@ -37185,23 +37349,23 @@
         <v>352</v>
       </c>
       <c r="D416" s="539" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="E416" s="540" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="F416" s="540" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="G416" s="540" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H416" s="543" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="I416" s="545" t="str">
@@ -37250,23 +37414,23 @@
         <v>353</v>
       </c>
       <c r="D417" s="539" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="E417" s="540" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="F417" s="540" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="G417" s="540" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H417" s="543" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="I417" s="545" t="str">
@@ -37314,23 +37478,23 @@
         <v>354</v>
       </c>
       <c r="D418" s="539" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="E418" s="540" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="F418" s="540" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="G418" s="540" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H418" s="543" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="I418" s="545" t="str">
@@ -37379,23 +37543,23 @@
         <v>355</v>
       </c>
       <c r="D419" s="539" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="E419" s="540" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="F419" s="540" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="G419" s="540" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H419" s="543" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="I419" s="545" t="str">
@@ -37443,23 +37607,23 @@
         <v>356</v>
       </c>
       <c r="D420" s="539" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="E420" s="540" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="F420" s="540" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="G420" s="540" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H420" s="543" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="I420" s="545" t="str">
@@ -37508,23 +37672,23 @@
         <v>357</v>
       </c>
       <c r="D421" s="539" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="E421" s="540" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="F421" s="540" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="G421" s="540" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H421" s="543" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="I421" s="545" t="str">
@@ -37572,23 +37736,23 @@
         <v>358</v>
       </c>
       <c r="D422" s="539" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="E422" s="540" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="F422" s="540" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="G422" s="540" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H422" s="543" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="I422" s="545" t="str">
@@ -37637,23 +37801,23 @@
         <v>359</v>
       </c>
       <c r="D423" s="539" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="E423" s="540" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="F423" s="540" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="G423" s="540" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H423" s="543" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="I423" s="545" t="str">
@@ -37701,23 +37865,23 @@
         <v>360</v>
       </c>
       <c r="D424" s="539" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="E424" s="540" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="F424" s="540" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="G424" s="540" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H424" s="543" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="I424" s="545" t="str">
@@ -37766,23 +37930,23 @@
         <v>361</v>
       </c>
       <c r="D425" s="539" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="E425" s="540" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="F425" s="540" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="G425" s="540" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H425" s="543" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="I425" s="545" t="str">
@@ -37830,23 +37994,23 @@
         <v>362</v>
       </c>
       <c r="D426" s="541" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="E426" s="542" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="F426" s="542" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="G426" s="542" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H426" s="544" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="I426" s="548" t="str">
@@ -38121,23 +38285,23 @@
         <v>Horizontal</v>
       </c>
       <c r="E433" s="476" t="str">
-        <f t="shared" ref="E433:I436" si="79">IF(Q349="","",Q349)</f>
+        <f t="shared" ref="E433:I436" si="92">IF(Q349="","",Q349)</f>
         <v/>
       </c>
       <c r="F433" s="476" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="G433" s="476" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="H433" s="476" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="I433" s="561" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="J433" s="203"/>
@@ -38171,23 +38335,23 @@
         <v>Vertical</v>
       </c>
       <c r="E434" s="476" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="F434" s="476" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="G434" s="476" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="H434" s="476" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="I434" s="561" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="J434" s="203"/>
@@ -38222,23 +38386,23 @@
         <v>Diagonal</v>
       </c>
       <c r="E435" s="476" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="F435" s="476" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="G435" s="476" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="H435" s="476" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="I435" s="561" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="J435" s="135"/>
@@ -38272,23 +38436,23 @@
         <v>Acceptable</v>
       </c>
       <c r="E436" s="409" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>NA</v>
       </c>
       <c r="F436" s="409" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>NA</v>
       </c>
       <c r="G436" s="409" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>NA</v>
       </c>
       <c r="H436" s="409" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>NA</v>
       </c>
       <c r="I436" s="406" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>NA</v>
       </c>
       <c r="J436" s="135"/>
@@ -38463,15 +38627,15 @@
       <c r="C441" s="135"/>
       <c r="D441" s="42"/>
       <c r="E441" s="42" t="str">
-        <f t="shared" ref="E441:G442" si="80">P357</f>
+        <f t="shared" ref="E441:G442" si="93">P357</f>
         <v>Measured</v>
       </c>
       <c r="F441" s="42" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="93"/>
         <v>Difference</v>
       </c>
       <c r="G441" s="42" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="93"/>
         <v>Sum</v>
       </c>
       <c r="H441" s="135"/>
@@ -38507,15 +38671,15 @@
         <v>Top</v>
       </c>
       <c r="E442" s="407" t="str">
-        <f t="shared" si="80"/>
-        <v/>
-      </c>
-      <c r="F442" s="623" t="str">
-        <f t="shared" si="80"/>
-        <v/>
-      </c>
-      <c r="G442" s="625" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="F442" s="619" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="G442" s="621" t="str">
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="H442" s="203"/>
@@ -38555,8 +38719,8 @@
         <f>P359</f>
         <v/>
       </c>
-      <c r="F443" s="624"/>
-      <c r="G443" s="626"/>
+      <c r="F443" s="620"/>
+      <c r="G443" s="622"/>
       <c r="H443" s="203"/>
       <c r="I443" s="82" t="str">
         <f>T360</f>
@@ -38596,11 +38760,11 @@
         <f>P360</f>
         <v/>
       </c>
-      <c r="F444" s="624" t="str">
+      <c r="F444" s="620" t="str">
         <f>Q360</f>
         <v/>
       </c>
-      <c r="G444" s="626"/>
+      <c r="G444" s="622"/>
       <c r="H444" s="135"/>
       <c r="I444" s="91" t="str">
         <f>T361</f>
@@ -38641,8 +38805,8 @@
         <f>P361</f>
         <v/>
       </c>
-      <c r="F445" s="628"/>
-      <c r="G445" s="627"/>
+      <c r="F445" s="624"/>
+      <c r="G445" s="623"/>
       <c r="H445" s="135"/>
       <c r="I445" s="135"/>
       <c r="J445" s="135"/>
@@ -44978,35 +45142,68 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="H204:H205"/>
-    <mergeCell ref="I204:I205"/>
-    <mergeCell ref="M204:M205"/>
-    <mergeCell ref="C371:C375"/>
-    <mergeCell ref="C376:C380"/>
-    <mergeCell ref="C388:C389"/>
-    <mergeCell ref="H399:I399"/>
-    <mergeCell ref="J399:K399"/>
-    <mergeCell ref="D413:H413"/>
-    <mergeCell ref="I413:M413"/>
-    <mergeCell ref="F442:F443"/>
-    <mergeCell ref="G442:G445"/>
-    <mergeCell ref="F444:F445"/>
-    <mergeCell ref="C337:C339"/>
-    <mergeCell ref="C340:C342"/>
-    <mergeCell ref="C343:C345"/>
-    <mergeCell ref="C346:C348"/>
-    <mergeCell ref="C349:C351"/>
-    <mergeCell ref="Q358:Q359"/>
-    <mergeCell ref="R358:R361"/>
-    <mergeCell ref="Q360:Q361"/>
-    <mergeCell ref="C366:C370"/>
-    <mergeCell ref="P293:S293"/>
-    <mergeCell ref="P302:S302"/>
-    <mergeCell ref="C303:C307"/>
-    <mergeCell ref="C308:C312"/>
-    <mergeCell ref="C313:C317"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="W107:Y107"/>
+    <mergeCell ref="Q139:S139"/>
+    <mergeCell ref="T139:V139"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="T181:U181"/>
+    <mergeCell ref="O190:O194"/>
+    <mergeCell ref="O195:O199"/>
+    <mergeCell ref="O200:O204"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="Q107:S107"/>
+    <mergeCell ref="T107:V107"/>
+    <mergeCell ref="O214:O218"/>
+    <mergeCell ref="O219:O223"/>
+    <mergeCell ref="O224:O228"/>
+    <mergeCell ref="O240:O241"/>
+    <mergeCell ref="O242:O243"/>
+    <mergeCell ref="Q257:R257"/>
+    <mergeCell ref="T257:U257"/>
+    <mergeCell ref="E269:G269"/>
+    <mergeCell ref="H269:J269"/>
+    <mergeCell ref="K269:M269"/>
     <mergeCell ref="V319:W319"/>
     <mergeCell ref="C324:C325"/>
     <mergeCell ref="Q329:U329"/>
@@ -45022,68 +45219,35 @@
     <mergeCell ref="C277:C279"/>
     <mergeCell ref="C280:C282"/>
     <mergeCell ref="C283:C285"/>
-    <mergeCell ref="O214:O218"/>
-    <mergeCell ref="O219:O223"/>
-    <mergeCell ref="O224:O228"/>
-    <mergeCell ref="O240:O241"/>
-    <mergeCell ref="O242:O243"/>
-    <mergeCell ref="Q257:R257"/>
-    <mergeCell ref="T257:U257"/>
-    <mergeCell ref="E269:G269"/>
-    <mergeCell ref="H269:J269"/>
-    <mergeCell ref="K269:M269"/>
-    <mergeCell ref="T181:U181"/>
-    <mergeCell ref="O190:O194"/>
-    <mergeCell ref="O195:O199"/>
-    <mergeCell ref="O200:O204"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="Q107:S107"/>
-    <mergeCell ref="T107:V107"/>
-    <mergeCell ref="W107:Y107"/>
-    <mergeCell ref="Q139:S139"/>
-    <mergeCell ref="T139:V139"/>
-    <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="Q358:Q359"/>
+    <mergeCell ref="R358:R361"/>
+    <mergeCell ref="Q360:Q361"/>
+    <mergeCell ref="C366:C370"/>
+    <mergeCell ref="P293:S293"/>
+    <mergeCell ref="P302:S302"/>
+    <mergeCell ref="C303:C307"/>
+    <mergeCell ref="C308:C312"/>
+    <mergeCell ref="C313:C317"/>
+    <mergeCell ref="D413:H413"/>
+    <mergeCell ref="I413:M413"/>
+    <mergeCell ref="F442:F443"/>
+    <mergeCell ref="G442:G445"/>
+    <mergeCell ref="F444:F445"/>
+    <mergeCell ref="C337:C339"/>
+    <mergeCell ref="C340:C342"/>
+    <mergeCell ref="C343:C345"/>
+    <mergeCell ref="C346:C348"/>
+    <mergeCell ref="C349:C351"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="H204:H205"/>
+    <mergeCell ref="I204:I205"/>
+    <mergeCell ref="M204:M205"/>
+    <mergeCell ref="C371:C375"/>
+    <mergeCell ref="C376:C380"/>
+    <mergeCell ref="C388:C389"/>
+    <mergeCell ref="H399:I399"/>
+    <mergeCell ref="J399:K399"/>
   </mergeCells>
   <conditionalFormatting sqref="S126 V126 Y126 S158 V158 Y158">
     <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
@@ -45309,27 +45473,27 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="650" t="str">
+      <c r="H3" s="590" t="str">
         <f>Fluoro!H267</f>
         <v>Test equipment:</v>
       </c>
-      <c r="I3" s="651" t="str">
+      <c r="I3" s="591" t="str">
         <f>Fluoro!I267</f>
         <v>Radcal 9010</v>
       </c>
-      <c r="J3" s="650" t="str">
+      <c r="J3" s="590" t="str">
         <f>Fluoro!J267</f>
         <v>Calibration date:</v>
       </c>
-      <c r="K3" s="656">
+      <c r="K3" s="596">
         <f>Fluoro!K267</f>
         <v>43670</v>
       </c>
-      <c r="L3" s="650" t="str">
+      <c r="L3" s="590" t="str">
         <f>Fluoro!L267</f>
         <v>Calibration due:</v>
       </c>
-      <c r="M3" s="657">
+      <c r="M3" s="597">
         <f>Fluoro!M267</f>
         <v>44036</v>
       </c>
@@ -45370,39 +45534,39 @@
         <f>Fluoro!D269</f>
         <v>Attenuator</v>
       </c>
-      <c r="E5" s="598" t="str">
+      <c r="E5" s="636" t="str">
         <f>Fluoro!E269</f>
         <v>Auto 1</v>
       </c>
-      <c r="F5" s="598">
+      <c r="F5" s="636">
         <f>Fluoro!F269</f>
         <v>0</v>
       </c>
-      <c r="G5" s="598">
+      <c r="G5" s="636">
         <f>Fluoro!G269</f>
         <v>0</v>
       </c>
-      <c r="H5" s="598" t="str">
+      <c r="H5" s="636" t="str">
         <f>Fluoro!H269</f>
         <v>Auto 2</v>
       </c>
-      <c r="I5" s="598">
+      <c r="I5" s="636">
         <f>Fluoro!I269</f>
         <v>0</v>
       </c>
-      <c r="J5" s="598">
+      <c r="J5" s="636">
         <f>Fluoro!J269</f>
         <v>0</v>
       </c>
-      <c r="K5" s="599" t="str">
+      <c r="K5" s="637" t="str">
         <f>Fluoro!K269</f>
         <v>High Level</v>
       </c>
-      <c r="L5" s="599">
+      <c r="L5" s="637">
         <f>Fluoro!L269</f>
         <v>0</v>
       </c>
-      <c r="M5" s="599">
+      <c r="M5" s="637">
         <f>Fluoro!M269</f>
         <v>0</v>
       </c>
@@ -45459,7 +45623,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="629" t="str">
+      <c r="C7" s="658" t="str">
         <f>Fluoro!C271</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -45509,7 +45673,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="629">
+      <c r="C8" s="658">
         <f>Fluoro!C272</f>
         <v>0</v>
       </c>
@@ -45559,7 +45723,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="629">
+      <c r="C9" s="658">
         <f>Fluoro!C273</f>
         <v>0</v>
       </c>
@@ -45609,7 +45773,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="629" t="str">
+      <c r="C10" s="658" t="str">
         <f>Fluoro!C274</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -45659,7 +45823,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="629">
+      <c r="C11" s="658">
         <f>Fluoro!C275</f>
         <v>0</v>
       </c>
@@ -45709,7 +45873,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="629">
+      <c r="C12" s="658">
         <f>Fluoro!C276</f>
         <v>0</v>
       </c>
@@ -45759,7 +45923,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="629" t="str">
+      <c r="C13" s="658" t="str">
         <f>Fluoro!C277</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -45809,7 +45973,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="629">
+      <c r="C14" s="658">
         <f>Fluoro!C278</f>
         <v>0</v>
       </c>
@@ -45859,7 +46023,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="629">
+      <c r="C15" s="658">
         <f>Fluoro!C279</f>
         <v>0</v>
       </c>
@@ -45909,7 +46073,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="629" t="str">
+      <c r="C16" s="658" t="str">
         <f>Fluoro!C280</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -45959,7 +46123,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="629">
+      <c r="C17" s="658">
         <f>Fluoro!C281</f>
         <v>0</v>
       </c>
@@ -46009,7 +46173,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="629">
+      <c r="C18" s="658">
         <f>Fluoro!C282</f>
         <v>0</v>
       </c>
@@ -46059,7 +46223,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="629" t="str">
+      <c r="C19" s="658" t="str">
         <f>Fluoro!C283</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -46109,7 +46273,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="629">
+      <c r="C20" s="658">
         <f>Fluoro!C284</f>
         <v>0</v>
       </c>
@@ -46159,7 +46323,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="629">
+      <c r="C21" s="658">
         <f>Fluoro!C285</f>
         <v>0</v>
       </c>
@@ -46608,7 +46772,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="10"/>
-      <c r="C39" s="630" t="str">
+      <c r="C39" s="655" t="str">
         <f>Fluoro!C303</f>
         <v>Auto 1</v>
       </c>
@@ -46646,7 +46810,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="10"/>
-      <c r="C40" s="630">
+      <c r="C40" s="655">
         <f>Fluoro!C304</f>
         <v>0</v>
       </c>
@@ -46684,7 +46848,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="630">
+      <c r="C41" s="655">
         <f>Fluoro!C305</f>
         <v>0</v>
       </c>
@@ -46722,7 +46886,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="10"/>
-      <c r="C42" s="630">
+      <c r="C42" s="655">
         <f>Fluoro!C306</f>
         <v>0</v>
       </c>
@@ -46757,7 +46921,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="10"/>
-      <c r="C43" s="630">
+      <c r="C43" s="655">
         <f>Fluoro!C307</f>
         <v>0</v>
       </c>
@@ -46792,7 +46956,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="10"/>
-      <c r="C44" s="631" t="str">
+      <c r="C44" s="656" t="str">
         <f>Fluoro!C308</f>
         <v>Auto 2</v>
       </c>
@@ -46827,7 +46991,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="10"/>
-      <c r="C45" s="631">
+      <c r="C45" s="656">
         <f>Fluoro!C309</f>
         <v>0</v>
       </c>
@@ -46862,7 +47026,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="10"/>
-      <c r="C46" s="631">
+      <c r="C46" s="656">
         <f>Fluoro!C310</f>
         <v>0</v>
       </c>
@@ -46897,7 +47061,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="10"/>
-      <c r="C47" s="631">
+      <c r="C47" s="656">
         <f>Fluoro!C311</f>
         <v>0</v>
       </c>
@@ -46932,7 +47096,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="10"/>
-      <c r="C48" s="631">
+      <c r="C48" s="656">
         <f>Fluoro!C312</f>
         <v>0</v>
       </c>
@@ -46967,7 +47131,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="10"/>
-      <c r="C49" s="631" t="str">
+      <c r="C49" s="656" t="str">
         <f>Fluoro!C313</f>
         <v>High Level</v>
       </c>
@@ -47002,7 +47166,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="10"/>
-      <c r="C50" s="631">
+      <c r="C50" s="656">
         <f>Fluoro!C314</f>
         <v>0</v>
       </c>
@@ -47037,7 +47201,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="631">
+      <c r="C51" s="656">
         <f>Fluoro!C315</f>
         <v>0</v>
       </c>
@@ -47068,7 +47232,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="10"/>
-      <c r="C52" s="631">
+      <c r="C52" s="656">
         <f>Fluoro!C316</f>
         <v>0</v>
       </c>
@@ -47099,7 +47263,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="10"/>
-      <c r="C53" s="631">
+      <c r="C53" s="656">
         <f>Fluoro!C317</f>
         <v>0</v>
       </c>
@@ -47285,7 +47449,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="10"/>
-      <c r="C60" s="632" t="str">
+      <c r="C60" s="657" t="str">
         <f>Fluoro!C324</f>
         <v>Scatter – Fluoro</v>
       </c>
@@ -47320,7 +47484,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="10"/>
-      <c r="C61" s="632">
+      <c r="C61" s="657">
         <f>Fluoro!C325</f>
         <v>0</v>
       </c>
@@ -47523,27 +47687,27 @@
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
-      <c r="H69" s="650" t="str">
+      <c r="H69" s="590" t="str">
         <f>Fluoro!H267</f>
         <v>Test equipment:</v>
       </c>
-      <c r="I69" s="651" t="str">
+      <c r="I69" s="591" t="str">
         <f>Fluoro!I267</f>
         <v>Radcal 9010</v>
       </c>
-      <c r="J69" s="650" t="str">
+      <c r="J69" s="590" t="str">
         <f>Fluoro!J267</f>
         <v>Calibration date:</v>
       </c>
-      <c r="K69" s="656">
+      <c r="K69" s="596">
         <f>Fluoro!K267</f>
         <v>43670</v>
       </c>
-      <c r="L69" s="650" t="str">
+      <c r="L69" s="590" t="str">
         <f>Fluoro!L267</f>
         <v>Calibration due:</v>
       </c>
-      <c r="M69" s="657">
+      <c r="M69" s="597">
         <f>Fluoro!M267</f>
         <v>44036</v>
       </c>
@@ -47584,39 +47748,39 @@
         <f>Fluoro!D335</f>
         <v>Attenuator</v>
       </c>
-      <c r="E71" s="598" t="str">
+      <c r="E71" s="636" t="str">
         <f>Fluoro!E335</f>
         <v>Auto 1</v>
       </c>
-      <c r="F71" s="598">
+      <c r="F71" s="636">
         <f>Fluoro!F335</f>
         <v>0</v>
       </c>
-      <c r="G71" s="598">
+      <c r="G71" s="636">
         <f>Fluoro!G335</f>
         <v>0</v>
       </c>
-      <c r="H71" s="598" t="str">
+      <c r="H71" s="636" t="str">
         <f>Fluoro!H335</f>
         <v>Auto 2</v>
       </c>
-      <c r="I71" s="598">
+      <c r="I71" s="636">
         <f>Fluoro!I335</f>
         <v>0</v>
       </c>
-      <c r="J71" s="598">
+      <c r="J71" s="636">
         <f>Fluoro!J335</f>
         <v>0</v>
       </c>
-      <c r="K71" s="599" t="str">
+      <c r="K71" s="637" t="str">
         <f>Fluoro!K335</f>
         <v>High Level</v>
       </c>
-      <c r="L71" s="599">
+      <c r="L71" s="637">
         <f>Fluoro!L335</f>
         <v>0</v>
       </c>
-      <c r="M71" s="599">
+      <c r="M71" s="637">
         <f>Fluoro!M335</f>
         <v>0</v>
       </c>
@@ -47673,7 +47837,7 @@
         <v>7</v>
       </c>
       <c r="B73" s="10"/>
-      <c r="C73" s="629" t="str">
+      <c r="C73" s="658" t="str">
         <f>Fluoro!C337</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -47723,7 +47887,7 @@
         <v>8</v>
       </c>
       <c r="B74" s="10"/>
-      <c r="C74" s="629">
+      <c r="C74" s="658">
         <f>Fluoro!C338</f>
         <v>0</v>
       </c>
@@ -47773,7 +47937,7 @@
         <v>9</v>
       </c>
       <c r="B75" s="10"/>
-      <c r="C75" s="629">
+      <c r="C75" s="658">
         <f>Fluoro!C339</f>
         <v>0</v>
       </c>
@@ -47823,7 +47987,7 @@
         <v>10</v>
       </c>
       <c r="B76" s="10"/>
-      <c r="C76" s="629" t="str">
+      <c r="C76" s="658" t="str">
         <f>Fluoro!C340</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -47873,7 +48037,7 @@
         <v>11</v>
       </c>
       <c r="B77" s="10"/>
-      <c r="C77" s="629">
+      <c r="C77" s="658">
         <f>Fluoro!C341</f>
         <v>0</v>
       </c>
@@ -47923,7 +48087,7 @@
         <v>12</v>
       </c>
       <c r="B78" s="10"/>
-      <c r="C78" s="629">
+      <c r="C78" s="658">
         <f>Fluoro!C342</f>
         <v>0</v>
       </c>
@@ -47973,7 +48137,7 @@
         <v>13</v>
       </c>
       <c r="B79" s="10"/>
-      <c r="C79" s="629" t="str">
+      <c r="C79" s="658" t="str">
         <f>Fluoro!C343</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -48023,7 +48187,7 @@
         <v>14</v>
       </c>
       <c r="B80" s="10"/>
-      <c r="C80" s="629">
+      <c r="C80" s="658">
         <f>Fluoro!C344</f>
         <v>0</v>
       </c>
@@ -48073,7 +48237,7 @@
         <v>15</v>
       </c>
       <c r="B81" s="10"/>
-      <c r="C81" s="629">
+      <c r="C81" s="658">
         <f>Fluoro!C345</f>
         <v>0</v>
       </c>
@@ -48123,7 +48287,7 @@
         <v>16</v>
       </c>
       <c r="B82" s="10"/>
-      <c r="C82" s="629" t="str">
+      <c r="C82" s="658" t="str">
         <f>Fluoro!C346</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -48173,7 +48337,7 @@
         <v>17</v>
       </c>
       <c r="B83" s="10"/>
-      <c r="C83" s="629">
+      <c r="C83" s="658">
         <f>Fluoro!C347</f>
         <v>0</v>
       </c>
@@ -48223,7 +48387,7 @@
         <v>18</v>
       </c>
       <c r="B84" s="10"/>
-      <c r="C84" s="629">
+      <c r="C84" s="658">
         <f>Fluoro!C348</f>
         <v>0</v>
       </c>
@@ -48273,7 +48437,7 @@
         <v>19</v>
       </c>
       <c r="B85" s="10"/>
-      <c r="C85" s="629" t="str">
+      <c r="C85" s="658" t="str">
         <f>Fluoro!C349</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -48323,7 +48487,7 @@
         <v>20</v>
       </c>
       <c r="B86" s="10"/>
-      <c r="C86" s="629">
+      <c r="C86" s="658">
         <f>Fluoro!C350</f>
         <v>0</v>
       </c>
@@ -48373,7 +48537,7 @@
         <v>21</v>
       </c>
       <c r="B87" s="10"/>
-      <c r="C87" s="629">
+      <c r="C87" s="658">
         <f>Fluoro!C351</f>
         <v>0</v>
       </c>
@@ -48720,7 +48884,7 @@
         <v>36</v>
       </c>
       <c r="B102" s="10"/>
-      <c r="C102" s="630" t="str">
+      <c r="C102" s="655" t="str">
         <f>Fluoro!C366</f>
         <v>Auto 1</v>
       </c>
@@ -48758,7 +48922,7 @@
         <v>37</v>
       </c>
       <c r="B103" s="10"/>
-      <c r="C103" s="630">
+      <c r="C103" s="655">
         <f>Fluoro!C367</f>
         <v>0</v>
       </c>
@@ -48796,7 +48960,7 @@
         <v>38</v>
       </c>
       <c r="B104" s="10"/>
-      <c r="C104" s="630">
+      <c r="C104" s="655">
         <f>Fluoro!C368</f>
         <v>0</v>
       </c>
@@ -48834,7 +48998,7 @@
         <v>39</v>
       </c>
       <c r="B105" s="10"/>
-      <c r="C105" s="630">
+      <c r="C105" s="655">
         <f>Fluoro!C369</f>
         <v>0</v>
       </c>
@@ -48869,7 +49033,7 @@
         <v>40</v>
       </c>
       <c r="B106" s="10"/>
-      <c r="C106" s="630">
+      <c r="C106" s="655">
         <f>Fluoro!C370</f>
         <v>0</v>
       </c>
@@ -48904,7 +49068,7 @@
         <v>41</v>
       </c>
       <c r="B107" s="10"/>
-      <c r="C107" s="631" t="str">
+      <c r="C107" s="656" t="str">
         <f>Fluoro!C371</f>
         <v>Auto 2</v>
       </c>
@@ -48939,7 +49103,7 @@
         <v>42</v>
       </c>
       <c r="B108" s="10"/>
-      <c r="C108" s="631">
+      <c r="C108" s="656">
         <f>Fluoro!C372</f>
         <v>0</v>
       </c>
@@ -48974,7 +49138,7 @@
         <v>43</v>
       </c>
       <c r="B109" s="10"/>
-      <c r="C109" s="631">
+      <c r="C109" s="656">
         <f>Fluoro!C373</f>
         <v>0</v>
       </c>
@@ -49009,7 +49173,7 @@
         <v>44</v>
       </c>
       <c r="B110" s="10"/>
-      <c r="C110" s="631">
+      <c r="C110" s="656">
         <f>Fluoro!C374</f>
         <v>0</v>
       </c>
@@ -49044,7 +49208,7 @@
         <v>45</v>
       </c>
       <c r="B111" s="10"/>
-      <c r="C111" s="631">
+      <c r="C111" s="656">
         <f>Fluoro!C375</f>
         <v>0</v>
       </c>
@@ -49079,7 +49243,7 @@
         <v>46</v>
       </c>
       <c r="B112" s="10"/>
-      <c r="C112" s="631" t="str">
+      <c r="C112" s="656" t="str">
         <f>Fluoro!C376</f>
         <v>High Level</v>
       </c>
@@ -49114,7 +49278,7 @@
         <v>47</v>
       </c>
       <c r="B113" s="10"/>
-      <c r="C113" s="631">
+      <c r="C113" s="656">
         <f>Fluoro!C377</f>
         <v>0</v>
       </c>
@@ -49149,7 +49313,7 @@
         <v>48</v>
       </c>
       <c r="B114" s="10"/>
-      <c r="C114" s="631">
+      <c r="C114" s="656">
         <f>Fluoro!C378</f>
         <v>0</v>
       </c>
@@ -49180,7 +49344,7 @@
         <v>49</v>
       </c>
       <c r="B115" s="10"/>
-      <c r="C115" s="631">
+      <c r="C115" s="656">
         <f>Fluoro!C379</f>
         <v>0</v>
       </c>
@@ -49211,7 +49375,7 @@
         <v>50</v>
       </c>
       <c r="B116" s="10"/>
-      <c r="C116" s="631">
+      <c r="C116" s="656">
         <f>Fluoro!C380</f>
         <v>0</v>
       </c>
@@ -49385,7 +49549,7 @@
         <v>58</v>
       </c>
       <c r="B124" s="10"/>
-      <c r="C124" s="632" t="str">
+      <c r="C124" s="657" t="str">
         <f>Fluoro!C388</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -49420,7 +49584,7 @@
         <v>59</v>
       </c>
       <c r="B125" s="10"/>
-      <c r="C125" s="632">
+      <c r="C125" s="657">
         <f>Fluoro!C389</f>
         <v>0</v>
       </c>
@@ -49597,6 +49761,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:M71"/>
     <mergeCell ref="C102:C106"/>
     <mergeCell ref="C107:C111"/>
     <mergeCell ref="C112:C116"/>
@@ -49606,21 +49785,6 @@
     <mergeCell ref="C79:C81"/>
     <mergeCell ref="C82:C84"/>
     <mergeCell ref="C85:C87"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.88611111111111096" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -49647,34 +49811,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="633" t="s">
+      <c r="A1" s="659" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="633"/>
+      <c r="B1" s="659"/>
       <c r="N1" s="324"/>
-      <c r="O1" s="604" t="str">
+      <c r="O1" s="630" t="str">
         <f>Fluoro!O105</f>
         <v>Patient Entrance Exposure Rate (Fluoroscopy)*</v>
       </c>
-      <c r="P1" s="604"/>
-      <c r="Q1" s="604"/>
-      <c r="R1" s="604" t="s">
+      <c r="P1" s="630"/>
+      <c r="Q1" s="630"/>
+      <c r="R1" s="630" t="s">
         <v>409</v>
       </c>
-      <c r="S1" s="604"/>
-      <c r="T1" s="604"/>
+      <c r="S1" s="630"/>
+      <c r="T1" s="630"/>
       <c r="V1" s="324"/>
-      <c r="W1" s="604" t="str">
+      <c r="W1" s="630" t="str">
         <f>Fluoro!O137</f>
         <v>Patient Entrance Exposure Rate – Digital Acquisition</v>
       </c>
-      <c r="X1" s="604"/>
-      <c r="Y1" s="604"/>
-      <c r="Z1" s="604" t="s">
+      <c r="X1" s="630"/>
+      <c r="Y1" s="630"/>
+      <c r="Z1" s="630" t="s">
         <v>409</v>
       </c>
-      <c r="AA1" s="604"/>
-      <c r="AB1" s="604"/>
+      <c r="AA1" s="630"/>
+      <c r="AB1" s="630"/>
     </row>
     <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="325">
@@ -49877,10 +50041,10 @@
       <c r="AB6" s="324"/>
     </row>
     <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="633" t="s">
+      <c r="A7" s="659" t="s">
         <v>412</v>
       </c>
-      <c r="B7" s="633"/>
+      <c r="B7" s="659"/>
       <c r="D7" s="209" t="s">
         <v>413</v>
       </c>
@@ -53667,14 +53831,14 @@
       <c r="B75" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="E75" s="604" t="s">
+      <c r="E75" s="630" t="s">
         <v>422</v>
       </c>
-      <c r="F75" s="604"/>
-      <c r="I75" s="604" t="s">
+      <c r="F75" s="630"/>
+      <c r="I75" s="630" t="s">
         <v>423</v>
       </c>
-      <c r="J75" s="604"/>
+      <c r="J75" s="630"/>
     </row>
     <row r="76" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">

--- a/MUSCCArm.xlsx
+++ b/MUSCCArm.xlsx
@@ -63,7 +63,7 @@
     <definedName name="TO10kVAdj">Tables!$A$30:$E$44</definedName>
     <definedName name="TO10Values">Tables!$A$60:$S$72</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateCount="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="457">
   <si>
     <t>Print Area</t>
   </si>
@@ -1487,6 +1487,9 @@
   </si>
   <si>
     <t>Revision 1.5-20200128</t>
+  </si>
+  <si>
+    <t>Page1,Page2,HVLPage,ExpChartFluoroPage,ExpChartDAPage,ImgQualityPage,Com1Page,Com2Page,OutputGraphFluoroPage,OutputGraphDAPage,LeedsTO10Page</t>
   </si>
 </sst>
 </file>
@@ -6419,6 +6422,174 @@
     <xf numFmtId="2" fontId="17" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="205" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="152" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="206" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="132" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="134" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="162" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="189" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="157" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="182" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="158" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="183" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="161" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6443,15 +6614,6 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="146" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="157" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="158" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="190" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6461,127 +6623,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="200" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="132" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="134" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="161" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="162" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="189" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="182" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="183" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6593,50 +6638,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="205" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="152" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="206" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -7129,7 +7132,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7307,7 +7309,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7379,7 +7380,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17570,6 +17570,150 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="AutoShape 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17838,7 +17982,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD792"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17907,7 +18053,7 @@
       </c>
       <c r="Y2" s="14"/>
       <c r="AA2" s="15" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -18053,7 +18199,7 @@
       </c>
       <c r="AD7" s="30" t="str">
         <f>IF(OR(AA2="",AA2=0),"",AA2)</f>
-        <v>Page1,Page2,HVLPage,ExpChartFluoroPage,ExpChartDAPage,ImgQualityPage,Com1Page,Com2Page,OutputGraphFluoroPage,OutputGraphDAPage,LeedsTO10Page,ExpChartRFluoro,ExpChartRDA</v>
+        <v>Page1,Page2,HVLPage,ExpChartFluoroPage,ExpChartDAPage,ImgQualityPage,Com1Page,Com2Page,OutputGraphFluoroPage,OutputGraphDAPage,LeedsTO10Page</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -18148,21 +18294,21 @@
       <c r="E10" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="638" t="str">
+      <c r="F10" s="600" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="638"/>
+      <c r="G10" s="600"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="631" t="str">
+      <c r="K10" s="601" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="631"/>
+      <c r="L10" s="601"/>
       <c r="M10" s="345"/>
       <c r="O10" s="13"/>
       <c r="Q10" s="2" t="s">
@@ -18205,21 +18351,21 @@
       <c r="E11" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="632" t="str">
+      <c r="F11" s="602" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="632"/>
+      <c r="G11" s="602"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
       <c r="J11" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="632" t="str">
+      <c r="K11" s="602" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="632"/>
+      <c r="L11" s="602"/>
       <c r="M11" s="345"/>
       <c r="O11" s="13"/>
       <c r="Q11" s="2" t="s">
@@ -18262,21 +18408,21 @@
       <c r="E12" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="632" t="str">
+      <c r="F12" s="602" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="632"/>
+      <c r="G12" s="602"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
       <c r="J12" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="640" t="str">
+      <c r="K12" s="603" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="640"/>
+      <c r="L12" s="603"/>
       <c r="M12" s="345"/>
       <c r="O12" s="13"/>
       <c r="Q12" s="2" t="s">
@@ -18319,21 +18465,21 @@
       <c r="E13" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="633" t="str">
+      <c r="F13" s="604" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="633"/>
+      <c r="G13" s="604"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
       <c r="J13" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="633" t="str">
+      <c r="K13" s="604" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="633"/>
+      <c r="L13" s="604"/>
       <c r="M13" s="345"/>
       <c r="O13" s="13"/>
       <c r="Q13" s="2" t="s">
@@ -18456,21 +18602,21 @@
       <c r="E16" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="638" t="str">
+      <c r="F16" s="600" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="638"/>
+      <c r="G16" s="600"/>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
       <c r="J16" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="641" t="str">
+      <c r="K16" s="605" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="641"/>
+      <c r="L16" s="605"/>
       <c r="M16" s="345"/>
       <c r="O16" s="13"/>
       <c r="P16" s="50" t="s">
@@ -18500,21 +18646,21 @@
       <c r="E17" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="632" t="str">
+      <c r="F17" s="602" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="632"/>
+      <c r="G17" s="602"/>
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
       <c r="J17" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="633" t="str">
+      <c r="K17" s="604" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="633"/>
+      <c r="L17" s="604"/>
       <c r="M17" s="345"/>
       <c r="O17" s="13"/>
       <c r="Q17" s="2" t="s">
@@ -18557,21 +18703,21 @@
       <c r="E18" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="633" t="str">
+      <c r="F18" s="604" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="633"/>
+      <c r="G18" s="604"/>
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
       <c r="J18" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="633" t="str">
+      <c r="K18" s="604" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="633"/>
+      <c r="L18" s="604"/>
       <c r="M18" s="345"/>
       <c r="O18" s="13"/>
       <c r="Q18" s="2" t="s">
@@ -18619,11 +18765,11 @@
       <c r="J19" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="633" t="str">
+      <c r="K19" s="604" t="str">
         <f>IF(V20="","",V20)</f>
         <v/>
       </c>
-      <c r="L19" s="633"/>
+      <c r="L19" s="604"/>
       <c r="M19" s="345"/>
       <c r="O19" s="13"/>
       <c r="Q19" s="2" t="s">
@@ -18698,11 +18844,11 @@
       <c r="E21" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="638" t="str">
+      <c r="F21" s="600" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="638"/>
+      <c r="G21" s="600"/>
       <c r="H21" s="42"/>
       <c r="I21" s="42"/>
       <c r="J21" s="73" t="s">
@@ -18742,21 +18888,21 @@
       <c r="E22" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="639" t="str">
+      <c r="F22" s="606" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="639"/>
+      <c r="G22" s="606"/>
       <c r="H22" s="42"/>
       <c r="I22" s="42"/>
       <c r="J22" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="638" t="str">
+      <c r="K22" s="600" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="638"/>
+      <c r="L22" s="600"/>
       <c r="M22" s="345"/>
       <c r="O22" s="13"/>
       <c r="Q22" s="2" t="s">
@@ -18801,11 +18947,11 @@
       <c r="J23" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="632" t="str">
+      <c r="K23" s="602" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="632"/>
+      <c r="L23" s="602"/>
       <c r="M23" s="345"/>
       <c r="O23" s="13"/>
       <c r="Q23" s="2" t="s">
@@ -18848,21 +18994,21 @@
       <c r="E24" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="631" t="str">
+      <c r="F24" s="601" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="631"/>
+      <c r="G24" s="601"/>
       <c r="H24" s="42"/>
       <c r="I24" s="42"/>
       <c r="J24" s="162" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="632" t="str">
+      <c r="K24" s="602" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="632"/>
+      <c r="L24" s="602"/>
       <c r="M24" s="345"/>
       <c r="O24" s="13"/>
       <c r="P24" s="50" t="s">
@@ -18900,11 +19046,11 @@
       <c r="E25" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="633" t="str">
+      <c r="F25" s="604" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="633"/>
+      <c r="G25" s="604"/>
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
@@ -18952,11 +19098,11 @@
       <c r="E26" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="633" t="str">
+      <c r="F26" s="604" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="633"/>
+      <c r="G26" s="604"/>
       <c r="H26" s="42"/>
       <c r="I26" s="42"/>
       <c r="J26" s="346" t="s">
@@ -19005,11 +19151,11 @@
       <c r="J27" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="638" t="str">
+      <c r="K27" s="600" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="638"/>
+      <c r="L27" s="600"/>
       <c r="M27" s="345"/>
       <c r="O27" s="13"/>
       <c r="Q27" s="2" t="s">
@@ -19047,21 +19193,21 @@
       <c r="E28" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="631" t="str">
+      <c r="F28" s="601" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="631"/>
+      <c r="G28" s="601"/>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
       <c r="J28" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="632" t="str">
+      <c r="K28" s="602" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="632"/>
+      <c r="L28" s="602"/>
       <c r="M28" s="345"/>
       <c r="O28" s="13"/>
       <c r="P28" s="50" t="s">
@@ -19090,11 +19236,11 @@
       <c r="E29" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="633" t="str">
+      <c r="F29" s="604" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="633"/>
+      <c r="G29" s="604"/>
       <c r="H29" s="42"/>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
@@ -19142,11 +19288,11 @@
       <c r="E30" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="633" t="str">
+      <c r="F30" s="604" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="633"/>
+      <c r="G30" s="604"/>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
@@ -19261,11 +19407,11 @@
       <c r="E33" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="638" t="str">
+      <c r="F33" s="600" t="str">
         <f>IF(R34="","",R34)</f>
         <v/>
       </c>
-      <c r="G33" s="638"/>
+      <c r="G33" s="600"/>
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
       <c r="J33" s="73" t="s">
@@ -19302,21 +19448,21 @@
       <c r="E34" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="639" t="str">
+      <c r="F34" s="606" t="str">
         <f>IF(R35="","",R35)</f>
         <v/>
       </c>
-      <c r="G34" s="639"/>
+      <c r="G34" s="606"/>
       <c r="H34" s="42"/>
       <c r="I34" s="42"/>
       <c r="J34" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="638" t="str">
+      <c r="K34" s="600" t="str">
         <f>IF(V35="","",V35)</f>
         <v/>
       </c>
-      <c r="L34" s="638"/>
+      <c r="L34" s="600"/>
       <c r="M34" s="345"/>
       <c r="O34" s="13"/>
       <c r="Q34" s="2" t="s">
@@ -19361,11 +19507,11 @@
       <c r="J35" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="632" t="str">
+      <c r="K35" s="602" t="str">
         <f>IF(V36="","",V36)</f>
         <v/>
       </c>
-      <c r="L35" s="632"/>
+      <c r="L35" s="602"/>
       <c r="M35" s="345"/>
       <c r="O35" s="13"/>
       <c r="Q35" s="2" t="s">
@@ -19408,21 +19554,21 @@
       <c r="E36" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="631" t="str">
+      <c r="F36" s="601" t="str">
         <f>IF(R37="","",R37)</f>
         <v/>
       </c>
-      <c r="G36" s="631"/>
+      <c r="G36" s="601"/>
       <c r="H36" s="42"/>
       <c r="I36" s="42"/>
       <c r="J36" s="162" t="s">
         <v>42</v>
       </c>
-      <c r="K36" s="632" t="str">
+      <c r="K36" s="602" t="str">
         <f>IF(V37="","",V37)</f>
         <v/>
       </c>
-      <c r="L36" s="632"/>
+      <c r="L36" s="602"/>
       <c r="M36" s="345"/>
       <c r="O36" s="13"/>
       <c r="P36" s="50" t="s">
@@ -19460,11 +19606,11 @@
       <c r="E37" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="633" t="str">
+      <c r="F37" s="604" t="str">
         <f>IF(R38="","",R38)</f>
         <v/>
       </c>
-      <c r="G37" s="633"/>
+      <c r="G37" s="604"/>
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
       <c r="J37" s="42"/>
@@ -19512,11 +19658,11 @@
       <c r="E38" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="633" t="str">
+      <c r="F38" s="604" t="str">
         <f>IF(R39="","",R39)</f>
         <v/>
       </c>
-      <c r="G38" s="633"/>
+      <c r="G38" s="604"/>
       <c r="H38" s="42"/>
       <c r="I38" s="42"/>
       <c r="J38" s="346" t="s">
@@ -19563,11 +19709,11 @@
       <c r="J39" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="K39" s="638" t="str">
+      <c r="K39" s="600" t="str">
         <f>IF(V40="","",V40)</f>
         <v/>
       </c>
-      <c r="L39" s="638"/>
+      <c r="L39" s="600"/>
       <c r="M39" s="345"/>
       <c r="O39" s="13"/>
       <c r="Q39" s="2" t="s">
@@ -19605,21 +19751,21 @@
       <c r="E40" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="631" t="str">
+      <c r="F40" s="601" t="str">
         <f>IF(R41="","",R41)</f>
         <v/>
       </c>
-      <c r="G40" s="631"/>
+      <c r="G40" s="601"/>
       <c r="H40" s="42"/>
       <c r="I40" s="42"/>
       <c r="J40" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="K40" s="632" t="str">
+      <c r="K40" s="602" t="str">
         <f>IF(V41="","",V41)</f>
         <v/>
       </c>
-      <c r="L40" s="632"/>
+      <c r="L40" s="602"/>
       <c r="M40" s="345"/>
       <c r="O40" s="13"/>
       <c r="P40" s="50" t="s">
@@ -19657,11 +19803,11 @@
       <c r="E41" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="633" t="str">
+      <c r="F41" s="604" t="str">
         <f>IF(R42="","",R42)</f>
         <v/>
       </c>
-      <c r="G41" s="633"/>
+      <c r="G41" s="604"/>
       <c r="H41" s="42"/>
       <c r="I41" s="42"/>
       <c r="J41" s="42"/>
@@ -19709,11 +19855,11 @@
       <c r="E42" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="633" t="str">
+      <c r="F42" s="604" t="str">
         <f>IF(R43="","",R43)</f>
         <v/>
       </c>
-      <c r="G42" s="633"/>
+      <c r="G42" s="604"/>
       <c r="H42" s="42"/>
       <c r="I42" s="42"/>
       <c r="J42" s="42"/>
@@ -20471,10 +20617,10 @@
       <c r="I69" s="332"/>
       <c r="J69" s="332"/>
       <c r="K69" s="332"/>
-      <c r="L69" s="634" t="s">
+      <c r="L69" s="611" t="s">
         <v>84</v>
       </c>
-      <c r="M69" s="635"/>
+      <c r="M69" s="612"/>
       <c r="O69" s="56"/>
       <c r="P69" s="17" t="s">
         <v>85</v>
@@ -22140,24 +22286,24 @@
       <c r="P107" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="Q107" s="636" t="str">
+      <c r="Q107" s="608" t="str">
         <f>IF(Q106&lt;&gt;"",Q106,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R107" s="636"/>
-      <c r="S107" s="636"/>
-      <c r="T107" s="637" t="str">
+      <c r="R107" s="608"/>
+      <c r="S107" s="608"/>
+      <c r="T107" s="607" t="str">
         <f>IF(T106&lt;&gt;"",T106,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v/>
       </c>
-      <c r="U107" s="637"/>
-      <c r="V107" s="637"/>
-      <c r="W107" s="637" t="str">
+      <c r="U107" s="607"/>
+      <c r="V107" s="607"/>
+      <c r="W107" s="607" t="str">
         <f>IF(W106&lt;&gt;"",W106,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="X107" s="637"/>
-      <c r="Y107" s="637"/>
+      <c r="X107" s="607"/>
+      <c r="Y107" s="607"/>
       <c r="AA107" s="2" t="s">
         <v>153</v>
       </c>
@@ -24138,24 +24284,24 @@
       <c r="P139" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="Q139" s="636" t="str">
+      <c r="Q139" s="608" t="str">
         <f>IF(Q138&lt;&gt;"",Q138,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R139" s="636"/>
-      <c r="S139" s="636"/>
-      <c r="T139" s="637" t="str">
+      <c r="R139" s="608"/>
+      <c r="S139" s="608"/>
+      <c r="T139" s="607" t="str">
         <f>IF(T138&lt;&gt;"",T138,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v/>
       </c>
-      <c r="U139" s="637"/>
-      <c r="V139" s="637"/>
-      <c r="W139" s="637" t="str">
+      <c r="U139" s="607"/>
+      <c r="V139" s="607"/>
+      <c r="W139" s="607" t="str">
         <f>IF(W138&lt;&gt;"",W138,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="X139" s="637"/>
-      <c r="Y139" s="637"/>
+      <c r="X139" s="607"/>
+      <c r="Y139" s="607"/>
       <c r="AA139" s="2" t="str">
         <f>$T$139&amp;" Mag 4"</f>
         <v xml:space="preserve"> Mag 4</v>
@@ -26499,10 +26645,10 @@
       <c r="P181" s="135"/>
       <c r="Q181" s="137"/>
       <c r="R181" s="128"/>
-      <c r="T181" s="620" t="s">
+      <c r="T181" s="609" t="s">
         <v>245</v>
       </c>
-      <c r="U181" s="620"/>
+      <c r="U181" s="609"/>
       <c r="W181" s="2" t="s">
         <v>199</v>
       </c>
@@ -26873,7 +27019,7 @@
       <c r="K190" s="356"/>
       <c r="L190" s="356"/>
       <c r="M190" s="360"/>
-      <c r="O190" s="628" t="str">
+      <c r="O190" s="610" t="str">
         <f>$Q$107</f>
         <v>Auto 1</v>
       </c>
@@ -26923,7 +27069,7 @@
       <c r="K191" s="356"/>
       <c r="L191" s="356"/>
       <c r="M191" s="336"/>
-      <c r="O191" s="628"/>
+      <c r="O191" s="610"/>
       <c r="P191" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -26969,7 +27115,7 @@
       <c r="K192" s="135"/>
       <c r="L192" s="135"/>
       <c r="M192" s="336"/>
-      <c r="O192" s="628"/>
+      <c r="O192" s="610"/>
       <c r="P192" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -27015,7 +27161,7 @@
       <c r="K193" s="135"/>
       <c r="L193" s="135"/>
       <c r="M193" s="336"/>
-      <c r="O193" s="628"/>
+      <c r="O193" s="610"/>
       <c r="P193" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -27058,7 +27204,7 @@
       <c r="K194" s="135"/>
       <c r="L194" s="135"/>
       <c r="M194" s="336"/>
-      <c r="O194" s="628"/>
+      <c r="O194" s="610"/>
       <c r="P194" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -27101,7 +27247,7 @@
       <c r="K195" s="135"/>
       <c r="L195" s="135"/>
       <c r="M195" s="336"/>
-      <c r="O195" s="628" t="str">
+      <c r="O195" s="610" t="str">
         <f>$T$107</f>
         <v/>
       </c>
@@ -27147,7 +27293,7 @@
       <c r="K196" s="338"/>
       <c r="L196" s="338"/>
       <c r="M196" s="339"/>
-      <c r="O196" s="628"/>
+      <c r="O196" s="610"/>
       <c r="P196" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -27192,7 +27338,7 @@
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="O197" s="628"/>
+      <c r="O197" s="610"/>
       <c r="P197" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -27237,7 +27383,7 @@
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
-      <c r="O198" s="628"/>
+      <c r="O198" s="610"/>
       <c r="P198" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -27283,7 +27429,7 @@
         <f>$H$2</f>
         <v>Medical University of South Carolina</v>
       </c>
-      <c r="O199" s="628"/>
+      <c r="O199" s="610"/>
       <c r="P199" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -27332,7 +27478,7 @@
         <f>$H$5</f>
         <v>Fluoroscopy System Compliance Inspection</v>
       </c>
-      <c r="O200" s="628" t="str">
+      <c r="O200" s="610" t="str">
         <f>$W$107</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -27381,7 +27527,7 @@
       <c r="K201" s="332"/>
       <c r="L201" s="332"/>
       <c r="M201" s="333"/>
-      <c r="O201" s="628"/>
+      <c r="O201" s="610"/>
       <c r="P201" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -27435,7 +27581,7 @@
         <v/>
       </c>
       <c r="M202" s="12"/>
-      <c r="O202" s="628"/>
+      <c r="O202" s="610"/>
       <c r="P202" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -27468,7 +27614,7 @@
       </c>
       <c r="B203" s="10"/>
       <c r="M203" s="12"/>
-      <c r="O203" s="628"/>
+      <c r="O203" s="610"/>
       <c r="P203" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -27502,20 +27648,20 @@
       <c r="B204" s="334"/>
       <c r="C204" s="384"/>
       <c r="D204" s="356"/>
-      <c r="E204" s="587" t="s">
+      <c r="E204" s="643" t="s">
         <v>262</v>
       </c>
-      <c r="F204" s="589" t="s">
+      <c r="F204" s="645" t="s">
         <v>263</v>
       </c>
       <c r="G204" s="555" t="s">
         <v>264</v>
       </c>
-      <c r="H204" s="587" t="str">
+      <c r="H204" s="643" t="str">
         <f>R276</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="I204" s="591" t="str">
+      <c r="I204" s="647" t="str">
         <f>S276</f>
         <v>Meas AK @ Ref Pt (mGy)</v>
       </c>
@@ -27528,10 +27674,10 @@
       <c r="L204" s="135" t="s">
         <v>267</v>
       </c>
-      <c r="M204" s="593" t="s">
+      <c r="M204" s="649" t="s">
         <v>268</v>
       </c>
-      <c r="O204" s="628"/>
+      <c r="O204" s="610"/>
       <c r="P204" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -27569,11 +27715,11 @@
       <c r="D205" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="E205" s="588"/>
-      <c r="F205" s="590"/>
+      <c r="E205" s="644"/>
+      <c r="F205" s="646"/>
       <c r="G205" s="555"/>
-      <c r="H205" s="588"/>
-      <c r="I205" s="592"/>
+      <c r="H205" s="644"/>
+      <c r="I205" s="648"/>
       <c r="J205" s="556"/>
       <c r="K205" s="135" t="str">
         <f>U277</f>
@@ -27583,7 +27729,7 @@
         <f>V277</f>
         <v>mGy/min</v>
       </c>
-      <c r="M205" s="594"/>
+      <c r="M205" s="650"/>
       <c r="O205" s="13"/>
       <c r="Y205" s="14"/>
       <c r="AA205" s="2" t="s">
@@ -28227,7 +28373,7 @@
         <f>W286</f>
         <v/>
       </c>
-      <c r="O214" s="628" t="str">
+      <c r="O214" s="610" t="str">
         <f>$Q$139</f>
         <v>Auto 1</v>
       </c>
@@ -28283,7 +28429,7 @@
       <c r="K215" s="135"/>
       <c r="L215" s="135"/>
       <c r="M215" s="336"/>
-      <c r="O215" s="628"/>
+      <c r="O215" s="610"/>
       <c r="P215" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -28329,7 +28475,7 @@
       <c r="K216" s="356"/>
       <c r="L216" s="356"/>
       <c r="M216" s="336"/>
-      <c r="O216" s="628"/>
+      <c r="O216" s="610"/>
       <c r="P216" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -28375,7 +28521,7 @@
       <c r="K217" s="401"/>
       <c r="L217" s="401"/>
       <c r="M217" s="402"/>
-      <c r="O217" s="628"/>
+      <c r="O217" s="610"/>
       <c r="P217" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -28422,7 +28568,7 @@
       <c r="K218" s="356"/>
       <c r="L218" s="356"/>
       <c r="M218" s="336"/>
-      <c r="O218" s="628"/>
+      <c r="O218" s="610"/>
       <c r="P218" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -28465,7 +28611,7 @@
       <c r="K219" s="356"/>
       <c r="L219" s="356"/>
       <c r="M219" s="360"/>
-      <c r="O219" s="628" t="str">
+      <c r="O219" s="610" t="str">
         <f>$T$139</f>
         <v/>
       </c>
@@ -28513,7 +28659,7 @@
       <c r="H220" s="562" t="s">
         <v>447</v>
       </c>
-      <c r="I220" s="647" t="str">
+      <c r="I220" s="587" t="str">
         <f>IF(T291="","",T291)</f>
         <v/>
       </c>
@@ -28521,12 +28667,12 @@
       <c r="K220" s="562" t="s">
         <v>448</v>
       </c>
-      <c r="L220" s="647" t="str">
+      <c r="L220" s="587" t="str">
         <f>IF(W291="","",W291)</f>
         <v/>
       </c>
       <c r="M220" s="360"/>
-      <c r="O220" s="628"/>
+      <c r="O220" s="610"/>
       <c r="P220" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -28569,7 +28715,7 @@
       <c r="K221" s="356"/>
       <c r="L221" s="356"/>
       <c r="M221" s="360"/>
-      <c r="O221" s="628"/>
+      <c r="O221" s="610"/>
       <c r="P221" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -28616,7 +28762,7 @@
       <c r="K222" s="356"/>
       <c r="L222" s="356"/>
       <c r="M222" s="360"/>
-      <c r="O222" s="628"/>
+      <c r="O222" s="610"/>
       <c r="P222" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -28669,7 +28815,7 @@
       <c r="K223" s="356"/>
       <c r="L223" s="356"/>
       <c r="M223" s="360"/>
-      <c r="O223" s="628"/>
+      <c r="O223" s="610"/>
       <c r="P223" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -28727,7 +28873,7 @@
       <c r="K224" s="356"/>
       <c r="L224" s="356"/>
       <c r="M224" s="360"/>
-      <c r="O224" s="628" t="str">
+      <c r="O224" s="610" t="str">
         <f>$W$139</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -28785,7 +28931,7 @@
       <c r="K225" s="356"/>
       <c r="L225" s="356"/>
       <c r="M225" s="360"/>
-      <c r="O225" s="628"/>
+      <c r="O225" s="610"/>
       <c r="P225" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -28840,7 +28986,7 @@
       <c r="K226" s="356"/>
       <c r="L226" s="356"/>
       <c r="M226" s="360"/>
-      <c r="O226" s="628"/>
+      <c r="O226" s="610"/>
       <c r="P226" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -28895,7 +29041,7 @@
       <c r="K227" s="356"/>
       <c r="L227" s="356"/>
       <c r="M227" s="360"/>
-      <c r="O227" s="628"/>
+      <c r="O227" s="610"/>
       <c r="P227" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -28946,7 +29092,7 @@
       <c r="K228" s="356"/>
       <c r="L228" s="356"/>
       <c r="M228" s="360"/>
-      <c r="O228" s="628"/>
+      <c r="O228" s="610"/>
       <c r="P228" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -29487,7 +29633,7 @@
       <c r="K240" s="356"/>
       <c r="L240" s="356"/>
       <c r="M240" s="360"/>
-      <c r="O240" s="629" t="s">
+      <c r="O240" s="613" t="s">
         <v>294</v>
       </c>
       <c r="P240" s="169" t="s">
@@ -29546,7 +29692,7 @@
       <c r="K241" s="356"/>
       <c r="L241" s="356"/>
       <c r="M241" s="360"/>
-      <c r="O241" s="629"/>
+      <c r="O241" s="613"/>
       <c r="P241" s="174" t="s">
         <v>297</v>
       </c>
@@ -29603,7 +29749,7 @@
       <c r="K242" s="356"/>
       <c r="L242" s="356"/>
       <c r="M242" s="360"/>
-      <c r="O242" s="629" t="str">
+      <c r="O242" s="613" t="str">
         <f>IF($U$137=1,"Scatter - Pulse", "Scatter – Digital acq")</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -29663,7 +29809,7 @@
       <c r="K243" s="356"/>
       <c r="L243" s="356"/>
       <c r="M243" s="360"/>
-      <c r="O243" s="629"/>
+      <c r="O243" s="613"/>
       <c r="P243" s="174" t="s">
         <v>297</v>
       </c>
@@ -30193,17 +30339,17 @@
       <c r="P257" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Q257" s="630" t="s">
+      <c r="Q257" s="614" t="s">
         <v>313</v>
       </c>
-      <c r="R257" s="630"/>
+      <c r="R257" s="614"/>
       <c r="S257" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="T257" s="630" t="s">
+      <c r="T257" s="614" t="s">
         <v>315</v>
       </c>
-      <c r="U257" s="630"/>
+      <c r="U257" s="614"/>
       <c r="V257" s="1" t="s">
         <v>316</v>
       </c>
@@ -30691,24 +30837,24 @@
         <f t="shared" si="41"/>
         <v>Attenuator</v>
       </c>
-      <c r="E269" s="622" t="str">
+      <c r="E269" s="615" t="str">
         <f>Q107</f>
         <v>Auto 1</v>
       </c>
-      <c r="F269" s="623"/>
-      <c r="G269" s="623"/>
-      <c r="H269" s="623" t="str">
+      <c r="F269" s="616"/>
+      <c r="G269" s="616"/>
+      <c r="H269" s="616" t="str">
         <f>T107</f>
         <v/>
       </c>
-      <c r="I269" s="623"/>
-      <c r="J269" s="623"/>
-      <c r="K269" s="624" t="str">
+      <c r="I269" s="616"/>
+      <c r="J269" s="616"/>
+      <c r="K269" s="617" t="str">
         <f>W107</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L269" s="624"/>
-      <c r="M269" s="625"/>
+      <c r="L269" s="617"/>
+      <c r="M269" s="618"/>
       <c r="O269" s="191" t="str">
         <f t="shared" si="42"/>
         <v/>
@@ -30810,7 +30956,7 @@
         <v>7</v>
       </c>
       <c r="B271" s="334"/>
-      <c r="C271" s="612" t="str">
+      <c r="C271" s="622" t="str">
         <f>O110&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -30886,7 +31032,7 @@
         <v>8</v>
       </c>
       <c r="B272" s="334"/>
-      <c r="C272" s="612"/>
+      <c r="C272" s="622"/>
       <c r="D272" s="428">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -30952,7 +31098,7 @@
         <v>9</v>
       </c>
       <c r="B273" s="334"/>
-      <c r="C273" s="612"/>
+      <c r="C273" s="622"/>
       <c r="D273" s="431">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -31025,7 +31171,7 @@
         <v>10</v>
       </c>
       <c r="B274" s="334"/>
-      <c r="C274" s="612" t="str">
+      <c r="C274" s="622" t="str">
         <f>O113&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -31094,7 +31240,7 @@
         <v>11</v>
       </c>
       <c r="B275" s="334"/>
-      <c r="C275" s="612"/>
+      <c r="C275" s="622"/>
       <c r="D275" s="428">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -31167,7 +31313,7 @@
         <v>12</v>
       </c>
       <c r="B276" s="334"/>
-      <c r="C276" s="612"/>
+      <c r="C276" s="622"/>
       <c r="D276" s="431">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -31208,17 +31354,17 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="O276" s="626" t="s">
+      <c r="O276" s="623" t="s">
         <v>262</v>
       </c>
-      <c r="P276" s="627" t="s">
+      <c r="P276" s="624" t="s">
         <v>263</v>
       </c>
-      <c r="R276" s="627" t="str">
+      <c r="R276" s="624" t="str">
         <f>"Ind AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="S276" s="627" t="str">
+      <c r="S276" s="624" t="str">
         <f>"Meas AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Meas AK @ Ref Pt (mGy)</v>
       </c>
@@ -31240,7 +31386,7 @@
         <v>13</v>
       </c>
       <c r="B277" s="334"/>
-      <c r="C277" s="612" t="str">
+      <c r="C277" s="622" t="str">
         <f>O116&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -31284,13 +31430,13 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="O277" s="626"/>
-      <c r="P277" s="627"/>
+      <c r="O277" s="623"/>
+      <c r="P277" s="624"/>
       <c r="Q277" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="R277" s="627"/>
-      <c r="S277" s="627"/>
+      <c r="R277" s="624"/>
+      <c r="S277" s="624"/>
       <c r="T277" s="1" t="s">
         <v>322</v>
       </c>
@@ -31322,7 +31468,7 @@
         <v>14</v>
       </c>
       <c r="B278" s="334"/>
-      <c r="C278" s="612"/>
+      <c r="C278" s="622"/>
       <c r="D278" s="428">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -31409,7 +31555,7 @@
         <v>15</v>
       </c>
       <c r="B279" s="334"/>
-      <c r="C279" s="612"/>
+      <c r="C279" s="622"/>
       <c r="D279" s="431">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -31503,7 +31649,7 @@
         <v>16</v>
       </c>
       <c r="B280" s="334"/>
-      <c r="C280" s="612" t="str">
+      <c r="C280" s="622" t="str">
         <f>O119&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -31603,7 +31749,7 @@
         <v>17</v>
       </c>
       <c r="B281" s="334"/>
-      <c r="C281" s="612"/>
+      <c r="C281" s="622"/>
       <c r="D281" s="428">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -31690,7 +31836,7 @@
         <v>18</v>
       </c>
       <c r="B282" s="334"/>
-      <c r="C282" s="612"/>
+      <c r="C282" s="622"/>
       <c r="D282" s="431">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -31784,7 +31930,7 @@
         <v>19</v>
       </c>
       <c r="B283" s="334"/>
-      <c r="C283" s="612" t="str">
+      <c r="C283" s="622" t="str">
         <f>O122&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -31874,7 +32020,7 @@
         <v>20</v>
       </c>
       <c r="B284" s="334"/>
-      <c r="C284" s="612"/>
+      <c r="C284" s="622"/>
       <c r="D284" s="428">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -31968,7 +32114,7 @@
         <v>21</v>
       </c>
       <c r="B285" s="334"/>
-      <c r="C285" s="612"/>
+      <c r="C285" s="622"/>
       <c r="D285" s="428">
         <f t="shared" si="43"/>
         <v>30</v>
@@ -32403,12 +32549,12 @@
       <c r="L293" s="135"/>
       <c r="M293" s="336"/>
       <c r="O293" s="227"/>
-      <c r="P293" s="617" t="s">
+      <c r="P293" s="629" t="s">
         <v>328</v>
       </c>
-      <c r="Q293" s="617"/>
-      <c r="R293" s="617"/>
-      <c r="S293" s="617"/>
+      <c r="Q293" s="629"/>
+      <c r="R293" s="629"/>
+      <c r="S293" s="629"/>
       <c r="T293" s="225"/>
       <c r="U293" s="225"/>
       <c r="V293" s="225"/>
@@ -32785,12 +32931,12 @@
       <c r="L302" s="135"/>
       <c r="M302" s="336"/>
       <c r="O302" s="227"/>
-      <c r="P302" s="617" t="s">
+      <c r="P302" s="629" t="s">
         <v>328</v>
       </c>
-      <c r="Q302" s="617"/>
-      <c r="R302" s="617"/>
-      <c r="S302" s="617"/>
+      <c r="Q302" s="629"/>
+      <c r="R302" s="629"/>
+      <c r="S302" s="629"/>
       <c r="T302" s="225"/>
       <c r="U302" s="225"/>
       <c r="V302" s="225"/>
@@ -32812,7 +32958,7 @@
         <v>39</v>
       </c>
       <c r="B303" s="334"/>
-      <c r="C303" s="595" t="str">
+      <c r="C303" s="630" t="str">
         <f>O190</f>
         <v>Auto 1</v>
       </c>
@@ -32873,7 +33019,7 @@
         <v>40</v>
       </c>
       <c r="B304" s="334"/>
-      <c r="C304" s="596"/>
+      <c r="C304" s="631"/>
       <c r="D304" s="470" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -32943,7 +33089,7 @@
         <v>41</v>
       </c>
       <c r="B305" s="334"/>
-      <c r="C305" s="596"/>
+      <c r="C305" s="631"/>
       <c r="D305" s="470" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -32991,7 +33137,7 @@
         <v>42</v>
       </c>
       <c r="B306" s="334"/>
-      <c r="C306" s="596"/>
+      <c r="C306" s="631"/>
       <c r="D306" s="470" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -33043,7 +33189,7 @@
         <v>43</v>
       </c>
       <c r="B307" s="334"/>
-      <c r="C307" s="618"/>
+      <c r="C307" s="632"/>
       <c r="D307" s="473" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -33088,7 +33234,7 @@
         <v>44</v>
       </c>
       <c r="B308" s="334"/>
-      <c r="C308" s="595" t="str">
+      <c r="C308" s="630" t="str">
         <f>O195</f>
         <v/>
       </c>
@@ -33143,7 +33289,7 @@
         <v>45</v>
       </c>
       <c r="B309" s="334"/>
-      <c r="C309" s="596"/>
+      <c r="C309" s="631"/>
       <c r="D309" s="470" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -33193,7 +33339,7 @@
         <v>46</v>
       </c>
       <c r="B310" s="334"/>
-      <c r="C310" s="596"/>
+      <c r="C310" s="631"/>
       <c r="D310" s="470" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -33250,7 +33396,7 @@
         <v>47</v>
       </c>
       <c r="B311" s="334"/>
-      <c r="C311" s="596"/>
+      <c r="C311" s="631"/>
       <c r="D311" s="470" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -33300,7 +33446,7 @@
         <v>48</v>
       </c>
       <c r="B312" s="334"/>
-      <c r="C312" s="597"/>
+      <c r="C312" s="633"/>
       <c r="D312" s="476" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -33357,7 +33503,7 @@
         <v>49</v>
       </c>
       <c r="B313" s="334"/>
-      <c r="C313" s="619" t="str">
+      <c r="C313" s="634" t="str">
         <f>O200</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -33409,7 +33555,7 @@
         <v>50</v>
       </c>
       <c r="B314" s="334"/>
-      <c r="C314" s="596"/>
+      <c r="C314" s="631"/>
       <c r="D314" s="470" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -33461,7 +33607,7 @@
         <v>51</v>
       </c>
       <c r="B315" s="334"/>
-      <c r="C315" s="596"/>
+      <c r="C315" s="631"/>
       <c r="D315" s="470" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -33506,7 +33652,7 @@
         <v>52</v>
       </c>
       <c r="B316" s="334"/>
-      <c r="C316" s="596"/>
+      <c r="C316" s="631"/>
       <c r="D316" s="470" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -33560,7 +33706,7 @@
         <v>53</v>
       </c>
       <c r="B317" s="334"/>
-      <c r="C317" s="597"/>
+      <c r="C317" s="633"/>
       <c r="D317" s="476" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -33670,10 +33816,10 @@
       <c r="R319" s="263"/>
       <c r="S319" s="264"/>
       <c r="T319" s="264"/>
-      <c r="V319" s="620" t="s">
+      <c r="V319" s="609" t="s">
         <v>340</v>
       </c>
-      <c r="W319" s="620"/>
+      <c r="W319" s="609"/>
       <c r="X319" s="17" t="s">
         <v>341</v>
       </c>
@@ -33874,7 +34020,7 @@
         <v>60</v>
       </c>
       <c r="B324" s="334"/>
-      <c r="C324" s="601" t="str">
+      <c r="C324" s="619" t="str">
         <f>O240</f>
         <v>Scatter – Fluoro</v>
       </c>
@@ -33924,7 +34070,7 @@
         <v>61</v>
       </c>
       <c r="B325" s="334"/>
-      <c r="C325" s="602"/>
+      <c r="C325" s="620"/>
       <c r="D325" s="485" t="str">
         <f>P241</f>
         <v>Waist level</v>
@@ -34271,24 +34417,24 @@
         <f t="shared" si="70"/>
         <v>Attenuator</v>
       </c>
-      <c r="E335" s="622" t="str">
+      <c r="E335" s="615" t="str">
         <f>Q139</f>
         <v>Auto 1</v>
       </c>
-      <c r="F335" s="623"/>
-      <c r="G335" s="623"/>
-      <c r="H335" s="623" t="str">
+      <c r="F335" s="616"/>
+      <c r="G335" s="616"/>
+      <c r="H335" s="616" t="str">
         <f>T139</f>
         <v/>
       </c>
-      <c r="I335" s="623"/>
-      <c r="J335" s="623"/>
-      <c r="K335" s="624" t="str">
+      <c r="I335" s="616"/>
+      <c r="J335" s="616"/>
+      <c r="K335" s="617" t="str">
         <f>W139</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L335" s="624"/>
-      <c r="M335" s="625"/>
+      <c r="L335" s="617"/>
+      <c r="M335" s="618"/>
       <c r="O335" s="130"/>
       <c r="P335" s="129" t="s">
         <v>355</v>
@@ -34365,7 +34511,7 @@
         <v>7</v>
       </c>
       <c r="B337" s="334"/>
-      <c r="C337" s="612" t="str">
+      <c r="C337" s="622" t="str">
         <f>O142&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -34425,7 +34571,7 @@
         <v>8</v>
       </c>
       <c r="B338" s="334"/>
-      <c r="C338" s="612"/>
+      <c r="C338" s="622"/>
       <c r="D338" s="499">
         <f t="shared" si="71"/>
         <v>20</v>
@@ -34482,7 +34628,7 @@
         <v>9</v>
       </c>
       <c r="B339" s="334"/>
-      <c r="C339" s="612"/>
+      <c r="C339" s="622"/>
       <c r="D339" s="500">
         <f t="shared" si="71"/>
         <v>30</v>
@@ -34539,7 +34685,7 @@
         <v>10</v>
       </c>
       <c r="B340" s="334"/>
-      <c r="C340" s="612" t="str">
+      <c r="C340" s="622" t="str">
         <f>O145&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -34599,7 +34745,7 @@
         <v>11</v>
       </c>
       <c r="B341" s="334"/>
-      <c r="C341" s="612"/>
+      <c r="C341" s="622"/>
       <c r="D341" s="499">
         <f t="shared" si="71"/>
         <v>20</v>
@@ -34656,7 +34802,7 @@
         <v>12</v>
       </c>
       <c r="B342" s="334"/>
-      <c r="C342" s="612"/>
+      <c r="C342" s="622"/>
       <c r="D342" s="501">
         <f t="shared" si="71"/>
         <v>30</v>
@@ -34713,7 +34859,7 @@
         <v>13</v>
       </c>
       <c r="B343" s="334"/>
-      <c r="C343" s="612" t="str">
+      <c r="C343" s="622" t="str">
         <f>O148&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -34765,7 +34911,7 @@
         <v>14</v>
       </c>
       <c r="B344" s="334"/>
-      <c r="C344" s="612"/>
+      <c r="C344" s="622"/>
       <c r="D344" s="499">
         <f t="shared" si="71"/>
         <v>20</v>
@@ -34827,7 +34973,7 @@
         <v>15</v>
       </c>
       <c r="B345" s="334"/>
-      <c r="C345" s="612"/>
+      <c r="C345" s="622"/>
       <c r="D345" s="500">
         <f t="shared" si="71"/>
         <v>30</v>
@@ -34890,7 +35036,7 @@
         <v>16</v>
       </c>
       <c r="B346" s="334"/>
-      <c r="C346" s="612" t="str">
+      <c r="C346" s="622" t="str">
         <f>O151&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -34953,7 +35099,7 @@
         <v>17</v>
       </c>
       <c r="B347" s="334"/>
-      <c r="C347" s="612"/>
+      <c r="C347" s="622"/>
       <c r="D347" s="499">
         <f t="shared" si="71"/>
         <v>20</v>
@@ -35011,7 +35157,7 @@
         <v>18</v>
       </c>
       <c r="B348" s="334"/>
-      <c r="C348" s="612"/>
+      <c r="C348" s="622"/>
       <c r="D348" s="501">
         <f t="shared" si="71"/>
         <v>30</v>
@@ -35089,7 +35235,7 @@
         <v>19</v>
       </c>
       <c r="B349" s="334"/>
-      <c r="C349" s="612" t="str">
+      <c r="C349" s="622" t="str">
         <f>O154&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -35152,7 +35298,7 @@
         <v>20</v>
       </c>
       <c r="B350" s="334"/>
-      <c r="C350" s="612"/>
+      <c r="C350" s="622"/>
       <c r="D350" s="499">
         <f t="shared" si="71"/>
         <v>20</v>
@@ -35211,7 +35357,7 @@
         <v>21</v>
       </c>
       <c r="B351" s="334"/>
-      <c r="C351" s="612"/>
+      <c r="C351" s="622"/>
       <c r="D351" s="501">
         <f t="shared" si="71"/>
         <v>30</v>
@@ -35520,11 +35666,11 @@
         <f>IF(OR(V358="",V359="",V362=""),"",(V358-V359)*V362)</f>
         <v/>
       </c>
-      <c r="Q358" s="613" t="str">
+      <c r="Q358" s="625" t="str">
         <f>IF(OR(P358="",P359=""),"",(ABS(P358)+ABS(P359))/$O$355)</f>
         <v/>
       </c>
-      <c r="R358" s="614" t="str">
+      <c r="R358" s="626" t="str">
         <f>IF(OR(Q358="",Q360=""),"",Q358+Q360)</f>
         <v/>
       </c>
@@ -35563,8 +35709,8 @@
         <f>IF(OR(W358="",W359="",V362=""),"",(W358-W359)*V362)</f>
         <v/>
       </c>
-      <c r="Q359" s="613"/>
-      <c r="R359" s="613"/>
+      <c r="Q359" s="625"/>
+      <c r="R359" s="625"/>
       <c r="S359" s="146" t="str">
         <f>IF(AB171="","",AB171)</f>
         <v/>
@@ -35600,11 +35746,11 @@
         <f>IF(OR(X358="",X359="",V362=""),"",(X358-X359)*V362)</f>
         <v/>
       </c>
-      <c r="Q360" s="614" t="str">
+      <c r="Q360" s="626" t="str">
         <f>IF(OR(P360="",P361=""),"",(ABS(P360)+ABS(P361))/$O$355)</f>
         <v/>
       </c>
-      <c r="R360" s="614"/>
+      <c r="R360" s="626"/>
       <c r="S360" s="146" t="str">
         <f>IF(AB172="","",AB172)</f>
         <v/>
@@ -35646,8 +35792,8 @@
         <f>IF(OR(Y358="",Y359="",V362=""),"",(Y358-Y359)*V362)</f>
         <v/>
       </c>
-      <c r="Q361" s="614"/>
-      <c r="R361" s="614"/>
+      <c r="Q361" s="626"/>
+      <c r="R361" s="626"/>
       <c r="S361" s="148" t="str">
         <f>IF(AB173="","",AB173)</f>
         <v/>
@@ -35819,7 +35965,7 @@
         <v>36</v>
       </c>
       <c r="B366" s="334"/>
-      <c r="C366" s="615" t="str">
+      <c r="C366" s="627" t="str">
         <f>O214</f>
         <v>Auto 1</v>
       </c>
@@ -35839,7 +35985,7 @@
         <f t="shared" ref="G366:G380" si="84">IF(S214="","",S214)</f>
         <v/>
       </c>
-      <c r="H366" s="648" t="str">
+      <c r="H366" s="588" t="str">
         <f t="shared" ref="H366:H380" si="85">IF(T214="","",T214)</f>
         <v/>
       </c>
@@ -35870,7 +36016,7 @@
         <v>37</v>
       </c>
       <c r="B367" s="334"/>
-      <c r="C367" s="616"/>
+      <c r="C367" s="628"/>
       <c r="D367" s="470" t="str">
         <f t="shared" si="81"/>
         <v/>
@@ -35887,7 +36033,7 @@
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="H367" s="649" t="str">
+      <c r="H367" s="589" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
@@ -35916,7 +36062,7 @@
         <v>38</v>
       </c>
       <c r="B368" s="334"/>
-      <c r="C368" s="616"/>
+      <c r="C368" s="628"/>
       <c r="D368" s="470" t="str">
         <f t="shared" si="81"/>
         <v/>
@@ -35933,7 +36079,7 @@
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="H368" s="649" t="str">
+      <c r="H368" s="589" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
@@ -35951,7 +36097,7 @@
         <v>39</v>
       </c>
       <c r="B369" s="334"/>
-      <c r="C369" s="616"/>
+      <c r="C369" s="628"/>
       <c r="D369" s="470" t="str">
         <f t="shared" si="81"/>
         <v/>
@@ -35968,7 +36114,7 @@
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="H369" s="649" t="str">
+      <c r="H369" s="589" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
@@ -35986,7 +36132,7 @@
         <v>40</v>
       </c>
       <c r="B370" s="334"/>
-      <c r="C370" s="616"/>
+      <c r="C370" s="628"/>
       <c r="D370" s="476" t="str">
         <f t="shared" si="81"/>
         <v/>
@@ -36003,7 +36149,7 @@
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="H370" s="650" t="str">
+      <c r="H370" s="590" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
@@ -36031,7 +36177,7 @@
         <v>41</v>
       </c>
       <c r="B371" s="334"/>
-      <c r="C371" s="595" t="str">
+      <c r="C371" s="630" t="str">
         <f>O219</f>
         <v/>
       </c>
@@ -36051,7 +36197,7 @@
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="H371" s="648" t="str">
+      <c r="H371" s="588" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
@@ -36081,7 +36227,7 @@
         <v>42</v>
       </c>
       <c r="B372" s="334"/>
-      <c r="C372" s="596"/>
+      <c r="C372" s="631"/>
       <c r="D372" s="470" t="str">
         <f t="shared" si="81"/>
         <v/>
@@ -36098,7 +36244,7 @@
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="H372" s="649" t="str">
+      <c r="H372" s="589" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
@@ -36131,7 +36277,7 @@
         <v>43</v>
       </c>
       <c r="B373" s="334"/>
-      <c r="C373" s="596"/>
+      <c r="C373" s="631"/>
       <c r="D373" s="470" t="str">
         <f t="shared" si="81"/>
         <v/>
@@ -36148,7 +36294,7 @@
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="H373" s="649" t="str">
+      <c r="H373" s="589" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
@@ -36178,7 +36324,7 @@
         <v>44</v>
       </c>
       <c r="B374" s="334"/>
-      <c r="C374" s="596"/>
+      <c r="C374" s="631"/>
       <c r="D374" s="470" t="str">
         <f t="shared" si="81"/>
         <v/>
@@ -36195,7 +36341,7 @@
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="H374" s="649" t="str">
+      <c r="H374" s="589" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
@@ -36228,7 +36374,7 @@
         <v>45</v>
       </c>
       <c r="B375" s="334"/>
-      <c r="C375" s="597"/>
+      <c r="C375" s="633"/>
       <c r="D375" s="476" t="str">
         <f t="shared" si="81"/>
         <v/>
@@ -36245,7 +36391,7 @@
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="H375" s="650" t="str">
+      <c r="H375" s="590" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
@@ -36275,7 +36421,7 @@
         <v>46</v>
       </c>
       <c r="B376" s="334"/>
-      <c r="C376" s="598" t="str">
+      <c r="C376" s="651" t="str">
         <f>O224</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -36295,7 +36441,7 @@
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="H376" s="648" t="str">
+      <c r="H376" s="588" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
@@ -36328,7 +36474,7 @@
         <v>47</v>
       </c>
       <c r="B377" s="334"/>
-      <c r="C377" s="599"/>
+      <c r="C377" s="652"/>
       <c r="D377" s="470" t="str">
         <f t="shared" si="81"/>
         <v/>
@@ -36345,7 +36491,7 @@
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="H377" s="649" t="str">
+      <c r="H377" s="589" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
@@ -36375,7 +36521,7 @@
         <v>48</v>
       </c>
       <c r="B378" s="334"/>
-      <c r="C378" s="599"/>
+      <c r="C378" s="652"/>
       <c r="D378" s="470" t="str">
         <f t="shared" si="81"/>
         <v/>
@@ -36392,7 +36538,7 @@
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="H378" s="649" t="str">
+      <c r="H378" s="589" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
@@ -36425,7 +36571,7 @@
         <v>49</v>
       </c>
       <c r="B379" s="334"/>
-      <c r="C379" s="599"/>
+      <c r="C379" s="652"/>
       <c r="D379" s="470" t="str">
         <f t="shared" si="81"/>
         <v/>
@@ -36442,7 +36588,7 @@
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="H379" s="649" t="str">
+      <c r="H379" s="589" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
@@ -36472,7 +36618,7 @@
         <v>50</v>
       </c>
       <c r="B380" s="334"/>
-      <c r="C380" s="600"/>
+      <c r="C380" s="653"/>
       <c r="D380" s="476" t="str">
         <f t="shared" si="81"/>
         <v/>
@@ -36489,7 +36635,7 @@
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="H380" s="650" t="str">
+      <c r="H380" s="590" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
@@ -36782,7 +36928,7 @@
         <v>58</v>
       </c>
       <c r="B388" s="334"/>
-      <c r="C388" s="601" t="str">
+      <c r="C388" s="619" t="str">
         <f>O242</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -36833,7 +36979,7 @@
         <v>59</v>
       </c>
       <c r="B389" s="334"/>
-      <c r="C389" s="602"/>
+      <c r="C389" s="620"/>
       <c r="D389" s="485" t="str">
         <f>P243</f>
         <v>Waist level</v>
@@ -37184,14 +37330,14 @@
       <c r="E399" s="332"/>
       <c r="F399" s="332"/>
       <c r="G399" s="332"/>
-      <c r="H399" s="603" t="s">
+      <c r="H399" s="654" t="s">
         <v>395</v>
       </c>
-      <c r="I399" s="603"/>
-      <c r="J399" s="603" t="s">
+      <c r="I399" s="654"/>
+      <c r="J399" s="654" t="s">
         <v>396</v>
       </c>
-      <c r="K399" s="603"/>
+      <c r="K399" s="654"/>
       <c r="L399" s="332"/>
       <c r="M399" s="333"/>
       <c r="O399" s="13"/>
@@ -37274,15 +37420,15 @@
         <f>O319</f>
         <v/>
       </c>
-      <c r="E401" s="651" t="str">
+      <c r="E401" s="591" t="str">
         <f t="shared" ref="E401:G405" si="86">IF(P319="","",VLOOKUP(P319,LeedsMS,2))</f>
         <v/>
       </c>
-      <c r="F401" s="652" t="str">
+      <c r="F401" s="592" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
-      <c r="G401" s="653" t="str">
+      <c r="G401" s="593" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
@@ -37330,15 +37476,15 @@
         <f>O320</f>
         <v/>
       </c>
-      <c r="E402" s="654" t="str">
+      <c r="E402" s="594" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
-      <c r="F402" s="655" t="str">
+      <c r="F402" s="595" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
-      <c r="G402" s="656" t="str">
+      <c r="G402" s="596" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
@@ -37387,15 +37533,15 @@
         <f>O321</f>
         <v/>
       </c>
-      <c r="E403" s="654" t="str">
+      <c r="E403" s="594" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
-      <c r="F403" s="655" t="str">
+      <c r="F403" s="595" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
-      <c r="G403" s="656" t="str">
+      <c r="G403" s="596" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
@@ -37443,15 +37589,15 @@
         <f>O322</f>
         <v/>
       </c>
-      <c r="E404" s="654" t="str">
+      <c r="E404" s="594" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
-      <c r="F404" s="655" t="str">
+      <c r="F404" s="595" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
-      <c r="G404" s="656" t="str">
+      <c r="G404" s="596" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
@@ -37500,15 +37646,15 @@
         <f>O323</f>
         <v/>
       </c>
-      <c r="E405" s="657" t="str">
+      <c r="E405" s="597" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
-      <c r="F405" s="658" t="str">
+      <c r="F405" s="598" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
-      <c r="G405" s="659" t="str">
+      <c r="G405" s="599" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
@@ -37765,20 +37911,20 @@
       </c>
       <c r="B413" s="334"/>
       <c r="C413" s="42"/>
-      <c r="D413" s="604" t="s">
+      <c r="D413" s="635" t="s">
         <v>402</v>
       </c>
-      <c r="E413" s="604"/>
-      <c r="F413" s="604"/>
-      <c r="G413" s="604"/>
-      <c r="H413" s="604"/>
-      <c r="I413" s="604" t="s">
+      <c r="E413" s="635"/>
+      <c r="F413" s="635"/>
+      <c r="G413" s="635"/>
+      <c r="H413" s="635"/>
+      <c r="I413" s="635" t="s">
         <v>403</v>
       </c>
-      <c r="J413" s="604"/>
-      <c r="K413" s="604"/>
-      <c r="L413" s="604"/>
-      <c r="M413" s="605"/>
+      <c r="J413" s="635"/>
+      <c r="K413" s="635"/>
+      <c r="L413" s="635"/>
+      <c r="M413" s="636"/>
       <c r="O413" s="13"/>
       <c r="P413" s="2" t="s">
         <v>189</v>
@@ -39258,11 +39404,11 @@
         <f t="shared" si="93"/>
         <v/>
       </c>
-      <c r="F442" s="606" t="str">
+      <c r="F442" s="637" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
-      <c r="G442" s="608" t="str">
+      <c r="G442" s="639" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
@@ -39303,8 +39449,8 @@
         <f>P359</f>
         <v/>
       </c>
-      <c r="F443" s="607"/>
-      <c r="G443" s="609"/>
+      <c r="F443" s="638"/>
+      <c r="G443" s="640"/>
       <c r="H443" s="202"/>
       <c r="I443" s="82" t="str">
         <f>T360</f>
@@ -39344,11 +39490,11 @@
         <f>P360</f>
         <v/>
       </c>
-      <c r="F444" s="607" t="str">
+      <c r="F444" s="638" t="str">
         <f>Q360</f>
         <v/>
       </c>
-      <c r="G444" s="609"/>
+      <c r="G444" s="640"/>
       <c r="H444" s="135"/>
       <c r="I444" s="91" t="str">
         <f>T361</f>
@@ -39389,8 +39535,8 @@
         <f>P361</f>
         <v/>
       </c>
-      <c r="F445" s="611"/>
-      <c r="G445" s="610"/>
+      <c r="F445" s="642"/>
+      <c r="G445" s="641"/>
       <c r="H445" s="135"/>
       <c r="I445" s="135"/>
       <c r="J445" s="135"/>
@@ -45726,68 +45872,35 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="W107:Y107"/>
-    <mergeCell ref="Q139:S139"/>
-    <mergeCell ref="T139:V139"/>
-    <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="T181:U181"/>
-    <mergeCell ref="O190:O194"/>
-    <mergeCell ref="O195:O199"/>
-    <mergeCell ref="O200:O204"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="Q107:S107"/>
-    <mergeCell ref="T107:V107"/>
-    <mergeCell ref="O214:O218"/>
-    <mergeCell ref="O219:O223"/>
-    <mergeCell ref="O224:O228"/>
-    <mergeCell ref="O240:O241"/>
-    <mergeCell ref="O242:O243"/>
-    <mergeCell ref="Q257:R257"/>
-    <mergeCell ref="T257:U257"/>
-    <mergeCell ref="E269:G269"/>
-    <mergeCell ref="H269:J269"/>
-    <mergeCell ref="K269:M269"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="H204:H205"/>
+    <mergeCell ref="I204:I205"/>
+    <mergeCell ref="M204:M205"/>
+    <mergeCell ref="C371:C375"/>
+    <mergeCell ref="C376:C380"/>
+    <mergeCell ref="C388:C389"/>
+    <mergeCell ref="H399:I399"/>
+    <mergeCell ref="J399:K399"/>
+    <mergeCell ref="D413:H413"/>
+    <mergeCell ref="I413:M413"/>
+    <mergeCell ref="F442:F443"/>
+    <mergeCell ref="G442:G445"/>
+    <mergeCell ref="F444:F445"/>
+    <mergeCell ref="C337:C339"/>
+    <mergeCell ref="C340:C342"/>
+    <mergeCell ref="C343:C345"/>
+    <mergeCell ref="C346:C348"/>
+    <mergeCell ref="C349:C351"/>
+    <mergeCell ref="Q358:Q359"/>
+    <mergeCell ref="R358:R361"/>
+    <mergeCell ref="Q360:Q361"/>
+    <mergeCell ref="C366:C370"/>
+    <mergeCell ref="P293:S293"/>
+    <mergeCell ref="P302:S302"/>
+    <mergeCell ref="C303:C307"/>
+    <mergeCell ref="C308:C312"/>
+    <mergeCell ref="C313:C317"/>
     <mergeCell ref="V319:W319"/>
     <mergeCell ref="C324:C325"/>
     <mergeCell ref="Q329:U329"/>
@@ -45803,35 +45916,68 @@
     <mergeCell ref="C277:C279"/>
     <mergeCell ref="C280:C282"/>
     <mergeCell ref="C283:C285"/>
-    <mergeCell ref="Q358:Q359"/>
-    <mergeCell ref="R358:R361"/>
-    <mergeCell ref="Q360:Q361"/>
-    <mergeCell ref="C366:C370"/>
-    <mergeCell ref="P293:S293"/>
-    <mergeCell ref="P302:S302"/>
-    <mergeCell ref="C303:C307"/>
-    <mergeCell ref="C308:C312"/>
-    <mergeCell ref="C313:C317"/>
-    <mergeCell ref="D413:H413"/>
-    <mergeCell ref="I413:M413"/>
-    <mergeCell ref="F442:F443"/>
-    <mergeCell ref="G442:G445"/>
-    <mergeCell ref="F444:F445"/>
-    <mergeCell ref="C337:C339"/>
-    <mergeCell ref="C340:C342"/>
-    <mergeCell ref="C343:C345"/>
-    <mergeCell ref="C346:C348"/>
-    <mergeCell ref="C349:C351"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="H204:H205"/>
-    <mergeCell ref="I204:I205"/>
-    <mergeCell ref="M204:M205"/>
-    <mergeCell ref="C371:C375"/>
-    <mergeCell ref="C376:C380"/>
-    <mergeCell ref="C388:C389"/>
-    <mergeCell ref="H399:I399"/>
-    <mergeCell ref="J399:K399"/>
+    <mergeCell ref="O214:O218"/>
+    <mergeCell ref="O219:O223"/>
+    <mergeCell ref="O224:O228"/>
+    <mergeCell ref="O240:O241"/>
+    <mergeCell ref="O242:O243"/>
+    <mergeCell ref="Q257:R257"/>
+    <mergeCell ref="T257:U257"/>
+    <mergeCell ref="E269:G269"/>
+    <mergeCell ref="H269:J269"/>
+    <mergeCell ref="K269:M269"/>
+    <mergeCell ref="T181:U181"/>
+    <mergeCell ref="O190:O194"/>
+    <mergeCell ref="O195:O199"/>
+    <mergeCell ref="O200:O204"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="Q107:S107"/>
+    <mergeCell ref="T107:V107"/>
+    <mergeCell ref="W107:Y107"/>
+    <mergeCell ref="Q139:S139"/>
+    <mergeCell ref="T139:V139"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <conditionalFormatting sqref="S126 V126 Y126 S158 V158 Y158">
     <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
@@ -46151,39 +46297,39 @@
         <f>Fluoro!D269</f>
         <v>Attenuator</v>
       </c>
-      <c r="E5" s="623" t="str">
+      <c r="E5" s="616" t="str">
         <f>Fluoro!E269</f>
         <v>Auto 1</v>
       </c>
-      <c r="F5" s="623">
+      <c r="F5" s="616">
         <f>Fluoro!F269</f>
         <v>0</v>
       </c>
-      <c r="G5" s="623">
+      <c r="G5" s="616">
         <f>Fluoro!G269</f>
         <v>0</v>
       </c>
-      <c r="H5" s="623" t="str">
+      <c r="H5" s="616" t="str">
         <f>Fluoro!H269</f>
         <v/>
       </c>
-      <c r="I5" s="623">
+      <c r="I5" s="616">
         <f>Fluoro!I269</f>
         <v>0</v>
       </c>
-      <c r="J5" s="623">
+      <c r="J5" s="616">
         <f>Fluoro!J269</f>
         <v>0</v>
       </c>
-      <c r="K5" s="624" t="str">
+      <c r="K5" s="617" t="str">
         <f>Fluoro!K269</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L5" s="624">
+      <c r="L5" s="617">
         <f>Fluoro!L269</f>
         <v>0</v>
       </c>
-      <c r="M5" s="624">
+      <c r="M5" s="617">
         <f>Fluoro!M269</f>
         <v>0</v>
       </c>
@@ -46240,7 +46386,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="645" t="str">
+      <c r="C7" s="655" t="str">
         <f>Fluoro!C271</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -46290,7 +46436,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="645">
+      <c r="C8" s="655">
         <f>Fluoro!C272</f>
         <v>0</v>
       </c>
@@ -46340,7 +46486,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="645">
+      <c r="C9" s="655">
         <f>Fluoro!C273</f>
         <v>0</v>
       </c>
@@ -46390,7 +46536,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="645" t="str">
+      <c r="C10" s="655" t="str">
         <f>Fluoro!C274</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -46440,7 +46586,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="645">
+      <c r="C11" s="655">
         <f>Fluoro!C275</f>
         <v>0</v>
       </c>
@@ -46490,7 +46636,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="645">
+      <c r="C12" s="655">
         <f>Fluoro!C276</f>
         <v>0</v>
       </c>
@@ -46540,7 +46686,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="645" t="str">
+      <c r="C13" s="655" t="str">
         <f>Fluoro!C277</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -46590,7 +46736,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="645">
+      <c r="C14" s="655">
         <f>Fluoro!C278</f>
         <v>0</v>
       </c>
@@ -46640,7 +46786,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="645">
+      <c r="C15" s="655">
         <f>Fluoro!C279</f>
         <v>0</v>
       </c>
@@ -46690,7 +46836,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="645" t="str">
+      <c r="C16" s="655" t="str">
         <f>Fluoro!C280</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -46740,7 +46886,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="645">
+      <c r="C17" s="655">
         <f>Fluoro!C281</f>
         <v>0</v>
       </c>
@@ -46790,7 +46936,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="645">
+      <c r="C18" s="655">
         <f>Fluoro!C282</f>
         <v>0</v>
       </c>
@@ -46840,7 +46986,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="645" t="str">
+      <c r="C19" s="655" t="str">
         <f>Fluoro!C283</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -46890,7 +47036,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="645">
+      <c r="C20" s="655">
         <f>Fluoro!C284</f>
         <v>0</v>
       </c>
@@ -46940,7 +47086,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="645">
+      <c r="C21" s="655">
         <f>Fluoro!C285</f>
         <v>0</v>
       </c>
@@ -47389,7 +47535,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="10"/>
-      <c r="C39" s="642" t="str">
+      <c r="C39" s="656" t="str">
         <f>Fluoro!C303</f>
         <v>Auto 1</v>
       </c>
@@ -47427,7 +47573,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="10"/>
-      <c r="C40" s="642">
+      <c r="C40" s="656">
         <f>Fluoro!C304</f>
         <v>0</v>
       </c>
@@ -47465,7 +47611,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="642">
+      <c r="C41" s="656">
         <f>Fluoro!C305</f>
         <v>0</v>
       </c>
@@ -47503,7 +47649,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="10"/>
-      <c r="C42" s="642">
+      <c r="C42" s="656">
         <f>Fluoro!C306</f>
         <v>0</v>
       </c>
@@ -47538,7 +47684,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="10"/>
-      <c r="C43" s="642">
+      <c r="C43" s="656">
         <f>Fluoro!C307</f>
         <v>0</v>
       </c>
@@ -47573,7 +47719,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="10"/>
-      <c r="C44" s="643" t="str">
+      <c r="C44" s="657" t="str">
         <f>Fluoro!C308</f>
         <v/>
       </c>
@@ -47608,7 +47754,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="10"/>
-      <c r="C45" s="643">
+      <c r="C45" s="657">
         <f>Fluoro!C309</f>
         <v>0</v>
       </c>
@@ -47643,7 +47789,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="10"/>
-      <c r="C46" s="643">
+      <c r="C46" s="657">
         <f>Fluoro!C310</f>
         <v>0</v>
       </c>
@@ -47678,7 +47824,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="10"/>
-      <c r="C47" s="643">
+      <c r="C47" s="657">
         <f>Fluoro!C311</f>
         <v>0</v>
       </c>
@@ -47713,7 +47859,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="10"/>
-      <c r="C48" s="643">
+      <c r="C48" s="657">
         <f>Fluoro!C312</f>
         <v>0</v>
       </c>
@@ -47748,7 +47894,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="10"/>
-      <c r="C49" s="643" t="str">
+      <c r="C49" s="657" t="str">
         <f>Fluoro!C313</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -47783,7 +47929,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="10"/>
-      <c r="C50" s="643">
+      <c r="C50" s="657">
         <f>Fluoro!C314</f>
         <v>0</v>
       </c>
@@ -47818,7 +47964,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="643">
+      <c r="C51" s="657">
         <f>Fluoro!C315</f>
         <v>0</v>
       </c>
@@ -47849,7 +47995,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="10"/>
-      <c r="C52" s="643">
+      <c r="C52" s="657">
         <f>Fluoro!C316</f>
         <v>0</v>
       </c>
@@ -47880,7 +48026,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="10"/>
-      <c r="C53" s="643">
+      <c r="C53" s="657">
         <f>Fluoro!C317</f>
         <v>0</v>
       </c>
@@ -48066,7 +48212,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="10"/>
-      <c r="C60" s="644" t="str">
+      <c r="C60" s="658" t="str">
         <f>Fluoro!C324</f>
         <v>Scatter – Fluoro</v>
       </c>
@@ -48101,7 +48247,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="10"/>
-      <c r="C61" s="644">
+      <c r="C61" s="658">
         <f>Fluoro!C325</f>
         <v>0</v>
       </c>
@@ -48365,39 +48511,39 @@
         <f>Fluoro!D335</f>
         <v>Attenuator</v>
       </c>
-      <c r="E71" s="623" t="str">
+      <c r="E71" s="616" t="str">
         <f>Fluoro!E335</f>
         <v>Auto 1</v>
       </c>
-      <c r="F71" s="623">
+      <c r="F71" s="616">
         <f>Fluoro!F335</f>
         <v>0</v>
       </c>
-      <c r="G71" s="623">
+      <c r="G71" s="616">
         <f>Fluoro!G335</f>
         <v>0</v>
       </c>
-      <c r="H71" s="623" t="str">
+      <c r="H71" s="616" t="str">
         <f>Fluoro!H335</f>
         <v/>
       </c>
-      <c r="I71" s="623">
+      <c r="I71" s="616">
         <f>Fluoro!I335</f>
         <v>0</v>
       </c>
-      <c r="J71" s="623">
+      <c r="J71" s="616">
         <f>Fluoro!J335</f>
         <v>0</v>
       </c>
-      <c r="K71" s="624" t="str">
+      <c r="K71" s="617" t="str">
         <f>Fluoro!K335</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L71" s="624">
+      <c r="L71" s="617">
         <f>Fluoro!L335</f>
         <v>0</v>
       </c>
-      <c r="M71" s="624">
+      <c r="M71" s="617">
         <f>Fluoro!M335</f>
         <v>0</v>
       </c>
@@ -48454,7 +48600,7 @@
         <v>7</v>
       </c>
       <c r="B73" s="10"/>
-      <c r="C73" s="645" t="str">
+      <c r="C73" s="655" t="str">
         <f>Fluoro!C337</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -48504,7 +48650,7 @@
         <v>8</v>
       </c>
       <c r="B74" s="10"/>
-      <c r="C74" s="645">
+      <c r="C74" s="655">
         <f>Fluoro!C338</f>
         <v>0</v>
       </c>
@@ -48554,7 +48700,7 @@
         <v>9</v>
       </c>
       <c r="B75" s="10"/>
-      <c r="C75" s="645">
+      <c r="C75" s="655">
         <f>Fluoro!C339</f>
         <v>0</v>
       </c>
@@ -48604,7 +48750,7 @@
         <v>10</v>
       </c>
       <c r="B76" s="10"/>
-      <c r="C76" s="645" t="str">
+      <c r="C76" s="655" t="str">
         <f>Fluoro!C340</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -48654,7 +48800,7 @@
         <v>11</v>
       </c>
       <c r="B77" s="10"/>
-      <c r="C77" s="645">
+      <c r="C77" s="655">
         <f>Fluoro!C341</f>
         <v>0</v>
       </c>
@@ -48704,7 +48850,7 @@
         <v>12</v>
       </c>
       <c r="B78" s="10"/>
-      <c r="C78" s="645">
+      <c r="C78" s="655">
         <f>Fluoro!C342</f>
         <v>0</v>
       </c>
@@ -48754,7 +48900,7 @@
         <v>13</v>
       </c>
       <c r="B79" s="10"/>
-      <c r="C79" s="645" t="str">
+      <c r="C79" s="655" t="str">
         <f>Fluoro!C343</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -48804,7 +48950,7 @@
         <v>14</v>
       </c>
       <c r="B80" s="10"/>
-      <c r="C80" s="645">
+      <c r="C80" s="655">
         <f>Fluoro!C344</f>
         <v>0</v>
       </c>
@@ -48854,7 +49000,7 @@
         <v>15</v>
       </c>
       <c r="B81" s="10"/>
-      <c r="C81" s="645">
+      <c r="C81" s="655">
         <f>Fluoro!C345</f>
         <v>0</v>
       </c>
@@ -48904,7 +49050,7 @@
         <v>16</v>
       </c>
       <c r="B82" s="10"/>
-      <c r="C82" s="645" t="str">
+      <c r="C82" s="655" t="str">
         <f>Fluoro!C346</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -48954,7 +49100,7 @@
         <v>17</v>
       </c>
       <c r="B83" s="10"/>
-      <c r="C83" s="645">
+      <c r="C83" s="655">
         <f>Fluoro!C347</f>
         <v>0</v>
       </c>
@@ -49004,7 +49150,7 @@
         <v>18</v>
       </c>
       <c r="B84" s="10"/>
-      <c r="C84" s="645">
+      <c r="C84" s="655">
         <f>Fluoro!C348</f>
         <v>0</v>
       </c>
@@ -49054,7 +49200,7 @@
         <v>19</v>
       </c>
       <c r="B85" s="10"/>
-      <c r="C85" s="645" t="str">
+      <c r="C85" s="655" t="str">
         <f>Fluoro!C349</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49104,7 +49250,7 @@
         <v>20</v>
       </c>
       <c r="B86" s="10"/>
-      <c r="C86" s="645">
+      <c r="C86" s="655">
         <f>Fluoro!C350</f>
         <v>0</v>
       </c>
@@ -49154,7 +49300,7 @@
         <v>21</v>
       </c>
       <c r="B87" s="10"/>
-      <c r="C87" s="645">
+      <c r="C87" s="655">
         <f>Fluoro!C351</f>
         <v>0</v>
       </c>
@@ -49501,7 +49647,7 @@
         <v>36</v>
       </c>
       <c r="B102" s="10"/>
-      <c r="C102" s="642" t="str">
+      <c r="C102" s="656" t="str">
         <f>Fluoro!C366</f>
         <v>Auto 1</v>
       </c>
@@ -49539,7 +49685,7 @@
         <v>37</v>
       </c>
       <c r="B103" s="10"/>
-      <c r="C103" s="642">
+      <c r="C103" s="656">
         <f>Fluoro!C367</f>
         <v>0</v>
       </c>
@@ -49577,7 +49723,7 @@
         <v>38</v>
       </c>
       <c r="B104" s="10"/>
-      <c r="C104" s="642">
+      <c r="C104" s="656">
         <f>Fluoro!C368</f>
         <v>0</v>
       </c>
@@ -49615,7 +49761,7 @@
         <v>39</v>
       </c>
       <c r="B105" s="10"/>
-      <c r="C105" s="642">
+      <c r="C105" s="656">
         <f>Fluoro!C369</f>
         <v>0</v>
       </c>
@@ -49650,7 +49796,7 @@
         <v>40</v>
       </c>
       <c r="B106" s="10"/>
-      <c r="C106" s="642">
+      <c r="C106" s="656">
         <f>Fluoro!C370</f>
         <v>0</v>
       </c>
@@ -49685,7 +49831,7 @@
         <v>41</v>
       </c>
       <c r="B107" s="10"/>
-      <c r="C107" s="643" t="str">
+      <c r="C107" s="657" t="str">
         <f>Fluoro!C371</f>
         <v/>
       </c>
@@ -49720,7 +49866,7 @@
         <v>42</v>
       </c>
       <c r="B108" s="10"/>
-      <c r="C108" s="643">
+      <c r="C108" s="657">
         <f>Fluoro!C372</f>
         <v>0</v>
       </c>
@@ -49755,7 +49901,7 @@
         <v>43</v>
       </c>
       <c r="B109" s="10"/>
-      <c r="C109" s="643">
+      <c r="C109" s="657">
         <f>Fluoro!C373</f>
         <v>0</v>
       </c>
@@ -49790,7 +49936,7 @@
         <v>44</v>
       </c>
       <c r="B110" s="10"/>
-      <c r="C110" s="643">
+      <c r="C110" s="657">
         <f>Fluoro!C374</f>
         <v>0</v>
       </c>
@@ -49825,7 +49971,7 @@
         <v>45</v>
       </c>
       <c r="B111" s="10"/>
-      <c r="C111" s="643">
+      <c r="C111" s="657">
         <f>Fluoro!C375</f>
         <v>0</v>
       </c>
@@ -49860,7 +50006,7 @@
         <v>46</v>
       </c>
       <c r="B112" s="10"/>
-      <c r="C112" s="643" t="str">
+      <c r="C112" s="657" t="str">
         <f>Fluoro!C376</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -49895,7 +50041,7 @@
         <v>47</v>
       </c>
       <c r="B113" s="10"/>
-      <c r="C113" s="643">
+      <c r="C113" s="657">
         <f>Fluoro!C377</f>
         <v>0</v>
       </c>
@@ -49930,7 +50076,7 @@
         <v>48</v>
       </c>
       <c r="B114" s="10"/>
-      <c r="C114" s="643">
+      <c r="C114" s="657">
         <f>Fluoro!C378</f>
         <v>0</v>
       </c>
@@ -49961,7 +50107,7 @@
         <v>49</v>
       </c>
       <c r="B115" s="10"/>
-      <c r="C115" s="643">
+      <c r="C115" s="657">
         <f>Fluoro!C379</f>
         <v>0</v>
       </c>
@@ -49992,7 +50138,7 @@
         <v>50</v>
       </c>
       <c r="B116" s="10"/>
-      <c r="C116" s="643">
+      <c r="C116" s="657">
         <f>Fluoro!C380</f>
         <v>0</v>
       </c>
@@ -50166,7 +50312,7 @@
         <v>58</v>
       </c>
       <c r="B124" s="10"/>
-      <c r="C124" s="644" t="str">
+      <c r="C124" s="658" t="str">
         <f>Fluoro!C388</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -50201,7 +50347,7 @@
         <v>59</v>
       </c>
       <c r="B125" s="10"/>
-      <c r="C125" s="644">
+      <c r="C125" s="658">
         <f>Fluoro!C389</f>
         <v>0</v>
       </c>
@@ -50378,21 +50524,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:M71"/>
     <mergeCell ref="C102:C106"/>
     <mergeCell ref="C107:C111"/>
     <mergeCell ref="C112:C116"/>
@@ -50402,6 +50533,21 @@
     <mergeCell ref="C79:C81"/>
     <mergeCell ref="C82:C84"/>
     <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.88611111111111096" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -50428,34 +50574,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="646" t="s">
+      <c r="A1" s="659" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="646"/>
+      <c r="B1" s="659"/>
       <c r="N1" s="311"/>
-      <c r="O1" s="617" t="str">
+      <c r="O1" s="629" t="str">
         <f>Fluoro!O105</f>
         <v>Patient Entrance Exposure Rate (Fluoroscopy)*</v>
       </c>
-      <c r="P1" s="617"/>
-      <c r="Q1" s="617"/>
-      <c r="R1" s="617" t="s">
+      <c r="P1" s="629"/>
+      <c r="Q1" s="629"/>
+      <c r="R1" s="629" t="s">
         <v>409</v>
       </c>
-      <c r="S1" s="617"/>
-      <c r="T1" s="617"/>
+      <c r="S1" s="629"/>
+      <c r="T1" s="629"/>
       <c r="V1" s="311"/>
-      <c r="W1" s="617" t="str">
+      <c r="W1" s="629" t="str">
         <f>Fluoro!O137</f>
         <v>Patient Entrance Exposure Rate – Digital Acquisition</v>
       </c>
-      <c r="X1" s="617"/>
-      <c r="Y1" s="617"/>
-      <c r="Z1" s="617" t="s">
+      <c r="X1" s="629"/>
+      <c r="Y1" s="629"/>
+      <c r="Z1" s="629" t="s">
         <v>409</v>
       </c>
-      <c r="AA1" s="617"/>
-      <c r="AB1" s="617"/>
+      <c r="AA1" s="629"/>
+      <c r="AB1" s="629"/>
     </row>
     <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="312">
@@ -50658,10 +50804,10 @@
       <c r="AB6" s="311"/>
     </row>
     <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="646" t="s">
+      <c r="A7" s="659" t="s">
         <v>412</v>
       </c>
-      <c r="B7" s="646"/>
+      <c r="B7" s="659"/>
       <c r="D7" s="205" t="s">
         <v>413</v>
       </c>
@@ -54448,14 +54594,14 @@
       <c r="B75" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="E75" s="617" t="s">
+      <c r="E75" s="629" t="s">
         <v>422</v>
       </c>
-      <c r="F75" s="617"/>
-      <c r="I75" s="617" t="s">
+      <c r="F75" s="629"/>
+      <c r="I75" s="629" t="s">
         <v>423</v>
       </c>
-      <c r="J75" s="617"/>
+      <c r="J75" s="629"/>
     </row>
     <row r="76" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">

--- a/MUSCCArm.xlsx
+++ b/MUSCCArm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maheug\Documents\GitHub\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1989B96B-68DF-42C2-B754-47A49F490480}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3854D4BE-1D76-4CB8-8E1D-66B0D243B73D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1486,9 +1486,6 @@
     <t>Calibration due:</t>
   </si>
   <si>
-    <t>Radcal 9010</t>
-  </si>
-  <si>
     <t>Revision 1.5-20200128</t>
   </si>
   <si>
@@ -1502,6 +1499,9 @@
   </si>
   <si>
     <t>(mGy/min)</t>
+  </si>
+  <si>
+    <t>Radcal 90-2123</t>
   </si>
 </sst>
 </file>
@@ -6432,6 +6432,153 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="132" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="160" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="154" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="155" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="180" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="181" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="159" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="185" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6456,15 +6603,6 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="144" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="154" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="155" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="188" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6474,127 +6612,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="198" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="132" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="159" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="185" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="160" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="180" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="181" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6606,28 +6627,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -18213,6 +18213,168 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2053" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4303AF2A-4CA2-4BF7-934D-8E365ACE9C79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2055" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D6B152D-3ABA-4594-82A2-4CE2E99F5987}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2056" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EF7C570-E2F9-44D1-97ED-E9ADF7A1E840}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18481,8 +18643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD792"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C216" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F225" sqref="F225"/>
+    <sheetView tabSelected="1" topLeftCell="L97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W101" sqref="W101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -18512,7 +18674,7 @@
       <c r="L1" s="329"/>
       <c r="M1" s="330"/>
       <c r="O1" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
@@ -18552,7 +18714,7 @@
       </c>
       <c r="Y2" s="14"/>
       <c r="AA2" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -18793,21 +18955,21 @@
       <c r="E10" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="644" t="str">
+      <c r="F10" s="599" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="644"/>
+      <c r="G10" s="599"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="637" t="str">
+      <c r="K10" s="600" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="637"/>
+      <c r="L10" s="600"/>
       <c r="M10" s="342"/>
       <c r="O10" s="13"/>
       <c r="Q10" s="2" t="s">
@@ -18850,21 +19012,21 @@
       <c r="E11" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="638" t="str">
+      <c r="F11" s="601" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="638"/>
+      <c r="G11" s="601"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
       <c r="J11" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="638" t="str">
+      <c r="K11" s="601" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="638"/>
+      <c r="L11" s="601"/>
       <c r="M11" s="342"/>
       <c r="O11" s="13"/>
       <c r="Q11" s="2" t="s">
@@ -18907,21 +19069,21 @@
       <c r="E12" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="638" t="str">
+      <c r="F12" s="601" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="638"/>
+      <c r="G12" s="601"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
       <c r="J12" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="646" t="str">
+      <c r="K12" s="602" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="646"/>
+      <c r="L12" s="602"/>
       <c r="M12" s="342"/>
       <c r="O12" s="13"/>
       <c r="Q12" s="2" t="s">
@@ -18964,21 +19126,21 @@
       <c r="E13" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="639" t="str">
+      <c r="F13" s="603" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="639"/>
+      <c r="G13" s="603"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
       <c r="J13" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="639" t="str">
+      <c r="K13" s="603" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="639"/>
+      <c r="L13" s="603"/>
       <c r="M13" s="342"/>
       <c r="O13" s="13"/>
       <c r="Q13" s="2" t="s">
@@ -19101,21 +19263,21 @@
       <c r="E16" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="644" t="str">
+      <c r="F16" s="599" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="644"/>
+      <c r="G16" s="599"/>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
       <c r="J16" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="647" t="str">
+      <c r="K16" s="604" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="647"/>
+      <c r="L16" s="604"/>
       <c r="M16" s="342"/>
       <c r="O16" s="13"/>
       <c r="P16" s="50" t="s">
@@ -19145,21 +19307,21 @@
       <c r="E17" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="638" t="str">
+      <c r="F17" s="601" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="638"/>
+      <c r="G17" s="601"/>
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
       <c r="J17" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="639" t="str">
+      <c r="K17" s="603" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="639"/>
+      <c r="L17" s="603"/>
       <c r="M17" s="342"/>
       <c r="O17" s="13"/>
       <c r="Q17" s="2" t="s">
@@ -19202,21 +19364,21 @@
       <c r="E18" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="639" t="str">
+      <c r="F18" s="603" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="639"/>
+      <c r="G18" s="603"/>
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
       <c r="J18" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="639" t="str">
+      <c r="K18" s="603" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="639"/>
+      <c r="L18" s="603"/>
       <c r="M18" s="342"/>
       <c r="O18" s="13"/>
       <c r="Q18" s="2" t="s">
@@ -19264,11 +19426,11 @@
       <c r="J19" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="639" t="str">
+      <c r="K19" s="603" t="str">
         <f>IF(V20="","",V20)</f>
         <v/>
       </c>
-      <c r="L19" s="639"/>
+      <c r="L19" s="603"/>
       <c r="M19" s="342"/>
       <c r="O19" s="13"/>
       <c r="Q19" s="2" t="s">
@@ -19343,11 +19505,11 @@
       <c r="E21" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="644" t="str">
+      <c r="F21" s="599" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="644"/>
+      <c r="G21" s="599"/>
       <c r="H21" s="42"/>
       <c r="I21" s="42"/>
       <c r="J21" s="73" t="s">
@@ -19387,21 +19549,21 @@
       <c r="E22" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="645" t="str">
+      <c r="F22" s="605" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="645"/>
+      <c r="G22" s="605"/>
       <c r="H22" s="42"/>
       <c r="I22" s="42"/>
       <c r="J22" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="644" t="str">
+      <c r="K22" s="599" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="644"/>
+      <c r="L22" s="599"/>
       <c r="M22" s="342"/>
       <c r="O22" s="13"/>
       <c r="Q22" s="2" t="s">
@@ -19446,11 +19608,11 @@
       <c r="J23" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="638" t="str">
+      <c r="K23" s="601" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="638"/>
+      <c r="L23" s="601"/>
       <c r="M23" s="342"/>
       <c r="O23" s="13"/>
       <c r="Q23" s="2" t="s">
@@ -19493,21 +19655,21 @@
       <c r="E24" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="637" t="str">
+      <c r="F24" s="600" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="637"/>
+      <c r="G24" s="600"/>
       <c r="H24" s="42"/>
       <c r="I24" s="42"/>
       <c r="J24" s="162" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="638" t="str">
+      <c r="K24" s="601" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="638"/>
+      <c r="L24" s="601"/>
       <c r="M24" s="342"/>
       <c r="O24" s="13"/>
       <c r="P24" s="50" t="s">
@@ -19545,11 +19707,11 @@
       <c r="E25" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="639" t="str">
+      <c r="F25" s="603" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="639"/>
+      <c r="G25" s="603"/>
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
@@ -19597,11 +19759,11 @@
       <c r="E26" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="639" t="str">
+      <c r="F26" s="603" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="639"/>
+      <c r="G26" s="603"/>
       <c r="H26" s="42"/>
       <c r="I26" s="42"/>
       <c r="J26" s="343" t="s">
@@ -19650,11 +19812,11 @@
       <c r="J27" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="644" t="str">
+      <c r="K27" s="599" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="644"/>
+      <c r="L27" s="599"/>
       <c r="M27" s="342"/>
       <c r="O27" s="13"/>
       <c r="Q27" s="2" t="s">
@@ -19692,21 +19854,21 @@
       <c r="E28" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="637" t="str">
+      <c r="F28" s="600" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="637"/>
+      <c r="G28" s="600"/>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
       <c r="J28" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="638" t="str">
+      <c r="K28" s="601" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="638"/>
+      <c r="L28" s="601"/>
       <c r="M28" s="342"/>
       <c r="O28" s="13"/>
       <c r="P28" s="50" t="s">
@@ -19735,11 +19897,11 @@
       <c r="E29" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="639" t="str">
+      <c r="F29" s="603" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="639"/>
+      <c r="G29" s="603"/>
       <c r="H29" s="42"/>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
@@ -19787,11 +19949,11 @@
       <c r="E30" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="639" t="str">
+      <c r="F30" s="603" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="639"/>
+      <c r="G30" s="603"/>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
@@ -19906,11 +20068,11 @@
       <c r="E33" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="644" t="str">
+      <c r="F33" s="599" t="str">
         <f>IF(R34="","",R34)</f>
         <v/>
       </c>
-      <c r="G33" s="644"/>
+      <c r="G33" s="599"/>
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
       <c r="J33" s="73" t="s">
@@ -19947,21 +20109,21 @@
       <c r="E34" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="645" t="str">
+      <c r="F34" s="605" t="str">
         <f>IF(R35="","",R35)</f>
         <v/>
       </c>
-      <c r="G34" s="645"/>
+      <c r="G34" s="605"/>
       <c r="H34" s="42"/>
       <c r="I34" s="42"/>
       <c r="J34" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="644" t="str">
+      <c r="K34" s="599" t="str">
         <f>IF(V35="","",V35)</f>
         <v/>
       </c>
-      <c r="L34" s="644"/>
+      <c r="L34" s="599"/>
       <c r="M34" s="342"/>
       <c r="O34" s="13"/>
       <c r="Q34" s="2" t="s">
@@ -20006,11 +20168,11 @@
       <c r="J35" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="638" t="str">
+      <c r="K35" s="601" t="str">
         <f>IF(V36="","",V36)</f>
         <v/>
       </c>
-      <c r="L35" s="638"/>
+      <c r="L35" s="601"/>
       <c r="M35" s="342"/>
       <c r="O35" s="13"/>
       <c r="Q35" s="2" t="s">
@@ -20053,21 +20215,21 @@
       <c r="E36" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="637" t="str">
+      <c r="F36" s="600" t="str">
         <f>IF(R37="","",R37)</f>
         <v/>
       </c>
-      <c r="G36" s="637"/>
+      <c r="G36" s="600"/>
       <c r="H36" s="42"/>
       <c r="I36" s="42"/>
       <c r="J36" s="162" t="s">
         <v>42</v>
       </c>
-      <c r="K36" s="638" t="str">
+      <c r="K36" s="601" t="str">
         <f>IF(V37="","",V37)</f>
         <v/>
       </c>
-      <c r="L36" s="638"/>
+      <c r="L36" s="601"/>
       <c r="M36" s="342"/>
       <c r="O36" s="13"/>
       <c r="P36" s="50" t="s">
@@ -20105,11 +20267,11 @@
       <c r="E37" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="639" t="str">
+      <c r="F37" s="603" t="str">
         <f>IF(R38="","",R38)</f>
         <v/>
       </c>
-      <c r="G37" s="639"/>
+      <c r="G37" s="603"/>
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
       <c r="J37" s="42"/>
@@ -20157,11 +20319,11 @@
       <c r="E38" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="639" t="str">
+      <c r="F38" s="603" t="str">
         <f>IF(R39="","",R39)</f>
         <v/>
       </c>
-      <c r="G38" s="639"/>
+      <c r="G38" s="603"/>
       <c r="H38" s="42"/>
       <c r="I38" s="42"/>
       <c r="J38" s="343" t="s">
@@ -20208,11 +20370,11 @@
       <c r="J39" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="K39" s="644" t="str">
+      <c r="K39" s="599" t="str">
         <f>IF(V40="","",V40)</f>
         <v/>
       </c>
-      <c r="L39" s="644"/>
+      <c r="L39" s="599"/>
       <c r="M39" s="342"/>
       <c r="O39" s="13"/>
       <c r="Q39" s="2" t="s">
@@ -20250,21 +20412,21 @@
       <c r="E40" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="637" t="str">
+      <c r="F40" s="600" t="str">
         <f>IF(R41="","",R41)</f>
         <v/>
       </c>
-      <c r="G40" s="637"/>
+      <c r="G40" s="600"/>
       <c r="H40" s="42"/>
       <c r="I40" s="42"/>
       <c r="J40" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="K40" s="638" t="str">
+      <c r="K40" s="601" t="str">
         <f>IF(V41="","",V41)</f>
         <v/>
       </c>
-      <c r="L40" s="638"/>
+      <c r="L40" s="601"/>
       <c r="M40" s="342"/>
       <c r="O40" s="13"/>
       <c r="P40" s="50" t="s">
@@ -20302,11 +20464,11 @@
       <c r="E41" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="639" t="str">
+      <c r="F41" s="603" t="str">
         <f>IF(R42="","",R42)</f>
         <v/>
       </c>
-      <c r="G41" s="639"/>
+      <c r="G41" s="603"/>
       <c r="H41" s="42"/>
       <c r="I41" s="42"/>
       <c r="J41" s="42"/>
@@ -20354,11 +20516,11 @@
       <c r="E42" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="639" t="str">
+      <c r="F42" s="603" t="str">
         <f>IF(R43="","",R43)</f>
         <v/>
       </c>
-      <c r="G42" s="639"/>
+      <c r="G42" s="603"/>
       <c r="H42" s="42"/>
       <c r="I42" s="42"/>
       <c r="J42" s="42"/>
@@ -21116,10 +21278,10 @@
       <c r="I69" s="329"/>
       <c r="J69" s="329"/>
       <c r="K69" s="329"/>
-      <c r="L69" s="640" t="s">
+      <c r="L69" s="610" t="s">
         <v>84</v>
       </c>
-      <c r="M69" s="641"/>
+      <c r="M69" s="611"/>
       <c r="O69" s="56"/>
       <c r="P69" s="17" t="s">
         <v>85</v>
@@ -21582,7 +21744,7 @@
       </c>
       <c r="AD80" s="121" t="str">
         <f>IF(V100="","",V100)</f>
-        <v>Radcal 9010</v>
+        <v>Radcal 90-2123</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22428,10 +22590,10 @@
       <c r="T100" s="53"/>
       <c r="V100" s="551" t="str">
         <f>IF(W100&lt;&gt;"",W100,IF(AB80="","",AB80))</f>
-        <v>Radcal 9010</v>
+        <v>Radcal 90-2123</v>
       </c>
       <c r="W100" s="552" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="X100" s="1" t="s">
         <v>448</v>
@@ -22785,24 +22947,24 @@
       <c r="P107" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="Q107" s="642" t="str">
+      <c r="Q107" s="607" t="str">
         <f>IF(Q106&lt;&gt;"",Q106,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R107" s="642"/>
-      <c r="S107" s="642"/>
-      <c r="T107" s="643" t="str">
+      <c r="R107" s="607"/>
+      <c r="S107" s="607"/>
+      <c r="T107" s="606" t="str">
         <f>IF(T106&lt;&gt;"",T106,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v/>
       </c>
-      <c r="U107" s="643"/>
-      <c r="V107" s="643"/>
-      <c r="W107" s="643" t="str">
+      <c r="U107" s="606"/>
+      <c r="V107" s="606"/>
+      <c r="W107" s="606" t="str">
         <f>IF(W106&lt;&gt;"",W106,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="X107" s="643"/>
-      <c r="Y107" s="643"/>
+      <c r="X107" s="606"/>
+      <c r="Y107" s="606"/>
       <c r="AA107" s="2" t="s">
         <v>153</v>
       </c>
@@ -24783,24 +24945,24 @@
       <c r="P139" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="Q139" s="642" t="str">
+      <c r="Q139" s="607" t="str">
         <f>IF(Q138&lt;&gt;"",Q138,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R139" s="642"/>
-      <c r="S139" s="642"/>
-      <c r="T139" s="643" t="str">
+      <c r="R139" s="607"/>
+      <c r="S139" s="607"/>
+      <c r="T139" s="606" t="str">
         <f>IF(T138&lt;&gt;"",T138,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v/>
       </c>
-      <c r="U139" s="643"/>
-      <c r="V139" s="643"/>
-      <c r="W139" s="643" t="str">
+      <c r="U139" s="606"/>
+      <c r="V139" s="606"/>
+      <c r="W139" s="606" t="str">
         <f>IF(W138&lt;&gt;"",W138,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="X139" s="643"/>
-      <c r="Y139" s="643"/>
+      <c r="X139" s="606"/>
+      <c r="Y139" s="606"/>
       <c r="AA139" s="2" t="str">
         <f>$T$139&amp;" Mag 4"</f>
         <v xml:space="preserve"> Mag 4</v>
@@ -27144,10 +27306,10 @@
       <c r="P181" s="135"/>
       <c r="Q181" s="137"/>
       <c r="R181" s="128"/>
-      <c r="T181" s="626" t="s">
+      <c r="T181" s="608" t="s">
         <v>245</v>
       </c>
-      <c r="U181" s="626"/>
+      <c r="U181" s="608"/>
       <c r="W181" s="2" t="s">
         <v>199</v>
       </c>
@@ -27518,7 +27680,7 @@
       <c r="K190" s="353"/>
       <c r="L190" s="353"/>
       <c r="M190" s="357"/>
-      <c r="O190" s="634" t="str">
+      <c r="O190" s="609" t="str">
         <f>$Q$107</f>
         <v>Auto 1</v>
       </c>
@@ -27568,7 +27730,7 @@
       <c r="K191" s="353"/>
       <c r="L191" s="353"/>
       <c r="M191" s="333"/>
-      <c r="O191" s="634"/>
+      <c r="O191" s="609"/>
       <c r="P191" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -27614,7 +27776,7 @@
       <c r="K192" s="135"/>
       <c r="L192" s="135"/>
       <c r="M192" s="333"/>
-      <c r="O192" s="634"/>
+      <c r="O192" s="609"/>
       <c r="P192" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -27660,7 +27822,7 @@
       <c r="K193" s="135"/>
       <c r="L193" s="135"/>
       <c r="M193" s="333"/>
-      <c r="O193" s="634"/>
+      <c r="O193" s="609"/>
       <c r="P193" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -27703,7 +27865,7 @@
       <c r="K194" s="135"/>
       <c r="L194" s="135"/>
       <c r="M194" s="333"/>
-      <c r="O194" s="634"/>
+      <c r="O194" s="609"/>
       <c r="P194" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -27746,7 +27908,7 @@
       <c r="K195" s="135"/>
       <c r="L195" s="135"/>
       <c r="M195" s="333"/>
-      <c r="O195" s="634" t="str">
+      <c r="O195" s="609" t="str">
         <f>$T$107</f>
         <v/>
       </c>
@@ -27792,7 +27954,7 @@
       <c r="K196" s="335"/>
       <c r="L196" s="335"/>
       <c r="M196" s="336"/>
-      <c r="O196" s="634"/>
+      <c r="O196" s="609"/>
       <c r="P196" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -27837,7 +27999,7 @@
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="O197" s="634"/>
+      <c r="O197" s="609"/>
       <c r="P197" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -27882,7 +28044,7 @@
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
-      <c r="O198" s="634"/>
+      <c r="O198" s="609"/>
       <c r="P198" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -27928,7 +28090,7 @@
         <f>$H$2</f>
         <v>Medical University of South Carolina</v>
       </c>
-      <c r="O199" s="634"/>
+      <c r="O199" s="609"/>
       <c r="P199" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -27977,7 +28139,7 @@
         <f>$H$5</f>
         <v>Fluoroscopy System Compliance Inspection</v>
       </c>
-      <c r="O200" s="634" t="str">
+      <c r="O200" s="609" t="str">
         <f>$W$107</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -28026,7 +28188,7 @@
       <c r="K201" s="329"/>
       <c r="L201" s="329"/>
       <c r="M201" s="330"/>
-      <c r="O201" s="634"/>
+      <c r="O201" s="609"/>
       <c r="P201" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -28080,7 +28242,7 @@
         <v/>
       </c>
       <c r="M202" s="12"/>
-      <c r="O202" s="634"/>
+      <c r="O202" s="609"/>
       <c r="P202" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -28113,7 +28275,7 @@
       </c>
       <c r="B203" s="10"/>
       <c r="M203" s="12"/>
-      <c r="O203" s="634"/>
+      <c r="O203" s="609"/>
       <c r="P203" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -28147,20 +28309,20 @@
       <c r="B204" s="331"/>
       <c r="C204" s="381"/>
       <c r="D204" s="353"/>
-      <c r="E204" s="593" t="s">
+      <c r="E204" s="642" t="s">
         <v>262</v>
       </c>
-      <c r="F204" s="595" t="s">
+      <c r="F204" s="644" t="s">
         <v>263</v>
       </c>
       <c r="G204" s="548" t="s">
         <v>264</v>
       </c>
-      <c r="H204" s="593" t="str">
+      <c r="H204" s="642" t="str">
         <f>R276</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="I204" s="597" t="str">
+      <c r="I204" s="646" t="str">
         <f>S276</f>
         <v>Meas AK @ Ref Pt (mGy)</v>
       </c>
@@ -28173,10 +28335,10 @@
       <c r="L204" s="135" t="s">
         <v>267</v>
       </c>
-      <c r="M204" s="599" t="s">
+      <c r="M204" s="648" t="s">
         <v>268</v>
       </c>
-      <c r="O204" s="634"/>
+      <c r="O204" s="609"/>
       <c r="P204" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -28214,11 +28376,11 @@
       <c r="D205" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="E205" s="594"/>
-      <c r="F205" s="596"/>
+      <c r="E205" s="643"/>
+      <c r="F205" s="645"/>
       <c r="G205" s="548"/>
-      <c r="H205" s="594"/>
-      <c r="I205" s="598"/>
+      <c r="H205" s="643"/>
+      <c r="I205" s="647"/>
       <c r="J205" s="549"/>
       <c r="K205" s="135" t="str">
         <f>U277</f>
@@ -28228,7 +28390,7 @@
         <f>V277</f>
         <v>mGy/min</v>
       </c>
-      <c r="M205" s="600"/>
+      <c r="M205" s="649"/>
       <c r="O205" s="13"/>
       <c r="Y205" s="14"/>
       <c r="AA205" s="2" t="s">
@@ -28872,7 +29034,7 @@
         <f>W286</f>
         <v/>
       </c>
-      <c r="O214" s="634" t="str">
+      <c r="O214" s="609" t="str">
         <f>$Q$139</f>
         <v>Auto 1</v>
       </c>
@@ -28928,7 +29090,7 @@
       <c r="K215" s="135"/>
       <c r="L215" s="135"/>
       <c r="M215" s="333"/>
-      <c r="O215" s="634"/>
+      <c r="O215" s="609"/>
       <c r="P215" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -28974,7 +29136,7 @@
       <c r="K216" s="353"/>
       <c r="L216" s="353"/>
       <c r="M216" s="333"/>
-      <c r="O216" s="634"/>
+      <c r="O216" s="609"/>
       <c r="P216" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -29020,7 +29182,7 @@
       <c r="K217" s="398"/>
       <c r="L217" s="398"/>
       <c r="M217" s="399"/>
-      <c r="O217" s="634"/>
+      <c r="O217" s="609"/>
       <c r="P217" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -29067,7 +29229,7 @@
       <c r="K218" s="353"/>
       <c r="L218" s="353"/>
       <c r="M218" s="333"/>
-      <c r="O218" s="634"/>
+      <c r="O218" s="609"/>
       <c r="P218" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -29110,7 +29272,7 @@
       <c r="K219" s="353"/>
       <c r="L219" s="353"/>
       <c r="M219" s="357"/>
-      <c r="O219" s="634" t="str">
+      <c r="O219" s="609" t="str">
         <f>$T$139</f>
         <v/>
       </c>
@@ -29171,7 +29333,7 @@
         <v/>
       </c>
       <c r="M220" s="357"/>
-      <c r="O220" s="634"/>
+      <c r="O220" s="609"/>
       <c r="P220" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -29214,7 +29376,7 @@
       <c r="K221" s="353"/>
       <c r="L221" s="353"/>
       <c r="M221" s="357"/>
-      <c r="O221" s="634"/>
+      <c r="O221" s="609"/>
       <c r="P221" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -29252,7 +29414,7 @@
       </c>
       <c r="E222" s="353"/>
       <c r="F222" s="353" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G222" s="353"/>
       <c r="H222" s="353"/>
@@ -29260,12 +29422,12 @@
         <v>272</v>
       </c>
       <c r="J222" s="353" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K222" s="353"/>
       <c r="L222" s="353"/>
       <c r="M222" s="357"/>
-      <c r="O222" s="634"/>
+      <c r="O222" s="609"/>
       <c r="P222" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -29306,8 +29468,8 @@
       <c r="E223" s="404" t="s">
         <v>274</v>
       </c>
-      <c r="F223" s="656" t="s">
-        <v>458</v>
+      <c r="F223" s="596" t="s">
+        <v>457</v>
       </c>
       <c r="G223" s="353"/>
       <c r="H223" s="410" t="s">
@@ -29316,13 +29478,13 @@
       <c r="I223" s="404" t="s">
         <v>228</v>
       </c>
-      <c r="J223" s="656" t="s">
-        <v>458</v>
+      <c r="J223" s="596" t="s">
+        <v>457</v>
       </c>
       <c r="K223" s="353"/>
       <c r="L223" s="353"/>
       <c r="M223" s="357"/>
-      <c r="O223" s="634"/>
+      <c r="O223" s="609"/>
       <c r="P223" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -29362,7 +29524,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="E224" s="654" t="str">
+      <c r="E224" s="594" t="str">
         <f>IF(T295="","",T295)</f>
         <v/>
       </c>
@@ -29386,7 +29548,7 @@
       <c r="K224" s="353"/>
       <c r="L224" s="353"/>
       <c r="M224" s="357"/>
-      <c r="O224" s="634" t="str">
+      <c r="O224" s="609" t="str">
         <f>$W$139</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -29429,7 +29591,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="E225" s="654" t="str">
+      <c r="E225" s="594" t="str">
         <f>IF(T296="","",T296)</f>
         <v/>
       </c>
@@ -29450,7 +29612,7 @@
       <c r="K225" s="353"/>
       <c r="L225" s="353"/>
       <c r="M225" s="357"/>
-      <c r="O225" s="634"/>
+      <c r="O225" s="609"/>
       <c r="P225" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -29490,7 +29652,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="E226" s="654" t="str">
+      <c r="E226" s="594" t="str">
         <f>IF(T297="","",T297)</f>
         <v/>
       </c>
@@ -29511,7 +29673,7 @@
       <c r="K226" s="353"/>
       <c r="L226" s="353"/>
       <c r="M226" s="357"/>
-      <c r="O226" s="634"/>
+      <c r="O226" s="609"/>
       <c r="P226" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -29551,7 +29713,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="E227" s="655" t="str">
+      <c r="E227" s="595" t="str">
         <f>IF(T298="","",T298)</f>
         <v/>
       </c>
@@ -29572,7 +29734,7 @@
       <c r="K227" s="353"/>
       <c r="L227" s="353"/>
       <c r="M227" s="357"/>
-      <c r="O227" s="634"/>
+      <c r="O227" s="609"/>
       <c r="P227" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -29626,7 +29788,7 @@
       <c r="K228" s="353"/>
       <c r="L228" s="353"/>
       <c r="M228" s="357"/>
-      <c r="O228" s="634"/>
+      <c r="O228" s="609"/>
       <c r="P228" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -30179,7 +30341,7 @@
       <c r="K240" s="353"/>
       <c r="L240" s="353"/>
       <c r="M240" s="357"/>
-      <c r="O240" s="635" t="s">
+      <c r="O240" s="612" t="s">
         <v>294</v>
       </c>
       <c r="P240" s="169" t="s">
@@ -30238,7 +30400,7 @@
       <c r="K241" s="353"/>
       <c r="L241" s="353"/>
       <c r="M241" s="357"/>
-      <c r="O241" s="635"/>
+      <c r="O241" s="612"/>
       <c r="P241" s="174" t="s">
         <v>297</v>
       </c>
@@ -30295,7 +30457,7 @@
       <c r="K242" s="353"/>
       <c r="L242" s="353"/>
       <c r="M242" s="357"/>
-      <c r="O242" s="635" t="str">
+      <c r="O242" s="612" t="str">
         <f>IF($U$137=1,"Scatter - Pulse", "Scatter – Digital acq")</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -30355,7 +30517,7 @@
       <c r="K243" s="353"/>
       <c r="L243" s="353"/>
       <c r="M243" s="357"/>
-      <c r="O243" s="635"/>
+      <c r="O243" s="612"/>
       <c r="P243" s="174" t="s">
         <v>297</v>
       </c>
@@ -30885,17 +31047,17 @@
       <c r="P257" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Q257" s="636" t="s">
+      <c r="Q257" s="613" t="s">
         <v>313</v>
       </c>
-      <c r="R257" s="636"/>
+      <c r="R257" s="613"/>
       <c r="S257" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="T257" s="636" t="s">
+      <c r="T257" s="613" t="s">
         <v>315</v>
       </c>
-      <c r="U257" s="636"/>
+      <c r="U257" s="613"/>
       <c r="V257" s="1" t="s">
         <v>316</v>
       </c>
@@ -31279,7 +31441,7 @@
       </c>
       <c r="I267" s="557" t="str">
         <f>IF(V100="","",V100)</f>
-        <v>Radcal 9010</v>
+        <v>Radcal 90-2123</v>
       </c>
       <c r="J267" s="556" t="s">
         <v>318</v>
@@ -31383,24 +31545,24 @@
         <f t="shared" si="42"/>
         <v>Attenuator</v>
       </c>
-      <c r="E269" s="628" t="str">
+      <c r="E269" s="614" t="str">
         <f>Q107</f>
         <v>Auto 1</v>
       </c>
-      <c r="F269" s="629"/>
-      <c r="G269" s="629"/>
-      <c r="H269" s="629" t="str">
+      <c r="F269" s="615"/>
+      <c r="G269" s="615"/>
+      <c r="H269" s="615" t="str">
         <f>T107</f>
         <v/>
       </c>
-      <c r="I269" s="629"/>
-      <c r="J269" s="629"/>
-      <c r="K269" s="630" t="str">
+      <c r="I269" s="615"/>
+      <c r="J269" s="615"/>
+      <c r="K269" s="616" t="str">
         <f>W107</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L269" s="630"/>
-      <c r="M269" s="631"/>
+      <c r="L269" s="616"/>
+      <c r="M269" s="617"/>
       <c r="O269" s="191" t="str">
         <f t="shared" si="43"/>
         <v/>
@@ -31502,7 +31664,7 @@
         <v>7</v>
       </c>
       <c r="B271" s="331"/>
-      <c r="C271" s="618" t="str">
+      <c r="C271" s="621" t="str">
         <f>O110&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -31578,7 +31740,7 @@
         <v>8</v>
       </c>
       <c r="B272" s="331"/>
-      <c r="C272" s="618"/>
+      <c r="C272" s="621"/>
       <c r="D272" s="421">
         <f t="shared" si="44"/>
         <v>20</v>
@@ -31644,7 +31806,7 @@
         <v>9</v>
       </c>
       <c r="B273" s="331"/>
-      <c r="C273" s="618"/>
+      <c r="C273" s="621"/>
       <c r="D273" s="424">
         <f t="shared" si="44"/>
         <v>30</v>
@@ -31717,7 +31879,7 @@
         <v>10</v>
       </c>
       <c r="B274" s="331"/>
-      <c r="C274" s="618" t="str">
+      <c r="C274" s="621" t="str">
         <f>O113&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -31786,7 +31948,7 @@
         <v>11</v>
       </c>
       <c r="B275" s="331"/>
-      <c r="C275" s="618"/>
+      <c r="C275" s="621"/>
       <c r="D275" s="421">
         <f t="shared" si="44"/>
         <v>20</v>
@@ -31859,7 +32021,7 @@
         <v>12</v>
       </c>
       <c r="B276" s="331"/>
-      <c r="C276" s="618"/>
+      <c r="C276" s="621"/>
       <c r="D276" s="424">
         <f t="shared" si="44"/>
         <v>30</v>
@@ -31900,17 +32062,17 @@
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="O276" s="632" t="s">
+      <c r="O276" s="622" t="s">
         <v>262</v>
       </c>
-      <c r="P276" s="633" t="s">
+      <c r="P276" s="623" t="s">
         <v>263</v>
       </c>
-      <c r="R276" s="633" t="str">
+      <c r="R276" s="623" t="str">
         <f>"Ind AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="S276" s="633" t="str">
+      <c r="S276" s="623" t="str">
         <f>"Meas AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Meas AK @ Ref Pt (mGy)</v>
       </c>
@@ -31932,7 +32094,7 @@
         <v>13</v>
       </c>
       <c r="B277" s="331"/>
-      <c r="C277" s="618" t="str">
+      <c r="C277" s="621" t="str">
         <f>O116&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -31976,13 +32138,13 @@
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="O277" s="632"/>
-      <c r="P277" s="633"/>
+      <c r="O277" s="622"/>
+      <c r="P277" s="623"/>
       <c r="Q277" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="R277" s="633"/>
-      <c r="S277" s="633"/>
+      <c r="R277" s="623"/>
+      <c r="S277" s="623"/>
       <c r="T277" s="1" t="s">
         <v>322</v>
       </c>
@@ -32014,7 +32176,7 @@
         <v>14</v>
       </c>
       <c r="B278" s="331"/>
-      <c r="C278" s="618"/>
+      <c r="C278" s="621"/>
       <c r="D278" s="421">
         <f t="shared" si="44"/>
         <v>20</v>
@@ -32101,7 +32263,7 @@
         <v>15</v>
       </c>
       <c r="B279" s="331"/>
-      <c r="C279" s="618"/>
+      <c r="C279" s="621"/>
       <c r="D279" s="424">
         <f t="shared" si="44"/>
         <v>30</v>
@@ -32195,7 +32357,7 @@
         <v>16</v>
       </c>
       <c r="B280" s="331"/>
-      <c r="C280" s="618" t="str">
+      <c r="C280" s="621" t="str">
         <f>O119&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -32295,7 +32457,7 @@
         <v>17</v>
       </c>
       <c r="B281" s="331"/>
-      <c r="C281" s="618"/>
+      <c r="C281" s="621"/>
       <c r="D281" s="421">
         <f t="shared" si="44"/>
         <v>20</v>
@@ -32382,7 +32544,7 @@
         <v>18</v>
       </c>
       <c r="B282" s="331"/>
-      <c r="C282" s="618"/>
+      <c r="C282" s="621"/>
       <c r="D282" s="424">
         <f t="shared" si="44"/>
         <v>30</v>
@@ -32476,7 +32638,7 @@
         <v>19</v>
       </c>
       <c r="B283" s="331"/>
-      <c r="C283" s="618" t="str">
+      <c r="C283" s="621" t="str">
         <f>O122&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -32566,7 +32728,7 @@
         <v>20</v>
       </c>
       <c r="B284" s="331"/>
-      <c r="C284" s="618"/>
+      <c r="C284" s="621"/>
       <c r="D284" s="421">
         <f t="shared" si="44"/>
         <v>20</v>
@@ -32660,7 +32822,7 @@
         <v>21</v>
       </c>
       <c r="B285" s="331"/>
-      <c r="C285" s="618"/>
+      <c r="C285" s="621"/>
       <c r="D285" s="421">
         <f t="shared" si="44"/>
         <v>30</v>
@@ -33095,12 +33257,12 @@
       <c r="L293" s="135"/>
       <c r="M293" s="333"/>
       <c r="O293" s="227"/>
-      <c r="P293" s="623" t="s">
+      <c r="P293" s="628" t="s">
         <v>328</v>
       </c>
-      <c r="Q293" s="623"/>
-      <c r="R293" s="623"/>
-      <c r="S293" s="623"/>
+      <c r="Q293" s="628"/>
+      <c r="R293" s="628"/>
+      <c r="S293" s="628"/>
       <c r="T293" s="225"/>
       <c r="U293" s="225"/>
       <c r="V293" s="225"/>
@@ -33135,8 +33297,8 @@
       <c r="P294" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="Q294" s="653" t="s">
-        <v>456</v>
+      <c r="Q294" s="593" t="s">
+        <v>455</v>
       </c>
       <c r="R294" s="1" t="s">
         <v>149</v>
@@ -33477,12 +33639,12 @@
       <c r="L302" s="135"/>
       <c r="M302" s="333"/>
       <c r="O302" s="227"/>
-      <c r="P302" s="623" t="s">
+      <c r="P302" s="628" t="s">
         <v>328</v>
       </c>
-      <c r="Q302" s="623"/>
-      <c r="R302" s="623"/>
-      <c r="S302" s="623"/>
+      <c r="Q302" s="628"/>
+      <c r="R302" s="628"/>
+      <c r="S302" s="628"/>
       <c r="T302" s="225"/>
       <c r="U302" s="225"/>
       <c r="V302" s="225"/>
@@ -33504,7 +33666,7 @@
         <v>39</v>
       </c>
       <c r="B303" s="331"/>
-      <c r="C303" s="601" t="str">
+      <c r="C303" s="629" t="str">
         <f>O190</f>
         <v>Auto 1</v>
       </c>
@@ -33542,8 +33704,8 @@
       <c r="P303" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="Q303" s="653" t="s">
-        <v>456</v>
+      <c r="Q303" s="593" t="s">
+        <v>455</v>
       </c>
       <c r="R303" s="1" t="s">
         <v>149</v>
@@ -33565,7 +33727,7 @@
         <v>40</v>
       </c>
       <c r="B304" s="331"/>
-      <c r="C304" s="602"/>
+      <c r="C304" s="630"/>
       <c r="D304" s="463" t="str">
         <f t="shared" si="63"/>
         <v/>
@@ -33635,7 +33797,7 @@
         <v>41</v>
       </c>
       <c r="B305" s="331"/>
-      <c r="C305" s="602"/>
+      <c r="C305" s="630"/>
       <c r="D305" s="463" t="str">
         <f t="shared" si="63"/>
         <v/>
@@ -33683,7 +33845,7 @@
         <v>42</v>
       </c>
       <c r="B306" s="331"/>
-      <c r="C306" s="602"/>
+      <c r="C306" s="630"/>
       <c r="D306" s="463" t="str">
         <f t="shared" si="63"/>
         <v/>
@@ -33735,7 +33897,7 @@
         <v>43</v>
       </c>
       <c r="B307" s="331"/>
-      <c r="C307" s="624"/>
+      <c r="C307" s="631"/>
       <c r="D307" s="466" t="str">
         <f t="shared" si="63"/>
         <v/>
@@ -33780,7 +33942,7 @@
         <v>44</v>
       </c>
       <c r="B308" s="331"/>
-      <c r="C308" s="601" t="str">
+      <c r="C308" s="629" t="str">
         <f>O195</f>
         <v/>
       </c>
@@ -33835,7 +33997,7 @@
         <v>45</v>
       </c>
       <c r="B309" s="331"/>
-      <c r="C309" s="602"/>
+      <c r="C309" s="630"/>
       <c r="D309" s="463" t="str">
         <f t="shared" si="63"/>
         <v/>
@@ -33888,7 +34050,7 @@
         <v>46</v>
       </c>
       <c r="B310" s="331"/>
-      <c r="C310" s="602"/>
+      <c r="C310" s="630"/>
       <c r="D310" s="463" t="str">
         <f t="shared" si="63"/>
         <v/>
@@ -33948,7 +34110,7 @@
         <v>47</v>
       </c>
       <c r="B311" s="331"/>
-      <c r="C311" s="602"/>
+      <c r="C311" s="630"/>
       <c r="D311" s="463" t="str">
         <f t="shared" si="63"/>
         <v/>
@@ -33981,7 +34143,7 @@
         <f>IF(P309="","",IF(P309&gt;0,P310/P309,""))</f>
         <v/>
       </c>
-      <c r="Q311" s="657" t="str">
+      <c r="Q311" s="597" t="str">
         <f>IF(Q309="","",IF(Q309&gt;0,Q310/Q309,""))</f>
         <v/>
       </c>
@@ -34001,7 +34163,7 @@
         <v>48</v>
       </c>
       <c r="B312" s="331"/>
-      <c r="C312" s="603"/>
+      <c r="C312" s="632"/>
       <c r="D312" s="469" t="str">
         <f t="shared" si="63"/>
         <v/>
@@ -34034,7 +34196,7 @@
         <f>IF(P311="","",IF(P311&lt;0.05,"YES","NO"))</f>
         <v/>
       </c>
-      <c r="Q312" s="658"/>
+      <c r="Q312" s="598"/>
       <c r="R312" s="225"/>
       <c r="S312" s="225"/>
       <c r="T312" s="225"/>
@@ -34058,7 +34220,7 @@
         <v>49</v>
       </c>
       <c r="B313" s="331"/>
-      <c r="C313" s="625" t="str">
+      <c r="C313" s="633" t="str">
         <f>O200</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -34110,7 +34272,7 @@
         <v>50</v>
       </c>
       <c r="B314" s="331"/>
-      <c r="C314" s="602"/>
+      <c r="C314" s="630"/>
       <c r="D314" s="463" t="str">
         <f t="shared" si="63"/>
         <v/>
@@ -34162,7 +34324,7 @@
         <v>51</v>
       </c>
       <c r="B315" s="331"/>
-      <c r="C315" s="602"/>
+      <c r="C315" s="630"/>
       <c r="D315" s="463" t="str">
         <f t="shared" si="63"/>
         <v/>
@@ -34207,7 +34369,7 @@
         <v>52</v>
       </c>
       <c r="B316" s="331"/>
-      <c r="C316" s="602"/>
+      <c r="C316" s="630"/>
       <c r="D316" s="463" t="str">
         <f t="shared" si="63"/>
         <v/>
@@ -34261,7 +34423,7 @@
         <v>53</v>
       </c>
       <c r="B317" s="331"/>
-      <c r="C317" s="603"/>
+      <c r="C317" s="632"/>
       <c r="D317" s="469" t="str">
         <f t="shared" si="63"/>
         <v/>
@@ -34371,10 +34533,10 @@
       <c r="R319" s="260"/>
       <c r="S319" s="261"/>
       <c r="T319" s="261"/>
-      <c r="V319" s="626" t="s">
+      <c r="V319" s="608" t="s">
         <v>339</v>
       </c>
-      <c r="W319" s="626"/>
+      <c r="W319" s="608"/>
       <c r="X319" s="17" t="s">
         <v>340</v>
       </c>
@@ -34575,7 +34737,7 @@
         <v>60</v>
       </c>
       <c r="B324" s="331"/>
-      <c r="C324" s="607" t="str">
+      <c r="C324" s="618" t="str">
         <f>O240</f>
         <v>Scatter – Fluoro</v>
       </c>
@@ -34625,7 +34787,7 @@
         <v>61</v>
       </c>
       <c r="B325" s="331"/>
-      <c r="C325" s="608"/>
+      <c r="C325" s="619"/>
       <c r="D325" s="478" t="str">
         <f>P241</f>
         <v>Waist level</v>
@@ -34783,13 +34945,13 @@
         <v>347</v>
       </c>
       <c r="P329" s="53"/>
-      <c r="Q329" s="627" t="s">
+      <c r="Q329" s="620" t="s">
         <v>348</v>
       </c>
-      <c r="R329" s="627"/>
-      <c r="S329" s="627"/>
-      <c r="T329" s="627"/>
-      <c r="U329" s="627"/>
+      <c r="R329" s="620"/>
+      <c r="S329" s="620"/>
+      <c r="T329" s="620"/>
+      <c r="U329" s="620"/>
       <c r="Y329" s="14"/>
     </row>
     <row r="330" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -34897,7 +35059,7 @@
       </c>
       <c r="I333" s="557" t="str">
         <f t="shared" ref="I333:M333" si="70">I267</f>
-        <v>Radcal 9010</v>
+        <v>Radcal 90-2123</v>
       </c>
       <c r="J333" s="556" t="str">
         <f t="shared" si="70"/>
@@ -34972,24 +35134,24 @@
         <f t="shared" si="71"/>
         <v>Attenuator</v>
       </c>
-      <c r="E335" s="628" t="str">
+      <c r="E335" s="614" t="str">
         <f>Q139</f>
         <v>Auto 1</v>
       </c>
-      <c r="F335" s="629"/>
-      <c r="G335" s="629"/>
-      <c r="H335" s="629" t="str">
+      <c r="F335" s="615"/>
+      <c r="G335" s="615"/>
+      <c r="H335" s="615" t="str">
         <f>T139</f>
         <v/>
       </c>
-      <c r="I335" s="629"/>
-      <c r="J335" s="629"/>
-      <c r="K335" s="630" t="str">
+      <c r="I335" s="615"/>
+      <c r="J335" s="615"/>
+      <c r="K335" s="616" t="str">
         <f>W139</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L335" s="630"/>
-      <c r="M335" s="631"/>
+      <c r="L335" s="616"/>
+      <c r="M335" s="617"/>
       <c r="O335" s="130"/>
       <c r="P335" s="129" t="s">
         <v>354</v>
@@ -35066,7 +35228,7 @@
         <v>7</v>
       </c>
       <c r="B337" s="331"/>
-      <c r="C337" s="618" t="str">
+      <c r="C337" s="621" t="str">
         <f>O142&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -35126,7 +35288,7 @@
         <v>8</v>
       </c>
       <c r="B338" s="331"/>
-      <c r="C338" s="618"/>
+      <c r="C338" s="621"/>
       <c r="D338" s="492">
         <f t="shared" si="72"/>
         <v>20</v>
@@ -35183,7 +35345,7 @@
         <v>9</v>
       </c>
       <c r="B339" s="331"/>
-      <c r="C339" s="618"/>
+      <c r="C339" s="621"/>
       <c r="D339" s="493">
         <f t="shared" si="72"/>
         <v>30</v>
@@ -35240,7 +35402,7 @@
         <v>10</v>
       </c>
       <c r="B340" s="331"/>
-      <c r="C340" s="618" t="str">
+      <c r="C340" s="621" t="str">
         <f>O145&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -35300,7 +35462,7 @@
         <v>11</v>
       </c>
       <c r="B341" s="331"/>
-      <c r="C341" s="618"/>
+      <c r="C341" s="621"/>
       <c r="D341" s="492">
         <f t="shared" si="72"/>
         <v>20</v>
@@ -35357,7 +35519,7 @@
         <v>12</v>
       </c>
       <c r="B342" s="331"/>
-      <c r="C342" s="618"/>
+      <c r="C342" s="621"/>
       <c r="D342" s="494">
         <f t="shared" si="72"/>
         <v>30</v>
@@ -35414,7 +35576,7 @@
         <v>13</v>
       </c>
       <c r="B343" s="331"/>
-      <c r="C343" s="618" t="str">
+      <c r="C343" s="621" t="str">
         <f>O148&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -35466,7 +35628,7 @@
         <v>14</v>
       </c>
       <c r="B344" s="331"/>
-      <c r="C344" s="618"/>
+      <c r="C344" s="621"/>
       <c r="D344" s="492">
         <f t="shared" si="72"/>
         <v>20</v>
@@ -35528,7 +35690,7 @@
         <v>15</v>
       </c>
       <c r="B345" s="331"/>
-      <c r="C345" s="618"/>
+      <c r="C345" s="621"/>
       <c r="D345" s="493">
         <f t="shared" si="72"/>
         <v>30</v>
@@ -35591,7 +35753,7 @@
         <v>16</v>
       </c>
       <c r="B346" s="331"/>
-      <c r="C346" s="618" t="str">
+      <c r="C346" s="621" t="str">
         <f>O151&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -35654,7 +35816,7 @@
         <v>17</v>
       </c>
       <c r="B347" s="331"/>
-      <c r="C347" s="618"/>
+      <c r="C347" s="621"/>
       <c r="D347" s="492">
         <f t="shared" si="72"/>
         <v>20</v>
@@ -35712,7 +35874,7 @@
         <v>18</v>
       </c>
       <c r="B348" s="331"/>
-      <c r="C348" s="618"/>
+      <c r="C348" s="621"/>
       <c r="D348" s="494">
         <f t="shared" si="72"/>
         <v>30</v>
@@ -35790,7 +35952,7 @@
         <v>19</v>
       </c>
       <c r="B349" s="331"/>
-      <c r="C349" s="618" t="str">
+      <c r="C349" s="621" t="str">
         <f>O154&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -35853,7 +36015,7 @@
         <v>20</v>
       </c>
       <c r="B350" s="331"/>
-      <c r="C350" s="618"/>
+      <c r="C350" s="621"/>
       <c r="D350" s="492">
         <f t="shared" si="72"/>
         <v>20</v>
@@ -35912,7 +36074,7 @@
         <v>21</v>
       </c>
       <c r="B351" s="331"/>
-      <c r="C351" s="618"/>
+      <c r="C351" s="621"/>
       <c r="D351" s="494">
         <f t="shared" si="72"/>
         <v>30</v>
@@ -36221,11 +36383,11 @@
         <f>IF(OR(V358="",V359="",V362=""),"",(V358-V359)*V362)</f>
         <v/>
       </c>
-      <c r="Q358" s="619" t="str">
+      <c r="Q358" s="624" t="str">
         <f>IF(OR(P358="",P359=""),"",(ABS(P358)+ABS(P359))/$O$355)</f>
         <v/>
       </c>
-      <c r="R358" s="620" t="str">
+      <c r="R358" s="625" t="str">
         <f>IF(OR(Q358="",Q360=""),"",Q358+Q360)</f>
         <v/>
       </c>
@@ -36264,8 +36426,8 @@
         <f>IF(OR(W358="",W359="",V362=""),"",(W358-W359)*V362)</f>
         <v/>
       </c>
-      <c r="Q359" s="619"/>
-      <c r="R359" s="619"/>
+      <c r="Q359" s="624"/>
+      <c r="R359" s="624"/>
       <c r="S359" s="146" t="str">
         <f>IF(AB171="","",AB171)</f>
         <v/>
@@ -36301,11 +36463,11 @@
         <f>IF(OR(X358="",X359="",V362=""),"",(X358-X359)*V362)</f>
         <v/>
       </c>
-      <c r="Q360" s="620" t="str">
+      <c r="Q360" s="625" t="str">
         <f>IF(OR(P360="",P361=""),"",(ABS(P360)+ABS(P361))/$O$355)</f>
         <v/>
       </c>
-      <c r="R360" s="620"/>
+      <c r="R360" s="625"/>
       <c r="S360" s="146" t="str">
         <f>IF(AB172="","",AB172)</f>
         <v/>
@@ -36347,8 +36509,8 @@
         <f>IF(OR(Y358="",Y359="",V362=""),"",(Y358-Y359)*V362)</f>
         <v/>
       </c>
-      <c r="Q361" s="620"/>
-      <c r="R361" s="620"/>
+      <c r="Q361" s="625"/>
+      <c r="R361" s="625"/>
       <c r="S361" s="148" t="str">
         <f>IF(AB173="","",AB173)</f>
         <v/>
@@ -36520,7 +36682,7 @@
         <v>36</v>
       </c>
       <c r="B366" s="331"/>
-      <c r="C366" s="621" t="str">
+      <c r="C366" s="626" t="str">
         <f>O214</f>
         <v>Auto 1</v>
       </c>
@@ -36571,7 +36733,7 @@
         <v>37</v>
       </c>
       <c r="B367" s="331"/>
-      <c r="C367" s="622"/>
+      <c r="C367" s="627"/>
       <c r="D367" s="463" t="str">
         <f t="shared" si="82"/>
         <v/>
@@ -36617,7 +36779,7 @@
         <v>38</v>
       </c>
       <c r="B368" s="331"/>
-      <c r="C368" s="622"/>
+      <c r="C368" s="627"/>
       <c r="D368" s="463" t="str">
         <f t="shared" si="82"/>
         <v/>
@@ -36652,7 +36814,7 @@
         <v>39</v>
       </c>
       <c r="B369" s="331"/>
-      <c r="C369" s="622"/>
+      <c r="C369" s="627"/>
       <c r="D369" s="463" t="str">
         <f t="shared" si="82"/>
         <v/>
@@ -36687,7 +36849,7 @@
         <v>40</v>
       </c>
       <c r="B370" s="331"/>
-      <c r="C370" s="622"/>
+      <c r="C370" s="627"/>
       <c r="D370" s="469" t="str">
         <f t="shared" si="82"/>
         <v/>
@@ -36732,7 +36894,7 @@
         <v>41</v>
       </c>
       <c r="B371" s="331"/>
-      <c r="C371" s="601" t="str">
+      <c r="C371" s="629" t="str">
         <f>O219</f>
         <v/>
       </c>
@@ -36782,7 +36944,7 @@
         <v>42</v>
       </c>
       <c r="B372" s="331"/>
-      <c r="C372" s="602"/>
+      <c r="C372" s="630"/>
       <c r="D372" s="463" t="str">
         <f t="shared" si="82"/>
         <v/>
@@ -36832,7 +36994,7 @@
         <v>43</v>
       </c>
       <c r="B373" s="331"/>
-      <c r="C373" s="602"/>
+      <c r="C373" s="630"/>
       <c r="D373" s="463" t="str">
         <f t="shared" si="82"/>
         <v/>
@@ -36879,7 +37041,7 @@
         <v>44</v>
       </c>
       <c r="B374" s="331"/>
-      <c r="C374" s="602"/>
+      <c r="C374" s="630"/>
       <c r="D374" s="463" t="str">
         <f t="shared" si="82"/>
         <v/>
@@ -36929,7 +37091,7 @@
         <v>45</v>
       </c>
       <c r="B375" s="331"/>
-      <c r="C375" s="603"/>
+      <c r="C375" s="632"/>
       <c r="D375" s="469" t="str">
         <f t="shared" si="82"/>
         <v/>
@@ -36976,7 +37138,7 @@
         <v>46</v>
       </c>
       <c r="B376" s="331"/>
-      <c r="C376" s="604" t="str">
+      <c r="C376" s="650" t="str">
         <f>O224</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -37029,7 +37191,7 @@
         <v>47</v>
       </c>
       <c r="B377" s="331"/>
-      <c r="C377" s="605"/>
+      <c r="C377" s="651"/>
       <c r="D377" s="463" t="str">
         <f t="shared" si="82"/>
         <v/>
@@ -37076,7 +37238,7 @@
         <v>48</v>
       </c>
       <c r="B378" s="331"/>
-      <c r="C378" s="605"/>
+      <c r="C378" s="651"/>
       <c r="D378" s="463" t="str">
         <f t="shared" si="82"/>
         <v/>
@@ -37126,7 +37288,7 @@
         <v>49</v>
       </c>
       <c r="B379" s="331"/>
-      <c r="C379" s="605"/>
+      <c r="C379" s="651"/>
       <c r="D379" s="463" t="str">
         <f t="shared" si="82"/>
         <v/>
@@ -37173,7 +37335,7 @@
         <v>50</v>
       </c>
       <c r="B380" s="331"/>
-      <c r="C380" s="606"/>
+      <c r="C380" s="652"/>
       <c r="D380" s="469" t="str">
         <f t="shared" si="82"/>
         <v/>
@@ -37483,7 +37645,7 @@
         <v>58</v>
       </c>
       <c r="B388" s="331"/>
-      <c r="C388" s="607" t="str">
+      <c r="C388" s="618" t="str">
         <f>O242</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -37534,7 +37696,7 @@
         <v>59</v>
       </c>
       <c r="B389" s="331"/>
-      <c r="C389" s="608"/>
+      <c r="C389" s="619"/>
       <c r="D389" s="478" t="str">
         <f>P243</f>
         <v>Waist level</v>
@@ -37885,14 +38047,14 @@
       <c r="E399" s="329"/>
       <c r="F399" s="329"/>
       <c r="G399" s="329"/>
-      <c r="H399" s="609" t="s">
+      <c r="H399" s="653" t="s">
         <v>394</v>
       </c>
-      <c r="I399" s="609"/>
-      <c r="J399" s="609" t="s">
+      <c r="I399" s="653"/>
+      <c r="J399" s="653" t="s">
         <v>395</v>
       </c>
-      <c r="K399" s="609"/>
+      <c r="K399" s="653"/>
       <c r="L399" s="329"/>
       <c r="M399" s="330"/>
       <c r="O399" s="13"/>
@@ -38466,20 +38628,20 @@
       </c>
       <c r="B413" s="331"/>
       <c r="C413" s="42"/>
-      <c r="D413" s="610" t="s">
+      <c r="D413" s="634" t="s">
         <v>401</v>
       </c>
-      <c r="E413" s="610"/>
-      <c r="F413" s="610"/>
-      <c r="G413" s="610"/>
-      <c r="H413" s="610"/>
-      <c r="I413" s="610" t="s">
+      <c r="E413" s="634"/>
+      <c r="F413" s="634"/>
+      <c r="G413" s="634"/>
+      <c r="H413" s="634"/>
+      <c r="I413" s="634" t="s">
         <v>402</v>
       </c>
-      <c r="J413" s="610"/>
-      <c r="K413" s="610"/>
-      <c r="L413" s="610"/>
-      <c r="M413" s="611"/>
+      <c r="J413" s="634"/>
+      <c r="K413" s="634"/>
+      <c r="L413" s="634"/>
+      <c r="M413" s="635"/>
       <c r="O413" s="13"/>
       <c r="P413" s="2" t="s">
         <v>189</v>
@@ -39959,11 +40121,11 @@
         <f t="shared" si="94"/>
         <v/>
       </c>
-      <c r="F442" s="612" t="str">
+      <c r="F442" s="636" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
-      <c r="G442" s="614" t="str">
+      <c r="G442" s="638" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
@@ -40004,8 +40166,8 @@
         <f>P359</f>
         <v/>
       </c>
-      <c r="F443" s="613"/>
-      <c r="G443" s="615"/>
+      <c r="F443" s="637"/>
+      <c r="G443" s="639"/>
       <c r="H443" s="202"/>
       <c r="I443" s="82" t="str">
         <f>T360</f>
@@ -40045,11 +40207,11 @@
         <f>P360</f>
         <v/>
       </c>
-      <c r="F444" s="613" t="str">
+      <c r="F444" s="637" t="str">
         <f>Q360</f>
         <v/>
       </c>
-      <c r="G444" s="615"/>
+      <c r="G444" s="639"/>
       <c r="H444" s="135"/>
       <c r="I444" s="91" t="str">
         <f>T361</f>
@@ -40090,8 +40252,8 @@
         <f>P361</f>
         <v/>
       </c>
-      <c r="F445" s="617"/>
-      <c r="G445" s="616"/>
+      <c r="F445" s="641"/>
+      <c r="G445" s="640"/>
       <c r="H445" s="135"/>
       <c r="I445" s="135"/>
       <c r="J445" s="135"/>
@@ -46427,68 +46589,35 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="W107:Y107"/>
-    <mergeCell ref="Q139:S139"/>
-    <mergeCell ref="T139:V139"/>
-    <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="T181:U181"/>
-    <mergeCell ref="O190:O194"/>
-    <mergeCell ref="O195:O199"/>
-    <mergeCell ref="O200:O204"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="Q107:S107"/>
-    <mergeCell ref="T107:V107"/>
-    <mergeCell ref="O214:O218"/>
-    <mergeCell ref="O219:O223"/>
-    <mergeCell ref="O224:O228"/>
-    <mergeCell ref="O240:O241"/>
-    <mergeCell ref="O242:O243"/>
-    <mergeCell ref="Q257:R257"/>
-    <mergeCell ref="T257:U257"/>
-    <mergeCell ref="E269:G269"/>
-    <mergeCell ref="H269:J269"/>
-    <mergeCell ref="K269:M269"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="H204:H205"/>
+    <mergeCell ref="I204:I205"/>
+    <mergeCell ref="M204:M205"/>
+    <mergeCell ref="C371:C375"/>
+    <mergeCell ref="C376:C380"/>
+    <mergeCell ref="C388:C389"/>
+    <mergeCell ref="H399:I399"/>
+    <mergeCell ref="J399:K399"/>
+    <mergeCell ref="D413:H413"/>
+    <mergeCell ref="I413:M413"/>
+    <mergeCell ref="F442:F443"/>
+    <mergeCell ref="G442:G445"/>
+    <mergeCell ref="F444:F445"/>
+    <mergeCell ref="C337:C339"/>
+    <mergeCell ref="C340:C342"/>
+    <mergeCell ref="C343:C345"/>
+    <mergeCell ref="C346:C348"/>
+    <mergeCell ref="C349:C351"/>
+    <mergeCell ref="Q358:Q359"/>
+    <mergeCell ref="R358:R361"/>
+    <mergeCell ref="Q360:Q361"/>
+    <mergeCell ref="C366:C370"/>
+    <mergeCell ref="P293:S293"/>
+    <mergeCell ref="P302:S302"/>
+    <mergeCell ref="C303:C307"/>
+    <mergeCell ref="C308:C312"/>
+    <mergeCell ref="C313:C317"/>
     <mergeCell ref="V319:W319"/>
     <mergeCell ref="C324:C325"/>
     <mergeCell ref="Q329:U329"/>
@@ -46504,35 +46633,68 @@
     <mergeCell ref="C277:C279"/>
     <mergeCell ref="C280:C282"/>
     <mergeCell ref="C283:C285"/>
-    <mergeCell ref="Q358:Q359"/>
-    <mergeCell ref="R358:R361"/>
-    <mergeCell ref="Q360:Q361"/>
-    <mergeCell ref="C366:C370"/>
-    <mergeCell ref="P293:S293"/>
-    <mergeCell ref="P302:S302"/>
-    <mergeCell ref="C303:C307"/>
-    <mergeCell ref="C308:C312"/>
-    <mergeCell ref="C313:C317"/>
-    <mergeCell ref="D413:H413"/>
-    <mergeCell ref="I413:M413"/>
-    <mergeCell ref="F442:F443"/>
-    <mergeCell ref="G442:G445"/>
-    <mergeCell ref="F444:F445"/>
-    <mergeCell ref="C337:C339"/>
-    <mergeCell ref="C340:C342"/>
-    <mergeCell ref="C343:C345"/>
-    <mergeCell ref="C346:C348"/>
-    <mergeCell ref="C349:C351"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="H204:H205"/>
-    <mergeCell ref="I204:I205"/>
-    <mergeCell ref="M204:M205"/>
-    <mergeCell ref="C371:C375"/>
-    <mergeCell ref="C376:C380"/>
-    <mergeCell ref="C388:C389"/>
-    <mergeCell ref="H399:I399"/>
-    <mergeCell ref="J399:K399"/>
+    <mergeCell ref="O214:O218"/>
+    <mergeCell ref="O219:O223"/>
+    <mergeCell ref="O224:O228"/>
+    <mergeCell ref="O240:O241"/>
+    <mergeCell ref="O242:O243"/>
+    <mergeCell ref="Q257:R257"/>
+    <mergeCell ref="T257:U257"/>
+    <mergeCell ref="E269:G269"/>
+    <mergeCell ref="H269:J269"/>
+    <mergeCell ref="K269:M269"/>
+    <mergeCell ref="T181:U181"/>
+    <mergeCell ref="O190:O194"/>
+    <mergeCell ref="O195:O199"/>
+    <mergeCell ref="O200:O204"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="Q107:S107"/>
+    <mergeCell ref="T107:V107"/>
+    <mergeCell ref="W107:Y107"/>
+    <mergeCell ref="Q139:S139"/>
+    <mergeCell ref="T139:V139"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <conditionalFormatting sqref="S126 V126 Y126 S158 V158 Y158">
     <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
@@ -46797,7 +46959,7 @@
       </c>
       <c r="I3" s="561" t="str">
         <f>Fluoro!I267</f>
-        <v>Radcal 9010</v>
+        <v>Radcal 90-2123</v>
       </c>
       <c r="J3" s="560" t="str">
         <f>Fluoro!J267</f>
@@ -46852,39 +47014,39 @@
         <f>Fluoro!D269</f>
         <v>Attenuator</v>
       </c>
-      <c r="E5" s="629" t="str">
+      <c r="E5" s="615" t="str">
         <f>Fluoro!E269</f>
         <v>Auto 1</v>
       </c>
-      <c r="F5" s="629">
+      <c r="F5" s="615">
         <f>Fluoro!F269</f>
         <v>0</v>
       </c>
-      <c r="G5" s="629">
+      <c r="G5" s="615">
         <f>Fluoro!G269</f>
         <v>0</v>
       </c>
-      <c r="H5" s="629" t="str">
+      <c r="H5" s="615" t="str">
         <f>Fluoro!H269</f>
         <v/>
       </c>
-      <c r="I5" s="629">
+      <c r="I5" s="615">
         <f>Fluoro!I269</f>
         <v>0</v>
       </c>
-      <c r="J5" s="629">
+      <c r="J5" s="615">
         <f>Fluoro!J269</f>
         <v>0</v>
       </c>
-      <c r="K5" s="630" t="str">
+      <c r="K5" s="616" t="str">
         <f>Fluoro!K269</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L5" s="630">
+      <c r="L5" s="616">
         <f>Fluoro!L269</f>
         <v>0</v>
       </c>
-      <c r="M5" s="630">
+      <c r="M5" s="616">
         <f>Fluoro!M269</f>
         <v>0</v>
       </c>
@@ -46941,7 +47103,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="651" t="str">
+      <c r="C7" s="654" t="str">
         <f>Fluoro!C271</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -46991,7 +47153,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="651">
+      <c r="C8" s="654">
         <f>Fluoro!C272</f>
         <v>0</v>
       </c>
@@ -47041,7 +47203,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="651">
+      <c r="C9" s="654">
         <f>Fluoro!C273</f>
         <v>0</v>
       </c>
@@ -47091,7 +47253,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="651" t="str">
+      <c r="C10" s="654" t="str">
         <f>Fluoro!C274</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -47141,7 +47303,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="651">
+      <c r="C11" s="654">
         <f>Fluoro!C275</f>
         <v>0</v>
       </c>
@@ -47191,7 +47353,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="651">
+      <c r="C12" s="654">
         <f>Fluoro!C276</f>
         <v>0</v>
       </c>
@@ -47241,7 +47403,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="651" t="str">
+      <c r="C13" s="654" t="str">
         <f>Fluoro!C277</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -47291,7 +47453,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="651">
+      <c r="C14" s="654">
         <f>Fluoro!C278</f>
         <v>0</v>
       </c>
@@ -47341,7 +47503,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="651">
+      <c r="C15" s="654">
         <f>Fluoro!C279</f>
         <v>0</v>
       </c>
@@ -47391,7 +47553,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="651" t="str">
+      <c r="C16" s="654" t="str">
         <f>Fluoro!C280</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -47441,7 +47603,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="651">
+      <c r="C17" s="654">
         <f>Fluoro!C281</f>
         <v>0</v>
       </c>
@@ -47491,7 +47653,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="651">
+      <c r="C18" s="654">
         <f>Fluoro!C282</f>
         <v>0</v>
       </c>
@@ -47541,7 +47703,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="651" t="str">
+      <c r="C19" s="654" t="str">
         <f>Fluoro!C283</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -47591,7 +47753,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="651">
+      <c r="C20" s="654">
         <f>Fluoro!C284</f>
         <v>0</v>
       </c>
@@ -47641,7 +47803,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="651">
+      <c r="C21" s="654">
         <f>Fluoro!C285</f>
         <v>0</v>
       </c>
@@ -48090,7 +48252,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="10"/>
-      <c r="C39" s="648" t="str">
+      <c r="C39" s="655" t="str">
         <f>Fluoro!C303</f>
         <v>Auto 1</v>
       </c>
@@ -48128,7 +48290,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="10"/>
-      <c r="C40" s="648">
+      <c r="C40" s="655">
         <f>Fluoro!C304</f>
         <v>0</v>
       </c>
@@ -48166,7 +48328,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="648">
+      <c r="C41" s="655">
         <f>Fluoro!C305</f>
         <v>0</v>
       </c>
@@ -48204,7 +48366,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="10"/>
-      <c r="C42" s="648">
+      <c r="C42" s="655">
         <f>Fluoro!C306</f>
         <v>0</v>
       </c>
@@ -48239,7 +48401,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="10"/>
-      <c r="C43" s="648">
+      <c r="C43" s="655">
         <f>Fluoro!C307</f>
         <v>0</v>
       </c>
@@ -48274,7 +48436,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="10"/>
-      <c r="C44" s="649" t="str">
+      <c r="C44" s="656" t="str">
         <f>Fluoro!C308</f>
         <v/>
       </c>
@@ -48309,7 +48471,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="10"/>
-      <c r="C45" s="649">
+      <c r="C45" s="656">
         <f>Fluoro!C309</f>
         <v>0</v>
       </c>
@@ -48344,7 +48506,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="10"/>
-      <c r="C46" s="649">
+      <c r="C46" s="656">
         <f>Fluoro!C310</f>
         <v>0</v>
       </c>
@@ -48379,7 +48541,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="10"/>
-      <c r="C47" s="649">
+      <c r="C47" s="656">
         <f>Fluoro!C311</f>
         <v>0</v>
       </c>
@@ -48414,7 +48576,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="10"/>
-      <c r="C48" s="649">
+      <c r="C48" s="656">
         <f>Fluoro!C312</f>
         <v>0</v>
       </c>
@@ -48449,7 +48611,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="10"/>
-      <c r="C49" s="649" t="str">
+      <c r="C49" s="656" t="str">
         <f>Fluoro!C313</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -48484,7 +48646,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="10"/>
-      <c r="C50" s="649">
+      <c r="C50" s="656">
         <f>Fluoro!C314</f>
         <v>0</v>
       </c>
@@ -48519,7 +48681,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="649">
+      <c r="C51" s="656">
         <f>Fluoro!C315</f>
         <v>0</v>
       </c>
@@ -48550,7 +48712,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="10"/>
-      <c r="C52" s="649">
+      <c r="C52" s="656">
         <f>Fluoro!C316</f>
         <v>0</v>
       </c>
@@ -48581,7 +48743,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="10"/>
-      <c r="C53" s="649">
+      <c r="C53" s="656">
         <f>Fluoro!C317</f>
         <v>0</v>
       </c>
@@ -48767,7 +48929,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="10"/>
-      <c r="C60" s="650" t="str">
+      <c r="C60" s="657" t="str">
         <f>Fluoro!C324</f>
         <v>Scatter – Fluoro</v>
       </c>
@@ -48802,7 +48964,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="10"/>
-      <c r="C61" s="650">
+      <c r="C61" s="657">
         <f>Fluoro!C325</f>
         <v>0</v>
       </c>
@@ -49011,7 +49173,7 @@
       </c>
       <c r="I69" s="561" t="str">
         <f>Fluoro!I267</f>
-        <v>Radcal 9010</v>
+        <v>Radcal 90-2123</v>
       </c>
       <c r="J69" s="560" t="str">
         <f>Fluoro!J267</f>
@@ -49066,39 +49228,39 @@
         <f>Fluoro!D335</f>
         <v>Attenuator</v>
       </c>
-      <c r="E71" s="629" t="str">
+      <c r="E71" s="615" t="str">
         <f>Fluoro!E335</f>
         <v>Auto 1</v>
       </c>
-      <c r="F71" s="629">
+      <c r="F71" s="615">
         <f>Fluoro!F335</f>
         <v>0</v>
       </c>
-      <c r="G71" s="629">
+      <c r="G71" s="615">
         <f>Fluoro!G335</f>
         <v>0</v>
       </c>
-      <c r="H71" s="629" t="str">
+      <c r="H71" s="615" t="str">
         <f>Fluoro!H335</f>
         <v/>
       </c>
-      <c r="I71" s="629">
+      <c r="I71" s="615">
         <f>Fluoro!I335</f>
         <v>0</v>
       </c>
-      <c r="J71" s="629">
+      <c r="J71" s="615">
         <f>Fluoro!J335</f>
         <v>0</v>
       </c>
-      <c r="K71" s="630" t="str">
+      <c r="K71" s="616" t="str">
         <f>Fluoro!K335</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L71" s="630">
+      <c r="L71" s="616">
         <f>Fluoro!L335</f>
         <v>0</v>
       </c>
-      <c r="M71" s="630">
+      <c r="M71" s="616">
         <f>Fluoro!M335</f>
         <v>0</v>
       </c>
@@ -49155,7 +49317,7 @@
         <v>7</v>
       </c>
       <c r="B73" s="10"/>
-      <c r="C73" s="651" t="str">
+      <c r="C73" s="654" t="str">
         <f>Fluoro!C337</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49205,7 +49367,7 @@
         <v>8</v>
       </c>
       <c r="B74" s="10"/>
-      <c r="C74" s="651">
+      <c r="C74" s="654">
         <f>Fluoro!C338</f>
         <v>0</v>
       </c>
@@ -49255,7 +49417,7 @@
         <v>9</v>
       </c>
       <c r="B75" s="10"/>
-      <c r="C75" s="651">
+      <c r="C75" s="654">
         <f>Fluoro!C339</f>
         <v>0</v>
       </c>
@@ -49305,7 +49467,7 @@
         <v>10</v>
       </c>
       <c r="B76" s="10"/>
-      <c r="C76" s="651" t="str">
+      <c r="C76" s="654" t="str">
         <f>Fluoro!C340</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49355,7 +49517,7 @@
         <v>11</v>
       </c>
       <c r="B77" s="10"/>
-      <c r="C77" s="651">
+      <c r="C77" s="654">
         <f>Fluoro!C341</f>
         <v>0</v>
       </c>
@@ -49405,7 +49567,7 @@
         <v>12</v>
       </c>
       <c r="B78" s="10"/>
-      <c r="C78" s="651">
+      <c r="C78" s="654">
         <f>Fluoro!C342</f>
         <v>0</v>
       </c>
@@ -49455,7 +49617,7 @@
         <v>13</v>
       </c>
       <c r="B79" s="10"/>
-      <c r="C79" s="651" t="str">
+      <c r="C79" s="654" t="str">
         <f>Fluoro!C343</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49505,7 +49667,7 @@
         <v>14</v>
       </c>
       <c r="B80" s="10"/>
-      <c r="C80" s="651">
+      <c r="C80" s="654">
         <f>Fluoro!C344</f>
         <v>0</v>
       </c>
@@ -49555,7 +49717,7 @@
         <v>15</v>
       </c>
       <c r="B81" s="10"/>
-      <c r="C81" s="651">
+      <c r="C81" s="654">
         <f>Fluoro!C345</f>
         <v>0</v>
       </c>
@@ -49605,7 +49767,7 @@
         <v>16</v>
       </c>
       <c r="B82" s="10"/>
-      <c r="C82" s="651" t="str">
+      <c r="C82" s="654" t="str">
         <f>Fluoro!C346</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49655,7 +49817,7 @@
         <v>17</v>
       </c>
       <c r="B83" s="10"/>
-      <c r="C83" s="651">
+      <c r="C83" s="654">
         <f>Fluoro!C347</f>
         <v>0</v>
       </c>
@@ -49705,7 +49867,7 @@
         <v>18</v>
       </c>
       <c r="B84" s="10"/>
-      <c r="C84" s="651">
+      <c r="C84" s="654">
         <f>Fluoro!C348</f>
         <v>0</v>
       </c>
@@ -49755,7 +49917,7 @@
         <v>19</v>
       </c>
       <c r="B85" s="10"/>
-      <c r="C85" s="651" t="str">
+      <c r="C85" s="654" t="str">
         <f>Fluoro!C349</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49805,7 +49967,7 @@
         <v>20</v>
       </c>
       <c r="B86" s="10"/>
-      <c r="C86" s="651">
+      <c r="C86" s="654">
         <f>Fluoro!C350</f>
         <v>0</v>
       </c>
@@ -49855,7 +50017,7 @@
         <v>21</v>
       </c>
       <c r="B87" s="10"/>
-      <c r="C87" s="651">
+      <c r="C87" s="654">
         <f>Fluoro!C351</f>
         <v>0</v>
       </c>
@@ -50202,7 +50364,7 @@
         <v>36</v>
       </c>
       <c r="B102" s="10"/>
-      <c r="C102" s="648" t="str">
+      <c r="C102" s="655" t="str">
         <f>Fluoro!C366</f>
         <v>Auto 1</v>
       </c>
@@ -50240,7 +50402,7 @@
         <v>37</v>
       </c>
       <c r="B103" s="10"/>
-      <c r="C103" s="648">
+      <c r="C103" s="655">
         <f>Fluoro!C367</f>
         <v>0</v>
       </c>
@@ -50278,7 +50440,7 @@
         <v>38</v>
       </c>
       <c r="B104" s="10"/>
-      <c r="C104" s="648">
+      <c r="C104" s="655">
         <f>Fluoro!C368</f>
         <v>0</v>
       </c>
@@ -50316,7 +50478,7 @@
         <v>39</v>
       </c>
       <c r="B105" s="10"/>
-      <c r="C105" s="648">
+      <c r="C105" s="655">
         <f>Fluoro!C369</f>
         <v>0</v>
       </c>
@@ -50351,7 +50513,7 @@
         <v>40</v>
       </c>
       <c r="B106" s="10"/>
-      <c r="C106" s="648">
+      <c r="C106" s="655">
         <f>Fluoro!C370</f>
         <v>0</v>
       </c>
@@ -50386,7 +50548,7 @@
         <v>41</v>
       </c>
       <c r="B107" s="10"/>
-      <c r="C107" s="649" t="str">
+      <c r="C107" s="656" t="str">
         <f>Fluoro!C371</f>
         <v/>
       </c>
@@ -50421,7 +50583,7 @@
         <v>42</v>
       </c>
       <c r="B108" s="10"/>
-      <c r="C108" s="649">
+      <c r="C108" s="656">
         <f>Fluoro!C372</f>
         <v>0</v>
       </c>
@@ -50456,7 +50618,7 @@
         <v>43</v>
       </c>
       <c r="B109" s="10"/>
-      <c r="C109" s="649">
+      <c r="C109" s="656">
         <f>Fluoro!C373</f>
         <v>0</v>
       </c>
@@ -50491,7 +50653,7 @@
         <v>44</v>
       </c>
       <c r="B110" s="10"/>
-      <c r="C110" s="649">
+      <c r="C110" s="656">
         <f>Fluoro!C374</f>
         <v>0</v>
       </c>
@@ -50526,7 +50688,7 @@
         <v>45</v>
       </c>
       <c r="B111" s="10"/>
-      <c r="C111" s="649">
+      <c r="C111" s="656">
         <f>Fluoro!C375</f>
         <v>0</v>
       </c>
@@ -50561,7 +50723,7 @@
         <v>46</v>
       </c>
       <c r="B112" s="10"/>
-      <c r="C112" s="649" t="str">
+      <c r="C112" s="656" t="str">
         <f>Fluoro!C376</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -50596,7 +50758,7 @@
         <v>47</v>
       </c>
       <c r="B113" s="10"/>
-      <c r="C113" s="649">
+      <c r="C113" s="656">
         <f>Fluoro!C377</f>
         <v>0</v>
       </c>
@@ -50631,7 +50793,7 @@
         <v>48</v>
       </c>
       <c r="B114" s="10"/>
-      <c r="C114" s="649">
+      <c r="C114" s="656">
         <f>Fluoro!C378</f>
         <v>0</v>
       </c>
@@ -50662,7 +50824,7 @@
         <v>49</v>
       </c>
       <c r="B115" s="10"/>
-      <c r="C115" s="649">
+      <c r="C115" s="656">
         <f>Fluoro!C379</f>
         <v>0</v>
       </c>
@@ -50693,7 +50855,7 @@
         <v>50</v>
       </c>
       <c r="B116" s="10"/>
-      <c r="C116" s="649">
+      <c r="C116" s="656">
         <f>Fluoro!C380</f>
         <v>0</v>
       </c>
@@ -50867,7 +51029,7 @@
         <v>58</v>
       </c>
       <c r="B124" s="10"/>
-      <c r="C124" s="650" t="str">
+      <c r="C124" s="657" t="str">
         <f>Fluoro!C388</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -50902,7 +51064,7 @@
         <v>59</v>
       </c>
       <c r="B125" s="10"/>
-      <c r="C125" s="650">
+      <c r="C125" s="657">
         <f>Fluoro!C389</f>
         <v>0</v>
       </c>
@@ -51079,21 +51241,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:M71"/>
     <mergeCell ref="C102:C106"/>
     <mergeCell ref="C107:C111"/>
     <mergeCell ref="C112:C116"/>
@@ -51103,6 +51250,21 @@
     <mergeCell ref="C79:C81"/>
     <mergeCell ref="C82:C84"/>
     <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.88611111111111096" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -51129,34 +51291,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="652" t="s">
+      <c r="A1" s="658" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="652"/>
+      <c r="B1" s="658"/>
       <c r="N1" s="308"/>
-      <c r="O1" s="623" t="str">
+      <c r="O1" s="628" t="str">
         <f>Fluoro!O105</f>
         <v>Patient Entrance Exposure Rate (Fluoroscopy)*</v>
       </c>
-      <c r="P1" s="623"/>
-      <c r="Q1" s="623"/>
-      <c r="R1" s="623" t="s">
+      <c r="P1" s="628"/>
+      <c r="Q1" s="628"/>
+      <c r="R1" s="628" t="s">
         <v>408</v>
       </c>
-      <c r="S1" s="623"/>
-      <c r="T1" s="623"/>
+      <c r="S1" s="628"/>
+      <c r="T1" s="628"/>
       <c r="V1" s="308"/>
-      <c r="W1" s="623" t="str">
+      <c r="W1" s="628" t="str">
         <f>Fluoro!O137</f>
         <v>Patient Entrance Exposure Rate – Digital Acquisition</v>
       </c>
-      <c r="X1" s="623"/>
-      <c r="Y1" s="623"/>
-      <c r="Z1" s="623" t="s">
+      <c r="X1" s="628"/>
+      <c r="Y1" s="628"/>
+      <c r="Z1" s="628" t="s">
         <v>408</v>
       </c>
-      <c r="AA1" s="623"/>
-      <c r="AB1" s="623"/>
+      <c r="AA1" s="628"/>
+      <c r="AB1" s="628"/>
     </row>
     <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="309">
@@ -51359,10 +51521,10 @@
       <c r="AB6" s="308"/>
     </row>
     <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="652" t="s">
+      <c r="A7" s="658" t="s">
         <v>411</v>
       </c>
-      <c r="B7" s="652"/>
+      <c r="B7" s="658"/>
       <c r="D7" s="205" t="s">
         <v>412</v>
       </c>
@@ -55149,14 +55311,14 @@
       <c r="B75" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="E75" s="623" t="s">
+      <c r="E75" s="628" t="s">
         <v>421</v>
       </c>
-      <c r="F75" s="623"/>
-      <c r="I75" s="623" t="s">
+      <c r="F75" s="628"/>
+      <c r="I75" s="628" t="s">
         <v>422</v>
       </c>
-      <c r="J75" s="623"/>
+      <c r="J75" s="628"/>
     </row>
     <row r="76" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">

--- a/MUSCCArm.xlsx
+++ b/MUSCCArm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maheug\Documents\GitHub\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3854D4BE-1D76-4CB8-8E1D-66B0D243B73D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A73477-BD3A-4373-AC87-8BFD7C9CB0AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
     <definedName name="TO10kVAdj">Tables!$A$30:$E$44</definedName>
     <definedName name="TO10Values">Tables!$A$60:$S$72</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateCount="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="461">
   <si>
     <t>Print Area</t>
   </si>
@@ -1503,6 +1503,12 @@
   <si>
     <t>Radcal 90-2123</t>
   </si>
+  <si>
+    <t>Is this a new installation?</t>
+  </si>
+  <si>
+    <t>New installation?</t>
+  </si>
 </sst>
 </file>
 
@@ -1649,7 +1655,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1710,8 +1716,14 @@
         <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="231">
+  <borders count="232">
     <border>
       <left/>
       <right/>
@@ -4619,6 +4631,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0">
@@ -4650,7 +4675,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="659">
+  <cellXfs count="662">
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6628,6 +6653,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="231" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6645,31 +6680,11 @@
   <dxfs count="37">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6685,11 +6700,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6720,6 +6735,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7082,6 +7117,10 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FF99CCFF"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -18375,6 +18414,330 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2057" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B801920-AAD1-4B25-945E-5A0E6A2838B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2058" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4CF07DB-7F8F-4650-813C-FC256226F9CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2059" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C255E29-0006-4351-AF0D-762DA9BD3B49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2060" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C804FA1-3910-4576-B033-27853DA9BCB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2061" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC94397-4E52-487B-9D70-71FD6EE78A11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2062" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB685DB-367C-4B18-A6A1-10213DE2C76B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18643,8 +19006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD792"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W101" sqref="W101"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M126" sqref="M126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -20694,7 +21057,14 @@
       <c r="A48" s="3">
         <v>48</v>
       </c>
-      <c r="O48" s="13"/>
+      <c r="O48" s="661" t="str">
+        <f>IF(P48&lt;&gt;"",P48,IF(OR(AB318=0,AB318=""),"",AB318))</f>
+        <v/>
+      </c>
+      <c r="P48" s="660"/>
+      <c r="Q48" s="365" t="s">
+        <v>459</v>
+      </c>
       <c r="S48" s="53"/>
       <c r="T48" s="49" t="s">
         <v>50</v>
@@ -22049,11 +22419,10 @@
       <c r="K88" s="202"/>
       <c r="L88" s="202"/>
       <c r="M88" s="351"/>
-      <c r="O88" s="72"/>
-      <c r="P88" s="17"/>
-      <c r="S88" s="53"/>
-      <c r="T88" s="49" t="s">
-        <v>125</v>
+      <c r="O88" s="56"/>
+      <c r="P88" s="17" t="str">
+        <f>IF(OR(O48="",O48=1),"Unit installed as shown on shielding plan","")</f>
+        <v>Unit installed as shown on shielding plan</v>
       </c>
       <c r="Y88" s="14"/>
       <c r="AA88" s="2" t="s">
@@ -22087,9 +22456,11 @@
       <c r="K89" s="135"/>
       <c r="L89" s="135"/>
       <c r="M89" s="333"/>
-      <c r="O89" s="56"/>
-      <c r="P89" s="17" t="s">
-        <v>126</v>
+      <c r="O89" s="72"/>
+      <c r="P89" s="17"/>
+      <c r="S89" s="53"/>
+      <c r="T89" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="Y89" s="14"/>
       <c r="AA89" s="2" t="s">
@@ -22133,7 +22504,7 @@
       </c>
       <c r="O90" s="56"/>
       <c r="P90" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y90" s="14"/>
       <c r="AA90" s="2" t="s">
@@ -22177,7 +22548,7 @@
       </c>
       <c r="O91" s="56"/>
       <c r="P91" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y91" s="14"/>
       <c r="AA91" s="2" t="s">
@@ -22221,7 +22592,7 @@
       </c>
       <c r="O92" s="56"/>
       <c r="P92" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y92" s="14"/>
       <c r="AA92" s="2" t="s">
@@ -22265,7 +22636,7 @@
       </c>
       <c r="O93" s="56"/>
       <c r="P93" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y93" s="14"/>
       <c r="AA93" s="2" t="s">
@@ -22309,7 +22680,7 @@
       </c>
       <c r="O94" s="56"/>
       <c r="P94" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Y94" s="14"/>
       <c r="AA94" s="2" t="s">
@@ -22351,11 +22722,13 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="O95" s="21"/>
-      <c r="P95" s="22"/>
-      <c r="Q95" s="22"/>
-      <c r="R95" s="22"/>
-      <c r="S95" s="22"/>
+      <c r="O95" s="659"/>
+      <c r="P95" s="221" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q95" s="33"/>
+      <c r="R95" s="33"/>
+      <c r="S95" s="33"/>
       <c r="T95" s="22"/>
       <c r="U95" s="22"/>
       <c r="V95" s="22"/>
@@ -23359,11 +23732,11 @@
       <c r="J113" s="135"/>
       <c r="K113" s="135"/>
       <c r="L113" s="349" t="str">
-        <f t="shared" ref="L113:L118" si="16">IF(O89="","TBD",IF(O89=1,"YES",IF(O89=3,"NA","")))</f>
+        <f>IF(O90="","TBD",IF(O90=1,"YES",IF(O90=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M113" s="350" t="str">
-        <f t="shared" ref="M113:M118" si="17">IF(O89=2,"NO","")</f>
+        <f>IF(O90=2,"NO","")</f>
         <v/>
       </c>
       <c r="O113" s="86" t="str">
@@ -23430,11 +23803,11 @@
       <c r="J114" s="135"/>
       <c r="K114" s="135"/>
       <c r="L114" s="349" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(O91="","TBD",IF(O91=1,"YES",IF(O91=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M114" s="350" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(O91=2,"NO","")</f>
         <v/>
       </c>
       <c r="O114" s="90"/>
@@ -23483,11 +23856,11 @@
       </c>
       <c r="AB114" s="40"/>
       <c r="AC114" s="29" t="str">
-        <f t="shared" ref="AC114:AC128" si="18">IF(AB114&lt;&gt;AD114,"Change","")</f>
+        <f t="shared" ref="AC114:AC128" si="16">IF(AB114&lt;&gt;AD114,"Change","")</f>
         <v/>
       </c>
       <c r="AD114" s="61" t="str">
-        <f t="shared" ref="AD114:AD128" si="19">IF(T190="","",T190)</f>
+        <f t="shared" ref="AD114:AD128" si="17">IF(T190="","",T190)</f>
         <v/>
       </c>
     </row>
@@ -23508,11 +23881,11 @@
       <c r="J115" s="135"/>
       <c r="K115" s="135"/>
       <c r="L115" s="349" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(O92="","TBD",IF(O92=1,"YES",IF(O92=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M115" s="350" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(O92=2,"NO","")</f>
         <v/>
       </c>
       <c r="O115" s="82" t="s">
@@ -23563,11 +23936,11 @@
       </c>
       <c r="AB115" s="40"/>
       <c r="AC115" s="29" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AD115" s="61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -23588,11 +23961,11 @@
       <c r="J116" s="135"/>
       <c r="K116" s="135"/>
       <c r="L116" s="349" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(O93="","TBD",IF(O93=1,"YES",IF(O93=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M116" s="350" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(O93=2,"NO","")</f>
         <v/>
       </c>
       <c r="O116" s="86" t="str">
@@ -23644,11 +24017,11 @@
       </c>
       <c r="AB116" s="40"/>
       <c r="AC116" s="29" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AD116" s="61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -23669,11 +24042,11 @@
       <c r="J117" s="135"/>
       <c r="K117" s="135"/>
       <c r="L117" s="349" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(O94="","TBD",IF(O94=1,"YES",IF(O94=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M117" s="350" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(O94=2,"NO","")</f>
         <v/>
       </c>
       <c r="O117" s="90"/>
@@ -23722,11 +24095,11 @@
       </c>
       <c r="AB117" s="40"/>
       <c r="AC117" s="29" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AD117" s="61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -23747,11 +24120,11 @@
       <c r="J118" s="135"/>
       <c r="K118" s="135"/>
       <c r="L118" s="349" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(O95="","TBD",IF(O95=1,"YES",IF(O95=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M118" s="350" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(O95=2,"NO","")</f>
         <v/>
       </c>
       <c r="O118" s="82" t="s">
@@ -23802,11 +24175,11 @@
       </c>
       <c r="AB118" s="40"/>
       <c r="AC118" s="29" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AD118" s="61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -23875,11 +24248,11 @@
       </c>
       <c r="AB119" s="40"/>
       <c r="AC119" s="29" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AD119" s="61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -23947,11 +24320,11 @@
       </c>
       <c r="AB120" s="40"/>
       <c r="AC120" s="29" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AD120" s="61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -24027,11 +24400,11 @@
       </c>
       <c r="AB121" s="40"/>
       <c r="AC121" s="29" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AD121" s="61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -24108,11 +24481,11 @@
       </c>
       <c r="AB122" s="40"/>
       <c r="AC122" s="29" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AD122" s="61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -24186,11 +24559,11 @@
       </c>
       <c r="AB123" s="40"/>
       <c r="AC123" s="29" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AD123" s="61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -24264,11 +24637,11 @@
       </c>
       <c r="AB124" s="40"/>
       <c r="AC124" s="29" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AD124" s="61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -24343,11 +24716,11 @@
       </c>
       <c r="AB125" s="40"/>
       <c r="AC125" s="29" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AD125" s="61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -24358,15 +24731,24 @@
       <c r="B126" s="331"/>
       <c r="C126" s="42"/>
       <c r="D126" s="135"/>
-      <c r="E126" s="135"/>
+      <c r="E126" s="352" t="str">
+        <f>P88</f>
+        <v>Unit installed as shown on shielding plan</v>
+      </c>
       <c r="F126" s="135"/>
       <c r="G126" s="135"/>
       <c r="H126" s="135"/>
       <c r="I126" s="135"/>
       <c r="J126" s="135"/>
       <c r="K126" s="135"/>
-      <c r="L126" s="135"/>
-      <c r="M126" s="333"/>
+      <c r="L126" s="349" t="str">
+        <f>IF(O48=2,"",IF(OR(O48="",O88=""),"TBD",IF(AND(O48=1,O88=1),"YES",IF(OR(O48=2,O88=3),"NA",""))))</f>
+        <v>TBD</v>
+      </c>
+      <c r="M126" s="350" t="str">
+        <f>IF(O88=2,"NO","")</f>
+        <v/>
+      </c>
       <c r="O126" s="13"/>
       <c r="P126" s="102" t="s">
         <v>179</v>
@@ -24398,11 +24780,11 @@
       </c>
       <c r="AB126" s="40"/>
       <c r="AC126" s="29" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AD126" s="61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -24433,11 +24815,11 @@
       </c>
       <c r="AB127" s="40"/>
       <c r="AC127" s="29" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AD127" s="61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -24468,11 +24850,11 @@
       </c>
       <c r="AB128" s="40"/>
       <c r="AC128" s="29" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AD128" s="61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -24531,11 +24913,11 @@
       </c>
       <c r="AB130" s="40"/>
       <c r="AC130" s="29" t="str">
-        <f t="shared" ref="AC130:AC144" si="20">IF(AB130&lt;&gt;AD130,"Change","")</f>
+        <f t="shared" ref="AC130:AC144" si="18">IF(AB130&lt;&gt;AD130,"Change","")</f>
         <v/>
       </c>
       <c r="AD130" s="61" t="str">
-        <f t="shared" ref="AD130:AD144" si="21">IF(T214="","",T214)</f>
+        <f t="shared" ref="AD130:AD144" si="19">IF(T214="","",T214)</f>
         <v/>
       </c>
     </row>
@@ -24571,11 +24953,11 @@
       </c>
       <c r="AB131" s="40"/>
       <c r="AC131" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD131" s="61" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -24608,11 +24990,11 @@
       </c>
       <c r="AB132" s="40"/>
       <c r="AC132" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD132" s="61" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -24646,11 +25028,11 @@
       </c>
       <c r="AB133" s="40"/>
       <c r="AC133" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD133" s="61" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -24688,11 +25070,11 @@
       </c>
       <c r="AB134" s="40"/>
       <c r="AC134" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD134" s="61" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -24733,11 +25115,11 @@
       </c>
       <c r="AB135" s="40"/>
       <c r="AC135" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD135" s="61" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -24779,11 +25161,11 @@
       </c>
       <c r="AB136" s="40"/>
       <c r="AC136" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD136" s="61" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -24827,11 +25209,11 @@
       </c>
       <c r="AB137" s="40"/>
       <c r="AC137" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD137" s="61" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -24895,11 +25277,11 @@
       </c>
       <c r="AB138" s="40"/>
       <c r="AC138" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD138" s="61" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -24969,11 +25351,11 @@
       </c>
       <c r="AB139" s="40"/>
       <c r="AC139" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD139" s="61" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -25048,11 +25430,11 @@
       </c>
       <c r="AB140" s="40"/>
       <c r="AC140" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD140" s="61" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -25134,11 +25516,11 @@
       </c>
       <c r="AB141" s="40"/>
       <c r="AC141" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD141" s="61" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -25216,11 +25598,11 @@
       </c>
       <c r="AB142" s="40"/>
       <c r="AC142" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD142" s="61" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -25295,11 +25677,11 @@
       </c>
       <c r="AB143" s="40"/>
       <c r="AC143" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD143" s="61" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -25376,11 +25758,11 @@
       </c>
       <c r="AB144" s="40"/>
       <c r="AC144" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD144" s="61" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -26273,7 +26655,7 @@
       </c>
       <c r="AB157" s="40"/>
       <c r="AC157" s="29" t="str">
-        <f t="shared" ref="AC157:AC188" si="22">IF(AB157&lt;&gt;AD157,"Change","")</f>
+        <f t="shared" ref="AC157:AC188" si="20">IF(AB157&lt;&gt;AD157,"Change","")</f>
         <v>Change</v>
       </c>
       <c r="AD157" s="61">
@@ -26327,7 +26709,7 @@
       </c>
       <c r="AB158" s="40"/>
       <c r="AC158" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD158" s="61" t="str">
@@ -26361,7 +26743,7 @@
       </c>
       <c r="AB159" s="40"/>
       <c r="AC159" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD159" s="61" t="str">
@@ -26395,7 +26777,7 @@
       </c>
       <c r="AB160" s="40"/>
       <c r="AC160" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD160" s="61" t="str">
@@ -26429,7 +26811,7 @@
       </c>
       <c r="AB161" s="40"/>
       <c r="AC161" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD161" s="61" t="str">
@@ -26463,7 +26845,7 @@
       </c>
       <c r="AB162" s="40"/>
       <c r="AC162" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD162" s="61" t="str">
@@ -26500,7 +26882,7 @@
       </c>
       <c r="AB163" s="40"/>
       <c r="AC163" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD163" s="61" t="str">
@@ -26534,7 +26916,7 @@
       </c>
       <c r="AB164" s="40"/>
       <c r="AC164" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD164" s="61" t="str">
@@ -26579,7 +26961,7 @@
       </c>
       <c r="AB165" s="40"/>
       <c r="AC165" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD165" s="61" t="str">
@@ -26624,7 +27006,7 @@
       </c>
       <c r="AB166" s="40"/>
       <c r="AC166" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD166" s="61" t="str">
@@ -26666,7 +27048,7 @@
       </c>
       <c r="AB167" s="40"/>
       <c r="AC167" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD167" s="61" t="str">
@@ -26706,7 +27088,7 @@
       </c>
       <c r="AB168" s="40"/>
       <c r="AC168" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD168" s="41" t="str">
@@ -26748,7 +27130,7 @@
       </c>
       <c r="AB169" s="40"/>
       <c r="AC169" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD169" s="41" t="str">
@@ -26786,7 +27168,7 @@
       </c>
       <c r="AB170" s="40"/>
       <c r="AC170" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD170" s="41" t="str">
@@ -26819,7 +27201,7 @@
       </c>
       <c r="AB171" s="40"/>
       <c r="AC171" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD171" s="41" t="str">
@@ -26864,7 +27246,7 @@
       </c>
       <c r="AB172" s="40"/>
       <c r="AC172" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD172" s="41" t="str">
@@ -26915,7 +27297,7 @@
       </c>
       <c r="AB173" s="40"/>
       <c r="AC173" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD173" s="41" t="str">
@@ -26954,7 +27336,7 @@
         <v/>
       </c>
       <c r="V174" s="129" t="str">
-        <f t="shared" ref="V174:V179" si="23">IF(U174="","",ABS(U174-$U$174/2))</f>
+        <f t="shared" ref="V174:V179" si="21">IF(U174="","",ABS(U174-$U$174/2))</f>
         <v/>
       </c>
       <c r="W174" s="129" t="str">
@@ -26971,11 +27353,11 @@
       </c>
       <c r="AB174" s="40"/>
       <c r="AC174" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD174" s="41" t="str">
-        <f t="shared" ref="AD174:AD185" si="24">IF(Q331="","",Q331)</f>
+        <f t="shared" ref="AD174:AD185" si="22">IF(Q331="","",Q331)</f>
         <v/>
       </c>
     </row>
@@ -27008,7 +27390,7 @@
         <v/>
       </c>
       <c r="V175" s="129" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="W175" s="129" t="str">
@@ -27021,11 +27403,11 @@
       </c>
       <c r="AB175" s="40"/>
       <c r="AC175" s="29" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AD175" s="41" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AD175" s="41" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -27061,7 +27443,7 @@
         <v/>
       </c>
       <c r="V176" s="129" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y176" s="14"/>
@@ -27070,11 +27452,11 @@
       </c>
       <c r="AB176" s="40"/>
       <c r="AC176" s="29" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AD176" s="41" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AD176" s="41" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -27107,7 +27489,7 @@
         <v/>
       </c>
       <c r="V177" s="129" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="W177" s="1" t="s">
@@ -27122,11 +27504,11 @@
       </c>
       <c r="AB177" s="40"/>
       <c r="AC177" s="29" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AD177" s="41" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AD177" s="41" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -27162,7 +27544,7 @@
         <v/>
       </c>
       <c r="V178" s="129" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="W178" s="129" t="str">
@@ -27179,11 +27561,11 @@
       </c>
       <c r="AB178" s="40"/>
       <c r="AC178" s="29" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AD178" s="41" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AD178" s="41" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -27216,7 +27598,7 @@
         <v/>
       </c>
       <c r="V179" s="129" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="W179" s="129" t="str">
@@ -27233,11 +27615,11 @@
       </c>
       <c r="AB179" s="40"/>
       <c r="AC179" s="29" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AD179" s="41" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AD179" s="41" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -27278,11 +27660,11 @@
       </c>
       <c r="AB180" s="40"/>
       <c r="AC180" s="29" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AD180" s="41" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AD180" s="41" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -27323,11 +27705,11 @@
       </c>
       <c r="AB181" s="40"/>
       <c r="AC181" s="29" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AD181" s="41" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AD181" s="41" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -27367,11 +27749,11 @@
       </c>
       <c r="AB182" s="40"/>
       <c r="AC182" s="29" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AD182" s="41" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AD182" s="41" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -27416,11 +27798,11 @@
       </c>
       <c r="AB183" s="40"/>
       <c r="AC183" s="29" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AD183" s="41" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AD183" s="41" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -27462,11 +27844,11 @@
       </c>
       <c r="AB184" s="40"/>
       <c r="AC184" s="29" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AD184" s="41" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AD184" s="41" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -27493,11 +27875,11 @@
       </c>
       <c r="AB185" s="40"/>
       <c r="AC185" s="29" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AD185" s="41" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AD185" s="41" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -27535,11 +27917,11 @@
       </c>
       <c r="AB186" s="40"/>
       <c r="AC186" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD186" s="41" t="str">
-        <f t="shared" ref="AD186:AD197" si="25">IF(R331="","",R331)</f>
+        <f t="shared" ref="AD186:AD197" si="23">IF(R331="","",R331)</f>
         <v/>
       </c>
     </row>
@@ -27566,11 +27948,11 @@
       </c>
       <c r="AB187" s="40"/>
       <c r="AC187" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD187" s="41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -27605,11 +27987,11 @@
       </c>
       <c r="AB188" s="40"/>
       <c r="AC188" s="29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD188" s="41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -27656,11 +28038,11 @@
       </c>
       <c r="AB189" s="40"/>
       <c r="AC189" s="29" t="str">
-        <f t="shared" ref="AC189:AC220" si="26">IF(AB189&lt;&gt;AD189,"Change","")</f>
+        <f t="shared" ref="AC189:AC220" si="24">IF(AB189&lt;&gt;AD189,"Change","")</f>
         <v/>
       </c>
       <c r="AD189" s="41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -27693,7 +28075,7 @@
       <c r="S190" s="142"/>
       <c r="T190" s="141"/>
       <c r="U190" s="143" t="str">
-        <f t="shared" ref="U190:U204" si="27">IF(AB114="","",AB114)</f>
+        <f t="shared" ref="U190:U204" si="25">IF(AB114="","",AB114)</f>
         <v/>
       </c>
       <c r="V190" s="53"/>
@@ -27706,11 +28088,11 @@
       </c>
       <c r="AB190" s="40"/>
       <c r="AC190" s="29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD190" s="41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -27740,7 +28122,7 @@
       <c r="S191" s="145"/>
       <c r="T191" s="144"/>
       <c r="U191" s="146" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="W191" s="105" t="s">
@@ -27752,11 +28134,11 @@
       </c>
       <c r="AB191" s="40"/>
       <c r="AC191" s="29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD191" s="41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -27786,7 +28168,7 @@
       <c r="S192" s="145"/>
       <c r="T192" s="144"/>
       <c r="U192" s="146" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="W192" s="105" t="s">
@@ -27798,11 +28180,11 @@
       </c>
       <c r="AB192" s="40"/>
       <c r="AC192" s="29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD192" s="41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -27832,7 +28214,7 @@
       <c r="S193" s="145"/>
       <c r="T193" s="144"/>
       <c r="U193" s="146" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Y193" s="14"/>
@@ -27841,11 +28223,11 @@
       </c>
       <c r="AB193" s="40"/>
       <c r="AC193" s="29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD193" s="41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -27875,7 +28257,7 @@
       <c r="S194" s="147"/>
       <c r="T194" s="134"/>
       <c r="U194" s="148" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Y194" s="14"/>
@@ -27884,11 +28266,11 @@
       </c>
       <c r="AB194" s="40"/>
       <c r="AC194" s="29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD194" s="41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -27921,7 +28303,7 @@
       <c r="S195" s="142"/>
       <c r="T195" s="141"/>
       <c r="U195" s="143" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Y195" s="14"/>
@@ -27930,11 +28312,11 @@
       </c>
       <c r="AB195" s="40"/>
       <c r="AC195" s="29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD195" s="41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -27964,7 +28346,7 @@
       <c r="S196" s="145"/>
       <c r="T196" s="144"/>
       <c r="U196" s="146" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Y196" s="14"/>
@@ -27973,11 +28355,11 @@
       </c>
       <c r="AB196" s="40"/>
       <c r="AC196" s="29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD196" s="41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -28009,7 +28391,7 @@
       <c r="S197" s="145"/>
       <c r="T197" s="144"/>
       <c r="U197" s="146" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Y197" s="14"/>
@@ -28018,11 +28400,11 @@
       </c>
       <c r="AB197" s="40"/>
       <c r="AC197" s="29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD197" s="41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -28054,7 +28436,7 @@
       <c r="S198" s="145"/>
       <c r="T198" s="144"/>
       <c r="U198" s="146" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Y198" s="14"/>
@@ -28063,11 +28445,11 @@
       </c>
       <c r="AB198" s="40"/>
       <c r="AC198" s="29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD198" s="41" t="str">
-        <f t="shared" ref="AD198:AD209" si="28">IF(S331="","",S331)</f>
+        <f t="shared" ref="AD198:AD209" si="26">IF(S331="","",S331)</f>
         <v/>
       </c>
     </row>
@@ -28100,7 +28482,7 @@
       <c r="S199" s="147"/>
       <c r="T199" s="134"/>
       <c r="U199" s="148" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Y199" s="14"/>
@@ -28109,11 +28491,11 @@
       </c>
       <c r="AB199" s="40"/>
       <c r="AC199" s="29" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AD199" s="41" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AD199" s="41" t="str">
-        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -28152,7 +28534,7 @@
       <c r="S200" s="142"/>
       <c r="T200" s="141"/>
       <c r="U200" s="143" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Y200" s="14"/>
@@ -28161,11 +28543,11 @@
       </c>
       <c r="AB200" s="40"/>
       <c r="AC200" s="29" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AD200" s="41" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AD200" s="41" t="str">
-        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -28198,7 +28580,7 @@
       <c r="S201" s="145"/>
       <c r="T201" s="144"/>
       <c r="U201" s="146" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Y201" s="14"/>
@@ -28207,11 +28589,11 @@
       </c>
       <c r="AB201" s="40"/>
       <c r="AC201" s="29" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AD201" s="41" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AD201" s="41" t="str">
-        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -28252,7 +28634,7 @@
       <c r="S202" s="145"/>
       <c r="T202" s="144"/>
       <c r="U202" s="146" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Y202" s="14"/>
@@ -28261,11 +28643,11 @@
       </c>
       <c r="AB202" s="40"/>
       <c r="AC202" s="29" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AD202" s="41" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AD202" s="41" t="str">
-        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -28285,7 +28667,7 @@
       <c r="S203" s="145"/>
       <c r="T203" s="144"/>
       <c r="U203" s="146" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Y203" s="14"/>
@@ -28294,11 +28676,11 @@
       </c>
       <c r="AB203" s="40"/>
       <c r="AC203" s="29" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AD203" s="41" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AD203" s="41" t="str">
-        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -28348,7 +28730,7 @@
       <c r="S204" s="147"/>
       <c r="T204" s="134"/>
       <c r="U204" s="148" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Y204" s="14"/>
@@ -28357,11 +28739,11 @@
       </c>
       <c r="AB204" s="40"/>
       <c r="AC204" s="29" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AD204" s="41" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AD204" s="41" t="str">
-        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -28398,11 +28780,11 @@
       </c>
       <c r="AB205" s="40"/>
       <c r="AC205" s="29" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AD205" s="41" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AD205" s="41" t="str">
-        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -28412,47 +28794,47 @@
       </c>
       <c r="B206" s="331"/>
       <c r="C206" s="385" t="str">
-        <f t="shared" ref="C206:D213" si="29">IF(O258="","",O258)</f>
+        <f t="shared" ref="C206:D213" si="27">IF(O258="","",O258)</f>
         <v/>
       </c>
       <c r="D206" s="386" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="E206" s="385" t="str">
-        <f t="shared" ref="E206:M213" si="30">IF(O278="","",O278)</f>
+        <f t="shared" ref="E206:M213" si="28">IF(O278="","",O278)</f>
         <v/>
       </c>
       <c r="F206" s="391" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="G206" s="544" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="H206" s="385" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I206" s="391" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="J206" s="544" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="K206" s="385" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="L206" s="391" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="M206" s="394" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="O206" s="13"/>
@@ -28476,11 +28858,11 @@
       </c>
       <c r="AB206" s="40"/>
       <c r="AC206" s="29" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AD206" s="41" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AD206" s="41" t="str">
-        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -28490,47 +28872,47 @@
       </c>
       <c r="B207" s="331"/>
       <c r="C207" s="387" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="D207" s="388" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="E207" s="387" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F207" s="392" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="G207" s="545" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="H207" s="387" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I207" s="392" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="J207" s="545" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="K207" s="387" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="L207" s="392" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="M207" s="395" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="O207" s="13"/>
@@ -28551,11 +28933,11 @@
       </c>
       <c r="AB207" s="40"/>
       <c r="AC207" s="29" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AD207" s="41" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AD207" s="41" t="str">
-        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -28565,47 +28947,47 @@
       </c>
       <c r="B208" s="331"/>
       <c r="C208" s="387" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="D208" s="388" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="E208" s="387" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F208" s="392" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="G208" s="545" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="H208" s="387" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I208" s="392" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="J208" s="545" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="K208" s="387" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="L208" s="392" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="M208" s="395" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="O208" s="13"/>
@@ -28626,11 +29008,11 @@
       </c>
       <c r="AB208" s="40"/>
       <c r="AC208" s="29" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AD208" s="41" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AD208" s="41" t="str">
-        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -28640,47 +29022,47 @@
       </c>
       <c r="B209" s="331"/>
       <c r="C209" s="387" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="D209" s="388" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="E209" s="387" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F209" s="392" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="G209" s="545" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="H209" s="387" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I209" s="392" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="J209" s="545" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="K209" s="387" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="L209" s="392" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="M209" s="395" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="O209" s="21"/>
@@ -28699,11 +29081,11 @@
       </c>
       <c r="AB209" s="40"/>
       <c r="AC209" s="29" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AD209" s="41" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AD209" s="41" t="str">
-        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -28713,47 +29095,47 @@
       </c>
       <c r="B210" s="331"/>
       <c r="C210" s="387" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="D210" s="388" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="E210" s="387" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F210" s="392" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="G210" s="545" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="H210" s="387" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I210" s="392" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="J210" s="545" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="K210" s="387" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="L210" s="392" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="M210" s="395" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="O210" s="115" t="str">
@@ -28775,11 +29157,11 @@
       </c>
       <c r="AB210" s="40"/>
       <c r="AC210" s="29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD210" s="41" t="str">
-        <f t="shared" ref="AD210:AD221" si="31">IF(T331="","",T331)</f>
+        <f t="shared" ref="AD210:AD221" si="29">IF(T331="","",T331)</f>
         <v/>
       </c>
     </row>
@@ -28789,47 +29171,47 @@
       </c>
       <c r="B211" s="331"/>
       <c r="C211" s="387" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="D211" s="388" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="E211" s="387" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F211" s="392" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="G211" s="545" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="H211" s="387" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I211" s="392" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="J211" s="545" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="K211" s="387" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="L211" s="392" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="M211" s="395" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="O211" s="13"/>
@@ -28839,11 +29221,11 @@
       </c>
       <c r="AB211" s="40"/>
       <c r="AC211" s="29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD211" s="41" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
@@ -28853,47 +29235,47 @@
       </c>
       <c r="B212" s="331"/>
       <c r="C212" s="387" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="D212" s="388" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="E212" s="387" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F212" s="392" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="G212" s="545" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="H212" s="387" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I212" s="392" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="J212" s="545" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="K212" s="387" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="L212" s="392" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="M212" s="395" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="O212" s="13" t="s">
@@ -28911,11 +29293,11 @@
       </c>
       <c r="AB212" s="40"/>
       <c r="AC212" s="29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD212" s="41" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
@@ -28925,47 +29307,47 @@
       </c>
       <c r="B213" s="331"/>
       <c r="C213" s="389" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="D213" s="390" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="E213" s="389" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="F213" s="393" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="G213" s="546" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="H213" s="389" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I213" s="393" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="J213" s="546" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="K213" s="389" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="L213" s="393" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="M213" s="396" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="O213" s="13" t="s">
@@ -28995,11 +29377,11 @@
       </c>
       <c r="AB213" s="40"/>
       <c r="AC213" s="29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD213" s="41" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
@@ -29047,7 +29429,7 @@
       <c r="S214" s="142"/>
       <c r="T214" s="141"/>
       <c r="U214" s="143" t="str">
-        <f t="shared" ref="U214:U228" si="32">IF(AB130="","",AB130)</f>
+        <f t="shared" ref="U214:U228" si="30">IF(AB130="","",AB130)</f>
         <v/>
       </c>
       <c r="V214" s="53"/>
@@ -29060,11 +29442,11 @@
       </c>
       <c r="AB214" s="40"/>
       <c r="AC214" s="29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD214" s="41" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
@@ -29100,7 +29482,7 @@
       <c r="S215" s="145"/>
       <c r="T215" s="144"/>
       <c r="U215" s="146" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="W215" s="105" t="s">
@@ -29112,11 +29494,11 @@
       </c>
       <c r="AB215" s="40"/>
       <c r="AC215" s="29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD215" s="41" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
@@ -29146,7 +29528,7 @@
       <c r="S216" s="145"/>
       <c r="T216" s="144"/>
       <c r="U216" s="146" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="W216" s="105" t="s">
@@ -29158,11 +29540,11 @@
       </c>
       <c r="AB216" s="40"/>
       <c r="AC216" s="29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD216" s="41" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
@@ -29192,7 +29574,7 @@
       <c r="S217" s="145"/>
       <c r="T217" s="144"/>
       <c r="U217" s="146" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="Y217" s="14"/>
@@ -29201,11 +29583,11 @@
       </c>
       <c r="AB217" s="40"/>
       <c r="AC217" s="29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD217" s="41" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
@@ -29239,7 +29621,7 @@
       <c r="S218" s="147"/>
       <c r="T218" s="134"/>
       <c r="U218" s="148" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="Y218" s="14"/>
@@ -29248,11 +29630,11 @@
       </c>
       <c r="AB218" s="40"/>
       <c r="AC218" s="29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD218" s="41" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
@@ -29285,7 +29667,7 @@
       <c r="S219" s="142"/>
       <c r="T219" s="141"/>
       <c r="U219" s="143" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="Y219" s="14"/>
@@ -29294,11 +29676,11 @@
       </c>
       <c r="AB219" s="40"/>
       <c r="AC219" s="29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD219" s="41" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
@@ -29343,7 +29725,7 @@
       <c r="S220" s="145"/>
       <c r="T220" s="144"/>
       <c r="U220" s="146" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="Y220" s="14"/>
@@ -29352,11 +29734,11 @@
       </c>
       <c r="AB220" s="40"/>
       <c r="AC220" s="29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD220" s="41" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
@@ -29386,7 +29768,7 @@
       <c r="S221" s="145"/>
       <c r="T221" s="144"/>
       <c r="U221" s="146" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="Y221" s="14"/>
@@ -29395,11 +29777,11 @@
       </c>
       <c r="AB221" s="40"/>
       <c r="AC221" s="29" t="str">
-        <f t="shared" ref="AC221:AC233" si="33">IF(AB221&lt;&gt;AD221,"Change","")</f>
+        <f t="shared" ref="AC221:AC233" si="31">IF(AB221&lt;&gt;AD221,"Change","")</f>
         <v/>
       </c>
       <c r="AD221" s="41" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
@@ -29437,7 +29819,7 @@
       <c r="S222" s="145"/>
       <c r="T222" s="144"/>
       <c r="U222" s="146" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="Y222" s="14"/>
@@ -29446,11 +29828,11 @@
       </c>
       <c r="AB222" s="40"/>
       <c r="AC222" s="29" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AD222" s="41" t="str">
-        <f t="shared" ref="AD222:AD233" si="34">IF(U331="","",U331)</f>
+        <f t="shared" ref="AD222:AD233" si="32">IF(U331="","",U331)</f>
         <v/>
       </c>
     </row>
@@ -29494,7 +29876,7 @@
       <c r="S223" s="147"/>
       <c r="T223" s="134"/>
       <c r="U223" s="148" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="Y223" s="14"/>
@@ -29503,11 +29885,11 @@
       </c>
       <c r="AB223" s="40"/>
       <c r="AC223" s="29" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AD223" s="41" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -29517,11 +29899,11 @@
       </c>
       <c r="B224" s="356"/>
       <c r="C224" s="405">
-        <f t="shared" ref="C224:D227" si="35">IF(O295="","",O295)</f>
+        <f t="shared" ref="C224:D227" si="33">IF(O295="","",O295)</f>
         <v>60</v>
       </c>
       <c r="D224" s="406" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="E224" s="594" t="str">
@@ -29561,7 +29943,7 @@
       <c r="S224" s="142"/>
       <c r="T224" s="141"/>
       <c r="U224" s="143" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="Y224" s="14"/>
@@ -29570,11 +29952,11 @@
       </c>
       <c r="AB224" s="40"/>
       <c r="AC224" s="29" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AD224" s="41" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -29584,11 +29966,11 @@
       </c>
       <c r="B225" s="356"/>
       <c r="C225" s="405">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>80</v>
       </c>
       <c r="D225" s="406" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="E225" s="594" t="str">
@@ -29596,17 +29978,17 @@
         <v/>
       </c>
       <c r="F225" s="406" t="str">
-        <f t="shared" ref="F225:F227" si="36">IF(Q296="","",Q296)</f>
+        <f t="shared" ref="F225:F227" si="34">IF(Q296="","",Q296)</f>
         <v/>
       </c>
       <c r="G225" s="353"/>
       <c r="H225" s="353"/>
       <c r="I225" s="406" t="str">
-        <f t="shared" ref="I225:J232" si="37">IF(P305="","",P305)</f>
+        <f t="shared" ref="I225:J232" si="35">IF(P305="","",P305)</f>
         <v/>
       </c>
       <c r="J225" s="406" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="K225" s="353"/>
@@ -29622,7 +30004,7 @@
       <c r="S225" s="145"/>
       <c r="T225" s="144"/>
       <c r="U225" s="146" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="Y225" s="14"/>
@@ -29631,11 +30013,11 @@
       </c>
       <c r="AB225" s="40"/>
       <c r="AC225" s="29" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AD225" s="41" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -29645,11 +30027,11 @@
       </c>
       <c r="B226" s="356"/>
       <c r="C226" s="405">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="D226" s="406" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="E226" s="594" t="str">
@@ -29657,17 +30039,17 @@
         <v/>
       </c>
       <c r="F226" s="406" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="G226" s="353"/>
       <c r="H226" s="353"/>
       <c r="I226" s="406" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="J226" s="406" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="K226" s="353"/>
@@ -29683,7 +30065,7 @@
       <c r="S226" s="145"/>
       <c r="T226" s="144"/>
       <c r="U226" s="146" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="Y226" s="14"/>
@@ -29692,11 +30074,11 @@
       </c>
       <c r="AB226" s="40"/>
       <c r="AC226" s="29" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AD226" s="41" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -29706,11 +30088,11 @@
       </c>
       <c r="B227" s="356"/>
       <c r="C227" s="407">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>120</v>
       </c>
       <c r="D227" s="408" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="E227" s="595" t="str">
@@ -29718,17 +30100,17 @@
         <v/>
       </c>
       <c r="F227" s="406" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="G227" s="353"/>
       <c r="H227" s="353"/>
       <c r="I227" s="406" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="J227" s="406" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="K227" s="353"/>
@@ -29744,7 +30126,7 @@
       <c r="S227" s="145"/>
       <c r="T227" s="144"/>
       <c r="U227" s="146" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="Y227" s="14"/>
@@ -29753,11 +30135,11 @@
       </c>
       <c r="AB227" s="40"/>
       <c r="AC227" s="29" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AD227" s="41" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -29778,11 +30160,11 @@
       <c r="G228" s="353"/>
       <c r="H228" s="353"/>
       <c r="I228" s="413" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="J228" s="413" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="K228" s="353"/>
@@ -29798,7 +30180,7 @@
       <c r="S228" s="147"/>
       <c r="T228" s="134"/>
       <c r="U228" s="148" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="Y228" s="14"/>
@@ -29807,11 +30189,11 @@
       </c>
       <c r="AB228" s="40"/>
       <c r="AC228" s="29" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AD228" s="41" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -29835,11 +30217,11 @@
         <v>275</v>
       </c>
       <c r="I229" s="414" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="J229" s="414" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="K229" s="353"/>
@@ -29852,11 +30234,11 @@
       </c>
       <c r="AB229" s="40"/>
       <c r="AC229" s="29" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AD229" s="41" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -29874,11 +30256,11 @@
         <v>276</v>
       </c>
       <c r="I230" s="415" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="J230" s="415" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="K230" s="353"/>
@@ -29905,11 +30287,11 @@
       </c>
       <c r="AB230" s="40"/>
       <c r="AC230" s="29" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AD230" s="41" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -29927,11 +30309,11 @@
         <v>277</v>
       </c>
       <c r="I231" s="416" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="J231" s="415" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="K231" s="353"/>
@@ -29958,11 +30340,11 @@
       </c>
       <c r="AB231" s="40"/>
       <c r="AC231" s="29" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AD231" s="41" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -29980,11 +30362,11 @@
         <v>180</v>
       </c>
       <c r="I232" s="417" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="J232" s="417" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="K232" s="353"/>
@@ -30008,11 +30390,11 @@
       </c>
       <c r="AB232" s="40"/>
       <c r="AC232" s="29" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AD232" s="41" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -30054,11 +30436,11 @@
       </c>
       <c r="AB233" s="40"/>
       <c r="AC233" s="29" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AD233" s="41" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -30114,7 +30496,7 @@
       </c>
       <c r="AB235" s="28"/>
       <c r="AC235" s="29" t="str">
-        <f t="shared" ref="AC235:AC243" si="38">IF(AB235&lt;&gt;AD235,"Change","")</f>
+        <f t="shared" ref="AC235:AC243" si="36">IF(AB235&lt;&gt;AD235,"Change","")</f>
         <v/>
       </c>
       <c r="AD235" s="30" t="str">
@@ -30164,7 +30546,7 @@
       </c>
       <c r="AB236" s="28"/>
       <c r="AC236" s="29" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AD236" s="30" t="str">
@@ -30222,7 +30604,7 @@
       </c>
       <c r="AB237" s="28"/>
       <c r="AC237" s="29" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AD237" s="30"/>
@@ -30271,7 +30653,7 @@
       </c>
       <c r="AB238" s="28"/>
       <c r="AC238" s="29" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AD238" s="30"/>
@@ -30320,7 +30702,7 @@
       </c>
       <c r="AB239" s="28"/>
       <c r="AC239" s="29" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AD239" s="30"/>
@@ -30358,11 +30740,11 @@
       <c r="S240" s="84"/>
       <c r="T240" s="84"/>
       <c r="U240" s="171" t="str">
-        <f t="shared" ref="U240:V243" si="39">IF(S240="","",S240*60)</f>
+        <f t="shared" ref="U240:V243" si="37">IF(S240="","",S240*60)</f>
         <v/>
       </c>
       <c r="V240" s="171" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W240" s="172" t="str">
@@ -30379,7 +30761,7 @@
       </c>
       <c r="AB240" s="28"/>
       <c r="AC240" s="29" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AD240" s="30"/>
@@ -30415,11 +30797,11 @@
       <c r="S241" s="93"/>
       <c r="T241" s="93"/>
       <c r="U241" s="176" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="V241" s="176" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W241" s="177" t="str">
@@ -30436,7 +30818,7 @@
       </c>
       <c r="AB241" s="28"/>
       <c r="AC241" s="29" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AD241" s="30"/>
@@ -30475,11 +30857,11 @@
       <c r="S242" s="84"/>
       <c r="T242" s="84"/>
       <c r="U242" s="171" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="V242" s="171" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W242" s="172" t="str">
@@ -30496,7 +30878,7 @@
       </c>
       <c r="AB242" s="28"/>
       <c r="AC242" s="29" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AD242" s="30"/>
@@ -30532,11 +30914,11 @@
       <c r="S243" s="93"/>
       <c r="T243" s="93"/>
       <c r="U243" s="176" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="V243" s="176" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W243" s="177" t="str">
@@ -30553,7 +30935,7 @@
       </c>
       <c r="AB243" s="28"/>
       <c r="AC243" s="29" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AD243" s="30" t="str">
@@ -31099,13 +31481,13 @@
       <c r="Q258" s="83"/>
       <c r="R258" s="84"/>
       <c r="S258" s="184" t="str">
-        <f t="shared" ref="S258:S265" si="40">IF(OR(Q258="",R258=""),"",R258-Q258)</f>
+        <f t="shared" ref="S258:S265" si="38">IF(OR(Q258="",R258=""),"",R258-Q258)</f>
         <v/>
       </c>
       <c r="T258" s="84"/>
       <c r="U258" s="84"/>
       <c r="V258" s="184" t="str">
-        <f t="shared" ref="V258:V265" si="41">IF(OR(T258="",U258=""),"",U258-T258)</f>
+        <f t="shared" ref="V258:V265" si="39">IF(OR(T258="",U258=""),"",U258-T258)</f>
         <v/>
       </c>
       <c r="W258" s="83"/>
@@ -31135,13 +31517,13 @@
       <c r="Q259" s="87"/>
       <c r="R259" s="88"/>
       <c r="S259" s="185" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="T259" s="88"/>
       <c r="U259" s="88"/>
       <c r="V259" s="185" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="W259" s="87"/>
@@ -31178,13 +31560,13 @@
       <c r="Q260" s="87"/>
       <c r="R260" s="88"/>
       <c r="S260" s="185" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="T260" s="88"/>
       <c r="U260" s="88"/>
       <c r="V260" s="185" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="W260" s="87"/>
@@ -31214,13 +31596,13 @@
       <c r="Q261" s="87"/>
       <c r="R261" s="88"/>
       <c r="S261" s="185" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="T261" s="88"/>
       <c r="U261" s="88"/>
       <c r="V261" s="185" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="W261" s="87"/>
@@ -31257,13 +31639,13 @@
       <c r="Q262" s="87"/>
       <c r="R262" s="88"/>
       <c r="S262" s="185" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="T262" s="88"/>
       <c r="U262" s="88"/>
       <c r="V262" s="185" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="W262" s="87"/>
@@ -31296,13 +31678,13 @@
       <c r="Q263" s="87"/>
       <c r="R263" s="88"/>
       <c r="S263" s="185" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="T263" s="88"/>
       <c r="U263" s="88"/>
       <c r="V263" s="185" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="W263" s="87"/>
@@ -31342,13 +31724,13 @@
       <c r="Q264" s="87"/>
       <c r="R264" s="88"/>
       <c r="S264" s="185" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="T264" s="88"/>
       <c r="U264" s="88"/>
       <c r="V264" s="185" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="W264" s="87"/>
@@ -31370,13 +31752,13 @@
       <c r="Q265" s="92"/>
       <c r="R265" s="93"/>
       <c r="S265" s="186" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="T265" s="93"/>
       <c r="U265" s="93"/>
       <c r="V265" s="186" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="W265" s="92"/>
@@ -31496,11 +31878,11 @@
       </c>
       <c r="B268" s="331"/>
       <c r="C268" s="421" t="str">
-        <f t="shared" ref="C268:D270" si="42">O106</f>
+        <f t="shared" ref="C268:D270" si="40">O106</f>
         <v>Image</v>
       </c>
       <c r="D268" s="422" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>Acrylic</v>
       </c>
       <c r="E268" s="42"/>
@@ -31513,11 +31895,11 @@
       <c r="L268" s="42"/>
       <c r="M268" s="342"/>
       <c r="O268" s="189" t="str">
-        <f t="shared" ref="O268:P275" si="43">IF(O258="","",O258)</f>
+        <f t="shared" ref="O268:P275" si="41">IF(O258="","",O258)</f>
         <v/>
       </c>
       <c r="P268" s="190" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="Q268" s="190"/>
@@ -31538,11 +31920,11 @@
       </c>
       <c r="B269" s="331"/>
       <c r="C269" s="421" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>Mode</v>
       </c>
       <c r="D269" s="422" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>Attenuator</v>
       </c>
       <c r="E269" s="614" t="str">
@@ -31564,11 +31946,11 @@
       <c r="L269" s="616"/>
       <c r="M269" s="617"/>
       <c r="O269" s="191" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="P269" s="129" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="Q269" s="129"/>
@@ -31596,11 +31978,11 @@
       </c>
       <c r="B270" s="331"/>
       <c r="C270" s="421" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>(cm)</v>
       </c>
       <c r="D270" s="422" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>(cm)</v>
       </c>
       <c r="E270" s="42" t="str">
@@ -31640,11 +32022,11 @@
         <v>mGy/min</v>
       </c>
       <c r="O270" s="191" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="P270" s="129" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="Q270" s="129"/>
@@ -31669,51 +32051,51 @@
         <v xml:space="preserve"> cm</v>
       </c>
       <c r="D271" s="423">
-        <f t="shared" ref="D271:D286" si="44">P109</f>
+        <f t="shared" ref="D271:D286" si="42">P109</f>
         <v>10</v>
       </c>
       <c r="E271" s="385">
-        <f t="shared" ref="E271:E286" si="45">IF(Q109="","",Q109)</f>
+        <f t="shared" ref="E271:E286" si="43">IF(Q109="","",Q109)</f>
         <v>0</v>
       </c>
       <c r="F271" s="391">
-        <f t="shared" ref="F271:F286" si="46">IF(R109="","",R109)</f>
+        <f t="shared" ref="F271:F286" si="44">IF(R109="","",R109)</f>
         <v>0</v>
       </c>
       <c r="G271" s="386">
-        <f t="shared" ref="G271:G286" si="47">IF(S109="","",S109)</f>
+        <f t="shared" ref="G271:G286" si="45">IF(S109="","",S109)</f>
         <v>0</v>
       </c>
       <c r="H271" s="385">
-        <f t="shared" ref="H271:H286" si="48">IF(T109="","",T109)</f>
+        <f t="shared" ref="H271:H286" si="46">IF(T109="","",T109)</f>
         <v>0</v>
       </c>
       <c r="I271" s="391">
-        <f t="shared" ref="I271:I286" si="49">IF(U109="","",U109)</f>
+        <f t="shared" ref="I271:I286" si="47">IF(U109="","",U109)</f>
         <v>0</v>
       </c>
       <c r="J271" s="386">
-        <f t="shared" ref="J271:J286" si="50">IF(V109="","",V109)</f>
+        <f t="shared" ref="J271:J286" si="48">IF(V109="","",V109)</f>
         <v>0</v>
       </c>
       <c r="K271" s="438">
-        <f t="shared" ref="K271:K286" si="51">IF(W109="","",W109)</f>
+        <f t="shared" ref="K271:K286" si="49">IF(W109="","",W109)</f>
         <v>0</v>
       </c>
       <c r="L271" s="391">
-        <f t="shared" ref="L271:L286" si="52">IF(X109="","",X109)</f>
+        <f t="shared" ref="L271:L286" si="50">IF(X109="","",X109)</f>
         <v>0</v>
       </c>
       <c r="M271" s="433">
-        <f t="shared" ref="M271:M286" si="53">IF(Y109="","",Y109)</f>
+        <f t="shared" ref="M271:M286" si="51">IF(Y109="","",Y109)</f>
         <v>0</v>
       </c>
       <c r="O271" s="191" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="P271" s="129" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="Q271" s="129"/>
@@ -31742,51 +32124,51 @@
       <c r="B272" s="331"/>
       <c r="C272" s="621"/>
       <c r="D272" s="421">
+        <f t="shared" si="42"/>
+        <v>20</v>
+      </c>
+      <c r="E272" s="387">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F272" s="392">
         <f t="shared" si="44"/>
-        <v>20</v>
-      </c>
-      <c r="E272" s="387">
+        <v>0</v>
+      </c>
+      <c r="G272" s="388">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="F272" s="392">
+      <c r="H272" s="387">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="G272" s="388">
+      <c r="I272" s="392">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="H272" s="387">
+      <c r="J272" s="388">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="I272" s="392">
+      <c r="K272" s="439">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="J272" s="388">
+      <c r="L272" s="392">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="K272" s="439">
+      <c r="M272" s="434">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="L272" s="392">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="M272" s="434">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
       <c r="O272" s="191" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="P272" s="129" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="Q272" s="129"/>
@@ -31808,51 +32190,51 @@
       <c r="B273" s="331"/>
       <c r="C273" s="621"/>
       <c r="D273" s="424">
+        <f t="shared" si="42"/>
+        <v>30</v>
+      </c>
+      <c r="E273" s="389">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F273" s="393">
         <f t="shared" si="44"/>
-        <v>30</v>
-      </c>
-      <c r="E273" s="389">
+        <v>0</v>
+      </c>
+      <c r="G273" s="390">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="F273" s="393">
+      <c r="H273" s="389">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="G273" s="390">
+      <c r="I273" s="393">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="H273" s="389">
+      <c r="J273" s="390">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="I273" s="393">
+      <c r="K273" s="440">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="J273" s="390">
+      <c r="L273" s="393">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="K273" s="440">
+      <c r="M273" s="435">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="L273" s="393">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="M273" s="435">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
       <c r="O273" s="191" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="P273" s="129" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="Q273" s="129"/>
@@ -31884,51 +32266,51 @@
         <v xml:space="preserve"> cm</v>
       </c>
       <c r="D274" s="423">
+        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="E274" s="385">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F274" s="391">
         <f t="shared" si="44"/>
-        <v>10</v>
-      </c>
-      <c r="E274" s="385">
+        <v>0</v>
+      </c>
+      <c r="G274" s="386">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="F274" s="391">
+      <c r="H274" s="385">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="G274" s="386">
+      <c r="I274" s="391">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="H274" s="385">
+      <c r="J274" s="386">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="I274" s="391">
+      <c r="K274" s="438">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="J274" s="386">
+      <c r="L274" s="391">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="K274" s="438">
+      <c r="M274" s="433">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="L274" s="391">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="M274" s="433">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
       <c r="O274" s="191" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="P274" s="129" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="Q274" s="129"/>
@@ -31950,51 +32332,51 @@
       <c r="B275" s="331"/>
       <c r="C275" s="621"/>
       <c r="D275" s="421">
+        <f t="shared" si="42"/>
+        <v>20</v>
+      </c>
+      <c r="E275" s="387">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F275" s="392">
         <f t="shared" si="44"/>
-        <v>20</v>
-      </c>
-      <c r="E275" s="387">
+        <v>0</v>
+      </c>
+      <c r="G275" s="388">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="F275" s="392">
+      <c r="H275" s="387">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="G275" s="388">
+      <c r="I275" s="392">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="H275" s="387">
+      <c r="J275" s="388">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="I275" s="392">
+      <c r="K275" s="439">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="J275" s="388">
+      <c r="L275" s="392">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="K275" s="439">
+      <c r="M275" s="434">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="L275" s="392">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="M275" s="434">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
       <c r="O275" s="200" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="P275" s="201" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="Q275" s="201"/>
@@ -32023,43 +32405,43 @@
       <c r="B276" s="331"/>
       <c r="C276" s="621"/>
       <c r="D276" s="424">
+        <f t="shared" si="42"/>
+        <v>30</v>
+      </c>
+      <c r="E276" s="389">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F276" s="393">
         <f t="shared" si="44"/>
-        <v>30</v>
-      </c>
-      <c r="E276" s="389">
+        <v>0</v>
+      </c>
+      <c r="G276" s="390">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="F276" s="393">
+      <c r="H276" s="389">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="G276" s="390">
+      <c r="I276" s="393">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="H276" s="389">
+      <c r="J276" s="390">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="I276" s="393">
+      <c r="K276" s="440">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="J276" s="390">
+      <c r="L276" s="393">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="K276" s="440">
+      <c r="M276" s="435">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="L276" s="393">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="M276" s="435">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O276" s="622" t="s">
@@ -32099,43 +32481,43 @@
         <v xml:space="preserve"> cm</v>
       </c>
       <c r="D277" s="423">
+        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="E277" s="385">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F277" s="391">
         <f t="shared" si="44"/>
-        <v>10</v>
-      </c>
-      <c r="E277" s="385">
+        <v>0</v>
+      </c>
+      <c r="G277" s="386">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="F277" s="391">
+      <c r="H277" s="385">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="G277" s="386">
+      <c r="I277" s="391">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="H277" s="385">
+      <c r="J277" s="386">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="I277" s="391">
+      <c r="K277" s="438">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="J277" s="386">
+      <c r="L277" s="391">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="K277" s="438">
+      <c r="M277" s="433">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="L277" s="391">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="M277" s="433">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O277" s="622"/>
@@ -32178,43 +32560,43 @@
       <c r="B278" s="331"/>
       <c r="C278" s="621"/>
       <c r="D278" s="421">
+        <f t="shared" si="42"/>
+        <v>20</v>
+      </c>
+      <c r="E278" s="387">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F278" s="392">
         <f t="shared" si="44"/>
-        <v>20</v>
-      </c>
-      <c r="E278" s="387">
+        <v>0</v>
+      </c>
+      <c r="G278" s="388">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="F278" s="392">
+      <c r="H278" s="387">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="G278" s="388">
+      <c r="I278" s="392">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="H278" s="387">
+      <c r="J278" s="388">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="I278" s="392">
+      <c r="K278" s="439">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="J278" s="388">
+      <c r="L278" s="392">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="K278" s="439">
+      <c r="M278" s="434">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="L278" s="392">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="M278" s="434">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O278" s="245" t="str">
@@ -32222,35 +32604,35 @@
         <v/>
       </c>
       <c r="P278" s="190" t="str">
-        <f t="shared" ref="P278:P285" si="54">IF(S268="","",S268)</f>
+        <f t="shared" ref="P278:P285" si="52">IF(S268="","",S268)</f>
         <v/>
       </c>
       <c r="Q278" s="574" t="str">
-        <f t="shared" ref="Q278:Q285" si="55">IF(OR(O278="",P278=""),"",(P278-O278)/O278)</f>
+        <f t="shared" ref="Q278:Q285" si="53">IF(OR(O278="",P278=""),"",(P278-O278)/O278)</f>
         <v/>
       </c>
       <c r="R278" s="190" t="str">
-        <f t="shared" ref="R278:R285" si="56">IF(V258="","",V258)</f>
+        <f t="shared" ref="R278:R285" si="54">IF(V258="","",V258)</f>
         <v/>
       </c>
       <c r="S278" s="203" t="str">
-        <f t="shared" ref="S278:S285" si="57">IF(OR($O$254="",Q268=""),"",$O$254*Q268)</f>
+        <f t="shared" ref="S278:S285" si="55">IF(OR($O$254="",Q268=""),"",$O$254*Q268)</f>
         <v/>
       </c>
       <c r="T278" s="574" t="str">
-        <f t="shared" ref="T278:T285" si="58">IF(OR(R278="",S278=""),"",(S278-R278)/R278)</f>
+        <f t="shared" ref="T278:T285" si="56">IF(OR(R278="",S278=""),"",(S278-R278)/R278)</f>
         <v/>
       </c>
       <c r="U278" s="190" t="str">
-        <f t="shared" ref="U278:U285" si="59">IF(W258="","",W258)</f>
+        <f t="shared" ref="U278:U285" si="57">IF(W258="","",W258)</f>
         <v/>
       </c>
       <c r="V278" s="190" t="str">
-        <f t="shared" ref="V278:V285" si="60">IF(AND(X258="",R268=""),"",IF(NOT(ISBLANK(X258)),X258,IF(NOT(ISBLANK(R268)),R268,"")))</f>
+        <f t="shared" ref="V278:V285" si="58">IF(AND(X258="",R268=""),"",IF(NOT(ISBLANK(X258)),X258,IF(NOT(ISBLANK(R268)),R268,"")))</f>
         <v/>
       </c>
       <c r="W278" s="204" t="str">
-        <f t="shared" ref="W278:W285" si="61">IF(OR(V278="",U278=""),"",(V278-U278)/V278)</f>
+        <f t="shared" ref="W278:W285" si="59">IF(OR(V278="",U278=""),"",(V278-U278)/V278)</f>
         <v/>
       </c>
       <c r="X278"/>
@@ -32265,43 +32647,43 @@
       <c r="B279" s="331"/>
       <c r="C279" s="621"/>
       <c r="D279" s="424">
+        <f t="shared" si="42"/>
+        <v>30</v>
+      </c>
+      <c r="E279" s="389">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F279" s="393">
         <f t="shared" si="44"/>
-        <v>30</v>
-      </c>
-      <c r="E279" s="389">
+        <v>0</v>
+      </c>
+      <c r="G279" s="390">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="F279" s="393">
+      <c r="H279" s="389">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="G279" s="390">
+      <c r="I279" s="393">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="H279" s="389">
+      <c r="J279" s="390">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="I279" s="393">
+      <c r="K279" s="440">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="J279" s="390">
+      <c r="L279" s="393">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="K279" s="440">
+      <c r="M279" s="435">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="L279" s="393">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="M279" s="435">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O279" s="191" t="str">
@@ -32309,35 +32691,35 @@
         <v/>
       </c>
       <c r="P279" s="570" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="Q279" s="575" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="R279" s="570" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="Q279" s="575" t="str">
+      <c r="S279" s="206" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="R279" s="570" t="str">
+      <c r="T279" s="575" t="str">
         <f t="shared" si="56"/>
         <v/>
       </c>
-      <c r="S279" s="206" t="str">
+      <c r="U279" s="576" t="str">
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="T279" s="575" t="str">
+      <c r="V279" s="570" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
-      <c r="U279" s="576" t="str">
+      <c r="W279" s="207" t="str">
         <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="V279" s="570" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-      <c r="W279" s="207" t="str">
-        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="X279"/>
@@ -32362,43 +32744,43 @@
         <v xml:space="preserve"> cm</v>
       </c>
       <c r="D280" s="423">
+        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="E280" s="385">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F280" s="391">
         <f t="shared" si="44"/>
-        <v>10</v>
-      </c>
-      <c r="E280" s="385">
+        <v>0</v>
+      </c>
+      <c r="G280" s="386">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="F280" s="391">
+      <c r="H280" s="385">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="G280" s="386">
+      <c r="I280" s="391">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="H280" s="385">
+      <c r="J280" s="386">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="I280" s="391">
+      <c r="K280" s="438">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="J280" s="386">
+      <c r="L280" s="391">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="K280" s="438">
+      <c r="M280" s="433">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="L280" s="391">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="M280" s="433">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O280" s="191" t="str">
@@ -32406,35 +32788,35 @@
         <v/>
       </c>
       <c r="P280" s="570" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="Q280" s="575" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="R280" s="570" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="Q280" s="575" t="str">
+      <c r="S280" s="206" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="R280" s="570" t="str">
+      <c r="T280" s="575" t="str">
         <f t="shared" si="56"/>
         <v/>
       </c>
-      <c r="S280" s="206" t="str">
+      <c r="U280" s="576" t="str">
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="T280" s="575" t="str">
+      <c r="V280" s="570" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
-      <c r="U280" s="576" t="str">
+      <c r="W280" s="207" t="str">
         <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="V280" s="570" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-      <c r="W280" s="207" t="str">
-        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="X280"/>
@@ -32459,43 +32841,43 @@
       <c r="B281" s="331"/>
       <c r="C281" s="621"/>
       <c r="D281" s="421">
+        <f t="shared" si="42"/>
+        <v>20</v>
+      </c>
+      <c r="E281" s="387">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F281" s="392">
         <f t="shared" si="44"/>
-        <v>20</v>
-      </c>
-      <c r="E281" s="387">
+        <v>0</v>
+      </c>
+      <c r="G281" s="388">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="F281" s="392">
+      <c r="H281" s="387">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="G281" s="388">
+      <c r="I281" s="392">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="H281" s="387">
+      <c r="J281" s="388">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="I281" s="392">
+      <c r="K281" s="439">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="J281" s="388">
+      <c r="L281" s="392">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="K281" s="439">
+      <c r="M281" s="434">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="L281" s="392">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="M281" s="434">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O281" s="191" t="str">
@@ -32503,35 +32885,35 @@
         <v/>
       </c>
       <c r="P281" s="570" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="Q281" s="575" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="R281" s="570" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="Q281" s="575" t="str">
+      <c r="S281" s="206" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="R281" s="570" t="str">
+      <c r="T281" s="575" t="str">
         <f t="shared" si="56"/>
         <v/>
       </c>
-      <c r="S281" s="206" t="str">
+      <c r="U281" s="570" t="str">
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="T281" s="575" t="str">
+      <c r="V281" s="570" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
-      <c r="U281" s="570" t="str">
+      <c r="W281" s="207" t="str">
         <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="V281" s="570" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-      <c r="W281" s="207" t="str">
-        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="X281"/>
@@ -32546,43 +32928,43 @@
       <c r="B282" s="331"/>
       <c r="C282" s="621"/>
       <c r="D282" s="424">
+        <f t="shared" si="42"/>
+        <v>30</v>
+      </c>
+      <c r="E282" s="389">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F282" s="393">
         <f t="shared" si="44"/>
-        <v>30</v>
-      </c>
-      <c r="E282" s="389">
+        <v>0</v>
+      </c>
+      <c r="G282" s="390">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="F282" s="393">
+      <c r="H282" s="389">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="G282" s="390">
+      <c r="I282" s="393">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="H282" s="389">
+      <c r="J282" s="390">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="I282" s="393">
+      <c r="K282" s="440">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="J282" s="390">
+      <c r="L282" s="393">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="K282" s="440">
+      <c r="M282" s="435">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="L282" s="393">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="M282" s="435">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O282" s="191" t="str">
@@ -32590,35 +32972,35 @@
         <v/>
       </c>
       <c r="P282" s="570" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="Q282" s="575" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="R282" s="570" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="Q282" s="575" t="str">
+      <c r="S282" s="206" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="R282" s="570" t="str">
+      <c r="T282" s="575" t="str">
         <f t="shared" si="56"/>
         <v/>
       </c>
-      <c r="S282" s="206" t="str">
+      <c r="U282" s="570" t="str">
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="T282" s="575" t="str">
+      <c r="V282" s="570" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
-      <c r="U282" s="570" t="str">
+      <c r="W282" s="207" t="str">
         <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="V282" s="570" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-      <c r="W282" s="207" t="str">
-        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="X282"/>
@@ -32643,43 +33025,43 @@
         <v xml:space="preserve"> cm</v>
       </c>
       <c r="D283" s="423">
+        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="E283" s="436">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F283" s="412">
         <f t="shared" si="44"/>
-        <v>10</v>
-      </c>
-      <c r="E283" s="436">
+        <v>0</v>
+      </c>
+      <c r="G283" s="442">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="F283" s="412">
+      <c r="H283" s="436">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="G283" s="442">
+      <c r="I283" s="412">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="H283" s="436">
+      <c r="J283" s="442">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="I283" s="412">
+      <c r="K283" s="441">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="J283" s="442">
+      <c r="L283" s="412">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="K283" s="441">
+      <c r="M283" s="437">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="L283" s="412">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="M283" s="437">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O283" s="191" t="str">
@@ -32687,35 +33069,35 @@
         <v/>
       </c>
       <c r="P283" s="570" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="Q283" s="575" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="R283" s="570" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="Q283" s="575" t="str">
+      <c r="S283" s="206" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="R283" s="570" t="str">
+      <c r="T283" s="575" t="str">
         <f t="shared" si="56"/>
         <v/>
       </c>
-      <c r="S283" s="206" t="str">
+      <c r="U283" s="570" t="str">
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="T283" s="575" t="str">
+      <c r="V283" s="570" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
-      <c r="U283" s="570" t="str">
+      <c r="W283" s="207" t="str">
         <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="V283" s="570" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-      <c r="W283" s="207" t="str">
-        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="X283"/>
@@ -32730,43 +33112,43 @@
       <c r="B284" s="331"/>
       <c r="C284" s="621"/>
       <c r="D284" s="421">
+        <f t="shared" si="42"/>
+        <v>20</v>
+      </c>
+      <c r="E284" s="387">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F284" s="392">
         <f t="shared" si="44"/>
-        <v>20</v>
-      </c>
-      <c r="E284" s="387">
+        <v>0</v>
+      </c>
+      <c r="G284" s="388">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="F284" s="392">
+      <c r="H284" s="387">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="G284" s="388">
+      <c r="I284" s="392">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="H284" s="387">
+      <c r="J284" s="388">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="I284" s="392">
+      <c r="K284" s="439">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="J284" s="388">
+      <c r="L284" s="392">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="K284" s="439">
+      <c r="M284" s="434">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="L284" s="392">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="M284" s="434">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O284" s="191" t="str">
@@ -32774,35 +33156,35 @@
         <v/>
       </c>
       <c r="P284" s="570" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="Q284" s="575" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="R284" s="570" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="Q284" s="575" t="str">
+      <c r="S284" s="206" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="R284" s="570" t="str">
+      <c r="T284" s="575" t="str">
         <f t="shared" si="56"/>
         <v/>
       </c>
-      <c r="S284" s="206" t="str">
+      <c r="U284" s="570" t="str">
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="T284" s="575" t="str">
+      <c r="V284" s="570" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
-      <c r="U284" s="570" t="str">
+      <c r="W284" s="207" t="str">
         <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="V284" s="570" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-      <c r="W284" s="207" t="str">
-        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="X284"/>
@@ -32824,43 +33206,43 @@
       <c r="B285" s="331"/>
       <c r="C285" s="621"/>
       <c r="D285" s="421">
+        <f t="shared" si="42"/>
+        <v>30</v>
+      </c>
+      <c r="E285" s="389">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F285" s="393">
         <f t="shared" si="44"/>
-        <v>30</v>
-      </c>
-      <c r="E285" s="389">
+        <v>0</v>
+      </c>
+      <c r="G285" s="390">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="F285" s="393">
+      <c r="H285" s="389">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="G285" s="390">
+      <c r="I285" s="393">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="H285" s="389">
+      <c r="J285" s="390">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="I285" s="393">
+      <c r="K285" s="440">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="J285" s="390">
+      <c r="L285" s="393">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="K285" s="440">
+      <c r="M285" s="435">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="L285" s="393">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="M285" s="435">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O285" s="200" t="str">
@@ -32868,35 +33250,35 @@
         <v/>
       </c>
       <c r="P285" s="201" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="Q285" s="577" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="R285" s="201" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="Q285" s="577" t="str">
+      <c r="S285" s="208" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="R285" s="201" t="str">
+      <c r="T285" s="577" t="str">
         <f t="shared" si="56"/>
         <v/>
       </c>
-      <c r="S285" s="208" t="str">
+      <c r="U285" s="201" t="str">
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="T285" s="577" t="str">
+      <c r="V285" s="201" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
-      <c r="U285" s="201" t="str">
+      <c r="W285" s="209" t="str">
         <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="V285" s="201" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-      <c r="W285" s="209" t="str">
-        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="X285"/>
@@ -32911,43 +33293,43 @@
       <c r="B286" s="331"/>
       <c r="C286" s="419"/>
       <c r="D286" s="425" t="str">
+        <f t="shared" si="42"/>
+        <v>max</v>
+      </c>
+      <c r="E286" s="426">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F286" s="427">
         <f t="shared" si="44"/>
-        <v>max</v>
-      </c>
-      <c r="E286" s="426">
+        <v>0</v>
+      </c>
+      <c r="G286" s="428">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="F286" s="427">
+      <c r="H286" s="426">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="G286" s="428">
+      <c r="I286" s="427">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="H286" s="426">
+      <c r="J286" s="428">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="I286" s="427">
+      <c r="K286" s="429">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="J286" s="428">
+      <c r="L286" s="430">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="K286" s="429">
+      <c r="M286" s="431">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="L286" s="430">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="M286" s="431">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O286" s="149"/>
@@ -33023,7 +33405,7 @@
       <c r="B288" s="331"/>
       <c r="C288" s="135"/>
       <c r="D288" s="369" t="str">
-        <f t="shared" ref="D288:D293" si="62">P126</f>
+        <f t="shared" ref="D288:D293" si="60">P126</f>
         <v>*Measured at:</v>
       </c>
       <c r="E288" s="135"/>
@@ -33085,7 +33467,7 @@
       <c r="B289" s="331"/>
       <c r="C289" s="135"/>
       <c r="D289" s="370" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v>Undertable fluoroscopy units: 1 cm above table top</v>
       </c>
       <c r="E289" s="135"/>
@@ -33120,7 +33502,7 @@
       <c r="B290" s="331"/>
       <c r="C290" s="135"/>
       <c r="D290" s="370" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v>Overhead tube fluoroscopy units: 30 cm above table top (Tube as close as possible to measuring point)</v>
       </c>
       <c r="E290" s="135"/>
@@ -33160,7 +33542,7 @@
       <c r="B291" s="331"/>
       <c r="C291" s="135"/>
       <c r="D291" s="370" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v>C-arm fluoroscopy units: 30 cm from image receptor input (Tube at any ID, but spacer no closer than measuring point</v>
       </c>
       <c r="E291" s="135"/>
@@ -33201,7 +33583,7 @@
       <c r="B292" s="331"/>
       <c r="C292" s="135"/>
       <c r="D292" s="370" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v>Lateral fluoroscopy units: 15 cm from center line of table and towards the tube (Position table and tube so spacer is as close as possible to measuring point)</v>
       </c>
       <c r="E292" s="135"/>
@@ -33241,7 +33623,7 @@
       <c r="B293" s="331"/>
       <c r="C293" s="135"/>
       <c r="D293" s="230" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v>Criteria:</v>
       </c>
       <c r="E293" s="371" t="str">
@@ -33671,23 +34053,23 @@
         <v>Auto 1</v>
       </c>
       <c r="D303" s="460" t="str">
-        <f t="shared" ref="D303:D317" si="63">IF(P190="","",P190)</f>
+        <f t="shared" ref="D303:D317" si="61">IF(P190="","",P190)</f>
         <v/>
       </c>
       <c r="E303" s="461" t="str">
-        <f t="shared" ref="E303:E317" si="64">IF(Q190="","",Q190)</f>
+        <f t="shared" ref="E303:E317" si="62">IF(Q190="","",Q190)</f>
         <v/>
       </c>
       <c r="F303" s="461" t="str">
-        <f t="shared" ref="F303:F317" si="65">IF(R190="","",R190)</f>
+        <f t="shared" ref="F303:F317" si="63">IF(R190="","",R190)</f>
         <v/>
       </c>
       <c r="G303" s="462" t="str">
-        <f t="shared" ref="G303:G317" si="66">IF(S190="","",S190)</f>
+        <f t="shared" ref="G303:G317" si="64">IF(S190="","",S190)</f>
         <v/>
       </c>
       <c r="H303" s="460" t="str">
-        <f t="shared" ref="H303:H317" si="67">IF(T190="","",T190)</f>
+        <f t="shared" ref="H303:H317" si="65">IF(T190="","",T190)</f>
         <v/>
       </c>
       <c r="I303" s="135"/>
@@ -33729,23 +34111,23 @@
       <c r="B304" s="331"/>
       <c r="C304" s="630"/>
       <c r="D304" s="463" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="E304" s="464" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="F304" s="464" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="E304" s="464" t="str">
+      <c r="G304" s="465" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="F304" s="464" t="str">
+      <c r="H304" s="463" t="str">
         <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="G304" s="465" t="str">
-        <f t="shared" si="66"/>
-        <v/>
-      </c>
-      <c r="H304" s="463" t="str">
-        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="I304" s="135"/>
@@ -33799,23 +34181,23 @@
       <c r="B305" s="331"/>
       <c r="C305" s="630"/>
       <c r="D305" s="463" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="E305" s="464" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="F305" s="464" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="E305" s="464" t="str">
+      <c r="G305" s="465" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="F305" s="464" t="str">
+      <c r="H305" s="463" t="str">
         <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="G305" s="465" t="str">
-        <f t="shared" si="66"/>
-        <v/>
-      </c>
-      <c r="H305" s="463" t="str">
-        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="I305" s="135"/>
@@ -33847,23 +34229,23 @@
       <c r="B306" s="331"/>
       <c r="C306" s="630"/>
       <c r="D306" s="463" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="E306" s="464" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="F306" s="464" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="E306" s="464" t="str">
+      <c r="G306" s="465" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="F306" s="464" t="str">
+      <c r="H306" s="463" t="str">
         <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="G306" s="465" t="str">
-        <f t="shared" si="66"/>
-        <v/>
-      </c>
-      <c r="H306" s="463" t="str">
-        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="I306" s="135"/>
@@ -33899,23 +34281,23 @@
       <c r="B307" s="331"/>
       <c r="C307" s="631"/>
       <c r="D307" s="466" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="E307" s="467" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="F307" s="467" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="E307" s="467" t="str">
+      <c r="G307" s="468" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="F307" s="467" t="str">
+      <c r="H307" s="466" t="str">
         <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="G307" s="468" t="str">
-        <f t="shared" si="66"/>
-        <v/>
-      </c>
-      <c r="H307" s="466" t="str">
-        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="I307" s="135"/>
@@ -33947,23 +34329,23 @@
         <v/>
       </c>
       <c r="D308" s="460" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="E308" s="461" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="F308" s="461" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="E308" s="461" t="str">
+      <c r="G308" s="462" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="F308" s="461" t="str">
+      <c r="H308" s="460" t="str">
         <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="G308" s="462" t="str">
-        <f t="shared" si="66"/>
-        <v/>
-      </c>
-      <c r="H308" s="460" t="str">
-        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="I308" s="135"/>
@@ -33999,23 +34381,23 @@
       <c r="B309" s="331"/>
       <c r="C309" s="630"/>
       <c r="D309" s="463" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="E309" s="464" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="F309" s="464" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="E309" s="464" t="str">
+      <c r="G309" s="465" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="F309" s="464" t="str">
+      <c r="H309" s="463" t="str">
         <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="G309" s="465" t="str">
-        <f t="shared" si="66"/>
-        <v/>
-      </c>
-      <c r="H309" s="463" t="str">
-        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="I309" s="135"/>
@@ -34052,23 +34434,23 @@
       <c r="B310" s="331"/>
       <c r="C310" s="630"/>
       <c r="D310" s="463" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="E310" s="464" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="F310" s="464" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="E310" s="464" t="str">
+      <c r="G310" s="465" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="F310" s="464" t="str">
+      <c r="H310" s="463" t="str">
         <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="G310" s="465" t="str">
-        <f t="shared" si="66"/>
-        <v/>
-      </c>
-      <c r="H310" s="463" t="str">
-        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="I310" s="135"/>
@@ -34112,23 +34494,23 @@
       <c r="B311" s="331"/>
       <c r="C311" s="630"/>
       <c r="D311" s="463" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="E311" s="464" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="F311" s="464" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="E311" s="464" t="str">
+      <c r="G311" s="465" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="F311" s="464" t="str">
+      <c r="H311" s="463" t="str">
         <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="G311" s="465" t="str">
-        <f t="shared" si="66"/>
-        <v/>
-      </c>
-      <c r="H311" s="463" t="str">
-        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="I311" s="135"/>
@@ -34165,23 +34547,23 @@
       <c r="B312" s="331"/>
       <c r="C312" s="632"/>
       <c r="D312" s="469" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="E312" s="470" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="F312" s="470" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="E312" s="470" t="str">
+      <c r="G312" s="471" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="F312" s="470" t="str">
+      <c r="H312" s="469" t="str">
         <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="G312" s="471" t="str">
-        <f t="shared" si="66"/>
-        <v/>
-      </c>
-      <c r="H312" s="469" t="str">
-        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="I312" s="135"/>
@@ -34225,23 +34607,23 @@
         <v xml:space="preserve">Auto </v>
       </c>
       <c r="D313" s="472" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="E313" s="473" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="F313" s="473" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="E313" s="473" t="str">
+      <c r="G313" s="474" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="F313" s="473" t="str">
+      <c r="H313" s="472" t="str">
         <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="G313" s="474" t="str">
-        <f t="shared" si="66"/>
-        <v/>
-      </c>
-      <c r="H313" s="472" t="str">
-        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="I313" s="135"/>
@@ -34274,23 +34656,23 @@
       <c r="B314" s="331"/>
       <c r="C314" s="630"/>
       <c r="D314" s="463" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="E314" s="464" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="F314" s="464" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="E314" s="464" t="str">
+      <c r="G314" s="465" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="F314" s="464" t="str">
+      <c r="H314" s="463" t="str">
         <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="G314" s="465" t="str">
-        <f t="shared" si="66"/>
-        <v/>
-      </c>
-      <c r="H314" s="463" t="str">
-        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="I314" s="135"/>
@@ -34326,23 +34708,23 @@
       <c r="B315" s="331"/>
       <c r="C315" s="630"/>
       <c r="D315" s="463" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="E315" s="464" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="F315" s="464" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="E315" s="464" t="str">
+      <c r="G315" s="465" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="F315" s="464" t="str">
+      <c r="H315" s="463" t="str">
         <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="G315" s="465" t="str">
-        <f t="shared" si="66"/>
-        <v/>
-      </c>
-      <c r="H315" s="463" t="str">
-        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="I315" s="202"/>
@@ -34371,23 +34753,23 @@
       <c r="B316" s="331"/>
       <c r="C316" s="630"/>
       <c r="D316" s="463" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="E316" s="464" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="F316" s="464" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="E316" s="464" t="str">
+      <c r="G316" s="465" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="F316" s="464" t="str">
+      <c r="H316" s="463" t="str">
         <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="G316" s="465" t="str">
-        <f t="shared" si="66"/>
-        <v/>
-      </c>
-      <c r="H316" s="463" t="str">
-        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="I316" s="202"/>
@@ -34425,23 +34807,23 @@
       <c r="B317" s="331"/>
       <c r="C317" s="632"/>
       <c r="D317" s="469" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="E317" s="470" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="F317" s="470" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="E317" s="470" t="str">
+      <c r="G317" s="471" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="F317" s="470" t="str">
+      <c r="H317" s="469" t="str">
         <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="G317" s="471" t="str">
-        <f t="shared" si="66"/>
-        <v/>
-      </c>
-      <c r="H317" s="469" t="str">
-        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="I317" s="202"/>
@@ -34504,6 +34886,18 @@
       </c>
       <c r="X318" s="53"/>
       <c r="Y318" s="183"/>
+      <c r="AA318" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="AB318" s="28"/>
+      <c r="AC318" s="29" t="str">
+        <f>IF(AB318&lt;&gt;AD318,"Change","")</f>
+        <v/>
+      </c>
+      <c r="AD318" s="30" t="str">
+        <f>IF(O48="","",O48)</f>
+        <v/>
+      </c>
     </row>
     <row r="319" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3">
@@ -34627,27 +35021,27 @@
       <c r="C322" s="135"/>
       <c r="D322" s="228"/>
       <c r="E322" s="42" t="str">
-        <f t="shared" ref="E322:H323" si="68">Q236</f>
+        <f t="shared" ref="E322:H323" si="66">Q236</f>
         <v>kVp</v>
       </c>
       <c r="F322" s="42" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>mA</v>
       </c>
       <c r="G322" s="42" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>mGy/min</v>
       </c>
       <c r="H322" s="42" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>uGy/hr</v>
       </c>
       <c r="I322" s="42" t="str">
-        <f t="shared" ref="I322:J325" si="69">U238</f>
+        <f t="shared" ref="I322:J325" si="67">U238</f>
         <v>Unshielded</v>
       </c>
       <c r="J322" s="42" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>Shielded</v>
       </c>
       <c r="K322" s="202"/>
@@ -34685,27 +35079,27 @@
         <v>Transmission* @ 10cm</v>
       </c>
       <c r="E323" s="483">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="F323" s="483">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="G323" s="483">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="H323" s="484">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="I323" s="42" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>uGy/hr</v>
       </c>
       <c r="J323" s="42" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>uGy/hr</v>
       </c>
       <c r="K323" s="202"/>
@@ -34756,11 +35150,11 @@
       <c r="G324" s="476"/>
       <c r="H324" s="477"/>
       <c r="I324" s="391" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="J324" s="386" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="K324" s="135"/>
@@ -34803,11 +35197,11 @@
       <c r="G325" s="479"/>
       <c r="H325" s="480"/>
       <c r="I325" s="457" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="J325" s="481" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="K325" s="135"/>
@@ -35058,23 +35452,23 @@
         <v>Test equipment:</v>
       </c>
       <c r="I333" s="557" t="str">
-        <f t="shared" ref="I333:M333" si="70">I267</f>
+        <f t="shared" ref="I333:M333" si="68">I267</f>
         <v>Radcal 90-2123</v>
       </c>
       <c r="J333" s="556" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v>Calibration date:</v>
       </c>
       <c r="K333" s="564">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v>43670</v>
       </c>
       <c r="L333" s="556" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v>Calibration due:</v>
       </c>
       <c r="M333" s="565">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v>44036</v>
       </c>
       <c r="O333" s="130"/>
@@ -35094,11 +35488,11 @@
       </c>
       <c r="B334" s="331"/>
       <c r="C334" s="421" t="str">
-        <f t="shared" ref="C334:D336" si="71">O138</f>
+        <f t="shared" ref="C334:D336" si="69">O138</f>
         <v>Image</v>
       </c>
       <c r="D334" s="421" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v>Acrylic</v>
       </c>
       <c r="E334" s="42"/>
@@ -35127,11 +35521,11 @@
       </c>
       <c r="B335" s="331"/>
       <c r="C335" s="421" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v>Mode</v>
       </c>
       <c r="D335" s="421" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v>Attenuator</v>
       </c>
       <c r="E335" s="614" t="str">
@@ -35169,11 +35563,11 @@
       </c>
       <c r="B336" s="331"/>
       <c r="C336" s="424" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v>(cm)</v>
       </c>
       <c r="D336" s="421" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v>(cm)</v>
       </c>
       <c r="E336" s="42" t="str">
@@ -35233,43 +35627,43 @@
         <v xml:space="preserve"> cm</v>
       </c>
       <c r="D337" s="491">
-        <f t="shared" ref="D337:D352" si="72">P141</f>
+        <f t="shared" ref="D337:D352" si="70">P141</f>
         <v>10</v>
       </c>
       <c r="E337" s="385">
-        <f t="shared" ref="E337:E352" si="73">IF(Q141="","",Q141)</f>
+        <f t="shared" ref="E337:E352" si="71">IF(Q141="","",Q141)</f>
         <v>0</v>
       </c>
       <c r="F337" s="391">
-        <f t="shared" ref="F337:F352" si="74">IF(R141="","",R141)</f>
+        <f t="shared" ref="F337:F352" si="72">IF(R141="","",R141)</f>
         <v>0</v>
       </c>
       <c r="G337" s="386">
-        <f t="shared" ref="G337:G352" si="75">IF(S141="","",S141)</f>
+        <f t="shared" ref="G337:G352" si="73">IF(S141="","",S141)</f>
         <v>0</v>
       </c>
       <c r="H337" s="438">
-        <f t="shared" ref="H337:H352" si="76">IF(T141="","",T141)</f>
+        <f t="shared" ref="H337:H352" si="74">IF(T141="","",T141)</f>
         <v>0</v>
       </c>
       <c r="I337" s="391">
-        <f t="shared" ref="I337:I352" si="77">IF(U141="","",U141)</f>
+        <f t="shared" ref="I337:I352" si="75">IF(U141="","",U141)</f>
         <v>0</v>
       </c>
       <c r="J337" s="386">
-        <f t="shared" ref="J337:J352" si="78">IF(V141="","",V141)</f>
+        <f t="shared" ref="J337:J352" si="76">IF(V141="","",V141)</f>
         <v>0</v>
       </c>
       <c r="K337" s="438">
-        <f t="shared" ref="K337:K352" si="79">IF(W141="","",W141)</f>
+        <f t="shared" ref="K337:K352" si="77">IF(W141="","",W141)</f>
         <v>0</v>
       </c>
       <c r="L337" s="391">
-        <f t="shared" ref="L337:L352" si="80">IF(X141="","",X141)</f>
+        <f t="shared" ref="L337:L352" si="78">IF(X141="","",X141)</f>
         <v>0</v>
       </c>
       <c r="M337" s="433">
-        <f t="shared" ref="M337:M352" si="81">IF(Y141="","",Y141)</f>
+        <f t="shared" ref="M337:M352" si="79">IF(Y141="","",Y141)</f>
         <v>0</v>
       </c>
       <c r="O337" s="130"/>
@@ -35290,43 +35684,43 @@
       <c r="B338" s="331"/>
       <c r="C338" s="621"/>
       <c r="D338" s="492">
+        <f t="shared" si="70"/>
+        <v>20</v>
+      </c>
+      <c r="E338" s="387">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F338" s="392">
         <f t="shared" si="72"/>
-        <v>20</v>
-      </c>
-      <c r="E338" s="387">
+        <v>0</v>
+      </c>
+      <c r="G338" s="388">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="F338" s="392">
+      <c r="H338" s="439">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="G338" s="388">
+      <c r="I338" s="392">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="H338" s="439">
+      <c r="J338" s="388">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="I338" s="392">
+      <c r="K338" s="439">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="J338" s="388">
+      <c r="L338" s="392">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="K338" s="439">
+      <c r="M338" s="434">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="L338" s="392">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="M338" s="434">
-        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O338" s="130"/>
@@ -35347,43 +35741,43 @@
       <c r="B339" s="331"/>
       <c r="C339" s="621"/>
       <c r="D339" s="493">
+        <f t="shared" si="70"/>
+        <v>30</v>
+      </c>
+      <c r="E339" s="489">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F339" s="458">
         <f t="shared" si="72"/>
-        <v>30</v>
-      </c>
-      <c r="E339" s="489">
+        <v>0</v>
+      </c>
+      <c r="G339" s="459">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="F339" s="458">
+      <c r="H339" s="496">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="G339" s="459">
+      <c r="I339" s="458">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="H339" s="496">
+      <c r="J339" s="459">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="I339" s="458">
+      <c r="K339" s="496">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="J339" s="459">
+      <c r="L339" s="458">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="K339" s="496">
+      <c r="M339" s="490">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="L339" s="458">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="M339" s="490">
-        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O339" s="130"/>
@@ -35407,43 +35801,43 @@
         <v xml:space="preserve"> cm</v>
       </c>
       <c r="D340" s="491">
+        <f t="shared" si="70"/>
+        <v>10</v>
+      </c>
+      <c r="E340" s="385">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F340" s="391">
         <f t="shared" si="72"/>
-        <v>10</v>
-      </c>
-      <c r="E340" s="385">
+        <v>0</v>
+      </c>
+      <c r="G340" s="386">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="F340" s="391">
+      <c r="H340" s="438">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="G340" s="386">
+      <c r="I340" s="391">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="H340" s="438">
+      <c r="J340" s="386">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="I340" s="391">
+      <c r="K340" s="438">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="J340" s="386">
+      <c r="L340" s="391">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="K340" s="438">
+      <c r="M340" s="433">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="L340" s="391">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="M340" s="433">
-        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O340" s="130"/>
@@ -35464,43 +35858,43 @@
       <c r="B341" s="331"/>
       <c r="C341" s="621"/>
       <c r="D341" s="492">
+        <f t="shared" si="70"/>
+        <v>20</v>
+      </c>
+      <c r="E341" s="387">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F341" s="392">
         <f t="shared" si="72"/>
-        <v>20</v>
-      </c>
-      <c r="E341" s="387">
+        <v>0</v>
+      </c>
+      <c r="G341" s="388">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="F341" s="392">
+      <c r="H341" s="439">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="G341" s="388">
+      <c r="I341" s="392">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="H341" s="439">
+      <c r="J341" s="388">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="I341" s="392">
+      <c r="K341" s="439">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="J341" s="388">
+      <c r="L341" s="392">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="K341" s="439">
+      <c r="M341" s="434">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="L341" s="392">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="M341" s="434">
-        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O341" s="130"/>
@@ -35521,43 +35915,43 @@
       <c r="B342" s="331"/>
       <c r="C342" s="621"/>
       <c r="D342" s="494">
+        <f t="shared" si="70"/>
+        <v>30</v>
+      </c>
+      <c r="E342" s="389">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F342" s="393">
         <f t="shared" si="72"/>
-        <v>30</v>
-      </c>
-      <c r="E342" s="389">
+        <v>0</v>
+      </c>
+      <c r="G342" s="390">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="F342" s="393">
+      <c r="H342" s="440">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="G342" s="390">
+      <c r="I342" s="393">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="H342" s="440">
+      <c r="J342" s="390">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="I342" s="393">
+      <c r="K342" s="440">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="J342" s="390">
+      <c r="L342" s="393">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="K342" s="440">
+      <c r="M342" s="435">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="L342" s="393">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="M342" s="435">
-        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O342" s="130"/>
@@ -35581,43 +35975,43 @@
         <v xml:space="preserve"> cm</v>
       </c>
       <c r="D343" s="495">
+        <f t="shared" si="70"/>
+        <v>10</v>
+      </c>
+      <c r="E343" s="436">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F343" s="412">
         <f t="shared" si="72"/>
-        <v>10</v>
-      </c>
-      <c r="E343" s="436">
+        <v>0</v>
+      </c>
+      <c r="G343" s="442">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="F343" s="412">
+      <c r="H343" s="441">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="G343" s="442">
+      <c r="I343" s="412">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="H343" s="441">
+      <c r="J343" s="442">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="I343" s="412">
+      <c r="K343" s="441">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="J343" s="442">
+      <c r="L343" s="412">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="K343" s="441">
+      <c r="M343" s="437">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="L343" s="412">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="M343" s="437">
-        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O343" s="13"/>
@@ -35630,43 +36024,43 @@
       <c r="B344" s="331"/>
       <c r="C344" s="621"/>
       <c r="D344" s="492">
+        <f t="shared" si="70"/>
+        <v>20</v>
+      </c>
+      <c r="E344" s="387">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F344" s="392">
         <f t="shared" si="72"/>
-        <v>20</v>
-      </c>
-      <c r="E344" s="387">
+        <v>0</v>
+      </c>
+      <c r="G344" s="388">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="F344" s="392">
+      <c r="H344" s="439">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="G344" s="388">
+      <c r="I344" s="392">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="H344" s="439">
+      <c r="J344" s="388">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="I344" s="392">
+      <c r="K344" s="439">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="J344" s="388">
+      <c r="L344" s="392">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="K344" s="439">
+      <c r="M344" s="434">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="L344" s="392">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="M344" s="434">
-        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O344" s="13"/>
@@ -35692,43 +36086,43 @@
       <c r="B345" s="331"/>
       <c r="C345" s="621"/>
       <c r="D345" s="493">
+        <f t="shared" si="70"/>
+        <v>30</v>
+      </c>
+      <c r="E345" s="489">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F345" s="458">
         <f t="shared" si="72"/>
-        <v>30</v>
-      </c>
-      <c r="E345" s="489">
+        <v>0</v>
+      </c>
+      <c r="G345" s="459">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="F345" s="458">
+      <c r="H345" s="496">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="G345" s="459">
+      <c r="I345" s="458">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="H345" s="496">
+      <c r="J345" s="459">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="I345" s="458">
+      <c r="K345" s="496">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="J345" s="459">
+      <c r="L345" s="458">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="K345" s="496">
+      <c r="M345" s="490">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="L345" s="458">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="M345" s="490">
-        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O345" s="13"/>
@@ -35758,43 +36152,43 @@
         <v xml:space="preserve"> cm</v>
       </c>
       <c r="D346" s="491">
+        <f t="shared" si="70"/>
+        <v>10</v>
+      </c>
+      <c r="E346" s="385">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F346" s="391">
         <f t="shared" si="72"/>
-        <v>10</v>
-      </c>
-      <c r="E346" s="385">
+        <v>0</v>
+      </c>
+      <c r="G346" s="386">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="F346" s="391">
+      <c r="H346" s="438">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="G346" s="386">
+      <c r="I346" s="391">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="H346" s="438">
+      <c r="J346" s="386">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="I346" s="391">
+      <c r="K346" s="438">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="J346" s="386">
+      <c r="L346" s="391">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="K346" s="438">
+      <c r="M346" s="433">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="L346" s="391">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="M346" s="433">
-        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O346" s="13"/>
@@ -35818,43 +36212,43 @@
       <c r="B347" s="331"/>
       <c r="C347" s="621"/>
       <c r="D347" s="492">
+        <f t="shared" si="70"/>
+        <v>20</v>
+      </c>
+      <c r="E347" s="387">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F347" s="392">
         <f t="shared" si="72"/>
-        <v>20</v>
-      </c>
-      <c r="E347" s="387">
+        <v>0</v>
+      </c>
+      <c r="G347" s="388">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="F347" s="392">
+      <c r="H347" s="439">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="G347" s="388">
+      <c r="I347" s="392">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="H347" s="439">
+      <c r="J347" s="388">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="I347" s="392">
+      <c r="K347" s="439">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="J347" s="388">
+      <c r="L347" s="392">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="K347" s="439">
+      <c r="M347" s="434">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="L347" s="392">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="M347" s="434">
-        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O347" s="21"/>
@@ -35876,43 +36270,43 @@
       <c r="B348" s="331"/>
       <c r="C348" s="621"/>
       <c r="D348" s="494">
+        <f t="shared" si="70"/>
+        <v>30</v>
+      </c>
+      <c r="E348" s="389">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F348" s="393">
         <f t="shared" si="72"/>
-        <v>30</v>
-      </c>
-      <c r="E348" s="389">
+        <v>0</v>
+      </c>
+      <c r="G348" s="390">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="F348" s="393">
+      <c r="H348" s="440">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="G348" s="390">
+      <c r="I348" s="393">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="H348" s="440">
+      <c r="J348" s="390">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="I348" s="393">
+      <c r="K348" s="440">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="J348" s="390">
+      <c r="L348" s="393">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="K348" s="440">
+      <c r="M348" s="435">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="L348" s="393">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="M348" s="435">
-        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O348" s="115" t="s">
@@ -35957,43 +36351,43 @@
         <v xml:space="preserve"> cm</v>
       </c>
       <c r="D349" s="495">
+        <f t="shared" si="70"/>
+        <v>10</v>
+      </c>
+      <c r="E349" s="436">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F349" s="412">
         <f t="shared" si="72"/>
-        <v>10</v>
-      </c>
-      <c r="E349" s="436">
+        <v>0</v>
+      </c>
+      <c r="G349" s="442">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="F349" s="412">
+      <c r="H349" s="441">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="G349" s="442">
+      <c r="I349" s="412">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="H349" s="441">
+      <c r="J349" s="442">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="I349" s="412">
+      <c r="K349" s="441">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="J349" s="442">
+      <c r="L349" s="412">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="K349" s="441">
+      <c r="M349" s="437">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="L349" s="412">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="M349" s="437">
-        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O349" s="13"/>
@@ -36017,43 +36411,43 @@
       <c r="B350" s="331"/>
       <c r="C350" s="621"/>
       <c r="D350" s="492">
+        <f t="shared" si="70"/>
+        <v>20</v>
+      </c>
+      <c r="E350" s="387">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F350" s="392">
         <f t="shared" si="72"/>
-        <v>20</v>
-      </c>
-      <c r="E350" s="387">
+        <v>0</v>
+      </c>
+      <c r="G350" s="388">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="F350" s="392">
+      <c r="H350" s="439">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="G350" s="388">
+      <c r="I350" s="392">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="H350" s="439">
+      <c r="J350" s="388">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="I350" s="392">
+      <c r="K350" s="439">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="J350" s="388">
+      <c r="L350" s="392">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="K350" s="439">
+      <c r="M350" s="434">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="L350" s="392">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="M350" s="434">
-        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O350" s="13"/>
@@ -36076,43 +36470,43 @@
       <c r="B351" s="331"/>
       <c r="C351" s="621"/>
       <c r="D351" s="494">
+        <f t="shared" si="70"/>
+        <v>30</v>
+      </c>
+      <c r="E351" s="389">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F351" s="393">
         <f t="shared" si="72"/>
-        <v>30</v>
-      </c>
-      <c r="E351" s="389">
+        <v>0</v>
+      </c>
+      <c r="G351" s="390">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="F351" s="393">
+      <c r="H351" s="440">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="G351" s="390">
+      <c r="I351" s="393">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="H351" s="440">
+      <c r="J351" s="390">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="I351" s="393">
+      <c r="K351" s="440">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="J351" s="390">
+      <c r="L351" s="393">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="K351" s="440">
+      <c r="M351" s="435">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="L351" s="393">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="M351" s="435">
-        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O351" s="13"/>
@@ -36149,43 +36543,43 @@
       <c r="B352" s="331"/>
       <c r="C352" s="487"/>
       <c r="D352" s="425" t="str">
+        <f t="shared" si="70"/>
+        <v>max</v>
+      </c>
+      <c r="E352" s="426">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F352" s="427">
         <f t="shared" si="72"/>
-        <v>max</v>
-      </c>
-      <c r="E352" s="426">
+        <v>0</v>
+      </c>
+      <c r="G352" s="428">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="F352" s="427">
+      <c r="H352" s="426">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="G352" s="428">
+      <c r="I352" s="427">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="H352" s="426">
+      <c r="J352" s="428">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="I352" s="427">
+      <c r="K352" s="426">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="J352" s="428">
+      <c r="L352" s="427">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="K352" s="426">
+      <c r="M352" s="488">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="L352" s="427">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="M352" s="488">
-        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O352" s="13"/>
@@ -36687,23 +37081,23 @@
         <v>Auto 1</v>
       </c>
       <c r="D366" s="460" t="str">
-        <f t="shared" ref="D366:D380" si="82">IF(P214="","",P214)</f>
+        <f t="shared" ref="D366:D380" si="80">IF(P214="","",P214)</f>
         <v/>
       </c>
       <c r="E366" s="461" t="str">
-        <f t="shared" ref="E366:E380" si="83">IF(Q214="","",Q214)</f>
+        <f t="shared" ref="E366:E380" si="81">IF(Q214="","",Q214)</f>
         <v/>
       </c>
       <c r="F366" s="461" t="str">
-        <f t="shared" ref="F366:F380" si="84">IF(R214="","",R214)</f>
+        <f t="shared" ref="F366:F380" si="82">IF(R214="","",R214)</f>
         <v/>
       </c>
       <c r="G366" s="462" t="str">
-        <f t="shared" ref="G366:G380" si="85">IF(S214="","",S214)</f>
+        <f t="shared" ref="G366:G380" si="83">IF(S214="","",S214)</f>
         <v/>
       </c>
       <c r="H366" s="581" t="str">
-        <f t="shared" ref="H366:H380" si="86">IF(T214="","",T214)</f>
+        <f t="shared" ref="H366:H380" si="84">IF(T214="","",T214)</f>
         <v/>
       </c>
       <c r="I366" s="135"/>
@@ -36735,23 +37129,23 @@
       <c r="B367" s="331"/>
       <c r="C367" s="627"/>
       <c r="D367" s="463" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="E367" s="464" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="F367" s="464" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="E367" s="464" t="str">
+      <c r="G367" s="465" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="F367" s="464" t="str">
+      <c r="H367" s="582" t="str">
         <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="G367" s="465" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="H367" s="582" t="str">
-        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="I367" s="135"/>
@@ -36781,23 +37175,23 @@
       <c r="B368" s="331"/>
       <c r="C368" s="627"/>
       <c r="D368" s="463" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="E368" s="464" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="F368" s="464" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="E368" s="464" t="str">
+      <c r="G368" s="465" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="F368" s="464" t="str">
+      <c r="H368" s="582" t="str">
         <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="G368" s="465" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="H368" s="582" t="str">
-        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="I368" s="135"/>
@@ -36816,23 +37210,23 @@
       <c r="B369" s="331"/>
       <c r="C369" s="627"/>
       <c r="D369" s="463" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="E369" s="464" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="F369" s="464" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="E369" s="464" t="str">
+      <c r="G369" s="465" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="F369" s="464" t="str">
+      <c r="H369" s="582" t="str">
         <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="G369" s="465" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="H369" s="582" t="str">
-        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="I369" s="135"/>
@@ -36851,23 +37245,23 @@
       <c r="B370" s="331"/>
       <c r="C370" s="627"/>
       <c r="D370" s="469" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="E370" s="470" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="F370" s="470" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="E370" s="470" t="str">
+      <c r="G370" s="471" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="F370" s="470" t="str">
+      <c r="H370" s="583" t="str">
         <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="G370" s="471" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="H370" s="583" t="str">
-        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="I370" s="135"/>
@@ -36899,23 +37293,23 @@
         <v/>
       </c>
       <c r="D371" s="460" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="E371" s="461" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="F371" s="461" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="E371" s="461" t="str">
+      <c r="G371" s="462" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="F371" s="461" t="str">
+      <c r="H371" s="581" t="str">
         <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="G371" s="462" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="H371" s="581" t="str">
-        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="I371" s="135"/>
@@ -36946,23 +37340,23 @@
       <c r="B372" s="331"/>
       <c r="C372" s="630"/>
       <c r="D372" s="463" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="E372" s="464" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="F372" s="464" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="E372" s="464" t="str">
+      <c r="G372" s="465" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="F372" s="464" t="str">
+      <c r="H372" s="582" t="str">
         <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="G372" s="465" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="H372" s="582" t="str">
-        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="I372" s="135"/>
@@ -36996,23 +37390,23 @@
       <c r="B373" s="331"/>
       <c r="C373" s="630"/>
       <c r="D373" s="463" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="E373" s="464" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="F373" s="464" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="E373" s="464" t="str">
+      <c r="G373" s="465" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="F373" s="464" t="str">
+      <c r="H373" s="582" t="str">
         <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="G373" s="465" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="H373" s="582" t="str">
-        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="I373" s="135"/>
@@ -37043,23 +37437,23 @@
       <c r="B374" s="331"/>
       <c r="C374" s="630"/>
       <c r="D374" s="463" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="E374" s="464" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="F374" s="464" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="E374" s="464" t="str">
+      <c r="G374" s="465" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="F374" s="464" t="str">
+      <c r="H374" s="582" t="str">
         <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="G374" s="465" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="H374" s="582" t="str">
-        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="I374" s="135"/>
@@ -37093,23 +37487,23 @@
       <c r="B375" s="331"/>
       <c r="C375" s="632"/>
       <c r="D375" s="469" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="E375" s="470" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="F375" s="470" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="E375" s="470" t="str">
+      <c r="G375" s="471" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="F375" s="470" t="str">
+      <c r="H375" s="583" t="str">
         <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="G375" s="471" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="H375" s="583" t="str">
-        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="I375" s="135"/>
@@ -37143,23 +37537,23 @@
         <v xml:space="preserve">Auto </v>
       </c>
       <c r="D376" s="460" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="E376" s="461" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="F376" s="461" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="E376" s="461" t="str">
+      <c r="G376" s="462" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="F376" s="461" t="str">
+      <c r="H376" s="581" t="str">
         <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="G376" s="462" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="H376" s="581" t="str">
-        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="I376" s="135"/>
@@ -37193,23 +37587,23 @@
       <c r="B377" s="331"/>
       <c r="C377" s="651"/>
       <c r="D377" s="463" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="E377" s="464" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="F377" s="464" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="E377" s="464" t="str">
+      <c r="G377" s="465" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="F377" s="464" t="str">
+      <c r="H377" s="582" t="str">
         <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="G377" s="465" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="H377" s="582" t="str">
-        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="I377" s="135"/>
@@ -37240,23 +37634,23 @@
       <c r="B378" s="331"/>
       <c r="C378" s="651"/>
       <c r="D378" s="463" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="E378" s="464" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="F378" s="464" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="E378" s="464" t="str">
+      <c r="G378" s="465" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="F378" s="464" t="str">
+      <c r="H378" s="582" t="str">
         <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="G378" s="465" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="H378" s="582" t="str">
-        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="I378" s="202"/>
@@ -37290,23 +37684,23 @@
       <c r="B379" s="331"/>
       <c r="C379" s="651"/>
       <c r="D379" s="463" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="E379" s="464" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="F379" s="464" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="E379" s="464" t="str">
+      <c r="G379" s="465" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="F379" s="464" t="str">
+      <c r="H379" s="582" t="str">
         <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="G379" s="465" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="H379" s="582" t="str">
-        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="I379" s="202"/>
@@ -37337,23 +37731,23 @@
       <c r="B380" s="331"/>
       <c r="C380" s="652"/>
       <c r="D380" s="469" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="E380" s="470" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="F380" s="470" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="E380" s="470" t="str">
+      <c r="G380" s="471" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="F380" s="470" t="str">
+      <c r="H380" s="583" t="str">
         <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="G380" s="471" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="H380" s="583" t="str">
-        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="I380" s="202"/>
@@ -38138,15 +38532,15 @@
         <v/>
       </c>
       <c r="E401" s="584" t="str">
-        <f t="shared" ref="E401:G405" si="87">IF(P319="","",VLOOKUP(P319,LeedsMS,2))</f>
+        <f t="shared" ref="E401:G405" si="85">IF(P319="","",VLOOKUP(P319,LeedsMS,2))</f>
         <v/>
       </c>
       <c r="F401" s="585" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="G401" s="586" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="H401" s="501" t="str">
@@ -38194,15 +38588,15 @@
         <v/>
       </c>
       <c r="E402" s="587" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="F402" s="588" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="G402" s="589" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="H402" s="383" t="str">
@@ -38251,15 +38645,15 @@
         <v/>
       </c>
       <c r="E403" s="587" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="F403" s="588" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="G403" s="589" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="H403" s="383" t="str">
@@ -38307,15 +38701,15 @@
         <v/>
       </c>
       <c r="E404" s="587" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="F404" s="588" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="G404" s="589" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="H404" s="383" t="str">
@@ -38364,15 +38758,15 @@
         <v/>
       </c>
       <c r="E405" s="590" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="F405" s="591" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="G405" s="592" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="H405" s="384" t="str">
@@ -38732,23 +39126,23 @@
         <v>350</v>
       </c>
       <c r="D415" s="522" t="str">
-        <f t="shared" ref="D415:D426" si="88">IF(Q331="","",HLOOKUP(Q331,TO10Values,MATCH($P331,TO10Group,0)))</f>
+        <f t="shared" ref="D415:D426" si="86">IF(Q331="","",HLOOKUP(Q331,TO10Values,MATCH($P331,TO10Group,0)))</f>
         <v/>
       </c>
       <c r="E415" s="523" t="str">
-        <f t="shared" ref="E415:E426" si="89">IF(R331="","",HLOOKUP(R331,TO10Values,MATCH($P331,TO10Group,0)))</f>
+        <f t="shared" ref="E415:E426" si="87">IF(R331="","",HLOOKUP(R331,TO10Values,MATCH($P331,TO10Group,0)))</f>
         <v/>
       </c>
       <c r="F415" s="523" t="str">
-        <f t="shared" ref="F415:F426" si="90">IF(S331="","",HLOOKUP(S331,TO10Values,MATCH($P331,TO10Group,0)))</f>
+        <f t="shared" ref="F415:F426" si="88">IF(S331="","",HLOOKUP(S331,TO10Values,MATCH($P331,TO10Group,0)))</f>
         <v/>
       </c>
       <c r="G415" s="523" t="str">
-        <f t="shared" ref="G415:G426" si="91">IF(T331="","",HLOOKUP(T331,TO10Values,MATCH($P331,TO10Group,0)))</f>
+        <f t="shared" ref="G415:G426" si="89">IF(T331="","",HLOOKUP(T331,TO10Values,MATCH($P331,TO10Group,0)))</f>
         <v/>
       </c>
       <c r="H415" s="524" t="str">
-        <f t="shared" ref="H415:H426" si="92">IF(U331="","",HLOOKUP(U331,TO10Values,MATCH($P331,TO10Group,0)))</f>
+        <f t="shared" ref="H415:H426" si="90">IF(U331="","",HLOOKUP(U331,TO10Values,MATCH($P331,TO10Group,0)))</f>
         <v/>
       </c>
       <c r="I415" s="525" t="str">
@@ -38796,23 +39190,23 @@
         <v>351</v>
       </c>
       <c r="D416" s="510" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="E416" s="511" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="F416" s="511" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="E416" s="511" t="str">
+      <c r="G416" s="511" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="F416" s="511" t="str">
+      <c r="H416" s="514" t="str">
         <f t="shared" si="90"/>
-        <v/>
-      </c>
-      <c r="G416" s="511" t="str">
-        <f t="shared" si="91"/>
-        <v/>
-      </c>
-      <c r="H416" s="514" t="str">
-        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="I416" s="516" t="str">
@@ -38861,23 +39255,23 @@
         <v>352</v>
       </c>
       <c r="D417" s="510" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="E417" s="511" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="F417" s="511" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="E417" s="511" t="str">
+      <c r="G417" s="511" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="F417" s="511" t="str">
+      <c r="H417" s="514" t="str">
         <f t="shared" si="90"/>
-        <v/>
-      </c>
-      <c r="G417" s="511" t="str">
-        <f t="shared" si="91"/>
-        <v/>
-      </c>
-      <c r="H417" s="514" t="str">
-        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="I417" s="516" t="str">
@@ -38925,23 +39319,23 @@
         <v>353</v>
       </c>
       <c r="D418" s="510" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="E418" s="511" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="F418" s="511" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="E418" s="511" t="str">
+      <c r="G418" s="511" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="F418" s="511" t="str">
+      <c r="H418" s="514" t="str">
         <f t="shared" si="90"/>
-        <v/>
-      </c>
-      <c r="G418" s="511" t="str">
-        <f t="shared" si="91"/>
-        <v/>
-      </c>
-      <c r="H418" s="514" t="str">
-        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="I418" s="516" t="str">
@@ -38990,23 +39384,23 @@
         <v>354</v>
       </c>
       <c r="D419" s="510" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="E419" s="511" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="F419" s="511" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="E419" s="511" t="str">
+      <c r="G419" s="511" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="F419" s="511" t="str">
+      <c r="H419" s="514" t="str">
         <f t="shared" si="90"/>
-        <v/>
-      </c>
-      <c r="G419" s="511" t="str">
-        <f t="shared" si="91"/>
-        <v/>
-      </c>
-      <c r="H419" s="514" t="str">
-        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="I419" s="516" t="str">
@@ -39054,23 +39448,23 @@
         <v>355</v>
       </c>
       <c r="D420" s="510" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="E420" s="511" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="F420" s="511" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="E420" s="511" t="str">
+      <c r="G420" s="511" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="F420" s="511" t="str">
+      <c r="H420" s="514" t="str">
         <f t="shared" si="90"/>
-        <v/>
-      </c>
-      <c r="G420" s="511" t="str">
-        <f t="shared" si="91"/>
-        <v/>
-      </c>
-      <c r="H420" s="514" t="str">
-        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="I420" s="516" t="str">
@@ -39119,23 +39513,23 @@
         <v>356</v>
       </c>
       <c r="D421" s="510" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="E421" s="511" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="F421" s="511" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="E421" s="511" t="str">
+      <c r="G421" s="511" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="F421" s="511" t="str">
+      <c r="H421" s="514" t="str">
         <f t="shared" si="90"/>
-        <v/>
-      </c>
-      <c r="G421" s="511" t="str">
-        <f t="shared" si="91"/>
-        <v/>
-      </c>
-      <c r="H421" s="514" t="str">
-        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="I421" s="516" t="str">
@@ -39183,23 +39577,23 @@
         <v>357</v>
       </c>
       <c r="D422" s="510" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="E422" s="511" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="F422" s="511" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="E422" s="511" t="str">
+      <c r="G422" s="511" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="F422" s="511" t="str">
+      <c r="H422" s="514" t="str">
         <f t="shared" si="90"/>
-        <v/>
-      </c>
-      <c r="G422" s="511" t="str">
-        <f t="shared" si="91"/>
-        <v/>
-      </c>
-      <c r="H422" s="514" t="str">
-        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="I422" s="516" t="str">
@@ -39248,23 +39642,23 @@
         <v>358</v>
       </c>
       <c r="D423" s="510" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="E423" s="511" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="F423" s="511" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="E423" s="511" t="str">
+      <c r="G423" s="511" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="F423" s="511" t="str">
+      <c r="H423" s="514" t="str">
         <f t="shared" si="90"/>
-        <v/>
-      </c>
-      <c r="G423" s="511" t="str">
-        <f t="shared" si="91"/>
-        <v/>
-      </c>
-      <c r="H423" s="514" t="str">
-        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="I423" s="516" t="str">
@@ -39312,23 +39706,23 @@
         <v>359</v>
       </c>
       <c r="D424" s="510" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="E424" s="511" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="F424" s="511" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="E424" s="511" t="str">
+      <c r="G424" s="511" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="F424" s="511" t="str">
+      <c r="H424" s="514" t="str">
         <f t="shared" si="90"/>
-        <v/>
-      </c>
-      <c r="G424" s="511" t="str">
-        <f t="shared" si="91"/>
-        <v/>
-      </c>
-      <c r="H424" s="514" t="str">
-        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="I424" s="516" t="str">
@@ -39377,23 +39771,23 @@
         <v>360</v>
       </c>
       <c r="D425" s="510" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="E425" s="511" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="F425" s="511" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="E425" s="511" t="str">
+      <c r="G425" s="511" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="F425" s="511" t="str">
+      <c r="H425" s="514" t="str">
         <f t="shared" si="90"/>
-        <v/>
-      </c>
-      <c r="G425" s="511" t="str">
-        <f t="shared" si="91"/>
-        <v/>
-      </c>
-      <c r="H425" s="514" t="str">
-        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="I425" s="516" t="str">
@@ -39441,23 +39835,23 @@
         <v>361</v>
       </c>
       <c r="D426" s="512" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="E426" s="513" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="F426" s="513" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="E426" s="513" t="str">
+      <c r="G426" s="513" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="F426" s="513" t="str">
+      <c r="H426" s="515" t="str">
         <f t="shared" si="90"/>
-        <v/>
-      </c>
-      <c r="G426" s="513" t="str">
-        <f t="shared" si="91"/>
-        <v/>
-      </c>
-      <c r="H426" s="515" t="str">
-        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="I426" s="519" t="str">
@@ -39732,23 +40126,23 @@
         <v>Horizontal</v>
       </c>
       <c r="E433" s="456" t="str">
-        <f t="shared" ref="E433:I436" si="93">IF(Q349="","",Q349)</f>
+        <f t="shared" ref="E433:I436" si="91">IF(Q349="","",Q349)</f>
         <v/>
       </c>
       <c r="F433" s="456" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="G433" s="456" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="H433" s="456" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="I433" s="532" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="J433" s="202"/>
@@ -39782,23 +40176,23 @@
         <v>Vertical</v>
       </c>
       <c r="E434" s="456" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="F434" s="456" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="G434" s="456" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="H434" s="456" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="I434" s="532" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="J434" s="202"/>
@@ -39833,23 +40227,23 @@
         <v>Diagonal</v>
       </c>
       <c r="E435" s="456" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="F435" s="456" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="G435" s="456" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="H435" s="456" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="I435" s="532" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="J435" s="135"/>
@@ -39883,23 +40277,23 @@
         <v>Acceptable</v>
       </c>
       <c r="E436" s="393" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>NA</v>
       </c>
       <c r="F436" s="393" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>NA</v>
       </c>
       <c r="G436" s="393" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>NA</v>
       </c>
       <c r="H436" s="393" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>NA</v>
       </c>
       <c r="I436" s="390" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>NA</v>
       </c>
       <c r="J436" s="135"/>
@@ -40074,15 +40468,15 @@
       <c r="C441" s="135"/>
       <c r="D441" s="42"/>
       <c r="E441" s="42" t="str">
-        <f t="shared" ref="E441:G442" si="94">P357</f>
+        <f t="shared" ref="E441:G442" si="92">P357</f>
         <v>Measured</v>
       </c>
       <c r="F441" s="42" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>Difference</v>
       </c>
       <c r="G441" s="42" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>Sum</v>
       </c>
       <c r="H441" s="135"/>
@@ -40118,15 +40512,15 @@
         <v>Top</v>
       </c>
       <c r="E442" s="391" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="F442" s="636" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="G442" s="638" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="H442" s="202"/>
@@ -46803,33 +47197,33 @@
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M70:M76 M79:M87 M90:M110 M113:M118 M121:M125">
+  <conditionalFormatting sqref="M70:M76 M79:M87 M90:M110 M113:M118 M121:M126">
     <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L70:L76 L79:L87 L90:L110 L113:L118 L121:L125">
+  <conditionalFormatting sqref="L70:L76 L79:L87 L90:L110 L113:L118 L121:L126">
     <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T295:T298">
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="between">
+      <formula>-0.05</formula>
       <formula>0.05</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="11" operator="lessThan">
       <formula>-0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="between">
-      <formula>-0.05</formula>
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P311">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46839,11 +47233,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E436:I436">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.9055118110236221" bottom="1.0236220472440944" header="0.78740157480314965" footer="0.78740157480314965"/>
@@ -46867,7 +47261,7 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Tables!$A$112:$A$116</xm:f>

--- a/MUSCCArm.xlsx
+++ b/MUSCCArm.xlsx
@@ -40,8 +40,6 @@
     <definedName name="EXP_5" localSheetId="0">Fluoro!$U$179</definedName>
     <definedName name="ExpChartDAPage" localSheetId="0">Fluoro!$B$331:$M$396</definedName>
     <definedName name="ExpChartFluoroPage" localSheetId="0">Fluoro!$B$265:$M$330</definedName>
-    <definedName name="ExpChartRDA">ExpCharts!$B$67:$M$132</definedName>
-    <definedName name="ExpChartRFluoro">ExpCharts!$B$1:$M$66</definedName>
     <definedName name="EXPHIGH" localSheetId="0">Fluoro!$W$179</definedName>
     <definedName name="EXPLOW" localSheetId="0">Fluoro!$W$178</definedName>
     <definedName name="flocm_in" localSheetId="0">Fluoro!$O$104</definedName>
@@ -49,6 +47,7 @@
     <definedName name="HVL" localSheetId="0">Fluoro!$X$174</definedName>
     <definedName name="HVLPage" localSheetId="0">Fluoro!$B$133:$M$198</definedName>
     <definedName name="ImgQualityPage" localSheetId="0">Fluoro!$B$397:$M$462</definedName>
+    <definedName name="KAP_AKR">Fluoro!$B$199:$M$264</definedName>
     <definedName name="LeedsMS">Tables!$A$2:$B$5</definedName>
     <definedName name="LeedsN3">Tables!$D$8:$E$26</definedName>
     <definedName name="LeedsTO10Page" localSheetId="0">Fluoro!$B$727:$M$792</definedName>
@@ -65,7 +64,7 @@
     <definedName name="Z_1A970341_D7B2_4441_B680_6A2E0BBE2F0C_.wvu.PrintArea" localSheetId="1" hidden="1">ExpCharts!$B$1:$M$66</definedName>
     <definedName name="Z_1A970341_D7B2_4441_B680_6A2E0BBE2F0C_.wvu.PrintArea" localSheetId="0" hidden="1">Fluoro!$B$1:$M$198,Fluoro!$B$265:$M$330,Fluoro!$B$397:$M$528,Fluoro!$B$595:$M$660,Fluoro!$B$727:$M$792</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <customWorkbookViews>
     <customWorkbookView name="Eugene Mah - Personal View" guid="{1A970341-D7B2-4441-B680-6A2E0BBE2F0C}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="784" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
@@ -129,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="459">
   <si>
     <t>Print Area</t>
   </si>
@@ -1463,9 +1462,6 @@
     <t>Resolution</t>
   </si>
   <si>
-    <t>Page1,Page2,HVLPage,ExpChartFluoroPage,ExpChartDAPage,ImgQualityPage,Com1Page,Com2Page,OutputGraphFluoroPage,OutputGraphDAPage,LeedsTO10Page,ExpChartRFluoro,ExpChartRDA</t>
-  </si>
-  <si>
     <t>Calibration Date:</t>
   </si>
   <si>
@@ -1490,9 +1486,6 @@
     <t>Revision 1.5-20200128</t>
   </si>
   <si>
-    <t>Page1,Page2,HVLPage,ExpChartFluoroPage,ExpChartDAPage,ImgQualityPage,Com1Page,Com2Page,OutputGraphFluoroPage,OutputGraphDAPage,LeedsTO10Page</t>
-  </si>
-  <si>
     <t>Exp rate (mGy/min)</t>
   </si>
   <si>
@@ -1509,6 +1502,9 @@
   </si>
   <si>
     <t>New installation?</t>
+  </si>
+  <si>
+    <t>Page1,Page2,HVLPage,KAP_AKR,ExpChartFluoroPage,ExpChartDAPage,ImgQualityPage,Com1Page,Com2Page,OutputGraphFluoroPage,OutputGraphDAPage,LeedsTO10Page</t>
   </si>
 </sst>
 </file>
@@ -7032,6 +7028,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7209,6 +7206,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7280,6 +7278,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19042,6 +19041,294 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="AutoShape 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="AutoShape 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2063" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19310,7 +19597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD792"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19339,7 +19628,7 @@
       <c r="L1" s="299"/>
       <c r="M1" s="300"/>
       <c r="O1" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
@@ -19379,7 +19668,7 @@
       </c>
       <c r="Y2" s="14"/>
       <c r="AA2" s="15" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -19432,7 +19721,7 @@
         <v>3</v>
       </c>
       <c r="AB4" s="17" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -19525,7 +19814,7 @@
       </c>
       <c r="AD7" s="30" t="str">
         <f>IF(OR(AA2="",AA2=0),"",AA2)</f>
-        <v>Page1,Page2,HVLPage,ExpChartFluoroPage,ExpChartDAPage,ImgQualityPage,Com1Page,Com2Page,OutputGraphFluoroPage,OutputGraphDAPage,LeedsTO10Page</v>
+        <v>Page1,Page2,HVLPage,KAP_AKR,ExpChartFluoroPage,ExpChartDAPage,ImgQualityPage,Com1Page,Com2Page,OutputGraphFluoroPage,OutputGraphDAPage,LeedsTO10Page</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -21365,7 +21654,7 @@
       </c>
       <c r="P48" s="567"/>
       <c r="Q48" s="335" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="S48" s="53"/>
       <c r="T48" s="49" t="s">
@@ -22407,7 +22696,7 @@
       </c>
       <c r="Y80" s="14"/>
       <c r="AA80" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AB80" s="40"/>
       <c r="AC80" s="29" t="str">
@@ -22492,7 +22781,7 @@
       </c>
       <c r="Y82" s="14"/>
       <c r="AA82" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AB82" s="536"/>
       <c r="AC82" s="29" t="str">
@@ -23268,10 +23557,10 @@
         <v>Radcal 90-2123</v>
       </c>
       <c r="W100" s="522" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="X100" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Y100" s="14"/>
       <c r="AA100" s="2" t="s">
@@ -23327,7 +23616,7 @@
         <v>43670</v>
       </c>
       <c r="X101" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y101" s="14"/>
       <c r="AA101" s="2" t="s">
@@ -23385,7 +23674,7 @@
         <v>44036</v>
       </c>
       <c r="X102" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y102" s="14"/>
       <c r="AA102" s="2" t="s">
@@ -28905,7 +29194,7 @@
       </c>
       <c r="B202" s="10"/>
       <c r="C202" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D202" s="66" t="str">
         <f>IF(R266="","",R266)</f>
@@ -28919,7 +29208,7 @@
         <v/>
       </c>
       <c r="I202" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J202" s="513" t="str">
         <f>IF(X266="","",X266)</f>
@@ -30002,7 +30291,7 @@
       <c r="F220" s="323"/>
       <c r="G220" s="323"/>
       <c r="H220" s="525" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I220" s="547" t="str">
         <f>IF(T291="","",T291)</f>
@@ -30010,7 +30299,7 @@
       </c>
       <c r="J220" s="323"/>
       <c r="K220" s="525" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L220" s="547" t="str">
         <f>IF(W291="","",W291)</f>
@@ -30098,7 +30387,7 @@
       </c>
       <c r="E222" s="323"/>
       <c r="F222" s="323" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G222" s="323"/>
       <c r="H222" s="323"/>
@@ -30106,7 +30395,7 @@
         <v>272</v>
       </c>
       <c r="J222" s="323" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K222" s="323"/>
       <c r="L222" s="323"/>
@@ -30153,7 +30442,7 @@
         <v>274</v>
       </c>
       <c r="F223" s="563" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G223" s="323"/>
       <c r="H223" s="380" t="s">
@@ -30163,7 +30452,7 @@
         <v>228</v>
       </c>
       <c r="J223" s="563" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K223" s="323"/>
       <c r="L223" s="323"/>
@@ -32093,7 +32382,7 @@
       </c>
       <c r="P266" s="53"/>
       <c r="Q266" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R266" s="528"/>
       <c r="T266" s="2" t="s">
@@ -32101,7 +32390,7 @@
       </c>
       <c r="U266" s="529"/>
       <c r="W266" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="X266" s="529"/>
       <c r="Y266" s="14"/>
@@ -32121,7 +32410,7 @@
       <c r="F267" s="299"/>
       <c r="G267" s="299"/>
       <c r="H267" s="526" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I267" s="527" t="str">
         <f>IF(V100="","",V100)</f>
@@ -32135,7 +32424,7 @@
         <v>43670</v>
       </c>
       <c r="L267" s="526" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M267" s="534">
         <f>IF(V102="","",V102)</f>
@@ -33865,12 +34154,12 @@
       </c>
       <c r="R291" s="223"/>
       <c r="S291" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="T291" s="520"/>
       <c r="U291" s="223"/>
       <c r="V291" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="W291" s="520"/>
       <c r="X291" s="223"/>
@@ -33982,7 +34271,7 @@
         <v>228</v>
       </c>
       <c r="Q294" s="560" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="R294" s="1" t="s">
         <v>149</v>
@@ -34389,7 +34678,7 @@
         <v>228</v>
       </c>
       <c r="Q303" s="560" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="R303" s="1" t="s">
         <v>149</v>
@@ -35189,7 +35478,7 @@
       <c r="X318" s="53"/>
       <c r="Y318" s="181"/>
       <c r="AA318" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AB318" s="28"/>
       <c r="AC318" s="29" t="str">

--- a/MUSCCArm.xlsx
+++ b/MUSCCArm.xlsx
@@ -6359,6 +6359,135 @@
     <xf numFmtId="172" fontId="4" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="155" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="182" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="175" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="176" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="154" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="180" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6383,15 +6512,6 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="139" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="183" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6401,133 +6521,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="193" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="154" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="180" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="155" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="182" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="175" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="176" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7028,7 +7028,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7206,7 +7205,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7278,7 +7276,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19329,6 +19326,150 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2064" name="AutoShape 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2065" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2066" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19597,8 +19738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD792"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" topLeftCell="N239" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O255" sqref="O255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19909,21 +20050,21 @@
       <c r="E10" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="628" t="str">
+      <c r="F10" s="577" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="628"/>
+      <c r="G10" s="577"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="621" t="str">
+      <c r="K10" s="578" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="621"/>
+      <c r="L10" s="578"/>
       <c r="M10" s="312"/>
       <c r="O10" s="13"/>
       <c r="Q10" s="2" t="s">
@@ -19966,21 +20107,21 @@
       <c r="E11" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="622" t="str">
+      <c r="F11" s="579" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="622"/>
+      <c r="G11" s="579"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
       <c r="J11" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="622" t="str">
+      <c r="K11" s="579" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="622"/>
+      <c r="L11" s="579"/>
       <c r="M11" s="312"/>
       <c r="O11" s="13"/>
       <c r="Q11" s="2" t="s">
@@ -20023,21 +20164,21 @@
       <c r="E12" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="622" t="str">
+      <c r="F12" s="579" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="622"/>
+      <c r="G12" s="579"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
       <c r="J12" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="630" t="str">
+      <c r="K12" s="580" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="630"/>
+      <c r="L12" s="580"/>
       <c r="M12" s="312"/>
       <c r="O12" s="13"/>
       <c r="Q12" s="2" t="s">
@@ -20080,21 +20221,21 @@
       <c r="E13" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="623" t="str">
+      <c r="F13" s="581" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="623"/>
+      <c r="G13" s="581"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
       <c r="J13" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="623" t="str">
+      <c r="K13" s="581" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="623"/>
+      <c r="L13" s="581"/>
       <c r="M13" s="312"/>
       <c r="O13" s="13"/>
       <c r="Q13" s="2" t="s">
@@ -20217,21 +20358,21 @@
       <c r="E16" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="628" t="str">
+      <c r="F16" s="577" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="628"/>
+      <c r="G16" s="577"/>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
       <c r="J16" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="631" t="str">
+      <c r="K16" s="582" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="631"/>
+      <c r="L16" s="582"/>
       <c r="M16" s="312"/>
       <c r="O16" s="13"/>
       <c r="P16" s="50" t="s">
@@ -20261,21 +20402,21 @@
       <c r="E17" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="622" t="str">
+      <c r="F17" s="579" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="622"/>
+      <c r="G17" s="579"/>
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
       <c r="J17" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="623" t="str">
+      <c r="K17" s="581" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="623"/>
+      <c r="L17" s="581"/>
       <c r="M17" s="312"/>
       <c r="O17" s="13"/>
       <c r="Q17" s="2" t="s">
@@ -20318,21 +20459,21 @@
       <c r="E18" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="623" t="str">
+      <c r="F18" s="581" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="623"/>
+      <c r="G18" s="581"/>
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
       <c r="J18" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="623" t="str">
+      <c r="K18" s="581" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="623"/>
+      <c r="L18" s="581"/>
       <c r="M18" s="312"/>
       <c r="O18" s="13"/>
       <c r="Q18" s="2" t="s">
@@ -20380,11 +20521,11 @@
       <c r="J19" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="623" t="str">
+      <c r="K19" s="581" t="str">
         <f>IF(V20="","",V20)</f>
         <v/>
       </c>
-      <c r="L19" s="623"/>
+      <c r="L19" s="581"/>
       <c r="M19" s="312"/>
       <c r="O19" s="13"/>
       <c r="Q19" s="2" t="s">
@@ -20459,11 +20600,11 @@
       <c r="E21" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="628" t="str">
+      <c r="F21" s="577" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="628"/>
+      <c r="G21" s="577"/>
       <c r="H21" s="42"/>
       <c r="I21" s="42"/>
       <c r="J21" s="73" t="s">
@@ -20503,21 +20644,21 @@
       <c r="E22" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="629" t="str">
+      <c r="F22" s="583" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="629"/>
+      <c r="G22" s="583"/>
       <c r="H22" s="42"/>
       <c r="I22" s="42"/>
       <c r="J22" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="628" t="str">
+      <c r="K22" s="577" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="628"/>
+      <c r="L22" s="577"/>
       <c r="M22" s="312"/>
       <c r="O22" s="13"/>
       <c r="Q22" s="2" t="s">
@@ -20562,11 +20703,11 @@
       <c r="J23" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="622" t="str">
+      <c r="K23" s="579" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="622"/>
+      <c r="L23" s="579"/>
       <c r="M23" s="312"/>
       <c r="O23" s="13"/>
       <c r="Q23" s="2" t="s">
@@ -20609,21 +20750,21 @@
       <c r="E24" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="621" t="str">
+      <c r="F24" s="578" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="621"/>
+      <c r="G24" s="578"/>
       <c r="H24" s="42"/>
       <c r="I24" s="42"/>
       <c r="J24" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="622" t="str">
+      <c r="K24" s="579" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="622"/>
+      <c r="L24" s="579"/>
       <c r="M24" s="312"/>
       <c r="O24" s="13"/>
       <c r="P24" s="50" t="s">
@@ -20661,11 +20802,11 @@
       <c r="E25" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="623" t="str">
+      <c r="F25" s="581" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="623"/>
+      <c r="G25" s="581"/>
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
@@ -20713,11 +20854,11 @@
       <c r="E26" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="623" t="str">
+      <c r="F26" s="581" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="623"/>
+      <c r="G26" s="581"/>
       <c r="H26" s="42"/>
       <c r="I26" s="42"/>
       <c r="J26" s="313" t="s">
@@ -20766,11 +20907,11 @@
       <c r="J27" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="628" t="str">
+      <c r="K27" s="577" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="628"/>
+      <c r="L27" s="577"/>
       <c r="M27" s="312"/>
       <c r="O27" s="13"/>
       <c r="Q27" s="2" t="s">
@@ -20808,21 +20949,21 @@
       <c r="E28" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="621" t="str">
+      <c r="F28" s="578" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="621"/>
+      <c r="G28" s="578"/>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
       <c r="J28" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="622" t="str">
+      <c r="K28" s="579" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="622"/>
+      <c r="L28" s="579"/>
       <c r="M28" s="312"/>
       <c r="O28" s="13"/>
       <c r="P28" s="50" t="s">
@@ -20851,11 +20992,11 @@
       <c r="E29" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="623" t="str">
+      <c r="F29" s="581" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="623"/>
+      <c r="G29" s="581"/>
       <c r="H29" s="42"/>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
@@ -20903,11 +21044,11 @@
       <c r="E30" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="623" t="str">
+      <c r="F30" s="581" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="623"/>
+      <c r="G30" s="581"/>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
@@ -21022,11 +21163,11 @@
       <c r="E33" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="628" t="str">
+      <c r="F33" s="577" t="str">
         <f>IF(R34="","",R34)</f>
         <v/>
       </c>
-      <c r="G33" s="628"/>
+      <c r="G33" s="577"/>
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
       <c r="J33" s="73" t="s">
@@ -21063,21 +21204,21 @@
       <c r="E34" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="629" t="str">
+      <c r="F34" s="583" t="str">
         <f>IF(R35="","",R35)</f>
         <v/>
       </c>
-      <c r="G34" s="629"/>
+      <c r="G34" s="583"/>
       <c r="H34" s="42"/>
       <c r="I34" s="42"/>
       <c r="J34" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="628" t="str">
+      <c r="K34" s="577" t="str">
         <f>IF(V35="","",V35)</f>
         <v/>
       </c>
-      <c r="L34" s="628"/>
+      <c r="L34" s="577"/>
       <c r="M34" s="312"/>
       <c r="O34" s="13"/>
       <c r="Q34" s="2" t="s">
@@ -21122,11 +21263,11 @@
       <c r="J35" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="622" t="str">
+      <c r="K35" s="579" t="str">
         <f>IF(V36="","",V36)</f>
         <v/>
       </c>
-      <c r="L35" s="622"/>
+      <c r="L35" s="579"/>
       <c r="M35" s="312"/>
       <c r="O35" s="13"/>
       <c r="Q35" s="2" t="s">
@@ -21169,21 +21310,21 @@
       <c r="E36" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="621" t="str">
+      <c r="F36" s="578" t="str">
         <f>IF(R37="","",R37)</f>
         <v/>
       </c>
-      <c r="G36" s="621"/>
+      <c r="G36" s="578"/>
       <c r="H36" s="42"/>
       <c r="I36" s="42"/>
       <c r="J36" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="K36" s="622" t="str">
+      <c r="K36" s="579" t="str">
         <f>IF(V37="","",V37)</f>
         <v/>
       </c>
-      <c r="L36" s="622"/>
+      <c r="L36" s="579"/>
       <c r="M36" s="312"/>
       <c r="O36" s="13"/>
       <c r="P36" s="50" t="s">
@@ -21221,11 +21362,11 @@
       <c r="E37" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="623" t="str">
+      <c r="F37" s="581" t="str">
         <f>IF(R38="","",R38)</f>
         <v/>
       </c>
-      <c r="G37" s="623"/>
+      <c r="G37" s="581"/>
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
       <c r="J37" s="42"/>
@@ -21273,11 +21414,11 @@
       <c r="E38" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="623" t="str">
+      <c r="F38" s="581" t="str">
         <f>IF(R39="","",R39)</f>
         <v/>
       </c>
-      <c r="G38" s="623"/>
+      <c r="G38" s="581"/>
       <c r="H38" s="42"/>
       <c r="I38" s="42"/>
       <c r="J38" s="313" t="s">
@@ -21324,11 +21465,11 @@
       <c r="J39" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="K39" s="628" t="str">
+      <c r="K39" s="577" t="str">
         <f>IF(V40="","",V40)</f>
         <v/>
       </c>
-      <c r="L39" s="628"/>
+      <c r="L39" s="577"/>
       <c r="M39" s="312"/>
       <c r="O39" s="13"/>
       <c r="Q39" s="2" t="s">
@@ -21366,21 +21507,21 @@
       <c r="E40" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="621" t="str">
+      <c r="F40" s="578" t="str">
         <f>IF(R41="","",R41)</f>
         <v/>
       </c>
-      <c r="G40" s="621"/>
+      <c r="G40" s="578"/>
       <c r="H40" s="42"/>
       <c r="I40" s="42"/>
       <c r="J40" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="K40" s="622" t="str">
+      <c r="K40" s="579" t="str">
         <f>IF(V41="","",V41)</f>
         <v/>
       </c>
-      <c r="L40" s="622"/>
+      <c r="L40" s="579"/>
       <c r="M40" s="312"/>
       <c r="O40" s="13"/>
       <c r="P40" s="50" t="s">
@@ -21418,11 +21559,11 @@
       <c r="E41" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="623" t="str">
+      <c r="F41" s="581" t="str">
         <f>IF(R42="","",R42)</f>
         <v/>
       </c>
-      <c r="G41" s="623"/>
+      <c r="G41" s="581"/>
       <c r="H41" s="42"/>
       <c r="I41" s="42"/>
       <c r="J41" s="42"/>
@@ -21470,11 +21611,11 @@
       <c r="E42" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="623" t="str">
+      <c r="F42" s="581" t="str">
         <f>IF(R43="","",R43)</f>
         <v/>
       </c>
-      <c r="G42" s="623"/>
+      <c r="G42" s="581"/>
       <c r="H42" s="42"/>
       <c r="I42" s="42"/>
       <c r="J42" s="42"/>
@@ -22239,10 +22380,10 @@
       <c r="I69" s="299"/>
       <c r="J69" s="299"/>
       <c r="K69" s="299"/>
-      <c r="L69" s="624" t="s">
+      <c r="L69" s="588" t="s">
         <v>84</v>
       </c>
-      <c r="M69" s="625"/>
+      <c r="M69" s="589"/>
       <c r="O69" s="56"/>
       <c r="P69" s="17" t="s">
         <v>85</v>
@@ -23911,24 +24052,24 @@
       <c r="P107" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="Q107" s="626" t="str">
+      <c r="Q107" s="585" t="str">
         <f>IF(Q106&lt;&gt;"",Q106,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R107" s="626"/>
-      <c r="S107" s="626"/>
-      <c r="T107" s="627" t="str">
+      <c r="R107" s="585"/>
+      <c r="S107" s="585"/>
+      <c r="T107" s="584" t="str">
         <f>IF(T106&lt;&gt;"",T106,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v/>
       </c>
-      <c r="U107" s="627"/>
-      <c r="V107" s="627"/>
-      <c r="W107" s="627" t="str">
+      <c r="U107" s="584"/>
+      <c r="V107" s="584"/>
+      <c r="W107" s="584" t="str">
         <f>IF(W106&lt;&gt;"",W106,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="X107" s="627"/>
-      <c r="Y107" s="627"/>
+      <c r="X107" s="584"/>
+      <c r="Y107" s="584"/>
       <c r="AA107" s="2" t="s">
         <v>153</v>
       </c>
@@ -25918,24 +26059,24 @@
       <c r="P139" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="Q139" s="626" t="str">
+      <c r="Q139" s="585" t="str">
         <f>IF(Q138&lt;&gt;"",Q138,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R139" s="626"/>
-      <c r="S139" s="626"/>
-      <c r="T139" s="627" t="str">
+      <c r="R139" s="585"/>
+      <c r="S139" s="585"/>
+      <c r="T139" s="584" t="str">
         <f>IF(T138&lt;&gt;"",T138,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v/>
       </c>
-      <c r="U139" s="627"/>
-      <c r="V139" s="627"/>
-      <c r="W139" s="627" t="str">
+      <c r="U139" s="584"/>
+      <c r="V139" s="584"/>
+      <c r="W139" s="584" t="str">
         <f>IF(W138&lt;&gt;"",W138,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="X139" s="627"/>
-      <c r="Y139" s="627"/>
+      <c r="X139" s="584"/>
+      <c r="Y139" s="584"/>
       <c r="AA139" s="2" t="str">
         <f>$T$139&amp;" Mag 4"</f>
         <v xml:space="preserve"> Mag 4</v>
@@ -28279,10 +28420,10 @@
       <c r="P181" s="135"/>
       <c r="Q181" s="137"/>
       <c r="R181" s="128"/>
-      <c r="T181" s="610" t="s">
+      <c r="T181" s="586" t="s">
         <v>245</v>
       </c>
-      <c r="U181" s="610"/>
+      <c r="U181" s="586"/>
       <c r="W181" s="2" t="s">
         <v>199</v>
       </c>
@@ -28653,7 +28794,7 @@
       <c r="K190" s="323"/>
       <c r="L190" s="323"/>
       <c r="M190" s="327"/>
-      <c r="O190" s="618" t="str">
+      <c r="O190" s="587" t="str">
         <f>$Q$107</f>
         <v>Auto 1</v>
       </c>
@@ -28703,7 +28844,7 @@
       <c r="K191" s="323"/>
       <c r="L191" s="323"/>
       <c r="M191" s="303"/>
-      <c r="O191" s="618"/>
+      <c r="O191" s="587"/>
       <c r="P191" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -28749,7 +28890,7 @@
       <c r="K192" s="135"/>
       <c r="L192" s="135"/>
       <c r="M192" s="303"/>
-      <c r="O192" s="618"/>
+      <c r="O192" s="587"/>
       <c r="P192" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -28795,7 +28936,7 @@
       <c r="K193" s="135"/>
       <c r="L193" s="135"/>
       <c r="M193" s="303"/>
-      <c r="O193" s="618"/>
+      <c r="O193" s="587"/>
       <c r="P193" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -28838,7 +28979,7 @@
       <c r="K194" s="135"/>
       <c r="L194" s="135"/>
       <c r="M194" s="303"/>
-      <c r="O194" s="618"/>
+      <c r="O194" s="587"/>
       <c r="P194" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -28881,7 +29022,7 @@
       <c r="K195" s="135"/>
       <c r="L195" s="135"/>
       <c r="M195" s="303"/>
-      <c r="O195" s="618" t="str">
+      <c r="O195" s="587" t="str">
         <f>$T$107</f>
         <v/>
       </c>
@@ -28927,7 +29068,7 @@
       <c r="K196" s="305"/>
       <c r="L196" s="305"/>
       <c r="M196" s="306"/>
-      <c r="O196" s="618"/>
+      <c r="O196" s="587"/>
       <c r="P196" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -28972,7 +29113,7 @@
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="O197" s="618"/>
+      <c r="O197" s="587"/>
       <c r="P197" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -29017,7 +29158,7 @@
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
-      <c r="O198" s="618"/>
+      <c r="O198" s="587"/>
       <c r="P198" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -29063,7 +29204,7 @@
         <f>$H$2</f>
         <v>Medical University of South Carolina</v>
       </c>
-      <c r="O199" s="618"/>
+      <c r="O199" s="587"/>
       <c r="P199" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -29112,7 +29253,7 @@
         <f>$H$5</f>
         <v>Fluoroscopy System Compliance Inspection</v>
       </c>
-      <c r="O200" s="618" t="str">
+      <c r="O200" s="587" t="str">
         <f>$W$107</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -29161,7 +29302,7 @@
       <c r="K201" s="299"/>
       <c r="L201" s="299"/>
       <c r="M201" s="300"/>
-      <c r="O201" s="618"/>
+      <c r="O201" s="587"/>
       <c r="P201" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -29215,7 +29356,7 @@
         <v/>
       </c>
       <c r="M202" s="12"/>
-      <c r="O202" s="618"/>
+      <c r="O202" s="587"/>
       <c r="P202" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -29248,7 +29389,7 @@
       </c>
       <c r="B203" s="10"/>
       <c r="M203" s="12"/>
-      <c r="O203" s="618"/>
+      <c r="O203" s="587"/>
       <c r="P203" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -29282,20 +29423,20 @@
       <c r="B204" s="301"/>
       <c r="C204" s="351"/>
       <c r="D204" s="323"/>
-      <c r="E204" s="577" t="s">
+      <c r="E204" s="620" t="s">
         <v>262</v>
       </c>
-      <c r="F204" s="579" t="s">
+      <c r="F204" s="622" t="s">
         <v>263</v>
       </c>
       <c r="G204" s="518" t="s">
         <v>264</v>
       </c>
-      <c r="H204" s="577" t="str">
+      <c r="H204" s="620" t="str">
         <f>R276</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="I204" s="581" t="str">
+      <c r="I204" s="624" t="str">
         <f>S276</f>
         <v>Meas AK @ Ref Pt (mGy)</v>
       </c>
@@ -29308,10 +29449,10 @@
       <c r="L204" s="135" t="s">
         <v>267</v>
       </c>
-      <c r="M204" s="583" t="s">
+      <c r="M204" s="626" t="s">
         <v>268</v>
       </c>
-      <c r="O204" s="618"/>
+      <c r="O204" s="587"/>
       <c r="P204" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -29349,11 +29490,11 @@
       <c r="D205" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="E205" s="578"/>
-      <c r="F205" s="580"/>
+      <c r="E205" s="621"/>
+      <c r="F205" s="623"/>
       <c r="G205" s="518"/>
-      <c r="H205" s="578"/>
-      <c r="I205" s="582"/>
+      <c r="H205" s="621"/>
+      <c r="I205" s="625"/>
       <c r="J205" s="519"/>
       <c r="K205" s="135" t="str">
         <f>U277</f>
@@ -29363,7 +29504,7 @@
         <f>V277</f>
         <v>mGy/min</v>
       </c>
-      <c r="M205" s="584"/>
+      <c r="M205" s="627"/>
       <c r="O205" s="13"/>
       <c r="Y205" s="14"/>
       <c r="AA205" s="2" t="s">
@@ -30007,7 +30148,7 @@
         <f>W286</f>
         <v/>
       </c>
-      <c r="O214" s="618" t="str">
+      <c r="O214" s="587" t="str">
         <f>$Q$139</f>
         <v>Auto 1</v>
       </c>
@@ -30063,7 +30204,7 @@
       <c r="K215" s="135"/>
       <c r="L215" s="135"/>
       <c r="M215" s="303"/>
-      <c r="O215" s="618"/>
+      <c r="O215" s="587"/>
       <c r="P215" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -30109,7 +30250,7 @@
       <c r="K216" s="323"/>
       <c r="L216" s="323"/>
       <c r="M216" s="303"/>
-      <c r="O216" s="618"/>
+      <c r="O216" s="587"/>
       <c r="P216" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -30155,7 +30296,7 @@
       <c r="K217" s="368"/>
       <c r="L217" s="368"/>
       <c r="M217" s="369"/>
-      <c r="O217" s="618"/>
+      <c r="O217" s="587"/>
       <c r="P217" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -30202,7 +30343,7 @@
       <c r="K218" s="323"/>
       <c r="L218" s="323"/>
       <c r="M218" s="303"/>
-      <c r="O218" s="618"/>
+      <c r="O218" s="587"/>
       <c r="P218" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -30245,7 +30386,7 @@
       <c r="K219" s="323"/>
       <c r="L219" s="323"/>
       <c r="M219" s="327"/>
-      <c r="O219" s="618" t="str">
+      <c r="O219" s="587" t="str">
         <f>$T$139</f>
         <v/>
       </c>
@@ -30306,7 +30447,7 @@
         <v/>
       </c>
       <c r="M220" s="327"/>
-      <c r="O220" s="618"/>
+      <c r="O220" s="587"/>
       <c r="P220" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -30349,7 +30490,7 @@
       <c r="K221" s="323"/>
       <c r="L221" s="323"/>
       <c r="M221" s="327"/>
-      <c r="O221" s="618"/>
+      <c r="O221" s="587"/>
       <c r="P221" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -30400,7 +30541,7 @@
       <c r="K222" s="323"/>
       <c r="L222" s="323"/>
       <c r="M222" s="327"/>
-      <c r="O222" s="618"/>
+      <c r="O222" s="587"/>
       <c r="P222" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -30457,7 +30598,7 @@
       <c r="K223" s="323"/>
       <c r="L223" s="323"/>
       <c r="M223" s="327"/>
-      <c r="O223" s="618"/>
+      <c r="O223" s="587"/>
       <c r="P223" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -30521,7 +30662,7 @@
       <c r="K224" s="323"/>
       <c r="L224" s="323"/>
       <c r="M224" s="327"/>
-      <c r="O224" s="618" t="str">
+      <c r="O224" s="587" t="str">
         <f>$W$139</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -30585,7 +30726,7 @@
       <c r="K225" s="323"/>
       <c r="L225" s="323"/>
       <c r="M225" s="327"/>
-      <c r="O225" s="618"/>
+      <c r="O225" s="587"/>
       <c r="P225" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -30646,7 +30787,7 @@
       <c r="K226" s="323"/>
       <c r="L226" s="323"/>
       <c r="M226" s="327"/>
-      <c r="O226" s="618"/>
+      <c r="O226" s="587"/>
       <c r="P226" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -30707,7 +30848,7 @@
       <c r="K227" s="323"/>
       <c r="L227" s="323"/>
       <c r="M227" s="327"/>
-      <c r="O227" s="618"/>
+      <c r="O227" s="587"/>
       <c r="P227" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -30761,7 +30902,7 @@
       <c r="K228" s="323"/>
       <c r="L228" s="323"/>
       <c r="M228" s="327"/>
-      <c r="O228" s="618"/>
+      <c r="O228" s="587"/>
       <c r="P228" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -31314,7 +31455,7 @@
       <c r="K240" s="323"/>
       <c r="L240" s="323"/>
       <c r="M240" s="327"/>
-      <c r="O240" s="619" t="s">
+      <c r="O240" s="590" t="s">
         <v>294</v>
       </c>
       <c r="P240" s="167" t="s">
@@ -31373,7 +31514,7 @@
       <c r="K241" s="323"/>
       <c r="L241" s="323"/>
       <c r="M241" s="327"/>
-      <c r="O241" s="619"/>
+      <c r="O241" s="590"/>
       <c r="P241" s="172" t="s">
         <v>297</v>
       </c>
@@ -31430,7 +31571,7 @@
       <c r="K242" s="323"/>
       <c r="L242" s="323"/>
       <c r="M242" s="327"/>
-      <c r="O242" s="619" t="str">
+      <c r="O242" s="590" t="str">
         <f>IF($U$137=1,"Scatter - Pulse", "Scatter – Digital acq")</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -31490,7 +31631,7 @@
       <c r="K243" s="323"/>
       <c r="L243" s="323"/>
       <c r="M243" s="327"/>
-      <c r="O243" s="619"/>
+      <c r="O243" s="590"/>
       <c r="P243" s="172" t="s">
         <v>297</v>
       </c>
@@ -31899,7 +32040,7 @@
       <c r="L254" s="323"/>
       <c r="M254" s="327"/>
       <c r="O254" s="180">
-        <f>IF(OR(O252=0,O253=0),"",SQRT((O252^2)/(O253^2)))</f>
+        <f>IF(OR(O252=0,O253=0),"",(O252/O253)^2)</f>
         <v>1</v>
       </c>
       <c r="P254" s="17" t="s">
@@ -32020,17 +32161,17 @@
       <c r="P257" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Q257" s="620" t="s">
+      <c r="Q257" s="591" t="s">
         <v>313</v>
       </c>
-      <c r="R257" s="620"/>
+      <c r="R257" s="591"/>
       <c r="S257" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="T257" s="620" t="s">
+      <c r="T257" s="591" t="s">
         <v>315</v>
       </c>
-      <c r="U257" s="620"/>
+      <c r="U257" s="591"/>
       <c r="V257" s="1" t="s">
         <v>316</v>
       </c>
@@ -32518,24 +32659,24 @@
         <f t="shared" si="43"/>
         <v>Attenuator</v>
       </c>
-      <c r="E269" s="612" t="str">
+      <c r="E269" s="592" t="str">
         <f>Q107</f>
         <v>Auto 1</v>
       </c>
-      <c r="F269" s="613"/>
-      <c r="G269" s="613"/>
-      <c r="H269" s="613" t="str">
+      <c r="F269" s="593"/>
+      <c r="G269" s="593"/>
+      <c r="H269" s="593" t="str">
         <f>T107</f>
         <v/>
       </c>
-      <c r="I269" s="613"/>
-      <c r="J269" s="613"/>
-      <c r="K269" s="614" t="str">
+      <c r="I269" s="593"/>
+      <c r="J269" s="593"/>
+      <c r="K269" s="594" t="str">
         <f>W107</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L269" s="614"/>
-      <c r="M269" s="615"/>
+      <c r="L269" s="594"/>
+      <c r="M269" s="595"/>
       <c r="O269" s="189" t="str">
         <f t="shared" si="44"/>
         <v/>
@@ -32637,7 +32778,7 @@
         <v>7</v>
       </c>
       <c r="B271" s="301"/>
-      <c r="C271" s="602" t="str">
+      <c r="C271" s="599" t="str">
         <f>O110&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -32713,7 +32854,7 @@
         <v>8</v>
       </c>
       <c r="B272" s="301"/>
-      <c r="C272" s="602"/>
+      <c r="C272" s="599"/>
       <c r="D272" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -32779,7 +32920,7 @@
         <v>9</v>
       </c>
       <c r="B273" s="301"/>
-      <c r="C273" s="602"/>
+      <c r="C273" s="599"/>
       <c r="D273" s="394">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -32852,7 +32993,7 @@
         <v>10</v>
       </c>
       <c r="B274" s="301"/>
-      <c r="C274" s="602" t="str">
+      <c r="C274" s="599" t="str">
         <f>O113&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -32921,7 +33062,7 @@
         <v>11</v>
       </c>
       <c r="B275" s="301"/>
-      <c r="C275" s="602"/>
+      <c r="C275" s="599"/>
       <c r="D275" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -32994,7 +33135,7 @@
         <v>12</v>
       </c>
       <c r="B276" s="301"/>
-      <c r="C276" s="602"/>
+      <c r="C276" s="599"/>
       <c r="D276" s="394">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -33035,17 +33176,17 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="O276" s="616" t="s">
+      <c r="O276" s="600" t="s">
         <v>262</v>
       </c>
-      <c r="P276" s="617" t="s">
+      <c r="P276" s="601" t="s">
         <v>263</v>
       </c>
-      <c r="R276" s="617" t="str">
+      <c r="R276" s="601" t="str">
         <f>"Ind AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="S276" s="617" t="str">
+      <c r="S276" s="601" t="str">
         <f>"Meas AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Meas AK @ Ref Pt (mGy)</v>
       </c>
@@ -33067,7 +33208,7 @@
         <v>13</v>
       </c>
       <c r="B277" s="301"/>
-      <c r="C277" s="602" t="str">
+      <c r="C277" s="599" t="str">
         <f>O116&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33111,13 +33252,13 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="O277" s="616"/>
-      <c r="P277" s="617"/>
+      <c r="O277" s="600"/>
+      <c r="P277" s="601"/>
       <c r="Q277" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="R277" s="617"/>
-      <c r="S277" s="617"/>
+      <c r="R277" s="601"/>
+      <c r="S277" s="601"/>
       <c r="T277" s="1" t="s">
         <v>322</v>
       </c>
@@ -33149,7 +33290,7 @@
         <v>14</v>
       </c>
       <c r="B278" s="301"/>
-      <c r="C278" s="602"/>
+      <c r="C278" s="599"/>
       <c r="D278" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -33236,7 +33377,7 @@
         <v>15</v>
       </c>
       <c r="B279" s="301"/>
-      <c r="C279" s="602"/>
+      <c r="C279" s="599"/>
       <c r="D279" s="394">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -33330,7 +33471,7 @@
         <v>16</v>
       </c>
       <c r="B280" s="301"/>
-      <c r="C280" s="602" t="str">
+      <c r="C280" s="599" t="str">
         <f>O119&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33430,7 +33571,7 @@
         <v>17</v>
       </c>
       <c r="B281" s="301"/>
-      <c r="C281" s="602"/>
+      <c r="C281" s="599"/>
       <c r="D281" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -33517,7 +33658,7 @@
         <v>18</v>
       </c>
       <c r="B282" s="301"/>
-      <c r="C282" s="602"/>
+      <c r="C282" s="599"/>
       <c r="D282" s="394">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -33611,7 +33752,7 @@
         <v>19</v>
       </c>
       <c r="B283" s="301"/>
-      <c r="C283" s="602" t="str">
+      <c r="C283" s="599" t="str">
         <f>O122&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33701,7 +33842,7 @@
         <v>20</v>
       </c>
       <c r="B284" s="301"/>
-      <c r="C284" s="602"/>
+      <c r="C284" s="599"/>
       <c r="D284" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -33795,7 +33936,7 @@
         <v>21</v>
       </c>
       <c r="B285" s="301"/>
-      <c r="C285" s="602"/>
+      <c r="C285" s="599"/>
       <c r="D285" s="391">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -34230,12 +34371,12 @@
       <c r="L293" s="135"/>
       <c r="M293" s="303"/>
       <c r="O293" s="225"/>
-      <c r="P293" s="607" t="s">
+      <c r="P293" s="606" t="s">
         <v>328</v>
       </c>
-      <c r="Q293" s="607"/>
-      <c r="R293" s="607"/>
-      <c r="S293" s="607"/>
+      <c r="Q293" s="606"/>
+      <c r="R293" s="606"/>
+      <c r="S293" s="606"/>
       <c r="T293" s="223"/>
       <c r="U293" s="223"/>
       <c r="V293" s="223"/>
@@ -34612,12 +34753,12 @@
       <c r="L302" s="135"/>
       <c r="M302" s="303"/>
       <c r="O302" s="225"/>
-      <c r="P302" s="607" t="s">
+      <c r="P302" s="606" t="s">
         <v>328</v>
       </c>
-      <c r="Q302" s="607"/>
-      <c r="R302" s="607"/>
-      <c r="S302" s="607"/>
+      <c r="Q302" s="606"/>
+      <c r="R302" s="606"/>
+      <c r="S302" s="606"/>
       <c r="T302" s="223"/>
       <c r="U302" s="223"/>
       <c r="V302" s="223"/>
@@ -34639,7 +34780,7 @@
         <v>39</v>
       </c>
       <c r="B303" s="301"/>
-      <c r="C303" s="585" t="str">
+      <c r="C303" s="607" t="str">
         <f>O190</f>
         <v>Auto 1</v>
       </c>
@@ -34700,7 +34841,7 @@
         <v>40</v>
       </c>
       <c r="B304" s="301"/>
-      <c r="C304" s="586"/>
+      <c r="C304" s="608"/>
       <c r="D304" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -34770,7 +34911,7 @@
         <v>41</v>
       </c>
       <c r="B305" s="301"/>
-      <c r="C305" s="586"/>
+      <c r="C305" s="608"/>
       <c r="D305" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -34818,7 +34959,7 @@
         <v>42</v>
       </c>
       <c r="B306" s="301"/>
-      <c r="C306" s="586"/>
+      <c r="C306" s="608"/>
       <c r="D306" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -34870,7 +35011,7 @@
         <v>43</v>
       </c>
       <c r="B307" s="301"/>
-      <c r="C307" s="608"/>
+      <c r="C307" s="609"/>
       <c r="D307" s="436" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -34915,7 +35056,7 @@
         <v>44</v>
       </c>
       <c r="B308" s="301"/>
-      <c r="C308" s="585" t="str">
+      <c r="C308" s="607" t="str">
         <f>O195</f>
         <v/>
       </c>
@@ -34970,7 +35111,7 @@
         <v>45</v>
       </c>
       <c r="B309" s="301"/>
-      <c r="C309" s="586"/>
+      <c r="C309" s="608"/>
       <c r="D309" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35023,7 +35164,7 @@
         <v>46</v>
       </c>
       <c r="B310" s="301"/>
-      <c r="C310" s="586"/>
+      <c r="C310" s="608"/>
       <c r="D310" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35083,7 +35224,7 @@
         <v>47</v>
       </c>
       <c r="B311" s="301"/>
-      <c r="C311" s="586"/>
+      <c r="C311" s="608"/>
       <c r="D311" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35136,7 +35277,7 @@
         <v>48</v>
       </c>
       <c r="B312" s="301"/>
-      <c r="C312" s="587"/>
+      <c r="C312" s="610"/>
       <c r="D312" s="439" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35193,7 +35334,7 @@
         <v>49</v>
       </c>
       <c r="B313" s="301"/>
-      <c r="C313" s="609" t="str">
+      <c r="C313" s="611" t="str">
         <f>O200</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -35245,7 +35386,7 @@
         <v>50</v>
       </c>
       <c r="B314" s="301"/>
-      <c r="C314" s="586"/>
+      <c r="C314" s="608"/>
       <c r="D314" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35297,7 +35438,7 @@
         <v>51</v>
       </c>
       <c r="B315" s="301"/>
-      <c r="C315" s="586"/>
+      <c r="C315" s="608"/>
       <c r="D315" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35342,7 +35483,7 @@
         <v>52</v>
       </c>
       <c r="B316" s="301"/>
-      <c r="C316" s="586"/>
+      <c r="C316" s="608"/>
       <c r="D316" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35396,7 +35537,7 @@
         <v>53</v>
       </c>
       <c r="B317" s="301"/>
-      <c r="C317" s="587"/>
+      <c r="C317" s="610"/>
       <c r="D317" s="439" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35518,10 +35659,10 @@
       <c r="R319" s="246"/>
       <c r="S319" s="247"/>
       <c r="T319" s="247"/>
-      <c r="V319" s="610" t="s">
+      <c r="V319" s="586" t="s">
         <v>339</v>
       </c>
-      <c r="W319" s="610"/>
+      <c r="W319" s="586"/>
       <c r="X319" s="17" t="s">
         <v>340</v>
       </c>
@@ -35722,7 +35863,7 @@
         <v>60</v>
       </c>
       <c r="B324" s="301"/>
-      <c r="C324" s="591" t="str">
+      <c r="C324" s="596" t="str">
         <f>O240</f>
         <v>Scatter – Fluoro</v>
       </c>
@@ -35772,7 +35913,7 @@
         <v>61</v>
       </c>
       <c r="B325" s="301"/>
-      <c r="C325" s="592"/>
+      <c r="C325" s="597"/>
       <c r="D325" s="448" t="str">
         <f>P241</f>
         <v>Waist level</v>
@@ -35930,13 +36071,13 @@
         <v>347</v>
       </c>
       <c r="P329" s="53"/>
-      <c r="Q329" s="611" t="s">
+      <c r="Q329" s="598" t="s">
         <v>348</v>
       </c>
-      <c r="R329" s="611"/>
-      <c r="S329" s="611"/>
-      <c r="T329" s="611"/>
-      <c r="U329" s="611"/>
+      <c r="R329" s="598"/>
+      <c r="S329" s="598"/>
+      <c r="T329" s="598"/>
+      <c r="U329" s="598"/>
       <c r="Y329" s="14"/>
     </row>
     <row r="330" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -36119,24 +36260,24 @@
         <f t="shared" si="72"/>
         <v>Attenuator</v>
       </c>
-      <c r="E335" s="612" t="str">
+      <c r="E335" s="592" t="str">
         <f>Q139</f>
         <v>Auto 1</v>
       </c>
-      <c r="F335" s="613"/>
-      <c r="G335" s="613"/>
-      <c r="H335" s="613" t="str">
+      <c r="F335" s="593"/>
+      <c r="G335" s="593"/>
+      <c r="H335" s="593" t="str">
         <f>T139</f>
         <v/>
       </c>
-      <c r="I335" s="613"/>
-      <c r="J335" s="613"/>
-      <c r="K335" s="614" t="str">
+      <c r="I335" s="593"/>
+      <c r="J335" s="593"/>
+      <c r="K335" s="594" t="str">
         <f>W139</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L335" s="614"/>
-      <c r="M335" s="615"/>
+      <c r="L335" s="594"/>
+      <c r="M335" s="595"/>
       <c r="O335" s="130"/>
       <c r="P335" s="129" t="s">
         <v>354</v>
@@ -36213,7 +36354,7 @@
         <v>7</v>
       </c>
       <c r="B337" s="301"/>
-      <c r="C337" s="602" t="str">
+      <c r="C337" s="599" t="str">
         <f>O142&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -36273,7 +36414,7 @@
         <v>8</v>
       </c>
       <c r="B338" s="301"/>
-      <c r="C338" s="602"/>
+      <c r="C338" s="599"/>
       <c r="D338" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -36330,7 +36471,7 @@
         <v>9</v>
       </c>
       <c r="B339" s="301"/>
-      <c r="C339" s="602"/>
+      <c r="C339" s="599"/>
       <c r="D339" s="463">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -36387,7 +36528,7 @@
         <v>10</v>
       </c>
       <c r="B340" s="301"/>
-      <c r="C340" s="602" t="str">
+      <c r="C340" s="599" t="str">
         <f>O145&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -36447,7 +36588,7 @@
         <v>11</v>
       </c>
       <c r="B341" s="301"/>
-      <c r="C341" s="602"/>
+      <c r="C341" s="599"/>
       <c r="D341" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -36504,7 +36645,7 @@
         <v>12</v>
       </c>
       <c r="B342" s="301"/>
-      <c r="C342" s="602"/>
+      <c r="C342" s="599"/>
       <c r="D342" s="464">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -36561,7 +36702,7 @@
         <v>13</v>
       </c>
       <c r="B343" s="301"/>
-      <c r="C343" s="602" t="str">
+      <c r="C343" s="599" t="str">
         <f>O148&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -36613,7 +36754,7 @@
         <v>14</v>
       </c>
       <c r="B344" s="301"/>
-      <c r="C344" s="602"/>
+      <c r="C344" s="599"/>
       <c r="D344" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -36675,7 +36816,7 @@
         <v>15</v>
       </c>
       <c r="B345" s="301"/>
-      <c r="C345" s="602"/>
+      <c r="C345" s="599"/>
       <c r="D345" s="463">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -36738,7 +36879,7 @@
         <v>16</v>
       </c>
       <c r="B346" s="301"/>
-      <c r="C346" s="602" t="str">
+      <c r="C346" s="599" t="str">
         <f>O151&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -36801,7 +36942,7 @@
         <v>17</v>
       </c>
       <c r="B347" s="301"/>
-      <c r="C347" s="602"/>
+      <c r="C347" s="599"/>
       <c r="D347" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -36859,7 +37000,7 @@
         <v>18</v>
       </c>
       <c r="B348" s="301"/>
-      <c r="C348" s="602"/>
+      <c r="C348" s="599"/>
       <c r="D348" s="464">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -36937,7 +37078,7 @@
         <v>19</v>
       </c>
       <c r="B349" s="301"/>
-      <c r="C349" s="602" t="str">
+      <c r="C349" s="599" t="str">
         <f>O154&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -37000,7 +37141,7 @@
         <v>20</v>
       </c>
       <c r="B350" s="301"/>
-      <c r="C350" s="602"/>
+      <c r="C350" s="599"/>
       <c r="D350" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -37059,7 +37200,7 @@
         <v>21</v>
       </c>
       <c r="B351" s="301"/>
-      <c r="C351" s="602"/>
+      <c r="C351" s="599"/>
       <c r="D351" s="464">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -37368,11 +37509,11 @@
         <f>IF(OR(V358="",V359="",V362=""),"",(V358-V359)*V362)</f>
         <v/>
       </c>
-      <c r="Q358" s="603" t="str">
+      <c r="Q358" s="602" t="str">
         <f>IF(OR(P358="",P359=""),"",(ABS(P358)+ABS(P359))/$O$355)</f>
         <v/>
       </c>
-      <c r="R358" s="604" t="str">
+      <c r="R358" s="603" t="str">
         <f>IF(OR(Q358="",Q360=""),"",Q358+Q360)</f>
         <v/>
       </c>
@@ -37411,8 +37552,8 @@
         <f>IF(OR(W358="",W359="",V362=""),"",(W358-W359)*V362)</f>
         <v/>
       </c>
-      <c r="Q359" s="603"/>
-      <c r="R359" s="603"/>
+      <c r="Q359" s="602"/>
+      <c r="R359" s="602"/>
       <c r="S359" s="146" t="str">
         <f>IF(AB171="","",AB171)</f>
         <v/>
@@ -37448,11 +37589,11 @@
         <f>IF(OR(X358="",X359="",V362=""),"",(X358-X359)*V362)</f>
         <v/>
       </c>
-      <c r="Q360" s="604" t="str">
+      <c r="Q360" s="603" t="str">
         <f>IF(OR(P360="",P361=""),"",(ABS(P360)+ABS(P361))/$O$355)</f>
         <v/>
       </c>
-      <c r="R360" s="604"/>
+      <c r="R360" s="603"/>
       <c r="S360" s="146" t="str">
         <f>IF(AB172="","",AB172)</f>
         <v/>
@@ -37494,8 +37635,8 @@
         <f>IF(OR(Y358="",Y359="",V362=""),"",(Y358-Y359)*V362)</f>
         <v/>
       </c>
-      <c r="Q361" s="604"/>
-      <c r="R361" s="604"/>
+      <c r="Q361" s="603"/>
+      <c r="R361" s="603"/>
       <c r="S361" s="148" t="str">
         <f>IF(AB173="","",AB173)</f>
         <v/>
@@ -37667,7 +37808,7 @@
         <v>36</v>
       </c>
       <c r="B366" s="301"/>
-      <c r="C366" s="605" t="str">
+      <c r="C366" s="604" t="str">
         <f>O214</f>
         <v>Auto 1</v>
       </c>
@@ -37718,7 +37859,7 @@
         <v>37</v>
       </c>
       <c r="B367" s="301"/>
-      <c r="C367" s="606"/>
+      <c r="C367" s="605"/>
       <c r="D367" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -37764,7 +37905,7 @@
         <v>38</v>
       </c>
       <c r="B368" s="301"/>
-      <c r="C368" s="606"/>
+      <c r="C368" s="605"/>
       <c r="D368" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -37799,7 +37940,7 @@
         <v>39</v>
       </c>
       <c r="B369" s="301"/>
-      <c r="C369" s="606"/>
+      <c r="C369" s="605"/>
       <c r="D369" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -37834,7 +37975,7 @@
         <v>40</v>
       </c>
       <c r="B370" s="301"/>
-      <c r="C370" s="606"/>
+      <c r="C370" s="605"/>
       <c r="D370" s="439" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -37879,7 +38020,7 @@
         <v>41</v>
       </c>
       <c r="B371" s="301"/>
-      <c r="C371" s="585" t="str">
+      <c r="C371" s="607" t="str">
         <f>O219</f>
         <v/>
       </c>
@@ -37929,7 +38070,7 @@
         <v>42</v>
       </c>
       <c r="B372" s="301"/>
-      <c r="C372" s="586"/>
+      <c r="C372" s="608"/>
       <c r="D372" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -37979,7 +38120,7 @@
         <v>43</v>
       </c>
       <c r="B373" s="301"/>
-      <c r="C373" s="586"/>
+      <c r="C373" s="608"/>
       <c r="D373" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38026,7 +38167,7 @@
         <v>44</v>
       </c>
       <c r="B374" s="301"/>
-      <c r="C374" s="586"/>
+      <c r="C374" s="608"/>
       <c r="D374" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38076,7 +38217,7 @@
         <v>45</v>
       </c>
       <c r="B375" s="301"/>
-      <c r="C375" s="587"/>
+      <c r="C375" s="610"/>
       <c r="D375" s="439" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38123,7 +38264,7 @@
         <v>46</v>
       </c>
       <c r="B376" s="301"/>
-      <c r="C376" s="588" t="str">
+      <c r="C376" s="628" t="str">
         <f>O224</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -38176,7 +38317,7 @@
         <v>47</v>
       </c>
       <c r="B377" s="301"/>
-      <c r="C377" s="589"/>
+      <c r="C377" s="629"/>
       <c r="D377" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38223,7 +38364,7 @@
         <v>48</v>
       </c>
       <c r="B378" s="301"/>
-      <c r="C378" s="589"/>
+      <c r="C378" s="629"/>
       <c r="D378" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38273,7 +38414,7 @@
         <v>49</v>
       </c>
       <c r="B379" s="301"/>
-      <c r="C379" s="589"/>
+      <c r="C379" s="629"/>
       <c r="D379" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38320,7 +38461,7 @@
         <v>50</v>
       </c>
       <c r="B380" s="301"/>
-      <c r="C380" s="590"/>
+      <c r="C380" s="630"/>
       <c r="D380" s="439" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38630,7 +38771,7 @@
         <v>58</v>
       </c>
       <c r="B388" s="301"/>
-      <c r="C388" s="591" t="str">
+      <c r="C388" s="596" t="str">
         <f>O242</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -38681,7 +38822,7 @@
         <v>59</v>
       </c>
       <c r="B389" s="301"/>
-      <c r="C389" s="592"/>
+      <c r="C389" s="597"/>
       <c r="D389" s="448" t="str">
         <f>P243</f>
         <v>Waist level</v>
@@ -39032,14 +39173,14 @@
       <c r="E399" s="299"/>
       <c r="F399" s="299"/>
       <c r="G399" s="299"/>
-      <c r="H399" s="593" t="s">
+      <c r="H399" s="631" t="s">
         <v>394</v>
       </c>
-      <c r="I399" s="593"/>
-      <c r="J399" s="593" t="s">
+      <c r="I399" s="631"/>
+      <c r="J399" s="631" t="s">
         <v>395</v>
       </c>
-      <c r="K399" s="593"/>
+      <c r="K399" s="631"/>
       <c r="L399" s="299"/>
       <c r="M399" s="300"/>
       <c r="O399" s="13"/>
@@ -39613,20 +39754,20 @@
       </c>
       <c r="B413" s="301"/>
       <c r="C413" s="42"/>
-      <c r="D413" s="594" t="s">
+      <c r="D413" s="612" t="s">
         <v>401</v>
       </c>
-      <c r="E413" s="594"/>
-      <c r="F413" s="594"/>
-      <c r="G413" s="594"/>
-      <c r="H413" s="594"/>
-      <c r="I413" s="594" t="s">
+      <c r="E413" s="612"/>
+      <c r="F413" s="612"/>
+      <c r="G413" s="612"/>
+      <c r="H413" s="612"/>
+      <c r="I413" s="612" t="s">
         <v>402</v>
       </c>
-      <c r="J413" s="594"/>
-      <c r="K413" s="594"/>
-      <c r="L413" s="594"/>
-      <c r="M413" s="595"/>
+      <c r="J413" s="612"/>
+      <c r="K413" s="612"/>
+      <c r="L413" s="612"/>
+      <c r="M413" s="613"/>
       <c r="O413" s="13"/>
       <c r="P413" s="2" t="s">
         <v>189</v>
@@ -41106,11 +41247,11 @@
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="F442" s="596" t="str">
+      <c r="F442" s="614" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="G442" s="598" t="str">
+      <c r="G442" s="616" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
@@ -41151,8 +41292,8 @@
         <f>P359</f>
         <v/>
       </c>
-      <c r="F443" s="597"/>
-      <c r="G443" s="599"/>
+      <c r="F443" s="615"/>
+      <c r="G443" s="617"/>
       <c r="H443" s="200"/>
       <c r="I443" s="82" t="str">
         <f>T360</f>
@@ -41192,11 +41333,11 @@
         <f>P360</f>
         <v/>
       </c>
-      <c r="F444" s="597" t="str">
+      <c r="F444" s="615" t="str">
         <f>Q360</f>
         <v/>
       </c>
-      <c r="G444" s="599"/>
+      <c r="G444" s="617"/>
       <c r="H444" s="135"/>
       <c r="I444" s="91" t="str">
         <f>T361</f>
@@ -41237,8 +41378,8 @@
         <f>P361</f>
         <v/>
       </c>
-      <c r="F445" s="601"/>
-      <c r="G445" s="600"/>
+      <c r="F445" s="619"/>
+      <c r="G445" s="618"/>
       <c r="H445" s="135"/>
       <c r="I445" s="135"/>
       <c r="J445" s="135"/>
@@ -47597,68 +47738,35 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="106">
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="W107:Y107"/>
-    <mergeCell ref="Q139:S139"/>
-    <mergeCell ref="T139:V139"/>
-    <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="T181:U181"/>
-    <mergeCell ref="O190:O194"/>
-    <mergeCell ref="O195:O199"/>
-    <mergeCell ref="O200:O204"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="Q107:S107"/>
-    <mergeCell ref="T107:V107"/>
-    <mergeCell ref="O214:O218"/>
-    <mergeCell ref="O219:O223"/>
-    <mergeCell ref="O224:O228"/>
-    <mergeCell ref="O240:O241"/>
-    <mergeCell ref="O242:O243"/>
-    <mergeCell ref="Q257:R257"/>
-    <mergeCell ref="T257:U257"/>
-    <mergeCell ref="E269:G269"/>
-    <mergeCell ref="H269:J269"/>
-    <mergeCell ref="K269:M269"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="H204:H205"/>
+    <mergeCell ref="I204:I205"/>
+    <mergeCell ref="M204:M205"/>
+    <mergeCell ref="C371:C375"/>
+    <mergeCell ref="C376:C380"/>
+    <mergeCell ref="C388:C389"/>
+    <mergeCell ref="H399:I399"/>
+    <mergeCell ref="J399:K399"/>
+    <mergeCell ref="D413:H413"/>
+    <mergeCell ref="I413:M413"/>
+    <mergeCell ref="F442:F443"/>
+    <mergeCell ref="G442:G445"/>
+    <mergeCell ref="F444:F445"/>
+    <mergeCell ref="C337:C339"/>
+    <mergeCell ref="C340:C342"/>
+    <mergeCell ref="C343:C345"/>
+    <mergeCell ref="C346:C348"/>
+    <mergeCell ref="C349:C351"/>
+    <mergeCell ref="Q358:Q359"/>
+    <mergeCell ref="R358:R361"/>
+    <mergeCell ref="Q360:Q361"/>
+    <mergeCell ref="C366:C370"/>
+    <mergeCell ref="P293:S293"/>
+    <mergeCell ref="P302:S302"/>
+    <mergeCell ref="C303:C307"/>
+    <mergeCell ref="C308:C312"/>
+    <mergeCell ref="C313:C317"/>
     <mergeCell ref="V319:W319"/>
     <mergeCell ref="C324:C325"/>
     <mergeCell ref="Q329:U329"/>
@@ -47674,35 +47782,68 @@
     <mergeCell ref="C277:C279"/>
     <mergeCell ref="C280:C282"/>
     <mergeCell ref="C283:C285"/>
-    <mergeCell ref="Q358:Q359"/>
-    <mergeCell ref="R358:R361"/>
-    <mergeCell ref="Q360:Q361"/>
-    <mergeCell ref="C366:C370"/>
-    <mergeCell ref="P293:S293"/>
-    <mergeCell ref="P302:S302"/>
-    <mergeCell ref="C303:C307"/>
-    <mergeCell ref="C308:C312"/>
-    <mergeCell ref="C313:C317"/>
-    <mergeCell ref="D413:H413"/>
-    <mergeCell ref="I413:M413"/>
-    <mergeCell ref="F442:F443"/>
-    <mergeCell ref="G442:G445"/>
-    <mergeCell ref="F444:F445"/>
-    <mergeCell ref="C337:C339"/>
-    <mergeCell ref="C340:C342"/>
-    <mergeCell ref="C343:C345"/>
-    <mergeCell ref="C346:C348"/>
-    <mergeCell ref="C349:C351"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="H204:H205"/>
-    <mergeCell ref="I204:I205"/>
-    <mergeCell ref="M204:M205"/>
-    <mergeCell ref="C371:C375"/>
-    <mergeCell ref="C376:C380"/>
-    <mergeCell ref="C388:C389"/>
-    <mergeCell ref="H399:I399"/>
-    <mergeCell ref="J399:K399"/>
+    <mergeCell ref="O214:O218"/>
+    <mergeCell ref="O219:O223"/>
+    <mergeCell ref="O224:O228"/>
+    <mergeCell ref="O240:O241"/>
+    <mergeCell ref="O242:O243"/>
+    <mergeCell ref="Q257:R257"/>
+    <mergeCell ref="T257:U257"/>
+    <mergeCell ref="E269:G269"/>
+    <mergeCell ref="H269:J269"/>
+    <mergeCell ref="K269:M269"/>
+    <mergeCell ref="T181:U181"/>
+    <mergeCell ref="O190:O194"/>
+    <mergeCell ref="O195:O199"/>
+    <mergeCell ref="O200:O204"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="Q107:S107"/>
+    <mergeCell ref="T107:V107"/>
+    <mergeCell ref="W107:Y107"/>
+    <mergeCell ref="Q139:S139"/>
+    <mergeCell ref="T139:V139"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <conditionalFormatting sqref="S126 V126 Y126 S158 V158 Y158">
     <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
@@ -48022,39 +48163,39 @@
         <f>Fluoro!D269</f>
         <v>Attenuator</v>
       </c>
-      <c r="E5" s="613" t="str">
+      <c r="E5" s="593" t="str">
         <f>Fluoro!E269</f>
         <v>Auto 1</v>
       </c>
-      <c r="F5" s="613">
+      <c r="F5" s="593">
         <f>Fluoro!F269</f>
         <v>0</v>
       </c>
-      <c r="G5" s="613">
+      <c r="G5" s="593">
         <f>Fluoro!G269</f>
         <v>0</v>
       </c>
-      <c r="H5" s="613" t="str">
+      <c r="H5" s="593" t="str">
         <f>Fluoro!H269</f>
         <v/>
       </c>
-      <c r="I5" s="613">
+      <c r="I5" s="593">
         <f>Fluoro!I269</f>
         <v>0</v>
       </c>
-      <c r="J5" s="613">
+      <c r="J5" s="593">
         <f>Fluoro!J269</f>
         <v>0</v>
       </c>
-      <c r="K5" s="614" t="str">
+      <c r="K5" s="594" t="str">
         <f>Fluoro!K269</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L5" s="614">
+      <c r="L5" s="594">
         <f>Fluoro!L269</f>
         <v>0</v>
       </c>
-      <c r="M5" s="614">
+      <c r="M5" s="594">
         <f>Fluoro!M269</f>
         <v>0</v>
       </c>
@@ -48111,7 +48252,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="633" t="str">
+      <c r="C7" s="632" t="str">
         <f>Fluoro!C271</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -48161,7 +48302,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="633">
+      <c r="C8" s="632">
         <f>Fluoro!C272</f>
         <v>0</v>
       </c>
@@ -48211,7 +48352,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="633">
+      <c r="C9" s="632">
         <f>Fluoro!C273</f>
         <v>0</v>
       </c>
@@ -48261,7 +48402,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="633" t="str">
+      <c r="C10" s="632" t="str">
         <f>Fluoro!C274</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -48311,7 +48452,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="633">
+      <c r="C11" s="632">
         <f>Fluoro!C275</f>
         <v>0</v>
       </c>
@@ -48361,7 +48502,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="633">
+      <c r="C12" s="632">
         <f>Fluoro!C276</f>
         <v>0</v>
       </c>
@@ -48411,7 +48552,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="633" t="str">
+      <c r="C13" s="632" t="str">
         <f>Fluoro!C277</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -48461,7 +48602,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="633">
+      <c r="C14" s="632">
         <f>Fluoro!C278</f>
         <v>0</v>
       </c>
@@ -48511,7 +48652,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="633">
+      <c r="C15" s="632">
         <f>Fluoro!C279</f>
         <v>0</v>
       </c>
@@ -48561,7 +48702,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="633" t="str">
+      <c r="C16" s="632" t="str">
         <f>Fluoro!C280</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -48611,7 +48752,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="633">
+      <c r="C17" s="632">
         <f>Fluoro!C281</f>
         <v>0</v>
       </c>
@@ -48661,7 +48802,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="633">
+      <c r="C18" s="632">
         <f>Fluoro!C282</f>
         <v>0</v>
       </c>
@@ -48711,7 +48852,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="633" t="str">
+      <c r="C19" s="632" t="str">
         <f>Fluoro!C283</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -48761,7 +48902,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="633">
+      <c r="C20" s="632">
         <f>Fluoro!C284</f>
         <v>0</v>
       </c>
@@ -48811,7 +48952,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="633">
+      <c r="C21" s="632">
         <f>Fluoro!C285</f>
         <v>0</v>
       </c>
@@ -49235,39 +49376,39 @@
         <f>Fluoro!D335</f>
         <v>Attenuator</v>
       </c>
-      <c r="E37" s="613" t="str">
+      <c r="E37" s="593" t="str">
         <f>Fluoro!E335</f>
         <v>Auto 1</v>
       </c>
-      <c r="F37" s="613">
+      <c r="F37" s="593">
         <f>Fluoro!F335</f>
         <v>0</v>
       </c>
-      <c r="G37" s="613">
+      <c r="G37" s="593">
         <f>Fluoro!G335</f>
         <v>0</v>
       </c>
-      <c r="H37" s="613" t="str">
+      <c r="H37" s="593" t="str">
         <f>Fluoro!H335</f>
         <v/>
       </c>
-      <c r="I37" s="613">
+      <c r="I37" s="593">
         <f>Fluoro!I335</f>
         <v>0</v>
       </c>
-      <c r="J37" s="613">
+      <c r="J37" s="593">
         <f>Fluoro!J335</f>
         <v>0</v>
       </c>
-      <c r="K37" s="614" t="str">
+      <c r="K37" s="594" t="str">
         <f>Fluoro!K335</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L37" s="614">
+      <c r="L37" s="594">
         <f>Fluoro!L335</f>
         <v>0</v>
       </c>
-      <c r="M37" s="614">
+      <c r="M37" s="594">
         <f>Fluoro!M335</f>
         <v>0</v>
       </c>
@@ -49324,7 +49465,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="10"/>
-      <c r="C39" s="633" t="str">
+      <c r="C39" s="632" t="str">
         <f>Fluoro!C337</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49374,7 +49515,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="10"/>
-      <c r="C40" s="633">
+      <c r="C40" s="632">
         <f>Fluoro!C338</f>
         <v>0</v>
       </c>
@@ -49424,7 +49565,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="633">
+      <c r="C41" s="632">
         <f>Fluoro!C339</f>
         <v>0</v>
       </c>
@@ -49474,7 +49615,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="10"/>
-      <c r="C42" s="633" t="str">
+      <c r="C42" s="632" t="str">
         <f>Fluoro!C340</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49524,7 +49665,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="10"/>
-      <c r="C43" s="633">
+      <c r="C43" s="632">
         <f>Fluoro!C341</f>
         <v>0</v>
       </c>
@@ -49574,7 +49715,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="10"/>
-      <c r="C44" s="633">
+      <c r="C44" s="632">
         <f>Fluoro!C342</f>
         <v>0</v>
       </c>
@@ -49624,7 +49765,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="10"/>
-      <c r="C45" s="633" t="str">
+      <c r="C45" s="632" t="str">
         <f>Fluoro!C343</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49674,7 +49815,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="10"/>
-      <c r="C46" s="633">
+      <c r="C46" s="632">
         <f>Fluoro!C344</f>
         <v>0</v>
       </c>
@@ -49724,7 +49865,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="10"/>
-      <c r="C47" s="633">
+      <c r="C47" s="632">
         <f>Fluoro!C345</f>
         <v>0</v>
       </c>
@@ -49774,7 +49915,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="10"/>
-      <c r="C48" s="633" t="str">
+      <c r="C48" s="632" t="str">
         <f>Fluoro!C346</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49824,7 +49965,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="10"/>
-      <c r="C49" s="633">
+      <c r="C49" s="632">
         <f>Fluoro!C347</f>
         <v>0</v>
       </c>
@@ -49874,7 +50015,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="10"/>
-      <c r="C50" s="633">
+      <c r="C50" s="632">
         <f>Fluoro!C348</f>
         <v>0</v>
       </c>
@@ -49924,7 +50065,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="633" t="str">
+      <c r="C51" s="632" t="str">
         <f>Fluoro!C349</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49974,7 +50115,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="10"/>
-      <c r="C52" s="633">
+      <c r="C52" s="632">
         <f>Fluoro!C350</f>
         <v>0</v>
       </c>
@@ -50024,7 +50165,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="10"/>
-      <c r="C53" s="633">
+      <c r="C53" s="632">
         <f>Fluoro!C351</f>
         <v>0</v>
       </c>
@@ -50218,7 +50359,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="10"/>
-      <c r="C60" s="632"/>
+      <c r="C60" s="633"/>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60"/>
@@ -50235,7 +50376,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="10"/>
-      <c r="C61" s="632"/>
+      <c r="C61" s="633"/>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61"/>
@@ -50883,7 +51024,7 @@
     <row r="102" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102"/>
-      <c r="C102" s="632"/>
+      <c r="C102" s="633"/>
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102"/>
@@ -50898,7 +51039,7 @@
     <row r="103" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103"/>
-      <c r="C103" s="632"/>
+      <c r="C103" s="633"/>
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103"/>
@@ -50913,7 +51054,7 @@
     <row r="104" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104"/>
-      <c r="C104" s="632"/>
+      <c r="C104" s="633"/>
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104"/>
@@ -50928,7 +51069,7 @@
     <row r="105" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105"/>
       <c r="B105"/>
-      <c r="C105" s="632"/>
+      <c r="C105" s="633"/>
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105"/>
@@ -50943,7 +51084,7 @@
     <row r="106" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="B106"/>
-      <c r="C106" s="632"/>
+      <c r="C106" s="633"/>
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106"/>
@@ -50958,7 +51099,7 @@
     <row r="107" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107"/>
-      <c r="C107" s="632"/>
+      <c r="C107" s="633"/>
       <c r="D107"/>
       <c r="E107"/>
       <c r="F107"/>
@@ -50973,7 +51114,7 @@
     <row r="108" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108"/>
-      <c r="C108" s="632"/>
+      <c r="C108" s="633"/>
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108"/>
@@ -50988,7 +51129,7 @@
     <row r="109" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109"/>
       <c r="B109"/>
-      <c r="C109" s="632"/>
+      <c r="C109" s="633"/>
       <c r="D109"/>
       <c r="E109"/>
       <c r="F109"/>
@@ -51003,7 +51144,7 @@
     <row r="110" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110"/>
-      <c r="C110" s="632"/>
+      <c r="C110" s="633"/>
       <c r="D110"/>
       <c r="E110"/>
       <c r="F110"/>
@@ -51018,7 +51159,7 @@
     <row r="111" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111"/>
       <c r="B111"/>
-      <c r="C111" s="632"/>
+      <c r="C111" s="633"/>
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111"/>
@@ -51033,7 +51174,7 @@
     <row r="112" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112"/>
-      <c r="C112" s="632"/>
+      <c r="C112" s="633"/>
       <c r="D112"/>
       <c r="E112"/>
       <c r="F112"/>
@@ -51048,7 +51189,7 @@
     <row r="113" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113"/>
       <c r="B113"/>
-      <c r="C113" s="632"/>
+      <c r="C113" s="633"/>
       <c r="D113"/>
       <c r="E113"/>
       <c r="F113"/>
@@ -51063,7 +51204,7 @@
     <row r="114" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114"/>
       <c r="B114"/>
-      <c r="C114" s="632"/>
+      <c r="C114" s="633"/>
       <c r="D114"/>
       <c r="E114"/>
       <c r="F114"/>
@@ -51078,7 +51219,7 @@
     <row r="115" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115"/>
       <c r="B115"/>
-      <c r="C115" s="632"/>
+      <c r="C115" s="633"/>
       <c r="D115"/>
       <c r="E115"/>
       <c r="F115"/>
@@ -51093,7 +51234,7 @@
     <row r="116" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116"/>
       <c r="B116"/>
-      <c r="C116" s="632"/>
+      <c r="C116" s="633"/>
       <c r="D116"/>
       <c r="E116"/>
       <c r="F116"/>
@@ -51213,7 +51354,7 @@
     <row r="124" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="B124"/>
-      <c r="C124" s="632"/>
+      <c r="C124" s="633"/>
       <c r="D124"/>
       <c r="E124"/>
       <c r="F124"/>
@@ -51228,7 +51369,7 @@
     <row r="125" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125"/>
-      <c r="C125" s="632"/>
+      <c r="C125" s="633"/>
       <c r="D125"/>
       <c r="E125"/>
       <c r="F125"/>
@@ -51360,17 +51501,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="21">
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
     <mergeCell ref="C102:C106"/>
     <mergeCell ref="C107:C111"/>
     <mergeCell ref="C112:C116"/>
@@ -51381,6 +51511,17 @@
     <mergeCell ref="C48:C50"/>
     <mergeCell ref="C51:C53"/>
     <mergeCell ref="C60:C61"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.88611111111111096" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -51412,29 +51553,29 @@
       </c>
       <c r="B1" s="634"/>
       <c r="N1" s="278"/>
-      <c r="O1" s="607" t="str">
+      <c r="O1" s="606" t="str">
         <f>Fluoro!O105</f>
         <v>Patient Entrance Exposure Rate (Fluoroscopy)*</v>
       </c>
-      <c r="P1" s="607"/>
-      <c r="Q1" s="607"/>
-      <c r="R1" s="607" t="s">
+      <c r="P1" s="606"/>
+      <c r="Q1" s="606"/>
+      <c r="R1" s="606" t="s">
         <v>407</v>
       </c>
-      <c r="S1" s="607"/>
-      <c r="T1" s="607"/>
+      <c r="S1" s="606"/>
+      <c r="T1" s="606"/>
       <c r="V1" s="278"/>
-      <c r="W1" s="607" t="str">
+      <c r="W1" s="606" t="str">
         <f>Fluoro!O137</f>
         <v>Patient Entrance Exposure Rate – Digital Acquisition</v>
       </c>
-      <c r="X1" s="607"/>
-      <c r="Y1" s="607"/>
-      <c r="Z1" s="607" t="s">
+      <c r="X1" s="606"/>
+      <c r="Y1" s="606"/>
+      <c r="Z1" s="606" t="s">
         <v>407</v>
       </c>
-      <c r="AA1" s="607"/>
-      <c r="AB1" s="607"/>
+      <c r="AA1" s="606"/>
+      <c r="AB1" s="606"/>
     </row>
     <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="279">
@@ -55427,14 +55568,14 @@
       <c r="B75" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E75" s="607" t="s">
+      <c r="E75" s="606" t="s">
         <v>420</v>
       </c>
-      <c r="F75" s="607"/>
-      <c r="I75" s="607" t="s">
+      <c r="F75" s="606"/>
+      <c r="I75" s="606" t="s">
         <v>421</v>
       </c>
-      <c r="J75" s="607"/>
+      <c r="J75" s="606"/>
     </row>
     <row r="76" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">

--- a/MUSCCArm.xlsx
+++ b/MUSCCArm.xlsx
@@ -19470,6 +19470,294 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2067" name="AutoShape 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2068" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2069" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2070" name="AutoShape 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2071" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2072" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19738,8 +20026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD792"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N239" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O255" sqref="O255"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/MUSCCArm.xlsx
+++ b/MUSCCArm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fluoro" sheetId="1" r:id="rId1"/>
@@ -84,18 +84,30 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>EM</author>
+    <author>Eugene Mah</author>
   </authors>
   <commentList>
     <comment ref="A30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Nominal contrast values as a function of kVp</t>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nominal contrast values as a function of kVp</t>
         </r>
       </text>
     </comment>
@@ -103,11 +115,23 @@
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>TO.10 nominal contrast values</t>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+TO.10 nominal contrast values</t>
         </r>
       </text>
     </comment>
@@ -115,11 +139,23 @@
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>TO.10 contrast values at the kVp specified in G55</t>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+TO.10 contrast values at the kVp specified in Fluoro!V319</t>
         </r>
       </text>
     </comment>
@@ -1523,16 +1559,11 @@
     <numFmt numFmtId="172" formatCode="[$-409]d/mmm/yyyy;@"/>
     <numFmt numFmtId="173" formatCode="mmm/yyyy"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1650,6 +1681,19 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -4598,29 +4642,29 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="3" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="2" fontId="19" fillId="3" borderId="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="4" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="2" fontId="19" fillId="4" borderId="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4628,1909 +4672,1909 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="7" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="9" borderId="75" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="128" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="134" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="135" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="137" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="138" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="142" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="126" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="127" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="144" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="146" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="147" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="142" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="148" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="149" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="150" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="151" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="152" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="154" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="153" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="155" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="140" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="157" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="158" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="159" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="160" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="161" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="162" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="132" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="133" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="164" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="165" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="143" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="168" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="169" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="170" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="138" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="139" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="171" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="172" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="148" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="174" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="175" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="176" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="128" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="128" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="130" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="177" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="179" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="155" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="140" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="181" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="184" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="173" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="185" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="186" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="188" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="189" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="190" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="191" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="194" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="195" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="196" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="198" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="197" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="200" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="201" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="202" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="203" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="204" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="205" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="206" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="207" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="208" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="209" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="138" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="211" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="211" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="210" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="212" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="212" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="213" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="213" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="3" fillId="9" borderId="75" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="214" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="215" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="217" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="218" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="219" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="221" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="7" borderId="221" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="3" fillId="6" borderId="216" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="219" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="220" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="198" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="145" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="199" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="226" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="227" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="224" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="224" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="225" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="200" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="201" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="222" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="223" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="139" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="183" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="192" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="193" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="154" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="180" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="155" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="182" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="175" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="176" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="7" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="8" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="9" borderId="75" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="128" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="134" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="135" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="137" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="138" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="142" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="126" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="127" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="144" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="146" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="147" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="142" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="148" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="149" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="150" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="151" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="152" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="154" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="153" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="155" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="140" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="157" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="158" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="159" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="160" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="161" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="162" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="132" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="133" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="164" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="165" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="143" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="168" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="169" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="170" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="138" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="139" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="171" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="172" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="148" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="174" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="175" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="176" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="128" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="128" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="130" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="177" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="179" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="155" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="140" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="181" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="184" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="173" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="185" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="186" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="188" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="189" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="190" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="191" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="194" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="195" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="196" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="198" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="197" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="200" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="201" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="202" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="203" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="204" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="205" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="206" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="207" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="208" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="209" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="138" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="211" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="211" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="210" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="212" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="212" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="213" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="213" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="9" borderId="75" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="214" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="215" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="217" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="218" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="219" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="221" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="7" borderId="221" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="6" borderId="216" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="219" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="220" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="198" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="145" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="199" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="226" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="227" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="224" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="224" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="225" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="155" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="182" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="175" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="176" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="154" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="180" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="200" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="201" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="222" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="223" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="139" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="183" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="192" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="193" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7028,6 +7072,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7205,6 +7250,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7276,6 +7322,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19758,6 +19805,150 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2073" name="AutoShape 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2074" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2075" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20026,8 +20217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD792"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="L308" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V318" sqref="V318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20338,21 +20529,21 @@
       <c r="E10" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="577" t="str">
+      <c r="F10" s="628" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="577"/>
+      <c r="G10" s="628"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="578" t="str">
+      <c r="K10" s="621" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="578"/>
+      <c r="L10" s="621"/>
       <c r="M10" s="312"/>
       <c r="O10" s="13"/>
       <c r="Q10" s="2" t="s">
@@ -20395,21 +20586,21 @@
       <c r="E11" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="579" t="str">
+      <c r="F11" s="622" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="579"/>
+      <c r="G11" s="622"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
       <c r="J11" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="579" t="str">
+      <c r="K11" s="622" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="579"/>
+      <c r="L11" s="622"/>
       <c r="M11" s="312"/>
       <c r="O11" s="13"/>
       <c r="Q11" s="2" t="s">
@@ -20452,21 +20643,21 @@
       <c r="E12" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="579" t="str">
+      <c r="F12" s="622" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="579"/>
+      <c r="G12" s="622"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
       <c r="J12" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="580" t="str">
+      <c r="K12" s="630" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="580"/>
+      <c r="L12" s="630"/>
       <c r="M12" s="312"/>
       <c r="O12" s="13"/>
       <c r="Q12" s="2" t="s">
@@ -20509,21 +20700,21 @@
       <c r="E13" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="581" t="str">
+      <c r="F13" s="623" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="581"/>
+      <c r="G13" s="623"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
       <c r="J13" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="581" t="str">
+      <c r="K13" s="623" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="581"/>
+      <c r="L13" s="623"/>
       <c r="M13" s="312"/>
       <c r="O13" s="13"/>
       <c r="Q13" s="2" t="s">
@@ -20646,21 +20837,21 @@
       <c r="E16" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="577" t="str">
+      <c r="F16" s="628" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="577"/>
+      <c r="G16" s="628"/>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
       <c r="J16" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="582" t="str">
+      <c r="K16" s="631" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="582"/>
+      <c r="L16" s="631"/>
       <c r="M16" s="312"/>
       <c r="O16" s="13"/>
       <c r="P16" s="50" t="s">
@@ -20690,21 +20881,21 @@
       <c r="E17" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="579" t="str">
+      <c r="F17" s="622" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="579"/>
+      <c r="G17" s="622"/>
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
       <c r="J17" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="581" t="str">
+      <c r="K17" s="623" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="581"/>
+      <c r="L17" s="623"/>
       <c r="M17" s="312"/>
       <c r="O17" s="13"/>
       <c r="Q17" s="2" t="s">
@@ -20747,21 +20938,21 @@
       <c r="E18" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="581" t="str">
+      <c r="F18" s="623" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="581"/>
+      <c r="G18" s="623"/>
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
       <c r="J18" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="581" t="str">
+      <c r="K18" s="623" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="581"/>
+      <c r="L18" s="623"/>
       <c r="M18" s="312"/>
       <c r="O18" s="13"/>
       <c r="Q18" s="2" t="s">
@@ -20809,11 +21000,11 @@
       <c r="J19" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="581" t="str">
+      <c r="K19" s="623" t="str">
         <f>IF(V20="","",V20)</f>
         <v/>
       </c>
-      <c r="L19" s="581"/>
+      <c r="L19" s="623"/>
       <c r="M19" s="312"/>
       <c r="O19" s="13"/>
       <c r="Q19" s="2" t="s">
@@ -20888,11 +21079,11 @@
       <c r="E21" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="577" t="str">
+      <c r="F21" s="628" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="577"/>
+      <c r="G21" s="628"/>
       <c r="H21" s="42"/>
       <c r="I21" s="42"/>
       <c r="J21" s="73" t="s">
@@ -20932,21 +21123,21 @@
       <c r="E22" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="583" t="str">
+      <c r="F22" s="629" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="583"/>
+      <c r="G22" s="629"/>
       <c r="H22" s="42"/>
       <c r="I22" s="42"/>
       <c r="J22" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="577" t="str">
+      <c r="K22" s="628" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="577"/>
+      <c r="L22" s="628"/>
       <c r="M22" s="312"/>
       <c r="O22" s="13"/>
       <c r="Q22" s="2" t="s">
@@ -20991,11 +21182,11 @@
       <c r="J23" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="579" t="str">
+      <c r="K23" s="622" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="579"/>
+      <c r="L23" s="622"/>
       <c r="M23" s="312"/>
       <c r="O23" s="13"/>
       <c r="Q23" s="2" t="s">
@@ -21038,21 +21229,21 @@
       <c r="E24" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="578" t="str">
+      <c r="F24" s="621" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="578"/>
+      <c r="G24" s="621"/>
       <c r="H24" s="42"/>
       <c r="I24" s="42"/>
       <c r="J24" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="579" t="str">
+      <c r="K24" s="622" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="579"/>
+      <c r="L24" s="622"/>
       <c r="M24" s="312"/>
       <c r="O24" s="13"/>
       <c r="P24" s="50" t="s">
@@ -21090,11 +21281,11 @@
       <c r="E25" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="581" t="str">
+      <c r="F25" s="623" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="581"/>
+      <c r="G25" s="623"/>
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
@@ -21142,11 +21333,11 @@
       <c r="E26" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="581" t="str">
+      <c r="F26" s="623" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="581"/>
+      <c r="G26" s="623"/>
       <c r="H26" s="42"/>
       <c r="I26" s="42"/>
       <c r="J26" s="313" t="s">
@@ -21195,11 +21386,11 @@
       <c r="J27" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="577" t="str">
+      <c r="K27" s="628" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="577"/>
+      <c r="L27" s="628"/>
       <c r="M27" s="312"/>
       <c r="O27" s="13"/>
       <c r="Q27" s="2" t="s">
@@ -21237,21 +21428,21 @@
       <c r="E28" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="578" t="str">
+      <c r="F28" s="621" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="578"/>
+      <c r="G28" s="621"/>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
       <c r="J28" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="579" t="str">
+      <c r="K28" s="622" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="579"/>
+      <c r="L28" s="622"/>
       <c r="M28" s="312"/>
       <c r="O28" s="13"/>
       <c r="P28" s="50" t="s">
@@ -21280,11 +21471,11 @@
       <c r="E29" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="581" t="str">
+      <c r="F29" s="623" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="581"/>
+      <c r="G29" s="623"/>
       <c r="H29" s="42"/>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
@@ -21332,11 +21523,11 @@
       <c r="E30" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="581" t="str">
+      <c r="F30" s="623" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="581"/>
+      <c r="G30" s="623"/>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
@@ -21451,11 +21642,11 @@
       <c r="E33" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="577" t="str">
+      <c r="F33" s="628" t="str">
         <f>IF(R34="","",R34)</f>
         <v/>
       </c>
-      <c r="G33" s="577"/>
+      <c r="G33" s="628"/>
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
       <c r="J33" s="73" t="s">
@@ -21492,21 +21683,21 @@
       <c r="E34" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="583" t="str">
+      <c r="F34" s="629" t="str">
         <f>IF(R35="","",R35)</f>
         <v/>
       </c>
-      <c r="G34" s="583"/>
+      <c r="G34" s="629"/>
       <c r="H34" s="42"/>
       <c r="I34" s="42"/>
       <c r="J34" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="577" t="str">
+      <c r="K34" s="628" t="str">
         <f>IF(V35="","",V35)</f>
         <v/>
       </c>
-      <c r="L34" s="577"/>
+      <c r="L34" s="628"/>
       <c r="M34" s="312"/>
       <c r="O34" s="13"/>
       <c r="Q34" s="2" t="s">
@@ -21551,11 +21742,11 @@
       <c r="J35" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="579" t="str">
+      <c r="K35" s="622" t="str">
         <f>IF(V36="","",V36)</f>
         <v/>
       </c>
-      <c r="L35" s="579"/>
+      <c r="L35" s="622"/>
       <c r="M35" s="312"/>
       <c r="O35" s="13"/>
       <c r="Q35" s="2" t="s">
@@ -21598,21 +21789,21 @@
       <c r="E36" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="578" t="str">
+      <c r="F36" s="621" t="str">
         <f>IF(R37="","",R37)</f>
         <v/>
       </c>
-      <c r="G36" s="578"/>
+      <c r="G36" s="621"/>
       <c r="H36" s="42"/>
       <c r="I36" s="42"/>
       <c r="J36" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="K36" s="579" t="str">
+      <c r="K36" s="622" t="str">
         <f>IF(V37="","",V37)</f>
         <v/>
       </c>
-      <c r="L36" s="579"/>
+      <c r="L36" s="622"/>
       <c r="M36" s="312"/>
       <c r="O36" s="13"/>
       <c r="P36" s="50" t="s">
@@ -21650,11 +21841,11 @@
       <c r="E37" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="581" t="str">
+      <c r="F37" s="623" t="str">
         <f>IF(R38="","",R38)</f>
         <v/>
       </c>
-      <c r="G37" s="581"/>
+      <c r="G37" s="623"/>
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
       <c r="J37" s="42"/>
@@ -21702,11 +21893,11 @@
       <c r="E38" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="581" t="str">
+      <c r="F38" s="623" t="str">
         <f>IF(R39="","",R39)</f>
         <v/>
       </c>
-      <c r="G38" s="581"/>
+      <c r="G38" s="623"/>
       <c r="H38" s="42"/>
       <c r="I38" s="42"/>
       <c r="J38" s="313" t="s">
@@ -21753,11 +21944,11 @@
       <c r="J39" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="K39" s="577" t="str">
+      <c r="K39" s="628" t="str">
         <f>IF(V40="","",V40)</f>
         <v/>
       </c>
-      <c r="L39" s="577"/>
+      <c r="L39" s="628"/>
       <c r="M39" s="312"/>
       <c r="O39" s="13"/>
       <c r="Q39" s="2" t="s">
@@ -21795,21 +21986,21 @@
       <c r="E40" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="578" t="str">
+      <c r="F40" s="621" t="str">
         <f>IF(R41="","",R41)</f>
         <v/>
       </c>
-      <c r="G40" s="578"/>
+      <c r="G40" s="621"/>
       <c r="H40" s="42"/>
       <c r="I40" s="42"/>
       <c r="J40" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="K40" s="579" t="str">
+      <c r="K40" s="622" t="str">
         <f>IF(V41="","",V41)</f>
         <v/>
       </c>
-      <c r="L40" s="579"/>
+      <c r="L40" s="622"/>
       <c r="M40" s="312"/>
       <c r="O40" s="13"/>
       <c r="P40" s="50" t="s">
@@ -21847,11 +22038,11 @@
       <c r="E41" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="581" t="str">
+      <c r="F41" s="623" t="str">
         <f>IF(R42="","",R42)</f>
         <v/>
       </c>
-      <c r="G41" s="581"/>
+      <c r="G41" s="623"/>
       <c r="H41" s="42"/>
       <c r="I41" s="42"/>
       <c r="J41" s="42"/>
@@ -21899,11 +22090,11 @@
       <c r="E42" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="581" t="str">
+      <c r="F42" s="623" t="str">
         <f>IF(R43="","",R43)</f>
         <v/>
       </c>
-      <c r="G42" s="581"/>
+      <c r="G42" s="623"/>
       <c r="H42" s="42"/>
       <c r="I42" s="42"/>
       <c r="J42" s="42"/>
@@ -22668,10 +22859,10 @@
       <c r="I69" s="299"/>
       <c r="J69" s="299"/>
       <c r="K69" s="299"/>
-      <c r="L69" s="588" t="s">
+      <c r="L69" s="624" t="s">
         <v>84</v>
       </c>
-      <c r="M69" s="589"/>
+      <c r="M69" s="625"/>
       <c r="O69" s="56"/>
       <c r="P69" s="17" t="s">
         <v>85</v>
@@ -24340,24 +24531,24 @@
       <c r="P107" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="Q107" s="585" t="str">
+      <c r="Q107" s="626" t="str">
         <f>IF(Q106&lt;&gt;"",Q106,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R107" s="585"/>
-      <c r="S107" s="585"/>
-      <c r="T107" s="584" t="str">
+      <c r="R107" s="626"/>
+      <c r="S107" s="626"/>
+      <c r="T107" s="627" t="str">
         <f>IF(T106&lt;&gt;"",T106,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v/>
       </c>
-      <c r="U107" s="584"/>
-      <c r="V107" s="584"/>
-      <c r="W107" s="584" t="str">
+      <c r="U107" s="627"/>
+      <c r="V107" s="627"/>
+      <c r="W107" s="627" t="str">
         <f>IF(W106&lt;&gt;"",W106,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="X107" s="584"/>
-      <c r="Y107" s="584"/>
+      <c r="X107" s="627"/>
+      <c r="Y107" s="627"/>
       <c r="AA107" s="2" t="s">
         <v>153</v>
       </c>
@@ -26347,24 +26538,24 @@
       <c r="P139" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="Q139" s="585" t="str">
+      <c r="Q139" s="626" t="str">
         <f>IF(Q138&lt;&gt;"",Q138,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R139" s="585"/>
-      <c r="S139" s="585"/>
-      <c r="T139" s="584" t="str">
+      <c r="R139" s="626"/>
+      <c r="S139" s="626"/>
+      <c r="T139" s="627" t="str">
         <f>IF(T138&lt;&gt;"",T138,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v/>
       </c>
-      <c r="U139" s="584"/>
-      <c r="V139" s="584"/>
-      <c r="W139" s="584" t="str">
+      <c r="U139" s="627"/>
+      <c r="V139" s="627"/>
+      <c r="W139" s="627" t="str">
         <f>IF(W138&lt;&gt;"",W138,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="X139" s="584"/>
-      <c r="Y139" s="584"/>
+      <c r="X139" s="627"/>
+      <c r="Y139" s="627"/>
       <c r="AA139" s="2" t="str">
         <f>$T$139&amp;" Mag 4"</f>
         <v xml:space="preserve"> Mag 4</v>
@@ -28708,10 +28899,10 @@
       <c r="P181" s="135"/>
       <c r="Q181" s="137"/>
       <c r="R181" s="128"/>
-      <c r="T181" s="586" t="s">
+      <c r="T181" s="610" t="s">
         <v>245</v>
       </c>
-      <c r="U181" s="586"/>
+      <c r="U181" s="610"/>
       <c r="W181" s="2" t="s">
         <v>199</v>
       </c>
@@ -29082,7 +29273,7 @@
       <c r="K190" s="323"/>
       <c r="L190" s="323"/>
       <c r="M190" s="327"/>
-      <c r="O190" s="587" t="str">
+      <c r="O190" s="618" t="str">
         <f>$Q$107</f>
         <v>Auto 1</v>
       </c>
@@ -29132,7 +29323,7 @@
       <c r="K191" s="323"/>
       <c r="L191" s="323"/>
       <c r="M191" s="303"/>
-      <c r="O191" s="587"/>
+      <c r="O191" s="618"/>
       <c r="P191" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -29178,7 +29369,7 @@
       <c r="K192" s="135"/>
       <c r="L192" s="135"/>
       <c r="M192" s="303"/>
-      <c r="O192" s="587"/>
+      <c r="O192" s="618"/>
       <c r="P192" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -29224,7 +29415,7 @@
       <c r="K193" s="135"/>
       <c r="L193" s="135"/>
       <c r="M193" s="303"/>
-      <c r="O193" s="587"/>
+      <c r="O193" s="618"/>
       <c r="P193" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -29267,7 +29458,7 @@
       <c r="K194" s="135"/>
       <c r="L194" s="135"/>
       <c r="M194" s="303"/>
-      <c r="O194" s="587"/>
+      <c r="O194" s="618"/>
       <c r="P194" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -29310,7 +29501,7 @@
       <c r="K195" s="135"/>
       <c r="L195" s="135"/>
       <c r="M195" s="303"/>
-      <c r="O195" s="587" t="str">
+      <c r="O195" s="618" t="str">
         <f>$T$107</f>
         <v/>
       </c>
@@ -29356,7 +29547,7 @@
       <c r="K196" s="305"/>
       <c r="L196" s="305"/>
       <c r="M196" s="306"/>
-      <c r="O196" s="587"/>
+      <c r="O196" s="618"/>
       <c r="P196" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -29401,7 +29592,7 @@
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="O197" s="587"/>
+      <c r="O197" s="618"/>
       <c r="P197" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -29446,7 +29637,7 @@
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
-      <c r="O198" s="587"/>
+      <c r="O198" s="618"/>
       <c r="P198" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -29492,7 +29683,7 @@
         <f>$H$2</f>
         <v>Medical University of South Carolina</v>
       </c>
-      <c r="O199" s="587"/>
+      <c r="O199" s="618"/>
       <c r="P199" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -29541,7 +29732,7 @@
         <f>$H$5</f>
         <v>Fluoroscopy System Compliance Inspection</v>
       </c>
-      <c r="O200" s="587" t="str">
+      <c r="O200" s="618" t="str">
         <f>$W$107</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -29590,7 +29781,7 @@
       <c r="K201" s="299"/>
       <c r="L201" s="299"/>
       <c r="M201" s="300"/>
-      <c r="O201" s="587"/>
+      <c r="O201" s="618"/>
       <c r="P201" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -29644,7 +29835,7 @@
         <v/>
       </c>
       <c r="M202" s="12"/>
-      <c r="O202" s="587"/>
+      <c r="O202" s="618"/>
       <c r="P202" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -29677,7 +29868,7 @@
       </c>
       <c r="B203" s="10"/>
       <c r="M203" s="12"/>
-      <c r="O203" s="587"/>
+      <c r="O203" s="618"/>
       <c r="P203" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -29711,20 +29902,20 @@
       <c r="B204" s="301"/>
       <c r="C204" s="351"/>
       <c r="D204" s="323"/>
-      <c r="E204" s="620" t="s">
+      <c r="E204" s="577" t="s">
         <v>262</v>
       </c>
-      <c r="F204" s="622" t="s">
+      <c r="F204" s="579" t="s">
         <v>263</v>
       </c>
       <c r="G204" s="518" t="s">
         <v>264</v>
       </c>
-      <c r="H204" s="620" t="str">
+      <c r="H204" s="577" t="str">
         <f>R276</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="I204" s="624" t="str">
+      <c r="I204" s="581" t="str">
         <f>S276</f>
         <v>Meas AK @ Ref Pt (mGy)</v>
       </c>
@@ -29737,10 +29928,10 @@
       <c r="L204" s="135" t="s">
         <v>267</v>
       </c>
-      <c r="M204" s="626" t="s">
+      <c r="M204" s="583" t="s">
         <v>268</v>
       </c>
-      <c r="O204" s="587"/>
+      <c r="O204" s="618"/>
       <c r="P204" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -29778,11 +29969,11 @@
       <c r="D205" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="E205" s="621"/>
-      <c r="F205" s="623"/>
+      <c r="E205" s="578"/>
+      <c r="F205" s="580"/>
       <c r="G205" s="518"/>
-      <c r="H205" s="621"/>
-      <c r="I205" s="625"/>
+      <c r="H205" s="578"/>
+      <c r="I205" s="582"/>
       <c r="J205" s="519"/>
       <c r="K205" s="135" t="str">
         <f>U277</f>
@@ -29792,7 +29983,7 @@
         <f>V277</f>
         <v>mGy/min</v>
       </c>
-      <c r="M205" s="627"/>
+      <c r="M205" s="584"/>
       <c r="O205" s="13"/>
       <c r="Y205" s="14"/>
       <c r="AA205" s="2" t="s">
@@ -30436,7 +30627,7 @@
         <f>W286</f>
         <v/>
       </c>
-      <c r="O214" s="587" t="str">
+      <c r="O214" s="618" t="str">
         <f>$Q$139</f>
         <v>Auto 1</v>
       </c>
@@ -30492,7 +30683,7 @@
       <c r="K215" s="135"/>
       <c r="L215" s="135"/>
       <c r="M215" s="303"/>
-      <c r="O215" s="587"/>
+      <c r="O215" s="618"/>
       <c r="P215" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -30538,7 +30729,7 @@
       <c r="K216" s="323"/>
       <c r="L216" s="323"/>
       <c r="M216" s="303"/>
-      <c r="O216" s="587"/>
+      <c r="O216" s="618"/>
       <c r="P216" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -30584,7 +30775,7 @@
       <c r="K217" s="368"/>
       <c r="L217" s="368"/>
       <c r="M217" s="369"/>
-      <c r="O217" s="587"/>
+      <c r="O217" s="618"/>
       <c r="P217" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -30631,7 +30822,7 @@
       <c r="K218" s="323"/>
       <c r="L218" s="323"/>
       <c r="M218" s="303"/>
-      <c r="O218" s="587"/>
+      <c r="O218" s="618"/>
       <c r="P218" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -30674,7 +30865,7 @@
       <c r="K219" s="323"/>
       <c r="L219" s="323"/>
       <c r="M219" s="327"/>
-      <c r="O219" s="587" t="str">
+      <c r="O219" s="618" t="str">
         <f>$T$139</f>
         <v/>
       </c>
@@ -30735,7 +30926,7 @@
         <v/>
       </c>
       <c r="M220" s="327"/>
-      <c r="O220" s="587"/>
+      <c r="O220" s="618"/>
       <c r="P220" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -30778,7 +30969,7 @@
       <c r="K221" s="323"/>
       <c r="L221" s="323"/>
       <c r="M221" s="327"/>
-      <c r="O221" s="587"/>
+      <c r="O221" s="618"/>
       <c r="P221" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -30829,7 +31020,7 @@
       <c r="K222" s="323"/>
       <c r="L222" s="323"/>
       <c r="M222" s="327"/>
-      <c r="O222" s="587"/>
+      <c r="O222" s="618"/>
       <c r="P222" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -30886,7 +31077,7 @@
       <c r="K223" s="323"/>
       <c r="L223" s="323"/>
       <c r="M223" s="327"/>
-      <c r="O223" s="587"/>
+      <c r="O223" s="618"/>
       <c r="P223" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -30950,7 +31141,7 @@
       <c r="K224" s="323"/>
       <c r="L224" s="323"/>
       <c r="M224" s="327"/>
-      <c r="O224" s="587" t="str">
+      <c r="O224" s="618" t="str">
         <f>$W$139</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -31014,7 +31205,7 @@
       <c r="K225" s="323"/>
       <c r="L225" s="323"/>
       <c r="M225" s="327"/>
-      <c r="O225" s="587"/>
+      <c r="O225" s="618"/>
       <c r="P225" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -31075,7 +31266,7 @@
       <c r="K226" s="323"/>
       <c r="L226" s="323"/>
       <c r="M226" s="327"/>
-      <c r="O226" s="587"/>
+      <c r="O226" s="618"/>
       <c r="P226" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -31136,7 +31327,7 @@
       <c r="K227" s="323"/>
       <c r="L227" s="323"/>
       <c r="M227" s="327"/>
-      <c r="O227" s="587"/>
+      <c r="O227" s="618"/>
       <c r="P227" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -31190,7 +31381,7 @@
       <c r="K228" s="323"/>
       <c r="L228" s="323"/>
       <c r="M228" s="327"/>
-      <c r="O228" s="587"/>
+      <c r="O228" s="618"/>
       <c r="P228" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -31743,7 +31934,7 @@
       <c r="K240" s="323"/>
       <c r="L240" s="323"/>
       <c r="M240" s="327"/>
-      <c r="O240" s="590" t="s">
+      <c r="O240" s="619" t="s">
         <v>294</v>
       </c>
       <c r="P240" s="167" t="s">
@@ -31802,7 +31993,7 @@
       <c r="K241" s="323"/>
       <c r="L241" s="323"/>
       <c r="M241" s="327"/>
-      <c r="O241" s="590"/>
+      <c r="O241" s="619"/>
       <c r="P241" s="172" t="s">
         <v>297</v>
       </c>
@@ -31859,7 +32050,7 @@
       <c r="K242" s="323"/>
       <c r="L242" s="323"/>
       <c r="M242" s="327"/>
-      <c r="O242" s="590" t="str">
+      <c r="O242" s="619" t="str">
         <f>IF($U$137=1,"Scatter - Pulse", "Scatter – Digital acq")</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -31919,7 +32110,7 @@
       <c r="K243" s="323"/>
       <c r="L243" s="323"/>
       <c r="M243" s="327"/>
-      <c r="O243" s="590"/>
+      <c r="O243" s="619"/>
       <c r="P243" s="172" t="s">
         <v>297</v>
       </c>
@@ -32449,17 +32640,17 @@
       <c r="P257" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Q257" s="591" t="s">
+      <c r="Q257" s="620" t="s">
         <v>313</v>
       </c>
-      <c r="R257" s="591"/>
+      <c r="R257" s="620"/>
       <c r="S257" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="T257" s="591" t="s">
+      <c r="T257" s="620" t="s">
         <v>315</v>
       </c>
-      <c r="U257" s="591"/>
+      <c r="U257" s="620"/>
       <c r="V257" s="1" t="s">
         <v>316</v>
       </c>
@@ -32947,24 +33138,24 @@
         <f t="shared" si="43"/>
         <v>Attenuator</v>
       </c>
-      <c r="E269" s="592" t="str">
+      <c r="E269" s="612" t="str">
         <f>Q107</f>
         <v>Auto 1</v>
       </c>
-      <c r="F269" s="593"/>
-      <c r="G269" s="593"/>
-      <c r="H269" s="593" t="str">
+      <c r="F269" s="613"/>
+      <c r="G269" s="613"/>
+      <c r="H269" s="613" t="str">
         <f>T107</f>
         <v/>
       </c>
-      <c r="I269" s="593"/>
-      <c r="J269" s="593"/>
-      <c r="K269" s="594" t="str">
+      <c r="I269" s="613"/>
+      <c r="J269" s="613"/>
+      <c r="K269" s="614" t="str">
         <f>W107</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L269" s="594"/>
-      <c r="M269" s="595"/>
+      <c r="L269" s="614"/>
+      <c r="M269" s="615"/>
       <c r="O269" s="189" t="str">
         <f t="shared" si="44"/>
         <v/>
@@ -33066,7 +33257,7 @@
         <v>7</v>
       </c>
       <c r="B271" s="301"/>
-      <c r="C271" s="599" t="str">
+      <c r="C271" s="602" t="str">
         <f>O110&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33142,7 +33333,7 @@
         <v>8</v>
       </c>
       <c r="B272" s="301"/>
-      <c r="C272" s="599"/>
+      <c r="C272" s="602"/>
       <c r="D272" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -33208,7 +33399,7 @@
         <v>9</v>
       </c>
       <c r="B273" s="301"/>
-      <c r="C273" s="599"/>
+      <c r="C273" s="602"/>
       <c r="D273" s="394">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -33281,7 +33472,7 @@
         <v>10</v>
       </c>
       <c r="B274" s="301"/>
-      <c r="C274" s="599" t="str">
+      <c r="C274" s="602" t="str">
         <f>O113&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33350,7 +33541,7 @@
         <v>11</v>
       </c>
       <c r="B275" s="301"/>
-      <c r="C275" s="599"/>
+      <c r="C275" s="602"/>
       <c r="D275" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -33423,7 +33614,7 @@
         <v>12</v>
       </c>
       <c r="B276" s="301"/>
-      <c r="C276" s="599"/>
+      <c r="C276" s="602"/>
       <c r="D276" s="394">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -33464,17 +33655,17 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="O276" s="600" t="s">
+      <c r="O276" s="616" t="s">
         <v>262</v>
       </c>
-      <c r="P276" s="601" t="s">
+      <c r="P276" s="617" t="s">
         <v>263</v>
       </c>
-      <c r="R276" s="601" t="str">
+      <c r="R276" s="617" t="str">
         <f>"Ind AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="S276" s="601" t="str">
+      <c r="S276" s="617" t="str">
         <f>"Meas AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Meas AK @ Ref Pt (mGy)</v>
       </c>
@@ -33496,7 +33687,7 @@
         <v>13</v>
       </c>
       <c r="B277" s="301"/>
-      <c r="C277" s="599" t="str">
+      <c r="C277" s="602" t="str">
         <f>O116&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33540,13 +33731,13 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="O277" s="600"/>
-      <c r="P277" s="601"/>
+      <c r="O277" s="616"/>
+      <c r="P277" s="617"/>
       <c r="Q277" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="R277" s="601"/>
-      <c r="S277" s="601"/>
+      <c r="R277" s="617"/>
+      <c r="S277" s="617"/>
       <c r="T277" s="1" t="s">
         <v>322</v>
       </c>
@@ -33578,7 +33769,7 @@
         <v>14</v>
       </c>
       <c r="B278" s="301"/>
-      <c r="C278" s="599"/>
+      <c r="C278" s="602"/>
       <c r="D278" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -33665,7 +33856,7 @@
         <v>15</v>
       </c>
       <c r="B279" s="301"/>
-      <c r="C279" s="599"/>
+      <c r="C279" s="602"/>
       <c r="D279" s="394">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -33759,7 +33950,7 @@
         <v>16</v>
       </c>
       <c r="B280" s="301"/>
-      <c r="C280" s="599" t="str">
+      <c r="C280" s="602" t="str">
         <f>O119&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33859,7 +34050,7 @@
         <v>17</v>
       </c>
       <c r="B281" s="301"/>
-      <c r="C281" s="599"/>
+      <c r="C281" s="602"/>
       <c r="D281" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -33946,7 +34137,7 @@
         <v>18</v>
       </c>
       <c r="B282" s="301"/>
-      <c r="C282" s="599"/>
+      <c r="C282" s="602"/>
       <c r="D282" s="394">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -34040,7 +34231,7 @@
         <v>19</v>
       </c>
       <c r="B283" s="301"/>
-      <c r="C283" s="599" t="str">
+      <c r="C283" s="602" t="str">
         <f>O122&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -34130,7 +34321,7 @@
         <v>20</v>
       </c>
       <c r="B284" s="301"/>
-      <c r="C284" s="599"/>
+      <c r="C284" s="602"/>
       <c r="D284" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -34224,7 +34415,7 @@
         <v>21</v>
       </c>
       <c r="B285" s="301"/>
-      <c r="C285" s="599"/>
+      <c r="C285" s="602"/>
       <c r="D285" s="391">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -34659,12 +34850,12 @@
       <c r="L293" s="135"/>
       <c r="M293" s="303"/>
       <c r="O293" s="225"/>
-      <c r="P293" s="606" t="s">
+      <c r="P293" s="607" t="s">
         <v>328</v>
       </c>
-      <c r="Q293" s="606"/>
-      <c r="R293" s="606"/>
-      <c r="S293" s="606"/>
+      <c r="Q293" s="607"/>
+      <c r="R293" s="607"/>
+      <c r="S293" s="607"/>
       <c r="T293" s="223"/>
       <c r="U293" s="223"/>
       <c r="V293" s="223"/>
@@ -35041,12 +35232,12 @@
       <c r="L302" s="135"/>
       <c r="M302" s="303"/>
       <c r="O302" s="225"/>
-      <c r="P302" s="606" t="s">
+      <c r="P302" s="607" t="s">
         <v>328</v>
       </c>
-      <c r="Q302" s="606"/>
-      <c r="R302" s="606"/>
-      <c r="S302" s="606"/>
+      <c r="Q302" s="607"/>
+      <c r="R302" s="607"/>
+      <c r="S302" s="607"/>
       <c r="T302" s="223"/>
       <c r="U302" s="223"/>
       <c r="V302" s="223"/>
@@ -35068,7 +35259,7 @@
         <v>39</v>
       </c>
       <c r="B303" s="301"/>
-      <c r="C303" s="607" t="str">
+      <c r="C303" s="585" t="str">
         <f>O190</f>
         <v>Auto 1</v>
       </c>
@@ -35129,7 +35320,7 @@
         <v>40</v>
       </c>
       <c r="B304" s="301"/>
-      <c r="C304" s="608"/>
+      <c r="C304" s="586"/>
       <c r="D304" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35199,7 +35390,7 @@
         <v>41</v>
       </c>
       <c r="B305" s="301"/>
-      <c r="C305" s="608"/>
+      <c r="C305" s="586"/>
       <c r="D305" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35247,7 +35438,7 @@
         <v>42</v>
       </c>
       <c r="B306" s="301"/>
-      <c r="C306" s="608"/>
+      <c r="C306" s="586"/>
       <c r="D306" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35299,7 +35490,7 @@
         <v>43</v>
       </c>
       <c r="B307" s="301"/>
-      <c r="C307" s="609"/>
+      <c r="C307" s="608"/>
       <c r="D307" s="436" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35344,7 +35535,7 @@
         <v>44</v>
       </c>
       <c r="B308" s="301"/>
-      <c r="C308" s="607" t="str">
+      <c r="C308" s="585" t="str">
         <f>O195</f>
         <v/>
       </c>
@@ -35399,7 +35590,7 @@
         <v>45</v>
       </c>
       <c r="B309" s="301"/>
-      <c r="C309" s="608"/>
+      <c r="C309" s="586"/>
       <c r="D309" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35452,7 +35643,7 @@
         <v>46</v>
       </c>
       <c r="B310" s="301"/>
-      <c r="C310" s="608"/>
+      <c r="C310" s="586"/>
       <c r="D310" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35512,7 +35703,7 @@
         <v>47</v>
       </c>
       <c r="B311" s="301"/>
-      <c r="C311" s="608"/>
+      <c r="C311" s="586"/>
       <c r="D311" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35565,7 +35756,7 @@
         <v>48</v>
       </c>
       <c r="B312" s="301"/>
-      <c r="C312" s="610"/>
+      <c r="C312" s="587"/>
       <c r="D312" s="439" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35622,7 +35813,7 @@
         <v>49</v>
       </c>
       <c r="B313" s="301"/>
-      <c r="C313" s="611" t="str">
+      <c r="C313" s="609" t="str">
         <f>O200</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -35674,7 +35865,7 @@
         <v>50</v>
       </c>
       <c r="B314" s="301"/>
-      <c r="C314" s="608"/>
+      <c r="C314" s="586"/>
       <c r="D314" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35726,7 +35917,7 @@
         <v>51</v>
       </c>
       <c r="B315" s="301"/>
-      <c r="C315" s="608"/>
+      <c r="C315" s="586"/>
       <c r="D315" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35771,7 +35962,7 @@
         <v>52</v>
       </c>
       <c r="B316" s="301"/>
-      <c r="C316" s="608"/>
+      <c r="C316" s="586"/>
       <c r="D316" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35825,7 +36016,7 @@
         <v>53</v>
       </c>
       <c r="B317" s="301"/>
-      <c r="C317" s="610"/>
+      <c r="C317" s="587"/>
       <c r="D317" s="439" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35947,10 +36138,10 @@
       <c r="R319" s="246"/>
       <c r="S319" s="247"/>
       <c r="T319" s="247"/>
-      <c r="V319" s="586" t="s">
+      <c r="V319" s="610" t="s">
         <v>339</v>
       </c>
-      <c r="W319" s="586"/>
+      <c r="W319" s="610"/>
       <c r="X319" s="17" t="s">
         <v>340</v>
       </c>
@@ -36151,7 +36342,7 @@
         <v>60</v>
       </c>
       <c r="B324" s="301"/>
-      <c r="C324" s="596" t="str">
+      <c r="C324" s="591" t="str">
         <f>O240</f>
         <v>Scatter – Fluoro</v>
       </c>
@@ -36201,7 +36392,7 @@
         <v>61</v>
       </c>
       <c r="B325" s="301"/>
-      <c r="C325" s="597"/>
+      <c r="C325" s="592"/>
       <c r="D325" s="448" t="str">
         <f>P241</f>
         <v>Waist level</v>
@@ -36359,13 +36550,13 @@
         <v>347</v>
       </c>
       <c r="P329" s="53"/>
-      <c r="Q329" s="598" t="s">
+      <c r="Q329" s="611" t="s">
         <v>348</v>
       </c>
-      <c r="R329" s="598"/>
-      <c r="S329" s="598"/>
-      <c r="T329" s="598"/>
-      <c r="U329" s="598"/>
+      <c r="R329" s="611"/>
+      <c r="S329" s="611"/>
+      <c r="T329" s="611"/>
+      <c r="U329" s="611"/>
       <c r="Y329" s="14"/>
     </row>
     <row r="330" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -36548,24 +36739,24 @@
         <f t="shared" si="72"/>
         <v>Attenuator</v>
       </c>
-      <c r="E335" s="592" t="str">
+      <c r="E335" s="612" t="str">
         <f>Q139</f>
         <v>Auto 1</v>
       </c>
-      <c r="F335" s="593"/>
-      <c r="G335" s="593"/>
-      <c r="H335" s="593" t="str">
+      <c r="F335" s="613"/>
+      <c r="G335" s="613"/>
+      <c r="H335" s="613" t="str">
         <f>T139</f>
         <v/>
       </c>
-      <c r="I335" s="593"/>
-      <c r="J335" s="593"/>
-      <c r="K335" s="594" t="str">
+      <c r="I335" s="613"/>
+      <c r="J335" s="613"/>
+      <c r="K335" s="614" t="str">
         <f>W139</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L335" s="594"/>
-      <c r="M335" s="595"/>
+      <c r="L335" s="614"/>
+      <c r="M335" s="615"/>
       <c r="O335" s="130"/>
       <c r="P335" s="129" t="s">
         <v>354</v>
@@ -36642,7 +36833,7 @@
         <v>7</v>
       </c>
       <c r="B337" s="301"/>
-      <c r="C337" s="599" t="str">
+      <c r="C337" s="602" t="str">
         <f>O142&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -36702,7 +36893,7 @@
         <v>8</v>
       </c>
       <c r="B338" s="301"/>
-      <c r="C338" s="599"/>
+      <c r="C338" s="602"/>
       <c r="D338" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -36759,7 +36950,7 @@
         <v>9</v>
       </c>
       <c r="B339" s="301"/>
-      <c r="C339" s="599"/>
+      <c r="C339" s="602"/>
       <c r="D339" s="463">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -36816,7 +37007,7 @@
         <v>10</v>
       </c>
       <c r="B340" s="301"/>
-      <c r="C340" s="599" t="str">
+      <c r="C340" s="602" t="str">
         <f>O145&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -36876,7 +37067,7 @@
         <v>11</v>
       </c>
       <c r="B341" s="301"/>
-      <c r="C341" s="599"/>
+      <c r="C341" s="602"/>
       <c r="D341" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -36933,7 +37124,7 @@
         <v>12</v>
       </c>
       <c r="B342" s="301"/>
-      <c r="C342" s="599"/>
+      <c r="C342" s="602"/>
       <c r="D342" s="464">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -36990,7 +37181,7 @@
         <v>13</v>
       </c>
       <c r="B343" s="301"/>
-      <c r="C343" s="599" t="str">
+      <c r="C343" s="602" t="str">
         <f>O148&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -37042,7 +37233,7 @@
         <v>14</v>
       </c>
       <c r="B344" s="301"/>
-      <c r="C344" s="599"/>
+      <c r="C344" s="602"/>
       <c r="D344" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -37104,7 +37295,7 @@
         <v>15</v>
       </c>
       <c r="B345" s="301"/>
-      <c r="C345" s="599"/>
+      <c r="C345" s="602"/>
       <c r="D345" s="463">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -37167,7 +37358,7 @@
         <v>16</v>
       </c>
       <c r="B346" s="301"/>
-      <c r="C346" s="599" t="str">
+      <c r="C346" s="602" t="str">
         <f>O151&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -37230,7 +37421,7 @@
         <v>17</v>
       </c>
       <c r="B347" s="301"/>
-      <c r="C347" s="599"/>
+      <c r="C347" s="602"/>
       <c r="D347" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -37288,7 +37479,7 @@
         <v>18</v>
       </c>
       <c r="B348" s="301"/>
-      <c r="C348" s="599"/>
+      <c r="C348" s="602"/>
       <c r="D348" s="464">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -37366,7 +37557,7 @@
         <v>19</v>
       </c>
       <c r="B349" s="301"/>
-      <c r="C349" s="599" t="str">
+      <c r="C349" s="602" t="str">
         <f>O154&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -37429,7 +37620,7 @@
         <v>20</v>
       </c>
       <c r="B350" s="301"/>
-      <c r="C350" s="599"/>
+      <c r="C350" s="602"/>
       <c r="D350" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -37488,7 +37679,7 @@
         <v>21</v>
       </c>
       <c r="B351" s="301"/>
-      <c r="C351" s="599"/>
+      <c r="C351" s="602"/>
       <c r="D351" s="464">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -37797,11 +37988,11 @@
         <f>IF(OR(V358="",V359="",V362=""),"",(V358-V359)*V362)</f>
         <v/>
       </c>
-      <c r="Q358" s="602" t="str">
+      <c r="Q358" s="603" t="str">
         <f>IF(OR(P358="",P359=""),"",(ABS(P358)+ABS(P359))/$O$355)</f>
         <v/>
       </c>
-      <c r="R358" s="603" t="str">
+      <c r="R358" s="604" t="str">
         <f>IF(OR(Q358="",Q360=""),"",Q358+Q360)</f>
         <v/>
       </c>
@@ -37840,8 +38031,8 @@
         <f>IF(OR(W358="",W359="",V362=""),"",(W358-W359)*V362)</f>
         <v/>
       </c>
-      <c r="Q359" s="602"/>
-      <c r="R359" s="602"/>
+      <c r="Q359" s="603"/>
+      <c r="R359" s="603"/>
       <c r="S359" s="146" t="str">
         <f>IF(AB171="","",AB171)</f>
         <v/>
@@ -37877,11 +38068,11 @@
         <f>IF(OR(X358="",X359="",V362=""),"",(X358-X359)*V362)</f>
         <v/>
       </c>
-      <c r="Q360" s="603" t="str">
+      <c r="Q360" s="604" t="str">
         <f>IF(OR(P360="",P361=""),"",(ABS(P360)+ABS(P361))/$O$355)</f>
         <v/>
       </c>
-      <c r="R360" s="603"/>
+      <c r="R360" s="604"/>
       <c r="S360" s="146" t="str">
         <f>IF(AB172="","",AB172)</f>
         <v/>
@@ -37923,8 +38114,8 @@
         <f>IF(OR(Y358="",Y359="",V362=""),"",(Y358-Y359)*V362)</f>
         <v/>
       </c>
-      <c r="Q361" s="603"/>
-      <c r="R361" s="603"/>
+      <c r="Q361" s="604"/>
+      <c r="R361" s="604"/>
       <c r="S361" s="148" t="str">
         <f>IF(AB173="","",AB173)</f>
         <v/>
@@ -38096,7 +38287,7 @@
         <v>36</v>
       </c>
       <c r="B366" s="301"/>
-      <c r="C366" s="604" t="str">
+      <c r="C366" s="605" t="str">
         <f>O214</f>
         <v>Auto 1</v>
       </c>
@@ -38147,7 +38338,7 @@
         <v>37</v>
       </c>
       <c r="B367" s="301"/>
-      <c r="C367" s="605"/>
+      <c r="C367" s="606"/>
       <c r="D367" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38193,7 +38384,7 @@
         <v>38</v>
       </c>
       <c r="B368" s="301"/>
-      <c r="C368" s="605"/>
+      <c r="C368" s="606"/>
       <c r="D368" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38228,7 +38419,7 @@
         <v>39</v>
       </c>
       <c r="B369" s="301"/>
-      <c r="C369" s="605"/>
+      <c r="C369" s="606"/>
       <c r="D369" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38263,7 +38454,7 @@
         <v>40</v>
       </c>
       <c r="B370" s="301"/>
-      <c r="C370" s="605"/>
+      <c r="C370" s="606"/>
       <c r="D370" s="439" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38308,7 +38499,7 @@
         <v>41</v>
       </c>
       <c r="B371" s="301"/>
-      <c r="C371" s="607" t="str">
+      <c r="C371" s="585" t="str">
         <f>O219</f>
         <v/>
       </c>
@@ -38358,7 +38549,7 @@
         <v>42</v>
       </c>
       <c r="B372" s="301"/>
-      <c r="C372" s="608"/>
+      <c r="C372" s="586"/>
       <c r="D372" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38408,7 +38599,7 @@
         <v>43</v>
       </c>
       <c r="B373" s="301"/>
-      <c r="C373" s="608"/>
+      <c r="C373" s="586"/>
       <c r="D373" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38455,7 +38646,7 @@
         <v>44</v>
       </c>
       <c r="B374" s="301"/>
-      <c r="C374" s="608"/>
+      <c r="C374" s="586"/>
       <c r="D374" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38505,7 +38696,7 @@
         <v>45</v>
       </c>
       <c r="B375" s="301"/>
-      <c r="C375" s="610"/>
+      <c r="C375" s="587"/>
       <c r="D375" s="439" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38552,7 +38743,7 @@
         <v>46</v>
       </c>
       <c r="B376" s="301"/>
-      <c r="C376" s="628" t="str">
+      <c r="C376" s="588" t="str">
         <f>O224</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -38605,7 +38796,7 @@
         <v>47</v>
       </c>
       <c r="B377" s="301"/>
-      <c r="C377" s="629"/>
+      <c r="C377" s="589"/>
       <c r="D377" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38652,7 +38843,7 @@
         <v>48</v>
       </c>
       <c r="B378" s="301"/>
-      <c r="C378" s="629"/>
+      <c r="C378" s="589"/>
       <c r="D378" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38702,7 +38893,7 @@
         <v>49</v>
       </c>
       <c r="B379" s="301"/>
-      <c r="C379" s="629"/>
+      <c r="C379" s="589"/>
       <c r="D379" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38749,7 +38940,7 @@
         <v>50</v>
       </c>
       <c r="B380" s="301"/>
-      <c r="C380" s="630"/>
+      <c r="C380" s="590"/>
       <c r="D380" s="439" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -39059,7 +39250,7 @@
         <v>58</v>
       </c>
       <c r="B388" s="301"/>
-      <c r="C388" s="596" t="str">
+      <c r="C388" s="591" t="str">
         <f>O242</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -39110,7 +39301,7 @@
         <v>59</v>
       </c>
       <c r="B389" s="301"/>
-      <c r="C389" s="597"/>
+      <c r="C389" s="592"/>
       <c r="D389" s="448" t="str">
         <f>P243</f>
         <v>Waist level</v>
@@ -39461,14 +39652,14 @@
       <c r="E399" s="299"/>
       <c r="F399" s="299"/>
       <c r="G399" s="299"/>
-      <c r="H399" s="631" t="s">
+      <c r="H399" s="593" t="s">
         <v>394</v>
       </c>
-      <c r="I399" s="631"/>
-      <c r="J399" s="631" t="s">
+      <c r="I399" s="593"/>
+      <c r="J399" s="593" t="s">
         <v>395</v>
       </c>
-      <c r="K399" s="631"/>
+      <c r="K399" s="593"/>
       <c r="L399" s="299"/>
       <c r="M399" s="300"/>
       <c r="O399" s="13"/>
@@ -40042,20 +40233,20 @@
       </c>
       <c r="B413" s="301"/>
       <c r="C413" s="42"/>
-      <c r="D413" s="612" t="s">
+      <c r="D413" s="594" t="s">
         <v>401</v>
       </c>
-      <c r="E413" s="612"/>
-      <c r="F413" s="612"/>
-      <c r="G413" s="612"/>
-      <c r="H413" s="612"/>
-      <c r="I413" s="612" t="s">
+      <c r="E413" s="594"/>
+      <c r="F413" s="594"/>
+      <c r="G413" s="594"/>
+      <c r="H413" s="594"/>
+      <c r="I413" s="594" t="s">
         <v>402</v>
       </c>
-      <c r="J413" s="612"/>
-      <c r="K413" s="612"/>
-      <c r="L413" s="612"/>
-      <c r="M413" s="613"/>
+      <c r="J413" s="594"/>
+      <c r="K413" s="594"/>
+      <c r="L413" s="594"/>
+      <c r="M413" s="595"/>
       <c r="O413" s="13"/>
       <c r="P413" s="2" t="s">
         <v>189</v>
@@ -41535,11 +41726,11 @@
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="F442" s="614" t="str">
+      <c r="F442" s="596" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="G442" s="616" t="str">
+      <c r="G442" s="598" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
@@ -41580,8 +41771,8 @@
         <f>P359</f>
         <v/>
       </c>
-      <c r="F443" s="615"/>
-      <c r="G443" s="617"/>
+      <c r="F443" s="597"/>
+      <c r="G443" s="599"/>
       <c r="H443" s="200"/>
       <c r="I443" s="82" t="str">
         <f>T360</f>
@@ -41621,11 +41812,11 @@
         <f>P360</f>
         <v/>
       </c>
-      <c r="F444" s="615" t="str">
+      <c r="F444" s="597" t="str">
         <f>Q360</f>
         <v/>
       </c>
-      <c r="G444" s="617"/>
+      <c r="G444" s="599"/>
       <c r="H444" s="135"/>
       <c r="I444" s="91" t="str">
         <f>T361</f>
@@ -41666,8 +41857,8 @@
         <f>P361</f>
         <v/>
       </c>
-      <c r="F445" s="619"/>
-      <c r="G445" s="618"/>
+      <c r="F445" s="601"/>
+      <c r="G445" s="600"/>
       <c r="H445" s="135"/>
       <c r="I445" s="135"/>
       <c r="J445" s="135"/>
@@ -48026,35 +48217,68 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="106">
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="H204:H205"/>
-    <mergeCell ref="I204:I205"/>
-    <mergeCell ref="M204:M205"/>
-    <mergeCell ref="C371:C375"/>
-    <mergeCell ref="C376:C380"/>
-    <mergeCell ref="C388:C389"/>
-    <mergeCell ref="H399:I399"/>
-    <mergeCell ref="J399:K399"/>
-    <mergeCell ref="D413:H413"/>
-    <mergeCell ref="I413:M413"/>
-    <mergeCell ref="F442:F443"/>
-    <mergeCell ref="G442:G445"/>
-    <mergeCell ref="F444:F445"/>
-    <mergeCell ref="C337:C339"/>
-    <mergeCell ref="C340:C342"/>
-    <mergeCell ref="C343:C345"/>
-    <mergeCell ref="C346:C348"/>
-    <mergeCell ref="C349:C351"/>
-    <mergeCell ref="Q358:Q359"/>
-    <mergeCell ref="R358:R361"/>
-    <mergeCell ref="Q360:Q361"/>
-    <mergeCell ref="C366:C370"/>
-    <mergeCell ref="P293:S293"/>
-    <mergeCell ref="P302:S302"/>
-    <mergeCell ref="C303:C307"/>
-    <mergeCell ref="C308:C312"/>
-    <mergeCell ref="C313:C317"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="W107:Y107"/>
+    <mergeCell ref="Q139:S139"/>
+    <mergeCell ref="T139:V139"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="T181:U181"/>
+    <mergeCell ref="O190:O194"/>
+    <mergeCell ref="O195:O199"/>
+    <mergeCell ref="O200:O204"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="Q107:S107"/>
+    <mergeCell ref="T107:V107"/>
+    <mergeCell ref="O214:O218"/>
+    <mergeCell ref="O219:O223"/>
+    <mergeCell ref="O224:O228"/>
+    <mergeCell ref="O240:O241"/>
+    <mergeCell ref="O242:O243"/>
+    <mergeCell ref="Q257:R257"/>
+    <mergeCell ref="T257:U257"/>
+    <mergeCell ref="E269:G269"/>
+    <mergeCell ref="H269:J269"/>
+    <mergeCell ref="K269:M269"/>
     <mergeCell ref="V319:W319"/>
     <mergeCell ref="C324:C325"/>
     <mergeCell ref="Q329:U329"/>
@@ -48070,68 +48294,35 @@
     <mergeCell ref="C277:C279"/>
     <mergeCell ref="C280:C282"/>
     <mergeCell ref="C283:C285"/>
-    <mergeCell ref="O214:O218"/>
-    <mergeCell ref="O219:O223"/>
-    <mergeCell ref="O224:O228"/>
-    <mergeCell ref="O240:O241"/>
-    <mergeCell ref="O242:O243"/>
-    <mergeCell ref="Q257:R257"/>
-    <mergeCell ref="T257:U257"/>
-    <mergeCell ref="E269:G269"/>
-    <mergeCell ref="H269:J269"/>
-    <mergeCell ref="K269:M269"/>
-    <mergeCell ref="T181:U181"/>
-    <mergeCell ref="O190:O194"/>
-    <mergeCell ref="O195:O199"/>
-    <mergeCell ref="O200:O204"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="Q107:S107"/>
-    <mergeCell ref="T107:V107"/>
-    <mergeCell ref="W107:Y107"/>
-    <mergeCell ref="Q139:S139"/>
-    <mergeCell ref="T139:V139"/>
-    <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="Q358:Q359"/>
+    <mergeCell ref="R358:R361"/>
+    <mergeCell ref="Q360:Q361"/>
+    <mergeCell ref="C366:C370"/>
+    <mergeCell ref="P293:S293"/>
+    <mergeCell ref="P302:S302"/>
+    <mergeCell ref="C303:C307"/>
+    <mergeCell ref="C308:C312"/>
+    <mergeCell ref="C313:C317"/>
+    <mergeCell ref="D413:H413"/>
+    <mergeCell ref="I413:M413"/>
+    <mergeCell ref="F442:F443"/>
+    <mergeCell ref="G442:G445"/>
+    <mergeCell ref="F444:F445"/>
+    <mergeCell ref="C337:C339"/>
+    <mergeCell ref="C340:C342"/>
+    <mergeCell ref="C343:C345"/>
+    <mergeCell ref="C346:C348"/>
+    <mergeCell ref="C349:C351"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="H204:H205"/>
+    <mergeCell ref="I204:I205"/>
+    <mergeCell ref="M204:M205"/>
+    <mergeCell ref="C371:C375"/>
+    <mergeCell ref="C376:C380"/>
+    <mergeCell ref="C388:C389"/>
+    <mergeCell ref="H399:I399"/>
+    <mergeCell ref="J399:K399"/>
   </mergeCells>
   <conditionalFormatting sqref="S126 V126 Y126 S158 V158 Y158">
     <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
@@ -48451,39 +48642,39 @@
         <f>Fluoro!D269</f>
         <v>Attenuator</v>
       </c>
-      <c r="E5" s="593" t="str">
+      <c r="E5" s="613" t="str">
         <f>Fluoro!E269</f>
         <v>Auto 1</v>
       </c>
-      <c r="F5" s="593">
+      <c r="F5" s="613">
         <f>Fluoro!F269</f>
         <v>0</v>
       </c>
-      <c r="G5" s="593">
+      <c r="G5" s="613">
         <f>Fluoro!G269</f>
         <v>0</v>
       </c>
-      <c r="H5" s="593" t="str">
+      <c r="H5" s="613" t="str">
         <f>Fluoro!H269</f>
         <v/>
       </c>
-      <c r="I5" s="593">
+      <c r="I5" s="613">
         <f>Fluoro!I269</f>
         <v>0</v>
       </c>
-      <c r="J5" s="593">
+      <c r="J5" s="613">
         <f>Fluoro!J269</f>
         <v>0</v>
       </c>
-      <c r="K5" s="594" t="str">
+      <c r="K5" s="614" t="str">
         <f>Fluoro!K269</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L5" s="594">
+      <c r="L5" s="614">
         <f>Fluoro!L269</f>
         <v>0</v>
       </c>
-      <c r="M5" s="594">
+      <c r="M5" s="614">
         <f>Fluoro!M269</f>
         <v>0</v>
       </c>
@@ -48540,7 +48731,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="632" t="str">
+      <c r="C7" s="633" t="str">
         <f>Fluoro!C271</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -48590,7 +48781,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="632">
+      <c r="C8" s="633">
         <f>Fluoro!C272</f>
         <v>0</v>
       </c>
@@ -48640,7 +48831,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="632">
+      <c r="C9" s="633">
         <f>Fluoro!C273</f>
         <v>0</v>
       </c>
@@ -48690,7 +48881,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="632" t="str">
+      <c r="C10" s="633" t="str">
         <f>Fluoro!C274</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -48740,7 +48931,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="632">
+      <c r="C11" s="633">
         <f>Fluoro!C275</f>
         <v>0</v>
       </c>
@@ -48790,7 +48981,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="632">
+      <c r="C12" s="633">
         <f>Fluoro!C276</f>
         <v>0</v>
       </c>
@@ -48840,7 +49031,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="632" t="str">
+      <c r="C13" s="633" t="str">
         <f>Fluoro!C277</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -48890,7 +49081,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="632">
+      <c r="C14" s="633">
         <f>Fluoro!C278</f>
         <v>0</v>
       </c>
@@ -48940,7 +49131,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="632">
+      <c r="C15" s="633">
         <f>Fluoro!C279</f>
         <v>0</v>
       </c>
@@ -48990,7 +49181,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="632" t="str">
+      <c r="C16" s="633" t="str">
         <f>Fluoro!C280</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49040,7 +49231,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="632">
+      <c r="C17" s="633">
         <f>Fluoro!C281</f>
         <v>0</v>
       </c>
@@ -49090,7 +49281,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="632">
+      <c r="C18" s="633">
         <f>Fluoro!C282</f>
         <v>0</v>
       </c>
@@ -49140,7 +49331,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="632" t="str">
+      <c r="C19" s="633" t="str">
         <f>Fluoro!C283</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49190,7 +49381,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="632">
+      <c r="C20" s="633">
         <f>Fluoro!C284</f>
         <v>0</v>
       </c>
@@ -49240,7 +49431,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="632">
+      <c r="C21" s="633">
         <f>Fluoro!C285</f>
         <v>0</v>
       </c>
@@ -49664,39 +49855,39 @@
         <f>Fluoro!D335</f>
         <v>Attenuator</v>
       </c>
-      <c r="E37" s="593" t="str">
+      <c r="E37" s="613" t="str">
         <f>Fluoro!E335</f>
         <v>Auto 1</v>
       </c>
-      <c r="F37" s="593">
+      <c r="F37" s="613">
         <f>Fluoro!F335</f>
         <v>0</v>
       </c>
-      <c r="G37" s="593">
+      <c r="G37" s="613">
         <f>Fluoro!G335</f>
         <v>0</v>
       </c>
-      <c r="H37" s="593" t="str">
+      <c r="H37" s="613" t="str">
         <f>Fluoro!H335</f>
         <v/>
       </c>
-      <c r="I37" s="593">
+      <c r="I37" s="613">
         <f>Fluoro!I335</f>
         <v>0</v>
       </c>
-      <c r="J37" s="593">
+      <c r="J37" s="613">
         <f>Fluoro!J335</f>
         <v>0</v>
       </c>
-      <c r="K37" s="594" t="str">
+      <c r="K37" s="614" t="str">
         <f>Fluoro!K335</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L37" s="594">
+      <c r="L37" s="614">
         <f>Fluoro!L335</f>
         <v>0</v>
       </c>
-      <c r="M37" s="594">
+      <c r="M37" s="614">
         <f>Fluoro!M335</f>
         <v>0</v>
       </c>
@@ -49753,7 +49944,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="10"/>
-      <c r="C39" s="632" t="str">
+      <c r="C39" s="633" t="str">
         <f>Fluoro!C337</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49803,7 +49994,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="10"/>
-      <c r="C40" s="632">
+      <c r="C40" s="633">
         <f>Fluoro!C338</f>
         <v>0</v>
       </c>
@@ -49853,7 +50044,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="632">
+      <c r="C41" s="633">
         <f>Fluoro!C339</f>
         <v>0</v>
       </c>
@@ -49903,7 +50094,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="10"/>
-      <c r="C42" s="632" t="str">
+      <c r="C42" s="633" t="str">
         <f>Fluoro!C340</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49953,7 +50144,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="10"/>
-      <c r="C43" s="632">
+      <c r="C43" s="633">
         <f>Fluoro!C341</f>
         <v>0</v>
       </c>
@@ -50003,7 +50194,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="10"/>
-      <c r="C44" s="632">
+      <c r="C44" s="633">
         <f>Fluoro!C342</f>
         <v>0</v>
       </c>
@@ -50053,7 +50244,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="10"/>
-      <c r="C45" s="632" t="str">
+      <c r="C45" s="633" t="str">
         <f>Fluoro!C343</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -50103,7 +50294,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="10"/>
-      <c r="C46" s="632">
+      <c r="C46" s="633">
         <f>Fluoro!C344</f>
         <v>0</v>
       </c>
@@ -50153,7 +50344,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="10"/>
-      <c r="C47" s="632">
+      <c r="C47" s="633">
         <f>Fluoro!C345</f>
         <v>0</v>
       </c>
@@ -50203,7 +50394,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="10"/>
-      <c r="C48" s="632" t="str">
+      <c r="C48" s="633" t="str">
         <f>Fluoro!C346</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -50253,7 +50444,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="10"/>
-      <c r="C49" s="632">
+      <c r="C49" s="633">
         <f>Fluoro!C347</f>
         <v>0</v>
       </c>
@@ -50303,7 +50494,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="10"/>
-      <c r="C50" s="632">
+      <c r="C50" s="633">
         <f>Fluoro!C348</f>
         <v>0</v>
       </c>
@@ -50353,7 +50544,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="632" t="str">
+      <c r="C51" s="633" t="str">
         <f>Fluoro!C349</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -50403,7 +50594,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="10"/>
-      <c r="C52" s="632">
+      <c r="C52" s="633">
         <f>Fluoro!C350</f>
         <v>0</v>
       </c>
@@ -50453,7 +50644,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="10"/>
-      <c r="C53" s="632">
+      <c r="C53" s="633">
         <f>Fluoro!C351</f>
         <v>0</v>
       </c>
@@ -50647,7 +50838,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="10"/>
-      <c r="C60" s="633"/>
+      <c r="C60" s="632"/>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60"/>
@@ -50664,7 +50855,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="10"/>
-      <c r="C61" s="633"/>
+      <c r="C61" s="632"/>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61"/>
@@ -51312,7 +51503,7 @@
     <row r="102" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102"/>
-      <c r="C102" s="633"/>
+      <c r="C102" s="632"/>
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102"/>
@@ -51327,7 +51518,7 @@
     <row r="103" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103"/>
-      <c r="C103" s="633"/>
+      <c r="C103" s="632"/>
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103"/>
@@ -51342,7 +51533,7 @@
     <row r="104" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104"/>
-      <c r="C104" s="633"/>
+      <c r="C104" s="632"/>
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104"/>
@@ -51357,7 +51548,7 @@
     <row r="105" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105"/>
       <c r="B105"/>
-      <c r="C105" s="633"/>
+      <c r="C105" s="632"/>
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105"/>
@@ -51372,7 +51563,7 @@
     <row r="106" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="B106"/>
-      <c r="C106" s="633"/>
+      <c r="C106" s="632"/>
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106"/>
@@ -51387,7 +51578,7 @@
     <row r="107" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107"/>
-      <c r="C107" s="633"/>
+      <c r="C107" s="632"/>
       <c r="D107"/>
       <c r="E107"/>
       <c r="F107"/>
@@ -51402,7 +51593,7 @@
     <row r="108" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108"/>
-      <c r="C108" s="633"/>
+      <c r="C108" s="632"/>
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108"/>
@@ -51417,7 +51608,7 @@
     <row r="109" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109"/>
       <c r="B109"/>
-      <c r="C109" s="633"/>
+      <c r="C109" s="632"/>
       <c r="D109"/>
       <c r="E109"/>
       <c r="F109"/>
@@ -51432,7 +51623,7 @@
     <row r="110" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110"/>
-      <c r="C110" s="633"/>
+      <c r="C110" s="632"/>
       <c r="D110"/>
       <c r="E110"/>
       <c r="F110"/>
@@ -51447,7 +51638,7 @@
     <row r="111" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111"/>
       <c r="B111"/>
-      <c r="C111" s="633"/>
+      <c r="C111" s="632"/>
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111"/>
@@ -51462,7 +51653,7 @@
     <row r="112" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112"/>
-      <c r="C112" s="633"/>
+      <c r="C112" s="632"/>
       <c r="D112"/>
       <c r="E112"/>
       <c r="F112"/>
@@ -51477,7 +51668,7 @@
     <row r="113" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113"/>
       <c r="B113"/>
-      <c r="C113" s="633"/>
+      <c r="C113" s="632"/>
       <c r="D113"/>
       <c r="E113"/>
       <c r="F113"/>
@@ -51492,7 +51683,7 @@
     <row r="114" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114"/>
       <c r="B114"/>
-      <c r="C114" s="633"/>
+      <c r="C114" s="632"/>
       <c r="D114"/>
       <c r="E114"/>
       <c r="F114"/>
@@ -51507,7 +51698,7 @@
     <row r="115" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115"/>
       <c r="B115"/>
-      <c r="C115" s="633"/>
+      <c r="C115" s="632"/>
       <c r="D115"/>
       <c r="E115"/>
       <c r="F115"/>
@@ -51522,7 +51713,7 @@
     <row r="116" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116"/>
       <c r="B116"/>
-      <c r="C116" s="633"/>
+      <c r="C116" s="632"/>
       <c r="D116"/>
       <c r="E116"/>
       <c r="F116"/>
@@ -51642,7 +51833,7 @@
     <row r="124" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="B124"/>
-      <c r="C124" s="633"/>
+      <c r="C124" s="632"/>
       <c r="D124"/>
       <c r="E124"/>
       <c r="F124"/>
@@ -51657,7 +51848,7 @@
     <row r="125" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125"/>
-      <c r="C125" s="633"/>
+      <c r="C125" s="632"/>
       <c r="D125"/>
       <c r="E125"/>
       <c r="F125"/>
@@ -51789,6 +51980,17 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="21">
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
     <mergeCell ref="C102:C106"/>
     <mergeCell ref="C107:C111"/>
     <mergeCell ref="C112:C116"/>
@@ -51799,17 +52001,6 @@
     <mergeCell ref="C48:C50"/>
     <mergeCell ref="C51:C53"/>
     <mergeCell ref="C60:C61"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.88611111111111096" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -51826,8 +52017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB143"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -51841,29 +52032,29 @@
       </c>
       <c r="B1" s="634"/>
       <c r="N1" s="278"/>
-      <c r="O1" s="606" t="str">
+      <c r="O1" s="607" t="str">
         <f>Fluoro!O105</f>
         <v>Patient Entrance Exposure Rate (Fluoroscopy)*</v>
       </c>
-      <c r="P1" s="606"/>
-      <c r="Q1" s="606"/>
-      <c r="R1" s="606" t="s">
+      <c r="P1" s="607"/>
+      <c r="Q1" s="607"/>
+      <c r="R1" s="607" t="s">
         <v>407</v>
       </c>
-      <c r="S1" s="606"/>
-      <c r="T1" s="606"/>
+      <c r="S1" s="607"/>
+      <c r="T1" s="607"/>
       <c r="V1" s="278"/>
-      <c r="W1" s="606" t="str">
+      <c r="W1" s="607" t="str">
         <f>Fluoro!O137</f>
         <v>Patient Entrance Exposure Rate – Digital Acquisition</v>
       </c>
-      <c r="X1" s="606"/>
-      <c r="Y1" s="606"/>
-      <c r="Z1" s="606" t="s">
+      <c r="X1" s="607"/>
+      <c r="Y1" s="607"/>
+      <c r="Z1" s="607" t="s">
         <v>407</v>
       </c>
-      <c r="AA1" s="606"/>
-      <c r="AB1" s="606"/>
+      <c r="AA1" s="607"/>
+      <c r="AB1" s="607"/>
     </row>
     <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="279">
@@ -55856,14 +56047,14 @@
       <c r="B75" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E75" s="606" t="s">
+      <c r="E75" s="607" t="s">
         <v>420</v>
       </c>
-      <c r="F75" s="606"/>
-      <c r="I75" s="606" t="s">
+      <c r="F75" s="607"/>
+      <c r="I75" s="607" t="s">
         <v>421</v>
       </c>
-      <c r="J75" s="606"/>
+      <c r="J75" s="607"/>
     </row>
     <row r="76" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">

--- a/MUSCCArm.xlsx
+++ b/MUSCCArm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Fluoro" sheetId="1" r:id="rId1"/>
@@ -6403,6 +6403,135 @@
     <xf numFmtId="172" fontId="3" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="155" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="182" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="175" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="176" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="154" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="180" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6427,15 +6556,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="139" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="183" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6445,133 +6565,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="193" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="154" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="180" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="155" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="182" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="175" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="176" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -20217,9 +20217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD792"/>
   <sheetViews>
-    <sheetView topLeftCell="L308" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V318" sqref="V318"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20529,21 +20527,21 @@
       <c r="E10" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="628" t="str">
+      <c r="F10" s="577" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="628"/>
+      <c r="G10" s="577"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="621" t="str">
+      <c r="K10" s="578" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="621"/>
+      <c r="L10" s="578"/>
       <c r="M10" s="312"/>
       <c r="O10" s="13"/>
       <c r="Q10" s="2" t="s">
@@ -20586,21 +20584,21 @@
       <c r="E11" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="622" t="str">
+      <c r="F11" s="579" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="622"/>
+      <c r="G11" s="579"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
       <c r="J11" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="622" t="str">
+      <c r="K11" s="579" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="622"/>
+      <c r="L11" s="579"/>
       <c r="M11" s="312"/>
       <c r="O11" s="13"/>
       <c r="Q11" s="2" t="s">
@@ -20643,21 +20641,21 @@
       <c r="E12" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="622" t="str">
+      <c r="F12" s="579" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="622"/>
+      <c r="G12" s="579"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
       <c r="J12" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="630" t="str">
+      <c r="K12" s="580" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="630"/>
+      <c r="L12" s="580"/>
       <c r="M12" s="312"/>
       <c r="O12" s="13"/>
       <c r="Q12" s="2" t="s">
@@ -20700,21 +20698,21 @@
       <c r="E13" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="623" t="str">
+      <c r="F13" s="581" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="623"/>
+      <c r="G13" s="581"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
       <c r="J13" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="623" t="str">
+      <c r="K13" s="581" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="623"/>
+      <c r="L13" s="581"/>
       <c r="M13" s="312"/>
       <c r="O13" s="13"/>
       <c r="Q13" s="2" t="s">
@@ -20837,21 +20835,21 @@
       <c r="E16" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="628" t="str">
+      <c r="F16" s="577" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="628"/>
+      <c r="G16" s="577"/>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
       <c r="J16" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="631" t="str">
+      <c r="K16" s="582" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="631"/>
+      <c r="L16" s="582"/>
       <c r="M16" s="312"/>
       <c r="O16" s="13"/>
       <c r="P16" s="50" t="s">
@@ -20881,21 +20879,21 @@
       <c r="E17" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="622" t="str">
+      <c r="F17" s="579" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="622"/>
+      <c r="G17" s="579"/>
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
       <c r="J17" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="623" t="str">
+      <c r="K17" s="581" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="623"/>
+      <c r="L17" s="581"/>
       <c r="M17" s="312"/>
       <c r="O17" s="13"/>
       <c r="Q17" s="2" t="s">
@@ -20938,21 +20936,21 @@
       <c r="E18" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="623" t="str">
+      <c r="F18" s="581" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="623"/>
+      <c r="G18" s="581"/>
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
       <c r="J18" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="623" t="str">
+      <c r="K18" s="581" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="623"/>
+      <c r="L18" s="581"/>
       <c r="M18" s="312"/>
       <c r="O18" s="13"/>
       <c r="Q18" s="2" t="s">
@@ -21000,11 +20998,11 @@
       <c r="J19" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="623" t="str">
+      <c r="K19" s="581" t="str">
         <f>IF(V20="","",V20)</f>
         <v/>
       </c>
-      <c r="L19" s="623"/>
+      <c r="L19" s="581"/>
       <c r="M19" s="312"/>
       <c r="O19" s="13"/>
       <c r="Q19" s="2" t="s">
@@ -21079,11 +21077,11 @@
       <c r="E21" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="628" t="str">
+      <c r="F21" s="577" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="628"/>
+      <c r="G21" s="577"/>
       <c r="H21" s="42"/>
       <c r="I21" s="42"/>
       <c r="J21" s="73" t="s">
@@ -21123,21 +21121,21 @@
       <c r="E22" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="629" t="str">
+      <c r="F22" s="583" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="629"/>
+      <c r="G22" s="583"/>
       <c r="H22" s="42"/>
       <c r="I22" s="42"/>
       <c r="J22" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="628" t="str">
+      <c r="K22" s="577" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="628"/>
+      <c r="L22" s="577"/>
       <c r="M22" s="312"/>
       <c r="O22" s="13"/>
       <c r="Q22" s="2" t="s">
@@ -21182,11 +21180,11 @@
       <c r="J23" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="622" t="str">
+      <c r="K23" s="579" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="622"/>
+      <c r="L23" s="579"/>
       <c r="M23" s="312"/>
       <c r="O23" s="13"/>
       <c r="Q23" s="2" t="s">
@@ -21229,21 +21227,21 @@
       <c r="E24" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="621" t="str">
+      <c r="F24" s="578" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="621"/>
+      <c r="G24" s="578"/>
       <c r="H24" s="42"/>
       <c r="I24" s="42"/>
       <c r="J24" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="622" t="str">
+      <c r="K24" s="579" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="622"/>
+      <c r="L24" s="579"/>
       <c r="M24" s="312"/>
       <c r="O24" s="13"/>
       <c r="P24" s="50" t="s">
@@ -21281,11 +21279,11 @@
       <c r="E25" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="623" t="str">
+      <c r="F25" s="581" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="623"/>
+      <c r="G25" s="581"/>
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
@@ -21333,11 +21331,11 @@
       <c r="E26" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="623" t="str">
+      <c r="F26" s="581" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="623"/>
+      <c r="G26" s="581"/>
       <c r="H26" s="42"/>
       <c r="I26" s="42"/>
       <c r="J26" s="313" t="s">
@@ -21386,11 +21384,11 @@
       <c r="J27" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="628" t="str">
+      <c r="K27" s="577" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="628"/>
+      <c r="L27" s="577"/>
       <c r="M27" s="312"/>
       <c r="O27" s="13"/>
       <c r="Q27" s="2" t="s">
@@ -21428,21 +21426,21 @@
       <c r="E28" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="621" t="str">
+      <c r="F28" s="578" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="621"/>
+      <c r="G28" s="578"/>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
       <c r="J28" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="622" t="str">
+      <c r="K28" s="579" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="622"/>
+      <c r="L28" s="579"/>
       <c r="M28" s="312"/>
       <c r="O28" s="13"/>
       <c r="P28" s="50" t="s">
@@ -21471,11 +21469,11 @@
       <c r="E29" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="623" t="str">
+      <c r="F29" s="581" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="623"/>
+      <c r="G29" s="581"/>
       <c r="H29" s="42"/>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
@@ -21523,11 +21521,11 @@
       <c r="E30" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="623" t="str">
+      <c r="F30" s="581" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="623"/>
+      <c r="G30" s="581"/>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
@@ -21642,11 +21640,11 @@
       <c r="E33" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="628" t="str">
+      <c r="F33" s="577" t="str">
         <f>IF(R34="","",R34)</f>
         <v/>
       </c>
-      <c r="G33" s="628"/>
+      <c r="G33" s="577"/>
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
       <c r="J33" s="73" t="s">
@@ -21683,21 +21681,21 @@
       <c r="E34" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="629" t="str">
+      <c r="F34" s="583" t="str">
         <f>IF(R35="","",R35)</f>
         <v/>
       </c>
-      <c r="G34" s="629"/>
+      <c r="G34" s="583"/>
       <c r="H34" s="42"/>
       <c r="I34" s="42"/>
       <c r="J34" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="628" t="str">
+      <c r="K34" s="577" t="str">
         <f>IF(V35="","",V35)</f>
         <v/>
       </c>
-      <c r="L34" s="628"/>
+      <c r="L34" s="577"/>
       <c r="M34" s="312"/>
       <c r="O34" s="13"/>
       <c r="Q34" s="2" t="s">
@@ -21742,11 +21740,11 @@
       <c r="J35" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="622" t="str">
+      <c r="K35" s="579" t="str">
         <f>IF(V36="","",V36)</f>
         <v/>
       </c>
-      <c r="L35" s="622"/>
+      <c r="L35" s="579"/>
       <c r="M35" s="312"/>
       <c r="O35" s="13"/>
       <c r="Q35" s="2" t="s">
@@ -21789,21 +21787,21 @@
       <c r="E36" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="621" t="str">
+      <c r="F36" s="578" t="str">
         <f>IF(R37="","",R37)</f>
         <v/>
       </c>
-      <c r="G36" s="621"/>
+      <c r="G36" s="578"/>
       <c r="H36" s="42"/>
       <c r="I36" s="42"/>
       <c r="J36" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="K36" s="622" t="str">
+      <c r="K36" s="579" t="str">
         <f>IF(V37="","",V37)</f>
         <v/>
       </c>
-      <c r="L36" s="622"/>
+      <c r="L36" s="579"/>
       <c r="M36" s="312"/>
       <c r="O36" s="13"/>
       <c r="P36" s="50" t="s">
@@ -21841,11 +21839,11 @@
       <c r="E37" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="623" t="str">
+      <c r="F37" s="581" t="str">
         <f>IF(R38="","",R38)</f>
         <v/>
       </c>
-      <c r="G37" s="623"/>
+      <c r="G37" s="581"/>
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
       <c r="J37" s="42"/>
@@ -21893,11 +21891,11 @@
       <c r="E38" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="623" t="str">
+      <c r="F38" s="581" t="str">
         <f>IF(R39="","",R39)</f>
         <v/>
       </c>
-      <c r="G38" s="623"/>
+      <c r="G38" s="581"/>
       <c r="H38" s="42"/>
       <c r="I38" s="42"/>
       <c r="J38" s="313" t="s">
@@ -21944,11 +21942,11 @@
       <c r="J39" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="K39" s="628" t="str">
+      <c r="K39" s="577" t="str">
         <f>IF(V40="","",V40)</f>
         <v/>
       </c>
-      <c r="L39" s="628"/>
+      <c r="L39" s="577"/>
       <c r="M39" s="312"/>
       <c r="O39" s="13"/>
       <c r="Q39" s="2" t="s">
@@ -21986,21 +21984,21 @@
       <c r="E40" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="621" t="str">
+      <c r="F40" s="578" t="str">
         <f>IF(R41="","",R41)</f>
         <v/>
       </c>
-      <c r="G40" s="621"/>
+      <c r="G40" s="578"/>
       <c r="H40" s="42"/>
       <c r="I40" s="42"/>
       <c r="J40" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="K40" s="622" t="str">
+      <c r="K40" s="579" t="str">
         <f>IF(V41="","",V41)</f>
         <v/>
       </c>
-      <c r="L40" s="622"/>
+      <c r="L40" s="579"/>
       <c r="M40" s="312"/>
       <c r="O40" s="13"/>
       <c r="P40" s="50" t="s">
@@ -22038,11 +22036,11 @@
       <c r="E41" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="623" t="str">
+      <c r="F41" s="581" t="str">
         <f>IF(R42="","",R42)</f>
         <v/>
       </c>
-      <c r="G41" s="623"/>
+      <c r="G41" s="581"/>
       <c r="H41" s="42"/>
       <c r="I41" s="42"/>
       <c r="J41" s="42"/>
@@ -22090,11 +22088,11 @@
       <c r="E42" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="623" t="str">
+      <c r="F42" s="581" t="str">
         <f>IF(R43="","",R43)</f>
         <v/>
       </c>
-      <c r="G42" s="623"/>
+      <c r="G42" s="581"/>
       <c r="H42" s="42"/>
       <c r="I42" s="42"/>
       <c r="J42" s="42"/>
@@ -22859,10 +22857,10 @@
       <c r="I69" s="299"/>
       <c r="J69" s="299"/>
       <c r="K69" s="299"/>
-      <c r="L69" s="624" t="s">
+      <c r="L69" s="588" t="s">
         <v>84</v>
       </c>
-      <c r="M69" s="625"/>
+      <c r="M69" s="589"/>
       <c r="O69" s="56"/>
       <c r="P69" s="17" t="s">
         <v>85</v>
@@ -23367,7 +23365,7 @@
       </c>
       <c r="AD81" s="535">
         <f>IF(V101="","",V101)</f>
-        <v>43670</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -23410,7 +23408,7 @@
       </c>
       <c r="AD82" s="535">
         <f>IF(V102="","",V102)</f>
-        <v>44036</v>
+        <v>44454</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -24230,10 +24228,10 @@
       </c>
       <c r="V101" s="531">
         <f>IF(W101&lt;&gt;"",W101,IF(AB81="","",AB81))</f>
-        <v>43670</v>
+        <v>44089</v>
       </c>
       <c r="W101" s="532">
-        <v>43670</v>
+        <v>44089</v>
       </c>
       <c r="X101" s="1" t="s">
         <v>447</v>
@@ -24288,10 +24286,10 @@
       </c>
       <c r="V102" s="531">
         <f>IF(W102&lt;&gt;"",W102,IF(AB82="","",AB82))</f>
-        <v>44036</v>
+        <v>44454</v>
       </c>
       <c r="W102" s="532">
-        <v>44036</v>
+        <v>44454</v>
       </c>
       <c r="X102" s="1" t="s">
         <v>448</v>
@@ -24531,24 +24529,24 @@
       <c r="P107" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="Q107" s="626" t="str">
+      <c r="Q107" s="585" t="str">
         <f>IF(Q106&lt;&gt;"",Q106,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R107" s="626"/>
-      <c r="S107" s="626"/>
-      <c r="T107" s="627" t="str">
+      <c r="R107" s="585"/>
+      <c r="S107" s="585"/>
+      <c r="T107" s="584" t="str">
         <f>IF(T106&lt;&gt;"",T106,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v/>
       </c>
-      <c r="U107" s="627"/>
-      <c r="V107" s="627"/>
-      <c r="W107" s="627" t="str">
+      <c r="U107" s="584"/>
+      <c r="V107" s="584"/>
+      <c r="W107" s="584" t="str">
         <f>IF(W106&lt;&gt;"",W106,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="X107" s="627"/>
-      <c r="Y107" s="627"/>
+      <c r="X107" s="584"/>
+      <c r="Y107" s="584"/>
       <c r="AA107" s="2" t="s">
         <v>153</v>
       </c>
@@ -26538,24 +26536,24 @@
       <c r="P139" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="Q139" s="626" t="str">
+      <c r="Q139" s="585" t="str">
         <f>IF(Q138&lt;&gt;"",Q138,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R139" s="626"/>
-      <c r="S139" s="626"/>
-      <c r="T139" s="627" t="str">
+      <c r="R139" s="585"/>
+      <c r="S139" s="585"/>
+      <c r="T139" s="584" t="str">
         <f>IF(T138&lt;&gt;"",T138,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v/>
       </c>
-      <c r="U139" s="627"/>
-      <c r="V139" s="627"/>
-      <c r="W139" s="627" t="str">
+      <c r="U139" s="584"/>
+      <c r="V139" s="584"/>
+      <c r="W139" s="584" t="str">
         <f>IF(W138&lt;&gt;"",W138,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="X139" s="627"/>
-      <c r="Y139" s="627"/>
+      <c r="X139" s="584"/>
+      <c r="Y139" s="584"/>
       <c r="AA139" s="2" t="str">
         <f>$T$139&amp;" Mag 4"</f>
         <v xml:space="preserve"> Mag 4</v>
@@ -28899,10 +28897,10 @@
       <c r="P181" s="135"/>
       <c r="Q181" s="137"/>
       <c r="R181" s="128"/>
-      <c r="T181" s="610" t="s">
+      <c r="T181" s="586" t="s">
         <v>245</v>
       </c>
-      <c r="U181" s="610"/>
+      <c r="U181" s="586"/>
       <c r="W181" s="2" t="s">
         <v>199</v>
       </c>
@@ -29273,7 +29271,7 @@
       <c r="K190" s="323"/>
       <c r="L190" s="323"/>
       <c r="M190" s="327"/>
-      <c r="O190" s="618" t="str">
+      <c r="O190" s="587" t="str">
         <f>$Q$107</f>
         <v>Auto 1</v>
       </c>
@@ -29323,7 +29321,7 @@
       <c r="K191" s="323"/>
       <c r="L191" s="323"/>
       <c r="M191" s="303"/>
-      <c r="O191" s="618"/>
+      <c r="O191" s="587"/>
       <c r="P191" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -29369,7 +29367,7 @@
       <c r="K192" s="135"/>
       <c r="L192" s="135"/>
       <c r="M192" s="303"/>
-      <c r="O192" s="618"/>
+      <c r="O192" s="587"/>
       <c r="P192" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -29415,7 +29413,7 @@
       <c r="K193" s="135"/>
       <c r="L193" s="135"/>
       <c r="M193" s="303"/>
-      <c r="O193" s="618"/>
+      <c r="O193" s="587"/>
       <c r="P193" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -29458,7 +29456,7 @@
       <c r="K194" s="135"/>
       <c r="L194" s="135"/>
       <c r="M194" s="303"/>
-      <c r="O194" s="618"/>
+      <c r="O194" s="587"/>
       <c r="P194" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -29501,7 +29499,7 @@
       <c r="K195" s="135"/>
       <c r="L195" s="135"/>
       <c r="M195" s="303"/>
-      <c r="O195" s="618" t="str">
+      <c r="O195" s="587" t="str">
         <f>$T$107</f>
         <v/>
       </c>
@@ -29547,7 +29545,7 @@
       <c r="K196" s="305"/>
       <c r="L196" s="305"/>
       <c r="M196" s="306"/>
-      <c r="O196" s="618"/>
+      <c r="O196" s="587"/>
       <c r="P196" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -29592,7 +29590,7 @@
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="O197" s="618"/>
+      <c r="O197" s="587"/>
       <c r="P197" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -29637,7 +29635,7 @@
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
-      <c r="O198" s="618"/>
+      <c r="O198" s="587"/>
       <c r="P198" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -29683,7 +29681,7 @@
         <f>$H$2</f>
         <v>Medical University of South Carolina</v>
       </c>
-      <c r="O199" s="618"/>
+      <c r="O199" s="587"/>
       <c r="P199" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -29732,7 +29730,7 @@
         <f>$H$5</f>
         <v>Fluoroscopy System Compliance Inspection</v>
       </c>
-      <c r="O200" s="618" t="str">
+      <c r="O200" s="587" t="str">
         <f>$W$107</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -29781,7 +29779,7 @@
       <c r="K201" s="299"/>
       <c r="L201" s="299"/>
       <c r="M201" s="300"/>
-      <c r="O201" s="618"/>
+      <c r="O201" s="587"/>
       <c r="P201" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -29835,7 +29833,7 @@
         <v/>
       </c>
       <c r="M202" s="12"/>
-      <c r="O202" s="618"/>
+      <c r="O202" s="587"/>
       <c r="P202" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -29868,7 +29866,7 @@
       </c>
       <c r="B203" s="10"/>
       <c r="M203" s="12"/>
-      <c r="O203" s="618"/>
+      <c r="O203" s="587"/>
       <c r="P203" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -29902,20 +29900,20 @@
       <c r="B204" s="301"/>
       <c r="C204" s="351"/>
       <c r="D204" s="323"/>
-      <c r="E204" s="577" t="s">
+      <c r="E204" s="620" t="s">
         <v>262</v>
       </c>
-      <c r="F204" s="579" t="s">
+      <c r="F204" s="622" t="s">
         <v>263</v>
       </c>
       <c r="G204" s="518" t="s">
         <v>264</v>
       </c>
-      <c r="H204" s="577" t="str">
+      <c r="H204" s="620" t="str">
         <f>R276</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="I204" s="581" t="str">
+      <c r="I204" s="624" t="str">
         <f>S276</f>
         <v>Meas AK @ Ref Pt (mGy)</v>
       </c>
@@ -29928,10 +29926,10 @@
       <c r="L204" s="135" t="s">
         <v>267</v>
       </c>
-      <c r="M204" s="583" t="s">
+      <c r="M204" s="626" t="s">
         <v>268</v>
       </c>
-      <c r="O204" s="618"/>
+      <c r="O204" s="587"/>
       <c r="P204" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -29969,11 +29967,11 @@
       <c r="D205" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="E205" s="578"/>
-      <c r="F205" s="580"/>
+      <c r="E205" s="621"/>
+      <c r="F205" s="623"/>
       <c r="G205" s="518"/>
-      <c r="H205" s="578"/>
-      <c r="I205" s="582"/>
+      <c r="H205" s="621"/>
+      <c r="I205" s="625"/>
       <c r="J205" s="519"/>
       <c r="K205" s="135" t="str">
         <f>U277</f>
@@ -29983,7 +29981,7 @@
         <f>V277</f>
         <v>mGy/min</v>
       </c>
-      <c r="M205" s="584"/>
+      <c r="M205" s="627"/>
       <c r="O205" s="13"/>
       <c r="Y205" s="14"/>
       <c r="AA205" s="2" t="s">
@@ -30627,7 +30625,7 @@
         <f>W286</f>
         <v/>
       </c>
-      <c r="O214" s="618" t="str">
+      <c r="O214" s="587" t="str">
         <f>$Q$139</f>
         <v>Auto 1</v>
       </c>
@@ -30683,7 +30681,7 @@
       <c r="K215" s="135"/>
       <c r="L215" s="135"/>
       <c r="M215" s="303"/>
-      <c r="O215" s="618"/>
+      <c r="O215" s="587"/>
       <c r="P215" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -30729,7 +30727,7 @@
       <c r="K216" s="323"/>
       <c r="L216" s="323"/>
       <c r="M216" s="303"/>
-      <c r="O216" s="618"/>
+      <c r="O216" s="587"/>
       <c r="P216" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -30775,7 +30773,7 @@
       <c r="K217" s="368"/>
       <c r="L217" s="368"/>
       <c r="M217" s="369"/>
-      <c r="O217" s="618"/>
+      <c r="O217" s="587"/>
       <c r="P217" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -30822,7 +30820,7 @@
       <c r="K218" s="323"/>
       <c r="L218" s="323"/>
       <c r="M218" s="303"/>
-      <c r="O218" s="618"/>
+      <c r="O218" s="587"/>
       <c r="P218" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -30865,7 +30863,7 @@
       <c r="K219" s="323"/>
       <c r="L219" s="323"/>
       <c r="M219" s="327"/>
-      <c r="O219" s="618" t="str">
+      <c r="O219" s="587" t="str">
         <f>$T$139</f>
         <v/>
       </c>
@@ -30926,7 +30924,7 @@
         <v/>
       </c>
       <c r="M220" s="327"/>
-      <c r="O220" s="618"/>
+      <c r="O220" s="587"/>
       <c r="P220" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -30969,7 +30967,7 @@
       <c r="K221" s="323"/>
       <c r="L221" s="323"/>
       <c r="M221" s="327"/>
-      <c r="O221" s="618"/>
+      <c r="O221" s="587"/>
       <c r="P221" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -31020,7 +31018,7 @@
       <c r="K222" s="323"/>
       <c r="L222" s="323"/>
       <c r="M222" s="327"/>
-      <c r="O222" s="618"/>
+      <c r="O222" s="587"/>
       <c r="P222" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -31077,7 +31075,7 @@
       <c r="K223" s="323"/>
       <c r="L223" s="323"/>
       <c r="M223" s="327"/>
-      <c r="O223" s="618"/>
+      <c r="O223" s="587"/>
       <c r="P223" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -31141,7 +31139,7 @@
       <c r="K224" s="323"/>
       <c r="L224" s="323"/>
       <c r="M224" s="327"/>
-      <c r="O224" s="618" t="str">
+      <c r="O224" s="587" t="str">
         <f>$W$139</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -31205,7 +31203,7 @@
       <c r="K225" s="323"/>
       <c r="L225" s="323"/>
       <c r="M225" s="327"/>
-      <c r="O225" s="618"/>
+      <c r="O225" s="587"/>
       <c r="P225" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -31266,7 +31264,7 @@
       <c r="K226" s="323"/>
       <c r="L226" s="323"/>
       <c r="M226" s="327"/>
-      <c r="O226" s="618"/>
+      <c r="O226" s="587"/>
       <c r="P226" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -31327,7 +31325,7 @@
       <c r="K227" s="323"/>
       <c r="L227" s="323"/>
       <c r="M227" s="327"/>
-      <c r="O227" s="618"/>
+      <c r="O227" s="587"/>
       <c r="P227" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -31381,7 +31379,7 @@
       <c r="K228" s="323"/>
       <c r="L228" s="323"/>
       <c r="M228" s="327"/>
-      <c r="O228" s="618"/>
+      <c r="O228" s="587"/>
       <c r="P228" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -31934,7 +31932,7 @@
       <c r="K240" s="323"/>
       <c r="L240" s="323"/>
       <c r="M240" s="327"/>
-      <c r="O240" s="619" t="s">
+      <c r="O240" s="590" t="s">
         <v>294</v>
       </c>
       <c r="P240" s="167" t="s">
@@ -31993,7 +31991,7 @@
       <c r="K241" s="323"/>
       <c r="L241" s="323"/>
       <c r="M241" s="327"/>
-      <c r="O241" s="619"/>
+      <c r="O241" s="590"/>
       <c r="P241" s="172" t="s">
         <v>297</v>
       </c>
@@ -32050,7 +32048,7 @@
       <c r="K242" s="323"/>
       <c r="L242" s="323"/>
       <c r="M242" s="327"/>
-      <c r="O242" s="619" t="str">
+      <c r="O242" s="590" t="str">
         <f>IF($U$137=1,"Scatter - Pulse", "Scatter – Digital acq")</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -32110,7 +32108,7 @@
       <c r="K243" s="323"/>
       <c r="L243" s="323"/>
       <c r="M243" s="327"/>
-      <c r="O243" s="619"/>
+      <c r="O243" s="590"/>
       <c r="P243" s="172" t="s">
         <v>297</v>
       </c>
@@ -32640,17 +32638,17 @@
       <c r="P257" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Q257" s="620" t="s">
+      <c r="Q257" s="591" t="s">
         <v>313</v>
       </c>
-      <c r="R257" s="620"/>
+      <c r="R257" s="591"/>
       <c r="S257" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="T257" s="620" t="s">
+      <c r="T257" s="591" t="s">
         <v>315</v>
       </c>
-      <c r="U257" s="620"/>
+      <c r="U257" s="591"/>
       <c r="V257" s="1" t="s">
         <v>316</v>
       </c>
@@ -33041,14 +33039,14 @@
       </c>
       <c r="K267" s="533">
         <f>IF(V101="","",V101)</f>
-        <v>43670</v>
+        <v>44089</v>
       </c>
       <c r="L267" s="526" t="s">
         <v>450</v>
       </c>
       <c r="M267" s="534">
         <f>IF(V102="","",V102)</f>
-        <v>44036</v>
+        <v>44454</v>
       </c>
       <c r="O267" s="13" t="s">
         <v>228</v>
@@ -33138,24 +33136,24 @@
         <f t="shared" si="43"/>
         <v>Attenuator</v>
       </c>
-      <c r="E269" s="612" t="str">
+      <c r="E269" s="592" t="str">
         <f>Q107</f>
         <v>Auto 1</v>
       </c>
-      <c r="F269" s="613"/>
-      <c r="G269" s="613"/>
-      <c r="H269" s="613" t="str">
+      <c r="F269" s="593"/>
+      <c r="G269" s="593"/>
+      <c r="H269" s="593" t="str">
         <f>T107</f>
         <v/>
       </c>
-      <c r="I269" s="613"/>
-      <c r="J269" s="613"/>
-      <c r="K269" s="614" t="str">
+      <c r="I269" s="593"/>
+      <c r="J269" s="593"/>
+      <c r="K269" s="594" t="str">
         <f>W107</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L269" s="614"/>
-      <c r="M269" s="615"/>
+      <c r="L269" s="594"/>
+      <c r="M269" s="595"/>
       <c r="O269" s="189" t="str">
         <f t="shared" si="44"/>
         <v/>
@@ -33257,7 +33255,7 @@
         <v>7</v>
       </c>
       <c r="B271" s="301"/>
-      <c r="C271" s="602" t="str">
+      <c r="C271" s="599" t="str">
         <f>O110&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33333,7 +33331,7 @@
         <v>8</v>
       </c>
       <c r="B272" s="301"/>
-      <c r="C272" s="602"/>
+      <c r="C272" s="599"/>
       <c r="D272" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -33399,7 +33397,7 @@
         <v>9</v>
       </c>
       <c r="B273" s="301"/>
-      <c r="C273" s="602"/>
+      <c r="C273" s="599"/>
       <c r="D273" s="394">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -33472,7 +33470,7 @@
         <v>10</v>
       </c>
       <c r="B274" s="301"/>
-      <c r="C274" s="602" t="str">
+      <c r="C274" s="599" t="str">
         <f>O113&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33541,7 +33539,7 @@
         <v>11</v>
       </c>
       <c r="B275" s="301"/>
-      <c r="C275" s="602"/>
+      <c r="C275" s="599"/>
       <c r="D275" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -33614,7 +33612,7 @@
         <v>12</v>
       </c>
       <c r="B276" s="301"/>
-      <c r="C276" s="602"/>
+      <c r="C276" s="599"/>
       <c r="D276" s="394">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -33655,17 +33653,17 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="O276" s="616" t="s">
+      <c r="O276" s="600" t="s">
         <v>262</v>
       </c>
-      <c r="P276" s="617" t="s">
+      <c r="P276" s="601" t="s">
         <v>263</v>
       </c>
-      <c r="R276" s="617" t="str">
+      <c r="R276" s="601" t="str">
         <f>"Ind AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="S276" s="617" t="str">
+      <c r="S276" s="601" t="str">
         <f>"Meas AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Meas AK @ Ref Pt (mGy)</v>
       </c>
@@ -33687,7 +33685,7 @@
         <v>13</v>
       </c>
       <c r="B277" s="301"/>
-      <c r="C277" s="602" t="str">
+      <c r="C277" s="599" t="str">
         <f>O116&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33731,13 +33729,13 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="O277" s="616"/>
-      <c r="P277" s="617"/>
+      <c r="O277" s="600"/>
+      <c r="P277" s="601"/>
       <c r="Q277" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="R277" s="617"/>
-      <c r="S277" s="617"/>
+      <c r="R277" s="601"/>
+      <c r="S277" s="601"/>
       <c r="T277" s="1" t="s">
         <v>322</v>
       </c>
@@ -33769,7 +33767,7 @@
         <v>14</v>
       </c>
       <c r="B278" s="301"/>
-      <c r="C278" s="602"/>
+      <c r="C278" s="599"/>
       <c r="D278" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -33856,7 +33854,7 @@
         <v>15</v>
       </c>
       <c r="B279" s="301"/>
-      <c r="C279" s="602"/>
+      <c r="C279" s="599"/>
       <c r="D279" s="394">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -33950,7 +33948,7 @@
         <v>16</v>
       </c>
       <c r="B280" s="301"/>
-      <c r="C280" s="602" t="str">
+      <c r="C280" s="599" t="str">
         <f>O119&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -34050,7 +34048,7 @@
         <v>17</v>
       </c>
       <c r="B281" s="301"/>
-      <c r="C281" s="602"/>
+      <c r="C281" s="599"/>
       <c r="D281" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -34137,7 +34135,7 @@
         <v>18</v>
       </c>
       <c r="B282" s="301"/>
-      <c r="C282" s="602"/>
+      <c r="C282" s="599"/>
       <c r="D282" s="394">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -34231,7 +34229,7 @@
         <v>19</v>
       </c>
       <c r="B283" s="301"/>
-      <c r="C283" s="602" t="str">
+      <c r="C283" s="599" t="str">
         <f>O122&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -34321,7 +34319,7 @@
         <v>20</v>
       </c>
       <c r="B284" s="301"/>
-      <c r="C284" s="602"/>
+      <c r="C284" s="599"/>
       <c r="D284" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -34415,7 +34413,7 @@
         <v>21</v>
       </c>
       <c r="B285" s="301"/>
-      <c r="C285" s="602"/>
+      <c r="C285" s="599"/>
       <c r="D285" s="391">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -34850,12 +34848,12 @@
       <c r="L293" s="135"/>
       <c r="M293" s="303"/>
       <c r="O293" s="225"/>
-      <c r="P293" s="607" t="s">
+      <c r="P293" s="606" t="s">
         <v>328</v>
       </c>
-      <c r="Q293" s="607"/>
-      <c r="R293" s="607"/>
-      <c r="S293" s="607"/>
+      <c r="Q293" s="606"/>
+      <c r="R293" s="606"/>
+      <c r="S293" s="606"/>
       <c r="T293" s="223"/>
       <c r="U293" s="223"/>
       <c r="V293" s="223"/>
@@ -35232,12 +35230,12 @@
       <c r="L302" s="135"/>
       <c r="M302" s="303"/>
       <c r="O302" s="225"/>
-      <c r="P302" s="607" t="s">
+      <c r="P302" s="606" t="s">
         <v>328</v>
       </c>
-      <c r="Q302" s="607"/>
-      <c r="R302" s="607"/>
-      <c r="S302" s="607"/>
+      <c r="Q302" s="606"/>
+      <c r="R302" s="606"/>
+      <c r="S302" s="606"/>
       <c r="T302" s="223"/>
       <c r="U302" s="223"/>
       <c r="V302" s="223"/>
@@ -35259,7 +35257,7 @@
         <v>39</v>
       </c>
       <c r="B303" s="301"/>
-      <c r="C303" s="585" t="str">
+      <c r="C303" s="607" t="str">
         <f>O190</f>
         <v>Auto 1</v>
       </c>
@@ -35320,7 +35318,7 @@
         <v>40</v>
       </c>
       <c r="B304" s="301"/>
-      <c r="C304" s="586"/>
+      <c r="C304" s="608"/>
       <c r="D304" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35390,7 +35388,7 @@
         <v>41</v>
       </c>
       <c r="B305" s="301"/>
-      <c r="C305" s="586"/>
+      <c r="C305" s="608"/>
       <c r="D305" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35438,7 +35436,7 @@
         <v>42</v>
       </c>
       <c r="B306" s="301"/>
-      <c r="C306" s="586"/>
+      <c r="C306" s="608"/>
       <c r="D306" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35490,7 +35488,7 @@
         <v>43</v>
       </c>
       <c r="B307" s="301"/>
-      <c r="C307" s="608"/>
+      <c r="C307" s="609"/>
       <c r="D307" s="436" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35535,7 +35533,7 @@
         <v>44</v>
       </c>
       <c r="B308" s="301"/>
-      <c r="C308" s="585" t="str">
+      <c r="C308" s="607" t="str">
         <f>O195</f>
         <v/>
       </c>
@@ -35590,7 +35588,7 @@
         <v>45</v>
       </c>
       <c r="B309" s="301"/>
-      <c r="C309" s="586"/>
+      <c r="C309" s="608"/>
       <c r="D309" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35643,7 +35641,7 @@
         <v>46</v>
       </c>
       <c r="B310" s="301"/>
-      <c r="C310" s="586"/>
+      <c r="C310" s="608"/>
       <c r="D310" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35703,7 +35701,7 @@
         <v>47</v>
       </c>
       <c r="B311" s="301"/>
-      <c r="C311" s="586"/>
+      <c r="C311" s="608"/>
       <c r="D311" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35756,7 +35754,7 @@
         <v>48</v>
       </c>
       <c r="B312" s="301"/>
-      <c r="C312" s="587"/>
+      <c r="C312" s="610"/>
       <c r="D312" s="439" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35813,7 +35811,7 @@
         <v>49</v>
       </c>
       <c r="B313" s="301"/>
-      <c r="C313" s="609" t="str">
+      <c r="C313" s="611" t="str">
         <f>O200</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -35865,7 +35863,7 @@
         <v>50</v>
       </c>
       <c r="B314" s="301"/>
-      <c r="C314" s="586"/>
+      <c r="C314" s="608"/>
       <c r="D314" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35917,7 +35915,7 @@
         <v>51</v>
       </c>
       <c r="B315" s="301"/>
-      <c r="C315" s="586"/>
+      <c r="C315" s="608"/>
       <c r="D315" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35962,7 +35960,7 @@
         <v>52</v>
       </c>
       <c r="B316" s="301"/>
-      <c r="C316" s="586"/>
+      <c r="C316" s="608"/>
       <c r="D316" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -36016,7 +36014,7 @@
         <v>53</v>
       </c>
       <c r="B317" s="301"/>
-      <c r="C317" s="587"/>
+      <c r="C317" s="610"/>
       <c r="D317" s="439" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -36138,10 +36136,10 @@
       <c r="R319" s="246"/>
       <c r="S319" s="247"/>
       <c r="T319" s="247"/>
-      <c r="V319" s="610" t="s">
+      <c r="V319" s="586" t="s">
         <v>339</v>
       </c>
-      <c r="W319" s="610"/>
+      <c r="W319" s="586"/>
       <c r="X319" s="17" t="s">
         <v>340</v>
       </c>
@@ -36342,7 +36340,7 @@
         <v>60</v>
       </c>
       <c r="B324" s="301"/>
-      <c r="C324" s="591" t="str">
+      <c r="C324" s="596" t="str">
         <f>O240</f>
         <v>Scatter – Fluoro</v>
       </c>
@@ -36392,7 +36390,7 @@
         <v>61</v>
       </c>
       <c r="B325" s="301"/>
-      <c r="C325" s="592"/>
+      <c r="C325" s="597"/>
       <c r="D325" s="448" t="str">
         <f>P241</f>
         <v>Waist level</v>
@@ -36550,13 +36548,13 @@
         <v>347</v>
       </c>
       <c r="P329" s="53"/>
-      <c r="Q329" s="611" t="s">
+      <c r="Q329" s="598" t="s">
         <v>348</v>
       </c>
-      <c r="R329" s="611"/>
-      <c r="S329" s="611"/>
-      <c r="T329" s="611"/>
-      <c r="U329" s="611"/>
+      <c r="R329" s="598"/>
+      <c r="S329" s="598"/>
+      <c r="T329" s="598"/>
+      <c r="U329" s="598"/>
       <c r="Y329" s="14"/>
     </row>
     <row r="330" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -36672,7 +36670,7 @@
       </c>
       <c r="K333" s="533">
         <f t="shared" si="71"/>
-        <v>43670</v>
+        <v>44089</v>
       </c>
       <c r="L333" s="526" t="str">
         <f t="shared" si="71"/>
@@ -36680,7 +36678,7 @@
       </c>
       <c r="M333" s="534">
         <f t="shared" si="71"/>
-        <v>44036</v>
+        <v>44454</v>
       </c>
       <c r="O333" s="130"/>
       <c r="P333" s="129" t="s">
@@ -36739,24 +36737,24 @@
         <f t="shared" si="72"/>
         <v>Attenuator</v>
       </c>
-      <c r="E335" s="612" t="str">
+      <c r="E335" s="592" t="str">
         <f>Q139</f>
         <v>Auto 1</v>
       </c>
-      <c r="F335" s="613"/>
-      <c r="G335" s="613"/>
-      <c r="H335" s="613" t="str">
+      <c r="F335" s="593"/>
+      <c r="G335" s="593"/>
+      <c r="H335" s="593" t="str">
         <f>T139</f>
         <v/>
       </c>
-      <c r="I335" s="613"/>
-      <c r="J335" s="613"/>
-      <c r="K335" s="614" t="str">
+      <c r="I335" s="593"/>
+      <c r="J335" s="593"/>
+      <c r="K335" s="594" t="str">
         <f>W139</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L335" s="614"/>
-      <c r="M335" s="615"/>
+      <c r="L335" s="594"/>
+      <c r="M335" s="595"/>
       <c r="O335" s="130"/>
       <c r="P335" s="129" t="s">
         <v>354</v>
@@ -36833,7 +36831,7 @@
         <v>7</v>
       </c>
       <c r="B337" s="301"/>
-      <c r="C337" s="602" t="str">
+      <c r="C337" s="599" t="str">
         <f>O142&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -36893,7 +36891,7 @@
         <v>8</v>
       </c>
       <c r="B338" s="301"/>
-      <c r="C338" s="602"/>
+      <c r="C338" s="599"/>
       <c r="D338" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -36950,7 +36948,7 @@
         <v>9</v>
       </c>
       <c r="B339" s="301"/>
-      <c r="C339" s="602"/>
+      <c r="C339" s="599"/>
       <c r="D339" s="463">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -37007,7 +37005,7 @@
         <v>10</v>
       </c>
       <c r="B340" s="301"/>
-      <c r="C340" s="602" t="str">
+      <c r="C340" s="599" t="str">
         <f>O145&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -37067,7 +37065,7 @@
         <v>11</v>
       </c>
       <c r="B341" s="301"/>
-      <c r="C341" s="602"/>
+      <c r="C341" s="599"/>
       <c r="D341" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -37124,7 +37122,7 @@
         <v>12</v>
       </c>
       <c r="B342" s="301"/>
-      <c r="C342" s="602"/>
+      <c r="C342" s="599"/>
       <c r="D342" s="464">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -37181,7 +37179,7 @@
         <v>13</v>
       </c>
       <c r="B343" s="301"/>
-      <c r="C343" s="602" t="str">
+      <c r="C343" s="599" t="str">
         <f>O148&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -37233,7 +37231,7 @@
         <v>14</v>
       </c>
       <c r="B344" s="301"/>
-      <c r="C344" s="602"/>
+      <c r="C344" s="599"/>
       <c r="D344" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -37295,7 +37293,7 @@
         <v>15</v>
       </c>
       <c r="B345" s="301"/>
-      <c r="C345" s="602"/>
+      <c r="C345" s="599"/>
       <c r="D345" s="463">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -37358,7 +37356,7 @@
         <v>16</v>
       </c>
       <c r="B346" s="301"/>
-      <c r="C346" s="602" t="str">
+      <c r="C346" s="599" t="str">
         <f>O151&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -37421,7 +37419,7 @@
         <v>17</v>
       </c>
       <c r="B347" s="301"/>
-      <c r="C347" s="602"/>
+      <c r="C347" s="599"/>
       <c r="D347" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -37479,7 +37477,7 @@
         <v>18</v>
       </c>
       <c r="B348" s="301"/>
-      <c r="C348" s="602"/>
+      <c r="C348" s="599"/>
       <c r="D348" s="464">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -37557,7 +37555,7 @@
         <v>19</v>
       </c>
       <c r="B349" s="301"/>
-      <c r="C349" s="602" t="str">
+      <c r="C349" s="599" t="str">
         <f>O154&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -37620,7 +37618,7 @@
         <v>20</v>
       </c>
       <c r="B350" s="301"/>
-      <c r="C350" s="602"/>
+      <c r="C350" s="599"/>
       <c r="D350" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -37679,7 +37677,7 @@
         <v>21</v>
       </c>
       <c r="B351" s="301"/>
-      <c r="C351" s="602"/>
+      <c r="C351" s="599"/>
       <c r="D351" s="464">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -37988,11 +37986,11 @@
         <f>IF(OR(V358="",V359="",V362=""),"",(V358-V359)*V362)</f>
         <v/>
       </c>
-      <c r="Q358" s="603" t="str">
+      <c r="Q358" s="602" t="str">
         <f>IF(OR(P358="",P359=""),"",(ABS(P358)+ABS(P359))/$O$355)</f>
         <v/>
       </c>
-      <c r="R358" s="604" t="str">
+      <c r="R358" s="603" t="str">
         <f>IF(OR(Q358="",Q360=""),"",Q358+Q360)</f>
         <v/>
       </c>
@@ -38031,8 +38029,8 @@
         <f>IF(OR(W358="",W359="",V362=""),"",(W358-W359)*V362)</f>
         <v/>
       </c>
-      <c r="Q359" s="603"/>
-      <c r="R359" s="603"/>
+      <c r="Q359" s="602"/>
+      <c r="R359" s="602"/>
       <c r="S359" s="146" t="str">
         <f>IF(AB171="","",AB171)</f>
         <v/>
@@ -38068,11 +38066,11 @@
         <f>IF(OR(X358="",X359="",V362=""),"",(X358-X359)*V362)</f>
         <v/>
       </c>
-      <c r="Q360" s="604" t="str">
+      <c r="Q360" s="603" t="str">
         <f>IF(OR(P360="",P361=""),"",(ABS(P360)+ABS(P361))/$O$355)</f>
         <v/>
       </c>
-      <c r="R360" s="604"/>
+      <c r="R360" s="603"/>
       <c r="S360" s="146" t="str">
         <f>IF(AB172="","",AB172)</f>
         <v/>
@@ -38114,8 +38112,8 @@
         <f>IF(OR(Y358="",Y359="",V362=""),"",(Y358-Y359)*V362)</f>
         <v/>
       </c>
-      <c r="Q361" s="604"/>
-      <c r="R361" s="604"/>
+      <c r="Q361" s="603"/>
+      <c r="R361" s="603"/>
       <c r="S361" s="148" t="str">
         <f>IF(AB173="","",AB173)</f>
         <v/>
@@ -38287,7 +38285,7 @@
         <v>36</v>
       </c>
       <c r="B366" s="301"/>
-      <c r="C366" s="605" t="str">
+      <c r="C366" s="604" t="str">
         <f>O214</f>
         <v>Auto 1</v>
       </c>
@@ -38338,7 +38336,7 @@
         <v>37</v>
       </c>
       <c r="B367" s="301"/>
-      <c r="C367" s="606"/>
+      <c r="C367" s="605"/>
       <c r="D367" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38384,7 +38382,7 @@
         <v>38</v>
       </c>
       <c r="B368" s="301"/>
-      <c r="C368" s="606"/>
+      <c r="C368" s="605"/>
       <c r="D368" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38419,7 +38417,7 @@
         <v>39</v>
       </c>
       <c r="B369" s="301"/>
-      <c r="C369" s="606"/>
+      <c r="C369" s="605"/>
       <c r="D369" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38454,7 +38452,7 @@
         <v>40</v>
       </c>
       <c r="B370" s="301"/>
-      <c r="C370" s="606"/>
+      <c r="C370" s="605"/>
       <c r="D370" s="439" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38499,7 +38497,7 @@
         <v>41</v>
       </c>
       <c r="B371" s="301"/>
-      <c r="C371" s="585" t="str">
+      <c r="C371" s="607" t="str">
         <f>O219</f>
         <v/>
       </c>
@@ -38549,7 +38547,7 @@
         <v>42</v>
       </c>
       <c r="B372" s="301"/>
-      <c r="C372" s="586"/>
+      <c r="C372" s="608"/>
       <c r="D372" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38599,7 +38597,7 @@
         <v>43</v>
       </c>
       <c r="B373" s="301"/>
-      <c r="C373" s="586"/>
+      <c r="C373" s="608"/>
       <c r="D373" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38646,7 +38644,7 @@
         <v>44</v>
       </c>
       <c r="B374" s="301"/>
-      <c r="C374" s="586"/>
+      <c r="C374" s="608"/>
       <c r="D374" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38696,7 +38694,7 @@
         <v>45</v>
       </c>
       <c r="B375" s="301"/>
-      <c r="C375" s="587"/>
+      <c r="C375" s="610"/>
       <c r="D375" s="439" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38743,7 +38741,7 @@
         <v>46</v>
       </c>
       <c r="B376" s="301"/>
-      <c r="C376" s="588" t="str">
+      <c r="C376" s="628" t="str">
         <f>O224</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -38796,7 +38794,7 @@
         <v>47</v>
       </c>
       <c r="B377" s="301"/>
-      <c r="C377" s="589"/>
+      <c r="C377" s="629"/>
       <c r="D377" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38843,7 +38841,7 @@
         <v>48</v>
       </c>
       <c r="B378" s="301"/>
-      <c r="C378" s="589"/>
+      <c r="C378" s="629"/>
       <c r="D378" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38893,7 +38891,7 @@
         <v>49</v>
       </c>
       <c r="B379" s="301"/>
-      <c r="C379" s="589"/>
+      <c r="C379" s="629"/>
       <c r="D379" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38940,7 +38938,7 @@
         <v>50</v>
       </c>
       <c r="B380" s="301"/>
-      <c r="C380" s="590"/>
+      <c r="C380" s="630"/>
       <c r="D380" s="439" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -39250,7 +39248,7 @@
         <v>58</v>
       </c>
       <c r="B388" s="301"/>
-      <c r="C388" s="591" t="str">
+      <c r="C388" s="596" t="str">
         <f>O242</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -39301,7 +39299,7 @@
         <v>59</v>
       </c>
       <c r="B389" s="301"/>
-      <c r="C389" s="592"/>
+      <c r="C389" s="597"/>
       <c r="D389" s="448" t="str">
         <f>P243</f>
         <v>Waist level</v>
@@ -39652,14 +39650,14 @@
       <c r="E399" s="299"/>
       <c r="F399" s="299"/>
       <c r="G399" s="299"/>
-      <c r="H399" s="593" t="s">
+      <c r="H399" s="631" t="s">
         <v>394</v>
       </c>
-      <c r="I399" s="593"/>
-      <c r="J399" s="593" t="s">
+      <c r="I399" s="631"/>
+      <c r="J399" s="631" t="s">
         <v>395</v>
       </c>
-      <c r="K399" s="593"/>
+      <c r="K399" s="631"/>
       <c r="L399" s="299"/>
       <c r="M399" s="300"/>
       <c r="O399" s="13"/>
@@ -40233,20 +40231,20 @@
       </c>
       <c r="B413" s="301"/>
       <c r="C413" s="42"/>
-      <c r="D413" s="594" t="s">
+      <c r="D413" s="612" t="s">
         <v>401</v>
       </c>
-      <c r="E413" s="594"/>
-      <c r="F413" s="594"/>
-      <c r="G413" s="594"/>
-      <c r="H413" s="594"/>
-      <c r="I413" s="594" t="s">
+      <c r="E413" s="612"/>
+      <c r="F413" s="612"/>
+      <c r="G413" s="612"/>
+      <c r="H413" s="612"/>
+      <c r="I413" s="612" t="s">
         <v>402</v>
       </c>
-      <c r="J413" s="594"/>
-      <c r="K413" s="594"/>
-      <c r="L413" s="594"/>
-      <c r="M413" s="595"/>
+      <c r="J413" s="612"/>
+      <c r="K413" s="612"/>
+      <c r="L413" s="612"/>
+      <c r="M413" s="613"/>
       <c r="O413" s="13"/>
       <c r="P413" s="2" t="s">
         <v>189</v>
@@ -41726,11 +41724,11 @@
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="F442" s="596" t="str">
+      <c r="F442" s="614" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="G442" s="598" t="str">
+      <c r="G442" s="616" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
@@ -41771,8 +41769,8 @@
         <f>P359</f>
         <v/>
       </c>
-      <c r="F443" s="597"/>
-      <c r="G443" s="599"/>
+      <c r="F443" s="615"/>
+      <c r="G443" s="617"/>
       <c r="H443" s="200"/>
       <c r="I443" s="82" t="str">
         <f>T360</f>
@@ -41812,11 +41810,11 @@
         <f>P360</f>
         <v/>
       </c>
-      <c r="F444" s="597" t="str">
+      <c r="F444" s="615" t="str">
         <f>Q360</f>
         <v/>
       </c>
-      <c r="G444" s="599"/>
+      <c r="G444" s="617"/>
       <c r="H444" s="135"/>
       <c r="I444" s="91" t="str">
         <f>T361</f>
@@ -41857,8 +41855,8 @@
         <f>P361</f>
         <v/>
       </c>
-      <c r="F445" s="601"/>
-      <c r="G445" s="600"/>
+      <c r="F445" s="619"/>
+      <c r="G445" s="618"/>
       <c r="H445" s="135"/>
       <c r="I445" s="135"/>
       <c r="J445" s="135"/>
@@ -48217,68 +48215,35 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="106">
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="W107:Y107"/>
-    <mergeCell ref="Q139:S139"/>
-    <mergeCell ref="T139:V139"/>
-    <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="T181:U181"/>
-    <mergeCell ref="O190:O194"/>
-    <mergeCell ref="O195:O199"/>
-    <mergeCell ref="O200:O204"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="Q107:S107"/>
-    <mergeCell ref="T107:V107"/>
-    <mergeCell ref="O214:O218"/>
-    <mergeCell ref="O219:O223"/>
-    <mergeCell ref="O224:O228"/>
-    <mergeCell ref="O240:O241"/>
-    <mergeCell ref="O242:O243"/>
-    <mergeCell ref="Q257:R257"/>
-    <mergeCell ref="T257:U257"/>
-    <mergeCell ref="E269:G269"/>
-    <mergeCell ref="H269:J269"/>
-    <mergeCell ref="K269:M269"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="H204:H205"/>
+    <mergeCell ref="I204:I205"/>
+    <mergeCell ref="M204:M205"/>
+    <mergeCell ref="C371:C375"/>
+    <mergeCell ref="C376:C380"/>
+    <mergeCell ref="C388:C389"/>
+    <mergeCell ref="H399:I399"/>
+    <mergeCell ref="J399:K399"/>
+    <mergeCell ref="D413:H413"/>
+    <mergeCell ref="I413:M413"/>
+    <mergeCell ref="F442:F443"/>
+    <mergeCell ref="G442:G445"/>
+    <mergeCell ref="F444:F445"/>
+    <mergeCell ref="C337:C339"/>
+    <mergeCell ref="C340:C342"/>
+    <mergeCell ref="C343:C345"/>
+    <mergeCell ref="C346:C348"/>
+    <mergeCell ref="C349:C351"/>
+    <mergeCell ref="Q358:Q359"/>
+    <mergeCell ref="R358:R361"/>
+    <mergeCell ref="Q360:Q361"/>
+    <mergeCell ref="C366:C370"/>
+    <mergeCell ref="P293:S293"/>
+    <mergeCell ref="P302:S302"/>
+    <mergeCell ref="C303:C307"/>
+    <mergeCell ref="C308:C312"/>
+    <mergeCell ref="C313:C317"/>
     <mergeCell ref="V319:W319"/>
     <mergeCell ref="C324:C325"/>
     <mergeCell ref="Q329:U329"/>
@@ -48294,35 +48259,68 @@
     <mergeCell ref="C277:C279"/>
     <mergeCell ref="C280:C282"/>
     <mergeCell ref="C283:C285"/>
-    <mergeCell ref="Q358:Q359"/>
-    <mergeCell ref="R358:R361"/>
-    <mergeCell ref="Q360:Q361"/>
-    <mergeCell ref="C366:C370"/>
-    <mergeCell ref="P293:S293"/>
-    <mergeCell ref="P302:S302"/>
-    <mergeCell ref="C303:C307"/>
-    <mergeCell ref="C308:C312"/>
-    <mergeCell ref="C313:C317"/>
-    <mergeCell ref="D413:H413"/>
-    <mergeCell ref="I413:M413"/>
-    <mergeCell ref="F442:F443"/>
-    <mergeCell ref="G442:G445"/>
-    <mergeCell ref="F444:F445"/>
-    <mergeCell ref="C337:C339"/>
-    <mergeCell ref="C340:C342"/>
-    <mergeCell ref="C343:C345"/>
-    <mergeCell ref="C346:C348"/>
-    <mergeCell ref="C349:C351"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="H204:H205"/>
-    <mergeCell ref="I204:I205"/>
-    <mergeCell ref="M204:M205"/>
-    <mergeCell ref="C371:C375"/>
-    <mergeCell ref="C376:C380"/>
-    <mergeCell ref="C388:C389"/>
-    <mergeCell ref="H399:I399"/>
-    <mergeCell ref="J399:K399"/>
+    <mergeCell ref="O214:O218"/>
+    <mergeCell ref="O219:O223"/>
+    <mergeCell ref="O224:O228"/>
+    <mergeCell ref="O240:O241"/>
+    <mergeCell ref="O242:O243"/>
+    <mergeCell ref="Q257:R257"/>
+    <mergeCell ref="T257:U257"/>
+    <mergeCell ref="E269:G269"/>
+    <mergeCell ref="H269:J269"/>
+    <mergeCell ref="K269:M269"/>
+    <mergeCell ref="T181:U181"/>
+    <mergeCell ref="O190:O194"/>
+    <mergeCell ref="O195:O199"/>
+    <mergeCell ref="O200:O204"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="Q107:S107"/>
+    <mergeCell ref="T107:V107"/>
+    <mergeCell ref="W107:Y107"/>
+    <mergeCell ref="Q139:S139"/>
+    <mergeCell ref="T139:V139"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <conditionalFormatting sqref="S126 V126 Y126 S158 V158 Y158">
     <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
@@ -48595,7 +48593,7 @@
       </c>
       <c r="K3" s="572">
         <f>Fluoro!K267</f>
-        <v>43670</v>
+        <v>44089</v>
       </c>
       <c r="L3" s="530" t="str">
         <f>Fluoro!L267</f>
@@ -48603,7 +48601,7 @@
       </c>
       <c r="M3" s="573">
         <f>Fluoro!M267</f>
-        <v>44036</v>
+        <v>44454</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -48642,39 +48640,39 @@
         <f>Fluoro!D269</f>
         <v>Attenuator</v>
       </c>
-      <c r="E5" s="613" t="str">
+      <c r="E5" s="593" t="str">
         <f>Fluoro!E269</f>
         <v>Auto 1</v>
       </c>
-      <c r="F5" s="613">
+      <c r="F5" s="593">
         <f>Fluoro!F269</f>
         <v>0</v>
       </c>
-      <c r="G5" s="613">
+      <c r="G5" s="593">
         <f>Fluoro!G269</f>
         <v>0</v>
       </c>
-      <c r="H5" s="613" t="str">
+      <c r="H5" s="593" t="str">
         <f>Fluoro!H269</f>
         <v/>
       </c>
-      <c r="I5" s="613">
+      <c r="I5" s="593">
         <f>Fluoro!I269</f>
         <v>0</v>
       </c>
-      <c r="J5" s="613">
+      <c r="J5" s="593">
         <f>Fluoro!J269</f>
         <v>0</v>
       </c>
-      <c r="K5" s="614" t="str">
+      <c r="K5" s="594" t="str">
         <f>Fluoro!K269</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L5" s="614">
+      <c r="L5" s="594">
         <f>Fluoro!L269</f>
         <v>0</v>
       </c>
-      <c r="M5" s="614">
+      <c r="M5" s="594">
         <f>Fluoro!M269</f>
         <v>0</v>
       </c>
@@ -48731,7 +48729,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="633" t="str">
+      <c r="C7" s="632" t="str">
         <f>Fluoro!C271</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -48781,7 +48779,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="633">
+      <c r="C8" s="632">
         <f>Fluoro!C272</f>
         <v>0</v>
       </c>
@@ -48831,7 +48829,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="633">
+      <c r="C9" s="632">
         <f>Fluoro!C273</f>
         <v>0</v>
       </c>
@@ -48881,7 +48879,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="633" t="str">
+      <c r="C10" s="632" t="str">
         <f>Fluoro!C274</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -48931,7 +48929,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="633">
+      <c r="C11" s="632">
         <f>Fluoro!C275</f>
         <v>0</v>
       </c>
@@ -48981,7 +48979,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="633">
+      <c r="C12" s="632">
         <f>Fluoro!C276</f>
         <v>0</v>
       </c>
@@ -49031,7 +49029,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="633" t="str">
+      <c r="C13" s="632" t="str">
         <f>Fluoro!C277</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49081,7 +49079,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="633">
+      <c r="C14" s="632">
         <f>Fluoro!C278</f>
         <v>0</v>
       </c>
@@ -49131,7 +49129,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="633">
+      <c r="C15" s="632">
         <f>Fluoro!C279</f>
         <v>0</v>
       </c>
@@ -49181,7 +49179,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="633" t="str">
+      <c r="C16" s="632" t="str">
         <f>Fluoro!C280</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49231,7 +49229,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="633">
+      <c r="C17" s="632">
         <f>Fluoro!C281</f>
         <v>0</v>
       </c>
@@ -49281,7 +49279,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="633">
+      <c r="C18" s="632">
         <f>Fluoro!C282</f>
         <v>0</v>
       </c>
@@ -49331,7 +49329,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="633" t="str">
+      <c r="C19" s="632" t="str">
         <f>Fluoro!C283</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49381,7 +49379,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="633">
+      <c r="C20" s="632">
         <f>Fluoro!C284</f>
         <v>0</v>
       </c>
@@ -49431,7 +49429,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="633">
+      <c r="C21" s="632">
         <f>Fluoro!C285</f>
         <v>0</v>
       </c>
@@ -49808,7 +49806,7 @@
       </c>
       <c r="K35" s="575">
         <f>Fluoro!K267</f>
-        <v>43670</v>
+        <v>44089</v>
       </c>
       <c r="L35" s="226" t="str">
         <f>Fluoro!L267</f>
@@ -49816,7 +49814,7 @@
       </c>
       <c r="M35" s="576">
         <f>Fluoro!M267</f>
-        <v>44036</v>
+        <v>44454</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -49855,39 +49853,39 @@
         <f>Fluoro!D335</f>
         <v>Attenuator</v>
       </c>
-      <c r="E37" s="613" t="str">
+      <c r="E37" s="593" t="str">
         <f>Fluoro!E335</f>
         <v>Auto 1</v>
       </c>
-      <c r="F37" s="613">
+      <c r="F37" s="593">
         <f>Fluoro!F335</f>
         <v>0</v>
       </c>
-      <c r="G37" s="613">
+      <c r="G37" s="593">
         <f>Fluoro!G335</f>
         <v>0</v>
       </c>
-      <c r="H37" s="613" t="str">
+      <c r="H37" s="593" t="str">
         <f>Fluoro!H335</f>
         <v/>
       </c>
-      <c r="I37" s="613">
+      <c r="I37" s="593">
         <f>Fluoro!I335</f>
         <v>0</v>
       </c>
-      <c r="J37" s="613">
+      <c r="J37" s="593">
         <f>Fluoro!J335</f>
         <v>0</v>
       </c>
-      <c r="K37" s="614" t="str">
+      <c r="K37" s="594" t="str">
         <f>Fluoro!K335</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L37" s="614">
+      <c r="L37" s="594">
         <f>Fluoro!L335</f>
         <v>0</v>
       </c>
-      <c r="M37" s="614">
+      <c r="M37" s="594">
         <f>Fluoro!M335</f>
         <v>0</v>
       </c>
@@ -49944,7 +49942,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="10"/>
-      <c r="C39" s="633" t="str">
+      <c r="C39" s="632" t="str">
         <f>Fluoro!C337</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49994,7 +49992,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="10"/>
-      <c r="C40" s="633">
+      <c r="C40" s="632">
         <f>Fluoro!C338</f>
         <v>0</v>
       </c>
@@ -50044,7 +50042,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="633">
+      <c r="C41" s="632">
         <f>Fluoro!C339</f>
         <v>0</v>
       </c>
@@ -50094,7 +50092,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="10"/>
-      <c r="C42" s="633" t="str">
+      <c r="C42" s="632" t="str">
         <f>Fluoro!C340</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -50144,7 +50142,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="10"/>
-      <c r="C43" s="633">
+      <c r="C43" s="632">
         <f>Fluoro!C341</f>
         <v>0</v>
       </c>
@@ -50194,7 +50192,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="10"/>
-      <c r="C44" s="633">
+      <c r="C44" s="632">
         <f>Fluoro!C342</f>
         <v>0</v>
       </c>
@@ -50244,7 +50242,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="10"/>
-      <c r="C45" s="633" t="str">
+      <c r="C45" s="632" t="str">
         <f>Fluoro!C343</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -50294,7 +50292,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="10"/>
-      <c r="C46" s="633">
+      <c r="C46" s="632">
         <f>Fluoro!C344</f>
         <v>0</v>
       </c>
@@ -50344,7 +50342,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="10"/>
-      <c r="C47" s="633">
+      <c r="C47" s="632">
         <f>Fluoro!C345</f>
         <v>0</v>
       </c>
@@ -50394,7 +50392,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="10"/>
-      <c r="C48" s="633" t="str">
+      <c r="C48" s="632" t="str">
         <f>Fluoro!C346</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -50444,7 +50442,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="10"/>
-      <c r="C49" s="633">
+      <c r="C49" s="632">
         <f>Fluoro!C347</f>
         <v>0</v>
       </c>
@@ -50494,7 +50492,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="10"/>
-      <c r="C50" s="633">
+      <c r="C50" s="632">
         <f>Fluoro!C348</f>
         <v>0</v>
       </c>
@@ -50544,7 +50542,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="633" t="str">
+      <c r="C51" s="632" t="str">
         <f>Fluoro!C349</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -50594,7 +50592,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="10"/>
-      <c r="C52" s="633">
+      <c r="C52" s="632">
         <f>Fluoro!C350</f>
         <v>0</v>
       </c>
@@ -50644,7 +50642,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="10"/>
-      <c r="C53" s="633">
+      <c r="C53" s="632">
         <f>Fluoro!C351</f>
         <v>0</v>
       </c>
@@ -50838,7 +50836,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="10"/>
-      <c r="C60" s="632"/>
+      <c r="C60" s="633"/>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60"/>
@@ -50855,7 +50853,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="10"/>
-      <c r="C61" s="632"/>
+      <c r="C61" s="633"/>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61"/>
@@ -51503,7 +51501,7 @@
     <row r="102" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102"/>
-      <c r="C102" s="632"/>
+      <c r="C102" s="633"/>
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102"/>
@@ -51518,7 +51516,7 @@
     <row r="103" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103"/>
-      <c r="C103" s="632"/>
+      <c r="C103" s="633"/>
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103"/>
@@ -51533,7 +51531,7 @@
     <row r="104" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104"/>
-      <c r="C104" s="632"/>
+      <c r="C104" s="633"/>
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104"/>
@@ -51548,7 +51546,7 @@
     <row r="105" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105"/>
       <c r="B105"/>
-      <c r="C105" s="632"/>
+      <c r="C105" s="633"/>
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105"/>
@@ -51563,7 +51561,7 @@
     <row r="106" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="B106"/>
-      <c r="C106" s="632"/>
+      <c r="C106" s="633"/>
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106"/>
@@ -51578,7 +51576,7 @@
     <row r="107" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107"/>
-      <c r="C107" s="632"/>
+      <c r="C107" s="633"/>
       <c r="D107"/>
       <c r="E107"/>
       <c r="F107"/>
@@ -51593,7 +51591,7 @@
     <row r="108" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108"/>
-      <c r="C108" s="632"/>
+      <c r="C108" s="633"/>
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108"/>
@@ -51608,7 +51606,7 @@
     <row r="109" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109"/>
       <c r="B109"/>
-      <c r="C109" s="632"/>
+      <c r="C109" s="633"/>
       <c r="D109"/>
       <c r="E109"/>
       <c r="F109"/>
@@ -51623,7 +51621,7 @@
     <row r="110" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110"/>
-      <c r="C110" s="632"/>
+      <c r="C110" s="633"/>
       <c r="D110"/>
       <c r="E110"/>
       <c r="F110"/>
@@ -51638,7 +51636,7 @@
     <row r="111" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111"/>
       <c r="B111"/>
-      <c r="C111" s="632"/>
+      <c r="C111" s="633"/>
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111"/>
@@ -51653,7 +51651,7 @@
     <row r="112" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112"/>
-      <c r="C112" s="632"/>
+      <c r="C112" s="633"/>
       <c r="D112"/>
       <c r="E112"/>
       <c r="F112"/>
@@ -51668,7 +51666,7 @@
     <row r="113" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113"/>
       <c r="B113"/>
-      <c r="C113" s="632"/>
+      <c r="C113" s="633"/>
       <c r="D113"/>
       <c r="E113"/>
       <c r="F113"/>
@@ -51683,7 +51681,7 @@
     <row r="114" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114"/>
       <c r="B114"/>
-      <c r="C114" s="632"/>
+      <c r="C114" s="633"/>
       <c r="D114"/>
       <c r="E114"/>
       <c r="F114"/>
@@ -51698,7 +51696,7 @@
     <row r="115" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115"/>
       <c r="B115"/>
-      <c r="C115" s="632"/>
+      <c r="C115" s="633"/>
       <c r="D115"/>
       <c r="E115"/>
       <c r="F115"/>
@@ -51713,7 +51711,7 @@
     <row r="116" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116"/>
       <c r="B116"/>
-      <c r="C116" s="632"/>
+      <c r="C116" s="633"/>
       <c r="D116"/>
       <c r="E116"/>
       <c r="F116"/>
@@ -51833,7 +51831,7 @@
     <row r="124" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="B124"/>
-      <c r="C124" s="632"/>
+      <c r="C124" s="633"/>
       <c r="D124"/>
       <c r="E124"/>
       <c r="F124"/>
@@ -51848,7 +51846,7 @@
     <row r="125" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125"/>
-      <c r="C125" s="632"/>
+      <c r="C125" s="633"/>
       <c r="D125"/>
       <c r="E125"/>
       <c r="F125"/>
@@ -51980,17 +51978,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="21">
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
     <mergeCell ref="C102:C106"/>
     <mergeCell ref="C107:C111"/>
     <mergeCell ref="C112:C116"/>
@@ -52001,6 +51988,17 @@
     <mergeCell ref="C48:C50"/>
     <mergeCell ref="C51:C53"/>
     <mergeCell ref="C60:C61"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.88611111111111096" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -52017,7 +52015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
@@ -52032,29 +52030,29 @@
       </c>
       <c r="B1" s="634"/>
       <c r="N1" s="278"/>
-      <c r="O1" s="607" t="str">
+      <c r="O1" s="606" t="str">
         <f>Fluoro!O105</f>
         <v>Patient Entrance Exposure Rate (Fluoroscopy)*</v>
       </c>
-      <c r="P1" s="607"/>
-      <c r="Q1" s="607"/>
-      <c r="R1" s="607" t="s">
+      <c r="P1" s="606"/>
+      <c r="Q1" s="606"/>
+      <c r="R1" s="606" t="s">
         <v>407</v>
       </c>
-      <c r="S1" s="607"/>
-      <c r="T1" s="607"/>
+      <c r="S1" s="606"/>
+      <c r="T1" s="606"/>
       <c r="V1" s="278"/>
-      <c r="W1" s="607" t="str">
+      <c r="W1" s="606" t="str">
         <f>Fluoro!O137</f>
         <v>Patient Entrance Exposure Rate – Digital Acquisition</v>
       </c>
-      <c r="X1" s="607"/>
-      <c r="Y1" s="607"/>
-      <c r="Z1" s="607" t="s">
+      <c r="X1" s="606"/>
+      <c r="Y1" s="606"/>
+      <c r="Z1" s="606" t="s">
         <v>407</v>
       </c>
-      <c r="AA1" s="607"/>
-      <c r="AB1" s="607"/>
+      <c r="AA1" s="606"/>
+      <c r="AB1" s="606"/>
     </row>
     <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="279">
@@ -56047,14 +56045,14 @@
       <c r="B75" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E75" s="607" t="s">
+      <c r="E75" s="606" t="s">
         <v>420</v>
       </c>
-      <c r="F75" s="607"/>
-      <c r="I75" s="607" t="s">
+      <c r="F75" s="606"/>
+      <c r="I75" s="606" t="s">
         <v>421</v>
       </c>
-      <c r="J75" s="607"/>
+      <c r="J75" s="606"/>
     </row>
     <row r="76" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">

--- a/MUSCCArm.xlsx
+++ b/MUSCCArm.xlsx
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="461">
   <si>
     <t>Print Area</t>
   </si>
@@ -1541,6 +1541,12 @@
   </si>
   <si>
     <t>Page1,Page2,HVLPage,KAP_AKR,ExpChartFluoroPage,ExpChartDAPage,ImgQualityPage,Com1Page,Com2Page,OutputGraphFluoroPage,OutputGraphDAPage,LeedsTO10Page</t>
+  </si>
+  <si>
+    <t>Exposure (mGy)</t>
+  </si>
+  <si>
+    <t>DHEC form SC-RHA-20 “Notice to Employees” posted or referenced</t>
   </si>
 </sst>
 </file>
@@ -4668,7 +4674,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="635">
+  <cellXfs count="636">
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6403,6 +6409,9 @@
     <xf numFmtId="172" fontId="3" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6478,6 +6487,9 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6489,9 +6501,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="182" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7072,7 +7081,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7250,7 +7258,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7322,7 +7329,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -20527,21 +20533,21 @@
       <c r="E10" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="577" t="str">
+      <c r="F10" s="578" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="577"/>
+      <c r="G10" s="578"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="578" t="str">
+      <c r="K10" s="579" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="578"/>
+      <c r="L10" s="579"/>
       <c r="M10" s="312"/>
       <c r="O10" s="13"/>
       <c r="Q10" s="2" t="s">
@@ -20584,21 +20590,21 @@
       <c r="E11" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="579" t="str">
+      <c r="F11" s="580" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="579"/>
+      <c r="G11" s="580"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
       <c r="J11" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="579" t="str">
+      <c r="K11" s="580" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="579"/>
+      <c r="L11" s="580"/>
       <c r="M11" s="312"/>
       <c r="O11" s="13"/>
       <c r="Q11" s="2" t="s">
@@ -20641,21 +20647,21 @@
       <c r="E12" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="579" t="str">
+      <c r="F12" s="580" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="579"/>
+      <c r="G12" s="580"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
       <c r="J12" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="580" t="str">
+      <c r="K12" s="581" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="580"/>
+      <c r="L12" s="581"/>
       <c r="M12" s="312"/>
       <c r="O12" s="13"/>
       <c r="Q12" s="2" t="s">
@@ -20698,21 +20704,21 @@
       <c r="E13" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="581" t="str">
+      <c r="F13" s="582" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="581"/>
+      <c r="G13" s="582"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
       <c r="J13" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="581" t="str">
+      <c r="K13" s="582" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="581"/>
+      <c r="L13" s="582"/>
       <c r="M13" s="312"/>
       <c r="O13" s="13"/>
       <c r="Q13" s="2" t="s">
@@ -20835,21 +20841,21 @@
       <c r="E16" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="577" t="str">
+      <c r="F16" s="578" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="577"/>
+      <c r="G16" s="578"/>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
       <c r="J16" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="582" t="str">
+      <c r="K16" s="583" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="582"/>
+      <c r="L16" s="583"/>
       <c r="M16" s="312"/>
       <c r="O16" s="13"/>
       <c r="P16" s="50" t="s">
@@ -20879,21 +20885,21 @@
       <c r="E17" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="579" t="str">
+      <c r="F17" s="580" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="579"/>
+      <c r="G17" s="580"/>
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
       <c r="J17" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="581" t="str">
+      <c r="K17" s="582" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="581"/>
+      <c r="L17" s="582"/>
       <c r="M17" s="312"/>
       <c r="O17" s="13"/>
       <c r="Q17" s="2" t="s">
@@ -20936,21 +20942,21 @@
       <c r="E18" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="581" t="str">
+      <c r="F18" s="582" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="581"/>
+      <c r="G18" s="582"/>
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
       <c r="J18" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="581" t="str">
+      <c r="K18" s="582" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="581"/>
+      <c r="L18" s="582"/>
       <c r="M18" s="312"/>
       <c r="O18" s="13"/>
       <c r="Q18" s="2" t="s">
@@ -20998,11 +21004,11 @@
       <c r="J19" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="581" t="str">
+      <c r="K19" s="582" t="str">
         <f>IF(V20="","",V20)</f>
         <v/>
       </c>
-      <c r="L19" s="581"/>
+      <c r="L19" s="582"/>
       <c r="M19" s="312"/>
       <c r="O19" s="13"/>
       <c r="Q19" s="2" t="s">
@@ -21077,11 +21083,11 @@
       <c r="E21" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="577" t="str">
+      <c r="F21" s="578" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="577"/>
+      <c r="G21" s="578"/>
       <c r="H21" s="42"/>
       <c r="I21" s="42"/>
       <c r="J21" s="73" t="s">
@@ -21121,21 +21127,21 @@
       <c r="E22" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="583" t="str">
+      <c r="F22" s="584" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="583"/>
+      <c r="G22" s="584"/>
       <c r="H22" s="42"/>
       <c r="I22" s="42"/>
       <c r="J22" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="577" t="str">
+      <c r="K22" s="578" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="577"/>
+      <c r="L22" s="578"/>
       <c r="M22" s="312"/>
       <c r="O22" s="13"/>
       <c r="Q22" s="2" t="s">
@@ -21180,11 +21186,11 @@
       <c r="J23" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="579" t="str">
+      <c r="K23" s="580" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="579"/>
+      <c r="L23" s="580"/>
       <c r="M23" s="312"/>
       <c r="O23" s="13"/>
       <c r="Q23" s="2" t="s">
@@ -21227,21 +21233,21 @@
       <c r="E24" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="578" t="str">
+      <c r="F24" s="579" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="578"/>
+      <c r="G24" s="579"/>
       <c r="H24" s="42"/>
       <c r="I24" s="42"/>
       <c r="J24" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="579" t="str">
+      <c r="K24" s="580" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="579"/>
+      <c r="L24" s="580"/>
       <c r="M24" s="312"/>
       <c r="O24" s="13"/>
       <c r="P24" s="50" t="s">
@@ -21279,11 +21285,11 @@
       <c r="E25" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="581" t="str">
+      <c r="F25" s="582" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="581"/>
+      <c r="G25" s="582"/>
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
@@ -21331,11 +21337,11 @@
       <c r="E26" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="581" t="str">
+      <c r="F26" s="582" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="581"/>
+      <c r="G26" s="582"/>
       <c r="H26" s="42"/>
       <c r="I26" s="42"/>
       <c r="J26" s="313" t="s">
@@ -21384,11 +21390,11 @@
       <c r="J27" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="577" t="str">
+      <c r="K27" s="578" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="577"/>
+      <c r="L27" s="578"/>
       <c r="M27" s="312"/>
       <c r="O27" s="13"/>
       <c r="Q27" s="2" t="s">
@@ -21426,21 +21432,21 @@
       <c r="E28" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="578" t="str">
+      <c r="F28" s="579" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="578"/>
+      <c r="G28" s="579"/>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
       <c r="J28" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="579" t="str">
+      <c r="K28" s="580" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="579"/>
+      <c r="L28" s="580"/>
       <c r="M28" s="312"/>
       <c r="O28" s="13"/>
       <c r="P28" s="50" t="s">
@@ -21469,11 +21475,11 @@
       <c r="E29" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="581" t="str">
+      <c r="F29" s="582" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="581"/>
+      <c r="G29" s="582"/>
       <c r="H29" s="42"/>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
@@ -21521,11 +21527,11 @@
       <c r="E30" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="581" t="str">
+      <c r="F30" s="582" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="581"/>
+      <c r="G30" s="582"/>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
@@ -21640,11 +21646,11 @@
       <c r="E33" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="577" t="str">
+      <c r="F33" s="578" t="str">
         <f>IF(R34="","",R34)</f>
         <v/>
       </c>
-      <c r="G33" s="577"/>
+      <c r="G33" s="578"/>
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
       <c r="J33" s="73" t="s">
@@ -21681,21 +21687,21 @@
       <c r="E34" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="583" t="str">
+      <c r="F34" s="584" t="str">
         <f>IF(R35="","",R35)</f>
         <v/>
       </c>
-      <c r="G34" s="583"/>
+      <c r="G34" s="584"/>
       <c r="H34" s="42"/>
       <c r="I34" s="42"/>
       <c r="J34" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="577" t="str">
+      <c r="K34" s="578" t="str">
         <f>IF(V35="","",V35)</f>
         <v/>
       </c>
-      <c r="L34" s="577"/>
+      <c r="L34" s="578"/>
       <c r="M34" s="312"/>
       <c r="O34" s="13"/>
       <c r="Q34" s="2" t="s">
@@ -21740,11 +21746,11 @@
       <c r="J35" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="579" t="str">
+      <c r="K35" s="580" t="str">
         <f>IF(V36="","",V36)</f>
         <v/>
       </c>
-      <c r="L35" s="579"/>
+      <c r="L35" s="580"/>
       <c r="M35" s="312"/>
       <c r="O35" s="13"/>
       <c r="Q35" s="2" t="s">
@@ -21787,21 +21793,21 @@
       <c r="E36" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="578" t="str">
+      <c r="F36" s="579" t="str">
         <f>IF(R37="","",R37)</f>
         <v/>
       </c>
-      <c r="G36" s="578"/>
+      <c r="G36" s="579"/>
       <c r="H36" s="42"/>
       <c r="I36" s="42"/>
       <c r="J36" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="K36" s="579" t="str">
+      <c r="K36" s="580" t="str">
         <f>IF(V37="","",V37)</f>
         <v/>
       </c>
-      <c r="L36" s="579"/>
+      <c r="L36" s="580"/>
       <c r="M36" s="312"/>
       <c r="O36" s="13"/>
       <c r="P36" s="50" t="s">
@@ -21839,11 +21845,11 @@
       <c r="E37" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="581" t="str">
+      <c r="F37" s="582" t="str">
         <f>IF(R38="","",R38)</f>
         <v/>
       </c>
-      <c r="G37" s="581"/>
+      <c r="G37" s="582"/>
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
       <c r="J37" s="42"/>
@@ -21891,11 +21897,11 @@
       <c r="E38" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="581" t="str">
+      <c r="F38" s="582" t="str">
         <f>IF(R39="","",R39)</f>
         <v/>
       </c>
-      <c r="G38" s="581"/>
+      <c r="G38" s="582"/>
       <c r="H38" s="42"/>
       <c r="I38" s="42"/>
       <c r="J38" s="313" t="s">
@@ -21942,11 +21948,11 @@
       <c r="J39" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="K39" s="577" t="str">
+      <c r="K39" s="578" t="str">
         <f>IF(V40="","",V40)</f>
         <v/>
       </c>
-      <c r="L39" s="577"/>
+      <c r="L39" s="578"/>
       <c r="M39" s="312"/>
       <c r="O39" s="13"/>
       <c r="Q39" s="2" t="s">
@@ -21984,21 +21990,21 @@
       <c r="E40" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="578" t="str">
+      <c r="F40" s="579" t="str">
         <f>IF(R41="","",R41)</f>
         <v/>
       </c>
-      <c r="G40" s="578"/>
+      <c r="G40" s="579"/>
       <c r="H40" s="42"/>
       <c r="I40" s="42"/>
       <c r="J40" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="K40" s="579" t="str">
+      <c r="K40" s="580" t="str">
         <f>IF(V41="","",V41)</f>
         <v/>
       </c>
-      <c r="L40" s="579"/>
+      <c r="L40" s="580"/>
       <c r="M40" s="312"/>
       <c r="O40" s="13"/>
       <c r="P40" s="50" t="s">
@@ -22036,11 +22042,11 @@
       <c r="E41" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="581" t="str">
+      <c r="F41" s="582" t="str">
         <f>IF(R42="","",R42)</f>
         <v/>
       </c>
-      <c r="G41" s="581"/>
+      <c r="G41" s="582"/>
       <c r="H41" s="42"/>
       <c r="I41" s="42"/>
       <c r="J41" s="42"/>
@@ -22088,11 +22094,11 @@
       <c r="E42" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="581" t="str">
+      <c r="F42" s="582" t="str">
         <f>IF(R43="","",R43)</f>
         <v/>
       </c>
-      <c r="G42" s="581"/>
+      <c r="G42" s="582"/>
       <c r="H42" s="42"/>
       <c r="I42" s="42"/>
       <c r="J42" s="42"/>
@@ -22857,10 +22863,10 @@
       <c r="I69" s="299"/>
       <c r="J69" s="299"/>
       <c r="K69" s="299"/>
-      <c r="L69" s="588" t="s">
+      <c r="L69" s="589" t="s">
         <v>84</v>
       </c>
-      <c r="M69" s="589"/>
+      <c r="M69" s="590"/>
       <c r="O69" s="56"/>
       <c r="P69" s="17" t="s">
         <v>85</v>
@@ -22933,7 +22939,7 @@
       </c>
       <c r="D71" s="135"/>
       <c r="E71" s="70" t="s">
-        <v>54</v>
+        <v>460</v>
       </c>
       <c r="F71" s="135"/>
       <c r="G71" s="135"/>
@@ -24529,24 +24535,24 @@
       <c r="P107" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="Q107" s="585" t="str">
+      <c r="Q107" s="586" t="str">
         <f>IF(Q106&lt;&gt;"",Q106,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R107" s="585"/>
-      <c r="S107" s="585"/>
-      <c r="T107" s="584" t="str">
+      <c r="R107" s="586"/>
+      <c r="S107" s="586"/>
+      <c r="T107" s="585" t="str">
         <f>IF(T106&lt;&gt;"",T106,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v/>
       </c>
-      <c r="U107" s="584"/>
-      <c r="V107" s="584"/>
-      <c r="W107" s="584" t="str">
+      <c r="U107" s="585"/>
+      <c r="V107" s="585"/>
+      <c r="W107" s="585" t="str">
         <f>IF(W106&lt;&gt;"",W106,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="X107" s="584"/>
-      <c r="Y107" s="584"/>
+      <c r="X107" s="585"/>
+      <c r="Y107" s="585"/>
       <c r="AA107" s="2" t="s">
         <v>153</v>
       </c>
@@ -24648,11 +24654,11 @@
       <c r="J109" s="323"/>
       <c r="K109" s="323"/>
       <c r="L109" s="319" t="str">
-        <f>IF(T299="","NA",IF(T299="YES",T299,IF(T299="NA",T299,"")))</f>
+        <f>IF(U299="","NA",IF(U299="YES",U299,IF(U299="NA",U299,"")))</f>
         <v>NA</v>
       </c>
       <c r="M109" s="320" t="str">
-        <f>IF(T299="NO",T299,"")</f>
+        <f>IF(U299="NO",U299,"")</f>
         <v/>
       </c>
       <c r="O109" s="82" t="s">
@@ -26536,24 +26542,24 @@
       <c r="P139" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="Q139" s="585" t="str">
+      <c r="Q139" s="586" t="str">
         <f>IF(Q138&lt;&gt;"",Q138,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R139" s="585"/>
-      <c r="S139" s="585"/>
-      <c r="T139" s="584" t="str">
+      <c r="R139" s="586"/>
+      <c r="S139" s="586"/>
+      <c r="T139" s="585" t="str">
         <f>IF(T138&lt;&gt;"",T138,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v/>
       </c>
-      <c r="U139" s="584"/>
-      <c r="V139" s="584"/>
-      <c r="W139" s="584" t="str">
+      <c r="U139" s="585"/>
+      <c r="V139" s="585"/>
+      <c r="W139" s="585" t="str">
         <f>IF(W138&lt;&gt;"",W138,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="X139" s="584"/>
-      <c r="Y139" s="584"/>
+      <c r="X139" s="585"/>
+      <c r="Y139" s="585"/>
       <c r="AA139" s="2" t="str">
         <f>$T$139&amp;" Mag 4"</f>
         <v xml:space="preserve"> Mag 4</v>
@@ -28897,10 +28903,10 @@
       <c r="P181" s="135"/>
       <c r="Q181" s="137"/>
       <c r="R181" s="128"/>
-      <c r="T181" s="586" t="s">
+      <c r="T181" s="587" t="s">
         <v>245</v>
       </c>
-      <c r="U181" s="586"/>
+      <c r="U181" s="587"/>
       <c r="W181" s="2" t="s">
         <v>199</v>
       </c>
@@ -29271,7 +29277,7 @@
       <c r="K190" s="323"/>
       <c r="L190" s="323"/>
       <c r="M190" s="327"/>
-      <c r="O190" s="587" t="str">
+      <c r="O190" s="588" t="str">
         <f>$Q$107</f>
         <v>Auto 1</v>
       </c>
@@ -29321,7 +29327,7 @@
       <c r="K191" s="323"/>
       <c r="L191" s="323"/>
       <c r="M191" s="303"/>
-      <c r="O191" s="587"/>
+      <c r="O191" s="588"/>
       <c r="P191" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -29367,7 +29373,7 @@
       <c r="K192" s="135"/>
       <c r="L192" s="135"/>
       <c r="M192" s="303"/>
-      <c r="O192" s="587"/>
+      <c r="O192" s="588"/>
       <c r="P192" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -29413,7 +29419,7 @@
       <c r="K193" s="135"/>
       <c r="L193" s="135"/>
       <c r="M193" s="303"/>
-      <c r="O193" s="587"/>
+      <c r="O193" s="588"/>
       <c r="P193" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -29456,7 +29462,7 @@
       <c r="K194" s="135"/>
       <c r="L194" s="135"/>
       <c r="M194" s="303"/>
-      <c r="O194" s="587"/>
+      <c r="O194" s="588"/>
       <c r="P194" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -29499,7 +29505,7 @@
       <c r="K195" s="135"/>
       <c r="L195" s="135"/>
       <c r="M195" s="303"/>
-      <c r="O195" s="587" t="str">
+      <c r="O195" s="588" t="str">
         <f>$T$107</f>
         <v/>
       </c>
@@ -29545,7 +29551,7 @@
       <c r="K196" s="305"/>
       <c r="L196" s="305"/>
       <c r="M196" s="306"/>
-      <c r="O196" s="587"/>
+      <c r="O196" s="588"/>
       <c r="P196" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -29590,7 +29596,7 @@
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="O197" s="587"/>
+      <c r="O197" s="588"/>
       <c r="P197" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -29635,7 +29641,7 @@
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
-      <c r="O198" s="587"/>
+      <c r="O198" s="588"/>
       <c r="P198" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -29681,7 +29687,7 @@
         <f>$H$2</f>
         <v>Medical University of South Carolina</v>
       </c>
-      <c r="O199" s="587"/>
+      <c r="O199" s="588"/>
       <c r="P199" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -29730,7 +29736,7 @@
         <f>$H$5</f>
         <v>Fluoroscopy System Compliance Inspection</v>
       </c>
-      <c r="O200" s="587" t="str">
+      <c r="O200" s="588" t="str">
         <f>$W$107</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -29779,7 +29785,7 @@
       <c r="K201" s="299"/>
       <c r="L201" s="299"/>
       <c r="M201" s="300"/>
-      <c r="O201" s="587"/>
+      <c r="O201" s="588"/>
       <c r="P201" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -29833,7 +29839,7 @@
         <v/>
       </c>
       <c r="M202" s="12"/>
-      <c r="O202" s="587"/>
+      <c r="O202" s="588"/>
       <c r="P202" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -29866,7 +29872,7 @@
       </c>
       <c r="B203" s="10"/>
       <c r="M203" s="12"/>
-      <c r="O203" s="587"/>
+      <c r="O203" s="588"/>
       <c r="P203" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -29900,20 +29906,20 @@
       <c r="B204" s="301"/>
       <c r="C204" s="351"/>
       <c r="D204" s="323"/>
-      <c r="E204" s="620" t="s">
+      <c r="E204" s="621" t="s">
         <v>262</v>
       </c>
-      <c r="F204" s="622" t="s">
+      <c r="F204" s="623" t="s">
         <v>263</v>
       </c>
       <c r="G204" s="518" t="s">
         <v>264</v>
       </c>
-      <c r="H204" s="620" t="str">
+      <c r="H204" s="621" t="str">
         <f>R276</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="I204" s="624" t="str">
+      <c r="I204" s="625" t="str">
         <f>S276</f>
         <v>Meas AK @ Ref Pt (mGy)</v>
       </c>
@@ -29926,10 +29932,10 @@
       <c r="L204" s="135" t="s">
         <v>267</v>
       </c>
-      <c r="M204" s="626" t="s">
+      <c r="M204" s="627" t="s">
         <v>268</v>
       </c>
-      <c r="O204" s="587"/>
+      <c r="O204" s="588"/>
       <c r="P204" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -29967,11 +29973,11 @@
       <c r="D205" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="E205" s="621"/>
-      <c r="F205" s="623"/>
+      <c r="E205" s="622"/>
+      <c r="F205" s="624"/>
       <c r="G205" s="518"/>
-      <c r="H205" s="621"/>
-      <c r="I205" s="625"/>
+      <c r="H205" s="622"/>
+      <c r="I205" s="626"/>
       <c r="J205" s="519"/>
       <c r="K205" s="135" t="str">
         <f>U277</f>
@@ -29981,7 +29987,7 @@
         <f>V277</f>
         <v>mGy/min</v>
       </c>
-      <c r="M205" s="627"/>
+      <c r="M205" s="628"/>
       <c r="O205" s="13"/>
       <c r="Y205" s="14"/>
       <c r="AA205" s="2" t="s">
@@ -30625,7 +30631,7 @@
         <f>W286</f>
         <v/>
       </c>
-      <c r="O214" s="587" t="str">
+      <c r="O214" s="588" t="str">
         <f>$Q$139</f>
         <v>Auto 1</v>
       </c>
@@ -30681,7 +30687,7 @@
       <c r="K215" s="135"/>
       <c r="L215" s="135"/>
       <c r="M215" s="303"/>
-      <c r="O215" s="587"/>
+      <c r="O215" s="588"/>
       <c r="P215" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -30727,7 +30733,7 @@
       <c r="K216" s="323"/>
       <c r="L216" s="323"/>
       <c r="M216" s="303"/>
-      <c r="O216" s="587"/>
+      <c r="O216" s="588"/>
       <c r="P216" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -30773,7 +30779,7 @@
       <c r="K217" s="368"/>
       <c r="L217" s="368"/>
       <c r="M217" s="369"/>
-      <c r="O217" s="587"/>
+      <c r="O217" s="588"/>
       <c r="P217" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -30820,7 +30826,7 @@
       <c r="K218" s="323"/>
       <c r="L218" s="323"/>
       <c r="M218" s="303"/>
-      <c r="O218" s="587"/>
+      <c r="O218" s="588"/>
       <c r="P218" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -30863,7 +30869,7 @@
       <c r="K219" s="323"/>
       <c r="L219" s="323"/>
       <c r="M219" s="327"/>
-      <c r="O219" s="587" t="str">
+      <c r="O219" s="588" t="str">
         <f>$T$139</f>
         <v/>
       </c>
@@ -30924,7 +30930,7 @@
         <v/>
       </c>
       <c r="M220" s="327"/>
-      <c r="O220" s="587"/>
+      <c r="O220" s="588"/>
       <c r="P220" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -30967,7 +30973,7 @@
       <c r="K221" s="323"/>
       <c r="L221" s="323"/>
       <c r="M221" s="327"/>
-      <c r="O221" s="587"/>
+      <c r="O221" s="588"/>
       <c r="P221" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -31018,7 +31024,7 @@
       <c r="K222" s="323"/>
       <c r="L222" s="323"/>
       <c r="M222" s="327"/>
-      <c r="O222" s="587"/>
+      <c r="O222" s="588"/>
       <c r="P222" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -31075,7 +31081,7 @@
       <c r="K223" s="323"/>
       <c r="L223" s="323"/>
       <c r="M223" s="327"/>
-      <c r="O223" s="587"/>
+      <c r="O223" s="588"/>
       <c r="P223" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -31116,11 +31122,11 @@
         <v/>
       </c>
       <c r="E224" s="561" t="str">
-        <f>IF(T295="","",T295)</f>
+        <f>IF(U295="","",U295)</f>
         <v/>
       </c>
       <c r="F224" s="376" t="str">
-        <f>IF(Q295="","",Q295)</f>
+        <f>IF(R295="","",R295)</f>
         <v/>
       </c>
       <c r="G224" s="323"/>
@@ -31133,13 +31139,13 @@
         <v/>
       </c>
       <c r="J224" s="376" t="str">
-        <f>IF(Q304="","",Q304)</f>
+        <f t="shared" ref="J224:J232" si="37">IF(R304="","",R304)</f>
         <v/>
       </c>
       <c r="K224" s="323"/>
       <c r="L224" s="323"/>
       <c r="M224" s="327"/>
-      <c r="O224" s="587" t="str">
+      <c r="O224" s="588" t="str">
         <f>$W$139</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -31183,27 +31189,27 @@
         <v/>
       </c>
       <c r="E225" s="561" t="str">
-        <f>IF(T296="","",T296)</f>
+        <f>IF(U296="","",U296)</f>
         <v/>
       </c>
       <c r="F225" s="376" t="str">
-        <f t="shared" ref="F225:F227" si="37">IF(Q296="","",Q296)</f>
+        <f>IF(R296="","",R296)</f>
         <v/>
       </c>
       <c r="G225" s="323"/>
       <c r="H225" s="323"/>
       <c r="I225" s="376" t="str">
-        <f t="shared" ref="I225:J232" si="38">IF(P305="","",P305)</f>
+        <f t="shared" ref="I225:I232" si="38">IF(P305="","",P305)</f>
         <v/>
       </c>
       <c r="J225" s="376" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K225" s="323"/>
       <c r="L225" s="323"/>
       <c r="M225" s="327"/>
-      <c r="O225" s="587"/>
+      <c r="O225" s="588"/>
       <c r="P225" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -31244,11 +31250,11 @@
         <v/>
       </c>
       <c r="E226" s="561" t="str">
-        <f>IF(T297="","",T297)</f>
+        <f>IF(U297="","",U297)</f>
         <v/>
       </c>
       <c r="F226" s="376" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(R297="","",R297)</f>
         <v/>
       </c>
       <c r="G226" s="323"/>
@@ -31258,13 +31264,13 @@
         <v/>
       </c>
       <c r="J226" s="376" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K226" s="323"/>
       <c r="L226" s="323"/>
       <c r="M226" s="327"/>
-      <c r="O226" s="587"/>
+      <c r="O226" s="588"/>
       <c r="P226" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -31305,11 +31311,11 @@
         <v/>
       </c>
       <c r="E227" s="562" t="str">
-        <f>IF(T298="","",T298)</f>
+        <f>IF(U298="","",U298)</f>
         <v/>
       </c>
       <c r="F227" s="376" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(R298="","",R298)</f>
         <v/>
       </c>
       <c r="G227" s="323"/>
@@ -31319,13 +31325,13 @@
         <v/>
       </c>
       <c r="J227" s="376" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K227" s="323"/>
       <c r="L227" s="323"/>
       <c r="M227" s="327"/>
-      <c r="O227" s="587"/>
+      <c r="O227" s="588"/>
       <c r="P227" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -31362,7 +31368,7 @@
         <v>180</v>
       </c>
       <c r="E228" s="388" t="str">
-        <f>T299</f>
+        <f>U299</f>
         <v/>
       </c>
       <c r="F228" s="323"/>
@@ -31373,13 +31379,13 @@
         <v/>
       </c>
       <c r="J228" s="383" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K228" s="323"/>
       <c r="L228" s="323"/>
       <c r="M228" s="327"/>
-      <c r="O228" s="587"/>
+      <c r="O228" s="588"/>
       <c r="P228" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -31430,7 +31436,7 @@
         <v/>
       </c>
       <c r="J229" s="384" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K229" s="323"/>
@@ -31469,7 +31475,7 @@
         <v/>
       </c>
       <c r="J230" s="385" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K230" s="323"/>
@@ -31522,7 +31528,7 @@
         <v/>
       </c>
       <c r="J231" s="385" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K231" s="323"/>
@@ -31575,7 +31581,7 @@
         <v/>
       </c>
       <c r="J232" s="387" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K232" s="323"/>
@@ -31932,7 +31938,7 @@
       <c r="K240" s="323"/>
       <c r="L240" s="323"/>
       <c r="M240" s="327"/>
-      <c r="O240" s="590" t="s">
+      <c r="O240" s="591" t="s">
         <v>294</v>
       </c>
       <c r="P240" s="167" t="s">
@@ -31991,7 +31997,7 @@
       <c r="K241" s="323"/>
       <c r="L241" s="323"/>
       <c r="M241" s="327"/>
-      <c r="O241" s="590"/>
+      <c r="O241" s="591"/>
       <c r="P241" s="172" t="s">
         <v>297</v>
       </c>
@@ -32048,7 +32054,7 @@
       <c r="K242" s="323"/>
       <c r="L242" s="323"/>
       <c r="M242" s="327"/>
-      <c r="O242" s="590" t="str">
+      <c r="O242" s="591" t="str">
         <f>IF($U$137=1,"Scatter - Pulse", "Scatter – Digital acq")</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -32108,7 +32114,7 @@
       <c r="K243" s="323"/>
       <c r="L243" s="323"/>
       <c r="M243" s="327"/>
-      <c r="O243" s="590"/>
+      <c r="O243" s="591"/>
       <c r="P243" s="172" t="s">
         <v>297</v>
       </c>
@@ -32638,17 +32644,17 @@
       <c r="P257" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Q257" s="591" t="s">
+      <c r="Q257" s="592" t="s">
         <v>313</v>
       </c>
-      <c r="R257" s="591"/>
+      <c r="R257" s="592"/>
       <c r="S257" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="T257" s="591" t="s">
+      <c r="T257" s="592" t="s">
         <v>315</v>
       </c>
-      <c r="U257" s="591"/>
+      <c r="U257" s="592"/>
       <c r="V257" s="1" t="s">
         <v>316</v>
       </c>
@@ -33136,24 +33142,24 @@
         <f t="shared" si="43"/>
         <v>Attenuator</v>
       </c>
-      <c r="E269" s="592" t="str">
+      <c r="E269" s="593" t="str">
         <f>Q107</f>
         <v>Auto 1</v>
       </c>
-      <c r="F269" s="593"/>
-      <c r="G269" s="593"/>
-      <c r="H269" s="593" t="str">
+      <c r="F269" s="594"/>
+      <c r="G269" s="594"/>
+      <c r="H269" s="594" t="str">
         <f>T107</f>
         <v/>
       </c>
-      <c r="I269" s="593"/>
-      <c r="J269" s="593"/>
-      <c r="K269" s="594" t="str">
+      <c r="I269" s="594"/>
+      <c r="J269" s="594"/>
+      <c r="K269" s="595" t="str">
         <f>W107</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L269" s="594"/>
-      <c r="M269" s="595"/>
+      <c r="L269" s="595"/>
+      <c r="M269" s="596"/>
       <c r="O269" s="189" t="str">
         <f t="shared" si="44"/>
         <v/>
@@ -33255,7 +33261,7 @@
         <v>7</v>
       </c>
       <c r="B271" s="301"/>
-      <c r="C271" s="599" t="str">
+      <c r="C271" s="600" t="str">
         <f>O110&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33331,7 +33337,7 @@
         <v>8</v>
       </c>
       <c r="B272" s="301"/>
-      <c r="C272" s="599"/>
+      <c r="C272" s="600"/>
       <c r="D272" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -33397,7 +33403,7 @@
         <v>9</v>
       </c>
       <c r="B273" s="301"/>
-      <c r="C273" s="599"/>
+      <c r="C273" s="600"/>
       <c r="D273" s="394">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -33470,7 +33476,7 @@
         <v>10</v>
       </c>
       <c r="B274" s="301"/>
-      <c r="C274" s="599" t="str">
+      <c r="C274" s="600" t="str">
         <f>O113&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33539,7 +33545,7 @@
         <v>11</v>
       </c>
       <c r="B275" s="301"/>
-      <c r="C275" s="599"/>
+      <c r="C275" s="600"/>
       <c r="D275" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -33612,7 +33618,7 @@
         <v>12</v>
       </c>
       <c r="B276" s="301"/>
-      <c r="C276" s="599"/>
+      <c r="C276" s="600"/>
       <c r="D276" s="394">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -33653,17 +33659,17 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="O276" s="600" t="s">
+      <c r="O276" s="601" t="s">
         <v>262</v>
       </c>
-      <c r="P276" s="601" t="s">
+      <c r="P276" s="602" t="s">
         <v>263</v>
       </c>
-      <c r="R276" s="601" t="str">
+      <c r="R276" s="602" t="str">
         <f>"Ind AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="S276" s="601" t="str">
+      <c r="S276" s="602" t="str">
         <f>"Meas AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Meas AK @ Ref Pt (mGy)</v>
       </c>
@@ -33685,7 +33691,7 @@
         <v>13</v>
       </c>
       <c r="B277" s="301"/>
-      <c r="C277" s="599" t="str">
+      <c r="C277" s="600" t="str">
         <f>O116&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33729,13 +33735,13 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="O277" s="600"/>
-      <c r="P277" s="601"/>
+      <c r="O277" s="601"/>
+      <c r="P277" s="602"/>
       <c r="Q277" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="R277" s="601"/>
-      <c r="S277" s="601"/>
+      <c r="R277" s="602"/>
+      <c r="S277" s="602"/>
       <c r="T277" s="1" t="s">
         <v>322</v>
       </c>
@@ -33767,7 +33773,7 @@
         <v>14</v>
       </c>
       <c r="B278" s="301"/>
-      <c r="C278" s="599"/>
+      <c r="C278" s="600"/>
       <c r="D278" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -33854,7 +33860,7 @@
         <v>15</v>
       </c>
       <c r="B279" s="301"/>
-      <c r="C279" s="599"/>
+      <c r="C279" s="600"/>
       <c r="D279" s="394">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -33948,7 +33954,7 @@
         <v>16</v>
       </c>
       <c r="B280" s="301"/>
-      <c r="C280" s="599" t="str">
+      <c r="C280" s="600" t="str">
         <f>O119&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -34048,7 +34054,7 @@
         <v>17</v>
       </c>
       <c r="B281" s="301"/>
-      <c r="C281" s="599"/>
+      <c r="C281" s="600"/>
       <c r="D281" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -34135,7 +34141,7 @@
         <v>18</v>
       </c>
       <c r="B282" s="301"/>
-      <c r="C282" s="599"/>
+      <c r="C282" s="600"/>
       <c r="D282" s="394">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -34229,7 +34235,7 @@
         <v>19</v>
       </c>
       <c r="B283" s="301"/>
-      <c r="C283" s="599" t="str">
+      <c r="C283" s="600" t="str">
         <f>O122&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -34319,7 +34325,7 @@
         <v>20</v>
       </c>
       <c r="B284" s="301"/>
-      <c r="C284" s="599"/>
+      <c r="C284" s="600"/>
       <c r="D284" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -34413,7 +34419,7 @@
         <v>21</v>
       </c>
       <c r="B285" s="301"/>
-      <c r="C285" s="599"/>
+      <c r="C285" s="600"/>
       <c r="D285" s="391">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -34848,13 +34854,13 @@
       <c r="L293" s="135"/>
       <c r="M293" s="303"/>
       <c r="O293" s="225"/>
-      <c r="P293" s="606" t="s">
+      <c r="P293" s="603" t="s">
         <v>328</v>
       </c>
-      <c r="Q293" s="606"/>
-      <c r="R293" s="606"/>
-      <c r="S293" s="606"/>
-      <c r="T293" s="223"/>
+      <c r="Q293" s="603"/>
+      <c r="R293" s="603"/>
+      <c r="S293" s="603"/>
+      <c r="T293" s="603"/>
       <c r="U293" s="223"/>
       <c r="V293" s="223"/>
       <c r="W293" s="223"/>
@@ -34888,19 +34894,21 @@
       <c r="P294" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="Q294" s="560" t="s">
+      <c r="Q294" s="577" t="s">
+        <v>459</v>
+      </c>
+      <c r="R294" s="560" t="s">
         <v>452</v>
       </c>
-      <c r="R294" s="1" t="s">
+      <c r="S294" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="S294" s="1" t="s">
+      <c r="T294" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="T294" s="223" t="s">
+      <c r="U294" s="223" t="s">
         <v>331</v>
       </c>
-      <c r="U294" s="223"/>
       <c r="V294" s="223"/>
       <c r="W294" s="223"/>
       <c r="X294" s="223"/>
@@ -34943,12 +34951,12 @@
       <c r="P295" s="125"/>
       <c r="Q295" s="126"/>
       <c r="R295" s="126"/>
-      <c r="S295" s="246"/>
-      <c r="T295" s="538" t="str">
+      <c r="S295" s="126"/>
+      <c r="T295" s="246"/>
+      <c r="U295" s="538" t="str">
         <f>IF(OR(O295="",P295=""),"",IF(AND(O295&gt;0,P295&gt;0),(P295-O295)/O295,""))</f>
         <v/>
       </c>
-      <c r="U295" s="223"/>
       <c r="V295" s="223"/>
       <c r="W295" s="223"/>
       <c r="X295" s="223"/>
@@ -34981,12 +34989,12 @@
       <c r="P296" s="248"/>
       <c r="Q296" s="249"/>
       <c r="R296" s="249"/>
-      <c r="S296" s="250"/>
-      <c r="T296" s="539" t="str">
+      <c r="S296" s="249"/>
+      <c r="T296" s="250"/>
+      <c r="U296" s="539" t="str">
         <f>IF(OR(O296="",P296=""),"",IF(AND(O296&gt;0,P296&gt;0),(P296-O296)/O296,""))</f>
         <v/>
       </c>
-      <c r="U296" s="223"/>
       <c r="V296" s="223"/>
       <c r="W296" s="223"/>
       <c r="X296" s="223"/>
@@ -35026,12 +35034,12 @@
       <c r="P297" s="248"/>
       <c r="Q297" s="249"/>
       <c r="R297" s="249"/>
-      <c r="S297" s="250"/>
-      <c r="T297" s="539" t="str">
+      <c r="S297" s="249"/>
+      <c r="T297" s="250"/>
+      <c r="U297" s="539" t="str">
         <f>IF(OR(O297="",P297=""),"",IF(AND(O297&gt;0,P297&gt;0),(P297-O297)/O297,""))</f>
         <v/>
       </c>
-      <c r="U297" s="223"/>
       <c r="V297" s="223"/>
       <c r="W297" s="223"/>
       <c r="X297" s="223"/>
@@ -35061,12 +35069,12 @@
       <c r="P298" s="254"/>
       <c r="Q298" s="255"/>
       <c r="R298" s="255"/>
-      <c r="S298" s="256"/>
-      <c r="T298" s="540" t="str">
+      <c r="S298" s="255"/>
+      <c r="T298" s="256"/>
+      <c r="U298" s="540" t="str">
         <f>IF(OR(O298="",P298=""),"",IF(AND(O298&gt;0,P298&gt;0),(P298-O298)/O298,""))</f>
         <v/>
       </c>
-      <c r="U298" s="223"/>
       <c r="V298" s="223"/>
       <c r="W298" s="223"/>
       <c r="X298" s="223"/>
@@ -35101,16 +35109,15 @@
       <c r="M299" s="303"/>
       <c r="O299" s="225"/>
       <c r="P299" s="223"/>
-      <c r="Q299" s="223"/>
       <c r="R299" s="223"/>
-      <c r="S299" s="1" t="s">
+      <c r="S299" s="223"/>
+      <c r="T299" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="T299" s="235" t="str">
-        <f>IF(T295="","",IF(AND(ABS(MAX(T295:T298))&lt;=0.05,ABS(MIN(T295:T298))&lt;=0.05),"YES","NO"))</f>
-        <v/>
-      </c>
-      <c r="U299" s="223"/>
+      <c r="U299" s="235" t="str">
+        <f>IF(U295="","",IF(AND(ABS(MAX(U295:U298))&lt;=0.05,ABS(MIN(U295:U298))&lt;=0.05),"YES","NO"))</f>
+        <v/>
+      </c>
       <c r="V299" s="223"/>
       <c r="W299" s="223"/>
       <c r="X299" s="223"/>
@@ -35230,13 +35237,13 @@
       <c r="L302" s="135"/>
       <c r="M302" s="303"/>
       <c r="O302" s="225"/>
-      <c r="P302" s="606" t="s">
+      <c r="P302" s="603" t="s">
         <v>328</v>
       </c>
-      <c r="Q302" s="606"/>
-      <c r="R302" s="606"/>
-      <c r="S302" s="606"/>
-      <c r="T302" s="223"/>
+      <c r="Q302" s="603"/>
+      <c r="R302" s="603"/>
+      <c r="S302" s="603"/>
+      <c r="T302" s="603"/>
       <c r="U302" s="223"/>
       <c r="V302" s="223"/>
       <c r="W302" s="223"/>
@@ -35257,7 +35264,7 @@
         <v>39</v>
       </c>
       <c r="B303" s="301"/>
-      <c r="C303" s="607" t="str">
+      <c r="C303" s="608" t="str">
         <f>O190</f>
         <v>Auto 1</v>
       </c>
@@ -35295,16 +35302,18 @@
       <c r="P303" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="Q303" s="560" t="s">
+      <c r="Q303" s="577" t="s">
+        <v>459</v>
+      </c>
+      <c r="R303" s="560" t="s">
         <v>452</v>
       </c>
-      <c r="R303" s="1" t="s">
+      <c r="S303" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="S303" s="1" t="s">
+      <c r="T303" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="T303" s="223"/>
       <c r="U303" s="223"/>
       <c r="V303" s="223"/>
       <c r="W303" s="223"/>
@@ -35318,7 +35327,7 @@
         <v>40</v>
       </c>
       <c r="B304" s="301"/>
-      <c r="C304" s="608"/>
+      <c r="C304" s="609"/>
       <c r="D304" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35355,7 +35364,7 @@
         <f>IF(P296="","",P296)</f>
         <v/>
       </c>
-      <c r="Q304" s="169" t="str">
+      <c r="Q304" s="188" t="str">
         <f>IF(Q296="","",Q296)</f>
         <v/>
       </c>
@@ -35363,11 +35372,14 @@
         <f>IF(R296="","",R296)</f>
         <v/>
       </c>
-      <c r="S304" s="238" t="str">
+      <c r="S304" s="169" t="str">
         <f>IF(S296="","",S296)</f>
         <v/>
       </c>
-      <c r="T304" s="223"/>
+      <c r="T304" s="238" t="str">
+        <f>IF(T296="","",T296)</f>
+        <v/>
+      </c>
       <c r="U304" s="223"/>
       <c r="V304" s="223"/>
       <c r="W304" s="223"/>
@@ -35388,7 +35400,7 @@
         <v>41</v>
       </c>
       <c r="B305" s="301"/>
-      <c r="C305" s="608"/>
+      <c r="C305" s="609"/>
       <c r="D305" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35421,8 +35433,8 @@
       <c r="P305" s="87"/>
       <c r="Q305" s="88"/>
       <c r="R305" s="88"/>
-      <c r="S305" s="89"/>
-      <c r="T305" s="223"/>
+      <c r="S305" s="88"/>
+      <c r="T305" s="89"/>
       <c r="U305" s="223"/>
       <c r="V305" s="223"/>
       <c r="W305" s="223"/>
@@ -35436,7 +35448,7 @@
         <v>42</v>
       </c>
       <c r="B306" s="301"/>
-      <c r="C306" s="608"/>
+      <c r="C306" s="609"/>
       <c r="D306" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35466,8 +35478,8 @@
       <c r="P306" s="87"/>
       <c r="Q306" s="88"/>
       <c r="R306" s="88"/>
-      <c r="S306" s="89"/>
-      <c r="T306" s="223"/>
+      <c r="S306" s="88"/>
+      <c r="T306" s="89"/>
       <c r="U306" s="223"/>
       <c r="V306" s="223"/>
       <c r="W306" s="223"/>
@@ -35488,7 +35500,7 @@
         <v>43</v>
       </c>
       <c r="B307" s="301"/>
-      <c r="C307" s="609"/>
+      <c r="C307" s="610"/>
       <c r="D307" s="436" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35518,8 +35530,8 @@
       <c r="P307" s="87"/>
       <c r="Q307" s="88"/>
       <c r="R307" s="88"/>
-      <c r="S307" s="89"/>
-      <c r="T307" s="223"/>
+      <c r="S307" s="88"/>
+      <c r="T307" s="89"/>
       <c r="U307" s="223"/>
       <c r="V307" s="223"/>
       <c r="W307" s="223"/>
@@ -35533,7 +35545,7 @@
         <v>44</v>
       </c>
       <c r="B308" s="301"/>
-      <c r="C308" s="607" t="str">
+      <c r="C308" s="608" t="str">
         <f>O195</f>
         <v/>
       </c>
@@ -35566,8 +35578,8 @@
       <c r="P308" s="92"/>
       <c r="Q308" s="93"/>
       <c r="R308" s="93"/>
-      <c r="S308" s="94"/>
-      <c r="T308" s="223"/>
+      <c r="S308" s="93"/>
+      <c r="T308" s="94"/>
       <c r="U308" s="223"/>
       <c r="V308" s="223"/>
       <c r="W308" s="223"/>
@@ -35588,7 +35600,7 @@
         <v>45</v>
       </c>
       <c r="B309" s="301"/>
-      <c r="C309" s="608"/>
+      <c r="C309" s="609"/>
       <c r="D309" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35621,11 +35633,10 @@
         <f>IF(P304="","",AVERAGE(P304:P308))</f>
         <v/>
       </c>
-      <c r="Q309" s="240" t="str">
-        <f>IF(Q304="","",AVERAGE(Q304:Q308))</f>
-        <v/>
-      </c>
-      <c r="R309" s="223"/>
+      <c r="R309" s="240" t="str">
+        <f>IF(R304="","",AVERAGE(R304:R308))</f>
+        <v/>
+      </c>
       <c r="S309" s="223"/>
       <c r="T309" s="223"/>
       <c r="U309" s="223"/>
@@ -35641,7 +35652,7 @@
         <v>46</v>
       </c>
       <c r="B310" s="301"/>
-      <c r="C310" s="608"/>
+      <c r="C310" s="609"/>
       <c r="D310" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35674,11 +35685,10 @@
         <f>IF(P304="","",STDEV(P304:P308))</f>
         <v/>
       </c>
-      <c r="Q310" s="241" t="str">
-        <f>IF(Q304="","",STDEV(Q304:Q308))</f>
-        <v/>
-      </c>
-      <c r="R310" s="223"/>
+      <c r="R310" s="241" t="str">
+        <f>IF(R304="","",STDEV(R304:R308))</f>
+        <v/>
+      </c>
       <c r="S310" s="223"/>
       <c r="T310" s="223"/>
       <c r="U310" s="223"/>
@@ -35701,7 +35711,7 @@
         <v>47</v>
       </c>
       <c r="B311" s="301"/>
-      <c r="C311" s="608"/>
+      <c r="C311" s="609"/>
       <c r="D311" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35734,11 +35744,10 @@
         <f>IF(P309="","",IF(P309&gt;0,P310/P309,""))</f>
         <v/>
       </c>
-      <c r="Q311" s="564" t="str">
-        <f>IF(Q309="","",IF(Q309&gt;0,Q310/Q309,""))</f>
-        <v/>
-      </c>
-      <c r="R311" s="223"/>
+      <c r="R311" s="564" t="str">
+        <f>IF(R309="","",IF(R309&gt;0,R310/R309,""))</f>
+        <v/>
+      </c>
       <c r="S311" s="223"/>
       <c r="T311" s="223"/>
       <c r="U311" s="223"/>
@@ -35754,7 +35763,7 @@
         <v>48</v>
       </c>
       <c r="B312" s="301"/>
-      <c r="C312" s="610"/>
+      <c r="C312" s="611"/>
       <c r="D312" s="439" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35787,8 +35796,7 @@
         <f>IF(P311="","",IF(P311&lt;0.05,"YES","NO"))</f>
         <v/>
       </c>
-      <c r="Q312" s="565"/>
-      <c r="R312" s="223"/>
+      <c r="R312" s="565"/>
       <c r="S312" s="223"/>
       <c r="T312" s="223"/>
       <c r="U312" s="223"/>
@@ -35811,7 +35819,7 @@
         <v>49</v>
       </c>
       <c r="B313" s="301"/>
-      <c r="C313" s="611" t="str">
+      <c r="C313" s="612" t="str">
         <f>O200</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -35863,7 +35871,7 @@
         <v>50</v>
       </c>
       <c r="B314" s="301"/>
-      <c r="C314" s="608"/>
+      <c r="C314" s="609"/>
       <c r="D314" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35915,7 +35923,7 @@
         <v>51</v>
       </c>
       <c r="B315" s="301"/>
-      <c r="C315" s="608"/>
+      <c r="C315" s="609"/>
       <c r="D315" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35960,7 +35968,7 @@
         <v>52</v>
       </c>
       <c r="B316" s="301"/>
-      <c r="C316" s="608"/>
+      <c r="C316" s="609"/>
       <c r="D316" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -36014,7 +36022,7 @@
         <v>53</v>
       </c>
       <c r="B317" s="301"/>
-      <c r="C317" s="610"/>
+      <c r="C317" s="611"/>
       <c r="D317" s="439" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -36136,10 +36144,10 @@
       <c r="R319" s="246"/>
       <c r="S319" s="247"/>
       <c r="T319" s="247"/>
-      <c r="V319" s="586" t="s">
+      <c r="V319" s="587" t="s">
         <v>339</v>
       </c>
-      <c r="W319" s="586"/>
+      <c r="W319" s="587"/>
       <c r="X319" s="17" t="s">
         <v>340</v>
       </c>
@@ -36340,7 +36348,7 @@
         <v>60</v>
       </c>
       <c r="B324" s="301"/>
-      <c r="C324" s="596" t="str">
+      <c r="C324" s="597" t="str">
         <f>O240</f>
         <v>Scatter – Fluoro</v>
       </c>
@@ -36390,7 +36398,7 @@
         <v>61</v>
       </c>
       <c r="B325" s="301"/>
-      <c r="C325" s="597"/>
+      <c r="C325" s="598"/>
       <c r="D325" s="448" t="str">
         <f>P241</f>
         <v>Waist level</v>
@@ -36548,13 +36556,13 @@
         <v>347</v>
       </c>
       <c r="P329" s="53"/>
-      <c r="Q329" s="598" t="s">
+      <c r="Q329" s="599" t="s">
         <v>348</v>
       </c>
-      <c r="R329" s="598"/>
-      <c r="S329" s="598"/>
-      <c r="T329" s="598"/>
-      <c r="U329" s="598"/>
+      <c r="R329" s="599"/>
+      <c r="S329" s="599"/>
+      <c r="T329" s="599"/>
+      <c r="U329" s="599"/>
       <c r="Y329" s="14"/>
     </row>
     <row r="330" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -36737,24 +36745,24 @@
         <f t="shared" si="72"/>
         <v>Attenuator</v>
       </c>
-      <c r="E335" s="592" t="str">
+      <c r="E335" s="593" t="str">
         <f>Q139</f>
         <v>Auto 1</v>
       </c>
-      <c r="F335" s="593"/>
-      <c r="G335" s="593"/>
-      <c r="H335" s="593" t="str">
+      <c r="F335" s="594"/>
+      <c r="G335" s="594"/>
+      <c r="H335" s="594" t="str">
         <f>T139</f>
         <v/>
       </c>
-      <c r="I335" s="593"/>
-      <c r="J335" s="593"/>
-      <c r="K335" s="594" t="str">
+      <c r="I335" s="594"/>
+      <c r="J335" s="594"/>
+      <c r="K335" s="595" t="str">
         <f>W139</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L335" s="594"/>
-      <c r="M335" s="595"/>
+      <c r="L335" s="595"/>
+      <c r="M335" s="596"/>
       <c r="O335" s="130"/>
       <c r="P335" s="129" t="s">
         <v>354</v>
@@ -36831,7 +36839,7 @@
         <v>7</v>
       </c>
       <c r="B337" s="301"/>
-      <c r="C337" s="599" t="str">
+      <c r="C337" s="600" t="str">
         <f>O142&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -36891,7 +36899,7 @@
         <v>8</v>
       </c>
       <c r="B338" s="301"/>
-      <c r="C338" s="599"/>
+      <c r="C338" s="600"/>
       <c r="D338" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -36948,7 +36956,7 @@
         <v>9</v>
       </c>
       <c r="B339" s="301"/>
-      <c r="C339" s="599"/>
+      <c r="C339" s="600"/>
       <c r="D339" s="463">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -37005,7 +37013,7 @@
         <v>10</v>
       </c>
       <c r="B340" s="301"/>
-      <c r="C340" s="599" t="str">
+      <c r="C340" s="600" t="str">
         <f>O145&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -37065,7 +37073,7 @@
         <v>11</v>
       </c>
       <c r="B341" s="301"/>
-      <c r="C341" s="599"/>
+      <c r="C341" s="600"/>
       <c r="D341" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -37122,7 +37130,7 @@
         <v>12</v>
       </c>
       <c r="B342" s="301"/>
-      <c r="C342" s="599"/>
+      <c r="C342" s="600"/>
       <c r="D342" s="464">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -37179,7 +37187,7 @@
         <v>13</v>
       </c>
       <c r="B343" s="301"/>
-      <c r="C343" s="599" t="str">
+      <c r="C343" s="600" t="str">
         <f>O148&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -37231,7 +37239,7 @@
         <v>14</v>
       </c>
       <c r="B344" s="301"/>
-      <c r="C344" s="599"/>
+      <c r="C344" s="600"/>
       <c r="D344" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -37293,7 +37301,7 @@
         <v>15</v>
       </c>
       <c r="B345" s="301"/>
-      <c r="C345" s="599"/>
+      <c r="C345" s="600"/>
       <c r="D345" s="463">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -37356,7 +37364,7 @@
         <v>16</v>
       </c>
       <c r="B346" s="301"/>
-      <c r="C346" s="599" t="str">
+      <c r="C346" s="600" t="str">
         <f>O151&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -37419,7 +37427,7 @@
         <v>17</v>
       </c>
       <c r="B347" s="301"/>
-      <c r="C347" s="599"/>
+      <c r="C347" s="600"/>
       <c r="D347" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -37477,7 +37485,7 @@
         <v>18</v>
       </c>
       <c r="B348" s="301"/>
-      <c r="C348" s="599"/>
+      <c r="C348" s="600"/>
       <c r="D348" s="464">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -37555,7 +37563,7 @@
         <v>19</v>
       </c>
       <c r="B349" s="301"/>
-      <c r="C349" s="599" t="str">
+      <c r="C349" s="600" t="str">
         <f>O154&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -37618,7 +37626,7 @@
         <v>20</v>
       </c>
       <c r="B350" s="301"/>
-      <c r="C350" s="599"/>
+      <c r="C350" s="600"/>
       <c r="D350" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -37677,7 +37685,7 @@
         <v>21</v>
       </c>
       <c r="B351" s="301"/>
-      <c r="C351" s="599"/>
+      <c r="C351" s="600"/>
       <c r="D351" s="464">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -37986,11 +37994,11 @@
         <f>IF(OR(V358="",V359="",V362=""),"",(V358-V359)*V362)</f>
         <v/>
       </c>
-      <c r="Q358" s="602" t="str">
+      <c r="Q358" s="604" t="str">
         <f>IF(OR(P358="",P359=""),"",(ABS(P358)+ABS(P359))/$O$355)</f>
         <v/>
       </c>
-      <c r="R358" s="603" t="str">
+      <c r="R358" s="605" t="str">
         <f>IF(OR(Q358="",Q360=""),"",Q358+Q360)</f>
         <v/>
       </c>
@@ -38029,8 +38037,8 @@
         <f>IF(OR(W358="",W359="",V362=""),"",(W358-W359)*V362)</f>
         <v/>
       </c>
-      <c r="Q359" s="602"/>
-      <c r="R359" s="602"/>
+      <c r="Q359" s="604"/>
+      <c r="R359" s="604"/>
       <c r="S359" s="146" t="str">
         <f>IF(AB171="","",AB171)</f>
         <v/>
@@ -38066,11 +38074,11 @@
         <f>IF(OR(X358="",X359="",V362=""),"",(X358-X359)*V362)</f>
         <v/>
       </c>
-      <c r="Q360" s="603" t="str">
+      <c r="Q360" s="605" t="str">
         <f>IF(OR(P360="",P361=""),"",(ABS(P360)+ABS(P361))/$O$355)</f>
         <v/>
       </c>
-      <c r="R360" s="603"/>
+      <c r="R360" s="605"/>
       <c r="S360" s="146" t="str">
         <f>IF(AB172="","",AB172)</f>
         <v/>
@@ -38112,8 +38120,8 @@
         <f>IF(OR(Y358="",Y359="",V362=""),"",(Y358-Y359)*V362)</f>
         <v/>
       </c>
-      <c r="Q361" s="603"/>
-      <c r="R361" s="603"/>
+      <c r="Q361" s="605"/>
+      <c r="R361" s="605"/>
       <c r="S361" s="148" t="str">
         <f>IF(AB173="","",AB173)</f>
         <v/>
@@ -38285,7 +38293,7 @@
         <v>36</v>
       </c>
       <c r="B366" s="301"/>
-      <c r="C366" s="604" t="str">
+      <c r="C366" s="606" t="str">
         <f>O214</f>
         <v>Auto 1</v>
       </c>
@@ -38336,7 +38344,7 @@
         <v>37</v>
       </c>
       <c r="B367" s="301"/>
-      <c r="C367" s="605"/>
+      <c r="C367" s="607"/>
       <c r="D367" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38382,7 +38390,7 @@
         <v>38</v>
       </c>
       <c r="B368" s="301"/>
-      <c r="C368" s="605"/>
+      <c r="C368" s="607"/>
       <c r="D368" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38417,7 +38425,7 @@
         <v>39</v>
       </c>
       <c r="B369" s="301"/>
-      <c r="C369" s="605"/>
+      <c r="C369" s="607"/>
       <c r="D369" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38452,7 +38460,7 @@
         <v>40</v>
       </c>
       <c r="B370" s="301"/>
-      <c r="C370" s="605"/>
+      <c r="C370" s="607"/>
       <c r="D370" s="439" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38497,7 +38505,7 @@
         <v>41</v>
       </c>
       <c r="B371" s="301"/>
-      <c r="C371" s="607" t="str">
+      <c r="C371" s="608" t="str">
         <f>O219</f>
         <v/>
       </c>
@@ -38547,7 +38555,7 @@
         <v>42</v>
       </c>
       <c r="B372" s="301"/>
-      <c r="C372" s="608"/>
+      <c r="C372" s="609"/>
       <c r="D372" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38597,7 +38605,7 @@
         <v>43</v>
       </c>
       <c r="B373" s="301"/>
-      <c r="C373" s="608"/>
+      <c r="C373" s="609"/>
       <c r="D373" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38644,7 +38652,7 @@
         <v>44</v>
       </c>
       <c r="B374" s="301"/>
-      <c r="C374" s="608"/>
+      <c r="C374" s="609"/>
       <c r="D374" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38694,7 +38702,7 @@
         <v>45</v>
       </c>
       <c r="B375" s="301"/>
-      <c r="C375" s="610"/>
+      <c r="C375" s="611"/>
       <c r="D375" s="439" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38741,7 +38749,7 @@
         <v>46</v>
       </c>
       <c r="B376" s="301"/>
-      <c r="C376" s="628" t="str">
+      <c r="C376" s="629" t="str">
         <f>O224</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -38794,7 +38802,7 @@
         <v>47</v>
       </c>
       <c r="B377" s="301"/>
-      <c r="C377" s="629"/>
+      <c r="C377" s="630"/>
       <c r="D377" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38841,7 +38849,7 @@
         <v>48</v>
       </c>
       <c r="B378" s="301"/>
-      <c r="C378" s="629"/>
+      <c r="C378" s="630"/>
       <c r="D378" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38891,7 +38899,7 @@
         <v>49</v>
       </c>
       <c r="B379" s="301"/>
-      <c r="C379" s="629"/>
+      <c r="C379" s="630"/>
       <c r="D379" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38938,7 +38946,7 @@
         <v>50</v>
       </c>
       <c r="B380" s="301"/>
-      <c r="C380" s="630"/>
+      <c r="C380" s="631"/>
       <c r="D380" s="439" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -39248,7 +39256,7 @@
         <v>58</v>
       </c>
       <c r="B388" s="301"/>
-      <c r="C388" s="596" t="str">
+      <c r="C388" s="597" t="str">
         <f>O242</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -39299,7 +39307,7 @@
         <v>59</v>
       </c>
       <c r="B389" s="301"/>
-      <c r="C389" s="597"/>
+      <c r="C389" s="598"/>
       <c r="D389" s="448" t="str">
         <f>P243</f>
         <v>Waist level</v>
@@ -39650,14 +39658,14 @@
       <c r="E399" s="299"/>
       <c r="F399" s="299"/>
       <c r="G399" s="299"/>
-      <c r="H399" s="631" t="s">
+      <c r="H399" s="632" t="s">
         <v>394</v>
       </c>
-      <c r="I399" s="631"/>
-      <c r="J399" s="631" t="s">
+      <c r="I399" s="632"/>
+      <c r="J399" s="632" t="s">
         <v>395</v>
       </c>
-      <c r="K399" s="631"/>
+      <c r="K399" s="632"/>
       <c r="L399" s="299"/>
       <c r="M399" s="300"/>
       <c r="O399" s="13"/>
@@ -40231,20 +40239,20 @@
       </c>
       <c r="B413" s="301"/>
       <c r="C413" s="42"/>
-      <c r="D413" s="612" t="s">
+      <c r="D413" s="613" t="s">
         <v>401</v>
       </c>
-      <c r="E413" s="612"/>
-      <c r="F413" s="612"/>
-      <c r="G413" s="612"/>
-      <c r="H413" s="612"/>
-      <c r="I413" s="612" t="s">
+      <c r="E413" s="613"/>
+      <c r="F413" s="613"/>
+      <c r="G413" s="613"/>
+      <c r="H413" s="613"/>
+      <c r="I413" s="613" t="s">
         <v>402</v>
       </c>
-      <c r="J413" s="612"/>
-      <c r="K413" s="612"/>
-      <c r="L413" s="612"/>
-      <c r="M413" s="613"/>
+      <c r="J413" s="613"/>
+      <c r="K413" s="613"/>
+      <c r="L413" s="613"/>
+      <c r="M413" s="614"/>
       <c r="O413" s="13"/>
       <c r="P413" s="2" t="s">
         <v>189</v>
@@ -41724,11 +41732,11 @@
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="F442" s="614" t="str">
+      <c r="F442" s="615" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="G442" s="616" t="str">
+      <c r="G442" s="617" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
@@ -41769,8 +41777,8 @@
         <f>P359</f>
         <v/>
       </c>
-      <c r="F443" s="615"/>
-      <c r="G443" s="617"/>
+      <c r="F443" s="616"/>
+      <c r="G443" s="618"/>
       <c r="H443" s="200"/>
       <c r="I443" s="82" t="str">
         <f>T360</f>
@@ -41810,11 +41818,11 @@
         <f>P360</f>
         <v/>
       </c>
-      <c r="F444" s="615" t="str">
+      <c r="F444" s="616" t="str">
         <f>Q360</f>
         <v/>
       </c>
-      <c r="G444" s="617"/>
+      <c r="G444" s="618"/>
       <c r="H444" s="135"/>
       <c r="I444" s="91" t="str">
         <f>T361</f>
@@ -41855,8 +41863,8 @@
         <f>P361</f>
         <v/>
       </c>
-      <c r="F445" s="619"/>
-      <c r="G445" s="618"/>
+      <c r="F445" s="620"/>
+      <c r="G445" s="619"/>
       <c r="H445" s="135"/>
       <c r="I445" s="135"/>
       <c r="J445" s="135"/>
@@ -48215,18 +48223,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="106">
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="H204:H205"/>
-    <mergeCell ref="I204:I205"/>
-    <mergeCell ref="M204:M205"/>
-    <mergeCell ref="C371:C375"/>
-    <mergeCell ref="C376:C380"/>
-    <mergeCell ref="C388:C389"/>
-    <mergeCell ref="H399:I399"/>
-    <mergeCell ref="J399:K399"/>
-    <mergeCell ref="D413:H413"/>
-    <mergeCell ref="I413:M413"/>
     <mergeCell ref="F442:F443"/>
     <mergeCell ref="G442:G445"/>
     <mergeCell ref="F444:F445"/>
@@ -48235,15 +48231,22 @@
     <mergeCell ref="C343:C345"/>
     <mergeCell ref="C346:C348"/>
     <mergeCell ref="C349:C351"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="C371:C375"/>
+    <mergeCell ref="C376:C380"/>
+    <mergeCell ref="C388:C389"/>
     <mergeCell ref="Q358:Q359"/>
     <mergeCell ref="R358:R361"/>
     <mergeCell ref="Q360:Q361"/>
     <mergeCell ref="C366:C370"/>
-    <mergeCell ref="P293:S293"/>
-    <mergeCell ref="P302:S302"/>
     <mergeCell ref="C303:C307"/>
     <mergeCell ref="C308:C312"/>
     <mergeCell ref="C313:C317"/>
+    <mergeCell ref="D413:H413"/>
+    <mergeCell ref="I413:M413"/>
+    <mergeCell ref="H399:I399"/>
+    <mergeCell ref="J399:K399"/>
     <mergeCell ref="V319:W319"/>
     <mergeCell ref="C324:C325"/>
     <mergeCell ref="Q329:U329"/>
@@ -48259,6 +48262,8 @@
     <mergeCell ref="C277:C279"/>
     <mergeCell ref="C280:C282"/>
     <mergeCell ref="C283:C285"/>
+    <mergeCell ref="P302:T302"/>
+    <mergeCell ref="P293:T293"/>
     <mergeCell ref="O214:O218"/>
     <mergeCell ref="O219:O223"/>
     <mergeCell ref="O224:O228"/>
@@ -48280,6 +48285,9 @@
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="Q107:S107"/>
     <mergeCell ref="T107:V107"/>
+    <mergeCell ref="H204:H205"/>
+    <mergeCell ref="I204:I205"/>
+    <mergeCell ref="M204:M205"/>
     <mergeCell ref="W107:Y107"/>
     <mergeCell ref="Q139:S139"/>
     <mergeCell ref="T139:V139"/>
@@ -48397,7 +48405,7 @@
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T299">
+  <conditionalFormatting sqref="U299">
     <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
@@ -48439,7 +48447,7 @@
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T295:T298">
+  <conditionalFormatting sqref="U295:U298">
     <cfRule type="cellIs" dxfId="7" priority="10" operator="between">
       <formula>-0.05</formula>
       <formula>0.05</formula>
@@ -48640,39 +48648,39 @@
         <f>Fluoro!D269</f>
         <v>Attenuator</v>
       </c>
-      <c r="E5" s="593" t="str">
+      <c r="E5" s="594" t="str">
         <f>Fluoro!E269</f>
         <v>Auto 1</v>
       </c>
-      <c r="F5" s="593">
+      <c r="F5" s="594">
         <f>Fluoro!F269</f>
         <v>0</v>
       </c>
-      <c r="G5" s="593">
+      <c r="G5" s="594">
         <f>Fluoro!G269</f>
         <v>0</v>
       </c>
-      <c r="H5" s="593" t="str">
+      <c r="H5" s="594" t="str">
         <f>Fluoro!H269</f>
         <v/>
       </c>
-      <c r="I5" s="593">
+      <c r="I5" s="594">
         <f>Fluoro!I269</f>
         <v>0</v>
       </c>
-      <c r="J5" s="593">
+      <c r="J5" s="594">
         <f>Fluoro!J269</f>
         <v>0</v>
       </c>
-      <c r="K5" s="594" t="str">
+      <c r="K5" s="595" t="str">
         <f>Fluoro!K269</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L5" s="594">
+      <c r="L5" s="595">
         <f>Fluoro!L269</f>
         <v>0</v>
       </c>
-      <c r="M5" s="594">
+      <c r="M5" s="595">
         <f>Fluoro!M269</f>
         <v>0</v>
       </c>
@@ -48729,7 +48737,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="632" t="str">
+      <c r="C7" s="633" t="str">
         <f>Fluoro!C271</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -48779,7 +48787,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="632">
+      <c r="C8" s="633">
         <f>Fluoro!C272</f>
         <v>0</v>
       </c>
@@ -48829,7 +48837,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="632">
+      <c r="C9" s="633">
         <f>Fluoro!C273</f>
         <v>0</v>
       </c>
@@ -48879,7 +48887,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="632" t="str">
+      <c r="C10" s="633" t="str">
         <f>Fluoro!C274</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -48929,7 +48937,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="632">
+      <c r="C11" s="633">
         <f>Fluoro!C275</f>
         <v>0</v>
       </c>
@@ -48979,7 +48987,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="632">
+      <c r="C12" s="633">
         <f>Fluoro!C276</f>
         <v>0</v>
       </c>
@@ -49029,7 +49037,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="632" t="str">
+      <c r="C13" s="633" t="str">
         <f>Fluoro!C277</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49079,7 +49087,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="632">
+      <c r="C14" s="633">
         <f>Fluoro!C278</f>
         <v>0</v>
       </c>
@@ -49129,7 +49137,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="632">
+      <c r="C15" s="633">
         <f>Fluoro!C279</f>
         <v>0</v>
       </c>
@@ -49179,7 +49187,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="632" t="str">
+      <c r="C16" s="633" t="str">
         <f>Fluoro!C280</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49229,7 +49237,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="632">
+      <c r="C17" s="633">
         <f>Fluoro!C281</f>
         <v>0</v>
       </c>
@@ -49279,7 +49287,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="632">
+      <c r="C18" s="633">
         <f>Fluoro!C282</f>
         <v>0</v>
       </c>
@@ -49329,7 +49337,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="632" t="str">
+      <c r="C19" s="633" t="str">
         <f>Fluoro!C283</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49379,7 +49387,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="632">
+      <c r="C20" s="633">
         <f>Fluoro!C284</f>
         <v>0</v>
       </c>
@@ -49429,7 +49437,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="632">
+      <c r="C21" s="633">
         <f>Fluoro!C285</f>
         <v>0</v>
       </c>
@@ -49853,39 +49861,39 @@
         <f>Fluoro!D335</f>
         <v>Attenuator</v>
       </c>
-      <c r="E37" s="593" t="str">
+      <c r="E37" s="594" t="str">
         <f>Fluoro!E335</f>
         <v>Auto 1</v>
       </c>
-      <c r="F37" s="593">
+      <c r="F37" s="594">
         <f>Fluoro!F335</f>
         <v>0</v>
       </c>
-      <c r="G37" s="593">
+      <c r="G37" s="594">
         <f>Fluoro!G335</f>
         <v>0</v>
       </c>
-      <c r="H37" s="593" t="str">
+      <c r="H37" s="594" t="str">
         <f>Fluoro!H335</f>
         <v/>
       </c>
-      <c r="I37" s="593">
+      <c r="I37" s="594">
         <f>Fluoro!I335</f>
         <v>0</v>
       </c>
-      <c r="J37" s="593">
+      <c r="J37" s="594">
         <f>Fluoro!J335</f>
         <v>0</v>
       </c>
-      <c r="K37" s="594" t="str">
+      <c r="K37" s="595" t="str">
         <f>Fluoro!K335</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L37" s="594">
+      <c r="L37" s="595">
         <f>Fluoro!L335</f>
         <v>0</v>
       </c>
-      <c r="M37" s="594">
+      <c r="M37" s="595">
         <f>Fluoro!M335</f>
         <v>0</v>
       </c>
@@ -49942,7 +49950,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="10"/>
-      <c r="C39" s="632" t="str">
+      <c r="C39" s="633" t="str">
         <f>Fluoro!C337</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49992,7 +50000,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="10"/>
-      <c r="C40" s="632">
+      <c r="C40" s="633">
         <f>Fluoro!C338</f>
         <v>0</v>
       </c>
@@ -50042,7 +50050,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="632">
+      <c r="C41" s="633">
         <f>Fluoro!C339</f>
         <v>0</v>
       </c>
@@ -50092,7 +50100,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="10"/>
-      <c r="C42" s="632" t="str">
+      <c r="C42" s="633" t="str">
         <f>Fluoro!C340</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -50142,7 +50150,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="10"/>
-      <c r="C43" s="632">
+      <c r="C43" s="633">
         <f>Fluoro!C341</f>
         <v>0</v>
       </c>
@@ -50192,7 +50200,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="10"/>
-      <c r="C44" s="632">
+      <c r="C44" s="633">
         <f>Fluoro!C342</f>
         <v>0</v>
       </c>
@@ -50242,7 +50250,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="10"/>
-      <c r="C45" s="632" t="str">
+      <c r="C45" s="633" t="str">
         <f>Fluoro!C343</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -50292,7 +50300,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="10"/>
-      <c r="C46" s="632">
+      <c r="C46" s="633">
         <f>Fluoro!C344</f>
         <v>0</v>
       </c>
@@ -50342,7 +50350,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="10"/>
-      <c r="C47" s="632">
+      <c r="C47" s="633">
         <f>Fluoro!C345</f>
         <v>0</v>
       </c>
@@ -50392,7 +50400,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="10"/>
-      <c r="C48" s="632" t="str">
+      <c r="C48" s="633" t="str">
         <f>Fluoro!C346</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -50442,7 +50450,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="10"/>
-      <c r="C49" s="632">
+      <c r="C49" s="633">
         <f>Fluoro!C347</f>
         <v>0</v>
       </c>
@@ -50492,7 +50500,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="10"/>
-      <c r="C50" s="632">
+      <c r="C50" s="633">
         <f>Fluoro!C348</f>
         <v>0</v>
       </c>
@@ -50542,7 +50550,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="632" t="str">
+      <c r="C51" s="633" t="str">
         <f>Fluoro!C349</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -50592,7 +50600,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="10"/>
-      <c r="C52" s="632">
+      <c r="C52" s="633">
         <f>Fluoro!C350</f>
         <v>0</v>
       </c>
@@ -50642,7 +50650,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="10"/>
-      <c r="C53" s="632">
+      <c r="C53" s="633">
         <f>Fluoro!C351</f>
         <v>0</v>
       </c>
@@ -50836,7 +50844,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="10"/>
-      <c r="C60" s="633"/>
+      <c r="C60" s="634"/>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60"/>
@@ -50853,7 +50861,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="10"/>
-      <c r="C61" s="633"/>
+      <c r="C61" s="634"/>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61"/>
@@ -51501,7 +51509,7 @@
     <row r="102" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102"/>
-      <c r="C102" s="633"/>
+      <c r="C102" s="634"/>
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102"/>
@@ -51516,7 +51524,7 @@
     <row r="103" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103"/>
-      <c r="C103" s="633"/>
+      <c r="C103" s="634"/>
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103"/>
@@ -51531,7 +51539,7 @@
     <row r="104" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104"/>
-      <c r="C104" s="633"/>
+      <c r="C104" s="634"/>
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104"/>
@@ -51546,7 +51554,7 @@
     <row r="105" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105"/>
       <c r="B105"/>
-      <c r="C105" s="633"/>
+      <c r="C105" s="634"/>
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105"/>
@@ -51561,7 +51569,7 @@
     <row r="106" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="B106"/>
-      <c r="C106" s="633"/>
+      <c r="C106" s="634"/>
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106"/>
@@ -51576,7 +51584,7 @@
     <row r="107" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107"/>
-      <c r="C107" s="633"/>
+      <c r="C107" s="634"/>
       <c r="D107"/>
       <c r="E107"/>
       <c r="F107"/>
@@ -51591,7 +51599,7 @@
     <row r="108" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108"/>
-      <c r="C108" s="633"/>
+      <c r="C108" s="634"/>
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108"/>
@@ -51606,7 +51614,7 @@
     <row r="109" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109"/>
       <c r="B109"/>
-      <c r="C109" s="633"/>
+      <c r="C109" s="634"/>
       <c r="D109"/>
       <c r="E109"/>
       <c r="F109"/>
@@ -51621,7 +51629,7 @@
     <row r="110" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110"/>
-      <c r="C110" s="633"/>
+      <c r="C110" s="634"/>
       <c r="D110"/>
       <c r="E110"/>
       <c r="F110"/>
@@ -51636,7 +51644,7 @@
     <row r="111" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111"/>
       <c r="B111"/>
-      <c r="C111" s="633"/>
+      <c r="C111" s="634"/>
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111"/>
@@ -51651,7 +51659,7 @@
     <row r="112" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112"/>
-      <c r="C112" s="633"/>
+      <c r="C112" s="634"/>
       <c r="D112"/>
       <c r="E112"/>
       <c r="F112"/>
@@ -51666,7 +51674,7 @@
     <row r="113" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113"/>
       <c r="B113"/>
-      <c r="C113" s="633"/>
+      <c r="C113" s="634"/>
       <c r="D113"/>
       <c r="E113"/>
       <c r="F113"/>
@@ -51681,7 +51689,7 @@
     <row r="114" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114"/>
       <c r="B114"/>
-      <c r="C114" s="633"/>
+      <c r="C114" s="634"/>
       <c r="D114"/>
       <c r="E114"/>
       <c r="F114"/>
@@ -51696,7 +51704,7 @@
     <row r="115" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115"/>
       <c r="B115"/>
-      <c r="C115" s="633"/>
+      <c r="C115" s="634"/>
       <c r="D115"/>
       <c r="E115"/>
       <c r="F115"/>
@@ -51711,7 +51719,7 @@
     <row r="116" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116"/>
       <c r="B116"/>
-      <c r="C116" s="633"/>
+      <c r="C116" s="634"/>
       <c r="D116"/>
       <c r="E116"/>
       <c r="F116"/>
@@ -51831,7 +51839,7 @@
     <row r="124" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="B124"/>
-      <c r="C124" s="633"/>
+      <c r="C124" s="634"/>
       <c r="D124"/>
       <c r="E124"/>
       <c r="F124"/>
@@ -51846,7 +51854,7 @@
     <row r="125" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125"/>
-      <c r="C125" s="633"/>
+      <c r="C125" s="634"/>
       <c r="D125"/>
       <c r="E125"/>
       <c r="F125"/>
@@ -52025,34 +52033,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="634" t="s">
+      <c r="A1" s="635" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="634"/>
+      <c r="B1" s="635"/>
       <c r="N1" s="278"/>
-      <c r="O1" s="606" t="str">
+      <c r="O1" s="603" t="str">
         <f>Fluoro!O105</f>
         <v>Patient Entrance Exposure Rate (Fluoroscopy)*</v>
       </c>
-      <c r="P1" s="606"/>
-      <c r="Q1" s="606"/>
-      <c r="R1" s="606" t="s">
+      <c r="P1" s="603"/>
+      <c r="Q1" s="603"/>
+      <c r="R1" s="603" t="s">
         <v>407</v>
       </c>
-      <c r="S1" s="606"/>
-      <c r="T1" s="606"/>
+      <c r="S1" s="603"/>
+      <c r="T1" s="603"/>
       <c r="V1" s="278"/>
-      <c r="W1" s="606" t="str">
+      <c r="W1" s="603" t="str">
         <f>Fluoro!O137</f>
         <v>Patient Entrance Exposure Rate – Digital Acquisition</v>
       </c>
-      <c r="X1" s="606"/>
-      <c r="Y1" s="606"/>
-      <c r="Z1" s="606" t="s">
+      <c r="X1" s="603"/>
+      <c r="Y1" s="603"/>
+      <c r="Z1" s="603" t="s">
         <v>407</v>
       </c>
-      <c r="AA1" s="606"/>
-      <c r="AB1" s="606"/>
+      <c r="AA1" s="603"/>
+      <c r="AB1" s="603"/>
     </row>
     <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="279">
@@ -52255,10 +52263,10 @@
       <c r="AB6" s="278"/>
     </row>
     <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="634" t="s">
+      <c r="A7" s="635" t="s">
         <v>410</v>
       </c>
-      <c r="B7" s="634"/>
+      <c r="B7" s="635"/>
       <c r="D7" s="203" t="s">
         <v>411</v>
       </c>
@@ -56045,14 +56053,14 @@
       <c r="B75" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E75" s="606" t="s">
+      <c r="E75" s="603" t="s">
         <v>420</v>
       </c>
-      <c r="F75" s="606"/>
-      <c r="I75" s="606" t="s">
+      <c r="F75" s="603"/>
+      <c r="I75" s="603" t="s">
         <v>421</v>
       </c>
-      <c r="J75" s="606"/>
+      <c r="J75" s="603"/>
     </row>
     <row r="76" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">

--- a/MUSCCArm.xlsx
+++ b/MUSCCArm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fluoro" sheetId="1" r:id="rId1"/>
@@ -6412,175 +6412,175 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="200" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="201" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="183" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="192" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="193" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="155" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="182" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="175" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="176" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="154" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="180" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="222" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="223" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="139" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="155" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="182" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="175" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="176" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="154" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="180" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="200" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="201" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="222" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="223" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="139" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="183" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="192" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="193" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -20223,7 +20223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD792"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20533,21 +20533,21 @@
       <c r="E10" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="578" t="str">
+      <c r="F10" s="629" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="578"/>
+      <c r="G10" s="629"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="579" t="str">
+      <c r="K10" s="618" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="579"/>
+      <c r="L10" s="618"/>
       <c r="M10" s="312"/>
       <c r="O10" s="13"/>
       <c r="Q10" s="2" t="s">
@@ -20590,21 +20590,21 @@
       <c r="E11" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="580" t="str">
+      <c r="F11" s="619" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="580"/>
+      <c r="G11" s="619"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
       <c r="J11" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="580" t="str">
+      <c r="K11" s="619" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="580"/>
+      <c r="L11" s="619"/>
       <c r="M11" s="312"/>
       <c r="O11" s="13"/>
       <c r="Q11" s="2" t="s">
@@ -20647,21 +20647,21 @@
       <c r="E12" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="580" t="str">
+      <c r="F12" s="619" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="580"/>
+      <c r="G12" s="619"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
       <c r="J12" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="581" t="str">
+      <c r="K12" s="631" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="581"/>
+      <c r="L12" s="631"/>
       <c r="M12" s="312"/>
       <c r="O12" s="13"/>
       <c r="Q12" s="2" t="s">
@@ -20704,21 +20704,21 @@
       <c r="E13" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="582" t="str">
+      <c r="F13" s="620" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="582"/>
+      <c r="G13" s="620"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
       <c r="J13" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="582" t="str">
+      <c r="K13" s="620" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="582"/>
+      <c r="L13" s="620"/>
       <c r="M13" s="312"/>
       <c r="O13" s="13"/>
       <c r="Q13" s="2" t="s">
@@ -20841,21 +20841,21 @@
       <c r="E16" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="578" t="str">
+      <c r="F16" s="629" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="578"/>
+      <c r="G16" s="629"/>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
       <c r="J16" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="583" t="str">
+      <c r="K16" s="632" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="583"/>
+      <c r="L16" s="632"/>
       <c r="M16" s="312"/>
       <c r="O16" s="13"/>
       <c r="P16" s="50" t="s">
@@ -20885,21 +20885,21 @@
       <c r="E17" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="580" t="str">
+      <c r="F17" s="619" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="580"/>
+      <c r="G17" s="619"/>
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
       <c r="J17" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="582" t="str">
+      <c r="K17" s="620" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="582"/>
+      <c r="L17" s="620"/>
       <c r="M17" s="312"/>
       <c r="O17" s="13"/>
       <c r="Q17" s="2" t="s">
@@ -20942,21 +20942,21 @@
       <c r="E18" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="582" t="str">
+      <c r="F18" s="620" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="582"/>
+      <c r="G18" s="620"/>
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
       <c r="J18" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="582" t="str">
+      <c r="K18" s="620" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="582"/>
+      <c r="L18" s="620"/>
       <c r="M18" s="312"/>
       <c r="O18" s="13"/>
       <c r="Q18" s="2" t="s">
@@ -21004,11 +21004,11 @@
       <c r="J19" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="582" t="str">
+      <c r="K19" s="620" t="str">
         <f>IF(V20="","",V20)</f>
         <v/>
       </c>
-      <c r="L19" s="582"/>
+      <c r="L19" s="620"/>
       <c r="M19" s="312"/>
       <c r="O19" s="13"/>
       <c r="Q19" s="2" t="s">
@@ -21083,11 +21083,11 @@
       <c r="E21" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="578" t="str">
+      <c r="F21" s="629" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="578"/>
+      <c r="G21" s="629"/>
       <c r="H21" s="42"/>
       <c r="I21" s="42"/>
       <c r="J21" s="73" t="s">
@@ -21127,21 +21127,21 @@
       <c r="E22" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="584" t="str">
+      <c r="F22" s="630" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="584"/>
+      <c r="G22" s="630"/>
       <c r="H22" s="42"/>
       <c r="I22" s="42"/>
       <c r="J22" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="578" t="str">
+      <c r="K22" s="629" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="578"/>
+      <c r="L22" s="629"/>
       <c r="M22" s="312"/>
       <c r="O22" s="13"/>
       <c r="Q22" s="2" t="s">
@@ -21186,11 +21186,11 @@
       <c r="J23" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="580" t="str">
+      <c r="K23" s="619" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="580"/>
+      <c r="L23" s="619"/>
       <c r="M23" s="312"/>
       <c r="O23" s="13"/>
       <c r="Q23" s="2" t="s">
@@ -21233,21 +21233,21 @@
       <c r="E24" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="579" t="str">
+      <c r="F24" s="618" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="579"/>
+      <c r="G24" s="618"/>
       <c r="H24" s="42"/>
       <c r="I24" s="42"/>
       <c r="J24" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="580" t="str">
+      <c r="K24" s="619" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="580"/>
+      <c r="L24" s="619"/>
       <c r="M24" s="312"/>
       <c r="O24" s="13"/>
       <c r="P24" s="50" t="s">
@@ -21285,11 +21285,11 @@
       <c r="E25" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="582" t="str">
+      <c r="F25" s="620" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="582"/>
+      <c r="G25" s="620"/>
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
@@ -21337,11 +21337,11 @@
       <c r="E26" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="582" t="str">
+      <c r="F26" s="620" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="582"/>
+      <c r="G26" s="620"/>
       <c r="H26" s="42"/>
       <c r="I26" s="42"/>
       <c r="J26" s="313" t="s">
@@ -21390,11 +21390,11 @@
       <c r="J27" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="578" t="str">
+      <c r="K27" s="629" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="578"/>
+      <c r="L27" s="629"/>
       <c r="M27" s="312"/>
       <c r="O27" s="13"/>
       <c r="Q27" s="2" t="s">
@@ -21432,21 +21432,21 @@
       <c r="E28" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="579" t="str">
+      <c r="F28" s="618" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="579"/>
+      <c r="G28" s="618"/>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
       <c r="J28" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="580" t="str">
+      <c r="K28" s="619" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="580"/>
+      <c r="L28" s="619"/>
       <c r="M28" s="312"/>
       <c r="O28" s="13"/>
       <c r="P28" s="50" t="s">
@@ -21475,11 +21475,11 @@
       <c r="E29" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="582" t="str">
+      <c r="F29" s="620" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="582"/>
+      <c r="G29" s="620"/>
       <c r="H29" s="42"/>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
@@ -21527,11 +21527,11 @@
       <c r="E30" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="582" t="str">
+      <c r="F30" s="620" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="582"/>
+      <c r="G30" s="620"/>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
@@ -21646,11 +21646,11 @@
       <c r="E33" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="578" t="str">
+      <c r="F33" s="629" t="str">
         <f>IF(R34="","",R34)</f>
         <v/>
       </c>
-      <c r="G33" s="578"/>
+      <c r="G33" s="629"/>
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
       <c r="J33" s="73" t="s">
@@ -21687,21 +21687,21 @@
       <c r="E34" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="584" t="str">
+      <c r="F34" s="630" t="str">
         <f>IF(R35="","",R35)</f>
         <v/>
       </c>
-      <c r="G34" s="584"/>
+      <c r="G34" s="630"/>
       <c r="H34" s="42"/>
       <c r="I34" s="42"/>
       <c r="J34" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="578" t="str">
+      <c r="K34" s="629" t="str">
         <f>IF(V35="","",V35)</f>
         <v/>
       </c>
-      <c r="L34" s="578"/>
+      <c r="L34" s="629"/>
       <c r="M34" s="312"/>
       <c r="O34" s="13"/>
       <c r="Q34" s="2" t="s">
@@ -21746,11 +21746,11 @@
       <c r="J35" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="580" t="str">
+      <c r="K35" s="619" t="str">
         <f>IF(V36="","",V36)</f>
         <v/>
       </c>
-      <c r="L35" s="580"/>
+      <c r="L35" s="619"/>
       <c r="M35" s="312"/>
       <c r="O35" s="13"/>
       <c r="Q35" s="2" t="s">
@@ -21793,21 +21793,21 @@
       <c r="E36" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="579" t="str">
+      <c r="F36" s="618" t="str">
         <f>IF(R37="","",R37)</f>
         <v/>
       </c>
-      <c r="G36" s="579"/>
+      <c r="G36" s="618"/>
       <c r="H36" s="42"/>
       <c r="I36" s="42"/>
       <c r="J36" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="K36" s="580" t="str">
+      <c r="K36" s="619" t="str">
         <f>IF(V37="","",V37)</f>
         <v/>
       </c>
-      <c r="L36" s="580"/>
+      <c r="L36" s="619"/>
       <c r="M36" s="312"/>
       <c r="O36" s="13"/>
       <c r="P36" s="50" t="s">
@@ -21845,11 +21845,11 @@
       <c r="E37" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="582" t="str">
+      <c r="F37" s="620" t="str">
         <f>IF(R38="","",R38)</f>
         <v/>
       </c>
-      <c r="G37" s="582"/>
+      <c r="G37" s="620"/>
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
       <c r="J37" s="42"/>
@@ -21897,11 +21897,11 @@
       <c r="E38" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="582" t="str">
+      <c r="F38" s="620" t="str">
         <f>IF(R39="","",R39)</f>
         <v/>
       </c>
-      <c r="G38" s="582"/>
+      <c r="G38" s="620"/>
       <c r="H38" s="42"/>
       <c r="I38" s="42"/>
       <c r="J38" s="313" t="s">
@@ -21948,11 +21948,11 @@
       <c r="J39" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="K39" s="578" t="str">
+      <c r="K39" s="629" t="str">
         <f>IF(V40="","",V40)</f>
         <v/>
       </c>
-      <c r="L39" s="578"/>
+      <c r="L39" s="629"/>
       <c r="M39" s="312"/>
       <c r="O39" s="13"/>
       <c r="Q39" s="2" t="s">
@@ -21990,21 +21990,21 @@
       <c r="E40" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="579" t="str">
+      <c r="F40" s="618" t="str">
         <f>IF(R41="","",R41)</f>
         <v/>
       </c>
-      <c r="G40" s="579"/>
+      <c r="G40" s="618"/>
       <c r="H40" s="42"/>
       <c r="I40" s="42"/>
       <c r="J40" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="K40" s="580" t="str">
+      <c r="K40" s="619" t="str">
         <f>IF(V41="","",V41)</f>
         <v/>
       </c>
-      <c r="L40" s="580"/>
+      <c r="L40" s="619"/>
       <c r="M40" s="312"/>
       <c r="O40" s="13"/>
       <c r="P40" s="50" t="s">
@@ -22042,11 +22042,11 @@
       <c r="E41" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="582" t="str">
+      <c r="F41" s="620" t="str">
         <f>IF(R42="","",R42)</f>
         <v/>
       </c>
-      <c r="G41" s="582"/>
+      <c r="G41" s="620"/>
       <c r="H41" s="42"/>
       <c r="I41" s="42"/>
       <c r="J41" s="42"/>
@@ -22094,11 +22094,11 @@
       <c r="E42" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="582" t="str">
+      <c r="F42" s="620" t="str">
         <f>IF(R43="","",R43)</f>
         <v/>
       </c>
-      <c r="G42" s="582"/>
+      <c r="G42" s="620"/>
       <c r="H42" s="42"/>
       <c r="I42" s="42"/>
       <c r="J42" s="42"/>
@@ -22863,10 +22863,10 @@
       <c r="I69" s="299"/>
       <c r="J69" s="299"/>
       <c r="K69" s="299"/>
-      <c r="L69" s="589" t="s">
+      <c r="L69" s="621" t="s">
         <v>84</v>
       </c>
-      <c r="M69" s="590"/>
+      <c r="M69" s="622"/>
       <c r="O69" s="56"/>
       <c r="P69" s="17" t="s">
         <v>85</v>
@@ -24535,24 +24535,24 @@
       <c r="P107" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="Q107" s="586" t="str">
+      <c r="Q107" s="623" t="str">
         <f>IF(Q106&lt;&gt;"",Q106,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R107" s="586"/>
-      <c r="S107" s="586"/>
-      <c r="T107" s="585" t="str">
+      <c r="R107" s="623"/>
+      <c r="S107" s="623"/>
+      <c r="T107" s="624" t="str">
         <f>IF(T106&lt;&gt;"",T106,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v/>
       </c>
-      <c r="U107" s="585"/>
-      <c r="V107" s="585"/>
-      <c r="W107" s="585" t="str">
+      <c r="U107" s="624"/>
+      <c r="V107" s="624"/>
+      <c r="W107" s="624" t="str">
         <f>IF(W106&lt;&gt;"",W106,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="X107" s="585"/>
-      <c r="Y107" s="585"/>
+      <c r="X107" s="624"/>
+      <c r="Y107" s="624"/>
       <c r="AA107" s="2" t="s">
         <v>153</v>
       </c>
@@ -26542,24 +26542,24 @@
       <c r="P139" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="Q139" s="586" t="str">
+      <c r="Q139" s="623" t="str">
         <f>IF(Q138&lt;&gt;"",Q138,IF($Q$99=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v>Auto 1</v>
       </c>
-      <c r="R139" s="586"/>
-      <c r="S139" s="586"/>
-      <c r="T139" s="585" t="str">
+      <c r="R139" s="623"/>
+      <c r="S139" s="623"/>
+      <c r="T139" s="624" t="str">
         <f>IF(T138&lt;&gt;"",T138,IF($R$1399=1,"Manual 2",IF(OR(AUTO_MA="",O101="",O101=1),"",AUTO_MA&amp;" "&amp;IF(O101=2,2,IF(AND(O102=2,O101&gt;2),ROUND(O101/2,0),O101)))))</f>
         <v/>
       </c>
-      <c r="U139" s="585"/>
-      <c r="V139" s="585"/>
-      <c r="W139" s="585" t="str">
+      <c r="U139" s="624"/>
+      <c r="V139" s="624"/>
+      <c r="W139" s="624" t="str">
         <f>IF(W138&lt;&gt;"",W138,IF(OR(O102=1,O101&lt;3),IF(O102=1,"High Level","No High Level"),IF(AUTO_MA="","",AUTO_MA&amp;" "&amp;O101)))</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="X139" s="585"/>
-      <c r="Y139" s="585"/>
+      <c r="X139" s="624"/>
+      <c r="Y139" s="624"/>
       <c r="AA139" s="2" t="str">
         <f>$T$139&amp;" Mag 4"</f>
         <v xml:space="preserve"> Mag 4</v>
@@ -28903,10 +28903,10 @@
       <c r="P181" s="135"/>
       <c r="Q181" s="137"/>
       <c r="R181" s="128"/>
-      <c r="T181" s="587" t="s">
+      <c r="T181" s="606" t="s">
         <v>245</v>
       </c>
-      <c r="U181" s="587"/>
+      <c r="U181" s="606"/>
       <c r="W181" s="2" t="s">
         <v>199</v>
       </c>
@@ -29277,7 +29277,7 @@
       <c r="K190" s="323"/>
       <c r="L190" s="323"/>
       <c r="M190" s="327"/>
-      <c r="O190" s="588" t="str">
+      <c r="O190" s="615" t="str">
         <f>$Q$107</f>
         <v>Auto 1</v>
       </c>
@@ -29327,7 +29327,7 @@
       <c r="K191" s="323"/>
       <c r="L191" s="323"/>
       <c r="M191" s="303"/>
-      <c r="O191" s="588"/>
+      <c r="O191" s="615"/>
       <c r="P191" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -29373,7 +29373,7 @@
       <c r="K192" s="135"/>
       <c r="L192" s="135"/>
       <c r="M192" s="303"/>
-      <c r="O192" s="588"/>
+      <c r="O192" s="615"/>
       <c r="P192" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -29419,7 +29419,7 @@
       <c r="K193" s="135"/>
       <c r="L193" s="135"/>
       <c r="M193" s="303"/>
-      <c r="O193" s="588"/>
+      <c r="O193" s="615"/>
       <c r="P193" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -29462,7 +29462,7 @@
       <c r="K194" s="135"/>
       <c r="L194" s="135"/>
       <c r="M194" s="303"/>
-      <c r="O194" s="588"/>
+      <c r="O194" s="615"/>
       <c r="P194" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -29505,7 +29505,7 @@
       <c r="K195" s="135"/>
       <c r="L195" s="135"/>
       <c r="M195" s="303"/>
-      <c r="O195" s="588" t="str">
+      <c r="O195" s="615" t="str">
         <f>$T$107</f>
         <v/>
       </c>
@@ -29551,7 +29551,7 @@
       <c r="K196" s="305"/>
       <c r="L196" s="305"/>
       <c r="M196" s="306"/>
-      <c r="O196" s="588"/>
+      <c r="O196" s="615"/>
       <c r="P196" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -29596,7 +29596,7 @@
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="O197" s="588"/>
+      <c r="O197" s="615"/>
       <c r="P197" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -29641,7 +29641,7 @@
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
-      <c r="O198" s="588"/>
+      <c r="O198" s="615"/>
       <c r="P198" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -29687,7 +29687,7 @@
         <f>$H$2</f>
         <v>Medical University of South Carolina</v>
       </c>
-      <c r="O199" s="588"/>
+      <c r="O199" s="615"/>
       <c r="P199" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -29736,7 +29736,7 @@
         <f>$H$5</f>
         <v>Fluoroscopy System Compliance Inspection</v>
       </c>
-      <c r="O200" s="588" t="str">
+      <c r="O200" s="615" t="str">
         <f>$W$107</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -29785,7 +29785,7 @@
       <c r="K201" s="299"/>
       <c r="L201" s="299"/>
       <c r="M201" s="300"/>
-      <c r="O201" s="588"/>
+      <c r="O201" s="615"/>
       <c r="P201" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -29839,7 +29839,7 @@
         <v/>
       </c>
       <c r="M202" s="12"/>
-      <c r="O202" s="588"/>
+      <c r="O202" s="615"/>
       <c r="P202" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -29872,7 +29872,7 @@
       </c>
       <c r="B203" s="10"/>
       <c r="M203" s="12"/>
-      <c r="O203" s="588"/>
+      <c r="O203" s="615"/>
       <c r="P203" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -29906,16 +29906,16 @@
       <c r="B204" s="301"/>
       <c r="C204" s="351"/>
       <c r="D204" s="323"/>
-      <c r="E204" s="621" t="s">
+      <c r="E204" s="585" t="s">
         <v>262</v>
       </c>
-      <c r="F204" s="623" t="s">
+      <c r="F204" s="587" t="s">
         <v>263</v>
       </c>
       <c r="G204" s="518" t="s">
         <v>264</v>
       </c>
-      <c r="H204" s="621" t="str">
+      <c r="H204" s="585" t="str">
         <f>R276</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
@@ -29935,7 +29935,7 @@
       <c r="M204" s="627" t="s">
         <v>268</v>
       </c>
-      <c r="O204" s="588"/>
+      <c r="O204" s="615"/>
       <c r="P204" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -29973,10 +29973,10 @@
       <c r="D205" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="E205" s="622"/>
-      <c r="F205" s="624"/>
+      <c r="E205" s="586"/>
+      <c r="F205" s="588"/>
       <c r="G205" s="518"/>
-      <c r="H205" s="622"/>
+      <c r="H205" s="586"/>
       <c r="I205" s="626"/>
       <c r="J205" s="519"/>
       <c r="K205" s="135" t="str">
@@ -30631,7 +30631,7 @@
         <f>W286</f>
         <v/>
       </c>
-      <c r="O214" s="588" t="str">
+      <c r="O214" s="615" t="str">
         <f>$Q$139</f>
         <v>Auto 1</v>
       </c>
@@ -30687,7 +30687,7 @@
       <c r="K215" s="135"/>
       <c r="L215" s="135"/>
       <c r="M215" s="303"/>
-      <c r="O215" s="588"/>
+      <c r="O215" s="615"/>
       <c r="P215" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -30733,7 +30733,7 @@
       <c r="K216" s="323"/>
       <c r="L216" s="323"/>
       <c r="M216" s="303"/>
-      <c r="O216" s="588"/>
+      <c r="O216" s="615"/>
       <c r="P216" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -30779,7 +30779,7 @@
       <c r="K217" s="368"/>
       <c r="L217" s="368"/>
       <c r="M217" s="369"/>
-      <c r="O217" s="588"/>
+      <c r="O217" s="615"/>
       <c r="P217" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -30826,7 +30826,7 @@
       <c r="K218" s="323"/>
       <c r="L218" s="323"/>
       <c r="M218" s="303"/>
-      <c r="O218" s="588"/>
+      <c r="O218" s="615"/>
       <c r="P218" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -30869,7 +30869,7 @@
       <c r="K219" s="323"/>
       <c r="L219" s="323"/>
       <c r="M219" s="327"/>
-      <c r="O219" s="588" t="str">
+      <c r="O219" s="615" t="str">
         <f>$T$139</f>
         <v/>
       </c>
@@ -30930,7 +30930,7 @@
         <v/>
       </c>
       <c r="M220" s="327"/>
-      <c r="O220" s="588"/>
+      <c r="O220" s="615"/>
       <c r="P220" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -30973,7 +30973,7 @@
       <c r="K221" s="323"/>
       <c r="L221" s="323"/>
       <c r="M221" s="327"/>
-      <c r="O221" s="588"/>
+      <c r="O221" s="615"/>
       <c r="P221" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -31024,7 +31024,7 @@
       <c r="K222" s="323"/>
       <c r="L222" s="323"/>
       <c r="M222" s="327"/>
-      <c r="O222" s="588"/>
+      <c r="O222" s="615"/>
       <c r="P222" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -31081,7 +31081,7 @@
       <c r="K223" s="323"/>
       <c r="L223" s="323"/>
       <c r="M223" s="327"/>
-      <c r="O223" s="588"/>
+      <c r="O223" s="615"/>
       <c r="P223" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -31145,7 +31145,7 @@
       <c r="K224" s="323"/>
       <c r="L224" s="323"/>
       <c r="M224" s="327"/>
-      <c r="O224" s="588" t="str">
+      <c r="O224" s="615" t="str">
         <f>$W$139</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -31209,7 +31209,7 @@
       <c r="K225" s="323"/>
       <c r="L225" s="323"/>
       <c r="M225" s="327"/>
-      <c r="O225" s="588"/>
+      <c r="O225" s="615"/>
       <c r="P225" s="144" t="str">
         <f>IF($O$113="","",$O$113)</f>
         <v/>
@@ -31270,7 +31270,7 @@
       <c r="K226" s="323"/>
       <c r="L226" s="323"/>
       <c r="M226" s="327"/>
-      <c r="O226" s="588"/>
+      <c r="O226" s="615"/>
       <c r="P226" s="144" t="str">
         <f>IF($O$116="","",$O$116)</f>
         <v/>
@@ -31331,7 +31331,7 @@
       <c r="K227" s="323"/>
       <c r="L227" s="323"/>
       <c r="M227" s="327"/>
-      <c r="O227" s="588"/>
+      <c r="O227" s="615"/>
       <c r="P227" s="144" t="str">
         <f>IF($O$119="","",$O$119)</f>
         <v/>
@@ -31385,7 +31385,7 @@
       <c r="K228" s="323"/>
       <c r="L228" s="323"/>
       <c r="M228" s="327"/>
-      <c r="O228" s="588"/>
+      <c r="O228" s="615"/>
       <c r="P228" s="134" t="str">
         <f>IF($O$122="","",$O$122)</f>
         <v/>
@@ -31938,7 +31938,7 @@
       <c r="K240" s="323"/>
       <c r="L240" s="323"/>
       <c r="M240" s="327"/>
-      <c r="O240" s="591" t="s">
+      <c r="O240" s="616" t="s">
         <v>294</v>
       </c>
       <c r="P240" s="167" t="s">
@@ -31997,7 +31997,7 @@
       <c r="K241" s="323"/>
       <c r="L241" s="323"/>
       <c r="M241" s="327"/>
-      <c r="O241" s="591"/>
+      <c r="O241" s="616"/>
       <c r="P241" s="172" t="s">
         <v>297</v>
       </c>
@@ -32054,7 +32054,7 @@
       <c r="K242" s="323"/>
       <c r="L242" s="323"/>
       <c r="M242" s="327"/>
-      <c r="O242" s="591" t="str">
+      <c r="O242" s="616" t="str">
         <f>IF($U$137=1,"Scatter - Pulse", "Scatter – Digital acq")</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -32114,7 +32114,7 @@
       <c r="K243" s="323"/>
       <c r="L243" s="323"/>
       <c r="M243" s="327"/>
-      <c r="O243" s="591"/>
+      <c r="O243" s="616"/>
       <c r="P243" s="172" t="s">
         <v>297</v>
       </c>
@@ -32644,17 +32644,17 @@
       <c r="P257" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Q257" s="592" t="s">
+      <c r="Q257" s="617" t="s">
         <v>313</v>
       </c>
-      <c r="R257" s="592"/>
+      <c r="R257" s="617"/>
       <c r="S257" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="T257" s="592" t="s">
+      <c r="T257" s="617" t="s">
         <v>315</v>
       </c>
-      <c r="U257" s="592"/>
+      <c r="U257" s="617"/>
       <c r="V257" s="1" t="s">
         <v>316</v>
       </c>
@@ -33142,24 +33142,24 @@
         <f t="shared" si="43"/>
         <v>Attenuator</v>
       </c>
-      <c r="E269" s="593" t="str">
+      <c r="E269" s="608" t="str">
         <f>Q107</f>
         <v>Auto 1</v>
       </c>
-      <c r="F269" s="594"/>
-      <c r="G269" s="594"/>
-      <c r="H269" s="594" t="str">
+      <c r="F269" s="609"/>
+      <c r="G269" s="609"/>
+      <c r="H269" s="609" t="str">
         <f>T107</f>
         <v/>
       </c>
-      <c r="I269" s="594"/>
-      <c r="J269" s="594"/>
-      <c r="K269" s="595" t="str">
+      <c r="I269" s="609"/>
+      <c r="J269" s="609"/>
+      <c r="K269" s="610" t="str">
         <f>W107</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L269" s="595"/>
-      <c r="M269" s="596"/>
+      <c r="L269" s="610"/>
+      <c r="M269" s="611"/>
       <c r="O269" s="189" t="str">
         <f t="shared" si="44"/>
         <v/>
@@ -33261,7 +33261,7 @@
         <v>7</v>
       </c>
       <c r="B271" s="301"/>
-      <c r="C271" s="600" t="str">
+      <c r="C271" s="584" t="str">
         <f>O110&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33337,7 +33337,7 @@
         <v>8</v>
       </c>
       <c r="B272" s="301"/>
-      <c r="C272" s="600"/>
+      <c r="C272" s="584"/>
       <c r="D272" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -33403,7 +33403,7 @@
         <v>9</v>
       </c>
       <c r="B273" s="301"/>
-      <c r="C273" s="600"/>
+      <c r="C273" s="584"/>
       <c r="D273" s="394">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -33476,7 +33476,7 @@
         <v>10</v>
       </c>
       <c r="B274" s="301"/>
-      <c r="C274" s="600" t="str">
+      <c r="C274" s="584" t="str">
         <f>O113&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33545,7 +33545,7 @@
         <v>11</v>
       </c>
       <c r="B275" s="301"/>
-      <c r="C275" s="600"/>
+      <c r="C275" s="584"/>
       <c r="D275" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -33618,7 +33618,7 @@
         <v>12</v>
       </c>
       <c r="B276" s="301"/>
-      <c r="C276" s="600"/>
+      <c r="C276" s="584"/>
       <c r="D276" s="394">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -33659,17 +33659,17 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="O276" s="601" t="s">
+      <c r="O276" s="612" t="s">
         <v>262</v>
       </c>
-      <c r="P276" s="602" t="s">
+      <c r="P276" s="613" t="s">
         <v>263</v>
       </c>
-      <c r="R276" s="602" t="str">
+      <c r="R276" s="613" t="str">
         <f>"Ind AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Ind AK @ Ref Pt (mGy)</v>
       </c>
-      <c r="S276" s="602" t="str">
+      <c r="S276" s="613" t="str">
         <f>"Meas AK @ Ref Pt ("&amp;T257&amp;")"</f>
         <v>Meas AK @ Ref Pt (mGy)</v>
       </c>
@@ -33691,7 +33691,7 @@
         <v>13</v>
       </c>
       <c r="B277" s="301"/>
-      <c r="C277" s="600" t="str">
+      <c r="C277" s="584" t="str">
         <f>O116&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -33735,13 +33735,13 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="O277" s="601"/>
-      <c r="P277" s="602"/>
+      <c r="O277" s="612"/>
+      <c r="P277" s="613"/>
       <c r="Q277" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="R277" s="602"/>
-      <c r="S277" s="602"/>
+      <c r="R277" s="613"/>
+      <c r="S277" s="613"/>
       <c r="T277" s="1" t="s">
         <v>322</v>
       </c>
@@ -33773,7 +33773,7 @@
         <v>14</v>
       </c>
       <c r="B278" s="301"/>
-      <c r="C278" s="600"/>
+      <c r="C278" s="584"/>
       <c r="D278" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -33860,7 +33860,7 @@
         <v>15</v>
       </c>
       <c r="B279" s="301"/>
-      <c r="C279" s="600"/>
+      <c r="C279" s="584"/>
       <c r="D279" s="394">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -33954,7 +33954,7 @@
         <v>16</v>
       </c>
       <c r="B280" s="301"/>
-      <c r="C280" s="600" t="str">
+      <c r="C280" s="584" t="str">
         <f>O119&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -34054,7 +34054,7 @@
         <v>17</v>
       </c>
       <c r="B281" s="301"/>
-      <c r="C281" s="600"/>
+      <c r="C281" s="584"/>
       <c r="D281" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -34141,7 +34141,7 @@
         <v>18</v>
       </c>
       <c r="B282" s="301"/>
-      <c r="C282" s="600"/>
+      <c r="C282" s="584"/>
       <c r="D282" s="394">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -34235,7 +34235,7 @@
         <v>19</v>
       </c>
       <c r="B283" s="301"/>
-      <c r="C283" s="600" t="str">
+      <c r="C283" s="584" t="str">
         <f>O122&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -34325,7 +34325,7 @@
         <v>20</v>
       </c>
       <c r="B284" s="301"/>
-      <c r="C284" s="600"/>
+      <c r="C284" s="584"/>
       <c r="D284" s="391">
         <f t="shared" si="45"/>
         <v>20</v>
@@ -34419,7 +34419,7 @@
         <v>21</v>
       </c>
       <c r="B285" s="301"/>
-      <c r="C285" s="600"/>
+      <c r="C285" s="584"/>
       <c r="D285" s="391">
         <f t="shared" si="45"/>
         <v>30</v>
@@ -34854,13 +34854,13 @@
       <c r="L293" s="135"/>
       <c r="M293" s="303"/>
       <c r="O293" s="225"/>
-      <c r="P293" s="603" t="s">
+      <c r="P293" s="614" t="s">
         <v>328</v>
       </c>
-      <c r="Q293" s="603"/>
-      <c r="R293" s="603"/>
-      <c r="S293" s="603"/>
-      <c r="T293" s="603"/>
+      <c r="Q293" s="614"/>
+      <c r="R293" s="614"/>
+      <c r="S293" s="614"/>
+      <c r="T293" s="614"/>
       <c r="U293" s="223"/>
       <c r="V293" s="223"/>
       <c r="W293" s="223"/>
@@ -35237,13 +35237,13 @@
       <c r="L302" s="135"/>
       <c r="M302" s="303"/>
       <c r="O302" s="225"/>
-      <c r="P302" s="603" t="s">
+      <c r="P302" s="614" t="s">
         <v>328</v>
       </c>
-      <c r="Q302" s="603"/>
-      <c r="R302" s="603"/>
-      <c r="S302" s="603"/>
-      <c r="T302" s="603"/>
+      <c r="Q302" s="614"/>
+      <c r="R302" s="614"/>
+      <c r="S302" s="614"/>
+      <c r="T302" s="614"/>
       <c r="U302" s="223"/>
       <c r="V302" s="223"/>
       <c r="W302" s="223"/>
@@ -35264,7 +35264,7 @@
         <v>39</v>
       </c>
       <c r="B303" s="301"/>
-      <c r="C303" s="608" t="str">
+      <c r="C303" s="589" t="str">
         <f>O190</f>
         <v>Auto 1</v>
       </c>
@@ -35327,7 +35327,7 @@
         <v>40</v>
       </c>
       <c r="B304" s="301"/>
-      <c r="C304" s="609"/>
+      <c r="C304" s="590"/>
       <c r="D304" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35400,7 +35400,7 @@
         <v>41</v>
       </c>
       <c r="B305" s="301"/>
-      <c r="C305" s="609"/>
+      <c r="C305" s="590"/>
       <c r="D305" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35448,7 +35448,7 @@
         <v>42</v>
       </c>
       <c r="B306" s="301"/>
-      <c r="C306" s="609"/>
+      <c r="C306" s="590"/>
       <c r="D306" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35500,7 +35500,7 @@
         <v>43</v>
       </c>
       <c r="B307" s="301"/>
-      <c r="C307" s="610"/>
+      <c r="C307" s="601"/>
       <c r="D307" s="436" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35545,7 +35545,7 @@
         <v>44</v>
       </c>
       <c r="B308" s="301"/>
-      <c r="C308" s="608" t="str">
+      <c r="C308" s="589" t="str">
         <f>O195</f>
         <v/>
       </c>
@@ -35600,7 +35600,7 @@
         <v>45</v>
       </c>
       <c r="B309" s="301"/>
-      <c r="C309" s="609"/>
+      <c r="C309" s="590"/>
       <c r="D309" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35652,7 +35652,7 @@
         <v>46</v>
       </c>
       <c r="B310" s="301"/>
-      <c r="C310" s="609"/>
+      <c r="C310" s="590"/>
       <c r="D310" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35711,7 +35711,7 @@
         <v>47</v>
       </c>
       <c r="B311" s="301"/>
-      <c r="C311" s="609"/>
+      <c r="C311" s="590"/>
       <c r="D311" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35763,7 +35763,7 @@
         <v>48</v>
       </c>
       <c r="B312" s="301"/>
-      <c r="C312" s="611"/>
+      <c r="C312" s="591"/>
       <c r="D312" s="439" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35819,7 +35819,7 @@
         <v>49</v>
       </c>
       <c r="B313" s="301"/>
-      <c r="C313" s="612" t="str">
+      <c r="C313" s="602" t="str">
         <f>O200</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -35871,7 +35871,7 @@
         <v>50</v>
       </c>
       <c r="B314" s="301"/>
-      <c r="C314" s="609"/>
+      <c r="C314" s="590"/>
       <c r="D314" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35923,7 +35923,7 @@
         <v>51</v>
       </c>
       <c r="B315" s="301"/>
-      <c r="C315" s="609"/>
+      <c r="C315" s="590"/>
       <c r="D315" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -35968,7 +35968,7 @@
         <v>52</v>
       </c>
       <c r="B316" s="301"/>
-      <c r="C316" s="609"/>
+      <c r="C316" s="590"/>
       <c r="D316" s="433" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -36022,7 +36022,7 @@
         <v>53</v>
       </c>
       <c r="B317" s="301"/>
-      <c r="C317" s="611"/>
+      <c r="C317" s="591"/>
       <c r="D317" s="439" t="str">
         <f t="shared" si="64"/>
         <v/>
@@ -36144,10 +36144,10 @@
       <c r="R319" s="246"/>
       <c r="S319" s="247"/>
       <c r="T319" s="247"/>
-      <c r="V319" s="587" t="s">
+      <c r="V319" s="606" t="s">
         <v>339</v>
       </c>
-      <c r="W319" s="587"/>
+      <c r="W319" s="606"/>
       <c r="X319" s="17" t="s">
         <v>340</v>
       </c>
@@ -36348,7 +36348,7 @@
         <v>60</v>
       </c>
       <c r="B324" s="301"/>
-      <c r="C324" s="597" t="str">
+      <c r="C324" s="595" t="str">
         <f>O240</f>
         <v>Scatter – Fluoro</v>
       </c>
@@ -36398,7 +36398,7 @@
         <v>61</v>
       </c>
       <c r="B325" s="301"/>
-      <c r="C325" s="598"/>
+      <c r="C325" s="596"/>
       <c r="D325" s="448" t="str">
         <f>P241</f>
         <v>Waist level</v>
@@ -36556,13 +36556,13 @@
         <v>347</v>
       </c>
       <c r="P329" s="53"/>
-      <c r="Q329" s="599" t="s">
+      <c r="Q329" s="607" t="s">
         <v>348</v>
       </c>
-      <c r="R329" s="599"/>
-      <c r="S329" s="599"/>
-      <c r="T329" s="599"/>
-      <c r="U329" s="599"/>
+      <c r="R329" s="607"/>
+      <c r="S329" s="607"/>
+      <c r="T329" s="607"/>
+      <c r="U329" s="607"/>
       <c r="Y329" s="14"/>
     </row>
     <row r="330" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -36745,24 +36745,24 @@
         <f t="shared" si="72"/>
         <v>Attenuator</v>
       </c>
-      <c r="E335" s="593" t="str">
+      <c r="E335" s="608" t="str">
         <f>Q139</f>
         <v>Auto 1</v>
       </c>
-      <c r="F335" s="594"/>
-      <c r="G335" s="594"/>
-      <c r="H335" s="594" t="str">
+      <c r="F335" s="609"/>
+      <c r="G335" s="609"/>
+      <c r="H335" s="609" t="str">
         <f>T139</f>
         <v/>
       </c>
-      <c r="I335" s="594"/>
-      <c r="J335" s="594"/>
-      <c r="K335" s="595" t="str">
+      <c r="I335" s="609"/>
+      <c r="J335" s="609"/>
+      <c r="K335" s="610" t="str">
         <f>W139</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L335" s="595"/>
-      <c r="M335" s="596"/>
+      <c r="L335" s="610"/>
+      <c r="M335" s="611"/>
       <c r="O335" s="130"/>
       <c r="P335" s="129" t="s">
         <v>354</v>
@@ -36839,7 +36839,7 @@
         <v>7</v>
       </c>
       <c r="B337" s="301"/>
-      <c r="C337" s="600" t="str">
+      <c r="C337" s="584" t="str">
         <f>O142&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -36899,7 +36899,7 @@
         <v>8</v>
       </c>
       <c r="B338" s="301"/>
-      <c r="C338" s="600"/>
+      <c r="C338" s="584"/>
       <c r="D338" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -36956,7 +36956,7 @@
         <v>9</v>
       </c>
       <c r="B339" s="301"/>
-      <c r="C339" s="600"/>
+      <c r="C339" s="584"/>
       <c r="D339" s="463">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -37013,7 +37013,7 @@
         <v>10</v>
       </c>
       <c r="B340" s="301"/>
-      <c r="C340" s="600" t="str">
+      <c r="C340" s="584" t="str">
         <f>O145&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -37073,7 +37073,7 @@
         <v>11</v>
       </c>
       <c r="B341" s="301"/>
-      <c r="C341" s="600"/>
+      <c r="C341" s="584"/>
       <c r="D341" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -37130,7 +37130,7 @@
         <v>12</v>
       </c>
       <c r="B342" s="301"/>
-      <c r="C342" s="600"/>
+      <c r="C342" s="584"/>
       <c r="D342" s="464">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -37187,7 +37187,7 @@
         <v>13</v>
       </c>
       <c r="B343" s="301"/>
-      <c r="C343" s="600" t="str">
+      <c r="C343" s="584" t="str">
         <f>O148&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -37239,7 +37239,7 @@
         <v>14</v>
       </c>
       <c r="B344" s="301"/>
-      <c r="C344" s="600"/>
+      <c r="C344" s="584"/>
       <c r="D344" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -37301,7 +37301,7 @@
         <v>15</v>
       </c>
       <c r="B345" s="301"/>
-      <c r="C345" s="600"/>
+      <c r="C345" s="584"/>
       <c r="D345" s="463">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -37364,7 +37364,7 @@
         <v>16</v>
       </c>
       <c r="B346" s="301"/>
-      <c r="C346" s="600" t="str">
+      <c r="C346" s="584" t="str">
         <f>O151&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -37427,7 +37427,7 @@
         <v>17</v>
       </c>
       <c r="B347" s="301"/>
-      <c r="C347" s="600"/>
+      <c r="C347" s="584"/>
       <c r="D347" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -37485,7 +37485,7 @@
         <v>18</v>
       </c>
       <c r="B348" s="301"/>
-      <c r="C348" s="600"/>
+      <c r="C348" s="584"/>
       <c r="D348" s="464">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -37563,7 +37563,7 @@
         <v>19</v>
       </c>
       <c r="B349" s="301"/>
-      <c r="C349" s="600" t="str">
+      <c r="C349" s="584" t="str">
         <f>O154&amp;" "&amp;flocm_in</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -37626,7 +37626,7 @@
         <v>20</v>
       </c>
       <c r="B350" s="301"/>
-      <c r="C350" s="600"/>
+      <c r="C350" s="584"/>
       <c r="D350" s="462">
         <f t="shared" si="73"/>
         <v>20</v>
@@ -37685,7 +37685,7 @@
         <v>21</v>
       </c>
       <c r="B351" s="301"/>
-      <c r="C351" s="600"/>
+      <c r="C351" s="584"/>
       <c r="D351" s="464">
         <f t="shared" si="73"/>
         <v>30</v>
@@ -37994,11 +37994,11 @@
         <f>IF(OR(V358="",V359="",V362=""),"",(V358-V359)*V362)</f>
         <v/>
       </c>
-      <c r="Q358" s="604" t="str">
+      <c r="Q358" s="597" t="str">
         <f>IF(OR(P358="",P359=""),"",(ABS(P358)+ABS(P359))/$O$355)</f>
         <v/>
       </c>
-      <c r="R358" s="605" t="str">
+      <c r="R358" s="598" t="str">
         <f>IF(OR(Q358="",Q360=""),"",Q358+Q360)</f>
         <v/>
       </c>
@@ -38037,8 +38037,8 @@
         <f>IF(OR(W358="",W359="",V362=""),"",(W358-W359)*V362)</f>
         <v/>
       </c>
-      <c r="Q359" s="604"/>
-      <c r="R359" s="604"/>
+      <c r="Q359" s="597"/>
+      <c r="R359" s="597"/>
       <c r="S359" s="146" t="str">
         <f>IF(AB171="","",AB171)</f>
         <v/>
@@ -38074,11 +38074,11 @@
         <f>IF(OR(X358="",X359="",V362=""),"",(X358-X359)*V362)</f>
         <v/>
       </c>
-      <c r="Q360" s="605" t="str">
+      <c r="Q360" s="598" t="str">
         <f>IF(OR(P360="",P361=""),"",(ABS(P360)+ABS(P361))/$O$355)</f>
         <v/>
       </c>
-      <c r="R360" s="605"/>
+      <c r="R360" s="598"/>
       <c r="S360" s="146" t="str">
         <f>IF(AB172="","",AB172)</f>
         <v/>
@@ -38120,8 +38120,8 @@
         <f>IF(OR(Y358="",Y359="",V362=""),"",(Y358-Y359)*V362)</f>
         <v/>
       </c>
-      <c r="Q361" s="605"/>
-      <c r="R361" s="605"/>
+      <c r="Q361" s="598"/>
+      <c r="R361" s="598"/>
       <c r="S361" s="148" t="str">
         <f>IF(AB173="","",AB173)</f>
         <v/>
@@ -38293,7 +38293,7 @@
         <v>36</v>
       </c>
       <c r="B366" s="301"/>
-      <c r="C366" s="606" t="str">
+      <c r="C366" s="599" t="str">
         <f>O214</f>
         <v>Auto 1</v>
       </c>
@@ -38344,7 +38344,7 @@
         <v>37</v>
       </c>
       <c r="B367" s="301"/>
-      <c r="C367" s="607"/>
+      <c r="C367" s="600"/>
       <c r="D367" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38390,7 +38390,7 @@
         <v>38</v>
       </c>
       <c r="B368" s="301"/>
-      <c r="C368" s="607"/>
+      <c r="C368" s="600"/>
       <c r="D368" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38425,7 +38425,7 @@
         <v>39</v>
       </c>
       <c r="B369" s="301"/>
-      <c r="C369" s="607"/>
+      <c r="C369" s="600"/>
       <c r="D369" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38460,7 +38460,7 @@
         <v>40</v>
       </c>
       <c r="B370" s="301"/>
-      <c r="C370" s="607"/>
+      <c r="C370" s="600"/>
       <c r="D370" s="439" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38505,7 +38505,7 @@
         <v>41</v>
       </c>
       <c r="B371" s="301"/>
-      <c r="C371" s="608" t="str">
+      <c r="C371" s="589" t="str">
         <f>O219</f>
         <v/>
       </c>
@@ -38555,7 +38555,7 @@
         <v>42</v>
       </c>
       <c r="B372" s="301"/>
-      <c r="C372" s="609"/>
+      <c r="C372" s="590"/>
       <c r="D372" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38605,7 +38605,7 @@
         <v>43</v>
       </c>
       <c r="B373" s="301"/>
-      <c r="C373" s="609"/>
+      <c r="C373" s="590"/>
       <c r="D373" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38652,7 +38652,7 @@
         <v>44</v>
       </c>
       <c r="B374" s="301"/>
-      <c r="C374" s="609"/>
+      <c r="C374" s="590"/>
       <c r="D374" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38702,7 +38702,7 @@
         <v>45</v>
       </c>
       <c r="B375" s="301"/>
-      <c r="C375" s="611"/>
+      <c r="C375" s="591"/>
       <c r="D375" s="439" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38749,7 +38749,7 @@
         <v>46</v>
       </c>
       <c r="B376" s="301"/>
-      <c r="C376" s="629" t="str">
+      <c r="C376" s="592" t="str">
         <f>O224</f>
         <v xml:space="preserve">Auto </v>
       </c>
@@ -38802,7 +38802,7 @@
         <v>47</v>
       </c>
       <c r="B377" s="301"/>
-      <c r="C377" s="630"/>
+      <c r="C377" s="593"/>
       <c r="D377" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38849,7 +38849,7 @@
         <v>48</v>
       </c>
       <c r="B378" s="301"/>
-      <c r="C378" s="630"/>
+      <c r="C378" s="593"/>
       <c r="D378" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38899,7 +38899,7 @@
         <v>49</v>
       </c>
       <c r="B379" s="301"/>
-      <c r="C379" s="630"/>
+      <c r="C379" s="593"/>
       <c r="D379" s="433" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -38946,7 +38946,7 @@
         <v>50</v>
       </c>
       <c r="B380" s="301"/>
-      <c r="C380" s="631"/>
+      <c r="C380" s="594"/>
       <c r="D380" s="439" t="str">
         <f t="shared" si="83"/>
         <v/>
@@ -39256,7 +39256,7 @@
         <v>58</v>
       </c>
       <c r="B388" s="301"/>
-      <c r="C388" s="597" t="str">
+      <c r="C388" s="595" t="str">
         <f>O242</f>
         <v>Scatter – Digital acq</v>
       </c>
@@ -39307,7 +39307,7 @@
         <v>59</v>
       </c>
       <c r="B389" s="301"/>
-      <c r="C389" s="598"/>
+      <c r="C389" s="596"/>
       <c r="D389" s="448" t="str">
         <f>P243</f>
         <v>Waist level</v>
@@ -39658,14 +39658,14 @@
       <c r="E399" s="299"/>
       <c r="F399" s="299"/>
       <c r="G399" s="299"/>
-      <c r="H399" s="632" t="s">
+      <c r="H399" s="605" t="s">
         <v>394</v>
       </c>
-      <c r="I399" s="632"/>
-      <c r="J399" s="632" t="s">
+      <c r="I399" s="605"/>
+      <c r="J399" s="605" t="s">
         <v>395</v>
       </c>
-      <c r="K399" s="632"/>
+      <c r="K399" s="605"/>
       <c r="L399" s="299"/>
       <c r="M399" s="300"/>
       <c r="O399" s="13"/>
@@ -40239,20 +40239,20 @@
       </c>
       <c r="B413" s="301"/>
       <c r="C413" s="42"/>
-      <c r="D413" s="613" t="s">
+      <c r="D413" s="603" t="s">
         <v>401</v>
       </c>
-      <c r="E413" s="613"/>
-      <c r="F413" s="613"/>
-      <c r="G413" s="613"/>
-      <c r="H413" s="613"/>
-      <c r="I413" s="613" t="s">
+      <c r="E413" s="603"/>
+      <c r="F413" s="603"/>
+      <c r="G413" s="603"/>
+      <c r="H413" s="603"/>
+      <c r="I413" s="603" t="s">
         <v>402</v>
       </c>
-      <c r="J413" s="613"/>
-      <c r="K413" s="613"/>
-      <c r="L413" s="613"/>
-      <c r="M413" s="614"/>
+      <c r="J413" s="603"/>
+      <c r="K413" s="603"/>
+      <c r="L413" s="603"/>
+      <c r="M413" s="604"/>
       <c r="O413" s="13"/>
       <c r="P413" s="2" t="s">
         <v>189</v>
@@ -41732,11 +41732,11 @@
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="F442" s="615" t="str">
+      <c r="F442" s="578" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="G442" s="617" t="str">
+      <c r="G442" s="580" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
@@ -41777,8 +41777,8 @@
         <f>P359</f>
         <v/>
       </c>
-      <c r="F443" s="616"/>
-      <c r="G443" s="618"/>
+      <c r="F443" s="579"/>
+      <c r="G443" s="581"/>
       <c r="H443" s="200"/>
       <c r="I443" s="82" t="str">
         <f>T360</f>
@@ -41818,11 +41818,11 @@
         <f>P360</f>
         <v/>
       </c>
-      <c r="F444" s="616" t="str">
+      <c r="F444" s="579" t="str">
         <f>Q360</f>
         <v/>
       </c>
-      <c r="G444" s="618"/>
+      <c r="G444" s="581"/>
       <c r="H444" s="135"/>
       <c r="I444" s="91" t="str">
         <f>T361</f>
@@ -41863,8 +41863,8 @@
         <f>P361</f>
         <v/>
       </c>
-      <c r="F445" s="620"/>
-      <c r="G445" s="619"/>
+      <c r="F445" s="583"/>
+      <c r="G445" s="582"/>
       <c r="H445" s="135"/>
       <c r="I445" s="135"/>
       <c r="J445" s="135"/>
@@ -48223,30 +48223,71 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="106">
-    <mergeCell ref="F442:F443"/>
-    <mergeCell ref="G442:G445"/>
-    <mergeCell ref="F444:F445"/>
-    <mergeCell ref="C337:C339"/>
-    <mergeCell ref="C340:C342"/>
-    <mergeCell ref="C343:C345"/>
-    <mergeCell ref="C346:C348"/>
-    <mergeCell ref="C349:C351"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="C371:C375"/>
-    <mergeCell ref="C376:C380"/>
-    <mergeCell ref="C388:C389"/>
-    <mergeCell ref="Q358:Q359"/>
-    <mergeCell ref="R358:R361"/>
-    <mergeCell ref="Q360:Q361"/>
-    <mergeCell ref="C366:C370"/>
-    <mergeCell ref="C303:C307"/>
-    <mergeCell ref="C308:C312"/>
-    <mergeCell ref="C313:C317"/>
-    <mergeCell ref="D413:H413"/>
-    <mergeCell ref="I413:M413"/>
-    <mergeCell ref="H399:I399"/>
-    <mergeCell ref="J399:K399"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="W107:Y107"/>
+    <mergeCell ref="Q139:S139"/>
+    <mergeCell ref="T139:V139"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="T181:U181"/>
+    <mergeCell ref="O190:O194"/>
+    <mergeCell ref="O195:O199"/>
+    <mergeCell ref="O200:O204"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="Q107:S107"/>
+    <mergeCell ref="T107:V107"/>
+    <mergeCell ref="H204:H205"/>
+    <mergeCell ref="I204:I205"/>
+    <mergeCell ref="M204:M205"/>
+    <mergeCell ref="O214:O218"/>
+    <mergeCell ref="O219:O223"/>
+    <mergeCell ref="O224:O228"/>
+    <mergeCell ref="O240:O241"/>
+    <mergeCell ref="O242:O243"/>
+    <mergeCell ref="Q257:R257"/>
+    <mergeCell ref="T257:U257"/>
+    <mergeCell ref="E269:G269"/>
+    <mergeCell ref="H269:J269"/>
+    <mergeCell ref="K269:M269"/>
     <mergeCell ref="V319:W319"/>
     <mergeCell ref="C324:C325"/>
     <mergeCell ref="Q329:U329"/>
@@ -48264,71 +48305,30 @@
     <mergeCell ref="C283:C285"/>
     <mergeCell ref="P302:T302"/>
     <mergeCell ref="P293:T293"/>
-    <mergeCell ref="O214:O218"/>
-    <mergeCell ref="O219:O223"/>
-    <mergeCell ref="O224:O228"/>
-    <mergeCell ref="O240:O241"/>
-    <mergeCell ref="O242:O243"/>
-    <mergeCell ref="Q257:R257"/>
-    <mergeCell ref="T257:U257"/>
-    <mergeCell ref="E269:G269"/>
-    <mergeCell ref="H269:J269"/>
-    <mergeCell ref="K269:M269"/>
-    <mergeCell ref="T181:U181"/>
-    <mergeCell ref="O190:O194"/>
-    <mergeCell ref="O195:O199"/>
-    <mergeCell ref="O200:O204"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="Q107:S107"/>
-    <mergeCell ref="T107:V107"/>
-    <mergeCell ref="H204:H205"/>
-    <mergeCell ref="I204:I205"/>
-    <mergeCell ref="M204:M205"/>
-    <mergeCell ref="W107:Y107"/>
-    <mergeCell ref="Q139:S139"/>
-    <mergeCell ref="T139:V139"/>
-    <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="Q358:Q359"/>
+    <mergeCell ref="R358:R361"/>
+    <mergeCell ref="Q360:Q361"/>
+    <mergeCell ref="C366:C370"/>
+    <mergeCell ref="C303:C307"/>
+    <mergeCell ref="C308:C312"/>
+    <mergeCell ref="C313:C317"/>
+    <mergeCell ref="D413:H413"/>
+    <mergeCell ref="I413:M413"/>
+    <mergeCell ref="H399:I399"/>
+    <mergeCell ref="J399:K399"/>
+    <mergeCell ref="F442:F443"/>
+    <mergeCell ref="G442:G445"/>
+    <mergeCell ref="F444:F445"/>
+    <mergeCell ref="C337:C339"/>
+    <mergeCell ref="C340:C342"/>
+    <mergeCell ref="C343:C345"/>
+    <mergeCell ref="C346:C348"/>
+    <mergeCell ref="C349:C351"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="C371:C375"/>
+    <mergeCell ref="C376:C380"/>
+    <mergeCell ref="C388:C389"/>
   </mergeCells>
   <conditionalFormatting sqref="S126 V126 Y126 S158 V158 Y158">
     <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
@@ -48519,11 +48519,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -48648,39 +48646,39 @@
         <f>Fluoro!D269</f>
         <v>Attenuator</v>
       </c>
-      <c r="E5" s="594" t="str">
+      <c r="E5" s="609" t="str">
         <f>Fluoro!E269</f>
         <v>Auto 1</v>
       </c>
-      <c r="F5" s="594">
+      <c r="F5" s="609">
         <f>Fluoro!F269</f>
         <v>0</v>
       </c>
-      <c r="G5" s="594">
+      <c r="G5" s="609">
         <f>Fluoro!G269</f>
         <v>0</v>
       </c>
-      <c r="H5" s="594" t="str">
+      <c r="H5" s="609" t="str">
         <f>Fluoro!H269</f>
         <v/>
       </c>
-      <c r="I5" s="594">
+      <c r="I5" s="609">
         <f>Fluoro!I269</f>
         <v>0</v>
       </c>
-      <c r="J5" s="594">
+      <c r="J5" s="609">
         <f>Fluoro!J269</f>
         <v>0</v>
       </c>
-      <c r="K5" s="595" t="str">
+      <c r="K5" s="610" t="str">
         <f>Fluoro!K269</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L5" s="595">
+      <c r="L5" s="610">
         <f>Fluoro!L269</f>
         <v>0</v>
       </c>
-      <c r="M5" s="595">
+      <c r="M5" s="610">
         <f>Fluoro!M269</f>
         <v>0</v>
       </c>
@@ -48737,7 +48735,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="633" t="str">
+      <c r="C7" s="634" t="str">
         <f>Fluoro!C271</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -48787,7 +48785,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="633">
+      <c r="C8" s="634">
         <f>Fluoro!C272</f>
         <v>0</v>
       </c>
@@ -48837,7 +48835,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="633">
+      <c r="C9" s="634">
         <f>Fluoro!C273</f>
         <v>0</v>
       </c>
@@ -48887,7 +48885,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="633" t="str">
+      <c r="C10" s="634" t="str">
         <f>Fluoro!C274</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -48937,7 +48935,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="633">
+      <c r="C11" s="634">
         <f>Fluoro!C275</f>
         <v>0</v>
       </c>
@@ -48987,7 +48985,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="633">
+      <c r="C12" s="634">
         <f>Fluoro!C276</f>
         <v>0</v>
       </c>
@@ -49037,7 +49035,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="633" t="str">
+      <c r="C13" s="634" t="str">
         <f>Fluoro!C277</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49087,7 +49085,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="633">
+      <c r="C14" s="634">
         <f>Fluoro!C278</f>
         <v>0</v>
       </c>
@@ -49137,7 +49135,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="633">
+      <c r="C15" s="634">
         <f>Fluoro!C279</f>
         <v>0</v>
       </c>
@@ -49187,7 +49185,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="633" t="str">
+      <c r="C16" s="634" t="str">
         <f>Fluoro!C280</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49237,7 +49235,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="633">
+      <c r="C17" s="634">
         <f>Fluoro!C281</f>
         <v>0</v>
       </c>
@@ -49287,7 +49285,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="633">
+      <c r="C18" s="634">
         <f>Fluoro!C282</f>
         <v>0</v>
       </c>
@@ -49337,7 +49335,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="633" t="str">
+      <c r="C19" s="634" t="str">
         <f>Fluoro!C283</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -49387,7 +49385,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="633">
+      <c r="C20" s="634">
         <f>Fluoro!C284</f>
         <v>0</v>
       </c>
@@ -49437,7 +49435,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="633">
+      <c r="C21" s="634">
         <f>Fluoro!C285</f>
         <v>0</v>
       </c>
@@ -49861,39 +49859,39 @@
         <f>Fluoro!D335</f>
         <v>Attenuator</v>
       </c>
-      <c r="E37" s="594" t="str">
+      <c r="E37" s="609" t="str">
         <f>Fluoro!E335</f>
         <v>Auto 1</v>
       </c>
-      <c r="F37" s="594">
+      <c r="F37" s="609">
         <f>Fluoro!F335</f>
         <v>0</v>
       </c>
-      <c r="G37" s="594">
+      <c r="G37" s="609">
         <f>Fluoro!G335</f>
         <v>0</v>
       </c>
-      <c r="H37" s="594" t="str">
+      <c r="H37" s="609" t="str">
         <f>Fluoro!H335</f>
         <v/>
       </c>
-      <c r="I37" s="594">
+      <c r="I37" s="609">
         <f>Fluoro!I335</f>
         <v>0</v>
       </c>
-      <c r="J37" s="594">
+      <c r="J37" s="609">
         <f>Fluoro!J335</f>
         <v>0</v>
       </c>
-      <c r="K37" s="595" t="str">
+      <c r="K37" s="610" t="str">
         <f>Fluoro!K335</f>
         <v xml:space="preserve">Auto </v>
       </c>
-      <c r="L37" s="595">
+      <c r="L37" s="610">
         <f>Fluoro!L335</f>
         <v>0</v>
       </c>
-      <c r="M37" s="595">
+      <c r="M37" s="610">
         <f>Fluoro!M335</f>
         <v>0</v>
       </c>
@@ -49950,7 +49948,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="10"/>
-      <c r="C39" s="633" t="str">
+      <c r="C39" s="634" t="str">
         <f>Fluoro!C337</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -50000,7 +49998,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="10"/>
-      <c r="C40" s="633">
+      <c r="C40" s="634">
         <f>Fluoro!C338</f>
         <v>0</v>
       </c>
@@ -50050,7 +50048,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="633">
+      <c r="C41" s="634">
         <f>Fluoro!C339</f>
         <v>0</v>
       </c>
@@ -50100,7 +50098,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="10"/>
-      <c r="C42" s="633" t="str">
+      <c r="C42" s="634" t="str">
         <f>Fluoro!C340</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -50150,7 +50148,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="10"/>
-      <c r="C43" s="633">
+      <c r="C43" s="634">
         <f>Fluoro!C341</f>
         <v>0</v>
       </c>
@@ -50200,7 +50198,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="10"/>
-      <c r="C44" s="633">
+      <c r="C44" s="634">
         <f>Fluoro!C342</f>
         <v>0</v>
       </c>
@@ -50250,7 +50248,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="10"/>
-      <c r="C45" s="633" t="str">
+      <c r="C45" s="634" t="str">
         <f>Fluoro!C343</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -50300,7 +50298,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="10"/>
-      <c r="C46" s="633">
+      <c r="C46" s="634">
         <f>Fluoro!C344</f>
         <v>0</v>
       </c>
@@ -50350,7 +50348,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="10"/>
-      <c r="C47" s="633">
+      <c r="C47" s="634">
         <f>Fluoro!C345</f>
         <v>0</v>
       </c>
@@ -50400,7 +50398,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="10"/>
-      <c r="C48" s="633" t="str">
+      <c r="C48" s="634" t="str">
         <f>Fluoro!C346</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -50450,7 +50448,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="10"/>
-      <c r="C49" s="633">
+      <c r="C49" s="634">
         <f>Fluoro!C347</f>
         <v>0</v>
       </c>
@@ -50500,7 +50498,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="10"/>
-      <c r="C50" s="633">
+      <c r="C50" s="634">
         <f>Fluoro!C348</f>
         <v>0</v>
       </c>
@@ -50550,7 +50548,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="633" t="str">
+      <c r="C51" s="634" t="str">
         <f>Fluoro!C349</f>
         <v xml:space="preserve"> cm</v>
       </c>
@@ -50600,7 +50598,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="10"/>
-      <c r="C52" s="633">
+      <c r="C52" s="634">
         <f>Fluoro!C350</f>
         <v>0</v>
       </c>
@@ -50650,7 +50648,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="10"/>
-      <c r="C53" s="633">
+      <c r="C53" s="634">
         <f>Fluoro!C351</f>
         <v>0</v>
       </c>
@@ -50844,7 +50842,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="10"/>
-      <c r="C60" s="634"/>
+      <c r="C60" s="633"/>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60"/>
@@ -50861,7 +50859,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="10"/>
-      <c r="C61" s="634"/>
+      <c r="C61" s="633"/>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61"/>
@@ -50980,996 +50978,6 @@
         <f>Fluoro!M330</f>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-    </row>
-    <row r="68" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-    </row>
-    <row r="69" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
-    </row>
-    <row r="70" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-    </row>
-    <row r="71" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-    </row>
-    <row r="72" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
-    </row>
-    <row r="73" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
-    </row>
-    <row r="74" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
-    </row>
-    <row r="75" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="J75"/>
-      <c r="K75"/>
-      <c r="L75"/>
-      <c r="M75"/>
-    </row>
-    <row r="76" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
-    </row>
-    <row r="77" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77"/>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77"/>
-      <c r="M77"/>
-    </row>
-    <row r="78" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78"/>
-      <c r="J78"/>
-      <c r="K78"/>
-      <c r="L78"/>
-      <c r="M78"/>
-    </row>
-    <row r="79" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
-      <c r="J79"/>
-      <c r="K79"/>
-      <c r="L79"/>
-      <c r="M79"/>
-    </row>
-    <row r="80" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
-    </row>
-    <row r="81" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
-      <c r="J81"/>
-      <c r="K81"/>
-      <c r="L81"/>
-      <c r="M81"/>
-    </row>
-    <row r="82" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82"/>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
-      <c r="K82"/>
-      <c r="L82"/>
-      <c r="M82"/>
-    </row>
-    <row r="83" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83"/>
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
-      <c r="J83"/>
-      <c r="K83"/>
-      <c r="L83"/>
-      <c r="M83"/>
-    </row>
-    <row r="84" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84"/>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
-      <c r="J84"/>
-      <c r="K84"/>
-      <c r="L84"/>
-      <c r="M84"/>
-    </row>
-    <row r="85" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="J85"/>
-      <c r="K85"/>
-      <c r="L85"/>
-      <c r="M85"/>
-    </row>
-    <row r="86" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
-      <c r="J86"/>
-      <c r="K86"/>
-      <c r="L86"/>
-      <c r="M86"/>
-    </row>
-    <row r="87" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87"/>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
-      <c r="J87"/>
-      <c r="K87"/>
-      <c r="L87"/>
-      <c r="M87"/>
-    </row>
-    <row r="88" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88"/>
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
-      <c r="J88"/>
-      <c r="K88"/>
-      <c r="L88"/>
-      <c r="M88"/>
-    </row>
-    <row r="89" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
-      <c r="J89"/>
-      <c r="K89"/>
-      <c r="L89"/>
-      <c r="M89"/>
-    </row>
-    <row r="90" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
-      <c r="J90"/>
-      <c r="K90"/>
-      <c r="L90"/>
-      <c r="M90"/>
-    </row>
-    <row r="91" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91"/>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91"/>
-      <c r="J91"/>
-      <c r="K91"/>
-      <c r="L91"/>
-      <c r="M91"/>
-    </row>
-    <row r="92" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92"/>
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92"/>
-      <c r="J92"/>
-      <c r="K92"/>
-      <c r="L92"/>
-      <c r="M92"/>
-    </row>
-    <row r="93" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93"/>
-      <c r="B93"/>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
-      <c r="J93"/>
-      <c r="K93"/>
-      <c r="L93"/>
-      <c r="M93"/>
-    </row>
-    <row r="94" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94"/>
-      <c r="B94"/>
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
-      <c r="J94"/>
-      <c r="K94"/>
-      <c r="L94"/>
-      <c r="M94"/>
-    </row>
-    <row r="95" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95"/>
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
-      <c r="J95"/>
-      <c r="K95"/>
-      <c r="L95"/>
-      <c r="M95"/>
-    </row>
-    <row r="96" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96"/>
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
-      <c r="J96"/>
-      <c r="K96"/>
-      <c r="L96"/>
-      <c r="M96"/>
-    </row>
-    <row r="97" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97"/>
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
-      <c r="J97"/>
-      <c r="K97"/>
-      <c r="L97"/>
-      <c r="M97"/>
-    </row>
-    <row r="98" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98"/>
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98"/>
-      <c r="J98"/>
-      <c r="K98"/>
-      <c r="L98"/>
-      <c r="M98"/>
-    </row>
-    <row r="99" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
-      <c r="J99"/>
-      <c r="K99"/>
-      <c r="L99"/>
-      <c r="M99"/>
-    </row>
-    <row r="100" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100"/>
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
-      <c r="J100"/>
-      <c r="K100"/>
-      <c r="L100"/>
-      <c r="M100"/>
-    </row>
-    <row r="101" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101"/>
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101"/>
-      <c r="J101"/>
-      <c r="K101"/>
-      <c r="L101"/>
-      <c r="M101"/>
-    </row>
-    <row r="102" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102"/>
-      <c r="B102"/>
-      <c r="C102" s="634"/>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
-      <c r="G102"/>
-      <c r="H102"/>
-      <c r="I102"/>
-      <c r="J102"/>
-      <c r="K102"/>
-      <c r="L102"/>
-      <c r="M102"/>
-    </row>
-    <row r="103" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103"/>
-      <c r="B103"/>
-      <c r="C103" s="634"/>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103"/>
-      <c r="H103"/>
-      <c r="I103"/>
-      <c r="J103"/>
-      <c r="K103"/>
-      <c r="L103"/>
-      <c r="M103"/>
-    </row>
-    <row r="104" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="C104" s="634"/>
-      <c r="D104"/>
-      <c r="E104"/>
-      <c r="F104"/>
-      <c r="G104"/>
-      <c r="H104"/>
-      <c r="I104"/>
-      <c r="J104"/>
-      <c r="K104"/>
-      <c r="L104"/>
-      <c r="M104"/>
-    </row>
-    <row r="105" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105"/>
-      <c r="B105"/>
-      <c r="C105" s="634"/>
-      <c r="D105"/>
-      <c r="E105"/>
-      <c r="F105"/>
-      <c r="G105"/>
-      <c r="H105"/>
-      <c r="I105"/>
-      <c r="J105"/>
-      <c r="K105"/>
-      <c r="L105"/>
-      <c r="M105"/>
-    </row>
-    <row r="106" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106"/>
-      <c r="B106"/>
-      <c r="C106" s="634"/>
-      <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106"/>
-      <c r="G106"/>
-      <c r="H106"/>
-      <c r="I106"/>
-      <c r="J106"/>
-      <c r="K106"/>
-      <c r="L106"/>
-      <c r="M106"/>
-    </row>
-    <row r="107" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107"/>
-      <c r="B107"/>
-      <c r="C107" s="634"/>
-      <c r="D107"/>
-      <c r="E107"/>
-      <c r="F107"/>
-      <c r="G107"/>
-      <c r="H107"/>
-      <c r="I107"/>
-      <c r="J107"/>
-      <c r="K107"/>
-      <c r="L107"/>
-      <c r="M107"/>
-    </row>
-    <row r="108" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108"/>
-      <c r="B108"/>
-      <c r="C108" s="634"/>
-      <c r="D108"/>
-      <c r="E108"/>
-      <c r="F108"/>
-      <c r="G108"/>
-      <c r="H108"/>
-      <c r="I108"/>
-      <c r="J108"/>
-      <c r="K108"/>
-      <c r="L108"/>
-      <c r="M108"/>
-    </row>
-    <row r="109" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109"/>
-      <c r="B109"/>
-      <c r="C109" s="634"/>
-      <c r="D109"/>
-      <c r="E109"/>
-      <c r="F109"/>
-      <c r="G109"/>
-      <c r="H109"/>
-      <c r="I109"/>
-      <c r="J109"/>
-      <c r="K109"/>
-      <c r="L109"/>
-      <c r="M109"/>
-    </row>
-    <row r="110" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110"/>
-      <c r="B110"/>
-      <c r="C110" s="634"/>
-      <c r="D110"/>
-      <c r="E110"/>
-      <c r="F110"/>
-      <c r="G110"/>
-      <c r="H110"/>
-      <c r="I110"/>
-      <c r="J110"/>
-      <c r="K110"/>
-      <c r="L110"/>
-      <c r="M110"/>
-    </row>
-    <row r="111" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111"/>
-      <c r="B111"/>
-      <c r="C111" s="634"/>
-      <c r="D111"/>
-      <c r="E111"/>
-      <c r="F111"/>
-      <c r="G111"/>
-      <c r="H111"/>
-      <c r="I111"/>
-      <c r="J111"/>
-      <c r="K111"/>
-      <c r="L111"/>
-      <c r="M111"/>
-    </row>
-    <row r="112" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112"/>
-      <c r="B112"/>
-      <c r="C112" s="634"/>
-      <c r="D112"/>
-      <c r="E112"/>
-      <c r="F112"/>
-      <c r="G112"/>
-      <c r="H112"/>
-      <c r="I112"/>
-      <c r="J112"/>
-      <c r="K112"/>
-      <c r="L112"/>
-      <c r="M112"/>
-    </row>
-    <row r="113" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113"/>
-      <c r="B113"/>
-      <c r="C113" s="634"/>
-      <c r="D113"/>
-      <c r="E113"/>
-      <c r="F113"/>
-      <c r="G113"/>
-      <c r="H113"/>
-      <c r="I113"/>
-      <c r="J113"/>
-      <c r="K113"/>
-      <c r="L113"/>
-      <c r="M113"/>
-    </row>
-    <row r="114" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114"/>
-      <c r="B114"/>
-      <c r="C114" s="634"/>
-      <c r="D114"/>
-      <c r="E114"/>
-      <c r="F114"/>
-      <c r="G114"/>
-      <c r="H114"/>
-      <c r="I114"/>
-      <c r="J114"/>
-      <c r="K114"/>
-      <c r="L114"/>
-      <c r="M114"/>
-    </row>
-    <row r="115" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115"/>
-      <c r="B115"/>
-      <c r="C115" s="634"/>
-      <c r="D115"/>
-      <c r="E115"/>
-      <c r="F115"/>
-      <c r="G115"/>
-      <c r="H115"/>
-      <c r="I115"/>
-      <c r="J115"/>
-      <c r="K115"/>
-      <c r="L115"/>
-      <c r="M115"/>
-    </row>
-    <row r="116" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116"/>
-      <c r="B116"/>
-      <c r="C116" s="634"/>
-      <c r="D116"/>
-      <c r="E116"/>
-      <c r="F116"/>
-      <c r="G116"/>
-      <c r="H116"/>
-      <c r="I116"/>
-      <c r="J116"/>
-      <c r="K116"/>
-      <c r="L116"/>
-      <c r="M116"/>
-    </row>
-    <row r="117" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117"/>
-      <c r="B117"/>
-      <c r="C117"/>
-      <c r="D117"/>
-      <c r="E117"/>
-      <c r="F117"/>
-      <c r="G117"/>
-      <c r="H117"/>
-      <c r="I117"/>
-      <c r="J117"/>
-      <c r="K117"/>
-      <c r="L117"/>
-      <c r="M117"/>
-    </row>
-    <row r="118" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118"/>
-      <c r="B118"/>
-      <c r="C118"/>
-      <c r="D118"/>
-      <c r="E118"/>
-      <c r="F118"/>
-      <c r="G118"/>
-      <c r="H118"/>
-      <c r="I118"/>
-      <c r="J118"/>
-      <c r="K118"/>
-      <c r="L118"/>
-      <c r="M118"/>
-    </row>
-    <row r="119" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119"/>
-      <c r="B119"/>
-      <c r="C119"/>
-      <c r="D119"/>
-      <c r="E119"/>
-      <c r="F119"/>
-      <c r="G119"/>
-      <c r="H119"/>
-      <c r="I119"/>
-      <c r="J119"/>
-      <c r="K119"/>
-      <c r="L119"/>
-      <c r="M119"/>
-    </row>
-    <row r="120" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120"/>
-      <c r="B120"/>
-      <c r="C120"/>
-      <c r="D120"/>
-      <c r="E120"/>
-      <c r="F120"/>
-      <c r="G120"/>
-      <c r="H120"/>
-      <c r="I120"/>
-      <c r="J120"/>
-      <c r="K120"/>
-      <c r="L120"/>
-      <c r="M120"/>
-    </row>
-    <row r="121" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121"/>
-      <c r="B121"/>
-      <c r="C121"/>
-      <c r="D121"/>
-      <c r="E121"/>
-      <c r="F121"/>
-      <c r="G121"/>
-      <c r="H121"/>
-      <c r="I121"/>
-      <c r="J121"/>
-      <c r="K121"/>
-      <c r="L121"/>
-      <c r="M121"/>
-    </row>
-    <row r="122" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122"/>
-      <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
-      <c r="G122"/>
-      <c r="H122"/>
-      <c r="I122"/>
-      <c r="J122"/>
-      <c r="K122"/>
-      <c r="L122"/>
-      <c r="M122"/>
-    </row>
-    <row r="123" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123"/>
-      <c r="B123"/>
-      <c r="C123"/>
-      <c r="D123"/>
-      <c r="E123"/>
-      <c r="F123"/>
-      <c r="G123"/>
-      <c r="H123"/>
-      <c r="I123"/>
-      <c r="J123"/>
-      <c r="K123"/>
-      <c r="L123"/>
-      <c r="M123"/>
-    </row>
-    <row r="124" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124"/>
-      <c r="B124"/>
-      <c r="C124" s="634"/>
-      <c r="D124"/>
-      <c r="E124"/>
-      <c r="F124"/>
-      <c r="G124"/>
-      <c r="H124"/>
-      <c r="I124"/>
-      <c r="J124"/>
-      <c r="K124"/>
-      <c r="L124"/>
-      <c r="M124"/>
-    </row>
-    <row r="125" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125"/>
-      <c r="B125"/>
-      <c r="C125" s="634"/>
-      <c r="D125"/>
-      <c r="E125"/>
-      <c r="F125"/>
-      <c r="G125"/>
-      <c r="H125"/>
-      <c r="I125"/>
-      <c r="J125"/>
-      <c r="K125"/>
-      <c r="L125"/>
-      <c r="M125"/>
-    </row>
-    <row r="126" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126"/>
-      <c r="B126"/>
-      <c r="C126"/>
-      <c r="D126"/>
-      <c r="E126"/>
-      <c r="F126"/>
-      <c r="G126"/>
-      <c r="H126"/>
-      <c r="I126"/>
-      <c r="J126"/>
-      <c r="K126"/>
-      <c r="L126"/>
-      <c r="M126"/>
-    </row>
-    <row r="127" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127"/>
-      <c r="B127"/>
-      <c r="C127"/>
-      <c r="D127"/>
-      <c r="E127"/>
-      <c r="F127"/>
-      <c r="G127"/>
-      <c r="H127"/>
-      <c r="I127"/>
-      <c r="J127"/>
-      <c r="K127"/>
-      <c r="L127"/>
-      <c r="M127"/>
-    </row>
-    <row r="128" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128"/>
-      <c r="B128"/>
-      <c r="C128"/>
-      <c r="D128"/>
-      <c r="E128"/>
-      <c r="F128"/>
-      <c r="G128"/>
-      <c r="H128"/>
-      <c r="I128"/>
-      <c r="J128"/>
-      <c r="K128"/>
-      <c r="L128"/>
-      <c r="M128"/>
-    </row>
-    <row r="129" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129"/>
-      <c r="B129"/>
-      <c r="C129"/>
-      <c r="D129"/>
-      <c r="E129"/>
-      <c r="F129"/>
-      <c r="G129"/>
-      <c r="H129"/>
-      <c r="I129"/>
-      <c r="J129"/>
-      <c r="K129"/>
-      <c r="L129"/>
-      <c r="M129"/>
-    </row>
-    <row r="130" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130"/>
-      <c r="B130"/>
-      <c r="C130"/>
-      <c r="D130"/>
-      <c r="E130"/>
-      <c r="F130"/>
-      <c r="G130"/>
-      <c r="H130"/>
-      <c r="I130"/>
-      <c r="J130"/>
-      <c r="K130"/>
-      <c r="L130"/>
-      <c r="M130"/>
-    </row>
-    <row r="131" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131"/>
-      <c r="B131"/>
-      <c r="C131"/>
-      <c r="D131"/>
-      <c r="E131"/>
-      <c r="F131"/>
-      <c r="G131"/>
-      <c r="H131"/>
-      <c r="I131"/>
-      <c r="J131"/>
-      <c r="K131"/>
-      <c r="L131"/>
-      <c r="M131"/>
-    </row>
-    <row r="132" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132"/>
-      <c r="B132"/>
-      <c r="C132"/>
-      <c r="D132"/>
-      <c r="E132"/>
-      <c r="F132"/>
-      <c r="G132"/>
-      <c r="H132"/>
-      <c r="I132"/>
-      <c r="J132"/>
-      <c r="K132"/>
-      <c r="L132"/>
-      <c r="M132"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -51985,37 +50993,30 @@
       </headerFooter>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="21">
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="C107:C111"/>
-    <mergeCell ref="C112:C116"/>
-    <mergeCell ref="C124:C125"/>
+  <mergeCells count="17">
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="C45:C47"/>
     <mergeCell ref="C48:C50"/>
     <mergeCell ref="C51:C53"/>
     <mergeCell ref="C60:C61"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.88611111111111096" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="66" max="16383" man="1"/>
-  </rowBreaks>
 </worksheet>
 </file>
 
@@ -52038,29 +51039,29 @@
       </c>
       <c r="B1" s="635"/>
       <c r="N1" s="278"/>
-      <c r="O1" s="603" t="str">
+      <c r="O1" s="614" t="str">
         <f>Fluoro!O105</f>
         <v>Patient Entrance Exposure Rate (Fluoroscopy)*</v>
       </c>
-      <c r="P1" s="603"/>
-      <c r="Q1" s="603"/>
-      <c r="R1" s="603" t="s">
+      <c r="P1" s="614"/>
+      <c r="Q1" s="614"/>
+      <c r="R1" s="614" t="s">
         <v>407</v>
       </c>
-      <c r="S1" s="603"/>
-      <c r="T1" s="603"/>
+      <c r="S1" s="614"/>
+      <c r="T1" s="614"/>
       <c r="V1" s="278"/>
-      <c r="W1" s="603" t="str">
+      <c r="W1" s="614" t="str">
         <f>Fluoro!O137</f>
         <v>Patient Entrance Exposure Rate – Digital Acquisition</v>
       </c>
-      <c r="X1" s="603"/>
-      <c r="Y1" s="603"/>
-      <c r="Z1" s="603" t="s">
+      <c r="X1" s="614"/>
+      <c r="Y1" s="614"/>
+      <c r="Z1" s="614" t="s">
         <v>407</v>
       </c>
-      <c r="AA1" s="603"/>
-      <c r="AB1" s="603"/>
+      <c r="AA1" s="614"/>
+      <c r="AB1" s="614"/>
     </row>
     <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="279">
@@ -56053,14 +55054,14 @@
       <c r="B75" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E75" s="603" t="s">
+      <c r="E75" s="614" t="s">
         <v>420</v>
       </c>
-      <c r="F75" s="603"/>
-      <c r="I75" s="603" t="s">
+      <c r="F75" s="614"/>
+      <c r="I75" s="614" t="s">
         <v>421</v>
       </c>
-      <c r="J75" s="603"/>
+      <c r="J75" s="614"/>
     </row>
     <row r="76" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">

--- a/MUSCCArm.xlsx
+++ b/MUSCCArm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Fluoro" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="460">
   <si>
     <t>Print Area</t>
   </si>
@@ -326,9 +326,6 @@
   </si>
   <si>
     <t>**Input only one of the following</t>
-  </si>
-  <si>
-    <t>DHEC form SC-RAH-20 “Notice to Employees” posted or referenced</t>
   </si>
   <si>
     <t>numbers or names</t>
@@ -6412,6 +6409,138 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignme